--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4A9366-F2EC-4381-8D12-D0FCC7DCDB62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A1766-CC93-4372-BEA8-F6D5F9006848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7400D3-4408-4AB0-A4E0-D2D392275FE0}">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,6 +711,88 @@
       <c r="F5">
         <v>668</v>
       </c>
+      <c r="G5">
+        <v>7461</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>223</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>2063</v>
+      </c>
+      <c r="L5">
+        <v>623</v>
+      </c>
+      <c r="M5">
+        <v>599</v>
+      </c>
+      <c r="N5">
+        <v>3519</v>
+      </c>
+      <c r="O5">
+        <v>3295</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>180</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
+        <v>27</v>
+      </c>
+      <c r="D6">
+        <v>262</v>
+      </c>
+      <c r="E6">
+        <v>17598</v>
+      </c>
+      <c r="F6">
+        <v>642</v>
+      </c>
+      <c r="G6">
+        <v>18571</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>343</v>
+      </c>
+      <c r="J6">
+        <v>18</v>
+      </c>
+      <c r="K6">
+        <v>5645</v>
+      </c>
+      <c r="L6">
+        <v>903</v>
+      </c>
+      <c r="M6">
+        <v>540</v>
+      </c>
+      <c r="N6">
+        <v>7473</v>
+      </c>
+      <c r="O6">
+        <v>7106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>180</v>
+      </c>
+      <c r="B7">
+        <v>25000</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4A1766-CC93-4372-BEA8-F6D5F9006848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5269CC-A0E4-4354-AC40-38B3AE115C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -127,12 +127,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -147,7 +153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -155,6 +161,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -509,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7400D3-4408-4AB0-A4E0-D2D392275FE0}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -645,50 +652,50 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>180</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1600</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="3">
         <v>20</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
         <v>2864</v>
       </c>
-      <c r="F4">
-        <v>682</v>
-      </c>
-      <c r="G4">
+      <c r="F4" s="3">
+        <v>687</v>
+      </c>
+      <c r="G4" s="3">
         <v>3571</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <v>0</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <v>253</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="3">
         <v>4</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="3">
         <v>1202</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="3">
         <v>389</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="3">
         <v>631</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <v>2479</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="3">
         <v>2226</v>
       </c>
     </row>
@@ -703,13 +710,13 @@
         <v>13</v>
       </c>
       <c r="D5">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E5">
         <v>6670</v>
       </c>
       <c r="F5">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G5">
         <v>7461</v>
@@ -750,13 +757,13 @@
         <v>27</v>
       </c>
       <c r="D6">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="E6">
         <v>17598</v>
       </c>
       <c r="F6">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G6">
         <v>18571</v>
@@ -791,6 +798,322 @@
         <v>180</v>
       </c>
       <c r="B7">
+        <v>25000</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>740</v>
+      </c>
+      <c r="E7">
+        <v>42767</v>
+      </c>
+      <c r="F7">
+        <v>604</v>
+      </c>
+      <c r="G7">
+        <v>44182</v>
+      </c>
+      <c r="H7">
+        <v>55</v>
+      </c>
+      <c r="I7">
+        <v>190</v>
+      </c>
+      <c r="J7">
+        <v>33</v>
+      </c>
+      <c r="K7">
+        <v>15196</v>
+      </c>
+      <c r="L7">
+        <v>1535</v>
+      </c>
+      <c r="M7">
+        <v>495</v>
+      </c>
+      <c r="N7">
+        <v>17504</v>
+      </c>
+      <c r="O7">
+        <v>17259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>640</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>11</v>
+      </c>
+      <c r="E9">
+        <v>1354</v>
+      </c>
+      <c r="F9">
+        <v>19747</v>
+      </c>
+      <c r="G9">
+        <v>21120</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>869</v>
+      </c>
+      <c r="J9">
+        <v>10</v>
+      </c>
+      <c r="K9">
+        <v>695</v>
+      </c>
+      <c r="L9">
+        <v>279</v>
+      </c>
+      <c r="M9">
+        <v>17263</v>
+      </c>
+      <c r="N9">
+        <v>19117</v>
+      </c>
+      <c r="O9">
+        <v>18247</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>1600</v>
+      </c>
+      <c r="C10">
+        <v>12</v>
+      </c>
+      <c r="D10">
+        <v>37</v>
+      </c>
+      <c r="E10">
+        <v>2847</v>
+      </c>
+      <c r="F10">
+        <v>19750</v>
+      </c>
+      <c r="G10">
+        <v>22646</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>595</v>
+      </c>
+      <c r="J10">
+        <v>13</v>
+      </c>
+      <c r="K10">
+        <v>1313</v>
+      </c>
+      <c r="L10">
+        <v>403</v>
+      </c>
+      <c r="M10">
+        <v>17046</v>
+      </c>
+      <c r="N10">
+        <v>19372</v>
+      </c>
+      <c r="O10">
+        <v>18775</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>4000</v>
+      </c>
+      <c r="C11">
+        <v>13</v>
+      </c>
+      <c r="D11">
+        <v>120</v>
+      </c>
+      <c r="E11">
+        <v>6659</v>
+      </c>
+      <c r="F11">
+        <v>19901</v>
+      </c>
+      <c r="G11">
+        <v>26693</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>560</v>
+      </c>
+      <c r="J11">
+        <v>15</v>
+      </c>
+      <c r="K11">
+        <v>2350</v>
+      </c>
+      <c r="L11">
+        <v>662</v>
+      </c>
+      <c r="M11">
+        <v>16614</v>
+      </c>
+      <c r="N11">
+        <v>20205</v>
+      </c>
+      <c r="O11">
+        <v>19641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>10</v>
+      </c>
+      <c r="B15">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>10</v>
+      </c>
+      <c r="B16">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>10</v>
+      </c>
+      <c r="B17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>10</v>
+      </c>
+      <c r="B18">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>5</v>
+      </c>
+      <c r="B19">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>5</v>
+      </c>
+      <c r="B20">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>5</v>
+      </c>
+      <c r="B22">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>0</v>
+      </c>
+      <c r="B28">
         <v>25000</v>
       </c>
     </row>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5269CC-A0E4-4354-AC40-38B3AE115C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E5B4EA-4C3A-4BB7-B5EA-ACCC2EC1AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -158,10 +158,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -516,10 +516,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7400D3-4408-4AB0-A4E0-D2D392275FE0}">
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,23 +540,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -652,50 +652,50 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
         <v>180</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>1600</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>20</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>2864</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="2">
         <v>687</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="2">
         <v>3571</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="2">
         <v>0</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="2">
         <v>253</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="2">
         <v>4</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4" s="2">
         <v>1202</v>
       </c>
-      <c r="L4" s="3">
+      <c r="L4" s="2">
         <v>389</v>
       </c>
-      <c r="M4" s="3">
+      <c r="M4" s="2">
         <v>631</v>
       </c>
-      <c r="N4" s="3">
+      <c r="N4" s="2">
         <v>2479</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="2">
         <v>2226</v>
       </c>
     </row>
@@ -988,6 +988,45 @@
       <c r="B12">
         <v>10000</v>
       </c>
+      <c r="C12">
+        <v>51</v>
+      </c>
+      <c r="D12">
+        <v>333</v>
+      </c>
+      <c r="E12">
+        <v>17567</v>
+      </c>
+      <c r="F12">
+        <v>19671</v>
+      </c>
+      <c r="G12">
+        <v>37622</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>264</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>6037</v>
+      </c>
+      <c r="L12">
+        <v>1153</v>
+      </c>
+      <c r="M12">
+        <v>15814</v>
+      </c>
+      <c r="N12">
+        <v>23329</v>
+      </c>
+      <c r="O12">
+        <v>23045</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -996,13 +1035,44 @@
       <c r="B13">
         <v>25000</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14">
-        <v>640</v>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>761</v>
+      </c>
+      <c r="E13">
+        <v>42746</v>
+      </c>
+      <c r="F13">
+        <v>19236</v>
+      </c>
+      <c r="G13">
+        <v>62853</v>
+      </c>
+      <c r="H13">
+        <v>62</v>
+      </c>
+      <c r="I13">
+        <v>240</v>
+      </c>
+      <c r="J13">
+        <v>93</v>
+      </c>
+      <c r="K13">
+        <v>15622</v>
+      </c>
+      <c r="L13">
+        <v>1845</v>
+      </c>
+      <c r="M13">
+        <v>14215</v>
+      </c>
+      <c r="N13">
+        <v>32077</v>
+      </c>
+      <c r="O13">
+        <v>31775</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -1010,7 +1080,46 @@
         <v>10</v>
       </c>
       <c r="B15">
-        <v>1600</v>
+        <v>640</v>
+      </c>
+      <c r="C15">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>16</v>
+      </c>
+      <c r="E15">
+        <v>1349</v>
+      </c>
+      <c r="F15">
+        <v>47751</v>
+      </c>
+      <c r="G15">
+        <v>49147</v>
+      </c>
+      <c r="H15">
+        <v>2</v>
+      </c>
+      <c r="I15">
+        <v>1097</v>
+      </c>
+      <c r="J15">
+        <v>52</v>
+      </c>
+      <c r="K15">
+        <v>778</v>
+      </c>
+      <c r="L15">
+        <v>208</v>
+      </c>
+      <c r="M15">
+        <v>39896</v>
+      </c>
+      <c r="N15">
+        <v>42033</v>
+      </c>
+      <c r="O15">
+        <v>40934</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -1018,7 +1127,7 @@
         <v>10</v>
       </c>
       <c r="B16">
-        <v>4000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1026,7 +1135,7 @@
         <v>10</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1034,23 +1143,15 @@
         <v>10</v>
       </c>
       <c r="B18">
-        <v>25000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B19">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>5</v>
-      </c>
-      <c r="B20">
-        <v>1600</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1058,7 +1159,7 @@
         <v>5</v>
       </c>
       <c r="B21">
-        <v>4000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1066,7 +1167,7 @@
         <v>5</v>
       </c>
       <c r="B22">
-        <v>10000</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1074,31 +1175,23 @@
         <v>5</v>
       </c>
       <c r="B23">
-        <v>25000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B24">
-        <v>640</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B25">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>0</v>
-      </c>
-      <c r="B26">
-        <v>4000</v>
+        <v>25000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1106,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="B27">
-        <v>10000</v>
+        <v>640</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1114,6 +1207,30 @@
         <v>0</v>
       </c>
       <c r="B28">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>0</v>
+      </c>
+      <c r="B31">
         <v>25000</v>
       </c>
     </row>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E5B4EA-4C3A-4BB7-B5EA-ACCC2EC1AA48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D626D-3B61-4A06-8C43-C806944249EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -519,7 +519,7 @@
   <dimension ref="A1:O31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,16 +1129,94 @@
       <c r="B16">
         <v>1600</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>67</v>
+      </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2861</v>
+      </c>
+      <c r="F16">
+        <v>47651</v>
+      </c>
+      <c r="G16">
+        <v>50602</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>797</v>
+      </c>
+      <c r="J16">
+        <v>77</v>
+      </c>
+      <c r="K16">
+        <v>1469</v>
+      </c>
+      <c r="L16">
+        <v>336</v>
+      </c>
+      <c r="M16">
+        <v>39388</v>
+      </c>
+      <c r="N16">
+        <v>42069</v>
+      </c>
+      <c r="O16">
+        <v>41270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
       <c r="B17">
         <v>4000</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>166</v>
+      </c>
+      <c r="D17">
+        <v>104</v>
+      </c>
+      <c r="E17">
+        <v>6675</v>
+      </c>
+      <c r="F17">
+        <v>47395</v>
+      </c>
+      <c r="G17">
+        <v>54340</v>
+      </c>
+      <c r="H17">
+        <v>8</v>
+      </c>
+      <c r="I17">
+        <v>525</v>
+      </c>
+      <c r="J17">
+        <v>130</v>
+      </c>
+      <c r="K17">
+        <v>2720</v>
+      </c>
+      <c r="L17">
+        <v>636</v>
+      </c>
+      <c r="M17">
+        <v>38436</v>
+      </c>
+      <c r="N17">
+        <v>42455</v>
+      </c>
+      <c r="O17">
+        <v>41922</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -1146,7 +1224,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -1154,7 +1232,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -1162,7 +1240,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -1170,7 +1248,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -1178,7 +1256,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1186,7 +1264,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1194,7 +1272,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1202,7 +1280,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1210,7 +1288,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1218,7 +1296,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1226,7 +1304,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{676D626D-3B61-4A06-8C43-C806944249EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AF815-A004-4BBF-9CED-0BBBD29701FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -118,7 +118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,8 +126,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -140,6 +147,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -150,10 +162,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -162,8 +175,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Gut" xfId="1" builtinId="26"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -516,10 +531,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7400D3-4408-4AB0-A4E0-D2D392275FE0}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,9 +552,10 @@
     <col min="13" max="13" width="22.85546875" customWidth="1"/>
     <col min="14" max="14" width="13.85546875" customWidth="1"/>
     <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
@@ -558,7 +574,7 @@
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -605,7 +621,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>180</v>
       </c>
@@ -651,8 +667,15 @@
       <c r="O3">
         <v>1680</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>180</v>
       </c>
@@ -698,8 +721,12 @@
       <c r="O4" s="2">
         <v>2226</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>180</v>
       </c>
@@ -745,8 +772,12 @@
       <c r="O5">
         <v>3295</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>180</v>
       </c>
@@ -792,8 +823,12 @@
       <c r="O6">
         <v>7106</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>180</v>
       </c>
@@ -839,8 +874,12 @@
       <c r="O7">
         <v>17259</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>25</v>
       </c>
@@ -886,8 +925,12 @@
       <c r="O9">
         <v>18247</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P9">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>25</v>
       </c>
@@ -933,8 +976,12 @@
       <c r="O10">
         <v>18775</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P10">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>25</v>
       </c>
@@ -980,8 +1027,12 @@
       <c r="O11">
         <v>19641</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P11">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>25</v>
       </c>
@@ -1027,8 +1078,12 @@
       <c r="O12">
         <v>23045</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P12">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>25</v>
       </c>
@@ -1074,8 +1129,12 @@
       <c r="O13">
         <v>31775</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P13">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -1121,8 +1180,12 @@
       <c r="O15">
         <v>40934</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P15">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -1168,8 +1231,12 @@
       <c r="O16">
         <v>41270</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P16">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -1215,56 +1282,298 @@
       <c r="O17">
         <v>41922</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P17">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
       <c r="B18">
         <v>10000</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="C18">
+        <v>321</v>
+      </c>
+      <c r="D18">
+        <v>267</v>
+      </c>
+      <c r="E18">
+        <v>17633</v>
+      </c>
+      <c r="F18">
+        <v>47248</v>
+      </c>
+      <c r="G18">
+        <v>65469</v>
+      </c>
+      <c r="H18">
+        <v>13</v>
+      </c>
+      <c r="I18">
+        <v>655</v>
+      </c>
+      <c r="J18">
+        <v>262</v>
+      </c>
+      <c r="K18">
+        <v>6718</v>
+      </c>
+      <c r="L18">
+        <v>1091</v>
+      </c>
+      <c r="M18">
+        <v>36948</v>
+      </c>
+      <c r="N18">
+        <v>45687</v>
+      </c>
+      <c r="O18">
+        <v>45019</v>
+      </c>
+      <c r="P18">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>10</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="C19" s="4">
+        <v>695</v>
+      </c>
+      <c r="D19" s="4">
+        <v>515</v>
+      </c>
+      <c r="E19" s="4">
+        <v>39917</v>
+      </c>
+      <c r="F19" s="4">
+        <v>47055</v>
+      </c>
+      <c r="G19" s="4">
+        <v>88182</v>
+      </c>
+      <c r="H19" s="4">
+        <v>76</v>
+      </c>
+      <c r="I19" s="4">
+        <v>382</v>
+      </c>
+      <c r="J19" s="4">
+        <v>467</v>
+      </c>
+      <c r="K19" s="4">
+        <v>14442</v>
+      </c>
+      <c r="L19" s="4">
+        <v>913</v>
+      </c>
+      <c r="M19" s="4">
+        <v>29726</v>
+      </c>
+      <c r="N19" s="4">
+        <v>51341</v>
+      </c>
+      <c r="O19" s="4">
+        <v>50853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>5</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="4">
         <v>640</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="C21" s="4">
+        <v>28</v>
+      </c>
+      <c r="D21" s="4">
+        <v>18</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1310</v>
+      </c>
+      <c r="F21" s="4">
+        <v>67618</v>
+      </c>
+      <c r="G21" s="4">
+        <v>68974</v>
+      </c>
+      <c r="H21" s="4">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>1063</v>
+      </c>
+      <c r="J21" s="4">
+        <v>35</v>
+      </c>
+      <c r="K21" s="4">
+        <v>552</v>
+      </c>
+      <c r="L21" s="4">
+        <v>429</v>
+      </c>
+      <c r="M21" s="4">
+        <v>55958</v>
+      </c>
+      <c r="N21" s="4">
+        <v>58037</v>
+      </c>
+      <c r="O21" s="4">
+        <v>56974</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>5</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="4">
         <v>1600</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="C22" s="4">
+        <v>61</v>
+      </c>
+      <c r="D22" s="4">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4">
+        <v>2749</v>
+      </c>
+      <c r="F22" s="4">
+        <v>67696</v>
+      </c>
+      <c r="G22" s="4">
+        <v>70534</v>
+      </c>
+      <c r="H22" s="4">
+        <v>2</v>
+      </c>
+      <c r="I22" s="4">
+        <v>907</v>
+      </c>
+      <c r="J22" s="4">
+        <v>89</v>
+      </c>
+      <c r="K22" s="4">
+        <v>1280</v>
+      </c>
+      <c r="L22" s="4">
+        <v>533</v>
+      </c>
+      <c r="M22" s="4">
+        <v>55683</v>
+      </c>
+      <c r="N22" s="4">
+        <v>58494</v>
+      </c>
+      <c r="O22" s="4">
+        <v>57585</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>5</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="4">
         <v>4000</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C23" s="4">
+        <v>138</v>
+      </c>
+      <c r="D23" s="4">
+        <v>83</v>
+      </c>
+      <c r="E23" s="4">
+        <v>6434</v>
+      </c>
+      <c r="F23" s="4">
+        <v>67310</v>
+      </c>
+      <c r="G23" s="4">
+        <v>73965</v>
+      </c>
+      <c r="H23" s="4">
+        <v>5</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1389</v>
+      </c>
+      <c r="J23" s="4">
+        <v>156</v>
+      </c>
+      <c r="K23" s="4">
+        <v>2647</v>
+      </c>
+      <c r="L23" s="4">
+        <v>764</v>
+      </c>
+      <c r="M23" s="4">
+        <v>53889</v>
+      </c>
+      <c r="N23" s="4">
+        <v>58850</v>
+      </c>
+      <c r="O23" s="4">
+        <v>57456</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
       <c r="B24">
         <v>10000</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>225</v>
+      </c>
+      <c r="D24" s="4">
+        <v>267</v>
+      </c>
+      <c r="E24" s="4">
+        <v>16686</v>
+      </c>
+      <c r="F24" s="4">
+        <v>66949</v>
+      </c>
+      <c r="G24" s="4">
+        <v>84127</v>
+      </c>
+      <c r="H24" s="4">
+        <v>25</v>
+      </c>
+      <c r="I24" s="4">
+        <v>709</v>
+      </c>
+      <c r="J24" s="4">
+        <v>238</v>
+      </c>
+      <c r="K24" s="4">
+        <v>6525</v>
+      </c>
+      <c r="L24" s="4">
+        <v>1316</v>
+      </c>
+      <c r="M24" s="4">
+        <v>52124</v>
+      </c>
+      <c r="N24" s="4">
+        <v>60937</v>
+      </c>
+      <c r="O24" s="4">
+        <v>60203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -1272,7 +1581,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -1280,7 +1589,7 @@
         <v>640</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>0</v>
       </c>
@@ -1288,7 +1597,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -1296,7 +1605,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>0</v>
       </c>
@@ -1304,7 +1613,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>0</v>
       </c>
@@ -1318,5 +1627,6 @@
     <mergeCell ref="H1:O1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2AF815-A004-4BBF-9CED-0BBBD29701FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD9A375-E884-42F7-B09A-AD4F578EAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -534,7 +534,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1526,14 +1526,14 @@
         <v>57456</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>5</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="4">
         <v>10000</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <v>225</v>
       </c>
       <c r="D24" s="4">
@@ -1573,28 +1573,145 @@
         <v>60203</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>5</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="4">
         <v>25000</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="C25" s="4">
+        <v>576</v>
+      </c>
+      <c r="D25" s="4">
+        <v>594</v>
+      </c>
+      <c r="E25" s="4">
+        <v>39812</v>
+      </c>
+      <c r="F25" s="4">
+        <v>66947</v>
+      </c>
+      <c r="G25" s="4">
+        <v>107929</v>
+      </c>
+      <c r="H25" s="4">
+        <v>47</v>
+      </c>
+      <c r="I25" s="4">
+        <v>556</v>
+      </c>
+      <c r="J25" s="4">
+        <v>412</v>
+      </c>
+      <c r="K25" s="4">
+        <v>13788</v>
+      </c>
+      <c r="L25" s="4">
+        <v>2287</v>
+      </c>
+      <c r="M25" s="4">
+        <v>48020</v>
+      </c>
+      <c r="N25" s="4">
+        <v>65110</v>
+      </c>
+      <c r="O25" s="4">
+        <v>64507</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>0</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="4">
         <v>640</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="C27" s="4">
+        <v>121</v>
+      </c>
+      <c r="D27" s="4">
+        <v>17</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1309</v>
+      </c>
+      <c r="F27" s="4">
+        <v>350653</v>
+      </c>
+      <c r="G27" s="4">
+        <v>352100</v>
+      </c>
+      <c r="H27" s="4">
+        <v>5</v>
+      </c>
+      <c r="I27" s="4">
+        <v>5418</v>
+      </c>
+      <c r="J27" s="4">
+        <v>256</v>
+      </c>
+      <c r="K27" s="4">
+        <v>564</v>
+      </c>
+      <c r="L27" s="4">
+        <v>369</v>
+      </c>
+      <c r="M27" s="4">
+        <v>267518</v>
+      </c>
+      <c r="N27" s="4">
+        <v>274130</v>
+      </c>
+      <c r="O27" s="4">
+        <v>268707</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>0</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="4">
         <v>1600</v>
+      </c>
+      <c r="C28" s="4">
+        <v>224</v>
+      </c>
+      <c r="D28" s="4">
+        <v>36</v>
+      </c>
+      <c r="E28" s="4">
+        <v>2741</v>
+      </c>
+      <c r="F28" s="4">
+        <v>350394</v>
+      </c>
+      <c r="G28" s="4">
+        <v>353395</v>
+      </c>
+      <c r="H28" s="4">
+        <v>8</v>
+      </c>
+      <c r="I28" s="4">
+        <v>5566</v>
+      </c>
+      <c r="J28" s="4">
+        <v>409</v>
+      </c>
+      <c r="K28" s="4">
+        <v>1186</v>
+      </c>
+      <c r="L28" s="4">
+        <v>567</v>
+      </c>
+      <c r="M28" s="4">
+        <v>263821</v>
+      </c>
+      <c r="N28" s="4">
+        <v>271557</v>
+      </c>
+      <c r="O28" s="4">
+        <v>265983</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADD9A375-E884-42F7-B09A-AD4F578EAA89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC87832A-7656-4E09-9F3F-48DA0987E61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,10 +172,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+      <selection activeCell="A31" sqref="A31:XFD31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,23 +556,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1338,404 +1338,521 @@
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4">
+    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>10</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="3">
         <v>25000</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="3">
         <v>695</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="3">
         <v>515</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>39917</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="3">
         <v>47055</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>88182</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="3">
         <v>76</v>
       </c>
-      <c r="I19" s="4">
+      <c r="I19" s="3">
         <v>382</v>
       </c>
-      <c r="J19" s="4">
+      <c r="J19" s="3">
         <v>467</v>
       </c>
-      <c r="K19" s="4">
+      <c r="K19" s="3">
         <v>14442</v>
       </c>
-      <c r="L19" s="4">
+      <c r="L19" s="3">
         <v>913</v>
       </c>
-      <c r="M19" s="4">
+      <c r="M19" s="3">
         <v>29726</v>
       </c>
-      <c r="N19" s="4">
+      <c r="N19" s="3">
         <v>51341</v>
       </c>
-      <c r="O19" s="4">
+      <c r="O19" s="3">
         <v>50853</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4">
+    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>5</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="3">
         <v>640</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>28</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="3">
         <v>18</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>1310</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="3">
         <v>67618</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>68974</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="3">
         <v>0</v>
       </c>
-      <c r="I21" s="4">
+      <c r="I21" s="3">
         <v>1063</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="3">
         <v>35</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>552</v>
       </c>
-      <c r="L21" s="4">
+      <c r="L21" s="3">
         <v>429</v>
       </c>
-      <c r="M21" s="4">
+      <c r="M21" s="3">
         <v>55958</v>
       </c>
-      <c r="N21" s="4">
+      <c r="N21" s="3">
         <v>58037</v>
       </c>
-      <c r="O21" s="4">
+      <c r="O21" s="3">
         <v>56974</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4">
+    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>5</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="3">
         <v>1600</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="3">
         <v>61</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="3">
         <v>28</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>2749</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="3">
         <v>67696</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>70534</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="3">
         <v>2</v>
       </c>
-      <c r="I22" s="4">
+      <c r="I22" s="3">
         <v>907</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="3">
         <v>89</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>1280</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="3">
         <v>533</v>
       </c>
-      <c r="M22" s="4">
+      <c r="M22" s="3">
         <v>55683</v>
       </c>
-      <c r="N22" s="4">
+      <c r="N22" s="3">
         <v>58494</v>
       </c>
-      <c r="O22" s="4">
+      <c r="O22" s="3">
         <v>57585</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4">
+    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>5</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="3">
         <v>4000</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C23" s="3">
         <v>138</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="3">
         <v>83</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>6434</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="3">
         <v>67310</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>73965</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="3">
         <v>5</v>
       </c>
-      <c r="I23" s="4">
+      <c r="I23" s="3">
         <v>1389</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="3">
         <v>156</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>2647</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="3">
         <v>764</v>
       </c>
-      <c r="M23" s="4">
+      <c r="M23" s="3">
         <v>53889</v>
       </c>
-      <c r="N23" s="4">
+      <c r="N23" s="3">
         <v>58850</v>
       </c>
-      <c r="O23" s="4">
+      <c r="O23" s="3">
         <v>57456</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4">
+    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>5</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="3">
         <v>10000</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24" s="3">
         <v>225</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="3">
         <v>267</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>16686</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="3">
         <v>66949</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>84127</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="3">
         <v>25</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="3">
         <v>709</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="3">
         <v>238</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>6525</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="3">
         <v>1316</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24" s="3">
         <v>52124</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24" s="3">
         <v>60937</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24" s="3">
         <v>60203</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4">
+    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>5</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="3">
         <v>25000</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25" s="3">
         <v>576</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="3">
         <v>594</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>39812</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="3">
         <v>66947</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>107929</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="3">
         <v>47</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25" s="3">
         <v>556</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25" s="3">
         <v>412</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>13788</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25" s="3">
         <v>2287</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25" s="3">
         <v>48020</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25" s="3">
         <v>65110</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25" s="3">
         <v>64507</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4">
+    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
         <v>0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="3">
         <v>640</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27" s="3">
         <v>121</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="3">
         <v>17</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>1309</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="3">
         <v>350653</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>352100</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="3">
         <v>5</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27" s="3">
         <v>5418</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27" s="3">
         <v>256</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27" s="3">
         <v>564</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="3">
         <v>369</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27" s="3">
         <v>267518</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27" s="3">
         <v>274130</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27" s="3">
         <v>268707</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4">
+    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
         <v>0</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="3">
         <v>1600</v>
       </c>
-      <c r="C28" s="4">
+      <c r="C28" s="3">
         <v>224</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="3">
         <v>36</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>2741</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="3">
         <v>350394</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>353395</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="3">
         <v>8</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="3">
         <v>5566</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="3">
         <v>409</v>
       </c>
-      <c r="K28" s="4">
+      <c r="K28" s="3">
         <v>1186</v>
       </c>
-      <c r="L28" s="4">
+      <c r="L28" s="3">
         <v>567</v>
       </c>
-      <c r="M28" s="4">
+      <c r="M28" s="3">
         <v>263821</v>
       </c>
-      <c r="N28" s="4">
+      <c r="N28" s="3">
         <v>271557</v>
       </c>
-      <c r="O28" s="4">
+      <c r="O28" s="3">
         <v>265983</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29">
+    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
         <v>0</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="3">
         <v>4000</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="C29" s="3">
+        <v>535</v>
+      </c>
+      <c r="D29" s="3">
+        <v>93</v>
+      </c>
+      <c r="E29" s="3">
+        <v>6428</v>
+      </c>
+      <c r="F29" s="3">
+        <v>350990</v>
+      </c>
+      <c r="G29" s="3">
+        <v>358046</v>
+      </c>
+      <c r="H29" s="3">
+        <v>17</v>
+      </c>
+      <c r="I29" s="3">
+        <v>5673</v>
+      </c>
+      <c r="J29" s="3">
+        <v>601</v>
+      </c>
+      <c r="K29" s="3">
+        <v>2786</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1059</v>
+      </c>
+      <c r="M29" s="3">
+        <v>258710</v>
+      </c>
+      <c r="N29" s="3">
+        <v>268846</v>
+      </c>
+      <c r="O29" s="3">
+        <v>263156</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>0</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="3">
         <v>10000</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="C30" s="3">
+        <v>1120</v>
+      </c>
+      <c r="D30" s="3">
+        <v>207</v>
+      </c>
+      <c r="E30" s="3">
+        <v>16743</v>
+      </c>
+      <c r="F30" s="3">
+        <v>350661</v>
+      </c>
+      <c r="G30" s="3">
+        <v>368731</v>
+      </c>
+      <c r="H30" s="3">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3">
+        <v>5698</v>
+      </c>
+      <c r="J30" s="3">
+        <v>1111</v>
+      </c>
+      <c r="K30" s="3">
+        <v>6343</v>
+      </c>
+      <c r="L30" s="3">
+        <v>1871</v>
+      </c>
+      <c r="M30" s="3">
+        <v>247466</v>
+      </c>
+      <c r="N30" s="3">
+        <v>262549</v>
+      </c>
+      <c r="O30" s="3">
+        <v>256791</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
         <v>0</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="3">
         <v>25000</v>
+      </c>
+      <c r="C31" s="3">
+        <v>2352</v>
+      </c>
+      <c r="D31" s="3">
+        <v>566</v>
+      </c>
+      <c r="E31" s="3">
+        <v>39852</v>
+      </c>
+      <c r="F31" s="3">
+        <v>348478</v>
+      </c>
+      <c r="G31" s="3">
+        <v>391248</v>
+      </c>
+      <c r="H31" s="3">
+        <v>121</v>
+      </c>
+      <c r="I31" s="3">
+        <v>5115</v>
+      </c>
+      <c r="J31" s="3">
+        <v>1749</v>
+      </c>
+      <c r="K31" s="3">
+        <v>12600</v>
+      </c>
+      <c r="L31" s="3">
+        <v>3033</v>
+      </c>
+      <c r="M31" s="3">
+        <v>222476</v>
+      </c>
+      <c r="N31" s="3">
+        <v>245094</v>
+      </c>
+      <c r="O31" s="3">
+        <v>239858</v>
       </c>
     </row>
   </sheetData>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC87832A-7656-4E09-9F3F-48DA0987E61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF105BD-43A9-4951-84C1-93E0AD06E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,18 +134,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -164,15 +158,14 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -534,7 +527,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31:XFD31"/>
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -556,23 +549,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="4"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -621,57 +614,57 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>180</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>640</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>15</v>
       </c>
-      <c r="E3">
-        <v>1350</v>
-      </c>
-      <c r="F3">
-        <v>713</v>
-      </c>
-      <c r="G3">
-        <v>2080</v>
-      </c>
-      <c r="H3">
+      <c r="E3" s="2">
+        <v>1311</v>
+      </c>
+      <c r="F3" s="2">
+        <v>712</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2040</v>
+      </c>
+      <c r="H3" s="2">
         <v>0</v>
       </c>
-      <c r="I3">
-        <v>222</v>
-      </c>
-      <c r="J3">
+      <c r="I3" s="2">
+        <v>221</v>
+      </c>
+      <c r="J3" s="2">
         <v>3</v>
       </c>
-      <c r="K3">
-        <v>725</v>
-      </c>
-      <c r="L3">
-        <v>273</v>
-      </c>
-      <c r="M3">
-        <v>679</v>
-      </c>
-      <c r="N3">
-        <v>1902</v>
-      </c>
-      <c r="O3">
-        <v>1680</v>
-      </c>
-      <c r="P3">
+      <c r="K3" s="2">
+        <v>716</v>
+      </c>
+      <c r="L3" s="2">
+        <v>250</v>
+      </c>
+      <c r="M3" s="2">
+        <v>672</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1862</v>
+      </c>
+      <c r="O3" s="2">
+        <v>1641</v>
+      </c>
+      <c r="P3" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="2">
         <v>200</v>
       </c>
     </row>
@@ -683,1175 +676,1175 @@
         <v>1600</v>
       </c>
       <c r="C4" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4" s="2">
-        <v>2864</v>
+        <v>2758</v>
       </c>
       <c r="F4" s="2">
-        <v>687</v>
+        <v>701</v>
       </c>
       <c r="G4" s="2">
-        <v>3571</v>
+        <v>3482</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="J4" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" s="2">
-        <v>1202</v>
+        <v>1135</v>
       </c>
       <c r="L4" s="2">
-        <v>389</v>
+        <v>599</v>
       </c>
       <c r="M4" s="2">
-        <v>631</v>
+        <v>652</v>
       </c>
       <c r="N4" s="2">
-        <v>2479</v>
+        <v>2466</v>
       </c>
       <c r="O4" s="2">
-        <v>2226</v>
-      </c>
-      <c r="P4">
+        <v>2212</v>
+      </c>
+      <c r="P4" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>180</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>4000</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>13</v>
       </c>
-      <c r="D5">
-        <v>109</v>
-      </c>
-      <c r="E5">
-        <v>6670</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="2">
+        <v>102</v>
+      </c>
+      <c r="E5" s="2">
+        <v>6419</v>
+      </c>
+      <c r="F5" s="2">
         <v>669</v>
       </c>
-      <c r="G5">
-        <v>7461</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>223</v>
-      </c>
-      <c r="J5">
+      <c r="G5" s="2">
+        <v>7203</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>194</v>
+      </c>
+      <c r="J5" s="2">
         <v>10</v>
       </c>
-      <c r="K5">
-        <v>2063</v>
-      </c>
-      <c r="L5">
-        <v>623</v>
-      </c>
-      <c r="M5">
+      <c r="K5" s="2">
+        <v>2003</v>
+      </c>
+      <c r="L5" s="2">
         <v>599</v>
       </c>
-      <c r="N5">
-        <v>3519</v>
-      </c>
-      <c r="O5">
-        <v>3295</v>
-      </c>
-      <c r="P5">
+      <c r="M5" s="2">
+        <v>599</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3405</v>
+      </c>
+      <c r="O5" s="2">
+        <v>3211</v>
+      </c>
+      <c r="P5" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>180</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>10000</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>27</v>
       </c>
-      <c r="D6">
-        <v>302</v>
-      </c>
-      <c r="E6">
-        <v>17598</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="2">
+        <v>270</v>
+      </c>
+      <c r="E6" s="2">
+        <v>16679</v>
+      </c>
+      <c r="F6" s="2">
         <v>644</v>
       </c>
-      <c r="G6">
-        <v>18571</v>
-      </c>
-      <c r="H6">
-        <v>24</v>
-      </c>
-      <c r="I6">
-        <v>343</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="2">
+        <v>17620</v>
+      </c>
+      <c r="H6" s="2">
+        <v>16</v>
+      </c>
+      <c r="I6" s="2">
+        <v>152</v>
+      </c>
+      <c r="J6" s="2">
         <v>18</v>
       </c>
-      <c r="K6">
-        <v>5645</v>
-      </c>
-      <c r="L6">
-        <v>903</v>
-      </c>
-      <c r="M6">
+      <c r="K6" s="2">
+        <v>5342</v>
+      </c>
+      <c r="L6" s="2">
+        <v>910</v>
+      </c>
+      <c r="M6" s="2">
         <v>540</v>
       </c>
-      <c r="N6">
-        <v>7473</v>
-      </c>
-      <c r="O6">
-        <v>7106</v>
-      </c>
-      <c r="P6">
+      <c r="N6" s="2">
+        <v>6978</v>
+      </c>
+      <c r="O6" s="2">
+        <v>6810</v>
+      </c>
+      <c r="P6" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>180</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>25000</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>71</v>
       </c>
-      <c r="D7">
-        <v>740</v>
-      </c>
-      <c r="E7">
-        <v>42767</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="2">
+        <v>613</v>
+      </c>
+      <c r="E7" s="2">
+        <v>39804</v>
+      </c>
+      <c r="F7" s="2">
         <v>604</v>
       </c>
-      <c r="G7">
-        <v>44182</v>
-      </c>
-      <c r="H7">
-        <v>55</v>
-      </c>
-      <c r="I7">
-        <v>190</v>
-      </c>
-      <c r="J7">
-        <v>33</v>
-      </c>
-      <c r="K7">
-        <v>15196</v>
-      </c>
-      <c r="L7">
-        <v>1535</v>
-      </c>
-      <c r="M7">
-        <v>495</v>
-      </c>
-      <c r="N7">
-        <v>17504</v>
-      </c>
-      <c r="O7">
-        <v>17259</v>
-      </c>
-      <c r="P7">
+      <c r="G7" s="2">
+        <v>41092</v>
+      </c>
+      <c r="H7" s="2">
+        <v>41</v>
+      </c>
+      <c r="I7" s="2">
+        <v>147</v>
+      </c>
+      <c r="J7" s="2">
+        <v>32</v>
+      </c>
+      <c r="K7" s="2">
+        <v>14295</v>
+      </c>
+      <c r="L7" s="2">
+        <v>1528</v>
+      </c>
+      <c r="M7" s="2">
+        <v>496</v>
+      </c>
+      <c r="N7" s="2">
+        <v>16539</v>
+      </c>
+      <c r="O7" s="2">
+        <v>16351</v>
+      </c>
+      <c r="P7" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>25</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>640</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>11</v>
       </c>
-      <c r="E9">
-        <v>1354</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="2">
+        <v>1311</v>
+      </c>
+      <c r="F9" s="2">
         <v>19747</v>
       </c>
-      <c r="G9">
-        <v>21120</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-      <c r="I9">
-        <v>869</v>
-      </c>
-      <c r="J9">
+      <c r="G9" s="2">
+        <v>21077</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>848</v>
+      </c>
+      <c r="J9" s="2">
         <v>10</v>
       </c>
-      <c r="K9">
-        <v>695</v>
-      </c>
-      <c r="L9">
-        <v>279</v>
-      </c>
-      <c r="M9">
-        <v>17263</v>
-      </c>
-      <c r="N9">
-        <v>19117</v>
-      </c>
-      <c r="O9">
-        <v>18247</v>
-      </c>
-      <c r="P9">
+      <c r="K9" s="2">
+        <v>687</v>
+      </c>
+      <c r="L9" s="2">
+        <v>273</v>
+      </c>
+      <c r="M9" s="2">
+        <v>17254</v>
+      </c>
+      <c r="N9" s="2">
+        <v>19072</v>
+      </c>
+      <c r="O9" s="2">
+        <v>18224</v>
+      </c>
+      <c r="P9" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>25</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>1600</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>12</v>
       </c>
-      <c r="D10">
-        <v>37</v>
-      </c>
-      <c r="E10">
-        <v>2847</v>
-      </c>
-      <c r="F10">
+      <c r="D10" s="2">
+        <v>28</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2749</v>
+      </c>
+      <c r="F10" s="2">
         <v>19750</v>
       </c>
-      <c r="G10">
-        <v>22646</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10">
-        <v>595</v>
-      </c>
-      <c r="J10">
+      <c r="G10" s="2">
+        <v>22539</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1</v>
+      </c>
+      <c r="I10" s="2">
+        <v>573</v>
+      </c>
+      <c r="J10" s="2">
         <v>13</v>
       </c>
-      <c r="K10">
-        <v>1313</v>
-      </c>
-      <c r="L10">
-        <v>403</v>
-      </c>
-      <c r="M10">
-        <v>17046</v>
-      </c>
-      <c r="N10">
-        <v>19372</v>
-      </c>
-      <c r="O10">
-        <v>18775</v>
-      </c>
-      <c r="P10">
+      <c r="K10" s="2">
+        <v>1277</v>
+      </c>
+      <c r="L10" s="2">
+        <v>395</v>
+      </c>
+      <c r="M10" s="2">
+        <v>17044</v>
+      </c>
+      <c r="N10" s="2">
+        <v>19303</v>
+      </c>
+      <c r="O10" s="2">
+        <v>18729</v>
+      </c>
+      <c r="P10" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>25</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>4000</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>13</v>
       </c>
-      <c r="D11">
-        <v>120</v>
-      </c>
-      <c r="E11">
-        <v>6659</v>
-      </c>
-      <c r="F11">
-        <v>19901</v>
-      </c>
-      <c r="G11">
-        <v>26693</v>
-      </c>
-      <c r="H11">
-        <v>4</v>
-      </c>
-      <c r="I11">
-        <v>560</v>
-      </c>
-      <c r="J11">
-        <v>15</v>
-      </c>
-      <c r="K11">
-        <v>2350</v>
-      </c>
-      <c r="L11">
-        <v>662</v>
-      </c>
-      <c r="M11">
-        <v>16614</v>
-      </c>
-      <c r="N11">
-        <v>20205</v>
-      </c>
-      <c r="O11">
-        <v>19641</v>
-      </c>
-      <c r="P11">
+      <c r="D11" s="2">
+        <v>107</v>
+      </c>
+      <c r="E11" s="2">
+        <v>6421</v>
+      </c>
+      <c r="F11" s="2">
+        <v>19900</v>
+      </c>
+      <c r="G11" s="2">
+        <v>26441</v>
+      </c>
+      <c r="H11" s="2">
+        <v>3</v>
+      </c>
+      <c r="I11" s="2">
+        <v>543</v>
+      </c>
+      <c r="J11" s="2">
+        <v>17</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2283</v>
+      </c>
+      <c r="L11" s="2">
+        <v>658</v>
+      </c>
+      <c r="M11" s="2">
+        <v>16606</v>
+      </c>
+      <c r="N11" s="2">
+        <v>20110</v>
+      </c>
+      <c r="O11" s="2">
+        <v>19564</v>
+      </c>
+      <c r="P11" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>25</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>10000</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>51</v>
       </c>
-      <c r="D12">
-        <v>333</v>
-      </c>
-      <c r="E12">
-        <v>17567</v>
-      </c>
-      <c r="F12">
-        <v>19671</v>
-      </c>
-      <c r="G12">
-        <v>37622</v>
-      </c>
-      <c r="H12">
-        <v>20</v>
-      </c>
-      <c r="I12">
-        <v>264</v>
-      </c>
-      <c r="J12">
-        <v>41</v>
-      </c>
-      <c r="K12">
-        <v>6037</v>
-      </c>
-      <c r="L12">
-        <v>1153</v>
-      </c>
-      <c r="M12">
-        <v>15814</v>
-      </c>
-      <c r="N12">
-        <v>23329</v>
-      </c>
-      <c r="O12">
-        <v>23045</v>
-      </c>
-      <c r="P12">
+      <c r="D12" s="2">
+        <v>296</v>
+      </c>
+      <c r="E12" s="2">
+        <v>16634</v>
+      </c>
+      <c r="F12" s="2">
+        <v>19670</v>
+      </c>
+      <c r="G12" s="2">
+        <v>36651</v>
+      </c>
+      <c r="H12" s="2">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2">
+        <v>246</v>
+      </c>
+      <c r="J12" s="2">
+        <v>38</v>
+      </c>
+      <c r="K12" s="2">
+        <v>5764</v>
+      </c>
+      <c r="L12" s="2">
+        <v>1135</v>
+      </c>
+      <c r="M12" s="2">
+        <v>15808</v>
+      </c>
+      <c r="N12" s="2">
+        <v>23008</v>
+      </c>
+      <c r="O12" s="2">
+        <v>22745</v>
+      </c>
+      <c r="P12" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>25</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>25000</v>
       </c>
-      <c r="C13">
-        <v>110</v>
-      </c>
-      <c r="D13">
-        <v>761</v>
-      </c>
-      <c r="E13">
-        <v>42746</v>
-      </c>
-      <c r="F13">
-        <v>19236</v>
-      </c>
-      <c r="G13">
-        <v>62853</v>
-      </c>
-      <c r="H13">
-        <v>62</v>
-      </c>
-      <c r="I13">
-        <v>240</v>
-      </c>
-      <c r="J13">
-        <v>93</v>
-      </c>
-      <c r="K13">
-        <v>15622</v>
-      </c>
-      <c r="L13">
-        <v>1845</v>
-      </c>
-      <c r="M13">
-        <v>14215</v>
-      </c>
-      <c r="N13">
-        <v>32077</v>
-      </c>
-      <c r="O13">
-        <v>31775</v>
-      </c>
-      <c r="P13">
+      <c r="C13" s="2">
+        <v>111</v>
+      </c>
+      <c r="D13" s="2">
+        <v>581</v>
+      </c>
+      <c r="E13" s="2">
+        <v>39872</v>
+      </c>
+      <c r="F13" s="2">
+        <v>19234</v>
+      </c>
+      <c r="G13" s="2">
+        <v>59798</v>
+      </c>
+      <c r="H13" s="2">
+        <v>66</v>
+      </c>
+      <c r="I13" s="2">
+        <v>216</v>
+      </c>
+      <c r="J13" s="2">
+        <v>92</v>
+      </c>
+      <c r="K13" s="2">
+        <v>14765</v>
+      </c>
+      <c r="L13" s="2">
+        <v>1831</v>
+      </c>
+      <c r="M13" s="2">
+        <v>14214</v>
+      </c>
+      <c r="N13" s="2">
+        <v>31184</v>
+      </c>
+      <c r="O13" s="2">
+        <v>30902</v>
+      </c>
+      <c r="P13" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>10</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>640</v>
       </c>
-      <c r="C15">
-        <v>31</v>
-      </c>
-      <c r="D15">
-        <v>16</v>
-      </c>
-      <c r="E15">
-        <v>1349</v>
-      </c>
-      <c r="F15">
-        <v>47751</v>
-      </c>
-      <c r="G15">
-        <v>49147</v>
-      </c>
-      <c r="H15">
-        <v>2</v>
-      </c>
-      <c r="I15">
-        <v>1097</v>
-      </c>
-      <c r="J15">
-        <v>52</v>
-      </c>
-      <c r="K15">
-        <v>778</v>
-      </c>
-      <c r="L15">
-        <v>208</v>
-      </c>
-      <c r="M15">
-        <v>39896</v>
-      </c>
-      <c r="N15">
-        <v>42033</v>
-      </c>
-      <c r="O15">
-        <v>40934</v>
-      </c>
-      <c r="P15">
+      <c r="C15" s="2">
+        <v>48</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12</v>
+      </c>
+      <c r="E15" s="2">
+        <v>1314</v>
+      </c>
+      <c r="F15" s="2">
+        <v>47590</v>
+      </c>
+      <c r="G15" s="2">
+        <v>48964</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>1112</v>
+      </c>
+      <c r="J15" s="2">
+        <v>62</v>
+      </c>
+      <c r="K15" s="2">
+        <v>783</v>
+      </c>
+      <c r="L15" s="2">
+        <v>174</v>
+      </c>
+      <c r="M15" s="2">
+        <v>39734</v>
+      </c>
+      <c r="N15" s="2">
+        <v>41865</v>
+      </c>
+      <c r="O15" s="2">
+        <v>40753</v>
+      </c>
+      <c r="P15" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>10</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>1600</v>
       </c>
-      <c r="C16">
-        <v>67</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2">
         <v>23</v>
       </c>
-      <c r="E16">
-        <v>2861</v>
-      </c>
-      <c r="F16">
-        <v>47651</v>
-      </c>
-      <c r="G16">
-        <v>50602</v>
-      </c>
-      <c r="H16">
-        <v>2</v>
-      </c>
-      <c r="I16">
-        <v>797</v>
-      </c>
-      <c r="J16">
-        <v>77</v>
-      </c>
-      <c r="K16">
-        <v>1469</v>
-      </c>
-      <c r="L16">
-        <v>336</v>
-      </c>
-      <c r="M16">
-        <v>39388</v>
-      </c>
-      <c r="N16">
-        <v>42069</v>
-      </c>
-      <c r="O16">
-        <v>41270</v>
-      </c>
-      <c r="P16">
+      <c r="E16" s="2">
+        <v>2752</v>
+      </c>
+      <c r="F16" s="2">
+        <v>47594</v>
+      </c>
+      <c r="G16" s="2">
+        <v>50438</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>941</v>
+      </c>
+      <c r="J16" s="2">
+        <v>93</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1425</v>
+      </c>
+      <c r="L16" s="2">
+        <v>351</v>
+      </c>
+      <c r="M16" s="2">
+        <v>39332</v>
+      </c>
+      <c r="N16" s="2">
+        <v>42142</v>
+      </c>
+      <c r="O16" s="2">
+        <v>41201</v>
+      </c>
+      <c r="P16" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>10</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>4000</v>
       </c>
-      <c r="C17">
-        <v>166</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2">
+        <v>148</v>
+      </c>
+      <c r="D17" s="2">
         <v>104</v>
       </c>
-      <c r="E17">
-        <v>6675</v>
-      </c>
-      <c r="F17">
-        <v>47395</v>
-      </c>
-      <c r="G17">
-        <v>54340</v>
-      </c>
-      <c r="H17">
-        <v>8</v>
-      </c>
-      <c r="I17">
-        <v>525</v>
-      </c>
-      <c r="J17">
-        <v>130</v>
-      </c>
-      <c r="K17">
-        <v>2720</v>
-      </c>
-      <c r="L17">
-        <v>636</v>
-      </c>
-      <c r="M17">
-        <v>38436</v>
-      </c>
-      <c r="N17">
-        <v>42455</v>
-      </c>
-      <c r="O17">
-        <v>41922</v>
-      </c>
-      <c r="P17">
+      <c r="E17" s="2">
+        <v>6414</v>
+      </c>
+      <c r="F17" s="2">
+        <v>47972</v>
+      </c>
+      <c r="G17" s="2">
+        <v>54638</v>
+      </c>
+      <c r="H17" s="2">
+        <v>11</v>
+      </c>
+      <c r="I17" s="2">
+        <v>645</v>
+      </c>
+      <c r="J17" s="2">
+        <v>151</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2590</v>
+      </c>
+      <c r="L17" s="2">
+        <v>632</v>
+      </c>
+      <c r="M17" s="2">
+        <v>38779</v>
+      </c>
+      <c r="N17" s="2">
+        <v>42808</v>
+      </c>
+      <c r="O17" s="2">
+        <v>42152</v>
+      </c>
+      <c r="P17" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>10</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>10000</v>
       </c>
-      <c r="C18">
-        <v>321</v>
-      </c>
-      <c r="D18">
-        <v>267</v>
-      </c>
-      <c r="E18">
-        <v>17633</v>
-      </c>
-      <c r="F18">
-        <v>47248</v>
-      </c>
-      <c r="G18">
-        <v>65469</v>
-      </c>
-      <c r="H18">
-        <v>13</v>
-      </c>
-      <c r="I18">
-        <v>655</v>
-      </c>
-      <c r="J18">
-        <v>262</v>
-      </c>
-      <c r="K18">
-        <v>6718</v>
-      </c>
-      <c r="L18">
-        <v>1091</v>
-      </c>
-      <c r="M18">
-        <v>36948</v>
-      </c>
-      <c r="N18">
-        <v>45687</v>
-      </c>
-      <c r="O18">
-        <v>45019</v>
-      </c>
-      <c r="P18">
+      <c r="C18" s="2">
+        <v>334</v>
+      </c>
+      <c r="D18" s="2">
+        <v>245</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16701</v>
+      </c>
+      <c r="F18" s="2">
+        <v>47567</v>
+      </c>
+      <c r="G18" s="2">
+        <v>64847</v>
+      </c>
+      <c r="H18" s="2">
+        <v>18</v>
+      </c>
+      <c r="I18" s="2">
+        <v>541</v>
+      </c>
+      <c r="J18" s="2">
+        <v>266</v>
+      </c>
+      <c r="K18" s="2">
+        <v>6222</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1147</v>
+      </c>
+      <c r="M18" s="2">
+        <v>37080</v>
+      </c>
+      <c r="N18" s="2">
+        <v>45274</v>
+      </c>
+      <c r="O18" s="2">
+        <v>44715</v>
+      </c>
+      <c r="P18" s="2">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
     </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>10</v>
       </c>
-      <c r="B19" s="3">
+      <c r="B19" s="2">
         <v>25000</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="2">
         <v>695</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>515</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>39917</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>47055</v>
       </c>
-      <c r="G19" s="3">
+      <c r="G19" s="2">
         <v>88182</v>
       </c>
-      <c r="H19" s="3">
+      <c r="H19" s="2">
         <v>76</v>
       </c>
-      <c r="I19" s="3">
+      <c r="I19" s="2">
         <v>382</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>467</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19" s="2">
         <v>14442</v>
       </c>
-      <c r="L19" s="3">
+      <c r="L19" s="2">
         <v>913</v>
       </c>
-      <c r="M19" s="3">
+      <c r="M19" s="2">
         <v>29726</v>
       </c>
-      <c r="N19" s="3">
+      <c r="N19" s="2">
         <v>51341</v>
       </c>
-      <c r="O19" s="3">
+      <c r="O19" s="2">
         <v>50853</v>
       </c>
     </row>
-    <row r="21" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>5</v>
       </c>
-      <c r="B21" s="3">
+      <c r="B21" s="2">
         <v>640</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="2">
         <v>28</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>18</v>
       </c>
-      <c r="E21" s="3">
+      <c r="E21" s="2">
         <v>1310</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>67618</v>
       </c>
-      <c r="G21" s="3">
+      <c r="G21" s="2">
         <v>68974</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="2">
         <v>0</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="2">
         <v>1063</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>35</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="2">
         <v>552</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="2">
         <v>429</v>
       </c>
-      <c r="M21" s="3">
+      <c r="M21" s="2">
         <v>55958</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="2">
         <v>58037</v>
       </c>
-      <c r="O21" s="3">
+      <c r="O21" s="2">
         <v>56974</v>
       </c>
     </row>
-    <row r="22" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>5</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="2">
         <v>1600</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="2">
         <v>61</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>28</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>2749</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>67696</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="2">
         <v>70534</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="2">
         <v>2</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="2">
         <v>907</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>89</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="2">
         <v>1280</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="2">
         <v>533</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="2">
         <v>55683</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="2">
         <v>58494</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="2">
         <v>57585</v>
       </c>
     </row>
-    <row r="23" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>5</v>
       </c>
-      <c r="B23" s="3">
+      <c r="B23" s="2">
         <v>4000</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="2">
         <v>138</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>83</v>
       </c>
-      <c r="E23" s="3">
+      <c r="E23" s="2">
         <v>6434</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>67310</v>
       </c>
-      <c r="G23" s="3">
+      <c r="G23" s="2">
         <v>73965</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="2">
         <v>5</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="2">
         <v>1389</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>156</v>
       </c>
-      <c r="K23" s="3">
+      <c r="K23" s="2">
         <v>2647</v>
       </c>
-      <c r="L23" s="3">
+      <c r="L23" s="2">
         <v>764</v>
       </c>
-      <c r="M23" s="3">
+      <c r="M23" s="2">
         <v>53889</v>
       </c>
-      <c r="N23" s="3">
+      <c r="N23" s="2">
         <v>58850</v>
       </c>
-      <c r="O23" s="3">
+      <c r="O23" s="2">
         <v>57456</v>
       </c>
     </row>
-    <row r="24" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>5</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="2">
         <v>10000</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="2">
         <v>225</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>267</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>16686</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>66949</v>
       </c>
-      <c r="G24" s="3">
+      <c r="G24" s="2">
         <v>84127</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="2">
         <v>25</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="2">
         <v>709</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>238</v>
       </c>
-      <c r="K24" s="3">
+      <c r="K24" s="2">
         <v>6525</v>
       </c>
-      <c r="L24" s="3">
+      <c r="L24" s="2">
         <v>1316</v>
       </c>
-      <c r="M24" s="3">
+      <c r="M24" s="2">
         <v>52124</v>
       </c>
-      <c r="N24" s="3">
+      <c r="N24" s="2">
         <v>60937</v>
       </c>
-      <c r="O24" s="3">
+      <c r="O24" s="2">
         <v>60203</v>
       </c>
     </row>
-    <row r="25" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>5</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B25" s="2">
         <v>25000</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="2">
         <v>576</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>594</v>
       </c>
-      <c r="E25" s="3">
+      <c r="E25" s="2">
         <v>39812</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>66947</v>
       </c>
-      <c r="G25" s="3">
+      <c r="G25" s="2">
         <v>107929</v>
       </c>
-      <c r="H25" s="3">
+      <c r="H25" s="2">
         <v>47</v>
       </c>
-      <c r="I25" s="3">
+      <c r="I25" s="2">
         <v>556</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>412</v>
       </c>
-      <c r="K25" s="3">
+      <c r="K25" s="2">
         <v>13788</v>
       </c>
-      <c r="L25" s="3">
+      <c r="L25" s="2">
         <v>2287</v>
       </c>
-      <c r="M25" s="3">
+      <c r="M25" s="2">
         <v>48020</v>
       </c>
-      <c r="N25" s="3">
+      <c r="N25" s="2">
         <v>65110</v>
       </c>
-      <c r="O25" s="3">
+      <c r="O25" s="2">
         <v>64507</v>
       </c>
     </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="3">
+    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>0</v>
       </c>
-      <c r="B27" s="3">
+      <c r="B27" s="2">
         <v>640</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="2">
         <v>121</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>17</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="2">
         <v>1309</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>350653</v>
       </c>
-      <c r="G27" s="3">
+      <c r="G27" s="2">
         <v>352100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="2">
         <v>5</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="2">
         <v>5418</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>256</v>
       </c>
-      <c r="K27" s="3">
+      <c r="K27" s="2">
         <v>564</v>
       </c>
-      <c r="L27" s="3">
+      <c r="L27" s="2">
         <v>369</v>
       </c>
-      <c r="M27" s="3">
+      <c r="M27" s="2">
         <v>267518</v>
       </c>
-      <c r="N27" s="3">
+      <c r="N27" s="2">
         <v>274130</v>
       </c>
-      <c r="O27" s="3">
+      <c r="O27" s="2">
         <v>268707</v>
       </c>
     </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3">
+    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>0</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="2">
         <v>1600</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="2">
         <v>224</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>36</v>
       </c>
-      <c r="E28" s="3">
+      <c r="E28" s="2">
         <v>2741</v>
       </c>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>350394</v>
       </c>
-      <c r="G28" s="3">
+      <c r="G28" s="2">
         <v>353395</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="2">
         <v>8</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="2">
         <v>5566</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>409</v>
       </c>
-      <c r="K28" s="3">
+      <c r="K28" s="2">
         <v>1186</v>
       </c>
-      <c r="L28" s="3">
+      <c r="L28" s="2">
         <v>567</v>
       </c>
-      <c r="M28" s="3">
+      <c r="M28" s="2">
         <v>263821</v>
       </c>
-      <c r="N28" s="3">
+      <c r="N28" s="2">
         <v>271557</v>
       </c>
-      <c r="O28" s="3">
+      <c r="O28" s="2">
         <v>265983</v>
       </c>
     </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="3">
+    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
         <v>0</v>
       </c>
-      <c r="B29" s="3">
+      <c r="B29" s="2">
         <v>4000</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="2">
         <v>535</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>93</v>
       </c>
-      <c r="E29" s="3">
+      <c r="E29" s="2">
         <v>6428</v>
       </c>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>350990</v>
       </c>
-      <c r="G29" s="3">
+      <c r="G29" s="2">
         <v>358046</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="2">
         <v>17</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="2">
         <v>5673</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>601</v>
       </c>
-      <c r="K29" s="3">
+      <c r="K29" s="2">
         <v>2786</v>
       </c>
-      <c r="L29" s="3">
+      <c r="L29" s="2">
         <v>1059</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="2">
         <v>258710</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="2">
         <v>268846</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="2">
         <v>263156</v>
       </c>
     </row>
-    <row r="30" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="3">
+    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
         <v>0</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>10000</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="2">
         <v>1120</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>207</v>
       </c>
-      <c r="E30" s="3">
+      <c r="E30" s="2">
         <v>16743</v>
       </c>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>350661</v>
       </c>
-      <c r="G30" s="3">
+      <c r="G30" s="2">
         <v>368731</v>
       </c>
-      <c r="H30" s="3">
+      <c r="H30" s="2">
         <v>60</v>
       </c>
-      <c r="I30" s="3">
+      <c r="I30" s="2">
         <v>5698</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>1111</v>
       </c>
-      <c r="K30" s="3">
+      <c r="K30" s="2">
         <v>6343</v>
       </c>
-      <c r="L30" s="3">
+      <c r="L30" s="2">
         <v>1871</v>
       </c>
-      <c r="M30" s="3">
+      <c r="M30" s="2">
         <v>247466</v>
       </c>
-      <c r="N30" s="3">
+      <c r="N30" s="2">
         <v>262549</v>
       </c>
-      <c r="O30" s="3">
+      <c r="O30" s="2">
         <v>256791</v>
       </c>
     </row>
-    <row r="31" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3">
+    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
         <v>0</v>
       </c>
-      <c r="B31" s="3">
+      <c r="B31" s="2">
         <v>25000</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="2">
         <v>2352</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="2">
         <v>566</v>
       </c>
-      <c r="E31" s="3">
+      <c r="E31" s="2">
         <v>39852</v>
       </c>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>348478</v>
       </c>
-      <c r="G31" s="3">
+      <c r="G31" s="2">
         <v>391248</v>
       </c>
-      <c r="H31" s="3">
+      <c r="H31" s="2">
         <v>121</v>
       </c>
-      <c r="I31" s="3">
+      <c r="I31" s="2">
         <v>5115</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>1749</v>
       </c>
-      <c r="K31" s="3">
+      <c r="K31" s="2">
         <v>12600</v>
       </c>
-      <c r="L31" s="3">
+      <c r="L31" s="2">
         <v>3033</v>
       </c>
-      <c r="M31" s="3">
+      <c r="M31" s="2">
         <v>222476</v>
       </c>
-      <c r="N31" s="3">
+      <c r="N31" s="2">
         <v>245094</v>
       </c>
-      <c r="O31" s="3">
+      <c r="O31" s="2">
         <v>239858</v>
       </c>
     </row>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DF105BD-43A9-4951-84C1-93E0AD06E767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9D5FF6-9D5E-433A-AA34-0E869E31631B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -718,6 +718,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q4" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="5" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -769,6 +772,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q5" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="6" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -820,6 +826,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q6" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="7" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -871,6 +880,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q7" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="9" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -922,6 +934,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q9" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="10" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -973,6 +988,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q10" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="11" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -1024,6 +1042,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q11" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="12" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -1075,6 +1096,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q12" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="13" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -1126,6 +1150,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q13" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="15" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -1177,6 +1204,9 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="Q15" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="16" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1228,8 +1258,11 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q16" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>10</v>
       </c>
@@ -1279,8 +1312,11 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q17" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -1330,8 +1366,11 @@
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q18" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>10</v>
       </c>
@@ -1377,8 +1416,15 @@
       <c r="O19" s="2">
         <v>50853</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>5</v>
       </c>
@@ -1424,8 +1470,15 @@
       <c r="O21" s="2">
         <v>56974</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -1471,8 +1524,15 @@
       <c r="O22" s="2">
         <v>57585</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>5</v>
       </c>
@@ -1518,8 +1578,15 @@
       <c r="O23" s="2">
         <v>57456</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>5</v>
       </c>
@@ -1565,8 +1632,15 @@
       <c r="O24" s="2">
         <v>60203</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>5</v>
       </c>
@@ -1612,8 +1686,15 @@
       <c r="O25" s="2">
         <v>64507</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>0</v>
       </c>
@@ -1659,8 +1740,15 @@
       <c r="O27" s="2">
         <v>268707</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>0</v>
       </c>
@@ -1706,8 +1794,15 @@
       <c r="O28" s="2">
         <v>265983</v>
       </c>
-    </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>0</v>
       </c>
@@ -1753,8 +1848,15 @@
       <c r="O29" s="2">
         <v>263156</v>
       </c>
-    </row>
-    <row r="30" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>0</v>
       </c>
@@ -1800,8 +1902,15 @@
       <c r="O30" s="2">
         <v>256791</v>
       </c>
-    </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>0</v>
       </c>
@@ -1846,6 +1955,13 @@
       </c>
       <c r="O31" s="2">
         <v>239858</v>
+      </c>
+      <c r="P31" s="2">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A122F2A9-2E06-4683-9D85-5E94F356C8EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B59D9D-081B-42FE-9A1F-04B90F2E11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1867,7 +1867,7 @@
   <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2361,6 +2361,45 @@
       <c r="B11">
         <v>640</v>
       </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11">
+        <v>1318</v>
+      </c>
+      <c r="F11">
+        <v>701</v>
+      </c>
+      <c r="G11">
+        <v>2027</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>241</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>482</v>
+      </c>
+      <c r="L11">
+        <v>477</v>
+      </c>
+      <c r="M11">
+        <v>676</v>
+      </c>
+      <c r="N11">
+        <v>1876</v>
+      </c>
+      <c r="O11">
+        <v>1635</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7B59D9D-081B-42FE-9A1F-04B90F2E11DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361DD7C-69AC-4AA9-A3EF-8C7E83B56A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -415,7 +415,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2401,7 +2401,478 @@
         <v>1635</v>
       </c>
     </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>180</v>
+      </c>
+      <c r="B12">
+        <v>1600</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12">
+        <v>2759</v>
+      </c>
+      <c r="F12">
+        <v>727</v>
+      </c>
+      <c r="G12">
+        <v>3504</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>312</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>1139</v>
+      </c>
+      <c r="L12">
+        <v>417</v>
+      </c>
+      <c r="M12">
+        <v>681</v>
+      </c>
+      <c r="N12">
+        <v>2549</v>
+      </c>
+      <c r="O12">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>180</v>
+      </c>
+      <c r="B13">
+        <v>1600</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>17</v>
+      </c>
+      <c r="E13">
+        <v>2760</v>
+      </c>
+      <c r="F13">
+        <v>723</v>
+      </c>
+      <c r="G13">
+        <v>3500</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>286</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1147</v>
+      </c>
+      <c r="L13">
+        <v>404</v>
+      </c>
+      <c r="M13">
+        <v>666</v>
+      </c>
+      <c r="N13">
+        <v>2504</v>
+      </c>
+      <c r="O13">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>180</v>
+      </c>
+      <c r="B14">
+        <v>1600</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>17</v>
+      </c>
+      <c r="E14">
+        <v>2760</v>
+      </c>
+      <c r="F14">
+        <v>716</v>
+      </c>
+      <c r="G14">
+        <v>3493</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>267</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>1096</v>
+      </c>
+      <c r="L14">
+        <v>466</v>
+      </c>
+      <c r="M14">
+        <v>665</v>
+      </c>
+      <c r="N14">
+        <v>2494</v>
+      </c>
+      <c r="O14">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>180</v>
+      </c>
+      <c r="B15">
+        <v>1600</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>17</v>
+      </c>
+      <c r="E15">
+        <v>2760</v>
+      </c>
+      <c r="F15">
+        <v>702</v>
+      </c>
+      <c r="G15">
+        <v>3479</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>221</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>1123</v>
+      </c>
+      <c r="L15">
+        <v>436</v>
+      </c>
+      <c r="M15">
+        <v>649</v>
+      </c>
+      <c r="N15">
+        <v>2430</v>
+      </c>
+      <c r="O15">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>180</v>
+      </c>
+      <c r="B16">
+        <v>1600</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>17</v>
+      </c>
+      <c r="E16">
+        <v>2760</v>
+      </c>
+      <c r="F16">
+        <v>725</v>
+      </c>
+      <c r="G16">
+        <v>3502</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>288</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1099</v>
+      </c>
+      <c r="L16">
+        <v>443</v>
+      </c>
+      <c r="M16">
+        <v>675</v>
+      </c>
+      <c r="N16">
+        <v>2506</v>
+      </c>
+      <c r="O16">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <v>1600</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>17</v>
+      </c>
+      <c r="E17">
+        <v>2760</v>
+      </c>
+      <c r="F17">
+        <v>647</v>
+      </c>
+      <c r="G17">
+        <v>3424</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>336</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>1138</v>
+      </c>
+      <c r="L17">
+        <v>430</v>
+      </c>
+      <c r="M17">
+        <v>594</v>
+      </c>
+      <c r="N17">
+        <v>2498</v>
+      </c>
+      <c r="O17">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>180</v>
+      </c>
+      <c r="B18">
+        <v>1600</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18">
+        <v>2760</v>
+      </c>
+      <c r="F18">
+        <v>674</v>
+      </c>
+      <c r="G18">
+        <v>3451</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>262</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1134</v>
+      </c>
+      <c r="L18">
+        <v>416</v>
+      </c>
+      <c r="M18">
+        <v>621</v>
+      </c>
+      <c r="N18">
+        <v>2435</v>
+      </c>
+      <c r="O18">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>180</v>
+      </c>
+      <c r="B19">
+        <v>1600</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>17</v>
+      </c>
+      <c r="E19">
+        <v>2760</v>
+      </c>
+      <c r="F19">
+        <v>686</v>
+      </c>
+      <c r="G19">
+        <v>3463</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>275</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>1149</v>
+      </c>
+      <c r="L19">
+        <v>415</v>
+      </c>
+      <c r="M19">
+        <v>611</v>
+      </c>
+      <c r="N19">
+        <v>2451</v>
+      </c>
+      <c r="O19">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>180</v>
+      </c>
+      <c r="B20">
+        <v>1600</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>17</v>
+      </c>
+      <c r="E20">
+        <v>2760</v>
+      </c>
+      <c r="F20">
+        <v>697</v>
+      </c>
+      <c r="G20">
+        <v>3474</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>263</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>1134</v>
+      </c>
+      <c r="L20">
+        <v>432</v>
+      </c>
+      <c r="M20">
+        <v>642</v>
+      </c>
+      <c r="N20">
+        <v>2471</v>
+      </c>
+      <c r="O20">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>180</v>
+      </c>
+      <c r="B21">
+        <v>1600</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>17</v>
+      </c>
+      <c r="E21">
+        <v>2760</v>
+      </c>
+      <c r="F21">
+        <v>673</v>
+      </c>
+      <c r="G21">
+        <v>3450</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>249</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1117</v>
+      </c>
+      <c r="L21">
+        <v>436</v>
+      </c>
+      <c r="M21">
+        <v>632</v>
+      </c>
+      <c r="N21">
+        <v>2434</v>
+      </c>
+      <c r="O21">
+        <v>2185</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0361DD7C-69AC-4AA9-A3EF-8C7E83B56A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E39E8-4F52-4BF4-99CE-86F7AC6CA7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
-  <dimension ref="A1:Q21"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="P35" sqref="P35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2871,6 +2871,476 @@
         <v>2185</v>
       </c>
     </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>180</v>
+      </c>
+      <c r="B22">
+        <v>4000</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>49</v>
+      </c>
+      <c r="E22">
+        <v>6472</v>
+      </c>
+      <c r="F22">
+        <v>687</v>
+      </c>
+      <c r="G22">
+        <v>7208</v>
+      </c>
+      <c r="H22">
+        <v>2</v>
+      </c>
+      <c r="I22">
+        <v>225</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>1969</v>
+      </c>
+      <c r="L22">
+        <v>619</v>
+      </c>
+      <c r="M22">
+        <v>614</v>
+      </c>
+      <c r="N22">
+        <v>3429</v>
+      </c>
+      <c r="O22">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>180</v>
+      </c>
+      <c r="B23">
+        <v>4000</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>49</v>
+      </c>
+      <c r="E23">
+        <v>6472</v>
+      </c>
+      <c r="F23">
+        <v>689</v>
+      </c>
+      <c r="G23">
+        <v>7210</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>275</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>2024</v>
+      </c>
+      <c r="L23">
+        <v>581</v>
+      </c>
+      <c r="M23">
+        <v>613</v>
+      </c>
+      <c r="N23">
+        <v>3497</v>
+      </c>
+      <c r="O23">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>180</v>
+      </c>
+      <c r="B24">
+        <v>4000</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+      <c r="E24">
+        <v>6471</v>
+      </c>
+      <c r="F24">
+        <v>633</v>
+      </c>
+      <c r="G24">
+        <v>7154</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="I24">
+        <v>219</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>2018</v>
+      </c>
+      <c r="L24">
+        <v>606</v>
+      </c>
+      <c r="M24">
+        <v>563</v>
+      </c>
+      <c r="N24">
+        <v>3409</v>
+      </c>
+      <c r="O24">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>180</v>
+      </c>
+      <c r="B25">
+        <v>4000</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>50</v>
+      </c>
+      <c r="E25">
+        <v>6471</v>
+      </c>
+      <c r="F25">
+        <v>703</v>
+      </c>
+      <c r="G25">
+        <v>7224</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>241</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>1952</v>
+      </c>
+      <c r="L25">
+        <v>650</v>
+      </c>
+      <c r="M25">
+        <v>620</v>
+      </c>
+      <c r="N25">
+        <v>3464</v>
+      </c>
+      <c r="O25">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>180</v>
+      </c>
+      <c r="B26">
+        <v>4000</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>6472</v>
+      </c>
+      <c r="F26">
+        <v>680</v>
+      </c>
+      <c r="G26">
+        <v>7201</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>198</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>2041</v>
+      </c>
+      <c r="L26">
+        <v>558</v>
+      </c>
+      <c r="M26">
+        <v>603</v>
+      </c>
+      <c r="N26">
+        <v>3402</v>
+      </c>
+      <c r="O26">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>180</v>
+      </c>
+      <c r="B27">
+        <v>4000</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>49</v>
+      </c>
+      <c r="E27">
+        <v>6472</v>
+      </c>
+      <c r="F27">
+        <v>685</v>
+      </c>
+      <c r="G27">
+        <v>7206</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>247</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>2037</v>
+      </c>
+      <c r="L27">
+        <v>575</v>
+      </c>
+      <c r="M27">
+        <v>598</v>
+      </c>
+      <c r="N27">
+        <v>3458</v>
+      </c>
+      <c r="O27">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>180</v>
+      </c>
+      <c r="B28">
+        <v>4000</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>6472</v>
+      </c>
+      <c r="F28">
+        <v>710</v>
+      </c>
+      <c r="G28">
+        <v>7231</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>216</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>2002</v>
+      </c>
+      <c r="L28">
+        <v>601</v>
+      </c>
+      <c r="M28">
+        <v>621</v>
+      </c>
+      <c r="N28">
+        <v>3440</v>
+      </c>
+      <c r="O28">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>180</v>
+      </c>
+      <c r="B29">
+        <v>4000</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>49</v>
+      </c>
+      <c r="E29">
+        <v>6472</v>
+      </c>
+      <c r="F29">
+        <v>686</v>
+      </c>
+      <c r="G29">
+        <v>7207</v>
+      </c>
+      <c r="H29">
+        <v>2</v>
+      </c>
+      <c r="I29">
+        <v>196</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>1972</v>
+      </c>
+      <c r="L29">
+        <v>649</v>
+      </c>
+      <c r="M29">
+        <v>619</v>
+      </c>
+      <c r="N29">
+        <v>3438</v>
+      </c>
+      <c r="O29">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>180</v>
+      </c>
+      <c r="B30">
+        <v>4000</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>6472</v>
+      </c>
+      <c r="F30">
+        <v>676</v>
+      </c>
+      <c r="G30">
+        <v>7197</v>
+      </c>
+      <c r="H30">
+        <v>2</v>
+      </c>
+      <c r="I30">
+        <v>215</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>2004</v>
+      </c>
+      <c r="L30">
+        <v>598</v>
+      </c>
+      <c r="M30">
+        <v>594</v>
+      </c>
+      <c r="N30">
+        <v>3413</v>
+      </c>
+      <c r="O30">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>180</v>
+      </c>
+      <c r="B31">
+        <v>4000</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>49</v>
+      </c>
+      <c r="E31">
+        <v>6472</v>
+      </c>
+      <c r="F31">
+        <v>690</v>
+      </c>
+      <c r="G31">
+        <v>7211</v>
+      </c>
+      <c r="H31">
+        <v>2</v>
+      </c>
+      <c r="I31">
+        <v>214</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1993</v>
+      </c>
+      <c r="L31">
+        <v>619</v>
+      </c>
+      <c r="M31">
+        <v>622</v>
+      </c>
+      <c r="N31">
+        <v>3450</v>
+      </c>
+      <c r="O31">
+        <v>3234</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D14E39E8-4F52-4BF4-99CE-86F7AC6CA7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F1A198-2589-449A-BA36-3E5B768ACF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,7 +415,7 @@
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1864,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P35" sqref="P35"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O56" sqref="O56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3341,6 +3341,946 @@
         <v>3234</v>
       </c>
     </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>180</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>86</v>
+      </c>
+      <c r="E32">
+        <v>16863</v>
+      </c>
+      <c r="F32">
+        <v>704</v>
+      </c>
+      <c r="G32">
+        <v>17653</v>
+      </c>
+      <c r="H32">
+        <v>7</v>
+      </c>
+      <c r="I32">
+        <v>163</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>5376</v>
+      </c>
+      <c r="L32">
+        <v>805</v>
+      </c>
+      <c r="M32">
+        <v>578</v>
+      </c>
+      <c r="N32">
+        <v>6929</v>
+      </c>
+      <c r="O32">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>180</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>85</v>
+      </c>
+      <c r="E33">
+        <v>16864</v>
+      </c>
+      <c r="F33">
+        <v>692</v>
+      </c>
+      <c r="G33">
+        <v>17641</v>
+      </c>
+      <c r="H33">
+        <v>9</v>
+      </c>
+      <c r="I33">
+        <v>174</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>5408</v>
+      </c>
+      <c r="L33">
+        <v>780</v>
+      </c>
+      <c r="M33">
+        <v>590</v>
+      </c>
+      <c r="N33">
+        <v>6961</v>
+      </c>
+      <c r="O33">
+        <v>6778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>180</v>
+      </c>
+      <c r="B34">
+        <v>10000</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>88</v>
+      </c>
+      <c r="E34">
+        <v>16861</v>
+      </c>
+      <c r="F34">
+        <v>712</v>
+      </c>
+      <c r="G34">
+        <v>17661</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>150</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>5421</v>
+      </c>
+      <c r="L34">
+        <v>742</v>
+      </c>
+      <c r="M34">
+        <v>582</v>
+      </c>
+      <c r="N34">
+        <v>6903</v>
+      </c>
+      <c r="O34">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>180</v>
+      </c>
+      <c r="B35">
+        <v>10000</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>85</v>
+      </c>
+      <c r="E35">
+        <v>16864</v>
+      </c>
+      <c r="F35">
+        <v>708</v>
+      </c>
+      <c r="G35">
+        <v>17657</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>146</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>5422</v>
+      </c>
+      <c r="L35">
+        <v>739</v>
+      </c>
+      <c r="M35">
+        <v>599</v>
+      </c>
+      <c r="N35">
+        <v>6914</v>
+      </c>
+      <c r="O35">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>180</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>84</v>
+      </c>
+      <c r="E36">
+        <v>16865</v>
+      </c>
+      <c r="F36">
+        <v>701</v>
+      </c>
+      <c r="G36">
+        <v>17650</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36">
+        <v>174</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>5361</v>
+      </c>
+      <c r="L36">
+        <v>811</v>
+      </c>
+      <c r="M36">
+        <v>587</v>
+      </c>
+      <c r="N36">
+        <v>6937</v>
+      </c>
+      <c r="O36">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>180</v>
+      </c>
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>84</v>
+      </c>
+      <c r="E37">
+        <v>16865</v>
+      </c>
+      <c r="F37">
+        <v>709</v>
+      </c>
+      <c r="G37">
+        <v>17658</v>
+      </c>
+      <c r="H37">
+        <v>5</v>
+      </c>
+      <c r="I37">
+        <v>161</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>5379</v>
+      </c>
+      <c r="L37">
+        <v>757</v>
+      </c>
+      <c r="M37">
+        <v>603</v>
+      </c>
+      <c r="N37">
+        <v>6905</v>
+      </c>
+      <c r="O37">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>180</v>
+      </c>
+      <c r="B38">
+        <v>10000</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>85</v>
+      </c>
+      <c r="E38">
+        <v>16864</v>
+      </c>
+      <c r="F38">
+        <v>672</v>
+      </c>
+      <c r="G38">
+        <v>17621</v>
+      </c>
+      <c r="H38">
+        <v>9</v>
+      </c>
+      <c r="I38">
+        <v>141</v>
+      </c>
+      <c r="J38">
+        <v>1</v>
+      </c>
+      <c r="K38">
+        <v>5382</v>
+      </c>
+      <c r="L38">
+        <v>797</v>
+      </c>
+      <c r="M38">
+        <v>556</v>
+      </c>
+      <c r="N38">
+        <v>6886</v>
+      </c>
+      <c r="O38">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>180</v>
+      </c>
+      <c r="B39">
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>84</v>
+      </c>
+      <c r="E39">
+        <v>16865</v>
+      </c>
+      <c r="F39">
+        <v>649</v>
+      </c>
+      <c r="G39">
+        <v>17598</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>163</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>5425</v>
+      </c>
+      <c r="L39">
+        <v>765</v>
+      </c>
+      <c r="M39">
+        <v>556</v>
+      </c>
+      <c r="N39">
+        <v>6922</v>
+      </c>
+      <c r="O39">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>180</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>84</v>
+      </c>
+      <c r="E40">
+        <v>16865</v>
+      </c>
+      <c r="F40">
+        <v>682</v>
+      </c>
+      <c r="G40">
+        <v>17631</v>
+      </c>
+      <c r="H40">
+        <v>4</v>
+      </c>
+      <c r="I40">
+        <v>137</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>5333</v>
+      </c>
+      <c r="L40">
+        <v>855</v>
+      </c>
+      <c r="M40">
+        <v>571</v>
+      </c>
+      <c r="N40">
+        <v>6900</v>
+      </c>
+      <c r="O40">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>180</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>84</v>
+      </c>
+      <c r="E41">
+        <v>16865</v>
+      </c>
+      <c r="F41">
+        <v>658</v>
+      </c>
+      <c r="G41">
+        <v>17607</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>193</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>5382</v>
+      </c>
+      <c r="L41">
+        <v>806</v>
+      </c>
+      <c r="M41">
+        <v>565</v>
+      </c>
+      <c r="N41">
+        <v>6952</v>
+      </c>
+      <c r="O41">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>180</v>
+      </c>
+      <c r="B42">
+        <v>25000</v>
+      </c>
+      <c r="C42">
+        <v>66</v>
+      </c>
+      <c r="D42">
+        <v>620</v>
+      </c>
+      <c r="E42">
+        <v>39797</v>
+      </c>
+      <c r="F42">
+        <v>651</v>
+      </c>
+      <c r="G42">
+        <v>41134</v>
+      </c>
+      <c r="H42">
+        <v>44</v>
+      </c>
+      <c r="I42">
+        <v>170</v>
+      </c>
+      <c r="J42">
+        <v>36</v>
+      </c>
+      <c r="K42">
+        <v>13964</v>
+      </c>
+      <c r="L42">
+        <v>1534</v>
+      </c>
+      <c r="M42">
+        <v>520</v>
+      </c>
+      <c r="N42">
+        <v>16268</v>
+      </c>
+      <c r="O42">
+        <v>16054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>180</v>
+      </c>
+      <c r="B43">
+        <v>25000</v>
+      </c>
+      <c r="C43">
+        <v>74</v>
+      </c>
+      <c r="D43">
+        <v>606</v>
+      </c>
+      <c r="E43">
+        <v>39811</v>
+      </c>
+      <c r="F43">
+        <v>575</v>
+      </c>
+      <c r="G43">
+        <v>41066</v>
+      </c>
+      <c r="H43">
+        <v>48</v>
+      </c>
+      <c r="I43">
+        <v>173</v>
+      </c>
+      <c r="J43">
+        <v>49</v>
+      </c>
+      <c r="K43">
+        <v>14037</v>
+      </c>
+      <c r="L43">
+        <v>1511</v>
+      </c>
+      <c r="M43">
+        <v>472</v>
+      </c>
+      <c r="N43">
+        <v>16290</v>
+      </c>
+      <c r="O43">
+        <v>16069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>180</v>
+      </c>
+      <c r="B44">
+        <v>25000</v>
+      </c>
+      <c r="C44">
+        <v>66</v>
+      </c>
+      <c r="D44">
+        <v>602</v>
+      </c>
+      <c r="E44">
+        <v>39815</v>
+      </c>
+      <c r="F44">
+        <v>595</v>
+      </c>
+      <c r="G44">
+        <v>41078</v>
+      </c>
+      <c r="H44">
+        <v>70</v>
+      </c>
+      <c r="I44">
+        <v>185</v>
+      </c>
+      <c r="J44">
+        <v>43</v>
+      </c>
+      <c r="K44">
+        <v>14137</v>
+      </c>
+      <c r="L44">
+        <v>1553</v>
+      </c>
+      <c r="M44">
+        <v>475</v>
+      </c>
+      <c r="N44">
+        <v>16463</v>
+      </c>
+      <c r="O44">
+        <v>16208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>180</v>
+      </c>
+      <c r="B45">
+        <v>25000</v>
+      </c>
+      <c r="C45">
+        <v>73</v>
+      </c>
+      <c r="D45">
+        <v>618</v>
+      </c>
+      <c r="E45">
+        <v>39799</v>
+      </c>
+      <c r="F45">
+        <v>625</v>
+      </c>
+      <c r="G45">
+        <v>41115</v>
+      </c>
+      <c r="H45">
+        <v>53</v>
+      </c>
+      <c r="I45">
+        <v>148</v>
+      </c>
+      <c r="J45">
+        <v>48</v>
+      </c>
+      <c r="K45">
+        <v>14025</v>
+      </c>
+      <c r="L45">
+        <v>1528</v>
+      </c>
+      <c r="M45">
+        <v>504</v>
+      </c>
+      <c r="N45">
+        <v>16306</v>
+      </c>
+      <c r="O45">
+        <v>16105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>180</v>
+      </c>
+      <c r="B46">
+        <v>25000</v>
+      </c>
+      <c r="C46">
+        <v>55</v>
+      </c>
+      <c r="D46">
+        <v>600</v>
+      </c>
+      <c r="E46">
+        <v>39817</v>
+      </c>
+      <c r="F46">
+        <v>581</v>
+      </c>
+      <c r="G46">
+        <v>41053</v>
+      </c>
+      <c r="H46">
+        <v>34</v>
+      </c>
+      <c r="I46">
+        <v>146</v>
+      </c>
+      <c r="J46">
+        <v>38</v>
+      </c>
+      <c r="K46">
+        <v>13991</v>
+      </c>
+      <c r="L46">
+        <v>1539</v>
+      </c>
+      <c r="M46">
+        <v>460</v>
+      </c>
+      <c r="N46">
+        <v>16208</v>
+      </c>
+      <c r="O46">
+        <v>16028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>180</v>
+      </c>
+      <c r="B47">
+        <v>25000</v>
+      </c>
+      <c r="C47">
+        <v>81</v>
+      </c>
+      <c r="D47">
+        <v>616</v>
+      </c>
+      <c r="E47">
+        <v>39801</v>
+      </c>
+      <c r="F47">
+        <v>599</v>
+      </c>
+      <c r="G47">
+        <v>41097</v>
+      </c>
+      <c r="H47">
+        <v>37</v>
+      </c>
+      <c r="I47">
+        <v>206</v>
+      </c>
+      <c r="J47">
+        <v>44</v>
+      </c>
+      <c r="K47">
+        <v>13967</v>
+      </c>
+      <c r="L47">
+        <v>1580</v>
+      </c>
+      <c r="M47">
+        <v>494</v>
+      </c>
+      <c r="N47">
+        <v>16328</v>
+      </c>
+      <c r="O47">
+        <v>16085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>180</v>
+      </c>
+      <c r="B48">
+        <v>25000</v>
+      </c>
+      <c r="C48">
+        <v>74</v>
+      </c>
+      <c r="D48">
+        <v>618</v>
+      </c>
+      <c r="E48">
+        <v>39799</v>
+      </c>
+      <c r="F48">
+        <v>611</v>
+      </c>
+      <c r="G48">
+        <v>41102</v>
+      </c>
+      <c r="H48">
+        <v>44</v>
+      </c>
+      <c r="I48">
+        <v>183</v>
+      </c>
+      <c r="J48">
+        <v>35</v>
+      </c>
+      <c r="K48">
+        <v>13945</v>
+      </c>
+      <c r="L48">
+        <v>1622</v>
+      </c>
+      <c r="M48">
+        <v>526</v>
+      </c>
+      <c r="N48">
+        <v>16355</v>
+      </c>
+      <c r="O48">
+        <v>16128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>180</v>
+      </c>
+      <c r="B49">
+        <v>25000</v>
+      </c>
+      <c r="C49">
+        <v>78</v>
+      </c>
+      <c r="D49">
+        <v>616</v>
+      </c>
+      <c r="E49">
+        <v>39801</v>
+      </c>
+      <c r="F49">
+        <v>603</v>
+      </c>
+      <c r="G49">
+        <v>41098</v>
+      </c>
+      <c r="H49">
+        <v>56</v>
+      </c>
+      <c r="I49">
+        <v>199</v>
+      </c>
+      <c r="J49">
+        <v>47</v>
+      </c>
+      <c r="K49">
+        <v>14085</v>
+      </c>
+      <c r="L49">
+        <v>1473</v>
+      </c>
+      <c r="M49">
+        <v>486</v>
+      </c>
+      <c r="N49">
+        <v>16346</v>
+      </c>
+      <c r="O49">
+        <v>16091</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>180</v>
+      </c>
+      <c r="B50">
+        <v>25000</v>
+      </c>
+      <c r="C50">
+        <v>76</v>
+      </c>
+      <c r="D50">
+        <v>612</v>
+      </c>
+      <c r="E50">
+        <v>39805</v>
+      </c>
+      <c r="F50">
+        <v>594</v>
+      </c>
+      <c r="G50">
+        <v>41087</v>
+      </c>
+      <c r="H50">
+        <v>38</v>
+      </c>
+      <c r="I50">
+        <v>229</v>
+      </c>
+      <c r="J50">
+        <v>38</v>
+      </c>
+      <c r="K50">
+        <v>14017</v>
+      </c>
+      <c r="L50">
+        <v>1546</v>
+      </c>
+      <c r="M50">
+        <v>482</v>
+      </c>
+      <c r="N50">
+        <v>16350</v>
+      </c>
+      <c r="O50">
+        <v>16083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>180</v>
+      </c>
+      <c r="B51">
+        <v>25000</v>
+      </c>
+      <c r="C51">
+        <v>87</v>
+      </c>
+      <c r="D51">
+        <v>583</v>
+      </c>
+      <c r="E51">
+        <v>39834</v>
+      </c>
+      <c r="F51">
+        <v>613</v>
+      </c>
+      <c r="G51">
+        <v>41117</v>
+      </c>
+      <c r="H51">
+        <v>51</v>
+      </c>
+      <c r="I51">
+        <v>174</v>
+      </c>
+      <c r="J51">
+        <v>46</v>
+      </c>
+      <c r="K51">
+        <v>14030</v>
+      </c>
+      <c r="L51">
+        <v>1568</v>
+      </c>
+      <c r="M51">
+        <v>510</v>
+      </c>
+      <c r="N51">
+        <v>16379</v>
+      </c>
+      <c r="O51">
+        <v>16154</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08F1A198-2589-449A-BA36-3E5B768ACF5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C798-273C-49D2-8C11-DD31D8518E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O56" sqref="O56"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4281,6 +4281,556 @@
         <v>16154</v>
       </c>
     </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>640</v>
+      </c>
+      <c r="C52">
+        <v>12</v>
+      </c>
+      <c r="D52">
+        <v>6</v>
+      </c>
+      <c r="E52">
+        <v>1316</v>
+      </c>
+      <c r="F52">
+        <v>19712</v>
+      </c>
+      <c r="G52">
+        <v>21046</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>643</v>
+      </c>
+      <c r="J52">
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <v>464</v>
+      </c>
+      <c r="L52">
+        <v>468</v>
+      </c>
+      <c r="M52">
+        <v>17273</v>
+      </c>
+      <c r="N52">
+        <v>18860</v>
+      </c>
+      <c r="O52">
+        <v>18217</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>640</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53">
+        <v>9</v>
+      </c>
+      <c r="E53">
+        <v>1313</v>
+      </c>
+      <c r="F53">
+        <v>19835</v>
+      </c>
+      <c r="G53">
+        <v>21161</v>
+      </c>
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>573</v>
+      </c>
+      <c r="J53">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>679</v>
+      </c>
+      <c r="L53">
+        <v>287</v>
+      </c>
+      <c r="M53">
+        <v>17413</v>
+      </c>
+      <c r="N53">
+        <v>18976</v>
+      </c>
+      <c r="O53">
+        <v>18401</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>640</v>
+      </c>
+      <c r="C54">
+        <v>13</v>
+      </c>
+      <c r="D54">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>1316</v>
+      </c>
+      <c r="F54">
+        <v>20060</v>
+      </c>
+      <c r="G54">
+        <v>21395</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+      <c r="I54">
+        <v>464</v>
+      </c>
+      <c r="J54">
+        <v>19</v>
+      </c>
+      <c r="K54">
+        <v>485</v>
+      </c>
+      <c r="L54">
+        <v>460</v>
+      </c>
+      <c r="M54">
+        <v>17603</v>
+      </c>
+      <c r="N54">
+        <v>19032</v>
+      </c>
+      <c r="O54">
+        <v>18567</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>640</v>
+      </c>
+      <c r="C55">
+        <v>11</v>
+      </c>
+      <c r="D55">
+        <v>7</v>
+      </c>
+      <c r="E55">
+        <v>1315</v>
+      </c>
+      <c r="F55">
+        <v>19536</v>
+      </c>
+      <c r="G55">
+        <v>20869</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>563</v>
+      </c>
+      <c r="J55">
+        <v>23</v>
+      </c>
+      <c r="K55">
+        <v>626</v>
+      </c>
+      <c r="L55">
+        <v>315</v>
+      </c>
+      <c r="M55">
+        <v>17101</v>
+      </c>
+      <c r="N55">
+        <v>18629</v>
+      </c>
+      <c r="O55">
+        <v>18065</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>640</v>
+      </c>
+      <c r="C56">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56">
+        <v>1318</v>
+      </c>
+      <c r="F56">
+        <v>19442</v>
+      </c>
+      <c r="G56">
+        <v>20771</v>
+      </c>
+      <c r="H56">
+        <v>2</v>
+      </c>
+      <c r="I56">
+        <v>539</v>
+      </c>
+      <c r="J56">
+        <v>24</v>
+      </c>
+      <c r="K56">
+        <v>570</v>
+      </c>
+      <c r="L56">
+        <v>380</v>
+      </c>
+      <c r="M56">
+        <v>16935</v>
+      </c>
+      <c r="N56">
+        <v>18450</v>
+      </c>
+      <c r="O56">
+        <v>17909</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>640</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>1314</v>
+      </c>
+      <c r="F57">
+        <v>19486</v>
+      </c>
+      <c r="G57">
+        <v>20813</v>
+      </c>
+      <c r="H57">
+        <v>1</v>
+      </c>
+      <c r="I57">
+        <v>576</v>
+      </c>
+      <c r="J57">
+        <v>25</v>
+      </c>
+      <c r="K57">
+        <v>631</v>
+      </c>
+      <c r="L57">
+        <v>332</v>
+      </c>
+      <c r="M57">
+        <v>17020</v>
+      </c>
+      <c r="N57">
+        <v>18585</v>
+      </c>
+      <c r="O57">
+        <v>18008</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>640</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>7</v>
+      </c>
+      <c r="E58">
+        <v>1315</v>
+      </c>
+      <c r="F58">
+        <v>19898</v>
+      </c>
+      <c r="G58">
+        <v>21231</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>638</v>
+      </c>
+      <c r="J58">
+        <v>34</v>
+      </c>
+      <c r="K58">
+        <v>670</v>
+      </c>
+      <c r="L58">
+        <v>294</v>
+      </c>
+      <c r="M58">
+        <v>17435</v>
+      </c>
+      <c r="N58">
+        <v>19071</v>
+      </c>
+      <c r="O58">
+        <v>18433</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>640</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59">
+        <v>3</v>
+      </c>
+      <c r="E59">
+        <v>1319</v>
+      </c>
+      <c r="F59">
+        <v>19795</v>
+      </c>
+      <c r="G59">
+        <v>21130</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>401</v>
+      </c>
+      <c r="J59">
+        <v>27</v>
+      </c>
+      <c r="K59">
+        <v>666</v>
+      </c>
+      <c r="L59">
+        <v>308</v>
+      </c>
+      <c r="M59">
+        <v>17287</v>
+      </c>
+      <c r="N59">
+        <v>18690</v>
+      </c>
+      <c r="O59">
+        <v>18288</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>640</v>
+      </c>
+      <c r="C60">
+        <v>15</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>1314</v>
+      </c>
+      <c r="F60">
+        <v>19885</v>
+      </c>
+      <c r="G60">
+        <v>21222</v>
+      </c>
+      <c r="H60">
+        <v>2</v>
+      </c>
+      <c r="I60">
+        <v>589</v>
+      </c>
+      <c r="J60">
+        <v>18</v>
+      </c>
+      <c r="K60">
+        <v>650</v>
+      </c>
+      <c r="L60">
+        <v>320</v>
+      </c>
+      <c r="M60">
+        <v>17328</v>
+      </c>
+      <c r="N60">
+        <v>18907</v>
+      </c>
+      <c r="O60">
+        <v>18316</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>640</v>
+      </c>
+      <c r="C61">
+        <v>8</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>1315</v>
+      </c>
+      <c r="F61">
+        <v>19600</v>
+      </c>
+      <c r="G61">
+        <v>20930</v>
+      </c>
+      <c r="H61">
+        <v>0</v>
+      </c>
+      <c r="I61">
+        <v>851</v>
+      </c>
+      <c r="J61">
+        <v>21</v>
+      </c>
+      <c r="K61">
+        <v>629</v>
+      </c>
+      <c r="L61">
+        <v>311</v>
+      </c>
+      <c r="M61">
+        <v>17115</v>
+      </c>
+      <c r="N61">
+        <v>18927</v>
+      </c>
+      <c r="O61">
+        <v>18076</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>25</v>
+      </c>
+      <c r="B64">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>1600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B40C798-273C-49D2-8C11-DD31D8518E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E13A32-FBA3-402B-9A23-32FDAE6DDC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,10 +1864,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
-  <dimension ref="A1:Q71"/>
+  <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4758,6 +4758,45 @@
       <c r="B62">
         <v>1600</v>
       </c>
+      <c r="C62">
+        <v>24</v>
+      </c>
+      <c r="D62">
+        <v>9</v>
+      </c>
+      <c r="E62">
+        <v>2768</v>
+      </c>
+      <c r="F62">
+        <v>19729</v>
+      </c>
+      <c r="G62">
+        <v>22530</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>506</v>
+      </c>
+      <c r="J62">
+        <v>39</v>
+      </c>
+      <c r="K62">
+        <v>1299</v>
+      </c>
+      <c r="L62">
+        <v>397</v>
+      </c>
+      <c r="M62">
+        <v>17016</v>
+      </c>
+      <c r="N62">
+        <v>19257</v>
+      </c>
+      <c r="O62">
+        <v>18751</v>
+      </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -4766,6 +4805,45 @@
       <c r="B63">
         <v>1600</v>
       </c>
+      <c r="C63">
+        <v>9</v>
+      </c>
+      <c r="D63">
+        <v>8</v>
+      </c>
+      <c r="E63">
+        <v>2769</v>
+      </c>
+      <c r="F63">
+        <v>19780</v>
+      </c>
+      <c r="G63">
+        <v>22566</v>
+      </c>
+      <c r="H63">
+        <v>3</v>
+      </c>
+      <c r="I63">
+        <v>405</v>
+      </c>
+      <c r="J63">
+        <v>28</v>
+      </c>
+      <c r="K63">
+        <v>1328</v>
+      </c>
+      <c r="L63">
+        <v>388</v>
+      </c>
+      <c r="M63">
+        <v>17115</v>
+      </c>
+      <c r="N63">
+        <v>19267</v>
+      </c>
+      <c r="O63">
+        <v>18859</v>
+      </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -4774,61 +4852,453 @@
       <c r="B64">
         <v>1600</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C64">
+        <v>12</v>
+      </c>
+      <c r="D64">
+        <v>9</v>
+      </c>
+      <c r="E64">
+        <v>2768</v>
+      </c>
+      <c r="F64">
+        <v>19800</v>
+      </c>
+      <c r="G64">
+        <v>22589</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>524</v>
+      </c>
+      <c r="J64">
+        <v>23</v>
+      </c>
+      <c r="K64">
+        <v>1301</v>
+      </c>
+      <c r="L64">
+        <v>411</v>
+      </c>
+      <c r="M64">
+        <v>17031</v>
+      </c>
+      <c r="N64">
+        <v>19291</v>
+      </c>
+      <c r="O64">
+        <v>18766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>25</v>
       </c>
       <c r="B65">
         <v>1600</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C65">
+        <v>9</v>
+      </c>
+      <c r="D65">
+        <v>9</v>
+      </c>
+      <c r="E65">
+        <v>2768</v>
+      </c>
+      <c r="F65">
+        <v>19809</v>
+      </c>
+      <c r="G65">
+        <v>22595</v>
+      </c>
+      <c r="H65">
+        <v>0</v>
+      </c>
+      <c r="I65">
+        <v>484</v>
+      </c>
+      <c r="J65">
+        <v>32</v>
+      </c>
+      <c r="K65">
+        <v>1330</v>
+      </c>
+      <c r="L65">
+        <v>390</v>
+      </c>
+      <c r="M65">
+        <v>16968</v>
+      </c>
+      <c r="N65">
+        <v>19204</v>
+      </c>
+      <c r="O65">
+        <v>18720</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>25</v>
       </c>
       <c r="B66">
         <v>1600</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C66">
+        <v>21</v>
+      </c>
+      <c r="D66">
+        <v>9</v>
+      </c>
+      <c r="E66">
+        <v>2768</v>
+      </c>
+      <c r="F66">
+        <v>19690</v>
+      </c>
+      <c r="G66">
+        <v>22488</v>
+      </c>
+      <c r="H66">
+        <v>1</v>
+      </c>
+      <c r="I66">
+        <v>450</v>
+      </c>
+      <c r="J66">
+        <v>38</v>
+      </c>
+      <c r="K66">
+        <v>1126</v>
+      </c>
+      <c r="L66">
+        <v>558</v>
+      </c>
+      <c r="M66">
+        <v>16978</v>
+      </c>
+      <c r="N66">
+        <v>19151</v>
+      </c>
+      <c r="O66">
+        <v>18700</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>25</v>
       </c>
       <c r="B67">
         <v>1600</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C67">
+        <v>14</v>
+      </c>
+      <c r="D67">
+        <v>9</v>
+      </c>
+      <c r="E67">
+        <v>2768</v>
+      </c>
+      <c r="F67">
+        <v>19737</v>
+      </c>
+      <c r="G67">
+        <v>22528</v>
+      </c>
+      <c r="H67">
+        <v>2</v>
+      </c>
+      <c r="I67">
+        <v>400</v>
+      </c>
+      <c r="J67">
+        <v>49</v>
+      </c>
+      <c r="K67">
+        <v>1293</v>
+      </c>
+      <c r="L67">
+        <v>404</v>
+      </c>
+      <c r="M67">
+        <v>17047</v>
+      </c>
+      <c r="N67">
+        <v>19195</v>
+      </c>
+      <c r="O67">
+        <v>18793</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>25</v>
       </c>
       <c r="B68">
         <v>1600</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C68">
+        <v>14</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>2768</v>
+      </c>
+      <c r="F68">
+        <v>19646</v>
+      </c>
+      <c r="G68">
+        <v>22437</v>
+      </c>
+      <c r="H68">
+        <v>0</v>
+      </c>
+      <c r="I68">
+        <v>565</v>
+      </c>
+      <c r="J68">
+        <v>40</v>
+      </c>
+      <c r="K68">
+        <v>1310</v>
+      </c>
+      <c r="L68">
+        <v>370</v>
+      </c>
+      <c r="M68">
+        <v>16958</v>
+      </c>
+      <c r="N68">
+        <v>19243</v>
+      </c>
+      <c r="O68">
+        <v>18678</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>25</v>
       </c>
       <c r="B69">
         <v>1600</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>10</v>
+      </c>
+      <c r="E69">
+        <v>2767</v>
+      </c>
+      <c r="F69">
+        <v>19594</v>
+      </c>
+      <c r="G69">
+        <v>22387</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>461</v>
+      </c>
+      <c r="J69">
+        <v>41</v>
+      </c>
+      <c r="K69">
+        <v>1320</v>
+      </c>
+      <c r="L69">
+        <v>370</v>
+      </c>
+      <c r="M69">
+        <v>16887</v>
+      </c>
+      <c r="N69">
+        <v>19080</v>
+      </c>
+      <c r="O69">
+        <v>18618</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>25</v>
       </c>
       <c r="B70">
         <v>1600</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>8</v>
+      </c>
+      <c r="E70">
+        <v>2769</v>
+      </c>
+      <c r="F70">
+        <v>19775</v>
+      </c>
+      <c r="G70">
+        <v>22571</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>603</v>
+      </c>
+      <c r="J70">
+        <v>37</v>
+      </c>
+      <c r="K70">
+        <v>1264</v>
+      </c>
+      <c r="L70">
+        <v>428</v>
+      </c>
+      <c r="M70">
+        <v>17079</v>
+      </c>
+      <c r="N70">
+        <v>19413</v>
+      </c>
+      <c r="O70">
+        <v>18808</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>25</v>
       </c>
       <c r="B71">
         <v>1600</v>
+      </c>
+      <c r="C71">
+        <v>16</v>
+      </c>
+      <c r="D71">
+        <v>10</v>
+      </c>
+      <c r="E71">
+        <v>2767</v>
+      </c>
+      <c r="F71">
+        <v>19778</v>
+      </c>
+      <c r="G71">
+        <v>22571</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>515</v>
+      </c>
+      <c r="J71">
+        <v>28</v>
+      </c>
+      <c r="K71">
+        <v>1083</v>
+      </c>
+      <c r="L71">
+        <v>598</v>
+      </c>
+      <c r="M71">
+        <v>17058</v>
+      </c>
+      <c r="N71">
+        <v>19282</v>
+      </c>
+      <c r="O71">
+        <v>18767</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>25</v>
+      </c>
+      <c r="B80">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01E13A32-FBA3-402B-9A23-32FDAE6DDC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED6562-C900-4C66-9D09-D14300CCB77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
-    <sheet name="180_640" sheetId="3" r:id="rId2"/>
+    <sheet name="extinction" sheetId="4" r:id="rId2"/>
+    <sheet name="no_extinction" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
   <si>
     <t>Mass</t>
   </si>
@@ -73,17 +74,47 @@
     <t>Mapped Stars</t>
   </si>
   <si>
-    <t>Simulated</t>
+    <t>CFP &gt; 2M</t>
   </si>
   <si>
-    <t>Observed</t>
+    <t>CFP &lt; 1M</t>
+  </si>
+  <si>
+    <t>CTP &gt; 2M</t>
+  </si>
+  <si>
+    <t>CTP 1M - 2M</t>
+  </si>
+  <si>
+    <t>CTP &lt; 1M</t>
+  </si>
+  <si>
+    <t>CFN &gt; 2M</t>
+  </si>
+  <si>
+    <t>CFP 1M - 2M</t>
+  </si>
+  <si>
+    <t>CFN 1M - 2M</t>
+  </si>
+  <si>
+    <t>CFN &lt; 1M</t>
+  </si>
+  <si>
+    <t>CTN &gt; 2M</t>
+  </si>
+  <si>
+    <t>CTN 1M - 2M</t>
+  </si>
+  <si>
+    <t>CTN &lt; 1M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,8 +129,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -109,6 +147,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -121,19 +164,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -412,10 +455,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7400D3-4408-4AB0-A4E0-D2D392275FE0}">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -427,1447 +471,4857 @@
     <col min="7" max="7" width="15.5703125" customWidth="1"/>
     <col min="8" max="8" width="22.7109375" customWidth="1"/>
     <col min="9" max="9" width="20.140625" customWidth="1"/>
-    <col min="10" max="10" width="20.85546875" customWidth="1"/>
-    <col min="11" max="11" width="21.5703125" customWidth="1"/>
-    <col min="12" max="12" width="22.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" customWidth="1"/>
-    <col min="14" max="14" width="13.85546875" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="21.5703125" customWidth="1"/>
+    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>180</v>
+      </c>
+      <c r="B2" s="1">
+        <v>640</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
         <v>15</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1">
+        <v>1311</v>
+      </c>
+      <c r="F2" s="1">
+        <v>712</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2040</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>221</v>
+      </c>
+      <c r="J2" s="1">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>180</v>
-      </c>
-      <c r="B3" s="1">
-        <v>640</v>
-      </c>
-      <c r="C3" s="1">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1311</v>
-      </c>
-      <c r="F3" s="1">
-        <v>712</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2040</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>221</v>
-      </c>
-      <c r="J3" s="1">
-        <v>3</v>
-      </c>
-      <c r="K3" s="1">
+      <c r="K2" s="1">
+        <f t="shared" ref="K2:K24" si="0">J2/L2*100</f>
+        <v>0.41899441340782123</v>
+      </c>
+      <c r="L2" s="1">
         <v>716</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M2" s="1">
         <v>250</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N2" s="1">
         <v>672</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O2" s="1">
         <v>1862</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P2" s="1">
         <v>1641</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q2" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="R2" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>180</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1600</v>
+      </c>
+      <c r="C3" s="1">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1">
+        <v>19</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2758</v>
+      </c>
+      <c r="F3" s="1">
+        <v>701</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3482</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>254</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1">
+        <f t="shared" si="0"/>
+        <v>0.61674008810572689</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1135</v>
+      </c>
+      <c r="M3" s="1">
+        <v>599</v>
+      </c>
+      <c r="N3" s="1">
+        <v>652</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2466</v>
+      </c>
+      <c r="P3" s="1">
+        <v>2212</v>
+      </c>
       <c r="Q3" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>180</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1600</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>19</v>
-      </c>
-      <c r="E4" s="1">
-        <v>2758</v>
-      </c>
-      <c r="F4" s="1">
-        <v>701</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3482</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>254</v>
-      </c>
-      <c r="J4" s="1">
-        <v>7</v>
-      </c>
-      <c r="K4" s="1">
-        <v>1135</v>
-      </c>
-      <c r="L4" s="1">
-        <v>599</v>
-      </c>
-      <c r="M4" s="1">
-        <v>652</v>
-      </c>
-      <c r="N4" s="1">
-        <v>2466</v>
-      </c>
-      <c r="O4" s="1">
-        <v>2212</v>
-      </c>
-      <c r="P4" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="R3" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>180</v>
+      </c>
+      <c r="B4" s="1">
+        <v>4000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1">
+        <v>102</v>
+      </c>
+      <c r="E4" s="1">
+        <v>6419</v>
+      </c>
+      <c r="F4" s="1">
+        <v>669</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7203</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>194</v>
+      </c>
+      <c r="J4" s="1">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1">
+        <f t="shared" si="0"/>
+        <v>0.49925112331502752</v>
+      </c>
+      <c r="L4" s="1">
+        <v>2003</v>
+      </c>
+      <c r="M4" s="1">
+        <v>599</v>
+      </c>
+      <c r="N4" s="1">
+        <v>599</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3405</v>
+      </c>
+      <c r="P4" s="1">
+        <v>3211</v>
+      </c>
       <c r="Q4" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>180</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4000</v>
-      </c>
-      <c r="C5" s="1">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1">
-        <v>102</v>
-      </c>
-      <c r="E5" s="1">
-        <v>6419</v>
-      </c>
-      <c r="F5" s="1">
-        <v>669</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7203</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>194</v>
-      </c>
-      <c r="J5" s="1">
-        <v>10</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2003</v>
-      </c>
-      <c r="L5" s="1">
-        <v>599</v>
-      </c>
-      <c r="M5" s="1">
-        <v>599</v>
-      </c>
-      <c r="N5" s="1">
-        <v>3405</v>
-      </c>
-      <c r="O5" s="1">
-        <v>3211</v>
-      </c>
-      <c r="P5" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="R4" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>180</v>
+      </c>
+      <c r="B5" s="1">
+        <v>10000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1">
+        <v>270</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16679</v>
+      </c>
+      <c r="F5" s="1">
+        <v>644</v>
+      </c>
+      <c r="G5" s="1">
+        <v>17620</v>
+      </c>
+      <c r="H5" s="1">
+        <v>16</v>
+      </c>
+      <c r="I5" s="1">
+        <v>152</v>
+      </c>
+      <c r="J5" s="1">
+        <v>18</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>0.33695245226506926</v>
+      </c>
+      <c r="L5" s="1">
+        <v>5342</v>
+      </c>
+      <c r="M5" s="1">
+        <v>910</v>
+      </c>
+      <c r="N5" s="1">
+        <v>540</v>
+      </c>
+      <c r="O5" s="1">
+        <v>6978</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6810</v>
+      </c>
       <c r="Q5" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>180</v>
-      </c>
-      <c r="B6" s="1">
-        <v>10000</v>
-      </c>
-      <c r="C6" s="1">
-        <v>27</v>
-      </c>
-      <c r="D6" s="1">
-        <v>270</v>
-      </c>
-      <c r="E6" s="1">
-        <v>16679</v>
-      </c>
-      <c r="F6" s="1">
-        <v>644</v>
-      </c>
-      <c r="G6" s="1">
-        <v>17620</v>
-      </c>
-      <c r="H6" s="1">
-        <v>16</v>
-      </c>
-      <c r="I6" s="1">
-        <v>152</v>
-      </c>
-      <c r="J6" s="1">
-        <v>18</v>
-      </c>
-      <c r="K6" s="1">
-        <v>5342</v>
-      </c>
-      <c r="L6" s="1">
-        <v>910</v>
-      </c>
-      <c r="M6" s="1">
-        <v>540</v>
-      </c>
-      <c r="N6" s="1">
-        <v>6978</v>
-      </c>
-      <c r="O6" s="1">
-        <v>6810</v>
-      </c>
-      <c r="P6" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
+      <c r="R5" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>180</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>71</v>
+      </c>
+      <c r="D6" s="1">
+        <v>613</v>
+      </c>
+      <c r="E6" s="1">
+        <v>39804</v>
+      </c>
+      <c r="F6" s="1">
+        <v>604</v>
+      </c>
+      <c r="G6" s="1">
+        <v>41092</v>
+      </c>
+      <c r="H6" s="1">
+        <v>41</v>
+      </c>
+      <c r="I6" s="1">
+        <v>147</v>
+      </c>
+      <c r="J6" s="1">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1">
+        <f t="shared" si="0"/>
+        <v>0.22385449457852394</v>
+      </c>
+      <c r="L6" s="1">
+        <v>14295</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1528</v>
+      </c>
+      <c r="N6" s="1">
+        <v>496</v>
+      </c>
+      <c r="O6" s="1">
+        <v>16539</v>
+      </c>
+      <c r="P6" s="1">
+        <v>16351</v>
+      </c>
       <c r="Q6" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>180</v>
-      </c>
-      <c r="B7" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C7" s="1">
-        <v>71</v>
-      </c>
-      <c r="D7" s="1">
-        <v>613</v>
-      </c>
-      <c r="E7" s="1">
-        <v>39804</v>
-      </c>
-      <c r="F7" s="1">
-        <v>604</v>
-      </c>
-      <c r="G7" s="1">
-        <v>41092</v>
-      </c>
-      <c r="H7" s="1">
-        <v>41</v>
-      </c>
-      <c r="I7" s="1">
-        <v>147</v>
-      </c>
-      <c r="J7" s="1">
-        <v>32</v>
-      </c>
-      <c r="K7" s="1">
-        <v>14295</v>
-      </c>
-      <c r="L7" s="1">
-        <v>1528</v>
-      </c>
-      <c r="M7" s="1">
-        <v>496</v>
-      </c>
-      <c r="N7" s="1">
-        <v>16539</v>
-      </c>
-      <c r="O7" s="1">
-        <v>16351</v>
-      </c>
-      <c r="P7" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="R6" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>640</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>11</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1311</v>
+      </c>
+      <c r="F8" s="1">
+        <v>19747</v>
+      </c>
+      <c r="G8" s="1">
+        <v>21077</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>848</v>
+      </c>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4556040756914119</v>
+      </c>
+      <c r="L8" s="1">
+        <v>687</v>
+      </c>
+      <c r="M8" s="1">
+        <v>273</v>
+      </c>
+      <c r="N8" s="1">
+        <v>17254</v>
+      </c>
+      <c r="O8" s="1">
+        <v>19072</v>
+      </c>
+      <c r="P8" s="1">
+        <v>18224</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>0.000381057258287357*0.03</f>
+        <v>1.143171774862071E-5</v>
+      </c>
+      <c r="R8" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>25</v>
       </c>
       <c r="B9" s="1">
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="C9" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="E9" s="1">
-        <v>1311</v>
+        <v>2749</v>
       </c>
       <c r="F9" s="1">
-        <v>19747</v>
+        <v>19750</v>
       </c>
       <c r="G9" s="1">
-        <v>21077</v>
+        <v>22539</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>848</v>
+        <v>573</v>
       </c>
       <c r="J9" s="1">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="K9" s="1">
-        <v>687</v>
+        <f t="shared" si="0"/>
+        <v>1.0180109631949883</v>
       </c>
       <c r="L9" s="1">
-        <v>273</v>
+        <v>1277</v>
       </c>
       <c r="M9" s="1">
-        <v>17254</v>
+        <v>395</v>
       </c>
       <c r="N9" s="1">
-        <v>19072</v>
+        <v>17044</v>
       </c>
       <c r="O9" s="1">
-        <v>18224</v>
+        <v>19303</v>
       </c>
       <c r="P9" s="1">
+        <v>18729</v>
+      </c>
+      <c r="Q9" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q9" s="1">
+      <c r="R9" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>25</v>
       </c>
       <c r="B10" s="1">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="C10" s="1">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1">
-        <v>2749</v>
+        <v>6421</v>
       </c>
       <c r="F10" s="1">
-        <v>19750</v>
+        <v>19900</v>
       </c>
       <c r="G10" s="1">
-        <v>22539</v>
+        <v>26441</v>
       </c>
       <c r="H10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I10" s="1">
-        <v>573</v>
+        <v>543</v>
       </c>
       <c r="J10" s="1">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1">
-        <v>1277</v>
+        <f t="shared" si="0"/>
+        <v>0.74463425317564613</v>
       </c>
       <c r="L10" s="1">
-        <v>395</v>
+        <v>2283</v>
       </c>
       <c r="M10" s="1">
-        <v>17044</v>
+        <v>658</v>
       </c>
       <c r="N10" s="1">
-        <v>19303</v>
+        <v>16606</v>
       </c>
       <c r="O10" s="1">
-        <v>18729</v>
+        <v>20110</v>
       </c>
       <c r="P10" s="1">
+        <v>19564</v>
+      </c>
+      <c r="Q10" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="R10" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>25</v>
       </c>
       <c r="B11" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="C11" s="1">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="D11" s="1">
-        <v>107</v>
+        <v>296</v>
       </c>
       <c r="E11" s="1">
-        <v>6421</v>
+        <v>16634</v>
       </c>
       <c r="F11" s="1">
-        <v>19900</v>
+        <v>19670</v>
       </c>
       <c r="G11" s="1">
-        <v>26441</v>
+        <v>36651</v>
       </c>
       <c r="H11" s="1">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1">
-        <v>543</v>
+        <v>246</v>
       </c>
       <c r="J11" s="1">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="K11" s="1">
-        <v>2283</v>
+        <f t="shared" si="0"/>
+        <v>0.65926439972241502</v>
       </c>
       <c r="L11" s="1">
-        <v>658</v>
+        <v>5764</v>
       </c>
       <c r="M11" s="1">
-        <v>16606</v>
+        <v>1135</v>
       </c>
       <c r="N11" s="1">
-        <v>20110</v>
+        <v>15808</v>
       </c>
       <c r="O11" s="1">
-        <v>19564</v>
+        <v>23008</v>
       </c>
       <c r="P11" s="1">
+        <v>22745</v>
+      </c>
+      <c r="Q11" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q11" s="1">
+      <c r="R11" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>25</v>
       </c>
       <c r="B12" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C12" s="1">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="D12" s="1">
-        <v>296</v>
+        <v>581</v>
       </c>
       <c r="E12" s="1">
-        <v>16634</v>
+        <v>39872</v>
       </c>
       <c r="F12" s="1">
-        <v>19670</v>
+        <v>19234</v>
       </c>
       <c r="G12" s="1">
-        <v>36651</v>
+        <v>59798</v>
       </c>
       <c r="H12" s="1">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="I12" s="1">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="J12" s="1">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="K12" s="1">
-        <v>5764</v>
+        <f t="shared" si="0"/>
+        <v>0.62309515746698274</v>
       </c>
       <c r="L12" s="1">
-        <v>1135</v>
+        <v>14765</v>
       </c>
       <c r="M12" s="1">
-        <v>15808</v>
+        <v>1831</v>
       </c>
       <c r="N12" s="1">
-        <v>23008</v>
+        <v>14214</v>
       </c>
       <c r="O12" s="1">
-        <v>22745</v>
+        <v>31184</v>
       </c>
       <c r="P12" s="1">
+        <v>30902</v>
+      </c>
+      <c r="Q12" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q12" s="1">
+      <c r="R12" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C13" s="1">
-        <v>111</v>
-      </c>
-      <c r="D13" s="1">
-        <v>581</v>
-      </c>
-      <c r="E13" s="1">
-        <v>39872</v>
-      </c>
-      <c r="F13" s="1">
-        <v>19234</v>
-      </c>
-      <c r="G13" s="1">
-        <v>59798</v>
-      </c>
-      <c r="H13" s="1">
-        <v>66</v>
-      </c>
-      <c r="I13" s="1">
-        <v>216</v>
-      </c>
-      <c r="J13" s="1">
-        <v>92</v>
-      </c>
-      <c r="K13" s="1">
-        <v>14765</v>
-      </c>
-      <c r="L13" s="1">
-        <v>1831</v>
-      </c>
-      <c r="M13" s="1">
-        <v>14214</v>
-      </c>
-      <c r="N13" s="1">
-        <v>31184</v>
-      </c>
-      <c r="O13" s="1">
-        <v>30902</v>
-      </c>
-      <c r="P13" s="1">
+    <row r="14" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>640</v>
+      </c>
+      <c r="C14" s="1">
+        <v>48</v>
+      </c>
+      <c r="D14" s="1">
+        <v>12</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1314</v>
+      </c>
+      <c r="F14" s="1">
+        <v>47590</v>
+      </c>
+      <c r="G14" s="1">
+        <v>48964</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1112</v>
+      </c>
+      <c r="J14" s="1">
+        <v>62</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9182630906768843</v>
+      </c>
+      <c r="L14" s="1">
+        <v>783</v>
+      </c>
+      <c r="M14" s="1">
+        <v>174</v>
+      </c>
+      <c r="N14" s="1">
+        <v>39734</v>
+      </c>
+      <c r="O14" s="1">
+        <v>41865</v>
+      </c>
+      <c r="P14" s="1">
+        <v>40753</v>
+      </c>
+      <c r="Q14" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q13" s="1">
+      <c r="R14" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="15" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1">
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="C15" s="1">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="D15" s="1">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="E15" s="1">
-        <v>1314</v>
+        <v>2752</v>
       </c>
       <c r="F15" s="1">
-        <v>47590</v>
+        <v>47594</v>
       </c>
       <c r="G15" s="1">
-        <v>48964</v>
+        <v>50438</v>
       </c>
       <c r="H15" s="1">
         <v>0</v>
       </c>
       <c r="I15" s="1">
-        <v>1112</v>
+        <v>941</v>
       </c>
       <c r="J15" s="1">
-        <v>62</v>
+        <v>93</v>
       </c>
       <c r="K15" s="1">
-        <v>783</v>
+        <f t="shared" si="0"/>
+        <v>6.5263157894736841</v>
       </c>
       <c r="L15" s="1">
-        <v>174</v>
+        <v>1425</v>
       </c>
       <c r="M15" s="1">
-        <v>39734</v>
+        <v>351</v>
       </c>
       <c r="N15" s="1">
-        <v>41865</v>
+        <v>39332</v>
       </c>
       <c r="O15" s="1">
-        <v>40753</v>
+        <v>42142</v>
       </c>
       <c r="P15" s="1">
+        <v>41201</v>
+      </c>
+      <c r="Q15" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q15" s="1">
+      <c r="R15" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="C16" s="1">
-        <v>69</v>
+        <v>148</v>
       </c>
       <c r="D16" s="1">
-        <v>23</v>
+        <v>104</v>
       </c>
       <c r="E16" s="1">
-        <v>2752</v>
+        <v>6414</v>
       </c>
       <c r="F16" s="1">
-        <v>47594</v>
+        <v>47972</v>
       </c>
       <c r="G16" s="1">
-        <v>50438</v>
+        <v>54638</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I16" s="1">
-        <v>941</v>
+        <v>645</v>
       </c>
       <c r="J16" s="1">
-        <v>93</v>
+        <v>151</v>
       </c>
       <c r="K16" s="1">
-        <v>1425</v>
+        <f t="shared" si="0"/>
+        <v>5.8301158301158296</v>
       </c>
       <c r="L16" s="1">
-        <v>351</v>
+        <v>2590</v>
       </c>
       <c r="M16" s="1">
-        <v>39332</v>
+        <v>632</v>
       </c>
       <c r="N16" s="1">
-        <v>42142</v>
+        <v>38779</v>
       </c>
       <c r="O16" s="1">
-        <v>41201</v>
+        <v>42808</v>
       </c>
       <c r="P16" s="1">
+        <v>42152</v>
+      </c>
+      <c r="Q16" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q16" s="1">
+      <c r="R16" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="17" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>10</v>
       </c>
       <c r="B17" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="C17" s="1">
-        <v>148</v>
+        <v>334</v>
       </c>
       <c r="D17" s="1">
-        <v>104</v>
+        <v>245</v>
       </c>
       <c r="E17" s="1">
-        <v>6414</v>
+        <v>16701</v>
       </c>
       <c r="F17" s="1">
-        <v>47972</v>
+        <v>47567</v>
       </c>
       <c r="G17" s="1">
-        <v>54638</v>
+        <v>64847</v>
       </c>
       <c r="H17" s="1">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="I17" s="1">
-        <v>645</v>
+        <v>541</v>
       </c>
       <c r="J17" s="1">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="K17" s="1">
-        <v>2590</v>
+        <f t="shared" si="0"/>
+        <v>4.2751526840244294</v>
       </c>
       <c r="L17" s="1">
-        <v>632</v>
+        <v>6222</v>
       </c>
       <c r="M17" s="1">
-        <v>38779</v>
+        <v>1147</v>
       </c>
       <c r="N17" s="1">
-        <v>42808</v>
+        <v>37080</v>
       </c>
       <c r="O17" s="1">
-        <v>42152</v>
+        <v>45274</v>
       </c>
       <c r="P17" s="1">
+        <v>44715</v>
+      </c>
+      <c r="Q17" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q17" s="1">
+      <c r="R17" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>10</v>
       </c>
       <c r="B18" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C18" s="1">
-        <v>334</v>
+        <v>695</v>
       </c>
       <c r="D18" s="1">
-        <v>245</v>
+        <v>515</v>
       </c>
       <c r="E18" s="1">
-        <v>16701</v>
+        <v>39917</v>
       </c>
       <c r="F18" s="1">
-        <v>47567</v>
+        <v>47055</v>
       </c>
       <c r="G18" s="1">
-        <v>64847</v>
+        <v>88182</v>
       </c>
       <c r="H18" s="1">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="I18" s="1">
-        <v>541</v>
+        <v>382</v>
       </c>
       <c r="J18" s="1">
-        <v>266</v>
+        <v>467</v>
       </c>
       <c r="K18" s="1">
-        <v>6222</v>
+        <f t="shared" si="0"/>
+        <v>3.2336241517795323</v>
       </c>
       <c r="L18" s="1">
-        <v>1147</v>
+        <v>14442</v>
       </c>
       <c r="M18" s="1">
-        <v>37080</v>
+        <v>913</v>
       </c>
       <c r="N18" s="1">
-        <v>45274</v>
+        <v>29726</v>
       </c>
       <c r="O18" s="1">
-        <v>44715</v>
+        <v>51341</v>
       </c>
       <c r="P18" s="1">
+        <v>50853</v>
+      </c>
+      <c r="Q18" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q18" s="1">
+      <c r="R18" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>10</v>
-      </c>
-      <c r="B19" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C19" s="1">
-        <v>695</v>
-      </c>
-      <c r="D19" s="1">
-        <v>515</v>
-      </c>
-      <c r="E19" s="1">
-        <v>39917</v>
-      </c>
-      <c r="F19" s="1">
-        <v>47055</v>
-      </c>
-      <c r="G19" s="1">
-        <v>88182</v>
-      </c>
-      <c r="H19" s="1">
-        <v>76</v>
-      </c>
-      <c r="I19" s="1">
-        <v>382</v>
-      </c>
-      <c r="J19" s="1">
-        <v>467</v>
-      </c>
-      <c r="K19" s="1">
-        <v>14442</v>
-      </c>
-      <c r="L19" s="1">
-        <v>913</v>
-      </c>
-      <c r="M19" s="1">
-        <v>29726</v>
-      </c>
-      <c r="N19" s="1">
-        <v>51341</v>
-      </c>
-      <c r="O19" s="1">
-        <v>50853</v>
-      </c>
-      <c r="P19" s="1">
+    <row r="20" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>640</v>
+      </c>
+      <c r="C20" s="1">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1">
+        <v>1310</v>
+      </c>
+      <c r="F20" s="1">
+        <v>67618</v>
+      </c>
+      <c r="G20" s="1">
+        <v>68974</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>1063</v>
+      </c>
+      <c r="J20" s="1">
+        <v>35</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>6.3405797101449277</v>
+      </c>
+      <c r="L20" s="1">
+        <v>552</v>
+      </c>
+      <c r="M20" s="1">
+        <v>429</v>
+      </c>
+      <c r="N20" s="1">
+        <v>55958</v>
+      </c>
+      <c r="O20" s="1">
+        <v>58037</v>
+      </c>
+      <c r="P20" s="1">
+        <v>56974</v>
+      </c>
+      <c r="Q20" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q19" s="1">
+      <c r="R20" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="21" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>5</v>
       </c>
       <c r="B21" s="1">
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="C21" s="1">
+        <v>61</v>
+      </c>
+      <c r="D21" s="1">
         <v>28</v>
       </c>
-      <c r="D21" s="1">
-        <v>18</v>
-      </c>
       <c r="E21" s="1">
-        <v>1310</v>
+        <v>2749</v>
       </c>
       <c r="F21" s="1">
-        <v>67618</v>
+        <v>67696</v>
       </c>
       <c r="G21" s="1">
-        <v>68974</v>
+        <v>70534</v>
       </c>
       <c r="H21" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" s="1">
-        <v>1063</v>
+        <v>907</v>
       </c>
       <c r="J21" s="1">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="K21" s="1">
-        <v>552</v>
+        <f t="shared" si="0"/>
+        <v>6.953125</v>
       </c>
       <c r="L21" s="1">
-        <v>429</v>
+        <v>1280</v>
       </c>
       <c r="M21" s="1">
-        <v>55958</v>
+        <v>533</v>
       </c>
       <c r="N21" s="1">
-        <v>58037</v>
+        <v>55683</v>
       </c>
       <c r="O21" s="1">
-        <v>56974</v>
+        <v>58494</v>
       </c>
       <c r="P21" s="1">
+        <v>57585</v>
+      </c>
+      <c r="Q21" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q21" s="1">
+      <c r="R21" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="22" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>5</v>
       </c>
       <c r="B22" s="1">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="C22" s="1">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="D22" s="1">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="E22" s="1">
-        <v>2749</v>
+        <v>6434</v>
       </c>
       <c r="F22" s="1">
-        <v>67696</v>
+        <v>67310</v>
       </c>
       <c r="G22" s="1">
-        <v>70534</v>
+        <v>73965</v>
       </c>
       <c r="H22" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I22" s="1">
-        <v>907</v>
+        <v>1389</v>
       </c>
       <c r="J22" s="1">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="K22" s="1">
-        <v>1280</v>
+        <f t="shared" si="0"/>
+        <v>5.8934642992066495</v>
       </c>
       <c r="L22" s="1">
-        <v>533</v>
+        <v>2647</v>
       </c>
       <c r="M22" s="1">
-        <v>55683</v>
+        <v>764</v>
       </c>
       <c r="N22" s="1">
-        <v>58494</v>
+        <v>53889</v>
       </c>
       <c r="O22" s="1">
-        <v>57585</v>
+        <v>58850</v>
       </c>
       <c r="P22" s="1">
+        <v>57456</v>
+      </c>
+      <c r="Q22" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q22" s="1">
+      <c r="R22" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>5</v>
       </c>
       <c r="B23" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="C23" s="1">
-        <v>138</v>
+        <v>225</v>
       </c>
       <c r="D23" s="1">
-        <v>83</v>
+        <v>267</v>
       </c>
       <c r="E23" s="1">
-        <v>6434</v>
+        <v>16686</v>
       </c>
       <c r="F23" s="1">
-        <v>67310</v>
+        <v>66949</v>
       </c>
       <c r="G23" s="1">
-        <v>73965</v>
+        <v>84127</v>
       </c>
       <c r="H23" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="I23" s="1">
-        <v>1389</v>
+        <v>709</v>
       </c>
       <c r="J23" s="1">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="K23" s="1">
-        <v>2647</v>
+        <f t="shared" si="0"/>
+        <v>3.6475095785440614</v>
       </c>
       <c r="L23" s="1">
-        <v>764</v>
+        <v>6525</v>
       </c>
       <c r="M23" s="1">
-        <v>53889</v>
+        <v>1316</v>
       </c>
       <c r="N23" s="1">
-        <v>58850</v>
+        <v>52124</v>
       </c>
       <c r="O23" s="1">
-        <v>57456</v>
+        <v>60937</v>
       </c>
       <c r="P23" s="1">
+        <v>60203</v>
+      </c>
+      <c r="Q23" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q23" s="1">
+      <c r="R23" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="24" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>5</v>
       </c>
       <c r="B24" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C24" s="1">
-        <v>225</v>
+        <v>576</v>
       </c>
       <c r="D24" s="1">
-        <v>267</v>
+        <v>594</v>
       </c>
       <c r="E24" s="1">
-        <v>16686</v>
+        <v>39812</v>
       </c>
       <c r="F24" s="1">
-        <v>66949</v>
+        <v>66947</v>
       </c>
       <c r="G24" s="1">
-        <v>84127</v>
+        <v>107929</v>
       </c>
       <c r="H24" s="1">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="I24" s="1">
-        <v>709</v>
+        <v>556</v>
       </c>
       <c r="J24" s="1">
-        <v>238</v>
+        <v>412</v>
       </c>
       <c r="K24" s="1">
-        <v>6525</v>
+        <f t="shared" si="0"/>
+        <v>2.9881055990716563</v>
       </c>
       <c r="L24" s="1">
-        <v>1316</v>
+        <v>13788</v>
       </c>
       <c r="M24" s="1">
-        <v>52124</v>
+        <v>2287</v>
       </c>
       <c r="N24" s="1">
-        <v>60937</v>
+        <v>48020</v>
       </c>
       <c r="O24" s="1">
-        <v>60203</v>
+        <v>65110</v>
       </c>
       <c r="P24" s="1">
+        <v>64507</v>
+      </c>
+      <c r="Q24" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q24" s="1">
+      <c r="R24" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="25" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="26" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>0</v>
+      </c>
+      <c r="B26" s="1">
+        <v>640</v>
+      </c>
+      <c r="C26" s="1">
+        <v>121</v>
+      </c>
+      <c r="D26" s="1">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1309</v>
+      </c>
+      <c r="F26" s="1">
+        <v>350653</v>
+      </c>
+      <c r="G26" s="1">
+        <v>352100</v>
+      </c>
+      <c r="H26" s="1">
         <v>5</v>
       </c>
-      <c r="B25" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C25" s="1">
-        <v>576</v>
-      </c>
-      <c r="D25" s="1">
-        <v>594</v>
-      </c>
-      <c r="E25" s="1">
-        <v>39812</v>
-      </c>
-      <c r="F25" s="1">
-        <v>66947</v>
-      </c>
-      <c r="G25" s="1">
-        <v>107929</v>
-      </c>
-      <c r="H25" s="1">
-        <v>47</v>
-      </c>
-      <c r="I25" s="1">
-        <v>556</v>
-      </c>
-      <c r="J25" s="1">
-        <v>412</v>
-      </c>
-      <c r="K25" s="1">
-        <v>13788</v>
-      </c>
-      <c r="L25" s="1">
-        <v>2287</v>
-      </c>
-      <c r="M25" s="1">
-        <v>48020</v>
-      </c>
-      <c r="N25" s="1">
-        <v>65110</v>
-      </c>
-      <c r="O25" s="1">
-        <v>64507</v>
-      </c>
-      <c r="P25" s="1">
+      <c r="I26" s="1">
+        <v>5418</v>
+      </c>
+      <c r="J26" s="1">
+        <v>256</v>
+      </c>
+      <c r="K26" s="1">
+        <f>J26/L26*100</f>
+        <v>45.390070921985817</v>
+      </c>
+      <c r="L26" s="1">
+        <v>564</v>
+      </c>
+      <c r="M26" s="1">
+        <v>369</v>
+      </c>
+      <c r="N26" s="1">
+        <v>267518</v>
+      </c>
+      <c r="O26" s="1">
+        <v>274130</v>
+      </c>
+      <c r="P26" s="1">
+        <v>268707</v>
+      </c>
+      <c r="Q26" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q25" s="1">
+      <c r="R26" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="27" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27" s="1">
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="C27" s="1">
-        <v>121</v>
+        <v>224</v>
       </c>
       <c r="D27" s="1">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="E27" s="1">
-        <v>1309</v>
+        <v>2741</v>
       </c>
       <c r="F27" s="1">
-        <v>350653</v>
+        <v>350394</v>
       </c>
       <c r="G27" s="1">
-        <v>352100</v>
+        <v>353395</v>
       </c>
       <c r="H27" s="1">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I27" s="1">
-        <v>5418</v>
+        <v>5566</v>
       </c>
       <c r="J27" s="1">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="K27" s="1">
-        <v>564</v>
+        <f t="shared" ref="K27:K30" si="1">J27/L27*100</f>
+        <v>34.485666104553118</v>
       </c>
       <c r="L27" s="1">
-        <v>369</v>
+        <v>1186</v>
       </c>
       <c r="M27" s="1">
-        <v>267518</v>
+        <v>567</v>
       </c>
       <c r="N27" s="1">
-        <v>274130</v>
+        <v>263821</v>
       </c>
       <c r="O27" s="1">
-        <v>268707</v>
+        <v>271557</v>
       </c>
       <c r="P27" s="1">
+        <v>265983</v>
+      </c>
+      <c r="Q27" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q27" s="1">
+      <c r="R27" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0</v>
       </c>
       <c r="B28" s="1">
-        <v>1600</v>
+        <v>4000</v>
       </c>
       <c r="C28" s="1">
-        <v>224</v>
+        <v>535</v>
       </c>
       <c r="D28" s="1">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="E28" s="1">
-        <v>2741</v>
+        <v>6428</v>
       </c>
       <c r="F28" s="1">
-        <v>350394</v>
+        <v>350990</v>
       </c>
       <c r="G28" s="1">
-        <v>353395</v>
+        <v>358046</v>
       </c>
       <c r="H28" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1">
-        <v>5566</v>
+        <v>5673</v>
       </c>
       <c r="J28" s="1">
-        <v>409</v>
+        <v>601</v>
       </c>
       <c r="K28" s="1">
-        <v>1186</v>
+        <f t="shared" si="1"/>
+        <v>21.572146446518307</v>
       </c>
       <c r="L28" s="1">
-        <v>567</v>
+        <v>2786</v>
       </c>
       <c r="M28" s="1">
-        <v>263821</v>
+        <v>1059</v>
       </c>
       <c r="N28" s="1">
-        <v>271557</v>
+        <v>258710</v>
       </c>
       <c r="O28" s="1">
-        <v>265983</v>
+        <v>268846</v>
       </c>
       <c r="P28" s="1">
+        <v>263156</v>
+      </c>
+      <c r="Q28" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q28" s="1">
+      <c r="R28" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29" s="1">
-        <v>4000</v>
+        <v>10000</v>
       </c>
       <c r="C29" s="1">
-        <v>535</v>
+        <v>1120</v>
       </c>
       <c r="D29" s="1">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="E29" s="1">
-        <v>6428</v>
+        <v>16743</v>
       </c>
       <c r="F29" s="1">
-        <v>350990</v>
+        <v>350661</v>
       </c>
       <c r="G29" s="1">
-        <v>358046</v>
+        <v>368731</v>
       </c>
       <c r="H29" s="1">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="I29" s="1">
-        <v>5673</v>
+        <v>5698</v>
       </c>
       <c r="J29" s="1">
-        <v>601</v>
+        <v>1111</v>
       </c>
       <c r="K29" s="1">
-        <v>2786</v>
+        <f t="shared" si="1"/>
+        <v>17.515371275421725</v>
       </c>
       <c r="L29" s="1">
-        <v>1059</v>
+        <v>6343</v>
       </c>
       <c r="M29" s="1">
-        <v>258710</v>
+        <v>1871</v>
       </c>
       <c r="N29" s="1">
-        <v>268846</v>
+        <v>247466</v>
       </c>
       <c r="O29" s="1">
-        <v>263156</v>
+        <v>262549</v>
       </c>
       <c r="P29" s="1">
+        <v>256791</v>
+      </c>
+      <c r="Q29" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="R29" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30" s="1">
-        <v>10000</v>
+        <v>25000</v>
       </c>
       <c r="C30" s="1">
-        <v>1120</v>
+        <v>2352</v>
       </c>
       <c r="D30" s="1">
-        <v>207</v>
+        <v>566</v>
       </c>
       <c r="E30" s="1">
-        <v>16743</v>
+        <v>39852</v>
       </c>
       <c r="F30" s="1">
-        <v>350661</v>
+        <v>348478</v>
       </c>
       <c r="G30" s="1">
-        <v>368731</v>
+        <v>391248</v>
       </c>
       <c r="H30" s="1">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="I30" s="1">
-        <v>5698</v>
+        <v>5115</v>
       </c>
       <c r="J30" s="1">
-        <v>1111</v>
+        <v>1749</v>
       </c>
       <c r="K30" s="1">
-        <v>6343</v>
+        <f t="shared" si="1"/>
+        <v>13.88095238095238</v>
       </c>
       <c r="L30" s="1">
-        <v>1871</v>
+        <v>12600</v>
       </c>
       <c r="M30" s="1">
-        <v>247466</v>
+        <v>3033</v>
       </c>
       <c r="N30" s="1">
-        <v>262549</v>
+        <v>222476</v>
       </c>
       <c r="O30" s="1">
-        <v>256791</v>
+        <v>245094</v>
       </c>
       <c r="P30" s="1">
+        <v>239858</v>
+      </c>
+      <c r="Q30" s="1">
         <f>0.000381057258287357*0.03</f>
         <v>1.143171774862071E-5</v>
       </c>
-      <c r="Q30" s="1">
+      <c r="R30" s="1">
         <v>200</v>
       </c>
     </row>
-    <row r="31" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>0</v>
-      </c>
-      <c r="B31" s="1">
-        <v>25000</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2352</v>
-      </c>
-      <c r="D31" s="1">
-        <v>566</v>
-      </c>
-      <c r="E31" s="1">
-        <v>39852</v>
-      </c>
-      <c r="F31" s="1">
-        <v>348478</v>
-      </c>
-      <c r="G31" s="1">
-        <v>391248</v>
-      </c>
-      <c r="H31" s="1">
-        <v>121</v>
-      </c>
-      <c r="I31" s="1">
-        <v>5115</v>
-      </c>
-      <c r="J31" s="1">
-        <v>1749</v>
-      </c>
-      <c r="K31" s="1">
-        <v>12600</v>
-      </c>
-      <c r="L31" s="1">
-        <v>3033</v>
-      </c>
-      <c r="M31" s="1">
-        <v>222476</v>
-      </c>
-      <c r="N31" s="1">
-        <v>245094</v>
-      </c>
-      <c r="O31" s="1">
-        <v>239858</v>
-      </c>
-      <c r="P31" s="1">
-        <f>0.000381057258287357*0.03</f>
-        <v>1.143171774862071E-5</v>
-      </c>
-      <c r="Q31" s="1">
-        <v>200</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:O1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A951231-B0A3-4FFC-86C6-6619D5753158}">
+  <dimension ref="A1:AA61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="24.140625" customWidth="1"/>
+    <col min="14" max="16" width="11.42578125" customWidth="1"/>
+    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="18" max="20" width="11.42578125" customWidth="1"/>
+    <col min="21" max="21" width="23.5703125" customWidth="1"/>
+    <col min="22" max="24" width="11.42578125" customWidth="1"/>
+    <col min="25" max="25" width="23" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U1" t="s">
+        <v>11</v>
+      </c>
+      <c r="V1" t="s">
+        <v>24</v>
+      </c>
+      <c r="W1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>180</v>
+      </c>
+      <c r="B2" s="2">
+        <v>640</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0</v>
+      </c>
+      <c r="D2" s="2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F2" s="2">
+        <v>675</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2001</v>
+      </c>
+      <c r="H2" s="2">
+        <v>0</v>
+      </c>
+      <c r="I2" s="2">
+        <v>241</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>545</v>
+      </c>
+      <c r="U2" s="2">
+        <v>408</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>1843</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>1602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>180</v>
+      </c>
+      <c r="B3" s="2">
+        <v>640</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F3" s="2">
+        <v>712</v>
+      </c>
+      <c r="G3" s="2">
+        <v>2038</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2">
+        <v>266</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>592</v>
+      </c>
+      <c r="U3" s="2">
+        <v>370</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>677</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>1906</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>180</v>
+      </c>
+      <c r="B4" s="2">
+        <v>640</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
+        <v>8</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F4" s="2">
+        <v>726</v>
+      </c>
+      <c r="G4" s="2">
+        <v>2052</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>307</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>459</v>
+      </c>
+      <c r="U4" s="2">
+        <v>506</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>696</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>1968</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>180</v>
+      </c>
+      <c r="B5" s="2">
+        <v>640</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0</v>
+      </c>
+      <c r="D5" s="2">
+        <v>8</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F5" s="2">
+        <v>681</v>
+      </c>
+      <c r="G5" s="2">
+        <v>2007</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>274</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>414</v>
+      </c>
+      <c r="U5" s="2">
+        <v>549</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>646</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>1883</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>180</v>
+      </c>
+      <c r="B6" s="2">
+        <v>640</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0</v>
+      </c>
+      <c r="D6" s="2">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1317</v>
+      </c>
+      <c r="F6" s="2">
+        <v>682</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2008</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>270</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>439</v>
+      </c>
+      <c r="U6" s="2">
+        <v>514</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>645</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>1868</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>1598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>180</v>
+      </c>
+      <c r="B7" s="2">
+        <v>640</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0</v>
+      </c>
+      <c r="D7" s="2">
+        <v>8</v>
+      </c>
+      <c r="E7" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F7" s="2">
+        <v>675</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2001</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>267</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>425</v>
+      </c>
+      <c r="U7" s="2">
+        <v>515</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>648</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>1855</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>1588</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>180</v>
+      </c>
+      <c r="B8" s="2">
+        <v>640</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0</v>
+      </c>
+      <c r="D8" s="2">
+        <v>8</v>
+      </c>
+      <c r="E8" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F8" s="2">
+        <v>694</v>
+      </c>
+      <c r="G8" s="2">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>261</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>431</v>
+      </c>
+      <c r="U8" s="2">
+        <v>527</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>669</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>1888</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>1627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>180</v>
+      </c>
+      <c r="B9" s="2">
+        <v>640</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F9" s="2">
+        <v>674</v>
+      </c>
+      <c r="G9" s="2">
+        <v>2000</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>216</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>514</v>
+      </c>
+      <c r="U9" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>646</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>1819</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>1603</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>180</v>
+      </c>
+      <c r="B10" s="2">
+        <v>640</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0</v>
+      </c>
+      <c r="D10" s="2">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F10" s="2">
+        <v>647</v>
+      </c>
+      <c r="G10" s="2">
+        <v>1973</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>240</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>420</v>
+      </c>
+      <c r="U10" s="2">
+        <v>545</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>602</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>1807</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>180</v>
+      </c>
+      <c r="B11" s="2">
+        <v>640</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0</v>
+      </c>
+      <c r="D11" s="2">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2">
+        <v>1318</v>
+      </c>
+      <c r="F11" s="2">
+        <v>701</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2027</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>241</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>482</v>
+      </c>
+      <c r="U11" s="2">
+        <v>477</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>676</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>1876</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>180</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2">
+        <v>18</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2759</v>
+      </c>
+      <c r="F12" s="2">
+        <v>727</v>
+      </c>
+      <c r="G12" s="2">
+        <v>3504</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>312</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>1139</v>
+      </c>
+      <c r="U12" s="2">
+        <v>417</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>681</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>2549</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>2237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>180</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0</v>
+      </c>
+      <c r="D13" s="2">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F13" s="2">
+        <v>723</v>
+      </c>
+      <c r="G13" s="2">
+        <v>3500</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <v>286</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1147</v>
+      </c>
+      <c r="U13" s="2">
+        <v>404</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>666</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>2504</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>180</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0</v>
+      </c>
+      <c r="D14" s="2">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F14" s="2">
+        <v>716</v>
+      </c>
+      <c r="G14" s="2">
+        <v>3493</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>267</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1096</v>
+      </c>
+      <c r="U14" s="2">
+        <v>466</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>665</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>2494</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>2227</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>180</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0</v>
+      </c>
+      <c r="D15" s="2">
+        <v>17</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F15" s="2">
+        <v>702</v>
+      </c>
+      <c r="G15" s="2">
+        <v>3479</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1</v>
+      </c>
+      <c r="I15" s="2">
+        <v>221</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1123</v>
+      </c>
+      <c r="U15" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>649</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>2430</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>180</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0</v>
+      </c>
+      <c r="D16" s="2">
+        <v>17</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F16" s="2">
+        <v>725</v>
+      </c>
+      <c r="G16" s="2">
+        <v>3502</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>288</v>
+      </c>
+      <c r="M16" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1099</v>
+      </c>
+      <c r="U16" s="2">
+        <v>443</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>675</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>2506</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>180</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F17" s="2">
+        <v>647</v>
+      </c>
+      <c r="G17" s="2">
+        <v>3424</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>336</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1138</v>
+      </c>
+      <c r="U17" s="2">
+        <v>430</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>2498</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>2162</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>180</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0</v>
+      </c>
+      <c r="D18" s="2">
+        <v>17</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F18" s="2">
+        <v>674</v>
+      </c>
+      <c r="G18" s="2">
+        <v>3451</v>
+      </c>
+      <c r="H18" s="2">
+        <v>2</v>
+      </c>
+      <c r="I18" s="2">
+        <v>262</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>1134</v>
+      </c>
+      <c r="U18" s="2">
+        <v>416</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>621</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>2435</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>2171</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>180</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F19" s="2">
+        <v>686</v>
+      </c>
+      <c r="G19" s="2">
+        <v>3463</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>275</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>1149</v>
+      </c>
+      <c r="U19" s="2">
+        <v>415</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>611</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>2451</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>2175</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>180</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0</v>
+      </c>
+      <c r="D20" s="2">
+        <v>17</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F20" s="2">
+        <v>697</v>
+      </c>
+      <c r="G20" s="2">
+        <v>3474</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>263</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>1134</v>
+      </c>
+      <c r="U20" s="2">
+        <v>432</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>642</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>2471</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>180</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1600</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2760</v>
+      </c>
+      <c r="F21" s="2">
+        <v>673</v>
+      </c>
+      <c r="G21" s="2">
+        <v>3450</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>249</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1117</v>
+      </c>
+      <c r="U21" s="2">
+        <v>436</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>632</v>
+      </c>
+      <c r="Z21" s="2">
+        <v>2434</v>
+      </c>
+      <c r="AA21" s="2">
+        <v>2185</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0</v>
+      </c>
+      <c r="D22" s="2">
+        <v>49</v>
+      </c>
+      <c r="E22" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F22" s="2">
+        <v>687</v>
+      </c>
+      <c r="G22" s="2">
+        <v>7208</v>
+      </c>
+      <c r="H22" s="2">
+        <v>2</v>
+      </c>
+      <c r="I22" s="2">
+        <v>225</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>1969</v>
+      </c>
+      <c r="U22" s="2">
+        <v>619</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>614</v>
+      </c>
+      <c r="Z22" s="2">
+        <v>3429</v>
+      </c>
+      <c r="AA22" s="2">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>180</v>
+      </c>
+      <c r="B23" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0</v>
+      </c>
+      <c r="D23" s="2">
+        <v>49</v>
+      </c>
+      <c r="E23" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F23" s="2">
+        <v>689</v>
+      </c>
+      <c r="G23" s="2">
+        <v>7210</v>
+      </c>
+      <c r="H23" s="2">
+        <v>4</v>
+      </c>
+      <c r="I23" s="2">
+        <v>275</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>2024</v>
+      </c>
+      <c r="U23" s="2">
+        <v>581</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>613</v>
+      </c>
+      <c r="Z23" s="2">
+        <v>3497</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>3218</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>180</v>
+      </c>
+      <c r="B24" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0</v>
+      </c>
+      <c r="D24" s="2">
+        <v>50</v>
+      </c>
+      <c r="E24" s="2">
+        <v>6471</v>
+      </c>
+      <c r="F24" s="2">
+        <v>633</v>
+      </c>
+      <c r="G24" s="2">
+        <v>7154</v>
+      </c>
+      <c r="H24" s="2">
+        <v>3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>219</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>2018</v>
+      </c>
+      <c r="U24" s="2">
+        <v>606</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>563</v>
+      </c>
+      <c r="Z24" s="2">
+        <v>3409</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>3187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>180</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0</v>
+      </c>
+      <c r="D25" s="2">
+        <v>50</v>
+      </c>
+      <c r="E25" s="2">
+        <v>6471</v>
+      </c>
+      <c r="F25" s="2">
+        <v>703</v>
+      </c>
+      <c r="G25" s="2">
+        <v>7224</v>
+      </c>
+      <c r="H25" s="2">
+        <v>1</v>
+      </c>
+      <c r="I25" s="2">
+        <v>241</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>1952</v>
+      </c>
+      <c r="U25" s="2">
+        <v>650</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>620</v>
+      </c>
+      <c r="Z25" s="2">
+        <v>3464</v>
+      </c>
+      <c r="AA25" s="2">
+        <v>3222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>180</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0</v>
+      </c>
+      <c r="D26" s="2">
+        <v>49</v>
+      </c>
+      <c r="E26" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F26" s="2">
+        <v>680</v>
+      </c>
+      <c r="G26" s="2">
+        <v>7201</v>
+      </c>
+      <c r="H26" s="2">
+        <v>2</v>
+      </c>
+      <c r="I26" s="2">
+        <v>198</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>2041</v>
+      </c>
+      <c r="U26" s="2">
+        <v>558</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>603</v>
+      </c>
+      <c r="Z26" s="2">
+        <v>3402</v>
+      </c>
+      <c r="AA26" s="2">
+        <v>3202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>180</v>
+      </c>
+      <c r="B27" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0</v>
+      </c>
+      <c r="D27" s="2">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F27" s="2">
+        <v>685</v>
+      </c>
+      <c r="G27" s="2">
+        <v>7206</v>
+      </c>
+      <c r="H27" s="2">
+        <v>1</v>
+      </c>
+      <c r="I27" s="2">
+        <v>247</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>2037</v>
+      </c>
+      <c r="U27" s="2">
+        <v>575</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>598</v>
+      </c>
+      <c r="Z27" s="2">
+        <v>3458</v>
+      </c>
+      <c r="AA27" s="2">
+        <v>3210</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>180</v>
+      </c>
+      <c r="B28" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0</v>
+      </c>
+      <c r="D28" s="2">
+        <v>49</v>
+      </c>
+      <c r="E28" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F28" s="2">
+        <v>710</v>
+      </c>
+      <c r="G28" s="2">
+        <v>7231</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>216</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>2002</v>
+      </c>
+      <c r="U28" s="2">
+        <v>601</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>621</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>3440</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>180</v>
+      </c>
+      <c r="B29" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0</v>
+      </c>
+      <c r="D29" s="2">
+        <v>49</v>
+      </c>
+      <c r="E29" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F29" s="2">
+        <v>686</v>
+      </c>
+      <c r="G29" s="2">
+        <v>7207</v>
+      </c>
+      <c r="H29" s="2">
+        <v>2</v>
+      </c>
+      <c r="I29" s="2">
+        <v>196</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>1972</v>
+      </c>
+      <c r="U29" s="2">
+        <v>649</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>619</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>3438</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>180</v>
+      </c>
+      <c r="B30" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0</v>
+      </c>
+      <c r="D30" s="2">
+        <v>49</v>
+      </c>
+      <c r="E30" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F30" s="2">
+        <v>676</v>
+      </c>
+      <c r="G30" s="2">
+        <v>7197</v>
+      </c>
+      <c r="H30" s="2">
+        <v>2</v>
+      </c>
+      <c r="I30" s="2">
+        <v>215</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>2004</v>
+      </c>
+      <c r="U30" s="2">
+        <v>598</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>594</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>3413</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>180</v>
+      </c>
+      <c r="B31" s="2">
+        <v>4000</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0</v>
+      </c>
+      <c r="D31" s="2">
+        <v>49</v>
+      </c>
+      <c r="E31" s="2">
+        <v>6472</v>
+      </c>
+      <c r="F31" s="2">
+        <v>690</v>
+      </c>
+      <c r="G31" s="2">
+        <v>7211</v>
+      </c>
+      <c r="H31" s="2">
+        <v>2</v>
+      </c>
+      <c r="I31" s="2">
+        <v>214</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>1993</v>
+      </c>
+      <c r="U31" s="2">
+        <v>619</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>622</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>3450</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>3234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>180</v>
+      </c>
+      <c r="B32" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0</v>
+      </c>
+      <c r="D32" s="2">
+        <v>86</v>
+      </c>
+      <c r="E32" s="2">
+        <v>16863</v>
+      </c>
+      <c r="F32" s="2">
+        <v>704</v>
+      </c>
+      <c r="G32" s="2">
+        <v>17653</v>
+      </c>
+      <c r="H32" s="2">
+        <v>7</v>
+      </c>
+      <c r="I32" s="2">
+        <v>163</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>5376</v>
+      </c>
+      <c r="U32" s="2">
+        <v>805</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>578</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>6929</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>180</v>
+      </c>
+      <c r="B33" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0</v>
+      </c>
+      <c r="D33" s="2">
+        <v>85</v>
+      </c>
+      <c r="E33" s="2">
+        <v>16864</v>
+      </c>
+      <c r="F33" s="2">
+        <v>692</v>
+      </c>
+      <c r="G33" s="2">
+        <v>17641</v>
+      </c>
+      <c r="H33" s="2">
+        <v>9</v>
+      </c>
+      <c r="I33" s="2">
+        <v>174</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>5408</v>
+      </c>
+      <c r="U33" s="2">
+        <v>780</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>590</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>6961</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>6778</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>180</v>
+      </c>
+      <c r="B34" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0</v>
+      </c>
+      <c r="D34" s="2">
+        <v>88</v>
+      </c>
+      <c r="E34" s="2">
+        <v>16861</v>
+      </c>
+      <c r="F34" s="2">
+        <v>712</v>
+      </c>
+      <c r="G34" s="2">
+        <v>17661</v>
+      </c>
+      <c r="H34" s="2">
+        <v>8</v>
+      </c>
+      <c r="I34" s="2">
+        <v>150</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>5421</v>
+      </c>
+      <c r="U34" s="2">
+        <v>742</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>582</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>6903</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>6745</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>180</v>
+      </c>
+      <c r="B35" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0</v>
+      </c>
+      <c r="D35" s="2">
+        <v>85</v>
+      </c>
+      <c r="E35" s="2">
+        <v>16864</v>
+      </c>
+      <c r="F35" s="2">
+        <v>708</v>
+      </c>
+      <c r="G35" s="2">
+        <v>17657</v>
+      </c>
+      <c r="H35" s="2">
+        <v>8</v>
+      </c>
+      <c r="I35" s="2">
+        <v>146</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>5422</v>
+      </c>
+      <c r="U35" s="2">
+        <v>739</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>599</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>6914</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>180</v>
+      </c>
+      <c r="B36" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0</v>
+      </c>
+      <c r="D36" s="2">
+        <v>84</v>
+      </c>
+      <c r="E36" s="2">
+        <v>16865</v>
+      </c>
+      <c r="F36" s="2">
+        <v>701</v>
+      </c>
+      <c r="G36" s="2">
+        <v>17650</v>
+      </c>
+      <c r="H36" s="2">
+        <v>4</v>
+      </c>
+      <c r="I36" s="2">
+        <v>174</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>5361</v>
+      </c>
+      <c r="U36" s="2">
+        <v>811</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>587</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>6937</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>180</v>
+      </c>
+      <c r="B37" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0</v>
+      </c>
+      <c r="D37" s="2">
+        <v>84</v>
+      </c>
+      <c r="E37" s="2">
+        <v>16865</v>
+      </c>
+      <c r="F37" s="2">
+        <v>709</v>
+      </c>
+      <c r="G37" s="2">
+        <v>17658</v>
+      </c>
+      <c r="H37" s="2">
+        <v>5</v>
+      </c>
+      <c r="I37" s="2">
+        <v>161</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>5379</v>
+      </c>
+      <c r="U37" s="2">
+        <v>757</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>603</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>6905</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>6739</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>180</v>
+      </c>
+      <c r="B38" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0</v>
+      </c>
+      <c r="D38" s="2">
+        <v>85</v>
+      </c>
+      <c r="E38" s="2">
+        <v>16864</v>
+      </c>
+      <c r="F38" s="2">
+        <v>672</v>
+      </c>
+      <c r="G38" s="2">
+        <v>17621</v>
+      </c>
+      <c r="H38" s="2">
+        <v>9</v>
+      </c>
+      <c r="I38" s="2">
+        <v>141</v>
+      </c>
+      <c r="M38" s="2">
+        <v>1</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>5382</v>
+      </c>
+      <c r="U38" s="2">
+        <v>797</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>6886</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>180</v>
+      </c>
+      <c r="B39" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0</v>
+      </c>
+      <c r="D39" s="2">
+        <v>84</v>
+      </c>
+      <c r="E39" s="2">
+        <v>16865</v>
+      </c>
+      <c r="F39" s="2">
+        <v>649</v>
+      </c>
+      <c r="G39" s="2">
+        <v>17598</v>
+      </c>
+      <c r="H39" s="2">
+        <v>13</v>
+      </c>
+      <c r="I39" s="2">
+        <v>163</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>5425</v>
+      </c>
+      <c r="U39" s="2">
+        <v>765</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>556</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>6922</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>6746</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>180</v>
+      </c>
+      <c r="B40" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0</v>
+      </c>
+      <c r="D40" s="2">
+        <v>84</v>
+      </c>
+      <c r="E40" s="2">
+        <v>16865</v>
+      </c>
+      <c r="F40" s="2">
+        <v>682</v>
+      </c>
+      <c r="G40" s="2">
+        <v>17631</v>
+      </c>
+      <c r="H40" s="2">
+        <v>4</v>
+      </c>
+      <c r="I40" s="2">
+        <v>137</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>5333</v>
+      </c>
+      <c r="U40" s="2">
+        <v>855</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>6900</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>6759</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>180</v>
+      </c>
+      <c r="B41" s="2">
+        <v>10000</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0</v>
+      </c>
+      <c r="D41" s="2">
+        <v>84</v>
+      </c>
+      <c r="E41" s="2">
+        <v>16865</v>
+      </c>
+      <c r="F41" s="2">
+        <v>658</v>
+      </c>
+      <c r="G41" s="2">
+        <v>17607</v>
+      </c>
+      <c r="H41" s="2">
+        <v>6</v>
+      </c>
+      <c r="I41" s="2">
+        <v>193</v>
+      </c>
+      <c r="M41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="2">
+        <v>5382</v>
+      </c>
+      <c r="U41" s="2">
+        <v>806</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>565</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>6952</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>6753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>180</v>
+      </c>
+      <c r="B42" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C42" s="2">
+        <v>66</v>
+      </c>
+      <c r="D42" s="2">
+        <v>620</v>
+      </c>
+      <c r="E42" s="2">
+        <v>39797</v>
+      </c>
+      <c r="F42" s="2">
+        <v>651</v>
+      </c>
+      <c r="G42" s="2">
+        <v>41134</v>
+      </c>
+      <c r="H42" s="2">
+        <v>44</v>
+      </c>
+      <c r="I42" s="2">
+        <v>170</v>
+      </c>
+      <c r="M42" s="2">
+        <v>36</v>
+      </c>
+      <c r="Q42" s="2">
+        <v>13964</v>
+      </c>
+      <c r="U42" s="2">
+        <v>1534</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>16268</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>16054</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>180</v>
+      </c>
+      <c r="B43" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C43" s="2">
+        <v>74</v>
+      </c>
+      <c r="D43" s="2">
+        <v>606</v>
+      </c>
+      <c r="E43" s="2">
+        <v>39811</v>
+      </c>
+      <c r="F43" s="2">
+        <v>575</v>
+      </c>
+      <c r="G43" s="2">
+        <v>41066</v>
+      </c>
+      <c r="H43" s="2">
+        <v>48</v>
+      </c>
+      <c r="I43" s="2">
+        <v>173</v>
+      </c>
+      <c r="M43" s="2">
+        <v>49</v>
+      </c>
+      <c r="Q43" s="2">
+        <v>14037</v>
+      </c>
+      <c r="U43" s="2">
+        <v>1511</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>472</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>16290</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>16069</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>180</v>
+      </c>
+      <c r="B44" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C44" s="2">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2">
+        <v>602</v>
+      </c>
+      <c r="E44" s="2">
+        <v>39815</v>
+      </c>
+      <c r="F44" s="2">
+        <v>595</v>
+      </c>
+      <c r="G44" s="2">
+        <v>41078</v>
+      </c>
+      <c r="H44" s="2">
+        <v>70</v>
+      </c>
+      <c r="I44" s="2">
+        <v>185</v>
+      </c>
+      <c r="M44" s="2">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="2">
+        <v>14137</v>
+      </c>
+      <c r="U44" s="2">
+        <v>1553</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>475</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>16463</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>16208</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>180</v>
+      </c>
+      <c r="B45" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C45" s="2">
+        <v>73</v>
+      </c>
+      <c r="D45" s="2">
+        <v>618</v>
+      </c>
+      <c r="E45" s="2">
+        <v>39799</v>
+      </c>
+      <c r="F45" s="2">
+        <v>625</v>
+      </c>
+      <c r="G45" s="2">
+        <v>41115</v>
+      </c>
+      <c r="H45" s="2">
+        <v>53</v>
+      </c>
+      <c r="I45" s="2">
+        <v>148</v>
+      </c>
+      <c r="M45" s="2">
+        <v>48</v>
+      </c>
+      <c r="Q45" s="2">
+        <v>14025</v>
+      </c>
+      <c r="U45" s="2">
+        <v>1528</v>
+      </c>
+      <c r="Y45" s="2">
+        <v>504</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>16306</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>16105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>180</v>
+      </c>
+      <c r="B46" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C46" s="2">
+        <v>55</v>
+      </c>
+      <c r="D46" s="2">
+        <v>600</v>
+      </c>
+      <c r="E46" s="2">
+        <v>39817</v>
+      </c>
+      <c r="F46" s="2">
+        <v>581</v>
+      </c>
+      <c r="G46" s="2">
+        <v>41053</v>
+      </c>
+      <c r="H46" s="2">
+        <v>34</v>
+      </c>
+      <c r="I46" s="2">
+        <v>146</v>
+      </c>
+      <c r="M46" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q46" s="2">
+        <v>13991</v>
+      </c>
+      <c r="U46" s="2">
+        <v>1539</v>
+      </c>
+      <c r="Y46" s="2">
+        <v>460</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>16208</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>16028</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>180</v>
+      </c>
+      <c r="B47" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C47" s="2">
+        <v>81</v>
+      </c>
+      <c r="D47" s="2">
+        <v>616</v>
+      </c>
+      <c r="E47" s="2">
+        <v>39801</v>
+      </c>
+      <c r="F47" s="2">
+        <v>599</v>
+      </c>
+      <c r="G47" s="2">
+        <v>41097</v>
+      </c>
+      <c r="H47" s="2">
+        <v>37</v>
+      </c>
+      <c r="I47" s="2">
+        <v>206</v>
+      </c>
+      <c r="M47" s="2">
+        <v>44</v>
+      </c>
+      <c r="Q47" s="2">
+        <v>13967</v>
+      </c>
+      <c r="U47" s="2">
+        <v>1580</v>
+      </c>
+      <c r="Y47" s="2">
+        <v>494</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>16328</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>16085</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>180</v>
+      </c>
+      <c r="B48" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C48" s="2">
+        <v>74</v>
+      </c>
+      <c r="D48" s="2">
+        <v>618</v>
+      </c>
+      <c r="E48" s="2">
+        <v>39799</v>
+      </c>
+      <c r="F48" s="2">
+        <v>611</v>
+      </c>
+      <c r="G48" s="2">
+        <v>41102</v>
+      </c>
+      <c r="H48" s="2">
+        <v>44</v>
+      </c>
+      <c r="I48" s="2">
+        <v>183</v>
+      </c>
+      <c r="M48" s="2">
+        <v>35</v>
+      </c>
+      <c r="Q48" s="2">
+        <v>13945</v>
+      </c>
+      <c r="U48" s="2">
+        <v>1622</v>
+      </c>
+      <c r="Y48" s="2">
+        <v>526</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>16355</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>16128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>180</v>
+      </c>
+      <c r="B49" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C49" s="2">
+        <v>78</v>
+      </c>
+      <c r="D49" s="2">
+        <v>616</v>
+      </c>
+      <c r="E49" s="2">
+        <v>39801</v>
+      </c>
+      <c r="F49" s="2">
+        <v>603</v>
+      </c>
+      <c r="G49" s="2">
+        <v>41098</v>
+      </c>
+      <c r="H49" s="2">
+        <v>56</v>
+      </c>
+      <c r="I49" s="2">
+        <v>199</v>
+      </c>
+      <c r="M49" s="2">
+        <v>47</v>
+      </c>
+      <c r="Q49" s="2">
+        <v>14085</v>
+      </c>
+      <c r="U49" s="2">
+        <v>1473</v>
+      </c>
+      <c r="Y49" s="2">
+        <v>486</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>16346</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>16091</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>180</v>
+      </c>
+      <c r="B50" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C50" s="2">
+        <v>76</v>
+      </c>
+      <c r="D50" s="2">
+        <v>612</v>
+      </c>
+      <c r="E50" s="2">
+        <v>39805</v>
+      </c>
+      <c r="F50" s="2">
+        <v>594</v>
+      </c>
+      <c r="G50" s="2">
+        <v>41087</v>
+      </c>
+      <c r="H50" s="2">
+        <v>38</v>
+      </c>
+      <c r="I50" s="2">
+        <v>229</v>
+      </c>
+      <c r="M50" s="2">
+        <v>38</v>
+      </c>
+      <c r="Q50" s="2">
+        <v>14017</v>
+      </c>
+      <c r="U50" s="2">
+        <v>1546</v>
+      </c>
+      <c r="Y50" s="2">
+        <v>482</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>16350</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>16083</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>180</v>
+      </c>
+      <c r="B51" s="2">
+        <v>25000</v>
+      </c>
+      <c r="C51" s="2">
+        <v>87</v>
+      </c>
+      <c r="D51" s="2">
+        <v>583</v>
+      </c>
+      <c r="E51" s="2">
+        <v>39834</v>
+      </c>
+      <c r="F51" s="2">
+        <v>613</v>
+      </c>
+      <c r="G51" s="2">
+        <v>41117</v>
+      </c>
+      <c r="H51" s="2">
+        <v>51</v>
+      </c>
+      <c r="I51" s="2">
+        <v>174</v>
+      </c>
+      <c r="M51" s="2">
+        <v>46</v>
+      </c>
+      <c r="Q51" s="2">
+        <v>14030</v>
+      </c>
+      <c r="U51" s="2">
+        <v>1568</v>
+      </c>
+      <c r="Y51" s="2">
+        <v>510</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>16379</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>16154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52">
+        <v>640</v>
+      </c>
+      <c r="C52">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>8</v>
+      </c>
+      <c r="E52">
+        <v>1314</v>
+      </c>
+      <c r="F52">
+        <v>19808</v>
+      </c>
+      <c r="G52">
+        <v>21138</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>749</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>23</v>
+      </c>
+      <c r="M52">
+        <f>J52+K52+L52</f>
+        <v>23</v>
+      </c>
+      <c r="N52">
+        <v>33</v>
+      </c>
+      <c r="O52">
+        <v>58</v>
+      </c>
+      <c r="P52">
+        <v>549</v>
+      </c>
+      <c r="Q52">
+        <f>N52+O52+P52</f>
+        <v>640</v>
+      </c>
+      <c r="R52">
+        <v>6</v>
+      </c>
+      <c r="S52">
+        <v>14</v>
+      </c>
+      <c r="T52">
+        <v>366</v>
+      </c>
+      <c r="U52">
+        <f>R52+S52+T52</f>
+        <v>386</v>
+      </c>
+      <c r="V52">
+        <v>34</v>
+      </c>
+      <c r="W52">
+        <v>610</v>
+      </c>
+      <c r="X52">
+        <v>16874</v>
+      </c>
+      <c r="Y52">
+        <f>V52+W52+X52</f>
+        <v>17518</v>
+      </c>
+      <c r="Z52">
+        <v>19316</v>
+      </c>
+      <c r="AA52">
+        <v>18567</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53">
+        <v>640</v>
+      </c>
+      <c r="C53">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>8</v>
+      </c>
+      <c r="E53">
+        <v>1314</v>
+      </c>
+      <c r="F53">
+        <v>19389</v>
+      </c>
+      <c r="G53">
+        <v>20717</v>
+      </c>
+      <c r="H53">
+        <v>0</v>
+      </c>
+      <c r="I53">
+        <v>688</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>13</v>
+      </c>
+      <c r="M53">
+        <f t="shared" ref="M53:M61" si="0">J53+K53+L53</f>
+        <v>13</v>
+      </c>
+      <c r="N53">
+        <v>31</v>
+      </c>
+      <c r="O53">
+        <v>38</v>
+      </c>
+      <c r="P53">
+        <v>377</v>
+      </c>
+      <c r="Q53">
+        <f t="shared" ref="Q53:Q61" si="1">N53+O53+P53</f>
+        <v>446</v>
+      </c>
+      <c r="R53">
+        <v>8</v>
+      </c>
+      <c r="S53">
+        <v>35</v>
+      </c>
+      <c r="T53">
+        <v>516</v>
+      </c>
+      <c r="U53">
+        <f t="shared" ref="U53:U61" si="2">R53+S53+T53</f>
+        <v>559</v>
+      </c>
+      <c r="V53">
+        <v>36</v>
+      </c>
+      <c r="W53">
+        <v>669</v>
+      </c>
+      <c r="X53">
+        <v>16437</v>
+      </c>
+      <c r="Y53">
+        <f t="shared" ref="Y53:Y61" si="3">V53+W53+X53</f>
+        <v>17142</v>
+      </c>
+      <c r="Z53">
+        <v>18848</v>
+      </c>
+      <c r="AA53">
+        <v>18160</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>25</v>
+      </c>
+      <c r="B54">
+        <v>640</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>8</v>
+      </c>
+      <c r="E54">
+        <v>1314</v>
+      </c>
+      <c r="F54">
+        <v>19555</v>
+      </c>
+      <c r="G54">
+        <v>20884</v>
+      </c>
+      <c r="H54">
+        <v>0</v>
+      </c>
+      <c r="I54">
+        <v>761</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>21</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="N54">
+        <v>32</v>
+      </c>
+      <c r="O54">
+        <v>50</v>
+      </c>
+      <c r="P54">
+        <v>452</v>
+      </c>
+      <c r="Q54">
+        <f t="shared" si="1"/>
+        <v>534</v>
+      </c>
+      <c r="R54">
+        <v>8</v>
+      </c>
+      <c r="S54">
+        <v>21</v>
+      </c>
+      <c r="T54">
+        <v>438</v>
+      </c>
+      <c r="U54">
+        <f t="shared" si="2"/>
+        <v>467</v>
+      </c>
+      <c r="V54">
+        <v>32</v>
+      </c>
+      <c r="W54">
+        <v>623</v>
+      </c>
+      <c r="X54">
+        <v>16628</v>
+      </c>
+      <c r="Y54">
+        <f t="shared" si="3"/>
+        <v>17283</v>
+      </c>
+      <c r="Z54">
+        <v>19068</v>
+      </c>
+      <c r="AA54">
+        <v>18307</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>25</v>
+      </c>
+      <c r="B55">
+        <v>640</v>
+      </c>
+      <c r="C55">
+        <v>10</v>
+      </c>
+      <c r="D55">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>1316</v>
+      </c>
+      <c r="F55">
+        <v>19605</v>
+      </c>
+      <c r="G55">
+        <v>20937</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+      <c r="I55">
+        <v>891</v>
+      </c>
+      <c r="J55">
+        <v>0</v>
+      </c>
+      <c r="K55">
+        <v>3</v>
+      </c>
+      <c r="L55">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="N55">
+        <v>32</v>
+      </c>
+      <c r="O55">
+        <v>42</v>
+      </c>
+      <c r="P55">
+        <v>419</v>
+      </c>
+      <c r="Q55">
+        <f t="shared" si="1"/>
+        <v>493</v>
+      </c>
+      <c r="R55">
+        <v>8</v>
+      </c>
+      <c r="S55">
+        <v>30</v>
+      </c>
+      <c r="T55">
+        <v>494</v>
+      </c>
+      <c r="U55">
+        <f t="shared" si="2"/>
+        <v>532</v>
+      </c>
+      <c r="V55">
+        <v>41</v>
+      </c>
+      <c r="W55">
+        <v>604</v>
+      </c>
+      <c r="X55">
+        <v>16662</v>
+      </c>
+      <c r="Y55">
+        <f t="shared" si="3"/>
+        <v>17307</v>
+      </c>
+      <c r="Z55">
+        <v>19246</v>
+      </c>
+      <c r="AA55">
+        <v>18354</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>25</v>
+      </c>
+      <c r="B56">
+        <v>640</v>
+      </c>
+      <c r="C56">
+        <v>9</v>
+      </c>
+      <c r="D56">
+        <v>8</v>
+      </c>
+      <c r="E56">
+        <v>1314</v>
+      </c>
+      <c r="F56">
+        <v>19794</v>
+      </c>
+      <c r="G56">
+        <v>21125</v>
+      </c>
+      <c r="H56">
+        <v>0</v>
+      </c>
+      <c r="I56">
+        <v>912</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>1</v>
+      </c>
+      <c r="L56">
+        <v>15</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="N56">
+        <v>32</v>
+      </c>
+      <c r="O56">
+        <v>38</v>
+      </c>
+      <c r="P56">
+        <v>393</v>
+      </c>
+      <c r="Q56">
+        <f t="shared" si="1"/>
+        <v>463</v>
+      </c>
+      <c r="R56">
+        <v>8</v>
+      </c>
+      <c r="S56">
+        <v>35</v>
+      </c>
+      <c r="T56">
+        <v>500</v>
+      </c>
+      <c r="U56">
+        <f t="shared" si="2"/>
+        <v>543</v>
+      </c>
+      <c r="V56">
+        <v>32</v>
+      </c>
+      <c r="W56">
+        <v>590</v>
+      </c>
+      <c r="X56">
+        <v>16982</v>
+      </c>
+      <c r="Y56">
+        <f t="shared" si="3"/>
+        <v>17604</v>
+      </c>
+      <c r="Z56">
+        <v>19538</v>
+      </c>
+      <c r="AA56">
+        <v>18626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>25</v>
+      </c>
+      <c r="B57">
+        <v>640</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+      <c r="D57">
+        <v>8</v>
+      </c>
+      <c r="E57">
+        <v>1314</v>
+      </c>
+      <c r="F57">
+        <v>19794</v>
+      </c>
+      <c r="G57">
+        <v>21121</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>859</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>12</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="N57">
+        <v>27</v>
+      </c>
+      <c r="O57">
+        <v>39</v>
+      </c>
+      <c r="P57">
+        <v>389</v>
+      </c>
+      <c r="Q57">
+        <f t="shared" si="1"/>
+        <v>455</v>
+      </c>
+      <c r="R57">
+        <v>11</v>
+      </c>
+      <c r="S57">
+        <v>32</v>
+      </c>
+      <c r="T57">
+        <v>502</v>
+      </c>
+      <c r="U57">
+        <f t="shared" si="2"/>
+        <v>545</v>
+      </c>
+      <c r="V57">
+        <v>39</v>
+      </c>
+      <c r="W57">
+        <v>572</v>
+      </c>
+      <c r="X57">
+        <v>17001</v>
+      </c>
+      <c r="Y57">
+        <f t="shared" si="3"/>
+        <v>17612</v>
+      </c>
+      <c r="Z57">
+        <v>19484</v>
+      </c>
+      <c r="AA57">
+        <v>18625</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>25</v>
+      </c>
+      <c r="B58">
+        <v>640</v>
+      </c>
+      <c r="C58">
+        <v>11</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>1313</v>
+      </c>
+      <c r="F58">
+        <v>19728</v>
+      </c>
+      <c r="G58">
+        <v>21061</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>745</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>1</v>
+      </c>
+      <c r="L58">
+        <v>27</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N58">
+        <v>32</v>
+      </c>
+      <c r="O58">
+        <v>54</v>
+      </c>
+      <c r="P58">
+        <v>472</v>
+      </c>
+      <c r="Q58">
+        <f t="shared" si="1"/>
+        <v>558</v>
+      </c>
+      <c r="R58">
+        <v>7</v>
+      </c>
+      <c r="S58">
+        <v>20</v>
+      </c>
+      <c r="T58">
+        <v>426</v>
+      </c>
+      <c r="U58">
+        <f t="shared" si="2"/>
+        <v>453</v>
+      </c>
+      <c r="V58">
+        <v>32</v>
+      </c>
+      <c r="W58">
+        <v>618</v>
+      </c>
+      <c r="X58">
+        <v>16802</v>
+      </c>
+      <c r="Y58">
+        <f t="shared" si="3"/>
+        <v>17452</v>
+      </c>
+      <c r="Z58">
+        <v>19236</v>
+      </c>
+      <c r="AA58">
+        <v>18491</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>25</v>
+      </c>
+      <c r="B59">
+        <v>640</v>
+      </c>
+      <c r="C59">
+        <v>8</v>
+      </c>
+      <c r="D59">
+        <v>7</v>
+      </c>
+      <c r="E59">
+        <v>1315</v>
+      </c>
+      <c r="F59">
+        <v>19935</v>
+      </c>
+      <c r="G59">
+        <v>21265</v>
+      </c>
+      <c r="H59">
+        <v>1</v>
+      </c>
+      <c r="I59">
+        <v>761</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>1</v>
+      </c>
+      <c r="L59">
+        <v>27</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="N59">
+        <v>34</v>
+      </c>
+      <c r="O59">
+        <v>59</v>
+      </c>
+      <c r="P59">
+        <v>519</v>
+      </c>
+      <c r="Q59">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="R59">
+        <v>6</v>
+      </c>
+      <c r="S59">
+        <v>17</v>
+      </c>
+      <c r="T59">
+        <v>388</v>
+      </c>
+      <c r="U59">
+        <f t="shared" si="2"/>
+        <v>411</v>
+      </c>
+      <c r="V59">
+        <v>21</v>
+      </c>
+      <c r="W59">
+        <v>575</v>
+      </c>
+      <c r="X59">
+        <v>16974</v>
+      </c>
+      <c r="Y59">
+        <f t="shared" si="3"/>
+        <v>17570</v>
+      </c>
+      <c r="Z59">
+        <v>19383</v>
+      </c>
+      <c r="AA59">
+        <v>18621</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>25</v>
+      </c>
+      <c r="B60">
+        <v>640</v>
+      </c>
+      <c r="C60">
+        <v>4</v>
+      </c>
+      <c r="D60">
+        <v>8</v>
+      </c>
+      <c r="E60">
+        <v>1314</v>
+      </c>
+      <c r="F60">
+        <v>19839</v>
+      </c>
+      <c r="G60">
+        <v>21165</v>
+      </c>
+      <c r="H60">
+        <v>1</v>
+      </c>
+      <c r="I60">
+        <v>1167</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>34</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="N60">
+        <v>32</v>
+      </c>
+      <c r="O60">
+        <v>64</v>
+      </c>
+      <c r="P60">
+        <v>561</v>
+      </c>
+      <c r="Q60">
+        <f t="shared" si="1"/>
+        <v>657</v>
+      </c>
+      <c r="R60">
+        <v>5</v>
+      </c>
+      <c r="S60">
+        <v>10</v>
+      </c>
+      <c r="T60">
+        <v>369</v>
+      </c>
+      <c r="U60">
+        <f t="shared" si="2"/>
+        <v>384</v>
+      </c>
+      <c r="V60">
+        <v>32</v>
+      </c>
+      <c r="W60">
+        <v>648</v>
+      </c>
+      <c r="X60">
+        <v>16892</v>
+      </c>
+      <c r="Y60">
+        <f t="shared" si="3"/>
+        <v>17572</v>
+      </c>
+      <c r="Z60">
+        <v>19815</v>
+      </c>
+      <c r="AA60">
+        <v>18647</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>25</v>
+      </c>
+      <c r="B61">
+        <v>640</v>
+      </c>
+      <c r="C61">
+        <v>4</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61">
+        <v>1315</v>
+      </c>
+      <c r="F61">
+        <v>19783</v>
+      </c>
+      <c r="G61">
+        <v>21109</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+      <c r="I61">
+        <v>776</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>3</v>
+      </c>
+      <c r="L61">
+        <v>17</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="N61">
+        <v>34</v>
+      </c>
+      <c r="O61">
+        <v>52</v>
+      </c>
+      <c r="P61">
+        <v>503</v>
+      </c>
+      <c r="Q61">
+        <f t="shared" si="1"/>
+        <v>589</v>
+      </c>
+      <c r="R61">
+        <v>6</v>
+      </c>
+      <c r="S61">
+        <v>19</v>
+      </c>
+      <c r="T61">
+        <v>401</v>
+      </c>
+      <c r="U61">
+        <f t="shared" si="2"/>
+        <v>426</v>
+      </c>
+      <c r="V61">
+        <v>32</v>
+      </c>
+      <c r="W61">
+        <v>641</v>
+      </c>
+      <c r="X61">
+        <v>16804</v>
+      </c>
+      <c r="Y61">
+        <f t="shared" si="3"/>
+        <v>17477</v>
+      </c>
+      <c r="Z61">
+        <v>19289</v>
+      </c>
+      <c r="AA61">
+        <v>18512</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52:B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEED6562-C900-4C66-9D09-D14300CCB77F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF367C4-3CDF-4875-9B6D-30A0A116732E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
     <sheet name="extinction" sheetId="4" r:id="rId2"/>
-    <sheet name="no_extinction" sheetId="3" r:id="rId3"/>
+    <sheet name="extinction_new" sheetId="5" r:id="rId3"/>
+    <sheet name="no_extinction" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Mass</t>
   </si>
@@ -108,6 +109,102 @@
   </si>
   <si>
     <t>CTN &lt; 1M</t>
+  </si>
+  <si>
+    <t>CFP &gt; 2</t>
+  </si>
+  <si>
+    <t>CFP 0.1 - 0.05</t>
+  </si>
+  <si>
+    <t>CFP 0.05 - 0.01</t>
+  </si>
+  <si>
+    <t>CFP 0.01 - 0.005</t>
+  </si>
+  <si>
+    <t>CFP 0.005 - 0.001</t>
+  </si>
+  <si>
+    <t>CFP 2 - 0.5</t>
+  </si>
+  <si>
+    <t>CFP 0.5 - 0.1</t>
+  </si>
+  <si>
+    <t>CFP Tot</t>
+  </si>
+  <si>
+    <t>CTP Tot</t>
+  </si>
+  <si>
+    <t>CTP &gt; 2</t>
+  </si>
+  <si>
+    <t>CTP 2 - 0.5</t>
+  </si>
+  <si>
+    <t>CTP 0.5 - 0.1</t>
+  </si>
+  <si>
+    <t>CTP 0.1 - 0.05</t>
+  </si>
+  <si>
+    <t>CTP 0.05 - 0.01</t>
+  </si>
+  <si>
+    <t>CTP 0.01 - 0.005</t>
+  </si>
+  <si>
+    <t>CTP 0.005 - 0.001</t>
+  </si>
+  <si>
+    <t>CFN Tot</t>
+  </si>
+  <si>
+    <t>CFN &gt; 2</t>
+  </si>
+  <si>
+    <t>CFN 2 - 0.5</t>
+  </si>
+  <si>
+    <t>CFN 0.5 - 0.1</t>
+  </si>
+  <si>
+    <t>CFN 0.1 - 0.05</t>
+  </si>
+  <si>
+    <t>CFN 0.05 - 0.01</t>
+  </si>
+  <si>
+    <t>CFN 0.01 - 0.005</t>
+  </si>
+  <si>
+    <t>CFN 0.005 - 0.001</t>
+  </si>
+  <si>
+    <t>CTN Tot</t>
+  </si>
+  <si>
+    <t>CTN &gt; 2</t>
+  </si>
+  <si>
+    <t>CTN 2 - 0.5</t>
+  </si>
+  <si>
+    <t>CTN 0.5 - 0.1</t>
+  </si>
+  <si>
+    <t>CTN 0.1 - 0.05</t>
+  </si>
+  <si>
+    <t>CTN 0.05 - 0.01</t>
+  </si>
+  <si>
+    <t>CTN 0.01 - 0.005</t>
+  </si>
+  <si>
+    <t>CTN 0.005 - 0.001</t>
   </si>
 </sst>
 </file>
@@ -1985,21 +2082,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A951231-B0A3-4FFC-86C6-6619D5753158}">
-  <dimension ref="A1:AA61"/>
+  <dimension ref="A1:AA91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M67" sqref="M67"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A52" sqref="A52:B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="8" max="8" width="17.85546875" customWidth="1"/>
     <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="11" max="11" width="13.42578125" customWidth="1"/>
-    <col min="13" max="13" width="24.140625" customWidth="1"/>
-    <col min="14" max="16" width="11.42578125" customWidth="1"/>
-    <col min="17" max="17" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="14.140625" customWidth="1"/>
+    <col min="14" max="14" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="16" max="16" width="15.140625" customWidth="1"/>
+    <col min="17" max="17" width="16.42578125" customWidth="1"/>
     <col min="18" max="20" width="11.42578125" customWidth="1"/>
     <col min="21" max="21" width="23.5703125" customWidth="1"/>
     <col min="22" max="24" width="11.42578125" customWidth="1"/>
@@ -4566,7 +4666,7 @@
         <v>13</v>
       </c>
       <c r="M53">
-        <f t="shared" ref="M53:M61" si="0">J53+K53+L53</f>
+        <f>J53+K53+L53</f>
         <v>13</v>
       </c>
       <c r="N53">
@@ -4579,7 +4679,7 @@
         <v>377</v>
       </c>
       <c r="Q53">
-        <f t="shared" ref="Q53:Q61" si="1">N53+O53+P53</f>
+        <f>N53+O53+P53</f>
         <v>446</v>
       </c>
       <c r="R53">
@@ -4592,7 +4692,7 @@
         <v>516</v>
       </c>
       <c r="U53">
-        <f t="shared" ref="U53:U61" si="2">R53+S53+T53</f>
+        <f>R53+S53+T53</f>
         <v>559</v>
       </c>
       <c r="V53">
@@ -4605,7 +4705,7 @@
         <v>16437</v>
       </c>
       <c r="Y53">
-        <f t="shared" ref="Y53:Y61" si="3">V53+W53+X53</f>
+        <f>V53+W53+X53</f>
         <v>17142</v>
       </c>
       <c r="Z53">
@@ -4653,7 +4753,7 @@
         <v>21</v>
       </c>
       <c r="M54">
-        <f t="shared" si="0"/>
+        <f>J54+K54+L54</f>
         <v>23</v>
       </c>
       <c r="N54">
@@ -4666,7 +4766,7 @@
         <v>452</v>
       </c>
       <c r="Q54">
-        <f t="shared" si="1"/>
+        <f>N54+O54+P54</f>
         <v>534</v>
       </c>
       <c r="R54">
@@ -4679,7 +4779,7 @@
         <v>438</v>
       </c>
       <c r="U54">
-        <f t="shared" si="2"/>
+        <f>R54+S54+T54</f>
         <v>467</v>
       </c>
       <c r="V54">
@@ -4692,7 +4792,7 @@
         <v>16628</v>
       </c>
       <c r="Y54">
-        <f t="shared" si="3"/>
+        <f>V54+W54+X54</f>
         <v>17283</v>
       </c>
       <c r="Z54">
@@ -4740,7 +4840,7 @@
         <v>19</v>
       </c>
       <c r="M55">
-        <f t="shared" si="0"/>
+        <f>J55+K55+L55</f>
         <v>22</v>
       </c>
       <c r="N55">
@@ -4753,7 +4853,7 @@
         <v>419</v>
       </c>
       <c r="Q55">
-        <f t="shared" si="1"/>
+        <f>N55+O55+P55</f>
         <v>493</v>
       </c>
       <c r="R55">
@@ -4766,7 +4866,7 @@
         <v>494</v>
       </c>
       <c r="U55">
-        <f t="shared" si="2"/>
+        <f>R55+S55+T55</f>
         <v>532</v>
       </c>
       <c r="V55">
@@ -4779,7 +4879,7 @@
         <v>16662</v>
       </c>
       <c r="Y55">
-        <f t="shared" si="3"/>
+        <f>V55+W55+X55</f>
         <v>17307</v>
       </c>
       <c r="Z55">
@@ -4827,7 +4927,7 @@
         <v>15</v>
       </c>
       <c r="M56">
-        <f t="shared" si="0"/>
+        <f>J56+K56+L56</f>
         <v>16</v>
       </c>
       <c r="N56">
@@ -4840,7 +4940,7 @@
         <v>393</v>
       </c>
       <c r="Q56">
-        <f t="shared" si="1"/>
+        <f>N56+O56+P56</f>
         <v>463</v>
       </c>
       <c r="R56">
@@ -4853,7 +4953,7 @@
         <v>500</v>
       </c>
       <c r="U56">
-        <f t="shared" si="2"/>
+        <f>R56+S56+T56</f>
         <v>543</v>
       </c>
       <c r="V56">
@@ -4866,7 +4966,7 @@
         <v>16982</v>
       </c>
       <c r="Y56">
-        <f t="shared" si="3"/>
+        <f>V56+W56+X56</f>
         <v>17604</v>
       </c>
       <c r="Z56">
@@ -4914,7 +5014,7 @@
         <v>12</v>
       </c>
       <c r="M57">
-        <f t="shared" si="0"/>
+        <f>J57+K57+L57</f>
         <v>13</v>
       </c>
       <c r="N57">
@@ -4927,7 +5027,7 @@
         <v>389</v>
       </c>
       <c r="Q57">
-        <f t="shared" si="1"/>
+        <f>N57+O57+P57</f>
         <v>455</v>
       </c>
       <c r="R57">
@@ -4940,7 +5040,7 @@
         <v>502</v>
       </c>
       <c r="U57">
-        <f t="shared" si="2"/>
+        <f>R57+S57+T57</f>
         <v>545</v>
       </c>
       <c r="V57">
@@ -4953,7 +5053,7 @@
         <v>17001</v>
       </c>
       <c r="Y57">
-        <f t="shared" si="3"/>
+        <f>V57+W57+X57</f>
         <v>17612</v>
       </c>
       <c r="Z57">
@@ -5001,7 +5101,7 @@
         <v>27</v>
       </c>
       <c r="M58">
-        <f t="shared" si="0"/>
+        <f>J58+K58+L58</f>
         <v>28</v>
       </c>
       <c r="N58">
@@ -5014,7 +5114,7 @@
         <v>472</v>
       </c>
       <c r="Q58">
-        <f t="shared" si="1"/>
+        <f>N58+O58+P58</f>
         <v>558</v>
       </c>
       <c r="R58">
@@ -5027,7 +5127,7 @@
         <v>426</v>
       </c>
       <c r="U58">
-        <f t="shared" si="2"/>
+        <f>R58+S58+T58</f>
         <v>453</v>
       </c>
       <c r="V58">
@@ -5040,7 +5140,7 @@
         <v>16802</v>
       </c>
       <c r="Y58">
-        <f t="shared" si="3"/>
+        <f>V58+W58+X58</f>
         <v>17452</v>
       </c>
       <c r="Z58">
@@ -5088,7 +5188,7 @@
         <v>27</v>
       </c>
       <c r="M59">
-        <f t="shared" si="0"/>
+        <f>J59+K59+L59</f>
         <v>28</v>
       </c>
       <c r="N59">
@@ -5101,7 +5201,7 @@
         <v>519</v>
       </c>
       <c r="Q59">
-        <f t="shared" si="1"/>
+        <f>N59+O59+P59</f>
         <v>612</v>
       </c>
       <c r="R59">
@@ -5114,7 +5214,7 @@
         <v>388</v>
       </c>
       <c r="U59">
-        <f t="shared" si="2"/>
+        <f>R59+S59+T59</f>
         <v>411</v>
       </c>
       <c r="V59">
@@ -5127,7 +5227,7 @@
         <v>16974</v>
       </c>
       <c r="Y59">
-        <f t="shared" si="3"/>
+        <f>V59+W59+X59</f>
         <v>17570</v>
       </c>
       <c r="Z59">
@@ -5175,7 +5275,7 @@
         <v>34</v>
       </c>
       <c r="M60">
-        <f t="shared" si="0"/>
+        <f>J60+K60+L60</f>
         <v>34</v>
       </c>
       <c r="N60">
@@ -5188,7 +5288,7 @@
         <v>561</v>
       </c>
       <c r="Q60">
-        <f t="shared" si="1"/>
+        <f>N60+O60+P60</f>
         <v>657</v>
       </c>
       <c r="R60">
@@ -5201,7 +5301,7 @@
         <v>369</v>
       </c>
       <c r="U60">
-        <f t="shared" si="2"/>
+        <f>R60+S60+T60</f>
         <v>384</v>
       </c>
       <c r="V60">
@@ -5214,7 +5314,7 @@
         <v>16892</v>
       </c>
       <c r="Y60">
-        <f t="shared" si="3"/>
+        <f>V60+W60+X60</f>
         <v>17572</v>
       </c>
       <c r="Z60">
@@ -5262,7 +5362,7 @@
         <v>17</v>
       </c>
       <c r="M61">
-        <f t="shared" si="0"/>
+        <f>J61+K61+L61</f>
         <v>20</v>
       </c>
       <c r="N61">
@@ -5275,7 +5375,7 @@
         <v>503</v>
       </c>
       <c r="Q61">
-        <f t="shared" si="1"/>
+        <f>N61+O61+P61</f>
         <v>589</v>
       </c>
       <c r="R61">
@@ -5288,7 +5388,7 @@
         <v>401</v>
       </c>
       <c r="U61">
-        <f t="shared" si="2"/>
+        <f>R61+S61+T61</f>
         <v>426</v>
       </c>
       <c r="V61">
@@ -5301,7 +5401,7 @@
         <v>16804</v>
       </c>
       <c r="Y61">
-        <f t="shared" si="3"/>
+        <f>V61+W61+X61</f>
         <v>17477</v>
       </c>
       <c r="Z61">
@@ -5309,6 +5409,2616 @@
       </c>
       <c r="AA61">
         <v>18512</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>25</v>
+      </c>
+      <c r="B62">
+        <v>1600</v>
+      </c>
+      <c r="C62">
+        <v>16</v>
+      </c>
+      <c r="D62">
+        <v>10</v>
+      </c>
+      <c r="E62">
+        <v>2767</v>
+      </c>
+      <c r="F62">
+        <v>19570</v>
+      </c>
+      <c r="G62">
+        <v>22363</v>
+      </c>
+      <c r="H62">
+        <v>4</v>
+      </c>
+      <c r="I62">
+        <v>730</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>44</v>
+      </c>
+      <c r="M62">
+        <f>J62+K62+L62</f>
+        <v>44</v>
+      </c>
+      <c r="N62">
+        <v>78</v>
+      </c>
+      <c r="O62">
+        <v>102</v>
+      </c>
+      <c r="P62">
+        <v>1017</v>
+      </c>
+      <c r="Q62">
+        <f>N62+O62+P62</f>
+        <v>1197</v>
+      </c>
+      <c r="R62">
+        <v>12</v>
+      </c>
+      <c r="S62">
+        <v>25</v>
+      </c>
+      <c r="T62">
+        <v>525</v>
+      </c>
+      <c r="U62">
+        <f>R62+S62+T62</f>
+        <v>562</v>
+      </c>
+      <c r="V62">
+        <v>32</v>
+      </c>
+      <c r="W62">
+        <v>612</v>
+      </c>
+      <c r="X62">
+        <v>16410</v>
+      </c>
+      <c r="Y62">
+        <f>V62+W62+X62</f>
+        <v>17054</v>
+      </c>
+      <c r="Z62">
+        <v>19591</v>
+      </c>
+      <c r="AA62">
+        <v>18857</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>25</v>
+      </c>
+      <c r="B63">
+        <v>1600</v>
+      </c>
+      <c r="C63">
+        <v>31</v>
+      </c>
+      <c r="D63">
+        <v>6</v>
+      </c>
+      <c r="E63">
+        <v>2771</v>
+      </c>
+      <c r="F63">
+        <v>19846</v>
+      </c>
+      <c r="G63">
+        <v>22654</v>
+      </c>
+      <c r="H63">
+        <v>1</v>
+      </c>
+      <c r="I63">
+        <v>782</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>1</v>
+      </c>
+      <c r="L63">
+        <v>46</v>
+      </c>
+      <c r="M63">
+        <f>J63+K63+L63</f>
+        <v>47</v>
+      </c>
+      <c r="N63">
+        <v>76</v>
+      </c>
+      <c r="O63">
+        <v>102</v>
+      </c>
+      <c r="P63">
+        <v>1054</v>
+      </c>
+      <c r="Q63">
+        <f>N63+O63+P63</f>
+        <v>1232</v>
+      </c>
+      <c r="R63">
+        <v>12</v>
+      </c>
+      <c r="S63">
+        <v>24</v>
+      </c>
+      <c r="T63">
+        <v>533</v>
+      </c>
+      <c r="U63">
+        <f>R63+S63+T63</f>
+        <v>569</v>
+      </c>
+      <c r="V63">
+        <v>35</v>
+      </c>
+      <c r="W63">
+        <v>597</v>
+      </c>
+      <c r="X63">
+        <v>16607</v>
+      </c>
+      <c r="Y63">
+        <f>V63+W63+X63</f>
+        <v>17239</v>
+      </c>
+      <c r="Z63">
+        <v>19870</v>
+      </c>
+      <c r="AA63">
+        <v>19087</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>25</v>
+      </c>
+      <c r="B64">
+        <v>1600</v>
+      </c>
+      <c r="C64">
+        <v>16</v>
+      </c>
+      <c r="D64">
+        <v>8</v>
+      </c>
+      <c r="E64">
+        <v>2769</v>
+      </c>
+      <c r="F64">
+        <v>19823</v>
+      </c>
+      <c r="G64">
+        <v>22616</v>
+      </c>
+      <c r="H64">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>745</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>2</v>
+      </c>
+      <c r="L64">
+        <v>42</v>
+      </c>
+      <c r="M64">
+        <f>J64+K64+L64</f>
+        <v>44</v>
+      </c>
+      <c r="N64">
+        <v>80</v>
+      </c>
+      <c r="O64">
+        <v>109</v>
+      </c>
+      <c r="P64">
+        <v>1084</v>
+      </c>
+      <c r="Q64">
+        <f>N64+O64+P64</f>
+        <v>1273</v>
+      </c>
+      <c r="R64">
+        <v>10</v>
+      </c>
+      <c r="S64">
+        <v>19</v>
+      </c>
+      <c r="T64">
+        <v>510</v>
+      </c>
+      <c r="U64">
+        <f>R64+S64+T64</f>
+        <v>539</v>
+      </c>
+      <c r="V64">
+        <v>27</v>
+      </c>
+      <c r="W64">
+        <v>630</v>
+      </c>
+      <c r="X64">
+        <v>16582</v>
+      </c>
+      <c r="Y64">
+        <f>V64+W64+X64</f>
+        <v>17239</v>
+      </c>
+      <c r="Z64">
+        <v>19841</v>
+      </c>
+      <c r="AA64">
+        <v>19095</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>25</v>
+      </c>
+      <c r="B65">
+        <v>1600</v>
+      </c>
+      <c r="C65">
+        <v>19</v>
+      </c>
+      <c r="D65">
+        <v>10</v>
+      </c>
+      <c r="E65">
+        <v>2767</v>
+      </c>
+      <c r="F65">
+        <v>19746</v>
+      </c>
+      <c r="G65">
+        <v>22542</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65">
+        <v>603</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>1</v>
+      </c>
+      <c r="L65">
+        <v>50</v>
+      </c>
+      <c r="M65">
+        <f>J65+K65+L65</f>
+        <v>51</v>
+      </c>
+      <c r="N65">
+        <v>79</v>
+      </c>
+      <c r="O65">
+        <v>102</v>
+      </c>
+      <c r="P65">
+        <v>1026</v>
+      </c>
+      <c r="Q65">
+        <f>N65+O65+P65</f>
+        <v>1207</v>
+      </c>
+      <c r="R65">
+        <v>10</v>
+      </c>
+      <c r="S65">
+        <v>26</v>
+      </c>
+      <c r="T65">
+        <v>551</v>
+      </c>
+      <c r="U65">
+        <f>R65+S65+T65</f>
+        <v>587</v>
+      </c>
+      <c r="V65">
+        <v>30</v>
+      </c>
+      <c r="W65">
+        <v>572</v>
+      </c>
+      <c r="X65">
+        <v>16540</v>
+      </c>
+      <c r="Y65">
+        <f>V65+W65+X65</f>
+        <v>17142</v>
+      </c>
+      <c r="Z65">
+        <v>19591</v>
+      </c>
+      <c r="AA65">
+        <v>18987</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>25</v>
+      </c>
+      <c r="B66">
+        <v>1600</v>
+      </c>
+      <c r="C66">
+        <v>24</v>
+      </c>
+      <c r="D66">
+        <v>10</v>
+      </c>
+      <c r="E66">
+        <v>2767</v>
+      </c>
+      <c r="F66">
+        <v>20014</v>
+      </c>
+      <c r="G66">
+        <v>22815</v>
+      </c>
+      <c r="H66">
+        <v>0</v>
+      </c>
+      <c r="I66">
+        <v>671</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>45</v>
+      </c>
+      <c r="M66">
+        <f>J66+K66+L66</f>
+        <v>47</v>
+      </c>
+      <c r="N66">
+        <v>80</v>
+      </c>
+      <c r="O66">
+        <v>107</v>
+      </c>
+      <c r="P66">
+        <v>1047</v>
+      </c>
+      <c r="Q66">
+        <f>N66+O66+P66</f>
+        <v>1234</v>
+      </c>
+      <c r="R66">
+        <v>9</v>
+      </c>
+      <c r="S66">
+        <v>19</v>
+      </c>
+      <c r="T66">
+        <v>530</v>
+      </c>
+      <c r="U66">
+        <f>R66+S66+T66</f>
+        <v>558</v>
+      </c>
+      <c r="V66">
+        <v>30</v>
+      </c>
+      <c r="W66">
+        <v>623</v>
+      </c>
+      <c r="X66">
+        <v>16700</v>
+      </c>
+      <c r="Y66">
+        <f>V66+W66+X66</f>
+        <v>17353</v>
+      </c>
+      <c r="Z66">
+        <v>19863</v>
+      </c>
+      <c r="AA66">
+        <v>19192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>25</v>
+      </c>
+      <c r="B67">
+        <v>1600</v>
+      </c>
+      <c r="C67">
+        <v>15</v>
+      </c>
+      <c r="D67">
+        <v>11</v>
+      </c>
+      <c r="E67">
+        <v>2766</v>
+      </c>
+      <c r="F67">
+        <v>19675</v>
+      </c>
+      <c r="G67">
+        <v>22467</v>
+      </c>
+      <c r="H67">
+        <v>3</v>
+      </c>
+      <c r="I67">
+        <v>773</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>3</v>
+      </c>
+      <c r="L67">
+        <v>41</v>
+      </c>
+      <c r="M67">
+        <f>J67+K67+L67</f>
+        <v>44</v>
+      </c>
+      <c r="N67">
+        <v>77</v>
+      </c>
+      <c r="O67">
+        <v>106</v>
+      </c>
+      <c r="P67">
+        <v>1016</v>
+      </c>
+      <c r="Q67">
+        <f>N67+O67+P67</f>
+        <v>1199</v>
+      </c>
+      <c r="R67">
+        <v>11</v>
+      </c>
+      <c r="S67">
+        <v>21</v>
+      </c>
+      <c r="T67">
+        <v>553</v>
+      </c>
+      <c r="U67">
+        <f>R67+S67+T67</f>
+        <v>585</v>
+      </c>
+      <c r="V67">
+        <v>38</v>
+      </c>
+      <c r="W67">
+        <v>597</v>
+      </c>
+      <c r="X67">
+        <v>16465</v>
+      </c>
+      <c r="Y67">
+        <f>V67+W67+X67</f>
+        <v>17100</v>
+      </c>
+      <c r="Z67">
+        <v>19704</v>
+      </c>
+      <c r="AA67">
+        <v>18928</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>25</v>
+      </c>
+      <c r="B68">
+        <v>1600</v>
+      </c>
+      <c r="C68">
+        <v>13</v>
+      </c>
+      <c r="D68">
+        <v>9</v>
+      </c>
+      <c r="E68">
+        <v>2768</v>
+      </c>
+      <c r="F68">
+        <v>19667</v>
+      </c>
+      <c r="G68">
+        <v>22457</v>
+      </c>
+      <c r="H68">
+        <v>2</v>
+      </c>
+      <c r="I68">
+        <v>824</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>1</v>
+      </c>
+      <c r="L68">
+        <v>37</v>
+      </c>
+      <c r="M68">
+        <f>J68+K68+L68</f>
+        <v>38</v>
+      </c>
+      <c r="N68">
+        <v>75</v>
+      </c>
+      <c r="O68">
+        <v>108</v>
+      </c>
+      <c r="P68">
+        <v>1032</v>
+      </c>
+      <c r="Q68">
+        <f>N68+O68+P68</f>
+        <v>1215</v>
+      </c>
+      <c r="R68">
+        <v>13</v>
+      </c>
+      <c r="S68">
+        <v>20</v>
+      </c>
+      <c r="T68">
+        <v>556</v>
+      </c>
+      <c r="U68">
+        <f>R68+S68+T68</f>
+        <v>589</v>
+      </c>
+      <c r="V68">
+        <v>33</v>
+      </c>
+      <c r="W68">
+        <v>630</v>
+      </c>
+      <c r="X68">
+        <v>16404</v>
+      </c>
+      <c r="Y68">
+        <f>V68+W68+X68</f>
+        <v>17067</v>
+      </c>
+      <c r="Z68">
+        <v>19735</v>
+      </c>
+      <c r="AA68">
+        <v>18909</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>25</v>
+      </c>
+      <c r="B69">
+        <v>1600</v>
+      </c>
+      <c r="C69">
+        <v>12</v>
+      </c>
+      <c r="D69">
+        <v>12</v>
+      </c>
+      <c r="E69">
+        <v>2765</v>
+      </c>
+      <c r="F69">
+        <v>20030</v>
+      </c>
+      <c r="G69">
+        <v>22819</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+      <c r="I69">
+        <v>768</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>13</v>
+      </c>
+      <c r="M69">
+        <f>J69+K69+L69</f>
+        <v>14</v>
+      </c>
+      <c r="N69">
+        <v>64</v>
+      </c>
+      <c r="O69">
+        <v>95</v>
+      </c>
+      <c r="P69">
+        <v>863</v>
+      </c>
+      <c r="Q69">
+        <f>N69+O69+P69</f>
+        <v>1022</v>
+      </c>
+      <c r="R69">
+        <v>26</v>
+      </c>
+      <c r="S69">
+        <v>36</v>
+      </c>
+      <c r="T69">
+        <v>702</v>
+      </c>
+      <c r="U69">
+        <f>R69+S69+T69</f>
+        <v>764</v>
+      </c>
+      <c r="V69">
+        <v>21</v>
+      </c>
+      <c r="W69">
+        <v>622</v>
+      </c>
+      <c r="X69">
+        <v>16753</v>
+      </c>
+      <c r="Y69">
+        <f>V69+W69+X69</f>
+        <v>17396</v>
+      </c>
+      <c r="Z69">
+        <v>19965</v>
+      </c>
+      <c r="AA69">
+        <v>19196</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>25</v>
+      </c>
+      <c r="B70">
+        <v>1600</v>
+      </c>
+      <c r="C70">
+        <v>19</v>
+      </c>
+      <c r="D70">
+        <v>10</v>
+      </c>
+      <c r="E70">
+        <v>2767</v>
+      </c>
+      <c r="F70">
+        <v>19834</v>
+      </c>
+      <c r="G70">
+        <v>22630</v>
+      </c>
+      <c r="H70">
+        <v>2</v>
+      </c>
+      <c r="I70">
+        <v>790</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>46</v>
+      </c>
+      <c r="M70">
+        <f>J70+K70+L70</f>
+        <v>46</v>
+      </c>
+      <c r="N70">
+        <v>79</v>
+      </c>
+      <c r="O70">
+        <v>100</v>
+      </c>
+      <c r="P70">
+        <v>1002</v>
+      </c>
+      <c r="Q70">
+        <f>N70+O70+P70</f>
+        <v>1181</v>
+      </c>
+      <c r="R70">
+        <v>9</v>
+      </c>
+      <c r="S70">
+        <v>24</v>
+      </c>
+      <c r="T70">
+        <v>572</v>
+      </c>
+      <c r="U70">
+        <f>R70+S70+T70</f>
+        <v>605</v>
+      </c>
+      <c r="V70">
+        <v>39</v>
+      </c>
+      <c r="W70">
+        <v>598</v>
+      </c>
+      <c r="X70">
+        <v>16519</v>
+      </c>
+      <c r="Y70">
+        <f>V70+W70+X70</f>
+        <v>17156</v>
+      </c>
+      <c r="Z70">
+        <v>19780</v>
+      </c>
+      <c r="AA70">
+        <v>18988</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>25</v>
+      </c>
+      <c r="B71">
+        <v>1600</v>
+      </c>
+      <c r="C71">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>11</v>
+      </c>
+      <c r="E71">
+        <v>2766</v>
+      </c>
+      <c r="F71">
+        <v>19701</v>
+      </c>
+      <c r="G71">
+        <v>22498</v>
+      </c>
+      <c r="H71">
+        <v>0</v>
+      </c>
+      <c r="I71">
+        <v>769</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>1</v>
+      </c>
+      <c r="L71">
+        <v>36</v>
+      </c>
+      <c r="M71">
+        <f>J71+K71+L71</f>
+        <v>37</v>
+      </c>
+      <c r="N71">
+        <v>75</v>
+      </c>
+      <c r="O71">
+        <v>104</v>
+      </c>
+      <c r="P71">
+        <v>992</v>
+      </c>
+      <c r="Q71">
+        <f>N71+O71+P71</f>
+        <v>1171</v>
+      </c>
+      <c r="R71">
+        <v>14</v>
+      </c>
+      <c r="S71">
+        <v>28</v>
+      </c>
+      <c r="T71">
+        <v>571</v>
+      </c>
+      <c r="U71">
+        <f>R71+S71+T71</f>
+        <v>613</v>
+      </c>
+      <c r="V71">
+        <v>34</v>
+      </c>
+      <c r="W71">
+        <v>603</v>
+      </c>
+      <c r="X71">
+        <v>16460</v>
+      </c>
+      <c r="Y71">
+        <f>V71+W71+X71</f>
+        <v>17097</v>
+      </c>
+      <c r="Z71">
+        <v>19687</v>
+      </c>
+      <c r="AA71">
+        <v>18918</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>25</v>
+      </c>
+      <c r="B72">
+        <v>4000</v>
+      </c>
+      <c r="C72">
+        <v>28</v>
+      </c>
+      <c r="D72">
+        <v>44</v>
+      </c>
+      <c r="E72">
+        <v>6484</v>
+      </c>
+      <c r="F72">
+        <v>19863</v>
+      </c>
+      <c r="G72">
+        <v>26419</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>556</v>
+      </c>
+      <c r="J72">
+        <v>0</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>50</v>
+      </c>
+      <c r="M72">
+        <f>J72+K72+L72</f>
+        <v>53</v>
+      </c>
+      <c r="N72">
+        <v>157</v>
+      </c>
+      <c r="O72">
+        <v>188</v>
+      </c>
+      <c r="P72">
+        <v>2011</v>
+      </c>
+      <c r="Q72">
+        <f>N72+O72+P72</f>
+        <v>2356</v>
+      </c>
+      <c r="R72">
+        <v>27</v>
+      </c>
+      <c r="S72">
+        <v>24</v>
+      </c>
+      <c r="T72">
+        <v>798</v>
+      </c>
+      <c r="U72">
+        <f>R72+S72+T72</f>
+        <v>849</v>
+      </c>
+      <c r="V72">
+        <v>33</v>
+      </c>
+      <c r="W72">
+        <v>589</v>
+      </c>
+      <c r="X72">
+        <v>16015</v>
+      </c>
+      <c r="Y72">
+        <f>V72+W72+X72</f>
+        <v>16637</v>
+      </c>
+      <c r="Z72">
+        <v>20455</v>
+      </c>
+      <c r="AA72">
+        <v>19895</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>4000</v>
+      </c>
+      <c r="C73">
+        <v>32</v>
+      </c>
+      <c r="D73">
+        <v>48</v>
+      </c>
+      <c r="E73">
+        <v>6480</v>
+      </c>
+      <c r="F73">
+        <v>19686</v>
+      </c>
+      <c r="G73">
+        <v>26246</v>
+      </c>
+      <c r="H73">
+        <v>4</v>
+      </c>
+      <c r="I73">
+        <v>531</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+      <c r="L73">
+        <v>44</v>
+      </c>
+      <c r="M73">
+        <f>J73+K73+L73</f>
+        <v>46</v>
+      </c>
+      <c r="N73">
+        <v>157</v>
+      </c>
+      <c r="O73">
+        <v>192</v>
+      </c>
+      <c r="P73">
+        <v>2060</v>
+      </c>
+      <c r="Q73">
+        <f>N73+O73+P73</f>
+        <v>2409</v>
+      </c>
+      <c r="R73">
+        <v>26</v>
+      </c>
+      <c r="S73">
+        <v>21</v>
+      </c>
+      <c r="T73">
+        <v>778</v>
+      </c>
+      <c r="U73">
+        <f>R73+S73+T73</f>
+        <v>825</v>
+      </c>
+      <c r="V73">
+        <v>44</v>
+      </c>
+      <c r="W73">
+        <v>596</v>
+      </c>
+      <c r="X73">
+        <v>15965</v>
+      </c>
+      <c r="Y73">
+        <f>V73+W73+X73</f>
+        <v>16605</v>
+      </c>
+      <c r="Z73">
+        <v>20420</v>
+      </c>
+      <c r="AA73">
+        <v>19885</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>25</v>
+      </c>
+      <c r="B74">
+        <v>4000</v>
+      </c>
+      <c r="C74">
+        <v>36</v>
+      </c>
+      <c r="D74">
+        <v>47</v>
+      </c>
+      <c r="E74">
+        <v>6481</v>
+      </c>
+      <c r="F74">
+        <v>19907</v>
+      </c>
+      <c r="G74">
+        <v>26471</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="I74">
+        <v>680</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>58</v>
+      </c>
+      <c r="M74">
+        <f>J74+K74+L74</f>
+        <v>60</v>
+      </c>
+      <c r="N74">
+        <v>162</v>
+      </c>
+      <c r="O74">
+        <v>191</v>
+      </c>
+      <c r="P74">
+        <v>2056</v>
+      </c>
+      <c r="Q74">
+        <f>N74+O74+P74</f>
+        <v>2409</v>
+      </c>
+      <c r="R74">
+        <v>24</v>
+      </c>
+      <c r="S74">
+        <v>22</v>
+      </c>
+      <c r="T74">
+        <v>789</v>
+      </c>
+      <c r="U74">
+        <f>R74+S74+T74</f>
+        <v>835</v>
+      </c>
+      <c r="V74">
+        <v>29</v>
+      </c>
+      <c r="W74">
+        <v>597</v>
+      </c>
+      <c r="X74">
+        <v>16155</v>
+      </c>
+      <c r="Y74">
+        <f>V74+W74+X74</f>
+        <v>16781</v>
+      </c>
+      <c r="Z74">
+        <v>20767</v>
+      </c>
+      <c r="AA74">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>25</v>
+      </c>
+      <c r="B75">
+        <v>4000</v>
+      </c>
+      <c r="C75">
+        <v>32</v>
+      </c>
+      <c r="D75">
+        <v>46</v>
+      </c>
+      <c r="E75">
+        <v>6482</v>
+      </c>
+      <c r="F75">
+        <v>19778</v>
+      </c>
+      <c r="G75">
+        <v>26338</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+      <c r="I75">
+        <v>609</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>1</v>
+      </c>
+      <c r="L75">
+        <v>48</v>
+      </c>
+      <c r="M75">
+        <f>J75+K75+L75</f>
+        <v>49</v>
+      </c>
+      <c r="N75">
+        <v>163</v>
+      </c>
+      <c r="O75">
+        <v>191</v>
+      </c>
+      <c r="P75">
+        <v>2081</v>
+      </c>
+      <c r="Q75">
+        <f>N75+O75+P75</f>
+        <v>2435</v>
+      </c>
+      <c r="R75">
+        <v>24</v>
+      </c>
+      <c r="S75">
+        <v>20</v>
+      </c>
+      <c r="T75">
+        <v>796</v>
+      </c>
+      <c r="U75">
+        <f>R75+S75+T75</f>
+        <v>840</v>
+      </c>
+      <c r="V75">
+        <v>31</v>
+      </c>
+      <c r="W75">
+        <v>585</v>
+      </c>
+      <c r="X75">
+        <v>16001</v>
+      </c>
+      <c r="Y75">
+        <f>V75+W75+X75</f>
+        <v>16617</v>
+      </c>
+      <c r="Z75">
+        <v>20551</v>
+      </c>
+      <c r="AA75">
+        <v>19941</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>25</v>
+      </c>
+      <c r="B76">
+        <v>4000</v>
+      </c>
+      <c r="C76">
+        <v>33</v>
+      </c>
+      <c r="D76">
+        <v>49</v>
+      </c>
+      <c r="E76">
+        <v>6479</v>
+      </c>
+      <c r="F76">
+        <v>19848</v>
+      </c>
+      <c r="G76">
+        <v>26409</v>
+      </c>
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>669</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>50</v>
+      </c>
+      <c r="M76">
+        <f>J76+K76+L76</f>
+        <v>52</v>
+      </c>
+      <c r="N76">
+        <v>162</v>
+      </c>
+      <c r="O76">
+        <v>196</v>
+      </c>
+      <c r="P76">
+        <v>2042</v>
+      </c>
+      <c r="Q76">
+        <f>N76+O76+P76</f>
+        <v>2400</v>
+      </c>
+      <c r="R76">
+        <v>23</v>
+      </c>
+      <c r="S76">
+        <v>22</v>
+      </c>
+      <c r="T76">
+        <v>789</v>
+      </c>
+      <c r="U76">
+        <f>R76+S76+T76</f>
+        <v>834</v>
+      </c>
+      <c r="V76">
+        <v>33</v>
+      </c>
+      <c r="W76">
+        <v>544</v>
+      </c>
+      <c r="X76">
+        <v>16026</v>
+      </c>
+      <c r="Y76">
+        <f>V76+W76+X76</f>
+        <v>16603</v>
+      </c>
+      <c r="Z76">
+        <v>20560</v>
+      </c>
+      <c r="AA76">
+        <v>19889</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>25</v>
+      </c>
+      <c r="B77">
+        <v>4000</v>
+      </c>
+      <c r="C77">
+        <v>28</v>
+      </c>
+      <c r="D77">
+        <v>45</v>
+      </c>
+      <c r="E77">
+        <v>6483</v>
+      </c>
+      <c r="F77">
+        <v>19781</v>
+      </c>
+      <c r="G77">
+        <v>26337</v>
+      </c>
+      <c r="H77">
+        <v>3</v>
+      </c>
+      <c r="I77">
+        <v>684</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+      <c r="L77">
+        <v>65</v>
+      </c>
+      <c r="M77">
+        <f>J77+K77+L77</f>
+        <v>68</v>
+      </c>
+      <c r="N77">
+        <v>161</v>
+      </c>
+      <c r="O77">
+        <v>195</v>
+      </c>
+      <c r="P77">
+        <v>2089</v>
+      </c>
+      <c r="Q77">
+        <f>N77+O77+P77</f>
+        <v>2445</v>
+      </c>
+      <c r="R77">
+        <v>25</v>
+      </c>
+      <c r="S77">
+        <v>21</v>
+      </c>
+      <c r="T77">
+        <v>762</v>
+      </c>
+      <c r="U77">
+        <f>R77+S77+T77</f>
+        <v>808</v>
+      </c>
+      <c r="V77">
+        <v>28</v>
+      </c>
+      <c r="W77">
+        <v>570</v>
+      </c>
+      <c r="X77">
+        <v>16068</v>
+      </c>
+      <c r="Y77">
+        <f>V77+W77+X77</f>
+        <v>16666</v>
+      </c>
+      <c r="Z77">
+        <v>20674</v>
+      </c>
+      <c r="AA77">
+        <v>19987</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>25</v>
+      </c>
+      <c r="B78">
+        <v>4000</v>
+      </c>
+      <c r="C78">
+        <v>40</v>
+      </c>
+      <c r="D78">
+        <v>45</v>
+      </c>
+      <c r="E78">
+        <v>6483</v>
+      </c>
+      <c r="F78">
+        <v>19660</v>
+      </c>
+      <c r="G78">
+        <v>26228</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
+      </c>
+      <c r="I78">
+        <v>575</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>3</v>
+      </c>
+      <c r="L78">
+        <v>60</v>
+      </c>
+      <c r="M78">
+        <f>J78+K78+L78</f>
+        <v>63</v>
+      </c>
+      <c r="N78">
+        <v>160</v>
+      </c>
+      <c r="O78">
+        <v>193</v>
+      </c>
+      <c r="P78">
+        <v>2107</v>
+      </c>
+      <c r="Q78">
+        <f>N78+O78+P78</f>
+        <v>2460</v>
+      </c>
+      <c r="R78">
+        <v>24</v>
+      </c>
+      <c r="S78">
+        <v>23</v>
+      </c>
+      <c r="T78">
+        <v>718</v>
+      </c>
+      <c r="U78">
+        <f>R78+S78+T78</f>
+        <v>765</v>
+      </c>
+      <c r="V78">
+        <v>26</v>
+      </c>
+      <c r="W78">
+        <v>579</v>
+      </c>
+      <c r="X78">
+        <v>15977</v>
+      </c>
+      <c r="Y78">
+        <f>V78+W78+X78</f>
+        <v>16582</v>
+      </c>
+      <c r="Z78">
+        <v>20449</v>
+      </c>
+      <c r="AA78">
+        <v>19870</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>25</v>
+      </c>
+      <c r="B79">
+        <v>4000</v>
+      </c>
+      <c r="C79">
+        <v>36</v>
+      </c>
+      <c r="D79">
+        <v>48</v>
+      </c>
+      <c r="E79">
+        <v>6480</v>
+      </c>
+      <c r="F79">
+        <v>19600</v>
+      </c>
+      <c r="G79">
+        <v>26164</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>628</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>2</v>
+      </c>
+      <c r="L79">
+        <v>71</v>
+      </c>
+      <c r="M79">
+        <f>J79+K79+L79</f>
+        <v>73</v>
+      </c>
+      <c r="N79">
+        <v>158</v>
+      </c>
+      <c r="O79">
+        <v>193</v>
+      </c>
+      <c r="P79">
+        <v>2040</v>
+      </c>
+      <c r="Q79">
+        <f>N79+O79+P79</f>
+        <v>2391</v>
+      </c>
+      <c r="R79">
+        <v>25</v>
+      </c>
+      <c r="S79">
+        <v>19</v>
+      </c>
+      <c r="T79">
+        <v>778</v>
+      </c>
+      <c r="U79">
+        <f>R79+S79+T79</f>
+        <v>822</v>
+      </c>
+      <c r="V79">
+        <v>30</v>
+      </c>
+      <c r="W79">
+        <v>617</v>
+      </c>
+      <c r="X79">
+        <v>15839</v>
+      </c>
+      <c r="Y79">
+        <f>V79+W79+X79</f>
+        <v>16486</v>
+      </c>
+      <c r="Z79">
+        <v>20403</v>
+      </c>
+      <c r="AA79">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>25</v>
+      </c>
+      <c r="B80">
+        <v>4000</v>
+      </c>
+      <c r="C80">
+        <v>31</v>
+      </c>
+      <c r="D80">
+        <v>49</v>
+      </c>
+      <c r="E80">
+        <v>6479</v>
+      </c>
+      <c r="F80">
+        <v>19808</v>
+      </c>
+      <c r="G80">
+        <v>26367</v>
+      </c>
+      <c r="H80">
+        <v>3</v>
+      </c>
+      <c r="I80">
+        <v>843</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>3</v>
+      </c>
+      <c r="L80">
+        <v>48</v>
+      </c>
+      <c r="M80">
+        <f>J80+K80+L80</f>
+        <v>51</v>
+      </c>
+      <c r="N80">
+        <v>159</v>
+      </c>
+      <c r="O80">
+        <v>192</v>
+      </c>
+      <c r="P80">
+        <v>2074</v>
+      </c>
+      <c r="Q80">
+        <f>N80+O80+P80</f>
+        <v>2425</v>
+      </c>
+      <c r="R80">
+        <v>26</v>
+      </c>
+      <c r="S80">
+        <v>24</v>
+      </c>
+      <c r="T80">
+        <v>740</v>
+      </c>
+      <c r="U80">
+        <f>R80+S80+T80</f>
+        <v>790</v>
+      </c>
+      <c r="V80">
+        <v>27</v>
+      </c>
+      <c r="W80">
+        <v>590</v>
+      </c>
+      <c r="X80">
+        <v>16010</v>
+      </c>
+      <c r="Y80">
+        <f>V80+W80+X80</f>
+        <v>16627</v>
+      </c>
+      <c r="Z80">
+        <v>20739</v>
+      </c>
+      <c r="AA80">
+        <v>19893</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>25</v>
+      </c>
+      <c r="B81">
+        <v>4000</v>
+      </c>
+      <c r="C81">
+        <v>32</v>
+      </c>
+      <c r="D81">
+        <v>47</v>
+      </c>
+      <c r="E81">
+        <v>6481</v>
+      </c>
+      <c r="F81">
+        <v>19832</v>
+      </c>
+      <c r="G81">
+        <v>26392</v>
+      </c>
+      <c r="H81">
+        <v>4</v>
+      </c>
+      <c r="I81">
+        <v>539</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>1</v>
+      </c>
+      <c r="L81">
+        <v>48</v>
+      </c>
+      <c r="M81">
+        <f>J81+K81+L81</f>
+        <v>49</v>
+      </c>
+      <c r="N81">
+        <v>162</v>
+      </c>
+      <c r="O81">
+        <v>196</v>
+      </c>
+      <c r="P81">
+        <v>2042</v>
+      </c>
+      <c r="Q81">
+        <f>N81+O81+P81</f>
+        <v>2400</v>
+      </c>
+      <c r="R81">
+        <v>24</v>
+      </c>
+      <c r="S81">
+        <v>15</v>
+      </c>
+      <c r="T81">
+        <v>769</v>
+      </c>
+      <c r="U81">
+        <f>R81+S81+T81</f>
+        <v>808</v>
+      </c>
+      <c r="V81">
+        <v>36</v>
+      </c>
+      <c r="W81">
+        <v>564</v>
+      </c>
+      <c r="X81">
+        <v>16024</v>
+      </c>
+      <c r="Y81">
+        <f>V81+W81+X81</f>
+        <v>16624</v>
+      </c>
+      <c r="Z81">
+        <v>20424</v>
+      </c>
+      <c r="AA81">
+        <v>19881</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>25</v>
+      </c>
+      <c r="B82">
+        <v>10000</v>
+      </c>
+      <c r="C82">
+        <v>89</v>
+      </c>
+      <c r="D82">
+        <v>122</v>
+      </c>
+      <c r="E82">
+        <v>16808</v>
+      </c>
+      <c r="F82">
+        <v>19802</v>
+      </c>
+      <c r="G82">
+        <v>36821</v>
+      </c>
+      <c r="H82">
+        <v>14</v>
+      </c>
+      <c r="I82">
+        <v>368</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>3</v>
+      </c>
+      <c r="L82">
+        <v>109</v>
+      </c>
+      <c r="M82">
+        <f>J82+K82+L82</f>
+        <v>112</v>
+      </c>
+      <c r="N82">
+        <v>366</v>
+      </c>
+      <c r="O82">
+        <v>455</v>
+      </c>
+      <c r="P82">
+        <v>5286</v>
+      </c>
+      <c r="Q82">
+        <f>N82+O82+P82</f>
+        <v>6107</v>
+      </c>
+      <c r="R82">
+        <v>38</v>
+      </c>
+      <c r="S82">
+        <v>38</v>
+      </c>
+      <c r="T82">
+        <v>1266</v>
+      </c>
+      <c r="U82">
+        <f>R82+S82+T82</f>
+        <v>1342</v>
+      </c>
+      <c r="V82">
+        <v>30</v>
+      </c>
+      <c r="W82">
+        <v>555</v>
+      </c>
+      <c r="X82">
+        <v>15299</v>
+      </c>
+      <c r="Y82">
+        <f>V82+W82+X82</f>
+        <v>15884</v>
+      </c>
+      <c r="Z82">
+        <v>23827</v>
+      </c>
+      <c r="AA82">
+        <v>23445</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>25</v>
+      </c>
+      <c r="B83">
+        <v>10000</v>
+      </c>
+      <c r="C83">
+        <v>61</v>
+      </c>
+      <c r="D83">
+        <v>112</v>
+      </c>
+      <c r="E83">
+        <v>16818</v>
+      </c>
+      <c r="F83">
+        <v>19623</v>
+      </c>
+      <c r="G83">
+        <v>36614</v>
+      </c>
+      <c r="H83">
+        <v>17</v>
+      </c>
+      <c r="I83">
+        <v>315</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>103</v>
+      </c>
+      <c r="M83">
+        <f>J83+K83+L83</f>
+        <v>105</v>
+      </c>
+      <c r="N83">
+        <v>368</v>
+      </c>
+      <c r="O83">
+        <v>457</v>
+      </c>
+      <c r="P83">
+        <v>5237</v>
+      </c>
+      <c r="Q83">
+        <f>N83+O83+P83</f>
+        <v>6062</v>
+      </c>
+      <c r="R83">
+        <v>38</v>
+      </c>
+      <c r="S83">
+        <v>40</v>
+      </c>
+      <c r="T83">
+        <v>1336</v>
+      </c>
+      <c r="U83">
+        <f>R83+S83+T83</f>
+        <v>1414</v>
+      </c>
+      <c r="V83">
+        <v>32</v>
+      </c>
+      <c r="W83">
+        <v>579</v>
+      </c>
+      <c r="X83">
+        <v>15197</v>
+      </c>
+      <c r="Y83">
+        <f>V83+W83+X83</f>
+        <v>15808</v>
+      </c>
+      <c r="Z83">
+        <v>23721</v>
+      </c>
+      <c r="AA83">
+        <v>23389</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>25</v>
+      </c>
+      <c r="B84">
+        <v>10000</v>
+      </c>
+      <c r="C84">
+        <v>73</v>
+      </c>
+      <c r="D84">
+        <v>118</v>
+      </c>
+      <c r="E84">
+        <v>16812</v>
+      </c>
+      <c r="F84">
+        <v>19316</v>
+      </c>
+      <c r="G84">
+        <v>36319</v>
+      </c>
+      <c r="H84">
+        <v>8</v>
+      </c>
+      <c r="I84">
+        <v>518</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>99</v>
+      </c>
+      <c r="M84">
+        <f>J84+K84+L84</f>
+        <v>101</v>
+      </c>
+      <c r="N84">
+        <v>373</v>
+      </c>
+      <c r="O84">
+        <v>468</v>
+      </c>
+      <c r="P84">
+        <v>5412</v>
+      </c>
+      <c r="Q84">
+        <f>N84+O84+P84</f>
+        <v>6253</v>
+      </c>
+      <c r="R84">
+        <v>39</v>
+      </c>
+      <c r="S84">
+        <v>49</v>
+      </c>
+      <c r="T84">
+        <v>1320</v>
+      </c>
+      <c r="U84">
+        <f>R84+S84+T84</f>
+        <v>1408</v>
+      </c>
+      <c r="V84">
+        <v>43</v>
+      </c>
+      <c r="W84">
+        <v>603</v>
+      </c>
+      <c r="X84">
+        <v>15030</v>
+      </c>
+      <c r="Y84">
+        <f>V84+W84+X84</f>
+        <v>15676</v>
+      </c>
+      <c r="Z84">
+        <v>23964</v>
+      </c>
+      <c r="AA84">
+        <v>23438</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>25</v>
+      </c>
+      <c r="B85">
+        <v>10000</v>
+      </c>
+      <c r="C85">
+        <v>77</v>
+      </c>
+      <c r="D85">
+        <v>122</v>
+      </c>
+      <c r="E85">
+        <v>16808</v>
+      </c>
+      <c r="F85">
+        <v>19843</v>
+      </c>
+      <c r="G85">
+        <v>36850</v>
+      </c>
+      <c r="H85">
+        <v>8</v>
+      </c>
+      <c r="I85">
+        <v>540</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>3</v>
+      </c>
+      <c r="L85">
+        <v>112</v>
+      </c>
+      <c r="M85">
+        <f>J85+K85+L85</f>
+        <v>115</v>
+      </c>
+      <c r="N85">
+        <v>371</v>
+      </c>
+      <c r="O85">
+        <v>466</v>
+      </c>
+      <c r="P85">
+        <v>5367</v>
+      </c>
+      <c r="Q85">
+        <f>N85+O85+P85</f>
+        <v>6204</v>
+      </c>
+      <c r="R85">
+        <v>35</v>
+      </c>
+      <c r="S85">
+        <v>44</v>
+      </c>
+      <c r="T85">
+        <v>1247</v>
+      </c>
+      <c r="U85">
+        <f>R85+S85+T85</f>
+        <v>1326</v>
+      </c>
+      <c r="V85">
+        <v>37</v>
+      </c>
+      <c r="W85">
+        <v>544</v>
+      </c>
+      <c r="X85">
+        <v>15468</v>
+      </c>
+      <c r="Y85">
+        <f>V85+W85+X85</f>
+        <v>16049</v>
+      </c>
+      <c r="Z85">
+        <v>24242</v>
+      </c>
+      <c r="AA85">
+        <v>23694</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>25</v>
+      </c>
+      <c r="B86">
+        <v>10000</v>
+      </c>
+      <c r="C86">
+        <v>80</v>
+      </c>
+      <c r="D86">
+        <v>113</v>
+      </c>
+      <c r="E86">
+        <v>16817</v>
+      </c>
+      <c r="F86">
+        <v>19424</v>
+      </c>
+      <c r="G86">
+        <v>36434</v>
+      </c>
+      <c r="H86">
+        <v>14</v>
+      </c>
+      <c r="I86">
+        <v>394</v>
+      </c>
+      <c r="J86">
+        <v>0</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>104</v>
+      </c>
+      <c r="M86">
+        <f>J86+K86+L86</f>
+        <v>106</v>
+      </c>
+      <c r="N86">
+        <v>371</v>
+      </c>
+      <c r="O86">
+        <v>466</v>
+      </c>
+      <c r="P86">
+        <v>5341</v>
+      </c>
+      <c r="Q86">
+        <f>N86+O86+P86</f>
+        <v>6178</v>
+      </c>
+      <c r="R86">
+        <v>39</v>
+      </c>
+      <c r="S86">
+        <v>38</v>
+      </c>
+      <c r="T86">
+        <v>1252</v>
+      </c>
+      <c r="U86">
+        <f>R86+S86+T86</f>
+        <v>1329</v>
+      </c>
+      <c r="V86">
+        <v>33</v>
+      </c>
+      <c r="W86">
+        <v>607</v>
+      </c>
+      <c r="X86">
+        <v>15115</v>
+      </c>
+      <c r="Y86">
+        <f>V86+W86+X86</f>
+        <v>15755</v>
+      </c>
+      <c r="Z86">
+        <v>23776</v>
+      </c>
+      <c r="AA86">
+        <v>23368</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>25</v>
+      </c>
+      <c r="B87">
+        <v>10000</v>
+      </c>
+      <c r="C87">
+        <v>54</v>
+      </c>
+      <c r="D87">
+        <v>125</v>
+      </c>
+      <c r="E87">
+        <v>16805</v>
+      </c>
+      <c r="F87">
+        <v>19572</v>
+      </c>
+      <c r="G87">
+        <v>36556</v>
+      </c>
+      <c r="H87">
+        <v>10</v>
+      </c>
+      <c r="I87">
+        <v>466</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>2</v>
+      </c>
+      <c r="L87">
+        <v>93</v>
+      </c>
+      <c r="M87">
+        <f>J87+K87+L87</f>
+        <v>95</v>
+      </c>
+      <c r="N87">
+        <v>377</v>
+      </c>
+      <c r="O87">
+        <v>463</v>
+      </c>
+      <c r="P87">
+        <v>5426</v>
+      </c>
+      <c r="Q87">
+        <f>N87+O87+P87</f>
+        <v>6266</v>
+      </c>
+      <c r="R87">
+        <v>38</v>
+      </c>
+      <c r="S87">
+        <v>38</v>
+      </c>
+      <c r="T87">
+        <v>1228</v>
+      </c>
+      <c r="U87">
+        <f>R87+S87+T87</f>
+        <v>1304</v>
+      </c>
+      <c r="V87">
+        <v>29</v>
+      </c>
+      <c r="W87">
+        <v>574</v>
+      </c>
+      <c r="X87">
+        <v>15163</v>
+      </c>
+      <c r="Y87">
+        <f>V87+W87+X87</f>
+        <v>15766</v>
+      </c>
+      <c r="Z87">
+        <v>23907</v>
+      </c>
+      <c r="AA87">
+        <v>23431</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>25</v>
+      </c>
+      <c r="B88">
+        <v>10000</v>
+      </c>
+      <c r="C88">
+        <v>66</v>
+      </c>
+      <c r="D88">
+        <v>113</v>
+      </c>
+      <c r="E88">
+        <v>16817</v>
+      </c>
+      <c r="F88">
+        <v>19514</v>
+      </c>
+      <c r="G88">
+        <v>36510</v>
+      </c>
+      <c r="H88">
+        <v>11</v>
+      </c>
+      <c r="I88">
+        <v>370</v>
+      </c>
+      <c r="J88">
+        <v>0</v>
+      </c>
+      <c r="K88">
+        <v>4</v>
+      </c>
+      <c r="L88">
+        <v>111</v>
+      </c>
+      <c r="M88">
+        <f>J88+K88+L88</f>
+        <v>115</v>
+      </c>
+      <c r="N88">
+        <v>364</v>
+      </c>
+      <c r="O88">
+        <v>462</v>
+      </c>
+      <c r="P88">
+        <v>5307</v>
+      </c>
+      <c r="Q88">
+        <f>N88+O88+P88</f>
+        <v>6133</v>
+      </c>
+      <c r="R88">
+        <v>41</v>
+      </c>
+      <c r="S88">
+        <v>38</v>
+      </c>
+      <c r="T88">
+        <v>1257</v>
+      </c>
+      <c r="U88">
+        <f>R88+S88+T88</f>
+        <v>1336</v>
+      </c>
+      <c r="V88">
+        <v>32</v>
+      </c>
+      <c r="W88">
+        <v>628</v>
+      </c>
+      <c r="X88">
+        <v>15179</v>
+      </c>
+      <c r="Y88">
+        <f>V88+W88+X88</f>
+        <v>15839</v>
+      </c>
+      <c r="Z88">
+        <v>23804</v>
+      </c>
+      <c r="AA88">
+        <v>23423</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>25</v>
+      </c>
+      <c r="B89">
+        <v>10000</v>
+      </c>
+      <c r="C89">
+        <v>71</v>
+      </c>
+      <c r="D89">
+        <v>124</v>
+      </c>
+      <c r="E89">
+        <v>16806</v>
+      </c>
+      <c r="F89">
+        <v>19700</v>
+      </c>
+      <c r="G89">
+        <v>36701</v>
+      </c>
+      <c r="H89">
+        <v>13</v>
+      </c>
+      <c r="I89">
+        <v>532</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>5</v>
+      </c>
+      <c r="L89">
+        <v>96</v>
+      </c>
+      <c r="M89">
+        <f>J89+K89+L89</f>
+        <v>101</v>
+      </c>
+      <c r="N89">
+        <v>367</v>
+      </c>
+      <c r="O89">
+        <v>462</v>
+      </c>
+      <c r="P89">
+        <v>5266</v>
+      </c>
+      <c r="Q89">
+        <f>N89+O89+P89</f>
+        <v>6095</v>
+      </c>
+      <c r="R89">
+        <v>38</v>
+      </c>
+      <c r="S89">
+        <v>39</v>
+      </c>
+      <c r="T89">
+        <v>1337</v>
+      </c>
+      <c r="U89">
+        <f>R89+S89+T89</f>
+        <v>1414</v>
+      </c>
+      <c r="V89">
+        <v>16</v>
+      </c>
+      <c r="W89">
+        <v>591</v>
+      </c>
+      <c r="X89">
+        <v>15211</v>
+      </c>
+      <c r="Y89">
+        <f>V89+W89+X89</f>
+        <v>15818</v>
+      </c>
+      <c r="Z89">
+        <v>23973</v>
+      </c>
+      <c r="AA89">
+        <v>23428</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>25</v>
+      </c>
+      <c r="B90">
+        <v>10000</v>
+      </c>
+      <c r="C90">
+        <v>73</v>
+      </c>
+      <c r="D90">
+        <v>120</v>
+      </c>
+      <c r="E90">
+        <v>16810</v>
+      </c>
+      <c r="F90">
+        <v>19553</v>
+      </c>
+      <c r="G90">
+        <v>36556</v>
+      </c>
+      <c r="H90">
+        <v>15</v>
+      </c>
+      <c r="I90">
+        <v>615</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>6</v>
+      </c>
+      <c r="L90">
+        <v>116</v>
+      </c>
+      <c r="M90">
+        <f>J90+K90+L90</f>
+        <v>123</v>
+      </c>
+      <c r="N90">
+        <v>371</v>
+      </c>
+      <c r="O90">
+        <v>473</v>
+      </c>
+      <c r="P90">
+        <v>5465</v>
+      </c>
+      <c r="Q90">
+        <f>N90+O90+P90</f>
+        <v>6309</v>
+      </c>
+      <c r="R90">
+        <v>35</v>
+      </c>
+      <c r="S90">
+        <v>39</v>
+      </c>
+      <c r="T90">
+        <v>1190</v>
+      </c>
+      <c r="U90">
+        <f>R90+S90+T90</f>
+        <v>1264</v>
+      </c>
+      <c r="V90">
+        <v>24</v>
+      </c>
+      <c r="W90">
+        <v>610</v>
+      </c>
+      <c r="X90">
+        <v>15111</v>
+      </c>
+      <c r="Y90">
+        <f>V90+W90+X90</f>
+        <v>15745</v>
+      </c>
+      <c r="Z90">
+        <v>24071</v>
+      </c>
+      <c r="AA90">
+        <v>23441</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>25</v>
+      </c>
+      <c r="B91">
+        <v>10000</v>
+      </c>
+      <c r="C91">
+        <v>84</v>
+      </c>
+      <c r="D91">
+        <v>112</v>
+      </c>
+      <c r="E91">
+        <v>16818</v>
+      </c>
+      <c r="F91">
+        <v>19823</v>
+      </c>
+      <c r="G91">
+        <v>36837</v>
+      </c>
+      <c r="H91">
+        <v>8</v>
+      </c>
+      <c r="I91">
+        <v>378</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>119</v>
+      </c>
+      <c r="M91">
+        <f>J91+K91+L91</f>
+        <v>119</v>
+      </c>
+      <c r="N91">
+        <v>367</v>
+      </c>
+      <c r="O91">
+        <v>449</v>
+      </c>
+      <c r="P91">
+        <v>5314</v>
+      </c>
+      <c r="Q91">
+        <f>N91+O91+P91</f>
+        <v>6130</v>
+      </c>
+      <c r="R91">
+        <v>38</v>
+      </c>
+      <c r="S91">
+        <v>45</v>
+      </c>
+      <c r="T91">
+        <v>1260</v>
+      </c>
+      <c r="U91">
+        <f>R91+S91+T91</f>
+        <v>1343</v>
+      </c>
+      <c r="V91">
+        <v>26</v>
+      </c>
+      <c r="W91">
+        <v>557</v>
+      </c>
+      <c r="X91">
+        <v>15421</v>
+      </c>
+      <c r="Y91">
+        <f>V91+W91+X91</f>
+        <v>16004</v>
+      </c>
+      <c r="Z91">
+        <v>23982</v>
+      </c>
+      <c r="AA91">
+        <v>23596</v>
       </c>
     </row>
   </sheetData>
@@ -5317,6 +8027,5393 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
+  <dimension ref="A1:AQ41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2:AQ11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>640</v>
+      </c>
+      <c r="C2">
+        <v>8</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>1314</v>
+      </c>
+      <c r="F2">
+        <v>19808</v>
+      </c>
+      <c r="G2">
+        <v>21138</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>749</v>
+      </c>
+      <c r="J2">
+        <v>23</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+      <c r="M2">
+        <v>19</v>
+      </c>
+      <c r="N2">
+        <v>2</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>640</v>
+      </c>
+      <c r="S2">
+        <v>33</v>
+      </c>
+      <c r="T2">
+        <v>210</v>
+      </c>
+      <c r="U2">
+        <v>388</v>
+      </c>
+      <c r="V2">
+        <v>9</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>386</v>
+      </c>
+      <c r="AA2">
+        <v>6</v>
+      </c>
+      <c r="AB2">
+        <v>43</v>
+      </c>
+      <c r="AC2">
+        <v>290</v>
+      </c>
+      <c r="AD2">
+        <v>47</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>17518</v>
+      </c>
+      <c r="AI2">
+        <v>34</v>
+      </c>
+      <c r="AJ2">
+        <v>3347</v>
+      </c>
+      <c r="AK2">
+        <v>12486</v>
+      </c>
+      <c r="AL2">
+        <v>1651</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>19316</v>
+      </c>
+      <c r="AQ2">
+        <v>18567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>640</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>1314</v>
+      </c>
+      <c r="F3">
+        <v>19389</v>
+      </c>
+      <c r="G3">
+        <v>20717</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>688</v>
+      </c>
+      <c r="J3">
+        <v>13</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>446</v>
+      </c>
+      <c r="S3">
+        <v>31</v>
+      </c>
+      <c r="T3">
+        <v>141</v>
+      </c>
+      <c r="U3">
+        <v>270</v>
+      </c>
+      <c r="V3">
+        <v>4</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>559</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>104</v>
+      </c>
+      <c r="AC3">
+        <v>401</v>
+      </c>
+      <c r="AD3">
+        <v>46</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>17142</v>
+      </c>
+      <c r="AI3">
+        <v>36</v>
+      </c>
+      <c r="AJ3">
+        <v>3409</v>
+      </c>
+      <c r="AK3">
+        <v>12195</v>
+      </c>
+      <c r="AL3">
+        <v>1502</v>
+      </c>
+      <c r="AM3">
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>0</v>
+      </c>
+      <c r="AO3">
+        <v>0</v>
+      </c>
+      <c r="AP3">
+        <v>18848</v>
+      </c>
+      <c r="AQ3">
+        <v>18160</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>640</v>
+      </c>
+      <c r="C4">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4">
+        <v>1314</v>
+      </c>
+      <c r="F4">
+        <v>19555</v>
+      </c>
+      <c r="G4">
+        <v>20884</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>761</v>
+      </c>
+      <c r="J4">
+        <v>23</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>15</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>534</v>
+      </c>
+      <c r="S4">
+        <v>32</v>
+      </c>
+      <c r="T4">
+        <v>170</v>
+      </c>
+      <c r="U4">
+        <v>328</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>467</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>71</v>
+      </c>
+      <c r="AC4">
+        <v>335</v>
+      </c>
+      <c r="AD4">
+        <v>53</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>17283</v>
+      </c>
+      <c r="AI4">
+        <v>32</v>
+      </c>
+      <c r="AJ4">
+        <v>3386</v>
+      </c>
+      <c r="AK4">
+        <v>12304</v>
+      </c>
+      <c r="AL4">
+        <v>1561</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>19068</v>
+      </c>
+      <c r="AQ4">
+        <v>18307</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>640</v>
+      </c>
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1316</v>
+      </c>
+      <c r="F5">
+        <v>19605</v>
+      </c>
+      <c r="G5">
+        <v>20937</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>891</v>
+      </c>
+      <c r="J5">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5">
+        <v>15</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>493</v>
+      </c>
+      <c r="S5">
+        <v>32</v>
+      </c>
+      <c r="T5">
+        <v>151</v>
+      </c>
+      <c r="U5">
+        <v>304</v>
+      </c>
+      <c r="V5">
+        <v>6</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>532</v>
+      </c>
+      <c r="AA5">
+        <v>8</v>
+      </c>
+      <c r="AB5">
+        <v>100</v>
+      </c>
+      <c r="AC5">
+        <v>371</v>
+      </c>
+      <c r="AD5">
+        <v>53</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>17307</v>
+      </c>
+      <c r="AI5">
+        <v>41</v>
+      </c>
+      <c r="AJ5">
+        <v>3336</v>
+      </c>
+      <c r="AK5">
+        <v>12382</v>
+      </c>
+      <c r="AL5">
+        <v>1548</v>
+      </c>
+      <c r="AM5">
+        <v>0</v>
+      </c>
+      <c r="AN5">
+        <v>0</v>
+      </c>
+      <c r="AO5">
+        <v>0</v>
+      </c>
+      <c r="AP5">
+        <v>19246</v>
+      </c>
+      <c r="AQ5">
+        <v>18354</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>640</v>
+      </c>
+      <c r="C6">
+        <v>9</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6">
+        <v>1314</v>
+      </c>
+      <c r="F6">
+        <v>19794</v>
+      </c>
+      <c r="G6">
+        <v>21125</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>912</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6">
+        <v>9</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>463</v>
+      </c>
+      <c r="S6">
+        <v>32</v>
+      </c>
+      <c r="T6">
+        <v>145</v>
+      </c>
+      <c r="U6">
+        <v>280</v>
+      </c>
+      <c r="V6">
+        <v>6</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>543</v>
+      </c>
+      <c r="AA6">
+        <v>8</v>
+      </c>
+      <c r="AB6">
+        <v>106</v>
+      </c>
+      <c r="AC6">
+        <v>378</v>
+      </c>
+      <c r="AD6">
+        <v>51</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>17604</v>
+      </c>
+      <c r="AI6">
+        <v>32</v>
+      </c>
+      <c r="AJ6">
+        <v>3387</v>
+      </c>
+      <c r="AK6">
+        <v>12573</v>
+      </c>
+      <c r="AL6">
+        <v>1612</v>
+      </c>
+      <c r="AM6">
+        <v>0</v>
+      </c>
+      <c r="AN6">
+        <v>0</v>
+      </c>
+      <c r="AO6">
+        <v>0</v>
+      </c>
+      <c r="AP6">
+        <v>19538</v>
+      </c>
+      <c r="AQ6">
+        <v>18626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>640</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7">
+        <v>1314</v>
+      </c>
+      <c r="F7">
+        <v>19794</v>
+      </c>
+      <c r="G7">
+        <v>21121</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>859</v>
+      </c>
+      <c r="J7">
+        <v>13</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>455</v>
+      </c>
+      <c r="S7">
+        <v>27</v>
+      </c>
+      <c r="T7">
+        <v>135</v>
+      </c>
+      <c r="U7">
+        <v>288</v>
+      </c>
+      <c r="V7">
+        <v>5</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>545</v>
+      </c>
+      <c r="AA7">
+        <v>11</v>
+      </c>
+      <c r="AB7">
+        <v>104</v>
+      </c>
+      <c r="AC7">
+        <v>381</v>
+      </c>
+      <c r="AD7">
+        <v>49</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>17612</v>
+      </c>
+      <c r="AI7">
+        <v>39</v>
+      </c>
+      <c r="AJ7">
+        <v>3363</v>
+      </c>
+      <c r="AK7">
+        <v>12607</v>
+      </c>
+      <c r="AL7">
+        <v>1603</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>19484</v>
+      </c>
+      <c r="AQ7">
+        <v>18625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>640</v>
+      </c>
+      <c r="C8">
+        <v>11</v>
+      </c>
+      <c r="D8">
+        <v>9</v>
+      </c>
+      <c r="E8">
+        <v>1313</v>
+      </c>
+      <c r="F8">
+        <v>19728</v>
+      </c>
+      <c r="G8">
+        <v>21061</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>745</v>
+      </c>
+      <c r="J8">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>7</v>
+      </c>
+      <c r="M8">
+        <v>19</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>558</v>
+      </c>
+      <c r="S8">
+        <v>32</v>
+      </c>
+      <c r="T8">
+        <v>185</v>
+      </c>
+      <c r="U8">
+        <v>336</v>
+      </c>
+      <c r="V8">
+        <v>5</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>453</v>
+      </c>
+      <c r="AA8">
+        <v>7</v>
+      </c>
+      <c r="AB8">
+        <v>65</v>
+      </c>
+      <c r="AC8">
+        <v>330</v>
+      </c>
+      <c r="AD8">
+        <v>51</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>17452</v>
+      </c>
+      <c r="AI8">
+        <v>32</v>
+      </c>
+      <c r="AJ8">
+        <v>3329</v>
+      </c>
+      <c r="AK8">
+        <v>12511</v>
+      </c>
+      <c r="AL8">
+        <v>1580</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>0</v>
+      </c>
+      <c r="AO8">
+        <v>0</v>
+      </c>
+      <c r="AP8">
+        <v>19236</v>
+      </c>
+      <c r="AQ8">
+        <v>18491</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>25</v>
+      </c>
+      <c r="B9">
+        <v>640</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>1315</v>
+      </c>
+      <c r="F9">
+        <v>19935</v>
+      </c>
+      <c r="G9">
+        <v>21265</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>761</v>
+      </c>
+      <c r="J9">
+        <v>28</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>7</v>
+      </c>
+      <c r="M9">
+        <v>20</v>
+      </c>
+      <c r="N9">
+        <v>1</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>612</v>
+      </c>
+      <c r="S9">
+        <v>34</v>
+      </c>
+      <c r="T9">
+        <v>197</v>
+      </c>
+      <c r="U9">
+        <v>379</v>
+      </c>
+      <c r="V9">
+        <v>2</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>411</v>
+      </c>
+      <c r="AA9">
+        <v>6</v>
+      </c>
+      <c r="AB9">
+        <v>57</v>
+      </c>
+      <c r="AC9">
+        <v>293</v>
+      </c>
+      <c r="AD9">
+        <v>55</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>17570</v>
+      </c>
+      <c r="AI9">
+        <v>21</v>
+      </c>
+      <c r="AJ9">
+        <v>3337</v>
+      </c>
+      <c r="AK9">
+        <v>12590</v>
+      </c>
+      <c r="AL9">
+        <v>1622</v>
+      </c>
+      <c r="AM9">
+        <v>0</v>
+      </c>
+      <c r="AN9">
+        <v>0</v>
+      </c>
+      <c r="AO9">
+        <v>0</v>
+      </c>
+      <c r="AP9">
+        <v>19383</v>
+      </c>
+      <c r="AQ9">
+        <v>18621</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>25</v>
+      </c>
+      <c r="B10">
+        <v>640</v>
+      </c>
+      <c r="C10">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10">
+        <v>1314</v>
+      </c>
+      <c r="F10">
+        <v>19839</v>
+      </c>
+      <c r="G10">
+        <v>21165</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1167</v>
+      </c>
+      <c r="J10">
+        <v>34</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>5</v>
+      </c>
+      <c r="M10">
+        <v>25</v>
+      </c>
+      <c r="N10">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>657</v>
+      </c>
+      <c r="S10">
+        <v>32</v>
+      </c>
+      <c r="T10">
+        <v>219</v>
+      </c>
+      <c r="U10">
+        <v>400</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>384</v>
+      </c>
+      <c r="AA10">
+        <v>5</v>
+      </c>
+      <c r="AB10">
+        <v>40</v>
+      </c>
+      <c r="AC10">
+        <v>288</v>
+      </c>
+      <c r="AD10">
+        <v>51</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>17572</v>
+      </c>
+      <c r="AI10">
+        <v>32</v>
+      </c>
+      <c r="AJ10">
+        <v>3288</v>
+      </c>
+      <c r="AK10">
+        <v>12652</v>
+      </c>
+      <c r="AL10">
+        <v>1600</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>19815</v>
+      </c>
+      <c r="AQ10">
+        <v>18647</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>640</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>1315</v>
+      </c>
+      <c r="F11">
+        <v>19783</v>
+      </c>
+      <c r="G11">
+        <v>21109</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>776</v>
+      </c>
+      <c r="J11">
+        <v>20</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="M11">
+        <v>11</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>589</v>
+      </c>
+      <c r="S11">
+        <v>34</v>
+      </c>
+      <c r="T11">
+        <v>185</v>
+      </c>
+      <c r="U11">
+        <v>362</v>
+      </c>
+      <c r="V11">
+        <v>8</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>426</v>
+      </c>
+      <c r="AA11">
+        <v>6</v>
+      </c>
+      <c r="AB11">
+        <v>66</v>
+      </c>
+      <c r="AC11">
+        <v>308</v>
+      </c>
+      <c r="AD11">
+        <v>46</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>17477</v>
+      </c>
+      <c r="AI11">
+        <v>32</v>
+      </c>
+      <c r="AJ11">
+        <v>3309</v>
+      </c>
+      <c r="AK11">
+        <v>12504</v>
+      </c>
+      <c r="AL11">
+        <v>1632</v>
+      </c>
+      <c r="AM11">
+        <v>0</v>
+      </c>
+      <c r="AN11">
+        <v>0</v>
+      </c>
+      <c r="AO11">
+        <v>0</v>
+      </c>
+      <c r="AP11">
+        <v>19289</v>
+      </c>
+      <c r="AQ11">
+        <v>18512</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>25</v>
+      </c>
+      <c r="B12">
+        <v>1600</v>
+      </c>
+      <c r="C12">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>10</v>
+      </c>
+      <c r="E12">
+        <v>2767</v>
+      </c>
+      <c r="F12">
+        <v>19570</v>
+      </c>
+      <c r="G12">
+        <v>22363</v>
+      </c>
+      <c r="H12">
+        <v>4</v>
+      </c>
+      <c r="I12">
+        <v>730</v>
+      </c>
+      <c r="J12">
+        <v>44</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>9</v>
+      </c>
+      <c r="M12">
+        <v>32</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>1197</v>
+      </c>
+      <c r="S12">
+        <v>78</v>
+      </c>
+      <c r="T12">
+        <v>291</v>
+      </c>
+      <c r="U12">
+        <v>807</v>
+      </c>
+      <c r="V12">
+        <v>21</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>562</v>
+      </c>
+      <c r="AA12">
+        <v>12</v>
+      </c>
+      <c r="AB12">
+        <v>59</v>
+      </c>
+      <c r="AC12">
+        <v>407</v>
+      </c>
+      <c r="AD12">
+        <v>84</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>17054</v>
+      </c>
+      <c r="AI12">
+        <v>32</v>
+      </c>
+      <c r="AJ12">
+        <v>3368</v>
+      </c>
+      <c r="AK12">
+        <v>12154</v>
+      </c>
+      <c r="AL12">
+        <v>1500</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>19591</v>
+      </c>
+      <c r="AQ12">
+        <v>18857</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>1600</v>
+      </c>
+      <c r="C13">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>6</v>
+      </c>
+      <c r="E13">
+        <v>2771</v>
+      </c>
+      <c r="F13">
+        <v>19846</v>
+      </c>
+      <c r="G13">
+        <v>22654</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>782</v>
+      </c>
+      <c r="J13">
+        <v>47</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>9</v>
+      </c>
+      <c r="M13">
+        <v>31</v>
+      </c>
+      <c r="N13">
+        <v>7</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>1232</v>
+      </c>
+      <c r="S13">
+        <v>76</v>
+      </c>
+      <c r="T13">
+        <v>296</v>
+      </c>
+      <c r="U13">
+        <v>845</v>
+      </c>
+      <c r="V13">
+        <v>15</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>569</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+      <c r="AB13">
+        <v>62</v>
+      </c>
+      <c r="AC13">
+        <v>401</v>
+      </c>
+      <c r="AD13">
+        <v>94</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>17239</v>
+      </c>
+      <c r="AI13">
+        <v>35</v>
+      </c>
+      <c r="AJ13">
+        <v>3211</v>
+      </c>
+      <c r="AK13">
+        <v>12470</v>
+      </c>
+      <c r="AL13">
+        <v>1523</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>19870</v>
+      </c>
+      <c r="AQ13">
+        <v>19087</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>1600</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>2769</v>
+      </c>
+      <c r="F14">
+        <v>19823</v>
+      </c>
+      <c r="G14">
+        <v>22616</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>745</v>
+      </c>
+      <c r="J14">
+        <v>44</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>7</v>
+      </c>
+      <c r="M14">
+        <v>32</v>
+      </c>
+      <c r="N14">
+        <v>5</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>1273</v>
+      </c>
+      <c r="S14">
+        <v>80</v>
+      </c>
+      <c r="T14">
+        <v>317</v>
+      </c>
+      <c r="U14">
+        <v>857</v>
+      </c>
+      <c r="V14">
+        <v>19</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>539</v>
+      </c>
+      <c r="AA14">
+        <v>10</v>
+      </c>
+      <c r="AB14">
+        <v>48</v>
+      </c>
+      <c r="AC14">
+        <v>380</v>
+      </c>
+      <c r="AD14">
+        <v>101</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>17239</v>
+      </c>
+      <c r="AI14">
+        <v>27</v>
+      </c>
+      <c r="AJ14">
+        <v>3338</v>
+      </c>
+      <c r="AK14">
+        <v>12373</v>
+      </c>
+      <c r="AL14">
+        <v>1501</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>19841</v>
+      </c>
+      <c r="AQ14">
+        <v>19095</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>25</v>
+      </c>
+      <c r="B15">
+        <v>1600</v>
+      </c>
+      <c r="C15">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>10</v>
+      </c>
+      <c r="E15">
+        <v>2767</v>
+      </c>
+      <c r="F15">
+        <v>19746</v>
+      </c>
+      <c r="G15">
+        <v>22542</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>603</v>
+      </c>
+      <c r="J15">
+        <v>51</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>13</v>
+      </c>
+      <c r="M15">
+        <v>35</v>
+      </c>
+      <c r="N15">
+        <v>3</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1207</v>
+      </c>
+      <c r="S15">
+        <v>79</v>
+      </c>
+      <c r="T15">
+        <v>300</v>
+      </c>
+      <c r="U15">
+        <v>817</v>
+      </c>
+      <c r="V15">
+        <v>11</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>587</v>
+      </c>
+      <c r="AA15">
+        <v>10</v>
+      </c>
+      <c r="AB15">
+        <v>61</v>
+      </c>
+      <c r="AC15">
+        <v>410</v>
+      </c>
+      <c r="AD15">
+        <v>106</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>17142</v>
+      </c>
+      <c r="AI15">
+        <v>30</v>
+      </c>
+      <c r="AJ15">
+        <v>3291</v>
+      </c>
+      <c r="AK15">
+        <v>12275</v>
+      </c>
+      <c r="AL15">
+        <v>1546</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>19591</v>
+      </c>
+      <c r="AQ15">
+        <v>18987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>1600</v>
+      </c>
+      <c r="C16">
+        <v>24</v>
+      </c>
+      <c r="D16">
+        <v>10</v>
+      </c>
+      <c r="E16">
+        <v>2767</v>
+      </c>
+      <c r="F16">
+        <v>20014</v>
+      </c>
+      <c r="G16">
+        <v>22815</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>671</v>
+      </c>
+      <c r="J16">
+        <v>47</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>38</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>1234</v>
+      </c>
+      <c r="S16">
+        <v>80</v>
+      </c>
+      <c r="T16">
+        <v>308</v>
+      </c>
+      <c r="U16">
+        <v>827</v>
+      </c>
+      <c r="V16">
+        <v>19</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>558</v>
+      </c>
+      <c r="AA16">
+        <v>9</v>
+      </c>
+      <c r="AB16">
+        <v>45</v>
+      </c>
+      <c r="AC16">
+        <v>407</v>
+      </c>
+      <c r="AD16">
+        <v>97</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>17353</v>
+      </c>
+      <c r="AI16">
+        <v>30</v>
+      </c>
+      <c r="AJ16">
+        <v>3231</v>
+      </c>
+      <c r="AK16">
+        <v>12524</v>
+      </c>
+      <c r="AL16">
+        <v>1568</v>
+      </c>
+      <c r="AM16">
+        <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>0</v>
+      </c>
+      <c r="AO16">
+        <v>0</v>
+      </c>
+      <c r="AP16">
+        <v>19863</v>
+      </c>
+      <c r="AQ16">
+        <v>19192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>25</v>
+      </c>
+      <c r="B17">
+        <v>1600</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>2766</v>
+      </c>
+      <c r="F17">
+        <v>19675</v>
+      </c>
+      <c r="G17">
+        <v>22467</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>773</v>
+      </c>
+      <c r="J17">
+        <v>44</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>10</v>
+      </c>
+      <c r="M17">
+        <v>27</v>
+      </c>
+      <c r="N17">
+        <v>7</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>1199</v>
+      </c>
+      <c r="S17">
+        <v>77</v>
+      </c>
+      <c r="T17">
+        <v>297</v>
+      </c>
+      <c r="U17">
+        <v>813</v>
+      </c>
+      <c r="V17">
+        <v>12</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>585</v>
+      </c>
+      <c r="AA17">
+        <v>11</v>
+      </c>
+      <c r="AB17">
+        <v>62</v>
+      </c>
+      <c r="AC17">
+        <v>403</v>
+      </c>
+      <c r="AD17">
+        <v>109</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>17100</v>
+      </c>
+      <c r="AI17">
+        <v>38</v>
+      </c>
+      <c r="AJ17">
+        <v>3293</v>
+      </c>
+      <c r="AK17">
+        <v>12345</v>
+      </c>
+      <c r="AL17">
+        <v>1424</v>
+      </c>
+      <c r="AM17">
+        <v>0</v>
+      </c>
+      <c r="AN17">
+        <v>0</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AP17">
+        <v>19704</v>
+      </c>
+      <c r="AQ17">
+        <v>18928</v>
+      </c>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>25</v>
+      </c>
+      <c r="B18">
+        <v>1600</v>
+      </c>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18">
+        <v>2768</v>
+      </c>
+      <c r="F18">
+        <v>19667</v>
+      </c>
+      <c r="G18">
+        <v>22457</v>
+      </c>
+      <c r="H18">
+        <v>2</v>
+      </c>
+      <c r="I18">
+        <v>824</v>
+      </c>
+      <c r="J18">
+        <v>38</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>9</v>
+      </c>
+      <c r="M18">
+        <v>25</v>
+      </c>
+      <c r="N18">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>1215</v>
+      </c>
+      <c r="S18">
+        <v>75</v>
+      </c>
+      <c r="T18">
+        <v>298</v>
+      </c>
+      <c r="U18">
+        <v>829</v>
+      </c>
+      <c r="V18">
+        <v>13</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>0</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>589</v>
+      </c>
+      <c r="AA18">
+        <v>13</v>
+      </c>
+      <c r="AB18">
+        <v>60</v>
+      </c>
+      <c r="AC18">
+        <v>408</v>
+      </c>
+      <c r="AD18">
+        <v>108</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>17067</v>
+      </c>
+      <c r="AI18">
+        <v>33</v>
+      </c>
+      <c r="AJ18">
+        <v>3207</v>
+      </c>
+      <c r="AK18">
+        <v>12286</v>
+      </c>
+      <c r="AL18">
+        <v>1541</v>
+      </c>
+      <c r="AM18">
+        <v>0</v>
+      </c>
+      <c r="AN18">
+        <v>0</v>
+      </c>
+      <c r="AO18">
+        <v>0</v>
+      </c>
+      <c r="AP18">
+        <v>19735</v>
+      </c>
+      <c r="AQ18">
+        <v>18909</v>
+      </c>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>1600</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>2765</v>
+      </c>
+      <c r="F19">
+        <v>20030</v>
+      </c>
+      <c r="G19">
+        <v>22819</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>768</v>
+      </c>
+      <c r="J19">
+        <v>14</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>7</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
+        <v>2</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>1022</v>
+      </c>
+      <c r="S19">
+        <v>64</v>
+      </c>
+      <c r="T19">
+        <v>250</v>
+      </c>
+      <c r="U19">
+        <v>698</v>
+      </c>
+      <c r="V19">
+        <v>10</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>764</v>
+      </c>
+      <c r="AA19">
+        <v>26</v>
+      </c>
+      <c r="AB19">
+        <v>106</v>
+      </c>
+      <c r="AC19">
+        <v>520</v>
+      </c>
+      <c r="AD19">
+        <v>112</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>17396</v>
+      </c>
+      <c r="AI19">
+        <v>21</v>
+      </c>
+      <c r="AJ19">
+        <v>3226</v>
+      </c>
+      <c r="AK19">
+        <v>12621</v>
+      </c>
+      <c r="AL19">
+        <v>1528</v>
+      </c>
+      <c r="AM19">
+        <v>0</v>
+      </c>
+      <c r="AN19">
+        <v>0</v>
+      </c>
+      <c r="AO19">
+        <v>0</v>
+      </c>
+      <c r="AP19">
+        <v>19965</v>
+      </c>
+      <c r="AQ19">
+        <v>19196</v>
+      </c>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>1600</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="E20">
+        <v>2767</v>
+      </c>
+      <c r="F20">
+        <v>19834</v>
+      </c>
+      <c r="G20">
+        <v>22630</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20">
+        <v>790</v>
+      </c>
+      <c r="J20">
+        <v>46</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20">
+        <v>31</v>
+      </c>
+      <c r="N20">
+        <v>8</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>1181</v>
+      </c>
+      <c r="S20">
+        <v>79</v>
+      </c>
+      <c r="T20">
+        <v>298</v>
+      </c>
+      <c r="U20">
+        <v>796</v>
+      </c>
+      <c r="V20">
+        <v>8</v>
+      </c>
+      <c r="W20">
+        <v>0</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>605</v>
+      </c>
+      <c r="AA20">
+        <v>9</v>
+      </c>
+      <c r="AB20">
+        <v>55</v>
+      </c>
+      <c r="AC20">
+        <v>425</v>
+      </c>
+      <c r="AD20">
+        <v>116</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>17156</v>
+      </c>
+      <c r="AI20">
+        <v>39</v>
+      </c>
+      <c r="AJ20">
+        <v>3240</v>
+      </c>
+      <c r="AK20">
+        <v>12328</v>
+      </c>
+      <c r="AL20">
+        <v>1549</v>
+      </c>
+      <c r="AM20">
+        <v>0</v>
+      </c>
+      <c r="AN20">
+        <v>0</v>
+      </c>
+      <c r="AO20">
+        <v>0</v>
+      </c>
+      <c r="AP20">
+        <v>19780</v>
+      </c>
+      <c r="AQ20">
+        <v>18988</v>
+      </c>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>25</v>
+      </c>
+      <c r="B21">
+        <v>1600</v>
+      </c>
+      <c r="C21">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>2766</v>
+      </c>
+      <c r="F21">
+        <v>19701</v>
+      </c>
+      <c r="G21">
+        <v>22498</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>769</v>
+      </c>
+      <c r="J21">
+        <v>37</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>3</v>
+      </c>
+      <c r="M21">
+        <v>30</v>
+      </c>
+      <c r="N21">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>1171</v>
+      </c>
+      <c r="S21">
+        <v>75</v>
+      </c>
+      <c r="T21">
+        <v>294</v>
+      </c>
+      <c r="U21">
+        <v>788</v>
+      </c>
+      <c r="V21">
+        <v>14</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>613</v>
+      </c>
+      <c r="AA21">
+        <v>14</v>
+      </c>
+      <c r="AB21">
+        <v>71</v>
+      </c>
+      <c r="AC21">
+        <v>424</v>
+      </c>
+      <c r="AD21">
+        <v>104</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>17097</v>
+      </c>
+      <c r="AI21">
+        <v>34</v>
+      </c>
+      <c r="AJ21">
+        <v>3271</v>
+      </c>
+      <c r="AK21">
+        <v>12296</v>
+      </c>
+      <c r="AL21">
+        <v>1496</v>
+      </c>
+      <c r="AM21">
+        <v>0</v>
+      </c>
+      <c r="AN21">
+        <v>0</v>
+      </c>
+      <c r="AO21">
+        <v>0</v>
+      </c>
+      <c r="AP21">
+        <v>19687</v>
+      </c>
+      <c r="AQ21">
+        <v>18918</v>
+      </c>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>4000</v>
+      </c>
+      <c r="C22">
+        <v>28</v>
+      </c>
+      <c r="D22">
+        <v>44</v>
+      </c>
+      <c r="E22">
+        <v>6484</v>
+      </c>
+      <c r="F22">
+        <v>19863</v>
+      </c>
+      <c r="G22">
+        <v>26419</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>556</v>
+      </c>
+      <c r="J22">
+        <v>53</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22">
+        <v>32</v>
+      </c>
+      <c r="N22">
+        <v>8</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>2356</v>
+      </c>
+      <c r="S22">
+        <v>157</v>
+      </c>
+      <c r="T22">
+        <v>599</v>
+      </c>
+      <c r="U22">
+        <v>1574</v>
+      </c>
+      <c r="V22">
+        <v>26</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>849</v>
+      </c>
+      <c r="AA22">
+        <v>27</v>
+      </c>
+      <c r="AB22">
+        <v>81</v>
+      </c>
+      <c r="AC22">
+        <v>576</v>
+      </c>
+      <c r="AD22">
+        <v>165</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>16637</v>
+      </c>
+      <c r="AI22">
+        <v>33</v>
+      </c>
+      <c r="AJ22">
+        <v>3127</v>
+      </c>
+      <c r="AK22">
+        <v>12158</v>
+      </c>
+      <c r="AL22">
+        <v>1319</v>
+      </c>
+      <c r="AM22">
+        <v>0</v>
+      </c>
+      <c r="AN22">
+        <v>0</v>
+      </c>
+      <c r="AO22">
+        <v>0</v>
+      </c>
+      <c r="AP22">
+        <v>20455</v>
+      </c>
+      <c r="AQ22">
+        <v>19895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>4000</v>
+      </c>
+      <c r="C23">
+        <v>32</v>
+      </c>
+      <c r="D23">
+        <v>48</v>
+      </c>
+      <c r="E23">
+        <v>6480</v>
+      </c>
+      <c r="F23">
+        <v>19686</v>
+      </c>
+      <c r="G23">
+        <v>26246</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>531</v>
+      </c>
+      <c r="J23">
+        <v>46</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>7</v>
+      </c>
+      <c r="M23">
+        <v>32</v>
+      </c>
+      <c r="N23">
+        <v>7</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>2409</v>
+      </c>
+      <c r="S23">
+        <v>157</v>
+      </c>
+      <c r="T23">
+        <v>612</v>
+      </c>
+      <c r="U23">
+        <v>1608</v>
+      </c>
+      <c r="V23">
+        <v>32</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>825</v>
+      </c>
+      <c r="AA23">
+        <v>26</v>
+      </c>
+      <c r="AB23">
+        <v>76</v>
+      </c>
+      <c r="AC23">
+        <v>560</v>
+      </c>
+      <c r="AD23">
+        <v>163</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>16605</v>
+      </c>
+      <c r="AI23">
+        <v>44</v>
+      </c>
+      <c r="AJ23">
+        <v>3148</v>
+      </c>
+      <c r="AK23">
+        <v>12065</v>
+      </c>
+      <c r="AL23">
+        <v>1348</v>
+      </c>
+      <c r="AM23">
+        <v>0</v>
+      </c>
+      <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
+        <v>0</v>
+      </c>
+      <c r="AP23">
+        <v>20420</v>
+      </c>
+      <c r="AQ23">
+        <v>19885</v>
+      </c>
+    </row>
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>25</v>
+      </c>
+      <c r="B24">
+        <v>4000</v>
+      </c>
+      <c r="C24">
+        <v>36</v>
+      </c>
+      <c r="D24">
+        <v>47</v>
+      </c>
+      <c r="E24">
+        <v>6481</v>
+      </c>
+      <c r="F24">
+        <v>19907</v>
+      </c>
+      <c r="G24">
+        <v>26471</v>
+      </c>
+      <c r="H24">
+        <v>2</v>
+      </c>
+      <c r="I24">
+        <v>680</v>
+      </c>
+      <c r="J24">
+        <v>60</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>9</v>
+      </c>
+      <c r="M24">
+        <v>42</v>
+      </c>
+      <c r="N24">
+        <v>9</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>2409</v>
+      </c>
+      <c r="S24">
+        <v>162</v>
+      </c>
+      <c r="T24">
+        <v>639</v>
+      </c>
+      <c r="U24">
+        <v>1578</v>
+      </c>
+      <c r="V24">
+        <v>30</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>0</v>
+      </c>
+      <c r="Z24">
+        <v>835</v>
+      </c>
+      <c r="AA24">
+        <v>24</v>
+      </c>
+      <c r="AB24">
+        <v>72</v>
+      </c>
+      <c r="AC24">
+        <v>573</v>
+      </c>
+      <c r="AD24">
+        <v>166</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>16781</v>
+      </c>
+      <c r="AI24">
+        <v>29</v>
+      </c>
+      <c r="AJ24">
+        <v>3153</v>
+      </c>
+      <c r="AK24">
+        <v>12280</v>
+      </c>
+      <c r="AL24">
+        <v>1319</v>
+      </c>
+      <c r="AM24">
+        <v>0</v>
+      </c>
+      <c r="AN24">
+        <v>0</v>
+      </c>
+      <c r="AO24">
+        <v>0</v>
+      </c>
+      <c r="AP24">
+        <v>20767</v>
+      </c>
+      <c r="AQ24">
+        <v>20085</v>
+      </c>
+    </row>
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>25</v>
+      </c>
+      <c r="B25">
+        <v>4000</v>
+      </c>
+      <c r="C25">
+        <v>32</v>
+      </c>
+      <c r="D25">
+        <v>46</v>
+      </c>
+      <c r="E25">
+        <v>6482</v>
+      </c>
+      <c r="F25">
+        <v>19778</v>
+      </c>
+      <c r="G25">
+        <v>26338</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>609</v>
+      </c>
+      <c r="J25">
+        <v>49</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>13</v>
+      </c>
+      <c r="M25">
+        <v>33</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>2435</v>
+      </c>
+      <c r="S25">
+        <v>163</v>
+      </c>
+      <c r="T25">
+        <v>615</v>
+      </c>
+      <c r="U25">
+        <v>1621</v>
+      </c>
+      <c r="V25">
+        <v>36</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>840</v>
+      </c>
+      <c r="AA25">
+        <v>24</v>
+      </c>
+      <c r="AB25">
+        <v>78</v>
+      </c>
+      <c r="AC25">
+        <v>587</v>
+      </c>
+      <c r="AD25">
+        <v>151</v>
+      </c>
+      <c r="AE25">
+        <v>0</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>16617</v>
+      </c>
+      <c r="AI25">
+        <v>31</v>
+      </c>
+      <c r="AJ25">
+        <v>3238</v>
+      </c>
+      <c r="AK25">
+        <v>12006</v>
+      </c>
+      <c r="AL25">
+        <v>1342</v>
+      </c>
+      <c r="AM25">
+        <v>0</v>
+      </c>
+      <c r="AN25">
+        <v>0</v>
+      </c>
+      <c r="AO25">
+        <v>0</v>
+      </c>
+      <c r="AP25">
+        <v>20551</v>
+      </c>
+      <c r="AQ25">
+        <v>19941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>4000</v>
+      </c>
+      <c r="C26">
+        <v>33</v>
+      </c>
+      <c r="D26">
+        <v>49</v>
+      </c>
+      <c r="E26">
+        <v>6479</v>
+      </c>
+      <c r="F26">
+        <v>19848</v>
+      </c>
+      <c r="G26">
+        <v>26409</v>
+      </c>
+      <c r="H26">
+        <v>2</v>
+      </c>
+      <c r="I26">
+        <v>669</v>
+      </c>
+      <c r="J26">
+        <v>52</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>13</v>
+      </c>
+      <c r="M26">
+        <v>31</v>
+      </c>
+      <c r="N26">
+        <v>8</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>2400</v>
+      </c>
+      <c r="S26">
+        <v>162</v>
+      </c>
+      <c r="T26">
+        <v>623</v>
+      </c>
+      <c r="U26">
+        <v>1585</v>
+      </c>
+      <c r="V26">
+        <v>30</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>834</v>
+      </c>
+      <c r="AA26">
+        <v>23</v>
+      </c>
+      <c r="AB26">
+        <v>74</v>
+      </c>
+      <c r="AC26">
+        <v>580</v>
+      </c>
+      <c r="AD26">
+        <v>157</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>16603</v>
+      </c>
+      <c r="AI26">
+        <v>33</v>
+      </c>
+      <c r="AJ26">
+        <v>3175</v>
+      </c>
+      <c r="AK26">
+        <v>12081</v>
+      </c>
+      <c r="AL26">
+        <v>1314</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26">
+        <v>0</v>
+      </c>
+      <c r="AP26">
+        <v>20560</v>
+      </c>
+      <c r="AQ26">
+        <v>19889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>4000</v>
+      </c>
+      <c r="C27">
+        <v>28</v>
+      </c>
+      <c r="D27">
+        <v>45</v>
+      </c>
+      <c r="E27">
+        <v>6483</v>
+      </c>
+      <c r="F27">
+        <v>19781</v>
+      </c>
+      <c r="G27">
+        <v>26337</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
+      </c>
+      <c r="I27">
+        <v>684</v>
+      </c>
+      <c r="J27">
+        <v>68</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>13</v>
+      </c>
+      <c r="M27">
+        <v>43</v>
+      </c>
+      <c r="N27">
+        <v>11</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>2445</v>
+      </c>
+      <c r="S27">
+        <v>161</v>
+      </c>
+      <c r="T27">
+        <v>627</v>
+      </c>
+      <c r="U27">
+        <v>1627</v>
+      </c>
+      <c r="V27">
+        <v>30</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>0</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>808</v>
+      </c>
+      <c r="AA27">
+        <v>25</v>
+      </c>
+      <c r="AB27">
+        <v>71</v>
+      </c>
+      <c r="AC27">
+        <v>553</v>
+      </c>
+      <c r="AD27">
+        <v>159</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>16666</v>
+      </c>
+      <c r="AI27">
+        <v>28</v>
+      </c>
+      <c r="AJ27">
+        <v>3221</v>
+      </c>
+      <c r="AK27">
+        <v>12094</v>
+      </c>
+      <c r="AL27">
+        <v>1323</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27">
+        <v>0</v>
+      </c>
+      <c r="AO27">
+        <v>0</v>
+      </c>
+      <c r="AP27">
+        <v>20674</v>
+      </c>
+      <c r="AQ27">
+        <v>19987</v>
+      </c>
+    </row>
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>4000</v>
+      </c>
+      <c r="C28">
+        <v>40</v>
+      </c>
+      <c r="D28">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>6483</v>
+      </c>
+      <c r="F28">
+        <v>19660</v>
+      </c>
+      <c r="G28">
+        <v>26228</v>
+      </c>
+      <c r="H28">
+        <v>4</v>
+      </c>
+      <c r="I28">
+        <v>575</v>
+      </c>
+      <c r="J28">
+        <v>63</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>13</v>
+      </c>
+      <c r="M28">
+        <v>41</v>
+      </c>
+      <c r="N28">
+        <v>9</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>2460</v>
+      </c>
+      <c r="S28">
+        <v>160</v>
+      </c>
+      <c r="T28">
+        <v>630</v>
+      </c>
+      <c r="U28">
+        <v>1638</v>
+      </c>
+      <c r="V28">
+        <v>32</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>765</v>
+      </c>
+      <c r="AA28">
+        <v>24</v>
+      </c>
+      <c r="AB28">
+        <v>77</v>
+      </c>
+      <c r="AC28">
+        <v>513</v>
+      </c>
+      <c r="AD28">
+        <v>151</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>16582</v>
+      </c>
+      <c r="AI28">
+        <v>26</v>
+      </c>
+      <c r="AJ28">
+        <v>3204</v>
+      </c>
+      <c r="AK28">
+        <v>11989</v>
+      </c>
+      <c r="AL28">
+        <v>1363</v>
+      </c>
+      <c r="AM28">
+        <v>0</v>
+      </c>
+      <c r="AN28">
+        <v>0</v>
+      </c>
+      <c r="AO28">
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <v>20449</v>
+      </c>
+      <c r="AQ28">
+        <v>19870</v>
+      </c>
+    </row>
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>25</v>
+      </c>
+      <c r="B29">
+        <v>4000</v>
+      </c>
+      <c r="C29">
+        <v>36</v>
+      </c>
+      <c r="D29">
+        <v>48</v>
+      </c>
+      <c r="E29">
+        <v>6480</v>
+      </c>
+      <c r="F29">
+        <v>19600</v>
+      </c>
+      <c r="G29">
+        <v>26164</v>
+      </c>
+      <c r="H29">
+        <v>3</v>
+      </c>
+      <c r="I29">
+        <v>628</v>
+      </c>
+      <c r="J29">
+        <v>73</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>18</v>
+      </c>
+      <c r="M29">
+        <v>47</v>
+      </c>
+      <c r="N29">
+        <v>8</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>2391</v>
+      </c>
+      <c r="S29">
+        <v>158</v>
+      </c>
+      <c r="T29">
+        <v>621</v>
+      </c>
+      <c r="U29">
+        <v>1577</v>
+      </c>
+      <c r="V29">
+        <v>35</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>822</v>
+      </c>
+      <c r="AA29">
+        <v>25</v>
+      </c>
+      <c r="AB29">
+        <v>71</v>
+      </c>
+      <c r="AC29">
+        <v>571</v>
+      </c>
+      <c r="AD29">
+        <v>155</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>16486</v>
+      </c>
+      <c r="AI29">
+        <v>30</v>
+      </c>
+      <c r="AJ29">
+        <v>3158</v>
+      </c>
+      <c r="AK29">
+        <v>11910</v>
+      </c>
+      <c r="AL29">
+        <v>1388</v>
+      </c>
+      <c r="AM29">
+        <v>0</v>
+      </c>
+      <c r="AN29">
+        <v>0</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>20403</v>
+      </c>
+      <c r="AQ29">
+        <v>19772</v>
+      </c>
+    </row>
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>4000</v>
+      </c>
+      <c r="C30">
+        <v>31</v>
+      </c>
+      <c r="D30">
+        <v>49</v>
+      </c>
+      <c r="E30">
+        <v>6479</v>
+      </c>
+      <c r="F30">
+        <v>19808</v>
+      </c>
+      <c r="G30">
+        <v>26367</v>
+      </c>
+      <c r="H30">
+        <v>3</v>
+      </c>
+      <c r="I30">
+        <v>843</v>
+      </c>
+      <c r="J30">
+        <v>51</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>8</v>
+      </c>
+      <c r="M30">
+        <v>40</v>
+      </c>
+      <c r="N30">
+        <v>3</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>2425</v>
+      </c>
+      <c r="S30">
+        <v>159</v>
+      </c>
+      <c r="T30">
+        <v>620</v>
+      </c>
+      <c r="U30">
+        <v>1606</v>
+      </c>
+      <c r="V30">
+        <v>40</v>
+      </c>
+      <c r="W30">
+        <v>0</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>790</v>
+      </c>
+      <c r="AA30">
+        <v>26</v>
+      </c>
+      <c r="AB30">
+        <v>81</v>
+      </c>
+      <c r="AC30">
+        <v>542</v>
+      </c>
+      <c r="AD30">
+        <v>141</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>16627</v>
+      </c>
+      <c r="AI30">
+        <v>27</v>
+      </c>
+      <c r="AJ30">
+        <v>3177</v>
+      </c>
+      <c r="AK30">
+        <v>12087</v>
+      </c>
+      <c r="AL30">
+        <v>1336</v>
+      </c>
+      <c r="AM30">
+        <v>0</v>
+      </c>
+      <c r="AN30">
+        <v>0</v>
+      </c>
+      <c r="AO30">
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <v>20739</v>
+      </c>
+      <c r="AQ30">
+        <v>19893</v>
+      </c>
+    </row>
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>25</v>
+      </c>
+      <c r="B31">
+        <v>4000</v>
+      </c>
+      <c r="C31">
+        <v>32</v>
+      </c>
+      <c r="D31">
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <v>6481</v>
+      </c>
+      <c r="F31">
+        <v>19832</v>
+      </c>
+      <c r="G31">
+        <v>26392</v>
+      </c>
+      <c r="H31">
+        <v>4</v>
+      </c>
+      <c r="I31">
+        <v>539</v>
+      </c>
+      <c r="J31">
+        <v>49</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>9</v>
+      </c>
+      <c r="M31">
+        <v>37</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>2400</v>
+      </c>
+      <c r="S31">
+        <v>162</v>
+      </c>
+      <c r="T31">
+        <v>629</v>
+      </c>
+      <c r="U31">
+        <v>1579</v>
+      </c>
+      <c r="V31">
+        <v>30</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>808</v>
+      </c>
+      <c r="AA31">
+        <v>24</v>
+      </c>
+      <c r="AB31">
+        <v>60</v>
+      </c>
+      <c r="AC31">
+        <v>572</v>
+      </c>
+      <c r="AD31">
+        <v>152</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>16624</v>
+      </c>
+      <c r="AI31">
+        <v>36</v>
+      </c>
+      <c r="AJ31">
+        <v>3134</v>
+      </c>
+      <c r="AK31">
+        <v>12064</v>
+      </c>
+      <c r="AL31">
+        <v>1390</v>
+      </c>
+      <c r="AM31">
+        <v>0</v>
+      </c>
+      <c r="AN31">
+        <v>0</v>
+      </c>
+      <c r="AO31">
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <v>20424</v>
+      </c>
+      <c r="AQ31">
+        <v>19881</v>
+      </c>
+    </row>
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>25</v>
+      </c>
+      <c r="B32">
+        <v>10000</v>
+      </c>
+      <c r="C32">
+        <v>89</v>
+      </c>
+      <c r="D32">
+        <v>122</v>
+      </c>
+      <c r="E32">
+        <v>16808</v>
+      </c>
+      <c r="F32">
+        <v>19802</v>
+      </c>
+      <c r="G32">
+        <v>36821</v>
+      </c>
+      <c r="H32">
+        <v>14</v>
+      </c>
+      <c r="I32">
+        <v>368</v>
+      </c>
+      <c r="J32">
+        <v>112</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>18</v>
+      </c>
+      <c r="M32">
+        <v>86</v>
+      </c>
+      <c r="N32">
+        <v>8</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>6107</v>
+      </c>
+      <c r="S32">
+        <v>366</v>
+      </c>
+      <c r="T32">
+        <v>1492</v>
+      </c>
+      <c r="U32">
+        <v>4130</v>
+      </c>
+      <c r="V32">
+        <v>119</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>1342</v>
+      </c>
+      <c r="AA32">
+        <v>38</v>
+      </c>
+      <c r="AB32">
+        <v>146</v>
+      </c>
+      <c r="AC32">
+        <v>959</v>
+      </c>
+      <c r="AD32">
+        <v>199</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>0</v>
+      </c>
+      <c r="AH32">
+        <v>15884</v>
+      </c>
+      <c r="AI32">
+        <v>30</v>
+      </c>
+      <c r="AJ32">
+        <v>3134</v>
+      </c>
+      <c r="AK32">
+        <v>11682</v>
+      </c>
+      <c r="AL32">
+        <v>1038</v>
+      </c>
+      <c r="AM32">
+        <v>0</v>
+      </c>
+      <c r="AN32">
+        <v>0</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>23827</v>
+      </c>
+      <c r="AQ32">
+        <v>23445</v>
+      </c>
+    </row>
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>25</v>
+      </c>
+      <c r="B33">
+        <v>10000</v>
+      </c>
+      <c r="C33">
+        <v>61</v>
+      </c>
+      <c r="D33">
+        <v>112</v>
+      </c>
+      <c r="E33">
+        <v>16818</v>
+      </c>
+      <c r="F33">
+        <v>19623</v>
+      </c>
+      <c r="G33">
+        <v>36614</v>
+      </c>
+      <c r="H33">
+        <v>17</v>
+      </c>
+      <c r="I33">
+        <v>315</v>
+      </c>
+      <c r="J33">
+        <v>105</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>78</v>
+      </c>
+      <c r="N33">
+        <v>7</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>6062</v>
+      </c>
+      <c r="S33">
+        <v>368</v>
+      </c>
+      <c r="T33">
+        <v>1468</v>
+      </c>
+      <c r="U33">
+        <v>4126</v>
+      </c>
+      <c r="V33">
+        <v>100</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>1414</v>
+      </c>
+      <c r="AA33">
+        <v>38</v>
+      </c>
+      <c r="AB33">
+        <v>146</v>
+      </c>
+      <c r="AC33">
+        <v>1025</v>
+      </c>
+      <c r="AD33">
+        <v>205</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>15808</v>
+      </c>
+      <c r="AI33">
+        <v>32</v>
+      </c>
+      <c r="AJ33">
+        <v>3153</v>
+      </c>
+      <c r="AK33">
+        <v>11632</v>
+      </c>
+      <c r="AL33">
+        <v>991</v>
+      </c>
+      <c r="AM33">
+        <v>0</v>
+      </c>
+      <c r="AN33">
+        <v>0</v>
+      </c>
+      <c r="AO33">
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <v>23721</v>
+      </c>
+      <c r="AQ33">
+        <v>23389</v>
+      </c>
+    </row>
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>10000</v>
+      </c>
+      <c r="C34">
+        <v>73</v>
+      </c>
+      <c r="D34">
+        <v>118</v>
+      </c>
+      <c r="E34">
+        <v>16812</v>
+      </c>
+      <c r="F34">
+        <v>19316</v>
+      </c>
+      <c r="G34">
+        <v>36319</v>
+      </c>
+      <c r="H34">
+        <v>8</v>
+      </c>
+      <c r="I34">
+        <v>518</v>
+      </c>
+      <c r="J34">
+        <v>101</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>16</v>
+      </c>
+      <c r="M34">
+        <v>79</v>
+      </c>
+      <c r="N34">
+        <v>6</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>6253</v>
+      </c>
+      <c r="S34">
+        <v>373</v>
+      </c>
+      <c r="T34">
+        <v>1522</v>
+      </c>
+      <c r="U34">
+        <v>4275</v>
+      </c>
+      <c r="V34">
+        <v>83</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>1408</v>
+      </c>
+      <c r="AA34">
+        <v>39</v>
+      </c>
+      <c r="AB34">
+        <v>165</v>
+      </c>
+      <c r="AC34">
+        <v>984</v>
+      </c>
+      <c r="AD34">
+        <v>220</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>15676</v>
+      </c>
+      <c r="AI34">
+        <v>43</v>
+      </c>
+      <c r="AJ34">
+        <v>3097</v>
+      </c>
+      <c r="AK34">
+        <v>11614</v>
+      </c>
+      <c r="AL34">
+        <v>922</v>
+      </c>
+      <c r="AM34">
+        <v>0</v>
+      </c>
+      <c r="AN34">
+        <v>0</v>
+      </c>
+      <c r="AO34">
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <v>23964</v>
+      </c>
+      <c r="AQ34">
+        <v>23438</v>
+      </c>
+    </row>
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>10000</v>
+      </c>
+      <c r="C35">
+        <v>77</v>
+      </c>
+      <c r="D35">
+        <v>122</v>
+      </c>
+      <c r="E35">
+        <v>16808</v>
+      </c>
+      <c r="F35">
+        <v>19843</v>
+      </c>
+      <c r="G35">
+        <v>36850</v>
+      </c>
+      <c r="H35">
+        <v>8</v>
+      </c>
+      <c r="I35">
+        <v>540</v>
+      </c>
+      <c r="J35">
+        <v>115</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>21</v>
+      </c>
+      <c r="M35">
+        <v>90</v>
+      </c>
+      <c r="N35">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>6204</v>
+      </c>
+      <c r="S35">
+        <v>371</v>
+      </c>
+      <c r="T35">
+        <v>1507</v>
+      </c>
+      <c r="U35">
+        <v>4237</v>
+      </c>
+      <c r="V35">
+        <v>89</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>1326</v>
+      </c>
+      <c r="AA35">
+        <v>35</v>
+      </c>
+      <c r="AB35">
+        <v>141</v>
+      </c>
+      <c r="AC35">
+        <v>940</v>
+      </c>
+      <c r="AD35">
+        <v>210</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>16049</v>
+      </c>
+      <c r="AI35">
+        <v>37</v>
+      </c>
+      <c r="AJ35">
+        <v>3071</v>
+      </c>
+      <c r="AK35">
+        <v>11957</v>
+      </c>
+      <c r="AL35">
+        <v>984</v>
+      </c>
+      <c r="AM35">
+        <v>0</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>0</v>
+      </c>
+      <c r="AP35">
+        <v>24242</v>
+      </c>
+      <c r="AQ35">
+        <v>23694</v>
+      </c>
+    </row>
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>25</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>80</v>
+      </c>
+      <c r="D36">
+        <v>113</v>
+      </c>
+      <c r="E36">
+        <v>16817</v>
+      </c>
+      <c r="F36">
+        <v>19424</v>
+      </c>
+      <c r="G36">
+        <v>36434</v>
+      </c>
+      <c r="H36">
+        <v>14</v>
+      </c>
+      <c r="I36">
+        <v>394</v>
+      </c>
+      <c r="J36">
+        <v>106</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>18</v>
+      </c>
+      <c r="M36">
+        <v>80</v>
+      </c>
+      <c r="N36">
+        <v>8</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>6178</v>
+      </c>
+      <c r="S36">
+        <v>371</v>
+      </c>
+      <c r="T36">
+        <v>1503</v>
+      </c>
+      <c r="U36">
+        <v>4205</v>
+      </c>
+      <c r="V36">
+        <v>99</v>
+      </c>
+      <c r="W36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>0</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+      <c r="Z36">
+        <v>1329</v>
+      </c>
+      <c r="AA36">
+        <v>39</v>
+      </c>
+      <c r="AB36">
+        <v>137</v>
+      </c>
+      <c r="AC36">
+        <v>949</v>
+      </c>
+      <c r="AD36">
+        <v>204</v>
+      </c>
+      <c r="AE36">
+        <v>0</v>
+      </c>
+      <c r="AF36">
+        <v>0</v>
+      </c>
+      <c r="AG36">
+        <v>0</v>
+      </c>
+      <c r="AH36">
+        <v>15755</v>
+      </c>
+      <c r="AI36">
+        <v>33</v>
+      </c>
+      <c r="AJ36">
+        <v>3144</v>
+      </c>
+      <c r="AK36">
+        <v>11612</v>
+      </c>
+      <c r="AL36">
+        <v>966</v>
+      </c>
+      <c r="AM36">
+        <v>0</v>
+      </c>
+      <c r="AN36">
+        <v>0</v>
+      </c>
+      <c r="AO36">
+        <v>0</v>
+      </c>
+      <c r="AP36">
+        <v>23776</v>
+      </c>
+      <c r="AQ36">
+        <v>23368</v>
+      </c>
+    </row>
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>25</v>
+      </c>
+      <c r="B37">
+        <v>10000</v>
+      </c>
+      <c r="C37">
+        <v>54</v>
+      </c>
+      <c r="D37">
+        <v>125</v>
+      </c>
+      <c r="E37">
+        <v>16805</v>
+      </c>
+      <c r="F37">
+        <v>19572</v>
+      </c>
+      <c r="G37">
+        <v>36556</v>
+      </c>
+      <c r="H37">
+        <v>10</v>
+      </c>
+      <c r="I37">
+        <v>466</v>
+      </c>
+      <c r="J37">
+        <v>95</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>72</v>
+      </c>
+      <c r="N37">
+        <v>12</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>6266</v>
+      </c>
+      <c r="S37">
+        <v>377</v>
+      </c>
+      <c r="T37">
+        <v>1504</v>
+      </c>
+      <c r="U37">
+        <v>4277</v>
+      </c>
+      <c r="V37">
+        <v>108</v>
+      </c>
+      <c r="W37">
+        <v>0</v>
+      </c>
+      <c r="X37">
+        <v>0</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+      <c r="Z37">
+        <v>1304</v>
+      </c>
+      <c r="AA37">
+        <v>38</v>
+      </c>
+      <c r="AB37">
+        <v>140</v>
+      </c>
+      <c r="AC37">
+        <v>918</v>
+      </c>
+      <c r="AD37">
+        <v>208</v>
+      </c>
+      <c r="AE37">
+        <v>0</v>
+      </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>15766</v>
+      </c>
+      <c r="AI37">
+        <v>29</v>
+      </c>
+      <c r="AJ37">
+        <v>3125</v>
+      </c>
+      <c r="AK37">
+        <v>11658</v>
+      </c>
+      <c r="AL37">
+        <v>954</v>
+      </c>
+      <c r="AM37">
+        <v>0</v>
+      </c>
+      <c r="AN37">
+        <v>0</v>
+      </c>
+      <c r="AO37">
+        <v>0</v>
+      </c>
+      <c r="AP37">
+        <v>23907</v>
+      </c>
+      <c r="AQ37">
+        <v>23431</v>
+      </c>
+    </row>
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>25</v>
+      </c>
+      <c r="B38">
+        <v>10000</v>
+      </c>
+      <c r="C38">
+        <v>66</v>
+      </c>
+      <c r="D38">
+        <v>113</v>
+      </c>
+      <c r="E38">
+        <v>16817</v>
+      </c>
+      <c r="F38">
+        <v>19514</v>
+      </c>
+      <c r="G38">
+        <v>36510</v>
+      </c>
+      <c r="H38">
+        <v>11</v>
+      </c>
+      <c r="I38">
+        <v>370</v>
+      </c>
+      <c r="J38">
+        <v>115</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>25</v>
+      </c>
+      <c r="M38">
+        <v>83</v>
+      </c>
+      <c r="N38">
+        <v>7</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>0</v>
+      </c>
+      <c r="R38">
+        <v>6133</v>
+      </c>
+      <c r="S38">
+        <v>364</v>
+      </c>
+      <c r="T38">
+        <v>1496</v>
+      </c>
+      <c r="U38">
+        <v>4168</v>
+      </c>
+      <c r="V38">
+        <v>105</v>
+      </c>
+      <c r="W38">
+        <v>0</v>
+      </c>
+      <c r="X38">
+        <v>0</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+      <c r="Z38">
+        <v>1336</v>
+      </c>
+      <c r="AA38">
+        <v>41</v>
+      </c>
+      <c r="AB38">
+        <v>140</v>
+      </c>
+      <c r="AC38">
+        <v>961</v>
+      </c>
+      <c r="AD38">
+        <v>194</v>
+      </c>
+      <c r="AE38">
+        <v>0</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38">
+        <v>0</v>
+      </c>
+      <c r="AH38">
+        <v>15839</v>
+      </c>
+      <c r="AI38">
+        <v>32</v>
+      </c>
+      <c r="AJ38">
+        <v>3172</v>
+      </c>
+      <c r="AK38">
+        <v>11657</v>
+      </c>
+      <c r="AL38">
+        <v>978</v>
+      </c>
+      <c r="AM38">
+        <v>0</v>
+      </c>
+      <c r="AN38">
+        <v>0</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>23804</v>
+      </c>
+      <c r="AQ38">
+        <v>23423</v>
+      </c>
+    </row>
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>25</v>
+      </c>
+      <c r="B39">
+        <v>10000</v>
+      </c>
+      <c r="C39">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>124</v>
+      </c>
+      <c r="E39">
+        <v>16806</v>
+      </c>
+      <c r="F39">
+        <v>19700</v>
+      </c>
+      <c r="G39">
+        <v>36701</v>
+      </c>
+      <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="I39">
+        <v>532</v>
+      </c>
+      <c r="J39">
+        <v>101</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+      <c r="M39">
+        <v>80</v>
+      </c>
+      <c r="N39">
+        <v>5</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0</v>
+      </c>
+      <c r="Q39">
+        <v>0</v>
+      </c>
+      <c r="R39">
+        <v>6095</v>
+      </c>
+      <c r="S39">
+        <v>367</v>
+      </c>
+      <c r="T39">
+        <v>1495</v>
+      </c>
+      <c r="U39">
+        <v>4157</v>
+      </c>
+      <c r="V39">
+        <v>76</v>
+      </c>
+      <c r="W39">
+        <v>0</v>
+      </c>
+      <c r="X39">
+        <v>0</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+      <c r="Z39">
+        <v>1414</v>
+      </c>
+      <c r="AA39">
+        <v>38</v>
+      </c>
+      <c r="AB39">
+        <v>149</v>
+      </c>
+      <c r="AC39">
+        <v>996</v>
+      </c>
+      <c r="AD39">
+        <v>231</v>
+      </c>
+      <c r="AE39">
+        <v>0</v>
+      </c>
+      <c r="AF39">
+        <v>0</v>
+      </c>
+      <c r="AG39">
+        <v>0</v>
+      </c>
+      <c r="AH39">
+        <v>15818</v>
+      </c>
+      <c r="AI39">
+        <v>16</v>
+      </c>
+      <c r="AJ39">
+        <v>3143</v>
+      </c>
+      <c r="AK39">
+        <v>11713</v>
+      </c>
+      <c r="AL39">
+        <v>946</v>
+      </c>
+      <c r="AM39">
+        <v>0</v>
+      </c>
+      <c r="AN39">
+        <v>0</v>
+      </c>
+      <c r="AO39">
+        <v>0</v>
+      </c>
+      <c r="AP39">
+        <v>23973</v>
+      </c>
+      <c r="AQ39">
+        <v>23428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>10000</v>
+      </c>
+      <c r="C40">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>120</v>
+      </c>
+      <c r="E40">
+        <v>16810</v>
+      </c>
+      <c r="F40">
+        <v>19553</v>
+      </c>
+      <c r="G40">
+        <v>36556</v>
+      </c>
+      <c r="H40">
+        <v>15</v>
+      </c>
+      <c r="I40">
+        <v>615</v>
+      </c>
+      <c r="J40">
+        <v>123</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>31</v>
+      </c>
+      <c r="M40">
+        <v>89</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0</v>
+      </c>
+      <c r="Q40">
+        <v>0</v>
+      </c>
+      <c r="R40">
+        <v>6309</v>
+      </c>
+      <c r="S40">
+        <v>371</v>
+      </c>
+      <c r="T40">
+        <v>1522</v>
+      </c>
+      <c r="U40">
+        <v>4310</v>
+      </c>
+      <c r="V40">
+        <v>106</v>
+      </c>
+      <c r="W40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>0</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+      <c r="Z40">
+        <v>1264</v>
+      </c>
+      <c r="AA40">
+        <v>35</v>
+      </c>
+      <c r="AB40">
+        <v>151</v>
+      </c>
+      <c r="AC40">
+        <v>882</v>
+      </c>
+      <c r="AD40">
+        <v>196</v>
+      </c>
+      <c r="AE40">
+        <v>0</v>
+      </c>
+      <c r="AF40">
+        <v>0</v>
+      </c>
+      <c r="AG40">
+        <v>0</v>
+      </c>
+      <c r="AH40">
+        <v>15745</v>
+      </c>
+      <c r="AI40">
+        <v>24</v>
+      </c>
+      <c r="AJ40">
+        <v>3190</v>
+      </c>
+      <c r="AK40">
+        <v>11542</v>
+      </c>
+      <c r="AL40">
+        <v>989</v>
+      </c>
+      <c r="AM40">
+        <v>0</v>
+      </c>
+      <c r="AN40">
+        <v>0</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>24071</v>
+      </c>
+      <c r="AQ40">
+        <v>23441</v>
+      </c>
+    </row>
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>25</v>
+      </c>
+      <c r="B41">
+        <v>10000</v>
+      </c>
+      <c r="C41">
+        <v>84</v>
+      </c>
+      <c r="D41">
+        <v>112</v>
+      </c>
+      <c r="E41">
+        <v>16818</v>
+      </c>
+      <c r="F41">
+        <v>19823</v>
+      </c>
+      <c r="G41">
+        <v>36837</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <v>378</v>
+      </c>
+      <c r="J41">
+        <v>119</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>12</v>
+      </c>
+      <c r="M41">
+        <v>97</v>
+      </c>
+      <c r="N41">
+        <v>10</v>
+      </c>
+      <c r="O41">
+        <v>0</v>
+      </c>
+      <c r="P41">
+        <v>0</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>6130</v>
+      </c>
+      <c r="S41">
+        <v>367</v>
+      </c>
+      <c r="T41">
+        <v>1485</v>
+      </c>
+      <c r="U41">
+        <v>4168</v>
+      </c>
+      <c r="V41">
+        <v>110</v>
+      </c>
+      <c r="W41">
+        <v>0</v>
+      </c>
+      <c r="X41">
+        <v>0</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+      <c r="Z41">
+        <v>1343</v>
+      </c>
+      <c r="AA41">
+        <v>38</v>
+      </c>
+      <c r="AB41">
+        <v>149</v>
+      </c>
+      <c r="AC41">
+        <v>960</v>
+      </c>
+      <c r="AD41">
+        <v>196</v>
+      </c>
+      <c r="AE41">
+        <v>0</v>
+      </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>16004</v>
+      </c>
+      <c r="AI41">
+        <v>26</v>
+      </c>
+      <c r="AJ41">
+        <v>3177</v>
+      </c>
+      <c r="AK41">
+        <v>11800</v>
+      </c>
+      <c r="AL41">
+        <v>1001</v>
+      </c>
+      <c r="AM41">
+        <v>0</v>
+      </c>
+      <c r="AN41">
+        <v>0</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>23982</v>
+      </c>
+      <c r="AQ41">
+        <v>23596</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
   <dimension ref="A1:Q81"/>
   <sheetViews>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D15FE3-AF2F-4CA2-A1DF-BB5277028B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF185A7B-0149-413C-844F-E9A4C29B3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
-  <dimension ref="A1:AG121"/>
+  <dimension ref="A1:AG131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C112" sqref="C112"/>
+      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10703,77 +10703,1087 @@
       <c r="B112">
         <v>1600</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>20</v>
+      </c>
+      <c r="D112">
+        <v>20</v>
+      </c>
+      <c r="E112">
+        <v>2757</v>
+      </c>
+      <c r="F112">
+        <v>67601</v>
+      </c>
+      <c r="G112">
+        <v>70398</v>
+      </c>
+      <c r="H112">
+        <v>3</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>1413</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>45</v>
+      </c>
+      <c r="O112">
+        <v>1368</v>
+      </c>
+      <c r="P112">
+        <v>49</v>
+      </c>
+      <c r="Q112">
+        <v>0</v>
+      </c>
+      <c r="R112">
+        <v>8</v>
+      </c>
+      <c r="S112">
+        <v>41</v>
+      </c>
+      <c r="T112">
+        <v>942</v>
+      </c>
+      <c r="U112">
+        <v>77</v>
+      </c>
+      <c r="V112">
+        <v>337</v>
+      </c>
+      <c r="W112">
+        <v>528</v>
+      </c>
+      <c r="X112">
+        <v>1036</v>
+      </c>
+      <c r="Y112">
+        <v>15</v>
+      </c>
+      <c r="Z112">
+        <v>93</v>
+      </c>
+      <c r="AA112">
+        <v>928</v>
+      </c>
+      <c r="AB112">
+        <v>55919</v>
+      </c>
+      <c r="AC112">
+        <v>92</v>
+      </c>
+      <c r="AD112">
+        <v>10758</v>
+      </c>
+      <c r="AE112">
+        <v>45069</v>
+      </c>
+      <c r="AF112">
+        <v>59362</v>
+      </c>
+      <c r="AG112">
+        <v>57946</v>
+      </c>
+    </row>
+    <row r="113" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>5</v>
       </c>
       <c r="B113">
         <v>1600</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>20</v>
+      </c>
+      <c r="D113">
+        <v>22</v>
+      </c>
+      <c r="E113">
+        <v>2755</v>
+      </c>
+      <c r="F113">
+        <v>67475</v>
+      </c>
+      <c r="G113">
+        <v>70272</v>
+      </c>
+      <c r="H113">
+        <v>1</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>1</v>
+      </c>
+      <c r="L113">
+        <v>1497</v>
+      </c>
+      <c r="M113">
+        <v>0</v>
+      </c>
+      <c r="N113">
+        <v>30</v>
+      </c>
+      <c r="O113">
+        <v>1467</v>
+      </c>
+      <c r="P113">
+        <v>70</v>
+      </c>
+      <c r="Q113">
+        <v>0</v>
+      </c>
+      <c r="R113">
+        <v>11</v>
+      </c>
+      <c r="S113">
+        <v>59</v>
+      </c>
+      <c r="T113">
+        <v>898</v>
+      </c>
+      <c r="U113">
+        <v>77</v>
+      </c>
+      <c r="V113">
+        <v>334</v>
+      </c>
+      <c r="W113">
+        <v>487</v>
+      </c>
+      <c r="X113">
+        <v>1085</v>
+      </c>
+      <c r="Y113">
+        <v>14</v>
+      </c>
+      <c r="Z113">
+        <v>101</v>
+      </c>
+      <c r="AA113">
+        <v>970</v>
+      </c>
+      <c r="AB113">
+        <v>55772</v>
+      </c>
+      <c r="AC113">
+        <v>76</v>
+      </c>
+      <c r="AD113">
+        <v>10863</v>
+      </c>
+      <c r="AE113">
+        <v>44833</v>
+      </c>
+      <c r="AF113">
+        <v>59323</v>
+      </c>
+      <c r="AG113">
+        <v>57825</v>
+      </c>
+    </row>
+    <row r="114" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>5</v>
       </c>
       <c r="B114">
         <v>1600</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>24</v>
+      </c>
+      <c r="D114">
+        <v>22</v>
+      </c>
+      <c r="E114">
+        <v>2755</v>
+      </c>
+      <c r="F114">
+        <v>67641</v>
+      </c>
+      <c r="G114">
+        <v>70442</v>
+      </c>
+      <c r="H114">
+        <v>2</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>1227</v>
+      </c>
+      <c r="M114">
+        <v>0</v>
+      </c>
+      <c r="N114">
+        <v>33</v>
+      </c>
+      <c r="O114">
+        <v>1194</v>
+      </c>
+      <c r="P114">
+        <v>59</v>
+      </c>
+      <c r="Q114">
+        <v>0</v>
+      </c>
+      <c r="R114">
+        <v>11</v>
+      </c>
+      <c r="S114">
+        <v>48</v>
+      </c>
+      <c r="T114">
+        <v>870</v>
+      </c>
+      <c r="U114">
+        <v>74</v>
+      </c>
+      <c r="V114">
+        <v>335</v>
+      </c>
+      <c r="W114">
+        <v>461</v>
+      </c>
+      <c r="X114">
+        <v>1130</v>
+      </c>
+      <c r="Y114">
+        <v>17</v>
+      </c>
+      <c r="Z114">
+        <v>98</v>
+      </c>
+      <c r="AA114">
+        <v>1015</v>
+      </c>
+      <c r="AB114">
+        <v>56250</v>
+      </c>
+      <c r="AC114">
+        <v>89</v>
+      </c>
+      <c r="AD114">
+        <v>10814</v>
+      </c>
+      <c r="AE114">
+        <v>45347</v>
+      </c>
+      <c r="AF114">
+        <v>59538</v>
+      </c>
+      <c r="AG114">
+        <v>58309</v>
+      </c>
+    </row>
+    <row r="115" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>5</v>
       </c>
       <c r="B115">
         <v>1600</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C115">
+        <v>27</v>
+      </c>
+      <c r="D115">
+        <v>18</v>
+      </c>
+      <c r="E115">
+        <v>2759</v>
+      </c>
+      <c r="F115">
+        <v>67503</v>
+      </c>
+      <c r="G115">
+        <v>70307</v>
+      </c>
+      <c r="H115">
+        <v>1</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>1</v>
+      </c>
+      <c r="L115">
+        <v>1378</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>37</v>
+      </c>
+      <c r="O115">
+        <v>1341</v>
+      </c>
+      <c r="P115">
+        <v>49</v>
+      </c>
+      <c r="Q115">
+        <v>0</v>
+      </c>
+      <c r="R115">
+        <v>10</v>
+      </c>
+      <c r="S115">
+        <v>39</v>
+      </c>
+      <c r="T115">
+        <v>887</v>
+      </c>
+      <c r="U115">
+        <v>76</v>
+      </c>
+      <c r="V115">
+        <v>343</v>
+      </c>
+      <c r="W115">
+        <v>468</v>
+      </c>
+      <c r="X115">
+        <v>1095</v>
+      </c>
+      <c r="Y115">
+        <v>13</v>
+      </c>
+      <c r="Z115">
+        <v>82</v>
+      </c>
+      <c r="AA115">
+        <v>1000</v>
+      </c>
+      <c r="AB115">
+        <v>55519</v>
+      </c>
+      <c r="AC115">
+        <v>89</v>
+      </c>
+      <c r="AD115">
+        <v>10785</v>
+      </c>
+      <c r="AE115">
+        <v>44645</v>
+      </c>
+      <c r="AF115">
+        <v>58929</v>
+      </c>
+      <c r="AG115">
+        <v>57550</v>
+      </c>
+    </row>
+    <row r="116" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
       <c r="B116">
         <v>1600</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C116">
+        <v>27</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>2761</v>
+      </c>
+      <c r="F116">
+        <v>67463</v>
+      </c>
+      <c r="G116">
+        <v>70267</v>
+      </c>
+      <c r="H116">
+        <v>3</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>3</v>
+      </c>
+      <c r="L116">
+        <v>1102</v>
+      </c>
+      <c r="M116">
+        <v>0</v>
+      </c>
+      <c r="N116">
+        <v>36</v>
+      </c>
+      <c r="O116">
+        <v>1066</v>
+      </c>
+      <c r="P116">
+        <v>50</v>
+      </c>
+      <c r="Q116">
+        <v>0</v>
+      </c>
+      <c r="R116">
+        <v>10</v>
+      </c>
+      <c r="S116">
+        <v>40</v>
+      </c>
+      <c r="T116">
+        <v>903</v>
+      </c>
+      <c r="U116">
+        <v>75</v>
+      </c>
+      <c r="V116">
+        <v>335</v>
+      </c>
+      <c r="W116">
+        <v>493</v>
+      </c>
+      <c r="X116">
+        <v>1079</v>
+      </c>
+      <c r="Y116">
+        <v>15</v>
+      </c>
+      <c r="Z116">
+        <v>91</v>
+      </c>
+      <c r="AA116">
+        <v>973</v>
+      </c>
+      <c r="AB116">
+        <v>55815</v>
+      </c>
+      <c r="AC116">
+        <v>86</v>
+      </c>
+      <c r="AD116">
+        <v>10693</v>
+      </c>
+      <c r="AE116">
+        <v>45036</v>
+      </c>
+      <c r="AF116">
+        <v>58952</v>
+      </c>
+      <c r="AG116">
+        <v>57847</v>
+      </c>
+    </row>
+    <row r="117" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>5</v>
       </c>
       <c r="B117">
         <v>1600</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C117">
+        <v>20</v>
+      </c>
+      <c r="D117">
+        <v>16</v>
+      </c>
+      <c r="E117">
+        <v>2761</v>
+      </c>
+      <c r="F117">
+        <v>67373</v>
+      </c>
+      <c r="G117">
+        <v>70170</v>
+      </c>
+      <c r="H117">
+        <v>3</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>3</v>
+      </c>
+      <c r="L117">
+        <v>1302</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>34</v>
+      </c>
+      <c r="O117">
+        <v>1268</v>
+      </c>
+      <c r="P117">
+        <v>54</v>
+      </c>
+      <c r="Q117">
+        <v>0</v>
+      </c>
+      <c r="R117">
+        <v>7</v>
+      </c>
+      <c r="S117">
+        <v>47</v>
+      </c>
+      <c r="T117">
+        <v>906</v>
+      </c>
+      <c r="U117">
+        <v>76</v>
+      </c>
+      <c r="V117">
+        <v>334</v>
+      </c>
+      <c r="W117">
+        <v>496</v>
+      </c>
+      <c r="X117">
+        <v>1051</v>
+      </c>
+      <c r="Y117">
+        <v>13</v>
+      </c>
+      <c r="Z117">
+        <v>80</v>
+      </c>
+      <c r="AA117">
+        <v>958</v>
+      </c>
+      <c r="AB117">
+        <v>55783</v>
+      </c>
+      <c r="AC117">
+        <v>78</v>
+      </c>
+      <c r="AD117">
+        <v>10949</v>
+      </c>
+      <c r="AE117">
+        <v>44756</v>
+      </c>
+      <c r="AF117">
+        <v>59099</v>
+      </c>
+      <c r="AG117">
+        <v>57794</v>
+      </c>
+    </row>
+    <row r="118" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>5</v>
       </c>
       <c r="B118">
         <v>1600</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C118">
+        <v>28</v>
+      </c>
+      <c r="D118">
+        <v>13</v>
+      </c>
+      <c r="E118">
+        <v>2764</v>
+      </c>
+      <c r="F118">
+        <v>67898</v>
+      </c>
+      <c r="G118">
+        <v>70703</v>
+      </c>
+      <c r="H118">
+        <v>3</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>3</v>
+      </c>
+      <c r="L118">
+        <v>1342</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>38</v>
+      </c>
+      <c r="O118">
+        <v>1304</v>
+      </c>
+      <c r="P118">
+        <v>57</v>
+      </c>
+      <c r="Q118">
+        <v>0</v>
+      </c>
+      <c r="R118">
+        <v>12</v>
+      </c>
+      <c r="S118">
+        <v>45</v>
+      </c>
+      <c r="T118">
+        <v>926</v>
+      </c>
+      <c r="U118">
+        <v>72</v>
+      </c>
+      <c r="V118">
+        <v>334</v>
+      </c>
+      <c r="W118">
+        <v>520</v>
+      </c>
+      <c r="X118">
+        <v>1054</v>
+      </c>
+      <c r="Y118">
+        <v>16</v>
+      </c>
+      <c r="Z118">
+        <v>90</v>
+      </c>
+      <c r="AA118">
+        <v>948</v>
+      </c>
+      <c r="AB118">
+        <v>56329</v>
+      </c>
+      <c r="AC118">
+        <v>89</v>
+      </c>
+      <c r="AD118">
+        <v>10708</v>
+      </c>
+      <c r="AE118">
+        <v>45532</v>
+      </c>
+      <c r="AF118">
+        <v>59711</v>
+      </c>
+      <c r="AG118">
+        <v>58366</v>
+      </c>
+    </row>
+    <row r="119" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>5</v>
       </c>
       <c r="B119">
         <v>1600</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C119">
+        <v>28</v>
+      </c>
+      <c r="D119">
+        <v>17</v>
+      </c>
+      <c r="E119">
+        <v>2760</v>
+      </c>
+      <c r="F119">
+        <v>67421</v>
+      </c>
+      <c r="G119">
+        <v>70226</v>
+      </c>
+      <c r="H119">
+        <v>1</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>1</v>
+      </c>
+      <c r="L119">
+        <v>1390</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>45</v>
+      </c>
+      <c r="O119">
+        <v>1345</v>
+      </c>
+      <c r="P119">
+        <v>69</v>
+      </c>
+      <c r="Q119">
+        <v>0</v>
+      </c>
+      <c r="R119">
+        <v>14</v>
+      </c>
+      <c r="S119">
+        <v>55</v>
+      </c>
+      <c r="T119">
+        <v>933</v>
+      </c>
+      <c r="U119">
+        <v>80</v>
+      </c>
+      <c r="V119">
+        <v>345</v>
+      </c>
+      <c r="W119">
+        <v>508</v>
+      </c>
+      <c r="X119">
+        <v>1043</v>
+      </c>
+      <c r="Y119">
+        <v>12</v>
+      </c>
+      <c r="Z119">
+        <v>77</v>
+      </c>
+      <c r="AA119">
+        <v>954</v>
+      </c>
+      <c r="AB119">
+        <v>55959</v>
+      </c>
+      <c r="AC119">
+        <v>93</v>
+      </c>
+      <c r="AD119">
+        <v>10720</v>
+      </c>
+      <c r="AE119">
+        <v>45146</v>
+      </c>
+      <c r="AF119">
+        <v>59395</v>
+      </c>
+      <c r="AG119">
+        <v>58004</v>
+      </c>
+    </row>
+    <row r="120" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>5</v>
       </c>
       <c r="B120">
         <v>1600</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C120">
+        <v>24</v>
+      </c>
+      <c r="D120">
+        <v>17</v>
+      </c>
+      <c r="E120">
+        <v>2760</v>
+      </c>
+      <c r="F120">
+        <v>67199</v>
+      </c>
+      <c r="G120">
+        <v>70000</v>
+      </c>
+      <c r="H120">
+        <v>0</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>1082</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>30</v>
+      </c>
+      <c r="O120">
+        <v>1052</v>
+      </c>
+      <c r="P120">
+        <v>59</v>
+      </c>
+      <c r="Q120">
+        <v>0</v>
+      </c>
+      <c r="R120">
+        <v>18</v>
+      </c>
+      <c r="S120">
+        <v>41</v>
+      </c>
+      <c r="T120">
+        <v>823</v>
+      </c>
+      <c r="U120">
+        <v>71</v>
+      </c>
+      <c r="V120">
+        <v>325</v>
+      </c>
+      <c r="W120">
+        <v>427</v>
+      </c>
+      <c r="X120">
+        <v>1101</v>
+      </c>
+      <c r="Y120">
+        <v>18</v>
+      </c>
+      <c r="Z120">
+        <v>97</v>
+      </c>
+      <c r="AA120">
+        <v>986</v>
+      </c>
+      <c r="AB120">
+        <v>55532</v>
+      </c>
+      <c r="AC120">
+        <v>105</v>
+      </c>
+      <c r="AD120">
+        <v>10818</v>
+      </c>
+      <c r="AE120">
+        <v>44609</v>
+      </c>
+      <c r="AF120">
+        <v>58597</v>
+      </c>
+      <c r="AG120">
+        <v>57515</v>
+      </c>
+    </row>
+    <row r="121" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>5</v>
       </c>
       <c r="B121">
         <v>1600</v>
+      </c>
+      <c r="C121">
+        <v>21</v>
+      </c>
+      <c r="D121">
+        <v>17</v>
+      </c>
+      <c r="E121">
+        <v>2760</v>
+      </c>
+      <c r="F121">
+        <v>67399</v>
+      </c>
+      <c r="G121">
+        <v>70197</v>
+      </c>
+      <c r="H121">
+        <v>0</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>0</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>876</v>
+      </c>
+      <c r="M121">
+        <v>0</v>
+      </c>
+      <c r="N121">
+        <v>35</v>
+      </c>
+      <c r="O121">
+        <v>841</v>
+      </c>
+      <c r="P121">
+        <v>41</v>
+      </c>
+      <c r="Q121">
+        <v>1</v>
+      </c>
+      <c r="R121">
+        <v>7</v>
+      </c>
+      <c r="S121">
+        <v>33</v>
+      </c>
+      <c r="T121">
+        <v>815</v>
+      </c>
+      <c r="U121">
+        <v>71</v>
+      </c>
+      <c r="V121">
+        <v>308</v>
+      </c>
+      <c r="W121">
+        <v>436</v>
+      </c>
+      <c r="X121">
+        <v>1142</v>
+      </c>
+      <c r="Y121">
+        <v>20</v>
+      </c>
+      <c r="Z121">
+        <v>118</v>
+      </c>
+      <c r="AA121">
+        <v>1004</v>
+      </c>
+      <c r="AB121">
+        <v>55765</v>
+      </c>
+      <c r="AC121">
+        <v>84</v>
+      </c>
+      <c r="AD121">
+        <v>10814</v>
+      </c>
+      <c r="AE121">
+        <v>44867</v>
+      </c>
+      <c r="AF121">
+        <v>58639</v>
+      </c>
+      <c r="AG121">
+        <v>57763</v>
+      </c>
+    </row>
+    <row r="122" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>5</v>
+      </c>
+      <c r="B122">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="123" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="124" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>5</v>
+      </c>
+      <c r="B124">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="125" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>5</v>
+      </c>
+      <c r="B125">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>5</v>
+      </c>
+      <c r="B126">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>5</v>
+      </c>
+      <c r="B129">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>5</v>
+      </c>
+      <c r="B130">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5</v>
+      </c>
+      <c r="B131">
+        <v>4000</v>
       </c>
     </row>
   </sheetData>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF185A7B-0149-413C-844F-E9A4C29B3516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE440EA7-0118-4480-BFC7-376DA22473A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
-  <dimension ref="A1:AG131"/>
+  <dimension ref="A1:AG151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A98" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C122" sqref="C122"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11713,6 +11713,99 @@
       <c r="B122">
         <v>4000</v>
       </c>
+      <c r="C122">
+        <v>60</v>
+      </c>
+      <c r="D122">
+        <v>52</v>
+      </c>
+      <c r="E122">
+        <v>6465</v>
+      </c>
+      <c r="F122">
+        <v>67547</v>
+      </c>
+      <c r="G122">
+        <v>74124</v>
+      </c>
+      <c r="H122">
+        <v>7</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>6</v>
+      </c>
+      <c r="L122">
+        <v>1269</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>43</v>
+      </c>
+      <c r="O122">
+        <v>1226</v>
+      </c>
+      <c r="P122">
+        <v>109</v>
+      </c>
+      <c r="Q122">
+        <v>0</v>
+      </c>
+      <c r="R122">
+        <v>18</v>
+      </c>
+      <c r="S122">
+        <v>91</v>
+      </c>
+      <c r="T122">
+        <v>2306</v>
+      </c>
+      <c r="U122">
+        <v>200</v>
+      </c>
+      <c r="V122">
+        <v>797</v>
+      </c>
+      <c r="W122">
+        <v>1309</v>
+      </c>
+      <c r="X122">
+        <v>1768</v>
+      </c>
+      <c r="Y122">
+        <v>24</v>
+      </c>
+      <c r="Z122">
+        <v>109</v>
+      </c>
+      <c r="AA122">
+        <v>1635</v>
+      </c>
+      <c r="AB122">
+        <v>54877</v>
+      </c>
+      <c r="AC122">
+        <v>89</v>
+      </c>
+      <c r="AD122">
+        <v>10511</v>
+      </c>
+      <c r="AE122">
+        <v>44277</v>
+      </c>
+      <c r="AF122">
+        <v>60336</v>
+      </c>
+      <c r="AG122">
+        <v>59060</v>
+      </c>
     </row>
     <row r="123" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -11721,6 +11814,99 @@
       <c r="B123">
         <v>4000</v>
       </c>
+      <c r="C123">
+        <v>37</v>
+      </c>
+      <c r="D123">
+        <v>56</v>
+      </c>
+      <c r="E123">
+        <v>6461</v>
+      </c>
+      <c r="F123">
+        <v>67440</v>
+      </c>
+      <c r="G123">
+        <v>73994</v>
+      </c>
+      <c r="H123">
+        <v>6</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>5</v>
+      </c>
+      <c r="L123">
+        <v>1360</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>45</v>
+      </c>
+      <c r="O123">
+        <v>1315</v>
+      </c>
+      <c r="P123">
+        <v>97</v>
+      </c>
+      <c r="Q123">
+        <v>0</v>
+      </c>
+      <c r="R123">
+        <v>24</v>
+      </c>
+      <c r="S123">
+        <v>73</v>
+      </c>
+      <c r="T123">
+        <v>2316</v>
+      </c>
+      <c r="U123">
+        <v>197</v>
+      </c>
+      <c r="V123">
+        <v>784</v>
+      </c>
+      <c r="W123">
+        <v>1335</v>
+      </c>
+      <c r="X123">
+        <v>1802</v>
+      </c>
+      <c r="Y123">
+        <v>26</v>
+      </c>
+      <c r="Z123">
+        <v>127</v>
+      </c>
+      <c r="AA123">
+        <v>1649</v>
+      </c>
+      <c r="AB123">
+        <v>54830</v>
+      </c>
+      <c r="AC123">
+        <v>82</v>
+      </c>
+      <c r="AD123">
+        <v>10657</v>
+      </c>
+      <c r="AE123">
+        <v>44091</v>
+      </c>
+      <c r="AF123">
+        <v>60411</v>
+      </c>
+      <c r="AG123">
+        <v>59045</v>
+      </c>
     </row>
     <row r="124" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A124">
@@ -11729,6 +11915,99 @@
       <c r="B124">
         <v>4000</v>
       </c>
+      <c r="C124">
+        <v>62</v>
+      </c>
+      <c r="D124">
+        <v>52</v>
+      </c>
+      <c r="E124">
+        <v>6465</v>
+      </c>
+      <c r="F124">
+        <v>67012</v>
+      </c>
+      <c r="G124">
+        <v>73591</v>
+      </c>
+      <c r="H124">
+        <v>3</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>3</v>
+      </c>
+      <c r="L124">
+        <v>1405</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>45</v>
+      </c>
+      <c r="O124">
+        <v>1360</v>
+      </c>
+      <c r="P124">
+        <v>123</v>
+      </c>
+      <c r="Q124">
+        <v>0</v>
+      </c>
+      <c r="R124">
+        <v>21</v>
+      </c>
+      <c r="S124">
+        <v>102</v>
+      </c>
+      <c r="T124">
+        <v>2334</v>
+      </c>
+      <c r="U124">
+        <v>201</v>
+      </c>
+      <c r="V124">
+        <v>808</v>
+      </c>
+      <c r="W124">
+        <v>1325</v>
+      </c>
+      <c r="X124">
+        <v>1739</v>
+      </c>
+      <c r="Y124">
+        <v>19</v>
+      </c>
+      <c r="Z124">
+        <v>108</v>
+      </c>
+      <c r="AA124">
+        <v>1612</v>
+      </c>
+      <c r="AB124">
+        <v>54351</v>
+      </c>
+      <c r="AC124">
+        <v>80</v>
+      </c>
+      <c r="AD124">
+        <v>10708</v>
+      </c>
+      <c r="AE124">
+        <v>43563</v>
+      </c>
+      <c r="AF124">
+        <v>59955</v>
+      </c>
+      <c r="AG124">
+        <v>58547</v>
+      </c>
     </row>
     <row r="125" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -11737,6 +12016,99 @@
       <c r="B125">
         <v>4000</v>
       </c>
+      <c r="C125">
+        <v>58</v>
+      </c>
+      <c r="D125">
+        <v>53</v>
+      </c>
+      <c r="E125">
+        <v>6464</v>
+      </c>
+      <c r="F125">
+        <v>67078</v>
+      </c>
+      <c r="G125">
+        <v>73653</v>
+      </c>
+      <c r="H125">
+        <v>1</v>
+      </c>
+      <c r="I125">
+        <v>0</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>1082</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>42</v>
+      </c>
+      <c r="O125">
+        <v>1040</v>
+      </c>
+      <c r="P125">
+        <v>106</v>
+      </c>
+      <c r="Q125">
+        <v>2</v>
+      </c>
+      <c r="R125">
+        <v>19</v>
+      </c>
+      <c r="S125">
+        <v>85</v>
+      </c>
+      <c r="T125">
+        <v>2295</v>
+      </c>
+      <c r="U125">
+        <v>194</v>
+      </c>
+      <c r="V125">
+        <v>796</v>
+      </c>
+      <c r="W125">
+        <v>1305</v>
+      </c>
+      <c r="X125">
+        <v>1769</v>
+      </c>
+      <c r="Y125">
+        <v>27</v>
+      </c>
+      <c r="Z125">
+        <v>107</v>
+      </c>
+      <c r="AA125">
+        <v>1635</v>
+      </c>
+      <c r="AB125">
+        <v>54514</v>
+      </c>
+      <c r="AC125">
+        <v>79</v>
+      </c>
+      <c r="AD125">
+        <v>10690</v>
+      </c>
+      <c r="AE125">
+        <v>43745</v>
+      </c>
+      <c r="AF125">
+        <v>59767</v>
+      </c>
+      <c r="AG125">
+        <v>58684</v>
+      </c>
     </row>
     <row r="126" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -11745,6 +12117,99 @@
       <c r="B126">
         <v>4000</v>
       </c>
+      <c r="C126">
+        <v>51</v>
+      </c>
+      <c r="D126">
+        <v>64</v>
+      </c>
+      <c r="E126">
+        <v>6453</v>
+      </c>
+      <c r="F126">
+        <v>67605</v>
+      </c>
+      <c r="G126">
+        <v>74173</v>
+      </c>
+      <c r="H126">
+        <v>3</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>3</v>
+      </c>
+      <c r="L126">
+        <v>1036</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>46</v>
+      </c>
+      <c r="O126">
+        <v>990</v>
+      </c>
+      <c r="P126">
+        <v>107</v>
+      </c>
+      <c r="Q126">
+        <v>1</v>
+      </c>
+      <c r="R126">
+        <v>21</v>
+      </c>
+      <c r="S126">
+        <v>85</v>
+      </c>
+      <c r="T126">
+        <v>2336</v>
+      </c>
+      <c r="U126">
+        <v>198</v>
+      </c>
+      <c r="V126">
+        <v>790</v>
+      </c>
+      <c r="W126">
+        <v>1348</v>
+      </c>
+      <c r="X126">
+        <v>1775</v>
+      </c>
+      <c r="Y126">
+        <v>24</v>
+      </c>
+      <c r="Z126">
+        <v>124</v>
+      </c>
+      <c r="AA126">
+        <v>1627</v>
+      </c>
+      <c r="AB126">
+        <v>54953</v>
+      </c>
+      <c r="AC126">
+        <v>76</v>
+      </c>
+      <c r="AD126">
+        <v>10594</v>
+      </c>
+      <c r="AE126">
+        <v>44283</v>
+      </c>
+      <c r="AF126">
+        <v>60210</v>
+      </c>
+      <c r="AG126">
+        <v>59171</v>
+      </c>
     </row>
     <row r="127" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -11753,6 +12218,99 @@
       <c r="B127">
         <v>4000</v>
       </c>
+      <c r="C127">
+        <v>49</v>
+      </c>
+      <c r="D127">
+        <v>65</v>
+      </c>
+      <c r="E127">
+        <v>6452</v>
+      </c>
+      <c r="F127">
+        <v>67497</v>
+      </c>
+      <c r="G127">
+        <v>74063</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>2</v>
+      </c>
+      <c r="K127">
+        <v>6</v>
+      </c>
+      <c r="L127">
+        <v>1399</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>44</v>
+      </c>
+      <c r="O127">
+        <v>1355</v>
+      </c>
+      <c r="P127">
+        <v>112</v>
+      </c>
+      <c r="Q127">
+        <v>0</v>
+      </c>
+      <c r="R127">
+        <v>18</v>
+      </c>
+      <c r="S127">
+        <v>94</v>
+      </c>
+      <c r="T127">
+        <v>2280</v>
+      </c>
+      <c r="U127">
+        <v>199</v>
+      </c>
+      <c r="V127">
+        <v>784</v>
+      </c>
+      <c r="W127">
+        <v>1297</v>
+      </c>
+      <c r="X127">
+        <v>1789</v>
+      </c>
+      <c r="Y127">
+        <v>21</v>
+      </c>
+      <c r="Z127">
+        <v>126</v>
+      </c>
+      <c r="AA127">
+        <v>1642</v>
+      </c>
+      <c r="AB127">
+        <v>54873</v>
+      </c>
+      <c r="AC127">
+        <v>81</v>
+      </c>
+      <c r="AD127">
+        <v>10493</v>
+      </c>
+      <c r="AE127">
+        <v>44299</v>
+      </c>
+      <c r="AF127">
+        <v>60461</v>
+      </c>
+      <c r="AG127">
+        <v>59054</v>
+      </c>
     </row>
     <row r="128" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -11761,29 +12319,1461 @@
       <c r="B128">
         <v>4000</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C128">
+        <v>44</v>
+      </c>
+      <c r="D128">
+        <v>60</v>
+      </c>
+      <c r="E128">
+        <v>6457</v>
+      </c>
+      <c r="F128">
+        <v>66976</v>
+      </c>
+      <c r="G128">
+        <v>73537</v>
+      </c>
+      <c r="H128">
+        <v>3</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>1117</v>
+      </c>
+      <c r="M128">
+        <v>0</v>
+      </c>
+      <c r="N128">
+        <v>41</v>
+      </c>
+      <c r="O128">
+        <v>1076</v>
+      </c>
+      <c r="P128">
+        <v>82</v>
+      </c>
+      <c r="Q128">
+        <v>0</v>
+      </c>
+      <c r="R128">
+        <v>8</v>
+      </c>
+      <c r="S128">
+        <v>74</v>
+      </c>
+      <c r="T128">
+        <v>2403</v>
+      </c>
+      <c r="U128">
+        <v>206</v>
+      </c>
+      <c r="V128">
+        <v>831</v>
+      </c>
+      <c r="W128">
+        <v>1366</v>
+      </c>
+      <c r="X128">
+        <v>1708</v>
+      </c>
+      <c r="Y128">
+        <v>21</v>
+      </c>
+      <c r="Z128">
+        <v>96</v>
+      </c>
+      <c r="AA128">
+        <v>1591</v>
+      </c>
+      <c r="AB128">
+        <v>54255</v>
+      </c>
+      <c r="AC128">
+        <v>83</v>
+      </c>
+      <c r="AD128">
+        <v>10661</v>
+      </c>
+      <c r="AE128">
+        <v>43511</v>
+      </c>
+      <c r="AF128">
+        <v>59568</v>
+      </c>
+      <c r="AG128">
+        <v>58448</v>
+      </c>
+    </row>
+    <row r="129" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>5</v>
       </c>
       <c r="B129">
         <v>4000</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C129">
+        <v>62</v>
+      </c>
+      <c r="D129">
+        <v>51</v>
+      </c>
+      <c r="E129">
+        <v>6466</v>
+      </c>
+      <c r="F129">
+        <v>67827</v>
+      </c>
+      <c r="G129">
+        <v>74406</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1145</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>46</v>
+      </c>
+      <c r="O129">
+        <v>1099</v>
+      </c>
+      <c r="P129">
+        <v>100</v>
+      </c>
+      <c r="Q129">
+        <v>0</v>
+      </c>
+      <c r="R129">
+        <v>21</v>
+      </c>
+      <c r="S129">
+        <v>79</v>
+      </c>
+      <c r="T129">
+        <v>2394</v>
+      </c>
+      <c r="U129">
+        <v>209</v>
+      </c>
+      <c r="V129">
+        <v>813</v>
+      </c>
+      <c r="W129">
+        <v>1372</v>
+      </c>
+      <c r="X129">
+        <v>1695</v>
+      </c>
+      <c r="Y129">
+        <v>15</v>
+      </c>
+      <c r="Z129">
+        <v>96</v>
+      </c>
+      <c r="AA129">
+        <v>1584</v>
+      </c>
+      <c r="AB129">
+        <v>55001</v>
+      </c>
+      <c r="AC129">
+        <v>70</v>
+      </c>
+      <c r="AD129">
+        <v>10531</v>
+      </c>
+      <c r="AE129">
+        <v>44400</v>
+      </c>
+      <c r="AF129">
+        <v>60336</v>
+      </c>
+      <c r="AG129">
+        <v>59190</v>
+      </c>
+    </row>
+    <row r="130" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>5</v>
       </c>
       <c r="B130">
         <v>4000</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C130">
+        <v>61</v>
+      </c>
+      <c r="D130">
+        <v>56</v>
+      </c>
+      <c r="E130">
+        <v>6461</v>
+      </c>
+      <c r="F130">
+        <v>67740</v>
+      </c>
+      <c r="G130">
+        <v>74318</v>
+      </c>
+      <c r="H130">
+        <v>4</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>4</v>
+      </c>
+      <c r="L130">
+        <v>1463</v>
+      </c>
+      <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>42</v>
+      </c>
+      <c r="O130">
+        <v>1421</v>
+      </c>
+      <c r="P130">
+        <v>88</v>
+      </c>
+      <c r="Q130">
+        <v>0</v>
+      </c>
+      <c r="R130">
+        <v>11</v>
+      </c>
+      <c r="S130">
+        <v>77</v>
+      </c>
+      <c r="T130">
+        <v>2284</v>
+      </c>
+      <c r="U130">
+        <v>196</v>
+      </c>
+      <c r="V130">
+        <v>805</v>
+      </c>
+      <c r="W130">
+        <v>1283</v>
+      </c>
+      <c r="X130">
+        <v>1818</v>
+      </c>
+      <c r="Y130">
+        <v>26</v>
+      </c>
+      <c r="Z130">
+        <v>122</v>
+      </c>
+      <c r="AA130">
+        <v>1670</v>
+      </c>
+      <c r="AB130">
+        <v>54955</v>
+      </c>
+      <c r="AC130">
+        <v>84</v>
+      </c>
+      <c r="AD130">
+        <v>10650</v>
+      </c>
+      <c r="AE130">
+        <v>44221</v>
+      </c>
+      <c r="AF130">
+        <v>60612</v>
+      </c>
+      <c r="AG130">
+        <v>59145</v>
+      </c>
+    </row>
+    <row r="131" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>5</v>
       </c>
       <c r="B131">
         <v>4000</v>
+      </c>
+      <c r="C131">
+        <v>49</v>
+      </c>
+      <c r="D131">
+        <v>58</v>
+      </c>
+      <c r="E131">
+        <v>6459</v>
+      </c>
+      <c r="F131">
+        <v>67626</v>
+      </c>
+      <c r="G131">
+        <v>74192</v>
+      </c>
+      <c r="H131">
+        <v>3</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>0</v>
+      </c>
+      <c r="K131">
+        <v>3</v>
+      </c>
+      <c r="L131">
+        <v>1126</v>
+      </c>
+      <c r="M131">
+        <v>0</v>
+      </c>
+      <c r="N131">
+        <v>37</v>
+      </c>
+      <c r="O131">
+        <v>1089</v>
+      </c>
+      <c r="P131">
+        <v>87</v>
+      </c>
+      <c r="Q131">
+        <v>0</v>
+      </c>
+      <c r="R131">
+        <v>14</v>
+      </c>
+      <c r="S131">
+        <v>73</v>
+      </c>
+      <c r="T131">
+        <v>2235</v>
+      </c>
+      <c r="U131">
+        <v>194</v>
+      </c>
+      <c r="V131">
+        <v>770</v>
+      </c>
+      <c r="W131">
+        <v>1271</v>
+      </c>
+      <c r="X131">
+        <v>1820</v>
+      </c>
+      <c r="Y131">
+        <v>27</v>
+      </c>
+      <c r="Z131">
+        <v>131</v>
+      </c>
+      <c r="AA131">
+        <v>1662</v>
+      </c>
+      <c r="AB131">
+        <v>54876</v>
+      </c>
+      <c r="AC131">
+        <v>66</v>
+      </c>
+      <c r="AD131">
+        <v>10646</v>
+      </c>
+      <c r="AE131">
+        <v>44164</v>
+      </c>
+      <c r="AF131">
+        <v>60147</v>
+      </c>
+      <c r="AG131">
+        <v>59018</v>
+      </c>
+    </row>
+    <row r="132" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5</v>
+      </c>
+      <c r="B132">
+        <v>10000</v>
+      </c>
+      <c r="C132">
+        <v>131</v>
+      </c>
+      <c r="D132">
+        <v>115</v>
+      </c>
+      <c r="E132">
+        <v>16838</v>
+      </c>
+      <c r="F132">
+        <v>67530</v>
+      </c>
+      <c r="G132">
+        <v>84614</v>
+      </c>
+      <c r="H132">
+        <v>18</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>3</v>
+      </c>
+      <c r="K132">
+        <v>15</v>
+      </c>
+      <c r="L132">
+        <v>829</v>
+      </c>
+      <c r="M132">
+        <v>0</v>
+      </c>
+      <c r="N132">
+        <v>39</v>
+      </c>
+      <c r="O132">
+        <v>790</v>
+      </c>
+      <c r="P132">
+        <v>204</v>
+      </c>
+      <c r="Q132">
+        <v>1</v>
+      </c>
+      <c r="R132">
+        <v>39</v>
+      </c>
+      <c r="S132">
+        <v>164</v>
+      </c>
+      <c r="T132">
+        <v>5950</v>
+      </c>
+      <c r="U132">
+        <v>401</v>
+      </c>
+      <c r="V132">
+        <v>1837</v>
+      </c>
+      <c r="W132">
+        <v>3712</v>
+      </c>
+      <c r="X132">
+        <v>2875</v>
+      </c>
+      <c r="Y132">
+        <v>31</v>
+      </c>
+      <c r="Z132">
+        <v>186</v>
+      </c>
+      <c r="AA132">
+        <v>2658</v>
+      </c>
+      <c r="AB132">
+        <v>52811</v>
+      </c>
+      <c r="AC132">
+        <v>83</v>
+      </c>
+      <c r="AD132">
+        <v>10219</v>
+      </c>
+      <c r="AE132">
+        <v>42509</v>
+      </c>
+      <c r="AF132">
+        <v>62687</v>
+      </c>
+      <c r="AG132">
+        <v>61840</v>
+      </c>
+    </row>
+    <row r="133" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>5</v>
+      </c>
+      <c r="B133">
+        <v>10000</v>
+      </c>
+      <c r="C133">
+        <v>112</v>
+      </c>
+      <c r="D133">
+        <v>123</v>
+      </c>
+      <c r="E133">
+        <v>16830</v>
+      </c>
+      <c r="F133">
+        <v>67549</v>
+      </c>
+      <c r="G133">
+        <v>84614</v>
+      </c>
+      <c r="H133">
+        <v>18</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>17</v>
+      </c>
+      <c r="L133">
+        <v>1058</v>
+      </c>
+      <c r="M133">
+        <v>0</v>
+      </c>
+      <c r="N133">
+        <v>30</v>
+      </c>
+      <c r="O133">
+        <v>1028</v>
+      </c>
+      <c r="P133">
+        <v>213</v>
+      </c>
+      <c r="Q133">
+        <v>0</v>
+      </c>
+      <c r="R133">
+        <v>38</v>
+      </c>
+      <c r="S133">
+        <v>175</v>
+      </c>
+      <c r="T133">
+        <v>5896</v>
+      </c>
+      <c r="U133">
+        <v>399</v>
+      </c>
+      <c r="V133">
+        <v>1850</v>
+      </c>
+      <c r="W133">
+        <v>3647</v>
+      </c>
+      <c r="X133">
+        <v>2983</v>
+      </c>
+      <c r="Y133">
+        <v>33</v>
+      </c>
+      <c r="Z133">
+        <v>188</v>
+      </c>
+      <c r="AA133">
+        <v>2762</v>
+      </c>
+      <c r="AB133">
+        <v>52554</v>
+      </c>
+      <c r="AC133">
+        <v>84</v>
+      </c>
+      <c r="AD133">
+        <v>10315</v>
+      </c>
+      <c r="AE133">
+        <v>42155</v>
+      </c>
+      <c r="AF133">
+        <v>62722</v>
+      </c>
+      <c r="AG133">
+        <v>61646</v>
+      </c>
+    </row>
+    <row r="134" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>5</v>
+      </c>
+      <c r="B134">
+        <v>10000</v>
+      </c>
+      <c r="C134">
+        <v>150</v>
+      </c>
+      <c r="D134">
+        <v>105</v>
+      </c>
+      <c r="E134">
+        <v>16848</v>
+      </c>
+      <c r="F134">
+        <v>67541</v>
+      </c>
+      <c r="G134">
+        <v>84644</v>
+      </c>
+      <c r="H134">
+        <v>20</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>3</v>
+      </c>
+      <c r="K134">
+        <v>17</v>
+      </c>
+      <c r="L134">
+        <v>1127</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>46</v>
+      </c>
+      <c r="O134">
+        <v>1081</v>
+      </c>
+      <c r="P134">
+        <v>246</v>
+      </c>
+      <c r="Q134">
+        <v>1</v>
+      </c>
+      <c r="R134">
+        <v>48</v>
+      </c>
+      <c r="S134">
+        <v>197</v>
+      </c>
+      <c r="T134">
+        <v>6017</v>
+      </c>
+      <c r="U134">
+        <v>400</v>
+      </c>
+      <c r="V134">
+        <v>1861</v>
+      </c>
+      <c r="W134">
+        <v>3756</v>
+      </c>
+      <c r="X134">
+        <v>2821</v>
+      </c>
+      <c r="Y134">
+        <v>35</v>
+      </c>
+      <c r="Z134">
+        <v>174</v>
+      </c>
+      <c r="AA134">
+        <v>2612</v>
+      </c>
+      <c r="AB134">
+        <v>52623</v>
+      </c>
+      <c r="AC134">
+        <v>66</v>
+      </c>
+      <c r="AD134">
+        <v>10347</v>
+      </c>
+      <c r="AE134">
+        <v>42210</v>
+      </c>
+      <c r="AF134">
+        <v>62854</v>
+      </c>
+      <c r="AG134">
+        <v>61707</v>
+      </c>
+    </row>
+    <row r="135" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>5</v>
+      </c>
+      <c r="B135">
+        <v>10000</v>
+      </c>
+      <c r="C135">
+        <v>105</v>
+      </c>
+      <c r="D135">
+        <v>125</v>
+      </c>
+      <c r="E135">
+        <v>16828</v>
+      </c>
+      <c r="F135">
+        <v>67056</v>
+      </c>
+      <c r="G135">
+        <v>84114</v>
+      </c>
+      <c r="H135">
+        <v>23</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>3</v>
+      </c>
+      <c r="K135">
+        <v>20</v>
+      </c>
+      <c r="L135">
+        <v>981</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>46</v>
+      </c>
+      <c r="O135">
+        <v>935</v>
+      </c>
+      <c r="P135">
+        <v>210</v>
+      </c>
+      <c r="Q135">
+        <v>0</v>
+      </c>
+      <c r="R135">
+        <v>37</v>
+      </c>
+      <c r="S135">
+        <v>173</v>
+      </c>
+      <c r="T135">
+        <v>5952</v>
+      </c>
+      <c r="U135">
+        <v>403</v>
+      </c>
+      <c r="V135">
+        <v>1843</v>
+      </c>
+      <c r="W135">
+        <v>3706</v>
+      </c>
+      <c r="X135">
+        <v>2932</v>
+      </c>
+      <c r="Y135">
+        <v>34</v>
+      </c>
+      <c r="Z135">
+        <v>190</v>
+      </c>
+      <c r="AA135">
+        <v>2708</v>
+      </c>
+      <c r="AB135">
+        <v>52440</v>
+      </c>
+      <c r="AC135">
+        <v>85</v>
+      </c>
+      <c r="AD135">
+        <v>10392</v>
+      </c>
+      <c r="AE135">
+        <v>41963</v>
+      </c>
+      <c r="AF135">
+        <v>62538</v>
+      </c>
+      <c r="AG135">
+        <v>61534</v>
+      </c>
+    </row>
+    <row r="136" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>5</v>
+      </c>
+      <c r="B136">
+        <v>10000</v>
+      </c>
+      <c r="C136">
+        <v>112</v>
+      </c>
+      <c r="D136">
+        <v>121</v>
+      </c>
+      <c r="E136">
+        <v>16832</v>
+      </c>
+      <c r="F136">
+        <v>67203</v>
+      </c>
+      <c r="G136">
+        <v>84268</v>
+      </c>
+      <c r="H136">
+        <v>18</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>5</v>
+      </c>
+      <c r="K136">
+        <v>13</v>
+      </c>
+      <c r="L136">
+        <v>1086</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>43</v>
+      </c>
+      <c r="O136">
+        <v>1043</v>
+      </c>
+      <c r="P136">
+        <v>190</v>
+      </c>
+      <c r="Q136">
+        <v>0</v>
+      </c>
+      <c r="R136">
+        <v>38</v>
+      </c>
+      <c r="S136">
+        <v>152</v>
+      </c>
+      <c r="T136">
+        <v>5831</v>
+      </c>
+      <c r="U136">
+        <v>395</v>
+      </c>
+      <c r="V136">
+        <v>1829</v>
+      </c>
+      <c r="W136">
+        <v>3607</v>
+      </c>
+      <c r="X136">
+        <v>3011</v>
+      </c>
+      <c r="Y136">
+        <v>37</v>
+      </c>
+      <c r="Z136">
+        <v>203</v>
+      </c>
+      <c r="AA136">
+        <v>2771</v>
+      </c>
+      <c r="AB136">
+        <v>52234</v>
+      </c>
+      <c r="AC136">
+        <v>89</v>
+      </c>
+      <c r="AD136">
+        <v>10298</v>
+      </c>
+      <c r="AE136">
+        <v>41847</v>
+      </c>
+      <c r="AF136">
+        <v>62370</v>
+      </c>
+      <c r="AG136">
+        <v>61266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>10000</v>
+      </c>
+      <c r="C137">
+        <v>132</v>
+      </c>
+      <c r="D137">
+        <v>114</v>
+      </c>
+      <c r="E137">
+        <v>16839</v>
+      </c>
+      <c r="F137">
+        <v>67612</v>
+      </c>
+      <c r="G137">
+        <v>84697</v>
+      </c>
+      <c r="H137">
+        <v>19</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>3</v>
+      </c>
+      <c r="K137">
+        <v>16</v>
+      </c>
+      <c r="L137">
+        <v>1114</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>57</v>
+      </c>
+      <c r="O137">
+        <v>1057</v>
+      </c>
+      <c r="P137">
+        <v>216</v>
+      </c>
+      <c r="Q137">
+        <v>0</v>
+      </c>
+      <c r="R137">
+        <v>43</v>
+      </c>
+      <c r="S137">
+        <v>173</v>
+      </c>
+      <c r="T137">
+        <v>5988</v>
+      </c>
+      <c r="U137">
+        <v>401</v>
+      </c>
+      <c r="V137">
+        <v>1867</v>
+      </c>
+      <c r="W137">
+        <v>3720</v>
+      </c>
+      <c r="X137">
+        <v>2898</v>
+      </c>
+      <c r="Y137">
+        <v>30</v>
+      </c>
+      <c r="Z137">
+        <v>172</v>
+      </c>
+      <c r="AA137">
+        <v>2696</v>
+      </c>
+      <c r="AB137">
+        <v>52699</v>
+      </c>
+      <c r="AC137">
+        <v>86</v>
+      </c>
+      <c r="AD137">
+        <v>10324</v>
+      </c>
+      <c r="AE137">
+        <v>42289</v>
+      </c>
+      <c r="AF137">
+        <v>62934</v>
+      </c>
+      <c r="AG137">
+        <v>61801</v>
+      </c>
+    </row>
+    <row r="138" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>5</v>
+      </c>
+      <c r="B138">
+        <v>10000</v>
+      </c>
+      <c r="C138">
+        <v>103</v>
+      </c>
+      <c r="D138">
+        <v>122</v>
+      </c>
+      <c r="E138">
+        <v>16831</v>
+      </c>
+      <c r="F138">
+        <v>67668</v>
+      </c>
+      <c r="G138">
+        <v>84724</v>
+      </c>
+      <c r="H138">
+        <v>19</v>
+      </c>
+      <c r="I138">
+        <v>0</v>
+      </c>
+      <c r="J138">
+        <v>3</v>
+      </c>
+      <c r="K138">
+        <v>16</v>
+      </c>
+      <c r="L138">
+        <v>867</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>34</v>
+      </c>
+      <c r="O138">
+        <v>833</v>
+      </c>
+      <c r="P138">
+        <v>180</v>
+      </c>
+      <c r="Q138">
+        <v>0</v>
+      </c>
+      <c r="R138">
+        <v>36</v>
+      </c>
+      <c r="S138">
+        <v>144</v>
+      </c>
+      <c r="T138">
+        <v>5956</v>
+      </c>
+      <c r="U138">
+        <v>400</v>
+      </c>
+      <c r="V138">
+        <v>1846</v>
+      </c>
+      <c r="W138">
+        <v>3710</v>
+      </c>
+      <c r="X138">
+        <v>2916</v>
+      </c>
+      <c r="Y138">
+        <v>38</v>
+      </c>
+      <c r="Z138">
+        <v>185</v>
+      </c>
+      <c r="AA138">
+        <v>2693</v>
+      </c>
+      <c r="AB138">
+        <v>52739</v>
+      </c>
+      <c r="AC138">
+        <v>87</v>
+      </c>
+      <c r="AD138">
+        <v>10187</v>
+      </c>
+      <c r="AE138">
+        <v>42465</v>
+      </c>
+      <c r="AF138">
+        <v>62677</v>
+      </c>
+      <c r="AG138">
+        <v>61791</v>
+      </c>
+    </row>
+    <row r="139" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>5</v>
+      </c>
+      <c r="B139">
+        <v>10000</v>
+      </c>
+      <c r="C139">
+        <v>122</v>
+      </c>
+      <c r="D139">
+        <v>121</v>
+      </c>
+      <c r="E139">
+        <v>16832</v>
+      </c>
+      <c r="F139">
+        <v>67107</v>
+      </c>
+      <c r="G139">
+        <v>84182</v>
+      </c>
+      <c r="H139">
+        <v>20</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>5</v>
+      </c>
+      <c r="K139">
+        <v>15</v>
+      </c>
+      <c r="L139">
+        <v>1228</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>42</v>
+      </c>
+      <c r="O139">
+        <v>1186</v>
+      </c>
+      <c r="P139">
+        <v>196</v>
+      </c>
+      <c r="Q139">
+        <v>2</v>
+      </c>
+      <c r="R139">
+        <v>34</v>
+      </c>
+      <c r="S139">
+        <v>160</v>
+      </c>
+      <c r="T139">
+        <v>5935</v>
+      </c>
+      <c r="U139">
+        <v>397</v>
+      </c>
+      <c r="V139">
+        <v>1814</v>
+      </c>
+      <c r="W139">
+        <v>3724</v>
+      </c>
+      <c r="X139">
+        <v>2936</v>
+      </c>
+      <c r="Y139">
+        <v>34</v>
+      </c>
+      <c r="Z139">
+        <v>213</v>
+      </c>
+      <c r="AA139">
+        <v>2689</v>
+      </c>
+      <c r="AB139">
+        <v>52394</v>
+      </c>
+      <c r="AC139">
+        <v>93</v>
+      </c>
+      <c r="AD139">
+        <v>10344</v>
+      </c>
+      <c r="AE139">
+        <v>41957</v>
+      </c>
+      <c r="AF139">
+        <v>62709</v>
+      </c>
+      <c r="AG139">
+        <v>61461</v>
+      </c>
+    </row>
+    <row r="140" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>5</v>
+      </c>
+      <c r="B140">
+        <v>10000</v>
+      </c>
+      <c r="C140">
+        <v>111</v>
+      </c>
+      <c r="D140">
+        <v>130</v>
+      </c>
+      <c r="E140">
+        <v>16823</v>
+      </c>
+      <c r="F140">
+        <v>67253</v>
+      </c>
+      <c r="G140">
+        <v>84317</v>
+      </c>
+      <c r="H140">
+        <v>23</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>3</v>
+      </c>
+      <c r="K140">
+        <v>20</v>
+      </c>
+      <c r="L140">
+        <v>1016</v>
+      </c>
+      <c r="M140">
+        <v>0</v>
+      </c>
+      <c r="N140">
+        <v>42</v>
+      </c>
+      <c r="O140">
+        <v>974</v>
+      </c>
+      <c r="P140">
+        <v>218</v>
+      </c>
+      <c r="Q140">
+        <v>0</v>
+      </c>
+      <c r="R140">
+        <v>28</v>
+      </c>
+      <c r="S140">
+        <v>190</v>
+      </c>
+      <c r="T140">
+        <v>6002</v>
+      </c>
+      <c r="U140">
+        <v>408</v>
+      </c>
+      <c r="V140">
+        <v>1844</v>
+      </c>
+      <c r="W140">
+        <v>3750</v>
+      </c>
+      <c r="X140">
+        <v>2863</v>
+      </c>
+      <c r="Y140">
+        <v>33</v>
+      </c>
+      <c r="Z140">
+        <v>194</v>
+      </c>
+      <c r="AA140">
+        <v>2636</v>
+      </c>
+      <c r="AB140">
+        <v>52271</v>
+      </c>
+      <c r="AC140">
+        <v>101</v>
+      </c>
+      <c r="AD140">
+        <v>10261</v>
+      </c>
+      <c r="AE140">
+        <v>41909</v>
+      </c>
+      <c r="AF140">
+        <v>62393</v>
+      </c>
+      <c r="AG140">
+        <v>61354</v>
+      </c>
+    </row>
+    <row r="141" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>5</v>
+      </c>
+      <c r="B141">
+        <v>10000</v>
+      </c>
+      <c r="C141">
+        <v>119</v>
+      </c>
+      <c r="D141">
+        <v>118</v>
+      </c>
+      <c r="E141">
+        <v>16835</v>
+      </c>
+      <c r="F141">
+        <v>66965</v>
+      </c>
+      <c r="G141">
+        <v>84037</v>
+      </c>
+      <c r="H141">
+        <v>15</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>15</v>
+      </c>
+      <c r="L141">
+        <v>897</v>
+      </c>
+      <c r="M141">
+        <v>0</v>
+      </c>
+      <c r="N141">
+        <v>49</v>
+      </c>
+      <c r="O141">
+        <v>848</v>
+      </c>
+      <c r="P141">
+        <v>210</v>
+      </c>
+      <c r="Q141">
+        <v>0</v>
+      </c>
+      <c r="R141">
+        <v>29</v>
+      </c>
+      <c r="S141">
+        <v>181</v>
+      </c>
+      <c r="T141">
+        <v>5905</v>
+      </c>
+      <c r="U141">
+        <v>401</v>
+      </c>
+      <c r="V141">
+        <v>1838</v>
+      </c>
+      <c r="W141">
+        <v>3666</v>
+      </c>
+      <c r="X141">
+        <v>2980</v>
+      </c>
+      <c r="Y141">
+        <v>38</v>
+      </c>
+      <c r="Z141">
+        <v>205</v>
+      </c>
+      <c r="AA141">
+        <v>2737</v>
+      </c>
+      <c r="AB141">
+        <v>52148</v>
+      </c>
+      <c r="AC141">
+        <v>104</v>
+      </c>
+      <c r="AD141">
+        <v>10164</v>
+      </c>
+      <c r="AE141">
+        <v>41880</v>
+      </c>
+      <c r="AF141">
+        <v>62155</v>
+      </c>
+      <c r="AG141">
+        <v>61243</v>
+      </c>
+    </row>
+    <row r="142" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="144" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE440EA7-0118-4480-BFC7-376DA22473A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B6E627-245F-47FC-9E1B-AD9E3484E730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_extinction" sheetId="6" r:id="rId1"/>
@@ -556,11 +556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
-  <dimension ref="A1:AG151"/>
+  <dimension ref="A1:AG171"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B142" sqref="B142"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A161" sqref="A161:XFD161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13730,50 +13730,2100 @@
       <c r="A142">
         <v>5</v>
       </c>
+      <c r="B142">
+        <v>25000</v>
+      </c>
+      <c r="C142">
+        <v>244</v>
+      </c>
+      <c r="D142">
+        <v>361</v>
+      </c>
+      <c r="E142">
+        <v>40045</v>
+      </c>
+      <c r="F142">
+        <v>67350</v>
+      </c>
+      <c r="G142">
+        <v>108000</v>
+      </c>
+      <c r="H142">
+        <v>30</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>5</v>
+      </c>
+      <c r="K142">
+        <v>25</v>
+      </c>
+      <c r="L142">
+        <v>743</v>
+      </c>
+      <c r="M142">
+        <v>0</v>
+      </c>
+      <c r="N142">
+        <v>42</v>
+      </c>
+      <c r="O142">
+        <v>701</v>
+      </c>
+      <c r="P142">
+        <v>362</v>
+      </c>
+      <c r="Q142">
+        <v>0</v>
+      </c>
+      <c r="R142">
+        <v>67</v>
+      </c>
+      <c r="S142">
+        <v>295</v>
+      </c>
+      <c r="T142">
+        <v>12579</v>
+      </c>
+      <c r="U142">
+        <v>884</v>
+      </c>
+      <c r="V142">
+        <v>3820</v>
+      </c>
+      <c r="W142">
+        <v>7875</v>
+      </c>
+      <c r="X142">
+        <v>3598</v>
+      </c>
+      <c r="Y142">
+        <v>50</v>
+      </c>
+      <c r="Z142">
+        <v>284</v>
+      </c>
+      <c r="AA142">
+        <v>3264</v>
+      </c>
+      <c r="AB142">
+        <v>46688</v>
+      </c>
+      <c r="AC142">
+        <v>86</v>
+      </c>
+      <c r="AD142">
+        <v>9687</v>
+      </c>
+      <c r="AE142">
+        <v>36915</v>
+      </c>
+      <c r="AF142">
+        <v>64000</v>
+      </c>
+      <c r="AG142">
+        <v>63227</v>
+      </c>
     </row>
     <row r="143" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>5</v>
       </c>
+      <c r="B143">
+        <v>25000</v>
+      </c>
+      <c r="C143">
+        <v>235</v>
+      </c>
+      <c r="D143">
+        <v>331</v>
+      </c>
+      <c r="E143">
+        <v>40075</v>
+      </c>
+      <c r="F143">
+        <v>67244</v>
+      </c>
+      <c r="G143">
+        <v>107885</v>
+      </c>
+      <c r="H143">
+        <v>40</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>6</v>
+      </c>
+      <c r="K143">
+        <v>34</v>
+      </c>
+      <c r="L143">
+        <v>880</v>
+      </c>
+      <c r="M143">
+        <v>0</v>
+      </c>
+      <c r="N143">
+        <v>35</v>
+      </c>
+      <c r="O143">
+        <v>845</v>
+      </c>
+      <c r="P143">
+        <v>327</v>
+      </c>
+      <c r="Q143">
+        <v>1</v>
+      </c>
+      <c r="R143">
+        <v>57</v>
+      </c>
+      <c r="S143">
+        <v>269</v>
+      </c>
+      <c r="T143">
+        <v>12567</v>
+      </c>
+      <c r="U143">
+        <v>887</v>
+      </c>
+      <c r="V143">
+        <v>3816</v>
+      </c>
+      <c r="W143">
+        <v>7864</v>
+      </c>
+      <c r="X143">
+        <v>3583</v>
+      </c>
+      <c r="Y143">
+        <v>52</v>
+      </c>
+      <c r="Z143">
+        <v>300</v>
+      </c>
+      <c r="AA143">
+        <v>3231</v>
+      </c>
+      <c r="AB143">
+        <v>46787</v>
+      </c>
+      <c r="AC143">
+        <v>87</v>
+      </c>
+      <c r="AD143">
+        <v>9612</v>
+      </c>
+      <c r="AE143">
+        <v>37088</v>
+      </c>
+      <c r="AF143">
+        <v>64184</v>
+      </c>
+      <c r="AG143">
+        <v>63264</v>
+      </c>
     </row>
     <row r="144" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>5</v>
       </c>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B144">
+        <v>25000</v>
+      </c>
+      <c r="C144">
+        <v>281</v>
+      </c>
+      <c r="D144">
+        <v>335</v>
+      </c>
+      <c r="E144">
+        <v>40071</v>
+      </c>
+      <c r="F144">
+        <v>67337</v>
+      </c>
+      <c r="G144">
+        <v>108024</v>
+      </c>
+      <c r="H144">
+        <v>30</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>5</v>
+      </c>
+      <c r="K144">
+        <v>25</v>
+      </c>
+      <c r="L144">
+        <v>1072</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>51</v>
+      </c>
+      <c r="O144">
+        <v>1021</v>
+      </c>
+      <c r="P144">
+        <v>330</v>
+      </c>
+      <c r="Q144">
+        <v>2</v>
+      </c>
+      <c r="R144">
+        <v>66</v>
+      </c>
+      <c r="S144">
+        <v>262</v>
+      </c>
+      <c r="T144">
+        <v>12609</v>
+      </c>
+      <c r="U144">
+        <v>895</v>
+      </c>
+      <c r="V144">
+        <v>3834</v>
+      </c>
+      <c r="W144">
+        <v>7880</v>
+      </c>
+      <c r="X144">
+        <v>3659</v>
+      </c>
+      <c r="Y144">
+        <v>52</v>
+      </c>
+      <c r="Z144">
+        <v>299</v>
+      </c>
+      <c r="AA144">
+        <v>3308</v>
+      </c>
+      <c r="AB144">
+        <v>47128</v>
+      </c>
+      <c r="AC144">
+        <v>77</v>
+      </c>
+      <c r="AD144">
+        <v>9801</v>
+      </c>
+      <c r="AE144">
+        <v>37250</v>
+      </c>
+      <c r="AF144">
+        <v>64828</v>
+      </c>
+      <c r="AG144">
+        <v>63726</v>
+      </c>
+    </row>
+    <row r="145" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>25000</v>
+      </c>
+      <c r="C145">
+        <v>242</v>
+      </c>
+      <c r="D145">
+        <v>339</v>
+      </c>
+      <c r="E145">
+        <v>40067</v>
+      </c>
+      <c r="F145">
+        <v>67640</v>
+      </c>
+      <c r="G145">
+        <v>108288</v>
+      </c>
+      <c r="H145">
+        <v>41</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>6</v>
+      </c>
+      <c r="K145">
+        <v>35</v>
+      </c>
+      <c r="L145">
+        <v>836</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>50</v>
+      </c>
+      <c r="O145">
+        <v>786</v>
+      </c>
+      <c r="P145">
+        <v>338</v>
+      </c>
+      <c r="Q145">
+        <v>0</v>
+      </c>
+      <c r="R145">
+        <v>58</v>
+      </c>
+      <c r="S145">
+        <v>280</v>
+      </c>
+      <c r="T145">
+        <v>12556</v>
+      </c>
+      <c r="U145">
+        <v>895</v>
+      </c>
+      <c r="V145">
+        <v>3810</v>
+      </c>
+      <c r="W145">
+        <v>7851</v>
+      </c>
+      <c r="X145">
+        <v>3766</v>
+      </c>
+      <c r="Y145">
+        <v>52</v>
+      </c>
+      <c r="Z145">
+        <v>314</v>
+      </c>
+      <c r="AA145">
+        <v>3400</v>
+      </c>
+      <c r="AB145">
+        <v>47481</v>
+      </c>
+      <c r="AC145">
+        <v>77</v>
+      </c>
+      <c r="AD145">
+        <v>9734</v>
+      </c>
+      <c r="AE145">
+        <v>37670</v>
+      </c>
+      <c r="AF145">
+        <v>65018</v>
+      </c>
+      <c r="AG145">
+        <v>64141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>5</v>
       </c>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>25000</v>
+      </c>
+      <c r="C146">
+        <v>257</v>
+      </c>
+      <c r="D146">
+        <v>337</v>
+      </c>
+      <c r="E146">
+        <v>40069</v>
+      </c>
+      <c r="F146">
+        <v>67044</v>
+      </c>
+      <c r="G146">
+        <v>107707</v>
+      </c>
+      <c r="H146">
+        <v>35</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>7</v>
+      </c>
+      <c r="K146">
+        <v>28</v>
+      </c>
+      <c r="L146">
+        <v>913</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>44</v>
+      </c>
+      <c r="O146">
+        <v>869</v>
+      </c>
+      <c r="P146">
+        <v>294</v>
+      </c>
+      <c r="Q146">
+        <v>0</v>
+      </c>
+      <c r="R146">
+        <v>51</v>
+      </c>
+      <c r="S146">
+        <v>243</v>
+      </c>
+      <c r="T146">
+        <v>12584</v>
+      </c>
+      <c r="U146">
+        <v>891</v>
+      </c>
+      <c r="V146">
+        <v>3812</v>
+      </c>
+      <c r="W146">
+        <v>7881</v>
+      </c>
+      <c r="X146">
+        <v>3686</v>
+      </c>
+      <c r="Y146">
+        <v>56</v>
+      </c>
+      <c r="Z146">
+        <v>313</v>
+      </c>
+      <c r="AA146">
+        <v>3317</v>
+      </c>
+      <c r="AB146">
+        <v>46883</v>
+      </c>
+      <c r="AC146">
+        <v>69</v>
+      </c>
+      <c r="AD146">
+        <v>9850</v>
+      </c>
+      <c r="AE146">
+        <v>36964</v>
+      </c>
+      <c r="AF146">
+        <v>64395</v>
+      </c>
+      <c r="AG146">
+        <v>63447</v>
+      </c>
+    </row>
+    <row r="147" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>5</v>
       </c>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B147">
+        <v>25000</v>
+      </c>
+      <c r="C147">
+        <v>258</v>
+      </c>
+      <c r="D147">
+        <v>329</v>
+      </c>
+      <c r="E147">
+        <v>40077</v>
+      </c>
+      <c r="F147">
+        <v>67630</v>
+      </c>
+      <c r="G147">
+        <v>108294</v>
+      </c>
+      <c r="H147">
+        <v>30</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>7</v>
+      </c>
+      <c r="K147">
+        <v>23</v>
+      </c>
+      <c r="L147">
+        <v>1041</v>
+      </c>
+      <c r="M147">
+        <v>0</v>
+      </c>
+      <c r="N147">
+        <v>40</v>
+      </c>
+      <c r="O147">
+        <v>1001</v>
+      </c>
+      <c r="P147">
+        <v>306</v>
+      </c>
+      <c r="Q147">
+        <v>0</v>
+      </c>
+      <c r="R147">
+        <v>51</v>
+      </c>
+      <c r="S147">
+        <v>255</v>
+      </c>
+      <c r="T147">
+        <v>12609</v>
+      </c>
+      <c r="U147">
+        <v>890</v>
+      </c>
+      <c r="V147">
+        <v>3851</v>
+      </c>
+      <c r="W147">
+        <v>7868</v>
+      </c>
+      <c r="X147">
+        <v>3670</v>
+      </c>
+      <c r="Y147">
+        <v>61</v>
+      </c>
+      <c r="Z147">
+        <v>285</v>
+      </c>
+      <c r="AA147">
+        <v>3324</v>
+      </c>
+      <c r="AB147">
+        <v>47225</v>
+      </c>
+      <c r="AC147">
+        <v>77</v>
+      </c>
+      <c r="AD147">
+        <v>9680</v>
+      </c>
+      <c r="AE147">
+        <v>37468</v>
+      </c>
+      <c r="AF147">
+        <v>64881</v>
+      </c>
+      <c r="AG147">
+        <v>63810</v>
+      </c>
+    </row>
+    <row r="148" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B148">
+        <v>25000</v>
+      </c>
+      <c r="C148">
+        <v>241</v>
+      </c>
+      <c r="D148">
+        <v>352</v>
+      </c>
+      <c r="E148">
+        <v>40054</v>
+      </c>
+      <c r="F148">
+        <v>67396</v>
+      </c>
+      <c r="G148">
+        <v>108043</v>
+      </c>
+      <c r="H148">
+        <v>41</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>5</v>
+      </c>
+      <c r="K148">
+        <v>36</v>
+      </c>
+      <c r="L148">
+        <v>918</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>41</v>
+      </c>
+      <c r="O148">
+        <v>877</v>
+      </c>
+      <c r="P148">
+        <v>304</v>
+      </c>
+      <c r="Q148">
+        <v>0</v>
+      </c>
+      <c r="R148">
+        <v>51</v>
+      </c>
+      <c r="S148">
+        <v>253</v>
+      </c>
+      <c r="T148">
+        <v>12442</v>
+      </c>
+      <c r="U148">
+        <v>894</v>
+      </c>
+      <c r="V148">
+        <v>3801</v>
+      </c>
+      <c r="W148">
+        <v>7747</v>
+      </c>
+      <c r="X148">
+        <v>3774</v>
+      </c>
+      <c r="Y148">
+        <v>50</v>
+      </c>
+      <c r="Z148">
+        <v>305</v>
+      </c>
+      <c r="AA148">
+        <v>3419</v>
+      </c>
+      <c r="AB148">
+        <v>46993</v>
+      </c>
+      <c r="AC148">
+        <v>87</v>
+      </c>
+      <c r="AD148">
+        <v>9558</v>
+      </c>
+      <c r="AE148">
+        <v>37348</v>
+      </c>
+      <c r="AF148">
+        <v>64472</v>
+      </c>
+      <c r="AG148">
+        <v>63513</v>
+      </c>
+    </row>
+    <row r="149" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>25000</v>
+      </c>
+      <c r="C149">
+        <v>251</v>
+      </c>
+      <c r="D149">
+        <v>328</v>
+      </c>
+      <c r="E149">
+        <v>40078</v>
+      </c>
+      <c r="F149">
+        <v>67520</v>
+      </c>
+      <c r="G149">
+        <v>108177</v>
+      </c>
+      <c r="H149">
+        <v>32</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>5</v>
+      </c>
+      <c r="K149">
+        <v>27</v>
+      </c>
+      <c r="L149">
+        <v>868</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>36</v>
+      </c>
+      <c r="O149">
+        <v>832</v>
+      </c>
+      <c r="P149">
+        <v>300</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>56</v>
+      </c>
+      <c r="S149">
+        <v>242</v>
+      </c>
+      <c r="T149">
+        <v>12261</v>
+      </c>
+      <c r="U149">
+        <v>892</v>
+      </c>
+      <c r="V149">
+        <v>3758</v>
+      </c>
+      <c r="W149">
+        <v>7611</v>
+      </c>
+      <c r="X149">
+        <v>3876</v>
+      </c>
+      <c r="Y149">
+        <v>58</v>
+      </c>
+      <c r="Z149">
+        <v>334</v>
+      </c>
+      <c r="AA149">
+        <v>3484</v>
+      </c>
+      <c r="AB149">
+        <v>47395</v>
+      </c>
+      <c r="AC149">
+        <v>85</v>
+      </c>
+      <c r="AD149">
+        <v>9769</v>
+      </c>
+      <c r="AE149">
+        <v>37541</v>
+      </c>
+      <c r="AF149">
+        <v>64732</v>
+      </c>
+      <c r="AG149">
+        <v>63832</v>
+      </c>
+    </row>
+    <row r="150" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>5</v>
       </c>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>25000</v>
+      </c>
+      <c r="C150">
+        <v>269</v>
+      </c>
+      <c r="D150">
+        <v>315</v>
+      </c>
+      <c r="E150">
+        <v>40091</v>
+      </c>
+      <c r="F150">
+        <v>66638</v>
+      </c>
+      <c r="G150">
+        <v>107313</v>
+      </c>
+      <c r="H150">
+        <v>30</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>29</v>
+      </c>
+      <c r="L150">
+        <v>978</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>50</v>
+      </c>
+      <c r="O150">
+        <v>928</v>
+      </c>
+      <c r="P150">
+        <v>307</v>
+      </c>
+      <c r="Q150">
+        <v>0</v>
+      </c>
+      <c r="R150">
+        <v>60</v>
+      </c>
+      <c r="S150">
+        <v>247</v>
+      </c>
+      <c r="T150">
+        <v>12503</v>
+      </c>
+      <c r="U150">
+        <v>898</v>
+      </c>
+      <c r="V150">
+        <v>3810</v>
+      </c>
+      <c r="W150">
+        <v>7795</v>
+      </c>
+      <c r="X150">
+        <v>3723</v>
+      </c>
+      <c r="Y150">
+        <v>52</v>
+      </c>
+      <c r="Z150">
+        <v>316</v>
+      </c>
+      <c r="AA150">
+        <v>3355</v>
+      </c>
+      <c r="AB150">
+        <v>46599</v>
+      </c>
+      <c r="AC150">
+        <v>92</v>
+      </c>
+      <c r="AD150">
+        <v>9815</v>
+      </c>
+      <c r="AE150">
+        <v>36692</v>
+      </c>
+      <c r="AF150">
+        <v>64140</v>
+      </c>
+      <c r="AG150">
+        <v>63132</v>
+      </c>
+    </row>
+    <row r="151" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
+      </c>
+      <c r="B151">
+        <v>25000</v>
+      </c>
+      <c r="C151">
+        <v>276</v>
+      </c>
+      <c r="D151">
+        <v>307</v>
+      </c>
+      <c r="E151">
+        <v>40099</v>
+      </c>
+      <c r="F151">
+        <v>66883</v>
+      </c>
+      <c r="G151">
+        <v>107565</v>
+      </c>
+      <c r="H151">
+        <v>36</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>3</v>
+      </c>
+      <c r="K151">
+        <v>33</v>
+      </c>
+      <c r="L151">
+        <v>862</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>55</v>
+      </c>
+      <c r="O151">
+        <v>807</v>
+      </c>
+      <c r="P151">
+        <v>325</v>
+      </c>
+      <c r="Q151">
+        <v>2</v>
+      </c>
+      <c r="R151">
+        <v>58</v>
+      </c>
+      <c r="S151">
+        <v>265</v>
+      </c>
+      <c r="T151">
+        <v>12542</v>
+      </c>
+      <c r="U151">
+        <v>900</v>
+      </c>
+      <c r="V151">
+        <v>3808</v>
+      </c>
+      <c r="W151">
+        <v>7834</v>
+      </c>
+      <c r="X151">
+        <v>3650</v>
+      </c>
+      <c r="Y151">
+        <v>53</v>
+      </c>
+      <c r="Z151">
+        <v>310</v>
+      </c>
+      <c r="AA151">
+        <v>3287</v>
+      </c>
+      <c r="AB151">
+        <v>46743</v>
+      </c>
+      <c r="AC151">
+        <v>80</v>
+      </c>
+      <c r="AD151">
+        <v>9733</v>
+      </c>
+      <c r="AE151">
+        <v>36930</v>
+      </c>
+      <c r="AF151">
+        <v>64158</v>
+      </c>
+      <c r="AG151">
+        <v>63260</v>
+      </c>
+    </row>
+    <row r="152" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>640</v>
+      </c>
+      <c r="C152">
+        <v>129</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152">
+        <v>1320</v>
+      </c>
+      <c r="F152">
+        <v>351868</v>
+      </c>
+      <c r="G152">
+        <v>353323</v>
+      </c>
+      <c r="H152">
+        <v>0</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>5587</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>396</v>
+      </c>
+      <c r="O152">
+        <v>5191</v>
+      </c>
+      <c r="P152">
+        <v>249</v>
+      </c>
+      <c r="Q152">
+        <v>0</v>
+      </c>
+      <c r="R152">
+        <v>49</v>
+      </c>
+      <c r="S152">
+        <v>200</v>
+      </c>
+      <c r="T152">
+        <v>410</v>
+      </c>
+      <c r="U152">
+        <v>30</v>
+      </c>
+      <c r="V152">
+        <v>176</v>
+      </c>
+      <c r="W152">
+        <v>204</v>
+      </c>
+      <c r="X152">
+        <v>504</v>
+      </c>
+      <c r="Y152">
+        <v>7</v>
+      </c>
+      <c r="Z152">
+        <v>75</v>
+      </c>
+      <c r="AA152">
+        <v>422</v>
+      </c>
+      <c r="AB152">
+        <v>249967</v>
+      </c>
+      <c r="AC152">
+        <v>83</v>
+      </c>
+      <c r="AD152">
+        <v>44122</v>
+      </c>
+      <c r="AE152">
+        <v>205762</v>
+      </c>
+      <c r="AF152">
+        <v>256717</v>
+      </c>
+      <c r="AG152">
+        <v>251130</v>
+      </c>
+    </row>
+    <row r="153" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>640</v>
+      </c>
+      <c r="C153">
+        <v>197</v>
+      </c>
+      <c r="D153">
+        <v>13</v>
+      </c>
+      <c r="E153">
+        <v>1313</v>
+      </c>
+      <c r="F153">
+        <v>351155</v>
+      </c>
+      <c r="G153">
+        <v>352678</v>
+      </c>
+      <c r="H153">
+        <v>7</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>6</v>
+      </c>
+      <c r="L153">
+        <v>5744</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>408</v>
+      </c>
+      <c r="O153">
+        <v>5336</v>
+      </c>
+      <c r="P153">
+        <v>286</v>
+      </c>
+      <c r="Q153">
+        <v>0</v>
+      </c>
+      <c r="R153">
+        <v>48</v>
+      </c>
+      <c r="S153">
+        <v>238</v>
+      </c>
+      <c r="T153">
+        <v>443</v>
+      </c>
+      <c r="U153">
+        <v>32</v>
+      </c>
+      <c r="V153">
+        <v>202</v>
+      </c>
+      <c r="W153">
+        <v>209</v>
+      </c>
+      <c r="X153">
+        <v>438</v>
+      </c>
+      <c r="Y153">
+        <v>5</v>
+      </c>
+      <c r="Z153">
+        <v>47</v>
+      </c>
+      <c r="AA153">
+        <v>386</v>
+      </c>
+      <c r="AB153">
+        <v>248763</v>
+      </c>
+      <c r="AC153">
+        <v>90</v>
+      </c>
+      <c r="AD153">
+        <v>44221</v>
+      </c>
+      <c r="AE153">
+        <v>204452</v>
+      </c>
+      <c r="AF153">
+        <v>255681</v>
+      </c>
+      <c r="AG153">
+        <v>249930</v>
+      </c>
+    </row>
+    <row r="154" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>640</v>
+      </c>
+      <c r="C154">
+        <v>132</v>
+      </c>
+      <c r="D154">
+        <v>18</v>
+      </c>
+      <c r="E154">
+        <v>1308</v>
+      </c>
+      <c r="F154">
+        <v>351359</v>
+      </c>
+      <c r="G154">
+        <v>352817</v>
+      </c>
+      <c r="H154">
+        <v>6</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>5</v>
+      </c>
+      <c r="L154">
+        <v>6505</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>364</v>
+      </c>
+      <c r="O154">
+        <v>6141</v>
+      </c>
+      <c r="P154">
+        <v>247</v>
+      </c>
+      <c r="Q154">
+        <v>0</v>
+      </c>
+      <c r="R154">
+        <v>48</v>
+      </c>
+      <c r="S154">
+        <v>199</v>
+      </c>
+      <c r="T154">
+        <v>412</v>
+      </c>
+      <c r="U154">
+        <v>33</v>
+      </c>
+      <c r="V154">
+        <v>184</v>
+      </c>
+      <c r="W154">
+        <v>195</v>
+      </c>
+      <c r="X154">
+        <v>472</v>
+      </c>
+      <c r="Y154">
+        <v>6</v>
+      </c>
+      <c r="Z154">
+        <v>59</v>
+      </c>
+      <c r="AA154">
+        <v>407</v>
+      </c>
+      <c r="AB154">
+        <v>249769</v>
+      </c>
+      <c r="AC154">
+        <v>78</v>
+      </c>
+      <c r="AD154">
+        <v>44059</v>
+      </c>
+      <c r="AE154">
+        <v>205632</v>
+      </c>
+      <c r="AF154">
+        <v>257411</v>
+      </c>
+      <c r="AG154">
+        <v>250900</v>
+      </c>
+    </row>
+    <row r="155" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>640</v>
+      </c>
+      <c r="C155">
+        <v>109</v>
+      </c>
+      <c r="D155">
+        <v>15</v>
+      </c>
+      <c r="E155">
+        <v>1311</v>
+      </c>
+      <c r="F155">
+        <v>351396</v>
+      </c>
+      <c r="G155">
+        <v>352831</v>
+      </c>
+      <c r="H155">
+        <v>5</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>5</v>
+      </c>
+      <c r="L155">
+        <v>5884</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>397</v>
+      </c>
+      <c r="O155">
+        <v>5487</v>
+      </c>
+      <c r="P155">
+        <v>229</v>
+      </c>
+      <c r="Q155">
+        <v>0</v>
+      </c>
+      <c r="R155">
+        <v>36</v>
+      </c>
+      <c r="S155">
+        <v>193</v>
+      </c>
+      <c r="T155">
+        <v>417</v>
+      </c>
+      <c r="U155">
+        <v>33</v>
+      </c>
+      <c r="V155">
+        <v>194</v>
+      </c>
+      <c r="W155">
+        <v>190</v>
+      </c>
+      <c r="X155">
+        <v>451</v>
+      </c>
+      <c r="Y155">
+        <v>7</v>
+      </c>
+      <c r="Z155">
+        <v>55</v>
+      </c>
+      <c r="AA155">
+        <v>389</v>
+      </c>
+      <c r="AB155">
+        <v>249498</v>
+      </c>
+      <c r="AC155">
+        <v>87</v>
+      </c>
+      <c r="AD155">
+        <v>44468</v>
+      </c>
+      <c r="AE155">
+        <v>204943</v>
+      </c>
+      <c r="AF155">
+        <v>256484</v>
+      </c>
+      <c r="AG155">
+        <v>250595</v>
+      </c>
+    </row>
+    <row r="156" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>640</v>
+      </c>
+      <c r="C156">
+        <v>145</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156">
+        <v>1320</v>
+      </c>
+      <c r="F156">
+        <v>351098</v>
+      </c>
+      <c r="G156">
+        <v>352569</v>
+      </c>
+      <c r="H156">
+        <v>7</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>7</v>
+      </c>
+      <c r="L156">
+        <v>5511</v>
+      </c>
+      <c r="M156">
+        <v>0</v>
+      </c>
+      <c r="N156">
+        <v>374</v>
+      </c>
+      <c r="O156">
+        <v>5137</v>
+      </c>
+      <c r="P156">
+        <v>273</v>
+      </c>
+      <c r="Q156">
+        <v>0</v>
+      </c>
+      <c r="R156">
+        <v>44</v>
+      </c>
+      <c r="S156">
+        <v>229</v>
+      </c>
+      <c r="T156">
+        <v>438</v>
+      </c>
+      <c r="U156">
+        <v>37</v>
+      </c>
+      <c r="V156">
+        <v>192</v>
+      </c>
+      <c r="W156">
+        <v>209</v>
+      </c>
+      <c r="X156">
+        <v>457</v>
+      </c>
+      <c r="Y156">
+        <v>3</v>
+      </c>
+      <c r="Z156">
+        <v>57</v>
+      </c>
+      <c r="AA156">
+        <v>397</v>
+      </c>
+      <c r="AB156">
+        <v>249235</v>
+      </c>
+      <c r="AC156">
+        <v>78</v>
+      </c>
+      <c r="AD156">
+        <v>44295</v>
+      </c>
+      <c r="AE156">
+        <v>204862</v>
+      </c>
+      <c r="AF156">
+        <v>255921</v>
+      </c>
+      <c r="AG156">
+        <v>250403</v>
+      </c>
+    </row>
+    <row r="157" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>640</v>
+      </c>
+      <c r="C157">
+        <v>128</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157">
+        <v>1319</v>
+      </c>
+      <c r="F157">
+        <v>351555</v>
+      </c>
+      <c r="G157">
+        <v>353009</v>
+      </c>
+      <c r="H157">
+        <v>5</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>3</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>5687</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>377</v>
+      </c>
+      <c r="O157">
+        <v>5310</v>
+      </c>
+      <c r="P157">
+        <v>234</v>
+      </c>
+      <c r="Q157">
+        <v>0</v>
+      </c>
+      <c r="R157">
+        <v>37</v>
+      </c>
+      <c r="S157">
+        <v>197</v>
+      </c>
+      <c r="T157">
+        <v>391</v>
+      </c>
+      <c r="U157">
+        <v>34</v>
+      </c>
+      <c r="V157">
+        <v>182</v>
+      </c>
+      <c r="W157">
+        <v>175</v>
+      </c>
+      <c r="X157">
+        <v>491</v>
+      </c>
+      <c r="Y157">
+        <v>6</v>
+      </c>
+      <c r="Z157">
+        <v>67</v>
+      </c>
+      <c r="AA157">
+        <v>418</v>
+      </c>
+      <c r="AB157">
+        <v>248183</v>
+      </c>
+      <c r="AC157">
+        <v>95</v>
+      </c>
+      <c r="AD157">
+        <v>44530</v>
+      </c>
+      <c r="AE157">
+        <v>203558</v>
+      </c>
+      <c r="AF157">
+        <v>254991</v>
+      </c>
+      <c r="AG157">
+        <v>249299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>640</v>
+      </c>
+      <c r="C158">
+        <v>153</v>
+      </c>
+      <c r="D158">
+        <v>15</v>
+      </c>
+      <c r="E158">
+        <v>1311</v>
+      </c>
+      <c r="F158">
+        <v>350384</v>
+      </c>
+      <c r="G158">
+        <v>351863</v>
+      </c>
+      <c r="H158">
+        <v>2</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>2</v>
+      </c>
+      <c r="L158">
+        <v>5168</v>
+      </c>
+      <c r="M158">
+        <v>0</v>
+      </c>
+      <c r="N158">
+        <v>378</v>
+      </c>
+      <c r="O158">
+        <v>4790</v>
+      </c>
+      <c r="P158">
+        <v>221</v>
+      </c>
+      <c r="Q158">
+        <v>0</v>
+      </c>
+      <c r="R158">
+        <v>39</v>
+      </c>
+      <c r="S158">
+        <v>182</v>
+      </c>
+      <c r="T158">
+        <v>413</v>
+      </c>
+      <c r="U158">
+        <v>35</v>
+      </c>
+      <c r="V158">
+        <v>187</v>
+      </c>
+      <c r="W158">
+        <v>191</v>
+      </c>
+      <c r="X158">
+        <v>461</v>
+      </c>
+      <c r="Y158">
+        <v>4</v>
+      </c>
+      <c r="Z158">
+        <v>63</v>
+      </c>
+      <c r="AA158">
+        <v>394</v>
+      </c>
+      <c r="AB158">
+        <v>248514</v>
+      </c>
+      <c r="AC158">
+        <v>82</v>
+      </c>
+      <c r="AD158">
+        <v>44494</v>
+      </c>
+      <c r="AE158">
+        <v>203938</v>
+      </c>
+      <c r="AF158">
+        <v>254779</v>
+      </c>
+      <c r="AG158">
+        <v>249609</v>
+      </c>
+    </row>
+    <row r="159" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>640</v>
+      </c>
+      <c r="C159">
+        <v>145</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159">
+        <v>1320</v>
+      </c>
+      <c r="F159">
+        <v>351527</v>
+      </c>
+      <c r="G159">
+        <v>352998</v>
+      </c>
+      <c r="H159">
+        <v>3</v>
+      </c>
+      <c r="I159">
+        <v>0</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>2</v>
+      </c>
+      <c r="L159">
+        <v>6169</v>
+      </c>
+      <c r="M159">
+        <v>0</v>
+      </c>
+      <c r="N159">
+        <v>381</v>
+      </c>
+      <c r="O159">
+        <v>5788</v>
+      </c>
+      <c r="P159">
+        <v>267</v>
+      </c>
+      <c r="Q159">
+        <v>0</v>
+      </c>
+      <c r="R159">
+        <v>61</v>
+      </c>
+      <c r="S159">
+        <v>206</v>
+      </c>
+      <c r="T159">
+        <v>451</v>
+      </c>
+      <c r="U159">
+        <v>35</v>
+      </c>
+      <c r="V159">
+        <v>201</v>
+      </c>
+      <c r="W159">
+        <v>215</v>
+      </c>
+      <c r="X159">
+        <v>461</v>
+      </c>
+      <c r="Y159">
+        <v>4</v>
+      </c>
+      <c r="Z159">
+        <v>52</v>
+      </c>
+      <c r="AA159">
+        <v>405</v>
+      </c>
+      <c r="AB159">
+        <v>249785</v>
+      </c>
+      <c r="AC159">
+        <v>100</v>
+      </c>
+      <c r="AD159">
+        <v>44036</v>
+      </c>
+      <c r="AE159">
+        <v>205649</v>
+      </c>
+      <c r="AF159">
+        <v>257136</v>
+      </c>
+      <c r="AG159">
+        <v>250964</v>
+      </c>
+    </row>
+    <row r="160" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>640</v>
+      </c>
+      <c r="C160">
+        <v>129</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160">
+        <v>1320</v>
+      </c>
+      <c r="F160">
+        <v>350869</v>
+      </c>
+      <c r="G160">
+        <v>352324</v>
+      </c>
+      <c r="H160">
+        <v>2</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>5918</v>
+      </c>
+      <c r="M160">
+        <v>0</v>
+      </c>
+      <c r="N160">
+        <v>375</v>
+      </c>
+      <c r="O160">
+        <v>5543</v>
+      </c>
+      <c r="P160">
+        <v>242</v>
+      </c>
+      <c r="Q160">
+        <v>0</v>
+      </c>
+      <c r="R160">
+        <v>49</v>
+      </c>
+      <c r="S160">
+        <v>193</v>
+      </c>
+      <c r="T160">
+        <v>441</v>
+      </c>
+      <c r="U160">
+        <v>34</v>
+      </c>
+      <c r="V160">
+        <v>203</v>
+      </c>
+      <c r="W160">
+        <v>204</v>
+      </c>
+      <c r="X160">
+        <v>473</v>
+      </c>
+      <c r="Y160">
+        <v>6</v>
+      </c>
+      <c r="Z160">
+        <v>56</v>
+      </c>
+      <c r="AA160">
+        <v>411</v>
+      </c>
+      <c r="AB160">
+        <v>249069</v>
+      </c>
+      <c r="AC160">
+        <v>96</v>
+      </c>
+      <c r="AD160">
+        <v>44179</v>
+      </c>
+      <c r="AE160">
+        <v>204794</v>
+      </c>
+      <c r="AF160">
+        <v>256145</v>
+      </c>
+      <c r="AG160">
+        <v>250225</v>
+      </c>
+    </row>
+    <row r="161" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>0</v>
+      </c>
+      <c r="B161">
+        <v>640</v>
+      </c>
+      <c r="C161">
+        <v>118</v>
+      </c>
+      <c r="D161">
+        <v>11</v>
+      </c>
+      <c r="E161">
+        <v>1315</v>
+      </c>
+      <c r="F161">
+        <v>350620</v>
+      </c>
+      <c r="G161">
+        <v>352064</v>
+      </c>
+      <c r="H161">
+        <v>8</v>
+      </c>
+      <c r="I161">
+        <v>0</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>8</v>
+      </c>
+      <c r="L161">
+        <v>5717</v>
+      </c>
+      <c r="M161">
+        <v>0</v>
+      </c>
+      <c r="N161">
+        <v>380</v>
+      </c>
+      <c r="O161">
+        <v>5337</v>
+      </c>
+      <c r="P161">
+        <v>233</v>
+      </c>
+      <c r="Q161">
+        <v>0</v>
+      </c>
+      <c r="R161">
+        <v>39</v>
+      </c>
+      <c r="S161">
+        <v>194</v>
+      </c>
+      <c r="T161">
+        <v>393</v>
+      </c>
+      <c r="U161">
+        <v>31</v>
+      </c>
+      <c r="V161">
+        <v>195</v>
+      </c>
+      <c r="W161">
+        <v>167</v>
+      </c>
+      <c r="X161">
+        <v>503</v>
+      </c>
+      <c r="Y161">
+        <v>5</v>
+      </c>
+      <c r="Z161">
+        <v>57</v>
+      </c>
+      <c r="AA161">
+        <v>441</v>
+      </c>
+      <c r="AB161">
+        <v>249345</v>
+      </c>
+      <c r="AC161">
+        <v>101</v>
+      </c>
+      <c r="AD161">
+        <v>44393</v>
+      </c>
+      <c r="AE161">
+        <v>204851</v>
+      </c>
+      <c r="AF161">
+        <v>256199</v>
+      </c>
+      <c r="AG161">
+        <v>250474</v>
+      </c>
+    </row>
+    <row r="162" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>0</v>
+      </c>
+      <c r="B162">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="163" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>0</v>
+      </c>
+      <c r="B163">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="164" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>0</v>
+      </c>
+      <c r="B164">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>0</v>
+      </c>
+      <c r="B165">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="166" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>0</v>
+      </c>
+      <c r="B166">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="167" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>0</v>
+      </c>
+      <c r="B167">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="168" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>0</v>
+      </c>
+      <c r="B168">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="169" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>0</v>
+      </c>
+      <c r="B169">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="170" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="171" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>0</v>
+      </c>
+      <c r="B171">
+        <v>1600</v>
       </c>
     </row>
   </sheetData>
@@ -23178,7 +25228,7 @@
   <sheetViews>
     <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+      <selection pane="bottomLeft" activeCell="A26" sqref="A26:XFD26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7B6E627-245F-47FC-9E1B-AD9E3484E730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB18286-1F5C-40FE-85A3-C39F17059A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
-  <dimension ref="A1:AG171"/>
+  <dimension ref="A1:AG191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A161" sqref="A161:XFD161"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S181" sqref="S181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15753,6 +15753,99 @@
       <c r="B162">
         <v>1600</v>
       </c>
+      <c r="C162">
+        <v>156</v>
+      </c>
+      <c r="D162">
+        <v>25</v>
+      </c>
+      <c r="E162">
+        <v>2752</v>
+      </c>
+      <c r="F162">
+        <v>351346</v>
+      </c>
+      <c r="G162">
+        <v>354279</v>
+      </c>
+      <c r="H162">
+        <v>4</v>
+      </c>
+      <c r="I162">
+        <v>0</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>3</v>
+      </c>
+      <c r="L162">
+        <v>5362</v>
+      </c>
+      <c r="M162">
+        <v>0</v>
+      </c>
+      <c r="N162">
+        <v>384</v>
+      </c>
+      <c r="O162">
+        <v>4978</v>
+      </c>
+      <c r="P162">
+        <v>354</v>
+      </c>
+      <c r="Q162">
+        <v>0</v>
+      </c>
+      <c r="R162">
+        <v>68</v>
+      </c>
+      <c r="S162">
+        <v>286</v>
+      </c>
+      <c r="T162">
+        <v>918</v>
+      </c>
+      <c r="U162">
+        <v>82</v>
+      </c>
+      <c r="V162">
+        <v>334</v>
+      </c>
+      <c r="W162">
+        <v>502</v>
+      </c>
+      <c r="X162">
+        <v>787</v>
+      </c>
+      <c r="Y162">
+        <v>8</v>
+      </c>
+      <c r="Z162">
+        <v>71</v>
+      </c>
+      <c r="AA162">
+        <v>708</v>
+      </c>
+      <c r="AB162">
+        <v>246532</v>
+      </c>
+      <c r="AC162">
+        <v>104</v>
+      </c>
+      <c r="AD162">
+        <v>44262</v>
+      </c>
+      <c r="AE162">
+        <v>202166</v>
+      </c>
+      <c r="AF162">
+        <v>253957</v>
+      </c>
+      <c r="AG162">
+        <v>248591</v>
+      </c>
     </row>
     <row r="163" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -15761,6 +15854,99 @@
       <c r="B163">
         <v>1600</v>
       </c>
+      <c r="C163">
+        <v>246</v>
+      </c>
+      <c r="D163">
+        <v>22</v>
+      </c>
+      <c r="E163">
+        <v>2755</v>
+      </c>
+      <c r="F163">
+        <v>350666</v>
+      </c>
+      <c r="G163">
+        <v>353689</v>
+      </c>
+      <c r="H163">
+        <v>13</v>
+      </c>
+      <c r="I163">
+        <v>0</v>
+      </c>
+      <c r="J163">
+        <v>2</v>
+      </c>
+      <c r="K163">
+        <v>11</v>
+      </c>
+      <c r="L163">
+        <v>5476</v>
+      </c>
+      <c r="M163">
+        <v>0</v>
+      </c>
+      <c r="N163">
+        <v>374</v>
+      </c>
+      <c r="O163">
+        <v>5102</v>
+      </c>
+      <c r="P163">
+        <v>456</v>
+      </c>
+      <c r="Q163">
+        <v>0</v>
+      </c>
+      <c r="R163">
+        <v>84</v>
+      </c>
+      <c r="S163">
+        <v>372</v>
+      </c>
+      <c r="T163">
+        <v>971</v>
+      </c>
+      <c r="U163">
+        <v>76</v>
+      </c>
+      <c r="V163">
+        <v>347</v>
+      </c>
+      <c r="W163">
+        <v>548</v>
+      </c>
+      <c r="X163">
+        <v>691</v>
+      </c>
+      <c r="Y163">
+        <v>4</v>
+      </c>
+      <c r="Z163">
+        <v>55</v>
+      </c>
+      <c r="AA163">
+        <v>632</v>
+      </c>
+      <c r="AB163">
+        <v>245549</v>
+      </c>
+      <c r="AC163">
+        <v>94</v>
+      </c>
+      <c r="AD163">
+        <v>44222</v>
+      </c>
+      <c r="AE163">
+        <v>201233</v>
+      </c>
+      <c r="AF163">
+        <v>253156</v>
+      </c>
+      <c r="AG163">
+        <v>247667</v>
+      </c>
     </row>
     <row r="164" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -15769,6 +15955,99 @@
       <c r="B164">
         <v>1600</v>
       </c>
+      <c r="C164">
+        <v>202</v>
+      </c>
+      <c r="D164">
+        <v>21</v>
+      </c>
+      <c r="E164">
+        <v>2756</v>
+      </c>
+      <c r="F164">
+        <v>351302</v>
+      </c>
+      <c r="G164">
+        <v>354281</v>
+      </c>
+      <c r="H164">
+        <v>9</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>8</v>
+      </c>
+      <c r="L164">
+        <v>5648</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>370</v>
+      </c>
+      <c r="O164">
+        <v>5278</v>
+      </c>
+      <c r="P164">
+        <v>421</v>
+      </c>
+      <c r="Q164">
+        <v>0</v>
+      </c>
+      <c r="R164">
+        <v>90</v>
+      </c>
+      <c r="S164">
+        <v>331</v>
+      </c>
+      <c r="T164">
+        <v>1025</v>
+      </c>
+      <c r="U164">
+        <v>85</v>
+      </c>
+      <c r="V164">
+        <v>356</v>
+      </c>
+      <c r="W164">
+        <v>584</v>
+      </c>
+      <c r="X164">
+        <v>689</v>
+      </c>
+      <c r="Y164">
+        <v>6</v>
+      </c>
+      <c r="Z164">
+        <v>48</v>
+      </c>
+      <c r="AA164">
+        <v>635</v>
+      </c>
+      <c r="AB164">
+        <v>245393</v>
+      </c>
+      <c r="AC164">
+        <v>79</v>
+      </c>
+      <c r="AD164">
+        <v>43966</v>
+      </c>
+      <c r="AE164">
+        <v>201348</v>
+      </c>
+      <c r="AF164">
+        <v>253185</v>
+      </c>
+      <c r="AG164">
+        <v>247528</v>
+      </c>
     </row>
     <row r="165" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -15777,6 +16056,99 @@
       <c r="B165">
         <v>1600</v>
       </c>
+      <c r="C165">
+        <v>284</v>
+      </c>
+      <c r="D165">
+        <v>25</v>
+      </c>
+      <c r="E165">
+        <v>2752</v>
+      </c>
+      <c r="F165">
+        <v>351998</v>
+      </c>
+      <c r="G165">
+        <v>355059</v>
+      </c>
+      <c r="H165">
+        <v>12</v>
+      </c>
+      <c r="I165">
+        <v>0</v>
+      </c>
+      <c r="J165">
+        <v>2</v>
+      </c>
+      <c r="K165">
+        <v>10</v>
+      </c>
+      <c r="L165">
+        <v>5850</v>
+      </c>
+      <c r="M165">
+        <v>0</v>
+      </c>
+      <c r="N165">
+        <v>357</v>
+      </c>
+      <c r="O165">
+        <v>5493</v>
+      </c>
+      <c r="P165">
+        <v>413</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>78</v>
+      </c>
+      <c r="S165">
+        <v>334</v>
+      </c>
+      <c r="T165">
+        <v>943</v>
+      </c>
+      <c r="U165">
+        <v>82</v>
+      </c>
+      <c r="V165">
+        <v>346</v>
+      </c>
+      <c r="W165">
+        <v>515</v>
+      </c>
+      <c r="X165">
+        <v>729</v>
+      </c>
+      <c r="Y165">
+        <v>5</v>
+      </c>
+      <c r="Z165">
+        <v>59</v>
+      </c>
+      <c r="AA165">
+        <v>665</v>
+      </c>
+      <c r="AB165">
+        <v>247480</v>
+      </c>
+      <c r="AC165">
+        <v>70</v>
+      </c>
+      <c r="AD165">
+        <v>43881</v>
+      </c>
+      <c r="AE165">
+        <v>203529</v>
+      </c>
+      <c r="AF165">
+        <v>255427</v>
+      </c>
+      <c r="AG165">
+        <v>249565</v>
+      </c>
     </row>
     <row r="166" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -15785,6 +16157,99 @@
       <c r="B166">
         <v>1600</v>
       </c>
+      <c r="C166">
+        <v>240</v>
+      </c>
+      <c r="D166">
+        <v>21</v>
+      </c>
+      <c r="E166">
+        <v>2756</v>
+      </c>
+      <c r="F166">
+        <v>350754</v>
+      </c>
+      <c r="G166">
+        <v>353771</v>
+      </c>
+      <c r="H166">
+        <v>11</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>4</v>
+      </c>
+      <c r="K166">
+        <v>7</v>
+      </c>
+      <c r="L166">
+        <v>5573</v>
+      </c>
+      <c r="M166">
+        <v>0</v>
+      </c>
+      <c r="N166">
+        <v>363</v>
+      </c>
+      <c r="O166">
+        <v>5210</v>
+      </c>
+      <c r="P166">
+        <v>357</v>
+      </c>
+      <c r="Q166">
+        <v>0</v>
+      </c>
+      <c r="R166">
+        <v>51</v>
+      </c>
+      <c r="S166">
+        <v>306</v>
+      </c>
+      <c r="T166">
+        <v>949</v>
+      </c>
+      <c r="U166">
+        <v>83</v>
+      </c>
+      <c r="V166">
+        <v>340</v>
+      </c>
+      <c r="W166">
+        <v>526</v>
+      </c>
+      <c r="X166">
+        <v>744</v>
+      </c>
+      <c r="Y166">
+        <v>4</v>
+      </c>
+      <c r="Z166">
+        <v>70</v>
+      </c>
+      <c r="AA166">
+        <v>670</v>
+      </c>
+      <c r="AB166">
+        <v>245270</v>
+      </c>
+      <c r="AC166">
+        <v>84</v>
+      </c>
+      <c r="AD166">
+        <v>44325</v>
+      </c>
+      <c r="AE166">
+        <v>200861</v>
+      </c>
+      <c r="AF166">
+        <v>252904</v>
+      </c>
+      <c r="AG166">
+        <v>247320</v>
+      </c>
     </row>
     <row r="167" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -15793,6 +16258,99 @@
       <c r="B167">
         <v>1600</v>
       </c>
+      <c r="C167">
+        <v>225</v>
+      </c>
+      <c r="D167">
+        <v>22</v>
+      </c>
+      <c r="E167">
+        <v>2755</v>
+      </c>
+      <c r="F167">
+        <v>350549</v>
+      </c>
+      <c r="G167">
+        <v>353551</v>
+      </c>
+      <c r="H167">
+        <v>13</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>12</v>
+      </c>
+      <c r="L167">
+        <v>5476</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>390</v>
+      </c>
+      <c r="O167">
+        <v>5086</v>
+      </c>
+      <c r="P167">
+        <v>434</v>
+      </c>
+      <c r="Q167">
+        <v>0</v>
+      </c>
+      <c r="R167">
+        <v>88</v>
+      </c>
+      <c r="S167">
+        <v>346</v>
+      </c>
+      <c r="T167">
+        <v>961</v>
+      </c>
+      <c r="U167">
+        <v>83</v>
+      </c>
+      <c r="V167">
+        <v>340</v>
+      </c>
+      <c r="W167">
+        <v>538</v>
+      </c>
+      <c r="X167">
+        <v>671</v>
+      </c>
+      <c r="Y167">
+        <v>6</v>
+      </c>
+      <c r="Z167">
+        <v>56</v>
+      </c>
+      <c r="AA167">
+        <v>609</v>
+      </c>
+      <c r="AB167">
+        <v>244459</v>
+      </c>
+      <c r="AC167">
+        <v>88</v>
+      </c>
+      <c r="AD167">
+        <v>44045</v>
+      </c>
+      <c r="AE167">
+        <v>200326</v>
+      </c>
+      <c r="AF167">
+        <v>252014</v>
+      </c>
+      <c r="AG167">
+        <v>246525</v>
+      </c>
     </row>
     <row r="168" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A168">
@@ -15801,6 +16359,99 @@
       <c r="B168">
         <v>1600</v>
       </c>
+      <c r="C168">
+        <v>225</v>
+      </c>
+      <c r="D168">
+        <v>16</v>
+      </c>
+      <c r="E168">
+        <v>2761</v>
+      </c>
+      <c r="F168">
+        <v>351016</v>
+      </c>
+      <c r="G168">
+        <v>354018</v>
+      </c>
+      <c r="H168">
+        <v>11</v>
+      </c>
+      <c r="I168">
+        <v>0</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>10</v>
+      </c>
+      <c r="L168">
+        <v>6464</v>
+      </c>
+      <c r="M168">
+        <v>0</v>
+      </c>
+      <c r="N168">
+        <v>396</v>
+      </c>
+      <c r="O168">
+        <v>6068</v>
+      </c>
+      <c r="P168">
+        <v>435</v>
+      </c>
+      <c r="Q168">
+        <v>1</v>
+      </c>
+      <c r="R168">
+        <v>72</v>
+      </c>
+      <c r="S168">
+        <v>362</v>
+      </c>
+      <c r="T168">
+        <v>959</v>
+      </c>
+      <c r="U168">
+        <v>81</v>
+      </c>
+      <c r="V168">
+        <v>325</v>
+      </c>
+      <c r="W168">
+        <v>553</v>
+      </c>
+      <c r="X168">
+        <v>697</v>
+      </c>
+      <c r="Y168">
+        <v>6</v>
+      </c>
+      <c r="Z168">
+        <v>68</v>
+      </c>
+      <c r="AA168">
+        <v>623</v>
+      </c>
+      <c r="AB168">
+        <v>245730</v>
+      </c>
+      <c r="AC168">
+        <v>94</v>
+      </c>
+      <c r="AD168">
+        <v>44418</v>
+      </c>
+      <c r="AE168">
+        <v>201218</v>
+      </c>
+      <c r="AF168">
+        <v>254296</v>
+      </c>
+      <c r="AG168">
+        <v>247821</v>
+      </c>
     </row>
     <row r="169" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A169">
@@ -15809,6 +16460,99 @@
       <c r="B169">
         <v>1600</v>
       </c>
+      <c r="C169">
+        <v>275</v>
+      </c>
+      <c r="D169">
+        <v>20</v>
+      </c>
+      <c r="E169">
+        <v>2757</v>
+      </c>
+      <c r="F169">
+        <v>350657</v>
+      </c>
+      <c r="G169">
+        <v>353709</v>
+      </c>
+      <c r="H169">
+        <v>5</v>
+      </c>
+      <c r="I169">
+        <v>0</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>5</v>
+      </c>
+      <c r="L169">
+        <v>4790</v>
+      </c>
+      <c r="M169">
+        <v>0</v>
+      </c>
+      <c r="N169">
+        <v>374</v>
+      </c>
+      <c r="O169">
+        <v>4416</v>
+      </c>
+      <c r="P169">
+        <v>418</v>
+      </c>
+      <c r="Q169">
+        <v>0</v>
+      </c>
+      <c r="R169">
+        <v>80</v>
+      </c>
+      <c r="S169">
+        <v>338</v>
+      </c>
+      <c r="T169">
+        <v>944</v>
+      </c>
+      <c r="U169">
+        <v>84</v>
+      </c>
+      <c r="V169">
+        <v>346</v>
+      </c>
+      <c r="W169">
+        <v>514</v>
+      </c>
+      <c r="X169">
+        <v>750</v>
+      </c>
+      <c r="Y169">
+        <v>6</v>
+      </c>
+      <c r="Z169">
+        <v>61</v>
+      </c>
+      <c r="AA169">
+        <v>683</v>
+      </c>
+      <c r="AB169">
+        <v>246299</v>
+      </c>
+      <c r="AC169">
+        <v>104</v>
+      </c>
+      <c r="AD169">
+        <v>44222</v>
+      </c>
+      <c r="AE169">
+        <v>201973</v>
+      </c>
+      <c r="AF169">
+        <v>253206</v>
+      </c>
+      <c r="AG169">
+        <v>248411</v>
+      </c>
     </row>
     <row r="170" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -15817,6 +16561,99 @@
       <c r="B170">
         <v>1600</v>
       </c>
+      <c r="C170">
+        <v>183</v>
+      </c>
+      <c r="D170">
+        <v>20</v>
+      </c>
+      <c r="E170">
+        <v>2757</v>
+      </c>
+      <c r="F170">
+        <v>350930</v>
+      </c>
+      <c r="G170">
+        <v>353890</v>
+      </c>
+      <c r="H170">
+        <v>11</v>
+      </c>
+      <c r="I170">
+        <v>0</v>
+      </c>
+      <c r="J170">
+        <v>4</v>
+      </c>
+      <c r="K170">
+        <v>7</v>
+      </c>
+      <c r="L170">
+        <v>5857</v>
+      </c>
+      <c r="M170">
+        <v>0</v>
+      </c>
+      <c r="N170">
+        <v>356</v>
+      </c>
+      <c r="O170">
+        <v>5501</v>
+      </c>
+      <c r="P170">
+        <v>427</v>
+      </c>
+      <c r="Q170">
+        <v>0</v>
+      </c>
+      <c r="R170">
+        <v>80</v>
+      </c>
+      <c r="S170">
+        <v>347</v>
+      </c>
+      <c r="T170">
+        <v>939</v>
+      </c>
+      <c r="U170">
+        <v>77</v>
+      </c>
+      <c r="V170">
+        <v>329</v>
+      </c>
+      <c r="W170">
+        <v>533</v>
+      </c>
+      <c r="X170">
+        <v>732</v>
+      </c>
+      <c r="Y170">
+        <v>8</v>
+      </c>
+      <c r="Z170">
+        <v>72</v>
+      </c>
+      <c r="AA170">
+        <v>652</v>
+      </c>
+      <c r="AB170">
+        <v>245502</v>
+      </c>
+      <c r="AC170">
+        <v>89</v>
+      </c>
+      <c r="AD170">
+        <v>44080</v>
+      </c>
+      <c r="AE170">
+        <v>201333</v>
+      </c>
+      <c r="AF170">
+        <v>253468</v>
+      </c>
+      <c r="AG170">
+        <v>247600</v>
+      </c>
     </row>
     <row r="171" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -15824,6 +16661,1189 @@
       </c>
       <c r="B171">
         <v>1600</v>
+      </c>
+      <c r="C171">
+        <v>251</v>
+      </c>
+      <c r="D171">
+        <v>22</v>
+      </c>
+      <c r="E171">
+        <v>2755</v>
+      </c>
+      <c r="F171">
+        <v>350727</v>
+      </c>
+      <c r="G171">
+        <v>353755</v>
+      </c>
+      <c r="H171">
+        <v>9</v>
+      </c>
+      <c r="I171">
+        <v>0</v>
+      </c>
+      <c r="J171">
+        <v>3</v>
+      </c>
+      <c r="K171">
+        <v>6</v>
+      </c>
+      <c r="L171">
+        <v>5672</v>
+      </c>
+      <c r="M171">
+        <v>0</v>
+      </c>
+      <c r="N171">
+        <v>343</v>
+      </c>
+      <c r="O171">
+        <v>5329</v>
+      </c>
+      <c r="P171">
+        <v>334</v>
+      </c>
+      <c r="Q171">
+        <v>0</v>
+      </c>
+      <c r="R171">
+        <v>54</v>
+      </c>
+      <c r="S171">
+        <v>280</v>
+      </c>
+      <c r="T171">
+        <v>905</v>
+      </c>
+      <c r="U171">
+        <v>81</v>
+      </c>
+      <c r="V171">
+        <v>316</v>
+      </c>
+      <c r="W171">
+        <v>508</v>
+      </c>
+      <c r="X171">
+        <v>753</v>
+      </c>
+      <c r="Y171">
+        <v>9</v>
+      </c>
+      <c r="Z171">
+        <v>81</v>
+      </c>
+      <c r="AA171">
+        <v>663</v>
+      </c>
+      <c r="AB171">
+        <v>245144</v>
+      </c>
+      <c r="AC171">
+        <v>92</v>
+      </c>
+      <c r="AD171">
+        <v>43989</v>
+      </c>
+      <c r="AE171">
+        <v>201063</v>
+      </c>
+      <c r="AF171">
+        <v>252817</v>
+      </c>
+      <c r="AG171">
+        <v>247136</v>
+      </c>
+    </row>
+    <row r="172" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>0</v>
+      </c>
+      <c r="B172">
+        <v>4000</v>
+      </c>
+      <c r="C172">
+        <v>444</v>
+      </c>
+      <c r="D172">
+        <v>52</v>
+      </c>
+      <c r="E172">
+        <v>6469</v>
+      </c>
+      <c r="F172">
+        <v>351452</v>
+      </c>
+      <c r="G172">
+        <v>358417</v>
+      </c>
+      <c r="H172">
+        <v>20</v>
+      </c>
+      <c r="I172">
+        <v>0</v>
+      </c>
+      <c r="J172">
+        <v>7</v>
+      </c>
+      <c r="K172">
+        <v>13</v>
+      </c>
+      <c r="L172">
+        <v>5967</v>
+      </c>
+      <c r="M172">
+        <v>0</v>
+      </c>
+      <c r="N172">
+        <v>424</v>
+      </c>
+      <c r="O172">
+        <v>5543</v>
+      </c>
+      <c r="P172">
+        <v>728</v>
+      </c>
+      <c r="Q172">
+        <v>0</v>
+      </c>
+      <c r="R172">
+        <v>129</v>
+      </c>
+      <c r="S172">
+        <v>599</v>
+      </c>
+      <c r="T172">
+        <v>2453</v>
+      </c>
+      <c r="U172">
+        <v>204</v>
+      </c>
+      <c r="V172">
+        <v>865</v>
+      </c>
+      <c r="W172">
+        <v>1384</v>
+      </c>
+      <c r="X172">
+        <v>1208</v>
+      </c>
+      <c r="Y172">
+        <v>18</v>
+      </c>
+      <c r="Z172">
+        <v>84</v>
+      </c>
+      <c r="AA172">
+        <v>1106</v>
+      </c>
+      <c r="AB172">
+        <v>238799</v>
+      </c>
+      <c r="AC172">
+        <v>79</v>
+      </c>
+      <c r="AD172">
+        <v>43631</v>
+      </c>
+      <c r="AE172">
+        <v>195089</v>
+      </c>
+      <c r="AF172">
+        <v>249175</v>
+      </c>
+      <c r="AG172">
+        <v>243188</v>
+      </c>
+    </row>
+    <row r="173" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>0</v>
+      </c>
+      <c r="B173">
+        <v>4000</v>
+      </c>
+      <c r="C173">
+        <v>465</v>
+      </c>
+      <c r="D173">
+        <v>58</v>
+      </c>
+      <c r="E173">
+        <v>6463</v>
+      </c>
+      <c r="F173">
+        <v>351019</v>
+      </c>
+      <c r="G173">
+        <v>358005</v>
+      </c>
+      <c r="H173">
+        <v>24</v>
+      </c>
+      <c r="I173">
+        <v>0</v>
+      </c>
+      <c r="J173">
+        <v>8</v>
+      </c>
+      <c r="K173">
+        <v>16</v>
+      </c>
+      <c r="L173">
+        <v>5482</v>
+      </c>
+      <c r="M173">
+        <v>0</v>
+      </c>
+      <c r="N173">
+        <v>377</v>
+      </c>
+      <c r="O173">
+        <v>5105</v>
+      </c>
+      <c r="P173">
+        <v>714</v>
+      </c>
+      <c r="Q173">
+        <v>0</v>
+      </c>
+      <c r="R173">
+        <v>119</v>
+      </c>
+      <c r="S173">
+        <v>595</v>
+      </c>
+      <c r="T173">
+        <v>2443</v>
+      </c>
+      <c r="U173">
+        <v>207</v>
+      </c>
+      <c r="V173">
+        <v>853</v>
+      </c>
+      <c r="W173">
+        <v>1383</v>
+      </c>
+      <c r="X173">
+        <v>1200</v>
+      </c>
+      <c r="Y173">
+        <v>18</v>
+      </c>
+      <c r="Z173">
+        <v>83</v>
+      </c>
+      <c r="AA173">
+        <v>1099</v>
+      </c>
+      <c r="AB173">
+        <v>239647</v>
+      </c>
+      <c r="AC173">
+        <v>83</v>
+      </c>
+      <c r="AD173">
+        <v>43645</v>
+      </c>
+      <c r="AE173">
+        <v>195919</v>
+      </c>
+      <c r="AF173">
+        <v>249510</v>
+      </c>
+      <c r="AG173">
+        <v>244004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>0</v>
+      </c>
+      <c r="B174">
+        <v>4000</v>
+      </c>
+      <c r="C174">
+        <v>473</v>
+      </c>
+      <c r="D174">
+        <v>58</v>
+      </c>
+      <c r="E174">
+        <v>6463</v>
+      </c>
+      <c r="F174">
+        <v>350841</v>
+      </c>
+      <c r="G174">
+        <v>357835</v>
+      </c>
+      <c r="H174">
+        <v>19</v>
+      </c>
+      <c r="I174">
+        <v>0</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>18</v>
+      </c>
+      <c r="L174">
+        <v>4956</v>
+      </c>
+      <c r="M174">
+        <v>0</v>
+      </c>
+      <c r="N174">
+        <v>418</v>
+      </c>
+      <c r="O174">
+        <v>4538</v>
+      </c>
+      <c r="P174">
+        <v>766</v>
+      </c>
+      <c r="Q174">
+        <v>0</v>
+      </c>
+      <c r="R174">
+        <v>129</v>
+      </c>
+      <c r="S174">
+        <v>637</v>
+      </c>
+      <c r="T174">
+        <v>2489</v>
+      </c>
+      <c r="U174">
+        <v>194</v>
+      </c>
+      <c r="V174">
+        <v>852</v>
+      </c>
+      <c r="W174">
+        <v>1443</v>
+      </c>
+      <c r="X174">
+        <v>1195</v>
+      </c>
+      <c r="Y174">
+        <v>20</v>
+      </c>
+      <c r="Z174">
+        <v>108</v>
+      </c>
+      <c r="AA174">
+        <v>1067</v>
+      </c>
+      <c r="AB174">
+        <v>240725</v>
+      </c>
+      <c r="AC174">
+        <v>85</v>
+      </c>
+      <c r="AD174">
+        <v>43879</v>
+      </c>
+      <c r="AE174">
+        <v>196761</v>
+      </c>
+      <c r="AF174">
+        <v>250150</v>
+      </c>
+      <c r="AG174">
+        <v>245175</v>
+      </c>
+    </row>
+    <row r="175" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>0</v>
+      </c>
+      <c r="B175">
+        <v>4000</v>
+      </c>
+      <c r="C175">
+        <v>470</v>
+      </c>
+      <c r="D175">
+        <v>53</v>
+      </c>
+      <c r="E175">
+        <v>6468</v>
+      </c>
+      <c r="F175">
+        <v>350387</v>
+      </c>
+      <c r="G175">
+        <v>357378</v>
+      </c>
+      <c r="H175">
+        <v>21</v>
+      </c>
+      <c r="I175">
+        <v>0</v>
+      </c>
+      <c r="J175">
+        <v>5</v>
+      </c>
+      <c r="K175">
+        <v>16</v>
+      </c>
+      <c r="L175">
+        <v>5261</v>
+      </c>
+      <c r="M175">
+        <v>0</v>
+      </c>
+      <c r="N175">
+        <v>395</v>
+      </c>
+      <c r="O175">
+        <v>4866</v>
+      </c>
+      <c r="P175">
+        <v>705</v>
+      </c>
+      <c r="Q175">
+        <v>0</v>
+      </c>
+      <c r="R175">
+        <v>123</v>
+      </c>
+      <c r="S175">
+        <v>582</v>
+      </c>
+      <c r="T175">
+        <v>2403</v>
+      </c>
+      <c r="U175">
+        <v>198</v>
+      </c>
+      <c r="V175">
+        <v>852</v>
+      </c>
+      <c r="W175">
+        <v>1353</v>
+      </c>
+      <c r="X175">
+        <v>1314</v>
+      </c>
+      <c r="Y175">
+        <v>22</v>
+      </c>
+      <c r="Z175">
+        <v>110</v>
+      </c>
+      <c r="AA175">
+        <v>1182</v>
+      </c>
+      <c r="AB175">
+        <v>240462</v>
+      </c>
+      <c r="AC175">
+        <v>85</v>
+      </c>
+      <c r="AD175">
+        <v>43797</v>
+      </c>
+      <c r="AE175">
+        <v>196580</v>
+      </c>
+      <c r="AF175">
+        <v>250166</v>
+      </c>
+      <c r="AG175">
+        <v>244884</v>
+      </c>
+    </row>
+    <row r="176" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>0</v>
+      </c>
+      <c r="B176">
+        <v>4000</v>
+      </c>
+      <c r="C176">
+        <v>532</v>
+      </c>
+      <c r="D176">
+        <v>60</v>
+      </c>
+      <c r="E176">
+        <v>6461</v>
+      </c>
+      <c r="F176">
+        <v>350287</v>
+      </c>
+      <c r="G176">
+        <v>357340</v>
+      </c>
+      <c r="H176">
+        <v>25</v>
+      </c>
+      <c r="I176">
+        <v>0</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>24</v>
+      </c>
+      <c r="L176">
+        <v>4734</v>
+      </c>
+      <c r="M176">
+        <v>0</v>
+      </c>
+      <c r="N176">
+        <v>373</v>
+      </c>
+      <c r="O176">
+        <v>4361</v>
+      </c>
+      <c r="P176">
+        <v>714</v>
+      </c>
+      <c r="Q176">
+        <v>0</v>
+      </c>
+      <c r="R176">
+        <v>116</v>
+      </c>
+      <c r="S176">
+        <v>598</v>
+      </c>
+      <c r="T176">
+        <v>2458</v>
+      </c>
+      <c r="U176">
+        <v>202</v>
+      </c>
+      <c r="V176">
+        <v>842</v>
+      </c>
+      <c r="W176">
+        <v>1414</v>
+      </c>
+      <c r="X176">
+        <v>1188</v>
+      </c>
+      <c r="Y176">
+        <v>18</v>
+      </c>
+      <c r="Z176">
+        <v>97</v>
+      </c>
+      <c r="AA176">
+        <v>1073</v>
+      </c>
+      <c r="AB176">
+        <v>238928</v>
+      </c>
+      <c r="AC176">
+        <v>81</v>
+      </c>
+      <c r="AD176">
+        <v>43901</v>
+      </c>
+      <c r="AE176">
+        <v>194946</v>
+      </c>
+      <c r="AF176">
+        <v>248047</v>
+      </c>
+      <c r="AG176">
+        <v>243288</v>
+      </c>
+    </row>
+    <row r="177" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>0</v>
+      </c>
+      <c r="B177">
+        <v>4000</v>
+      </c>
+      <c r="C177">
+        <v>514</v>
+      </c>
+      <c r="D177">
+        <v>49</v>
+      </c>
+      <c r="E177">
+        <v>6472</v>
+      </c>
+      <c r="F177">
+        <v>350739</v>
+      </c>
+      <c r="G177">
+        <v>357774</v>
+      </c>
+      <c r="H177">
+        <v>25</v>
+      </c>
+      <c r="I177">
+        <v>0</v>
+      </c>
+      <c r="J177">
+        <v>3</v>
+      </c>
+      <c r="K177">
+        <v>22</v>
+      </c>
+      <c r="L177">
+        <v>5517</v>
+      </c>
+      <c r="M177">
+        <v>0</v>
+      </c>
+      <c r="N177">
+        <v>397</v>
+      </c>
+      <c r="O177">
+        <v>5120</v>
+      </c>
+      <c r="P177">
+        <v>693</v>
+      </c>
+      <c r="Q177">
+        <v>0</v>
+      </c>
+      <c r="R177">
+        <v>121</v>
+      </c>
+      <c r="S177">
+        <v>572</v>
+      </c>
+      <c r="T177">
+        <v>2481</v>
+      </c>
+      <c r="U177">
+        <v>207</v>
+      </c>
+      <c r="V177">
+        <v>869</v>
+      </c>
+      <c r="W177">
+        <v>1405</v>
+      </c>
+      <c r="X177">
+        <v>1221</v>
+      </c>
+      <c r="Y177">
+        <v>17</v>
+      </c>
+      <c r="Z177">
+        <v>99</v>
+      </c>
+      <c r="AA177">
+        <v>1105</v>
+      </c>
+      <c r="AB177">
+        <v>240264</v>
+      </c>
+      <c r="AC177">
+        <v>89</v>
+      </c>
+      <c r="AD177">
+        <v>43982</v>
+      </c>
+      <c r="AE177">
+        <v>196193</v>
+      </c>
+      <c r="AF177">
+        <v>250201</v>
+      </c>
+      <c r="AG177">
+        <v>244659</v>
+      </c>
+    </row>
+    <row r="178" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>0</v>
+      </c>
+      <c r="B178">
+        <v>4000</v>
+      </c>
+      <c r="C178">
+        <v>479</v>
+      </c>
+      <c r="D178">
+        <v>63</v>
+      </c>
+      <c r="E178">
+        <v>6458</v>
+      </c>
+      <c r="F178">
+        <v>350518</v>
+      </c>
+      <c r="G178">
+        <v>357518</v>
+      </c>
+      <c r="H178">
+        <v>22</v>
+      </c>
+      <c r="I178">
+        <v>0</v>
+      </c>
+      <c r="J178">
+        <v>6</v>
+      </c>
+      <c r="K178">
+        <v>16</v>
+      </c>
+      <c r="L178">
+        <v>5675</v>
+      </c>
+      <c r="M178">
+        <v>0</v>
+      </c>
+      <c r="N178">
+        <v>387</v>
+      </c>
+      <c r="O178">
+        <v>5288</v>
+      </c>
+      <c r="P178">
+        <v>706</v>
+      </c>
+      <c r="Q178">
+        <v>0</v>
+      </c>
+      <c r="R178">
+        <v>116</v>
+      </c>
+      <c r="S178">
+        <v>590</v>
+      </c>
+      <c r="T178">
+        <v>2473</v>
+      </c>
+      <c r="U178">
+        <v>201</v>
+      </c>
+      <c r="V178">
+        <v>861</v>
+      </c>
+      <c r="W178">
+        <v>1411</v>
+      </c>
+      <c r="X178">
+        <v>1206</v>
+      </c>
+      <c r="Y178">
+        <v>21</v>
+      </c>
+      <c r="Z178">
+        <v>97</v>
+      </c>
+      <c r="AA178">
+        <v>1088</v>
+      </c>
+      <c r="AB178">
+        <v>238974</v>
+      </c>
+      <c r="AC178">
+        <v>101</v>
+      </c>
+      <c r="AD178">
+        <v>43880</v>
+      </c>
+      <c r="AE178">
+        <v>194993</v>
+      </c>
+      <c r="AF178">
+        <v>249056</v>
+      </c>
+      <c r="AG178">
+        <v>243359</v>
+      </c>
+    </row>
+    <row r="179" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>0</v>
+      </c>
+      <c r="B179">
+        <v>4000</v>
+      </c>
+      <c r="C179">
+        <v>486</v>
+      </c>
+      <c r="D179">
+        <v>70</v>
+      </c>
+      <c r="E179">
+        <v>6451</v>
+      </c>
+      <c r="F179">
+        <v>350642</v>
+      </c>
+      <c r="G179">
+        <v>357649</v>
+      </c>
+      <c r="H179">
+        <v>19</v>
+      </c>
+      <c r="I179">
+        <v>0</v>
+      </c>
+      <c r="J179">
+        <v>4</v>
+      </c>
+      <c r="K179">
+        <v>15</v>
+      </c>
+      <c r="L179">
+        <v>5082</v>
+      </c>
+      <c r="M179">
+        <v>0</v>
+      </c>
+      <c r="N179">
+        <v>381</v>
+      </c>
+      <c r="O179">
+        <v>4701</v>
+      </c>
+      <c r="P179">
+        <v>663</v>
+      </c>
+      <c r="Q179">
+        <v>0</v>
+      </c>
+      <c r="R179">
+        <v>113</v>
+      </c>
+      <c r="S179">
+        <v>550</v>
+      </c>
+      <c r="T179">
+        <v>2471</v>
+      </c>
+      <c r="U179">
+        <v>199</v>
+      </c>
+      <c r="V179">
+        <v>870</v>
+      </c>
+      <c r="W179">
+        <v>1402</v>
+      </c>
+      <c r="X179">
+        <v>1225</v>
+      </c>
+      <c r="Y179">
+        <v>22</v>
+      </c>
+      <c r="Z179">
+        <v>100</v>
+      </c>
+      <c r="AA179">
+        <v>1103</v>
+      </c>
+      <c r="AB179">
+        <v>239866</v>
+      </c>
+      <c r="AC179">
+        <v>93</v>
+      </c>
+      <c r="AD179">
+        <v>43905</v>
+      </c>
+      <c r="AE179">
+        <v>195868</v>
+      </c>
+      <c r="AF179">
+        <v>249326</v>
+      </c>
+      <c r="AG179">
+        <v>244225</v>
+      </c>
+    </row>
+    <row r="180" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>0</v>
+      </c>
+      <c r="B180">
+        <v>4000</v>
+      </c>
+      <c r="C180">
+        <v>402</v>
+      </c>
+      <c r="D180">
+        <v>68</v>
+      </c>
+      <c r="E180">
+        <v>6453</v>
+      </c>
+      <c r="F180">
+        <v>350959</v>
+      </c>
+      <c r="G180">
+        <v>357882</v>
+      </c>
+      <c r="H180">
+        <v>19</v>
+      </c>
+      <c r="I180">
+        <v>0</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>18</v>
+      </c>
+      <c r="L180">
+        <v>5721</v>
+      </c>
+      <c r="M180">
+        <v>0</v>
+      </c>
+      <c r="N180">
+        <v>344</v>
+      </c>
+      <c r="O180">
+        <v>5377</v>
+      </c>
+      <c r="P180">
+        <v>612</v>
+      </c>
+      <c r="Q180">
+        <v>0</v>
+      </c>
+      <c r="R180">
+        <v>111</v>
+      </c>
+      <c r="S180">
+        <v>501</v>
+      </c>
+      <c r="T180">
+        <v>2334</v>
+      </c>
+      <c r="U180">
+        <v>204</v>
+      </c>
+      <c r="V180">
+        <v>837</v>
+      </c>
+      <c r="W180">
+        <v>1293</v>
+      </c>
+      <c r="X180">
+        <v>1363</v>
+      </c>
+      <c r="Y180">
+        <v>21</v>
+      </c>
+      <c r="Z180">
+        <v>123</v>
+      </c>
+      <c r="AA180">
+        <v>1219</v>
+      </c>
+      <c r="AB180">
+        <v>239476</v>
+      </c>
+      <c r="AC180">
+        <v>95</v>
+      </c>
+      <c r="AD180">
+        <v>43796</v>
+      </c>
+      <c r="AE180">
+        <v>195585</v>
+      </c>
+      <c r="AF180">
+        <v>249525</v>
+      </c>
+      <c r="AG180">
+        <v>243785</v>
+      </c>
+    </row>
+    <row r="181" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>0</v>
+      </c>
+      <c r="B181">
+        <v>4000</v>
+      </c>
+      <c r="C181">
+        <v>452</v>
+      </c>
+      <c r="D181">
+        <v>47</v>
+      </c>
+      <c r="E181">
+        <v>6474</v>
+      </c>
+      <c r="F181">
+        <v>350716</v>
+      </c>
+      <c r="G181">
+        <v>357689</v>
+      </c>
+      <c r="H181">
+        <v>24</v>
+      </c>
+      <c r="I181">
+        <v>0</v>
+      </c>
+      <c r="J181">
+        <v>6</v>
+      </c>
+      <c r="K181">
+        <v>18</v>
+      </c>
+      <c r="L181">
+        <v>5188</v>
+      </c>
+      <c r="M181">
+        <v>0</v>
+      </c>
+      <c r="N181">
+        <v>377</v>
+      </c>
+      <c r="O181">
+        <v>4811</v>
+      </c>
+      <c r="P181">
+        <v>760</v>
+      </c>
+      <c r="Q181">
+        <v>0</v>
+      </c>
+      <c r="R181">
+        <v>136</v>
+      </c>
+      <c r="S181">
+        <v>624</v>
+      </c>
+      <c r="T181">
+        <v>2505</v>
+      </c>
+      <c r="U181">
+        <v>199</v>
+      </c>
+      <c r="V181">
+        <v>854</v>
+      </c>
+      <c r="W181">
+        <v>1452</v>
+      </c>
+      <c r="X181">
+        <v>1174</v>
+      </c>
+      <c r="Y181">
+        <v>19</v>
+      </c>
+      <c r="Z181">
+        <v>95</v>
+      </c>
+      <c r="AA181">
+        <v>1060</v>
+      </c>
+      <c r="AB181">
+        <v>240199</v>
+      </c>
+      <c r="AC181">
+        <v>97</v>
+      </c>
+      <c r="AD181">
+        <v>43764</v>
+      </c>
+      <c r="AE181">
+        <v>196338</v>
+      </c>
+      <c r="AF181">
+        <v>249850</v>
+      </c>
+      <c r="AG181">
+        <v>244638</v>
+      </c>
+    </row>
+    <row r="182" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>0</v>
+      </c>
+      <c r="B182">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>0</v>
+      </c>
+      <c r="B183">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>0</v>
+      </c>
+      <c r="B184">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>0</v>
+      </c>
+      <c r="B185">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>0</v>
+      </c>
+      <c r="B186">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>0</v>
+      </c>
+      <c r="B187">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>0</v>
+      </c>
+      <c r="B188">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>0</v>
+      </c>
+      <c r="B189">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>0</v>
+      </c>
+      <c r="B190">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="191" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>0</v>
+      </c>
+      <c r="B191">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FB18286-1F5C-40FE-85A3-C39F17059A9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A09C498-9ED7-4DB9-9DCB-A262721C96FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,11 +556,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
-  <dimension ref="A1:AG191"/>
+  <dimension ref="A1:AG201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S181" sqref="S181"/>
+      <pane ySplit="1" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C192" sqref="C192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17773,6 +17773,99 @@
       <c r="B182">
         <v>10000</v>
       </c>
+      <c r="C182">
+        <v>991</v>
+      </c>
+      <c r="D182">
+        <v>136</v>
+      </c>
+      <c r="E182">
+        <v>16814</v>
+      </c>
+      <c r="F182">
+        <v>350186</v>
+      </c>
+      <c r="G182">
+        <v>368127</v>
+      </c>
+      <c r="H182">
+        <v>48</v>
+      </c>
+      <c r="I182">
+        <v>0</v>
+      </c>
+      <c r="J182">
+        <v>9</v>
+      </c>
+      <c r="K182">
+        <v>39</v>
+      </c>
+      <c r="L182">
+        <v>5137</v>
+      </c>
+      <c r="M182">
+        <v>0</v>
+      </c>
+      <c r="N182">
+        <v>419</v>
+      </c>
+      <c r="O182">
+        <v>4718</v>
+      </c>
+      <c r="P182">
+        <v>1310</v>
+      </c>
+      <c r="Q182">
+        <v>0</v>
+      </c>
+      <c r="R182">
+        <v>224</v>
+      </c>
+      <c r="S182">
+        <v>1086</v>
+      </c>
+      <c r="T182">
+        <v>5941</v>
+      </c>
+      <c r="U182">
+        <v>426</v>
+      </c>
+      <c r="V182">
+        <v>1925</v>
+      </c>
+      <c r="W182">
+        <v>3590</v>
+      </c>
+      <c r="X182">
+        <v>2159</v>
+      </c>
+      <c r="Y182">
+        <v>31</v>
+      </c>
+      <c r="Z182">
+        <v>236</v>
+      </c>
+      <c r="AA182">
+        <v>1892</v>
+      </c>
+      <c r="AB182">
+        <v>229062</v>
+      </c>
+      <c r="AC182">
+        <v>81</v>
+      </c>
+      <c r="AD182">
+        <v>43151</v>
+      </c>
+      <c r="AE182">
+        <v>185830</v>
+      </c>
+      <c r="AF182">
+        <v>243657</v>
+      </c>
+      <c r="AG182">
+        <v>238472</v>
+      </c>
     </row>
     <row r="183" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -17781,6 +17874,99 @@
       <c r="B183">
         <v>10000</v>
       </c>
+      <c r="C183">
+        <v>879</v>
+      </c>
+      <c r="D183">
+        <v>118</v>
+      </c>
+      <c r="E183">
+        <v>16832</v>
+      </c>
+      <c r="F183">
+        <v>349746</v>
+      </c>
+      <c r="G183">
+        <v>367575</v>
+      </c>
+      <c r="H183">
+        <v>42</v>
+      </c>
+      <c r="I183">
+        <v>0</v>
+      </c>
+      <c r="J183">
+        <v>10</v>
+      </c>
+      <c r="K183">
+        <v>32</v>
+      </c>
+      <c r="L183">
+        <v>4912</v>
+      </c>
+      <c r="M183">
+        <v>0</v>
+      </c>
+      <c r="N183">
+        <v>390</v>
+      </c>
+      <c r="O183">
+        <v>4522</v>
+      </c>
+      <c r="P183">
+        <v>1170</v>
+      </c>
+      <c r="Q183">
+        <v>0</v>
+      </c>
+      <c r="R183">
+        <v>211</v>
+      </c>
+      <c r="S183">
+        <v>959</v>
+      </c>
+      <c r="T183">
+        <v>5838</v>
+      </c>
+      <c r="U183">
+        <v>419</v>
+      </c>
+      <c r="V183">
+        <v>1952</v>
+      </c>
+      <c r="W183">
+        <v>3467</v>
+      </c>
+      <c r="X183">
+        <v>2200</v>
+      </c>
+      <c r="Y183">
+        <v>32</v>
+      </c>
+      <c r="Z183">
+        <v>215</v>
+      </c>
+      <c r="AA183">
+        <v>1953</v>
+      </c>
+      <c r="AB183">
+        <v>227544</v>
+      </c>
+      <c r="AC183">
+        <v>72</v>
+      </c>
+      <c r="AD183">
+        <v>43092</v>
+      </c>
+      <c r="AE183">
+        <v>184380</v>
+      </c>
+      <c r="AF183">
+        <v>241706</v>
+      </c>
+      <c r="AG183">
+        <v>236752</v>
+      </c>
     </row>
     <row r="184" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -17789,6 +17975,99 @@
       <c r="B184">
         <v>10000</v>
       </c>
+      <c r="C184">
+        <v>987</v>
+      </c>
+      <c r="D184">
+        <v>133</v>
+      </c>
+      <c r="E184">
+        <v>16817</v>
+      </c>
+      <c r="F184">
+        <v>349835</v>
+      </c>
+      <c r="G184">
+        <v>367772</v>
+      </c>
+      <c r="H184">
+        <v>49</v>
+      </c>
+      <c r="I184">
+        <v>0</v>
+      </c>
+      <c r="J184">
+        <v>13</v>
+      </c>
+      <c r="K184">
+        <v>36</v>
+      </c>
+      <c r="L184">
+        <v>4933</v>
+      </c>
+      <c r="M184">
+        <v>0</v>
+      </c>
+      <c r="N184">
+        <v>391</v>
+      </c>
+      <c r="O184">
+        <v>4542</v>
+      </c>
+      <c r="P184">
+        <v>1200</v>
+      </c>
+      <c r="Q184">
+        <v>0</v>
+      </c>
+      <c r="R184">
+        <v>200</v>
+      </c>
+      <c r="S184">
+        <v>1000</v>
+      </c>
+      <c r="T184">
+        <v>5913</v>
+      </c>
+      <c r="U184">
+        <v>423</v>
+      </c>
+      <c r="V184">
+        <v>1936</v>
+      </c>
+      <c r="W184">
+        <v>3554</v>
+      </c>
+      <c r="X184">
+        <v>2179</v>
+      </c>
+      <c r="Y184">
+        <v>32</v>
+      </c>
+      <c r="Z184">
+        <v>226</v>
+      </c>
+      <c r="AA184">
+        <v>1921</v>
+      </c>
+      <c r="AB184">
+        <v>227992</v>
+      </c>
+      <c r="AC184">
+        <v>83</v>
+      </c>
+      <c r="AD184">
+        <v>43466</v>
+      </c>
+      <c r="AE184">
+        <v>184443</v>
+      </c>
+      <c r="AF184">
+        <v>242266</v>
+      </c>
+      <c r="AG184">
+        <v>237284</v>
+      </c>
     </row>
     <row r="185" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -17797,6 +18076,99 @@
       <c r="B185">
         <v>10000</v>
       </c>
+      <c r="C185">
+        <v>931</v>
+      </c>
+      <c r="D185">
+        <v>123</v>
+      </c>
+      <c r="E185">
+        <v>16827</v>
+      </c>
+      <c r="F185">
+        <v>349895</v>
+      </c>
+      <c r="G185">
+        <v>367776</v>
+      </c>
+      <c r="H185">
+        <v>59</v>
+      </c>
+      <c r="I185">
+        <v>0</v>
+      </c>
+      <c r="J185">
+        <v>15</v>
+      </c>
+      <c r="K185">
+        <v>44</v>
+      </c>
+      <c r="L185">
+        <v>5300</v>
+      </c>
+      <c r="M185">
+        <v>0</v>
+      </c>
+      <c r="N185">
+        <v>398</v>
+      </c>
+      <c r="O185">
+        <v>4902</v>
+      </c>
+      <c r="P185">
+        <v>1281</v>
+      </c>
+      <c r="Q185">
+        <v>1</v>
+      </c>
+      <c r="R185">
+        <v>221</v>
+      </c>
+      <c r="S185">
+        <v>1059</v>
+      </c>
+      <c r="T185">
+        <v>5851</v>
+      </c>
+      <c r="U185">
+        <v>419</v>
+      </c>
+      <c r="V185">
+        <v>1933</v>
+      </c>
+      <c r="W185">
+        <v>3499</v>
+      </c>
+      <c r="X185">
+        <v>2140</v>
+      </c>
+      <c r="Y185">
+        <v>35</v>
+      </c>
+      <c r="Z185">
+        <v>220</v>
+      </c>
+      <c r="AA185">
+        <v>1885</v>
+      </c>
+      <c r="AB185">
+        <v>228151</v>
+      </c>
+      <c r="AC185">
+        <v>70</v>
+      </c>
+      <c r="AD185">
+        <v>43304</v>
+      </c>
+      <c r="AE185">
+        <v>184777</v>
+      </c>
+      <c r="AF185">
+        <v>242782</v>
+      </c>
+      <c r="AG185">
+        <v>237423</v>
+      </c>
     </row>
     <row r="186" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -17805,6 +18177,99 @@
       <c r="B186">
         <v>10000</v>
       </c>
+      <c r="C186">
+        <v>895</v>
+      </c>
+      <c r="D186">
+        <v>156</v>
+      </c>
+      <c r="E186">
+        <v>16794</v>
+      </c>
+      <c r="F186">
+        <v>350490</v>
+      </c>
+      <c r="G186">
+        <v>368335</v>
+      </c>
+      <c r="H186">
+        <v>61</v>
+      </c>
+      <c r="I186">
+        <v>0</v>
+      </c>
+      <c r="J186">
+        <v>11</v>
+      </c>
+      <c r="K186">
+        <v>50</v>
+      </c>
+      <c r="L186">
+        <v>5176</v>
+      </c>
+      <c r="M186">
+        <v>0</v>
+      </c>
+      <c r="N186">
+        <v>409</v>
+      </c>
+      <c r="O186">
+        <v>4767</v>
+      </c>
+      <c r="P186">
+        <v>1138</v>
+      </c>
+      <c r="Q186">
+        <v>1</v>
+      </c>
+      <c r="R186">
+        <v>193</v>
+      </c>
+      <c r="S186">
+        <v>944</v>
+      </c>
+      <c r="T186">
+        <v>5845</v>
+      </c>
+      <c r="U186">
+        <v>427</v>
+      </c>
+      <c r="V186">
+        <v>1950</v>
+      </c>
+      <c r="W186">
+        <v>3468</v>
+      </c>
+      <c r="X186">
+        <v>2140</v>
+      </c>
+      <c r="Y186">
+        <v>33</v>
+      </c>
+      <c r="Z186">
+        <v>200</v>
+      </c>
+      <c r="AA186">
+        <v>1907</v>
+      </c>
+      <c r="AB186">
+        <v>227896</v>
+      </c>
+      <c r="AC186">
+        <v>101</v>
+      </c>
+      <c r="AD186">
+        <v>42861</v>
+      </c>
+      <c r="AE186">
+        <v>184934</v>
+      </c>
+      <c r="AF186">
+        <v>242256</v>
+      </c>
+      <c r="AG186">
+        <v>237019</v>
+      </c>
     </row>
     <row r="187" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -17813,6 +18278,99 @@
       <c r="B187">
         <v>10000</v>
       </c>
+      <c r="C187">
+        <v>950</v>
+      </c>
+      <c r="D187">
+        <v>152</v>
+      </c>
+      <c r="E187">
+        <v>16798</v>
+      </c>
+      <c r="F187">
+        <v>350081</v>
+      </c>
+      <c r="G187">
+        <v>367981</v>
+      </c>
+      <c r="H187">
+        <v>52</v>
+      </c>
+      <c r="I187">
+        <v>0</v>
+      </c>
+      <c r="J187">
+        <v>12</v>
+      </c>
+      <c r="K187">
+        <v>40</v>
+      </c>
+      <c r="L187">
+        <v>6153</v>
+      </c>
+      <c r="M187">
+        <v>0</v>
+      </c>
+      <c r="N187">
+        <v>385</v>
+      </c>
+      <c r="O187">
+        <v>5768</v>
+      </c>
+      <c r="P187">
+        <v>1206</v>
+      </c>
+      <c r="Q187">
+        <v>0</v>
+      </c>
+      <c r="R187">
+        <v>192</v>
+      </c>
+      <c r="S187">
+        <v>1014</v>
+      </c>
+      <c r="T187">
+        <v>6023</v>
+      </c>
+      <c r="U187">
+        <v>428</v>
+      </c>
+      <c r="V187">
+        <v>1947</v>
+      </c>
+      <c r="W187">
+        <v>3648</v>
+      </c>
+      <c r="X187">
+        <v>2094</v>
+      </c>
+      <c r="Y187">
+        <v>34</v>
+      </c>
+      <c r="Z187">
+        <v>214</v>
+      </c>
+      <c r="AA187">
+        <v>1846</v>
+      </c>
+      <c r="AB187">
+        <v>229092</v>
+      </c>
+      <c r="AC187">
+        <v>88</v>
+      </c>
+      <c r="AD187">
+        <v>43086</v>
+      </c>
+      <c r="AE187">
+        <v>185918</v>
+      </c>
+      <c r="AF187">
+        <v>244620</v>
+      </c>
+      <c r="AG187">
+        <v>238415</v>
+      </c>
     </row>
     <row r="188" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -17821,6 +18379,99 @@
       <c r="B188">
         <v>10000</v>
       </c>
+      <c r="C188">
+        <v>952</v>
+      </c>
+      <c r="D188">
+        <v>151</v>
+      </c>
+      <c r="E188">
+        <v>16799</v>
+      </c>
+      <c r="F188">
+        <v>349843</v>
+      </c>
+      <c r="G188">
+        <v>367745</v>
+      </c>
+      <c r="H188">
+        <v>50</v>
+      </c>
+      <c r="I188">
+        <v>0</v>
+      </c>
+      <c r="J188">
+        <v>15</v>
+      </c>
+      <c r="K188">
+        <v>35</v>
+      </c>
+      <c r="L188">
+        <v>5571</v>
+      </c>
+      <c r="M188">
+        <v>0</v>
+      </c>
+      <c r="N188">
+        <v>431</v>
+      </c>
+      <c r="O188">
+        <v>5140</v>
+      </c>
+      <c r="P188">
+        <v>1161</v>
+      </c>
+      <c r="Q188">
+        <v>0</v>
+      </c>
+      <c r="R188">
+        <v>199</v>
+      </c>
+      <c r="S188">
+        <v>962</v>
+      </c>
+      <c r="T188">
+        <v>5787</v>
+      </c>
+      <c r="U188">
+        <v>431</v>
+      </c>
+      <c r="V188">
+        <v>1930</v>
+      </c>
+      <c r="W188">
+        <v>3426</v>
+      </c>
+      <c r="X188">
+        <v>2321</v>
+      </c>
+      <c r="Y188">
+        <v>34</v>
+      </c>
+      <c r="Z188">
+        <v>239</v>
+      </c>
+      <c r="AA188">
+        <v>2048</v>
+      </c>
+      <c r="AB188">
+        <v>228603</v>
+      </c>
+      <c r="AC188">
+        <v>80</v>
+      </c>
+      <c r="AD188">
+        <v>43158</v>
+      </c>
+      <c r="AE188">
+        <v>185365</v>
+      </c>
+      <c r="AF188">
+        <v>243493</v>
+      </c>
+      <c r="AG188">
+        <v>237872</v>
+      </c>
     </row>
     <row r="189" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -17829,6 +18480,99 @@
       <c r="B189">
         <v>10000</v>
       </c>
+      <c r="C189">
+        <v>935</v>
+      </c>
+      <c r="D189">
+        <v>142</v>
+      </c>
+      <c r="E189">
+        <v>16808</v>
+      </c>
+      <c r="F189">
+        <v>350715</v>
+      </c>
+      <c r="G189">
+        <v>368600</v>
+      </c>
+      <c r="H189">
+        <v>44</v>
+      </c>
+      <c r="I189">
+        <v>0</v>
+      </c>
+      <c r="J189">
+        <v>9</v>
+      </c>
+      <c r="K189">
+        <v>35</v>
+      </c>
+      <c r="L189">
+        <v>4754</v>
+      </c>
+      <c r="M189">
+        <v>0</v>
+      </c>
+      <c r="N189">
+        <v>376</v>
+      </c>
+      <c r="O189">
+        <v>4378</v>
+      </c>
+      <c r="P189">
+        <v>1198</v>
+      </c>
+      <c r="Q189">
+        <v>0</v>
+      </c>
+      <c r="R189">
+        <v>190</v>
+      </c>
+      <c r="S189">
+        <v>1008</v>
+      </c>
+      <c r="T189">
+        <v>5888</v>
+      </c>
+      <c r="U189">
+        <v>420</v>
+      </c>
+      <c r="V189">
+        <v>1930</v>
+      </c>
+      <c r="W189">
+        <v>3538</v>
+      </c>
+      <c r="X189">
+        <v>2105</v>
+      </c>
+      <c r="Y189">
+        <v>32</v>
+      </c>
+      <c r="Z189">
+        <v>225</v>
+      </c>
+      <c r="AA189">
+        <v>1848</v>
+      </c>
+      <c r="AB189">
+        <v>228736</v>
+      </c>
+      <c r="AC189">
+        <v>89</v>
+      </c>
+      <c r="AD189">
+        <v>42924</v>
+      </c>
+      <c r="AE189">
+        <v>185723</v>
+      </c>
+      <c r="AF189">
+        <v>242725</v>
+      </c>
+      <c r="AG189">
+        <v>237927</v>
+      </c>
     </row>
     <row r="190" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -17837,6 +18581,99 @@
       <c r="B190">
         <v>10000</v>
       </c>
+      <c r="C190">
+        <v>973</v>
+      </c>
+      <c r="D190">
+        <v>138</v>
+      </c>
+      <c r="E190">
+        <v>16812</v>
+      </c>
+      <c r="F190">
+        <v>349907</v>
+      </c>
+      <c r="G190">
+        <v>367830</v>
+      </c>
+      <c r="H190">
+        <v>50</v>
+      </c>
+      <c r="I190">
+        <v>0</v>
+      </c>
+      <c r="J190">
+        <v>9</v>
+      </c>
+      <c r="K190">
+        <v>41</v>
+      </c>
+      <c r="L190">
+        <v>6023</v>
+      </c>
+      <c r="M190">
+        <v>0</v>
+      </c>
+      <c r="N190">
+        <v>445</v>
+      </c>
+      <c r="O190">
+        <v>5578</v>
+      </c>
+      <c r="P190">
+        <v>1194</v>
+      </c>
+      <c r="Q190">
+        <v>0</v>
+      </c>
+      <c r="R190">
+        <v>212</v>
+      </c>
+      <c r="S190">
+        <v>982</v>
+      </c>
+      <c r="T190">
+        <v>5899</v>
+      </c>
+      <c r="U190">
+        <v>433</v>
+      </c>
+      <c r="V190">
+        <v>1939</v>
+      </c>
+      <c r="W190">
+        <v>3527</v>
+      </c>
+      <c r="X190">
+        <v>2144</v>
+      </c>
+      <c r="Y190">
+        <v>28</v>
+      </c>
+      <c r="Z190">
+        <v>219</v>
+      </c>
+      <c r="AA190">
+        <v>1897</v>
+      </c>
+      <c r="AB190">
+        <v>228378</v>
+      </c>
+      <c r="AC190">
+        <v>83</v>
+      </c>
+      <c r="AD190">
+        <v>43257</v>
+      </c>
+      <c r="AE190">
+        <v>185038</v>
+      </c>
+      <c r="AF190">
+        <v>243688</v>
+      </c>
+      <c r="AG190">
+        <v>237615</v>
+      </c>
     </row>
     <row r="191" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -17844,6 +18681,179 @@
       </c>
       <c r="B191">
         <v>10000</v>
+      </c>
+      <c r="C191">
+        <v>872</v>
+      </c>
+      <c r="D191">
+        <v>135</v>
+      </c>
+      <c r="E191">
+        <v>16815</v>
+      </c>
+      <c r="F191">
+        <v>350623</v>
+      </c>
+      <c r="G191">
+        <v>368445</v>
+      </c>
+      <c r="H191">
+        <v>44</v>
+      </c>
+      <c r="I191">
+        <v>0</v>
+      </c>
+      <c r="J191">
+        <v>11</v>
+      </c>
+      <c r="K191">
+        <v>33</v>
+      </c>
+      <c r="L191">
+        <v>4746</v>
+      </c>
+      <c r="M191">
+        <v>0</v>
+      </c>
+      <c r="N191">
+        <v>404</v>
+      </c>
+      <c r="O191">
+        <v>4342</v>
+      </c>
+      <c r="P191">
+        <v>1262</v>
+      </c>
+      <c r="Q191">
+        <v>0</v>
+      </c>
+      <c r="R191">
+        <v>222</v>
+      </c>
+      <c r="S191">
+        <v>1040</v>
+      </c>
+      <c r="T191">
+        <v>5936</v>
+      </c>
+      <c r="U191">
+        <v>431</v>
+      </c>
+      <c r="V191">
+        <v>1920</v>
+      </c>
+      <c r="W191">
+        <v>3585</v>
+      </c>
+      <c r="X191">
+        <v>2126</v>
+      </c>
+      <c r="Y191">
+        <v>24</v>
+      </c>
+      <c r="Z191">
+        <v>234</v>
+      </c>
+      <c r="AA191">
+        <v>1868</v>
+      </c>
+      <c r="AB191">
+        <v>229368</v>
+      </c>
+      <c r="AC191">
+        <v>94</v>
+      </c>
+      <c r="AD191">
+        <v>43118</v>
+      </c>
+      <c r="AE191">
+        <v>186156</v>
+      </c>
+      <c r="AF191">
+        <v>243482</v>
+      </c>
+      <c r="AG191">
+        <v>238692</v>
+      </c>
+    </row>
+    <row r="192" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>0</v>
+      </c>
+      <c r="B192">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>0</v>
+      </c>
+      <c r="B193">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>0</v>
+      </c>
+      <c r="B194">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>0</v>
+      </c>
+      <c r="B195">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>0</v>
+      </c>
+      <c r="B196">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>0</v>
+      </c>
+      <c r="B197">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>0</v>
+      </c>
+      <c r="B198">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>0</v>
+      </c>
+      <c r="B199">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>0</v>
+      </c>
+      <c r="B200">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>0</v>
+      </c>
+      <c r="B201">
+        <v>25000</v>
       </c>
     </row>
   </sheetData>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{140B54BB-8F17-46DD-A23E-48B38A919805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3DBDC64-DEBD-42FF-B44E-3DBA6E074BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_extinction" sheetId="6" r:id="rId1"/>
-    <sheet name="extinction_new" sheetId="5" r:id="rId2"/>
-    <sheet name="extinction" sheetId="4" r:id="rId3"/>
-    <sheet name="no_extinction" sheetId="3" r:id="rId4"/>
-    <sheet name="Overview" sheetId="2" r:id="rId5"/>
+    <sheet name="extinction" sheetId="5" r:id="rId2"/>
+    <sheet name="no_extinction" sheetId="3" r:id="rId3"/>
+    <sheet name="Overview" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="39">
   <si>
     <t>Mass</t>
   </si>
@@ -74,42 +73,6 @@
   </si>
   <si>
     <t>Mapped Stars</t>
-  </si>
-  <si>
-    <t>CFP &gt; 2M</t>
-  </si>
-  <si>
-    <t>CFP &lt; 1M</t>
-  </si>
-  <si>
-    <t>CTP &gt; 2M</t>
-  </si>
-  <si>
-    <t>CTP 1M - 2M</t>
-  </si>
-  <si>
-    <t>CTP &lt; 1M</t>
-  </si>
-  <si>
-    <t>CFN &gt; 2M</t>
-  </si>
-  <si>
-    <t>CFP 1M - 2M</t>
-  </si>
-  <si>
-    <t>CFN 1M - 2M</t>
-  </si>
-  <si>
-    <t>CFN &lt; 1M</t>
-  </si>
-  <si>
-    <t>CTN &gt; 2M</t>
-  </si>
-  <si>
-    <t>CTN 1M - 2M</t>
-  </si>
-  <si>
-    <t>CTN &lt; 1M</t>
   </si>
   <si>
     <t>CFP &gt; 2</t>
@@ -188,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,15 +166,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -221,11 +177,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -238,19 +189,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="2" builtinId="28"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -544,8 +492,8 @@
   <dimension ref="A1:AG251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B121" sqref="B121"/>
+      <pane ySplit="1" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F256" sqref="F256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,76 +521,76 @@
         <v>6</v>
       </c>
       <c r="H1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="I1" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="K1" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="M1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="N1" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="O1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="P1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="Q1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" t="s">
         <v>27</v>
       </c>
-      <c r="R1" t="s">
-        <v>28</v>
-      </c>
-      <c r="S1" t="s">
-        <v>39</v>
-      </c>
       <c r="T1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="U1" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="V1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="W1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="X1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="Y1" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="Z1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="AA1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="AB1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="AC1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="AD1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE1" t="s">
         <v>38</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>50</v>
       </c>
       <c r="AF1" t="s">
         <v>13</v>
@@ -24898,6 +24846,99 @@
       <c r="B242">
         <v>25000</v>
       </c>
+      <c r="C242">
+        <v>2064</v>
+      </c>
+      <c r="D242">
+        <v>332</v>
+      </c>
+      <c r="E242">
+        <v>40086</v>
+      </c>
+      <c r="F242">
+        <v>349161</v>
+      </c>
+      <c r="G242">
+        <v>391643</v>
+      </c>
+      <c r="H242">
+        <v>108</v>
+      </c>
+      <c r="I242">
+        <v>0</v>
+      </c>
+      <c r="J242">
+        <v>28</v>
+      </c>
+      <c r="K242">
+        <v>80</v>
+      </c>
+      <c r="L242">
+        <v>3948</v>
+      </c>
+      <c r="M242">
+        <v>0</v>
+      </c>
+      <c r="N242">
+        <v>409</v>
+      </c>
+      <c r="O242">
+        <v>3539</v>
+      </c>
+      <c r="P242">
+        <v>1728</v>
+      </c>
+      <c r="Q242">
+        <v>0</v>
+      </c>
+      <c r="R242">
+        <v>279</v>
+      </c>
+      <c r="S242">
+        <v>1449</v>
+      </c>
+      <c r="T242">
+        <v>11877</v>
+      </c>
+      <c r="U242">
+        <v>889</v>
+      </c>
+      <c r="V242">
+        <v>4030</v>
+      </c>
+      <c r="W242">
+        <v>6958</v>
+      </c>
+      <c r="X242">
+        <v>3166</v>
+      </c>
+      <c r="Y242">
+        <v>60</v>
+      </c>
+      <c r="Z242">
+        <v>413</v>
+      </c>
+      <c r="AA242">
+        <v>2693</v>
+      </c>
+      <c r="AB242">
+        <v>201581</v>
+      </c>
+      <c r="AC242">
+        <v>80</v>
+      </c>
+      <c r="AD242">
+        <v>41824</v>
+      </c>
+      <c r="AE242">
+        <v>159677</v>
+      </c>
+      <c r="AF242">
+        <v>222408</v>
+      </c>
+      <c r="AG242">
+        <v>218352</v>
+      </c>
     </row>
     <row r="243" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A243">
@@ -24906,6 +24947,99 @@
       <c r="B243">
         <v>25000</v>
       </c>
+      <c r="C243">
+        <v>1937</v>
+      </c>
+      <c r="D243">
+        <v>344</v>
+      </c>
+      <c r="E243">
+        <v>40074</v>
+      </c>
+      <c r="F243">
+        <v>349608</v>
+      </c>
+      <c r="G243">
+        <v>391963</v>
+      </c>
+      <c r="H243">
+        <v>86</v>
+      </c>
+      <c r="I243">
+        <v>0</v>
+      </c>
+      <c r="J243">
+        <v>22</v>
+      </c>
+      <c r="K243">
+        <v>64</v>
+      </c>
+      <c r="L243">
+        <v>3720</v>
+      </c>
+      <c r="M243">
+        <v>0</v>
+      </c>
+      <c r="N243">
+        <v>414</v>
+      </c>
+      <c r="O243">
+        <v>3306</v>
+      </c>
+      <c r="P243">
+        <v>1770</v>
+      </c>
+      <c r="Q243">
+        <v>0</v>
+      </c>
+      <c r="R243">
+        <v>289</v>
+      </c>
+      <c r="S243">
+        <v>1481</v>
+      </c>
+      <c r="T243">
+        <v>11850</v>
+      </c>
+      <c r="U243">
+        <v>900</v>
+      </c>
+      <c r="V243">
+        <v>4027</v>
+      </c>
+      <c r="W243">
+        <v>6923</v>
+      </c>
+      <c r="X243">
+        <v>3299</v>
+      </c>
+      <c r="Y243">
+        <v>65</v>
+      </c>
+      <c r="Z243">
+        <v>421</v>
+      </c>
+      <c r="AA243">
+        <v>2813</v>
+      </c>
+      <c r="AB243">
+        <v>202011</v>
+      </c>
+      <c r="AC243">
+        <v>83</v>
+      </c>
+      <c r="AD243">
+        <v>41849</v>
+      </c>
+      <c r="AE243">
+        <v>160079</v>
+      </c>
+      <c r="AF243">
+        <v>222736</v>
+      </c>
+      <c r="AG243">
+        <v>218930</v>
+      </c>
     </row>
     <row r="244" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -24914,6 +25048,99 @@
       <c r="B244">
         <v>25000</v>
       </c>
+      <c r="C244">
+        <v>1873</v>
+      </c>
+      <c r="D244">
+        <v>357</v>
+      </c>
+      <c r="E244">
+        <v>40061</v>
+      </c>
+      <c r="F244">
+        <v>349408</v>
+      </c>
+      <c r="G244">
+        <v>391699</v>
+      </c>
+      <c r="H244">
+        <v>104</v>
+      </c>
+      <c r="I244">
+        <v>0</v>
+      </c>
+      <c r="J244">
+        <v>26</v>
+      </c>
+      <c r="K244">
+        <v>78</v>
+      </c>
+      <c r="L244">
+        <v>4005</v>
+      </c>
+      <c r="M244">
+        <v>0</v>
+      </c>
+      <c r="N244">
+        <v>397</v>
+      </c>
+      <c r="O244">
+        <v>3608</v>
+      </c>
+      <c r="P244">
+        <v>1694</v>
+      </c>
+      <c r="Q244">
+        <v>0</v>
+      </c>
+      <c r="R244">
+        <v>278</v>
+      </c>
+      <c r="S244">
+        <v>1416</v>
+      </c>
+      <c r="T244">
+        <v>11826</v>
+      </c>
+      <c r="U244">
+        <v>915</v>
+      </c>
+      <c r="V244">
+        <v>4064</v>
+      </c>
+      <c r="W244">
+        <v>6847</v>
+      </c>
+      <c r="X244">
+        <v>3304</v>
+      </c>
+      <c r="Y244">
+        <v>69</v>
+      </c>
+      <c r="Z244">
+        <v>441</v>
+      </c>
+      <c r="AA244">
+        <v>2794</v>
+      </c>
+      <c r="AB244">
+        <v>201467</v>
+      </c>
+      <c r="AC244">
+        <v>79</v>
+      </c>
+      <c r="AD244">
+        <v>41903</v>
+      </c>
+      <c r="AE244">
+        <v>159485</v>
+      </c>
+      <c r="AF244">
+        <v>222400</v>
+      </c>
+      <c r="AG244">
+        <v>218291</v>
+      </c>
     </row>
     <row r="245" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -24922,6 +25149,99 @@
       <c r="B245">
         <v>25000</v>
       </c>
+      <c r="C245">
+        <v>1923</v>
+      </c>
+      <c r="D245">
+        <v>346</v>
+      </c>
+      <c r="E245">
+        <v>40072</v>
+      </c>
+      <c r="F245">
+        <v>349198</v>
+      </c>
+      <c r="G245">
+        <v>391539</v>
+      </c>
+      <c r="H245">
+        <v>90</v>
+      </c>
+      <c r="I245">
+        <v>0</v>
+      </c>
+      <c r="J245">
+        <v>22</v>
+      </c>
+      <c r="K245">
+        <v>68</v>
+      </c>
+      <c r="L245">
+        <v>3778</v>
+      </c>
+      <c r="M245">
+        <v>0</v>
+      </c>
+      <c r="N245">
+        <v>416</v>
+      </c>
+      <c r="O245">
+        <v>3362</v>
+      </c>
+      <c r="P245">
+        <v>1856</v>
+      </c>
+      <c r="Q245">
+        <v>1</v>
+      </c>
+      <c r="R245">
+        <v>366</v>
+      </c>
+      <c r="S245">
+        <v>1489</v>
+      </c>
+      <c r="T245">
+        <v>12096</v>
+      </c>
+      <c r="U245">
+        <v>926</v>
+      </c>
+      <c r="V245">
+        <v>4153</v>
+      </c>
+      <c r="W245">
+        <v>7017</v>
+      </c>
+      <c r="X245">
+        <v>3149</v>
+      </c>
+      <c r="Y245">
+        <v>57</v>
+      </c>
+      <c r="Z245">
+        <v>384</v>
+      </c>
+      <c r="AA245">
+        <v>2708</v>
+      </c>
+      <c r="AB245">
+        <v>200375</v>
+      </c>
+      <c r="AC245">
+        <v>74</v>
+      </c>
+      <c r="AD245">
+        <v>41596</v>
+      </c>
+      <c r="AE245">
+        <v>158705</v>
+      </c>
+      <c r="AF245">
+        <v>221344</v>
+      </c>
+      <c r="AG245">
+        <v>217476</v>
+      </c>
     </row>
     <row r="246" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -24930,6 +25250,99 @@
       <c r="B246">
         <v>25000</v>
       </c>
+      <c r="C246">
+        <v>2035</v>
+      </c>
+      <c r="D246">
+        <v>370</v>
+      </c>
+      <c r="E246">
+        <v>40048</v>
+      </c>
+      <c r="F246">
+        <v>349449</v>
+      </c>
+      <c r="G246">
+        <v>391902</v>
+      </c>
+      <c r="H246">
+        <v>85</v>
+      </c>
+      <c r="I246">
+        <v>0</v>
+      </c>
+      <c r="J246">
+        <v>28</v>
+      </c>
+      <c r="K246">
+        <v>57</v>
+      </c>
+      <c r="L246">
+        <v>4139</v>
+      </c>
+      <c r="M246">
+        <v>0</v>
+      </c>
+      <c r="N246">
+        <v>420</v>
+      </c>
+      <c r="O246">
+        <v>3719</v>
+      </c>
+      <c r="P246">
+        <v>1751</v>
+      </c>
+      <c r="Q246">
+        <v>0</v>
+      </c>
+      <c r="R246">
+        <v>292</v>
+      </c>
+      <c r="S246">
+        <v>1459</v>
+      </c>
+      <c r="T246">
+        <v>11836</v>
+      </c>
+      <c r="U246">
+        <v>914</v>
+      </c>
+      <c r="V246">
+        <v>4041</v>
+      </c>
+      <c r="W246">
+        <v>6881</v>
+      </c>
+      <c r="X246">
+        <v>3320</v>
+      </c>
+      <c r="Y246">
+        <v>64</v>
+      </c>
+      <c r="Z246">
+        <v>429</v>
+      </c>
+      <c r="AA246">
+        <v>2827</v>
+      </c>
+      <c r="AB246">
+        <v>202068</v>
+      </c>
+      <c r="AC246">
+        <v>85</v>
+      </c>
+      <c r="AD246">
+        <v>41772</v>
+      </c>
+      <c r="AE246">
+        <v>160211</v>
+      </c>
+      <c r="AF246">
+        <v>223199</v>
+      </c>
+      <c r="AG246">
+        <v>218975</v>
+      </c>
     </row>
     <row r="247" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -24938,6 +25351,99 @@
       <c r="B247">
         <v>25000</v>
       </c>
+      <c r="C247">
+        <v>1891</v>
+      </c>
+      <c r="D247">
+        <v>313</v>
+      </c>
+      <c r="E247">
+        <v>40105</v>
+      </c>
+      <c r="F247">
+        <v>349147</v>
+      </c>
+      <c r="G247">
+        <v>391456</v>
+      </c>
+      <c r="H247">
+        <v>95</v>
+      </c>
+      <c r="I247">
+        <v>0</v>
+      </c>
+      <c r="J247">
+        <v>22</v>
+      </c>
+      <c r="K247">
+        <v>73</v>
+      </c>
+      <c r="L247">
+        <v>3925</v>
+      </c>
+      <c r="M247">
+        <v>0</v>
+      </c>
+      <c r="N247">
+        <v>418</v>
+      </c>
+      <c r="O247">
+        <v>3507</v>
+      </c>
+      <c r="P247">
+        <v>1757</v>
+      </c>
+      <c r="Q247">
+        <v>0</v>
+      </c>
+      <c r="R247">
+        <v>306</v>
+      </c>
+      <c r="S247">
+        <v>1451</v>
+      </c>
+      <c r="T247">
+        <v>12072</v>
+      </c>
+      <c r="U247">
+        <v>916</v>
+      </c>
+      <c r="V247">
+        <v>4125</v>
+      </c>
+      <c r="W247">
+        <v>7031</v>
+      </c>
+      <c r="X247">
+        <v>3208</v>
+      </c>
+      <c r="Y247">
+        <v>63</v>
+      </c>
+      <c r="Z247">
+        <v>389</v>
+      </c>
+      <c r="AA247">
+        <v>2756</v>
+      </c>
+      <c r="AB247">
+        <v>201616</v>
+      </c>
+      <c r="AC247">
+        <v>81</v>
+      </c>
+      <c r="AD247">
+        <v>41746</v>
+      </c>
+      <c r="AE247">
+        <v>159789</v>
+      </c>
+      <c r="AF247">
+        <v>222673</v>
+      </c>
+      <c r="AG247">
+        <v>218653</v>
+      </c>
     </row>
     <row r="248" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A248">
@@ -24946,6 +25452,99 @@
       <c r="B248">
         <v>25000</v>
       </c>
+      <c r="C248">
+        <v>1926</v>
+      </c>
+      <c r="D248">
+        <v>362</v>
+      </c>
+      <c r="E248">
+        <v>40056</v>
+      </c>
+      <c r="F248">
+        <v>349229</v>
+      </c>
+      <c r="G248">
+        <v>391573</v>
+      </c>
+      <c r="H248">
+        <v>60</v>
+      </c>
+      <c r="I248">
+        <v>0</v>
+      </c>
+      <c r="J248">
+        <v>11</v>
+      </c>
+      <c r="K248">
+        <v>49</v>
+      </c>
+      <c r="L248">
+        <v>4263</v>
+      </c>
+      <c r="M248">
+        <v>0</v>
+      </c>
+      <c r="N248">
+        <v>402</v>
+      </c>
+      <c r="O248">
+        <v>3861</v>
+      </c>
+      <c r="P248">
+        <v>1683</v>
+      </c>
+      <c r="Q248">
+        <v>0</v>
+      </c>
+      <c r="R248">
+        <v>310</v>
+      </c>
+      <c r="S248">
+        <v>1373</v>
+      </c>
+      <c r="T248">
+        <v>11962</v>
+      </c>
+      <c r="U248">
+        <v>898</v>
+      </c>
+      <c r="V248">
+        <v>4092</v>
+      </c>
+      <c r="W248">
+        <v>6972</v>
+      </c>
+      <c r="X248">
+        <v>3280</v>
+      </c>
+      <c r="Y248">
+        <v>67</v>
+      </c>
+      <c r="Z248">
+        <v>389</v>
+      </c>
+      <c r="AA248">
+        <v>2824</v>
+      </c>
+      <c r="AB248">
+        <v>201486</v>
+      </c>
+      <c r="AC248">
+        <v>70</v>
+      </c>
+      <c r="AD248">
+        <v>41738</v>
+      </c>
+      <c r="AE248">
+        <v>159678</v>
+      </c>
+      <c r="AF248">
+        <v>222734</v>
+      </c>
+      <c r="AG248">
+        <v>218411</v>
+      </c>
     </row>
     <row r="249" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -24954,6 +25553,99 @@
       <c r="B249">
         <v>25000</v>
       </c>
+      <c r="C249">
+        <v>1954</v>
+      </c>
+      <c r="D249">
+        <v>348</v>
+      </c>
+      <c r="E249">
+        <v>40070</v>
+      </c>
+      <c r="F249">
+        <v>348412</v>
+      </c>
+      <c r="G249">
+        <v>390784</v>
+      </c>
+      <c r="H249">
+        <v>112</v>
+      </c>
+      <c r="I249">
+        <v>0</v>
+      </c>
+      <c r="J249">
+        <v>29</v>
+      </c>
+      <c r="K249">
+        <v>83</v>
+      </c>
+      <c r="L249">
+        <v>3635</v>
+      </c>
+      <c r="M249">
+        <v>0</v>
+      </c>
+      <c r="N249">
+        <v>420</v>
+      </c>
+      <c r="O249">
+        <v>3215</v>
+      </c>
+      <c r="P249">
+        <v>1757</v>
+      </c>
+      <c r="Q249">
+        <v>0</v>
+      </c>
+      <c r="R249">
+        <v>300</v>
+      </c>
+      <c r="S249">
+        <v>1457</v>
+      </c>
+      <c r="T249">
+        <v>11940</v>
+      </c>
+      <c r="U249">
+        <v>906</v>
+      </c>
+      <c r="V249">
+        <v>4098</v>
+      </c>
+      <c r="W249">
+        <v>6936</v>
+      </c>
+      <c r="X249">
+        <v>3128</v>
+      </c>
+      <c r="Y249">
+        <v>62</v>
+      </c>
+      <c r="Z249">
+        <v>402</v>
+      </c>
+      <c r="AA249">
+        <v>2664</v>
+      </c>
+      <c r="AB249">
+        <v>200609</v>
+      </c>
+      <c r="AC249">
+        <v>74</v>
+      </c>
+      <c r="AD249">
+        <v>42146</v>
+      </c>
+      <c r="AE249">
+        <v>158389</v>
+      </c>
+      <c r="AF249">
+        <v>221181</v>
+      </c>
+      <c r="AG249">
+        <v>217434</v>
+      </c>
     </row>
     <row r="250" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -24962,6 +25654,99 @@
       <c r="B250">
         <v>25000</v>
       </c>
+      <c r="C250">
+        <v>1908</v>
+      </c>
+      <c r="D250">
+        <v>339</v>
+      </c>
+      <c r="E250">
+        <v>40079</v>
+      </c>
+      <c r="F250">
+        <v>349836</v>
+      </c>
+      <c r="G250">
+        <v>392162</v>
+      </c>
+      <c r="H250">
+        <v>109</v>
+      </c>
+      <c r="I250">
+        <v>0</v>
+      </c>
+      <c r="J250">
+        <v>25</v>
+      </c>
+      <c r="K250">
+        <v>84</v>
+      </c>
+      <c r="L250">
+        <v>4188</v>
+      </c>
+      <c r="M250">
+        <v>0</v>
+      </c>
+      <c r="N250">
+        <v>414</v>
+      </c>
+      <c r="O250">
+        <v>3774</v>
+      </c>
+      <c r="P250">
+        <v>1765</v>
+      </c>
+      <c r="Q250">
+        <v>1</v>
+      </c>
+      <c r="R250">
+        <v>308</v>
+      </c>
+      <c r="S250">
+        <v>1456</v>
+      </c>
+      <c r="T250">
+        <v>11830</v>
+      </c>
+      <c r="U250">
+        <v>911</v>
+      </c>
+      <c r="V250">
+        <v>4052</v>
+      </c>
+      <c r="W250">
+        <v>6867</v>
+      </c>
+      <c r="X250">
+        <v>3283</v>
+      </c>
+      <c r="Y250">
+        <v>65</v>
+      </c>
+      <c r="Z250">
+        <v>403</v>
+      </c>
+      <c r="AA250">
+        <v>2815</v>
+      </c>
+      <c r="AB250">
+        <v>202578</v>
+      </c>
+      <c r="AC250">
+        <v>84</v>
+      </c>
+      <c r="AD250">
+        <v>41822</v>
+      </c>
+      <c r="AE250">
+        <v>160672</v>
+      </c>
+      <c r="AF250">
+        <v>223753</v>
+      </c>
+      <c r="AG250">
+        <v>219456</v>
+      </c>
     </row>
     <row r="251" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -24969,6 +25754,99 @@
       </c>
       <c r="B251">
         <v>25000</v>
+      </c>
+      <c r="C251">
+        <v>1989</v>
+      </c>
+      <c r="D251">
+        <v>375</v>
+      </c>
+      <c r="E251">
+        <v>40043</v>
+      </c>
+      <c r="F251">
+        <v>348613</v>
+      </c>
+      <c r="G251">
+        <v>391020</v>
+      </c>
+      <c r="H251">
+        <v>87</v>
+      </c>
+      <c r="I251">
+        <v>0</v>
+      </c>
+      <c r="J251">
+        <v>20</v>
+      </c>
+      <c r="K251">
+        <v>67</v>
+      </c>
+      <c r="L251">
+        <v>4504</v>
+      </c>
+      <c r="M251">
+        <v>0</v>
+      </c>
+      <c r="N251">
+        <v>425</v>
+      </c>
+      <c r="O251">
+        <v>4079</v>
+      </c>
+      <c r="P251">
+        <v>1662</v>
+      </c>
+      <c r="Q251">
+        <v>1</v>
+      </c>
+      <c r="R251">
+        <v>295</v>
+      </c>
+      <c r="S251">
+        <v>1366</v>
+      </c>
+      <c r="T251">
+        <v>11880</v>
+      </c>
+      <c r="U251">
+        <v>899</v>
+      </c>
+      <c r="V251">
+        <v>4073</v>
+      </c>
+      <c r="W251">
+        <v>6908</v>
+      </c>
+      <c r="X251">
+        <v>3396</v>
+      </c>
+      <c r="Y251">
+        <v>70</v>
+      </c>
+      <c r="Z251">
+        <v>413</v>
+      </c>
+      <c r="AA251">
+        <v>2913</v>
+      </c>
+      <c r="AB251">
+        <v>201904</v>
+      </c>
+      <c r="AC251">
+        <v>88</v>
+      </c>
+      <c r="AD251">
+        <v>42204</v>
+      </c>
+      <c r="AE251">
+        <v>159612</v>
+      </c>
+      <c r="AF251">
+        <v>223433</v>
+      </c>
+      <c r="AG251">
+        <v>218842</v>
       </c>
     </row>
   </sheetData>
@@ -24977,5956 +25855,10 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A951231-B0A3-4FFC-86C6-6619D5753158}">
-  <dimension ref="A1:AA91"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A52" sqref="A52:B71"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="17.85546875" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="14.140625" customWidth="1"/>
-    <col min="14" max="14" width="14" customWidth="1"/>
-    <col min="15" max="15" width="13.85546875" customWidth="1"/>
-    <col min="16" max="16" width="15.140625" customWidth="1"/>
-    <col min="17" max="17" width="16.42578125" customWidth="1"/>
-    <col min="18" max="20" width="11.42578125" customWidth="1"/>
-    <col min="21" max="21" width="23.5703125" customWidth="1"/>
-    <col min="22" max="24" width="11.42578125" customWidth="1"/>
-    <col min="25" max="25" width="23" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" customWidth="1"/>
-    <col min="27" max="27" width="12.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S1" t="s">
-        <v>22</v>
-      </c>
-      <c r="T1" t="s">
-        <v>23</v>
-      </c>
-      <c r="U1" t="s">
-        <v>11</v>
-      </c>
-      <c r="V1" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" t="s">
-        <v>25</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>12</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>180</v>
-      </c>
-      <c r="B2" s="2">
-        <v>640</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F2" s="2">
-        <v>675</v>
-      </c>
-      <c r="G2" s="2">
-        <v>2001</v>
-      </c>
-      <c r="H2" s="2">
-        <v>0</v>
-      </c>
-      <c r="I2" s="2">
-        <v>241</v>
-      </c>
-      <c r="M2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>545</v>
-      </c>
-      <c r="U2" s="2">
-        <v>408</v>
-      </c>
-      <c r="Y2" s="2">
-        <v>649</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>1843</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>1602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>180</v>
-      </c>
-      <c r="B3" s="2">
-        <v>640</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2">
-        <v>8</v>
-      </c>
-      <c r="E3" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F3" s="2">
-        <v>712</v>
-      </c>
-      <c r="G3" s="2">
-        <v>2038</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2">
-        <v>266</v>
-      </c>
-      <c r="M3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>592</v>
-      </c>
-      <c r="U3" s="2">
-        <v>370</v>
-      </c>
-      <c r="Y3" s="2">
-        <v>677</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>1906</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>1639</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>180</v>
-      </c>
-      <c r="B4" s="2">
-        <v>640</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0</v>
-      </c>
-      <c r="D4" s="2">
-        <v>8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F4" s="2">
-        <v>726</v>
-      </c>
-      <c r="G4" s="2">
-        <v>2052</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
-        <v>307</v>
-      </c>
-      <c r="M4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>459</v>
-      </c>
-      <c r="U4" s="2">
-        <v>506</v>
-      </c>
-      <c r="Y4" s="2">
-        <v>696</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>1968</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>1661</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>180</v>
-      </c>
-      <c r="B5" s="2">
-        <v>640</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0</v>
-      </c>
-      <c r="D5" s="2">
-        <v>8</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F5" s="2">
-        <v>681</v>
-      </c>
-      <c r="G5" s="2">
-        <v>2007</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
-        <v>274</v>
-      </c>
-      <c r="M5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>414</v>
-      </c>
-      <c r="U5" s="2">
-        <v>549</v>
-      </c>
-      <c r="Y5" s="2">
-        <v>646</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>1883</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>180</v>
-      </c>
-      <c r="B6" s="2">
-        <v>640</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0</v>
-      </c>
-      <c r="D6" s="2">
-        <v>9</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1317</v>
-      </c>
-      <c r="F6" s="2">
-        <v>682</v>
-      </c>
-      <c r="G6" s="2">
-        <v>2008</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>270</v>
-      </c>
-      <c r="M6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>439</v>
-      </c>
-      <c r="U6" s="2">
-        <v>514</v>
-      </c>
-      <c r="Y6" s="2">
-        <v>645</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>1868</v>
-      </c>
-      <c r="AA6" s="2">
-        <v>1598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>180</v>
-      </c>
-      <c r="B7" s="2">
-        <v>640</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2">
-        <v>8</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F7" s="2">
-        <v>675</v>
-      </c>
-      <c r="G7" s="2">
-        <v>2001</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>267</v>
-      </c>
-      <c r="M7" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>425</v>
-      </c>
-      <c r="U7" s="2">
-        <v>515</v>
-      </c>
-      <c r="Y7" s="2">
-        <v>648</v>
-      </c>
-      <c r="Z7" s="2">
-        <v>1855</v>
-      </c>
-      <c r="AA7" s="2">
-        <v>1588</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>180</v>
-      </c>
-      <c r="B8" s="2">
-        <v>640</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0</v>
-      </c>
-      <c r="D8" s="2">
-        <v>8</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F8" s="2">
-        <v>694</v>
-      </c>
-      <c r="G8" s="2">
-        <v>2020</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>261</v>
-      </c>
-      <c r="M8" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>431</v>
-      </c>
-      <c r="U8" s="2">
-        <v>527</v>
-      </c>
-      <c r="Y8" s="2">
-        <v>669</v>
-      </c>
-      <c r="Z8" s="2">
-        <v>1888</v>
-      </c>
-      <c r="AA8" s="2">
-        <v>1627</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>180</v>
-      </c>
-      <c r="B9" s="2">
-        <v>640</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F9" s="2">
-        <v>674</v>
-      </c>
-      <c r="G9" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>216</v>
-      </c>
-      <c r="M9" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>514</v>
-      </c>
-      <c r="U9" s="2">
-        <v>443</v>
-      </c>
-      <c r="Y9" s="2">
-        <v>646</v>
-      </c>
-      <c r="Z9" s="2">
-        <v>1819</v>
-      </c>
-      <c r="AA9" s="2">
-        <v>1603</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>180</v>
-      </c>
-      <c r="B10" s="2">
-        <v>640</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F10" s="2">
-        <v>647</v>
-      </c>
-      <c r="G10" s="2">
-        <v>1973</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0</v>
-      </c>
-      <c r="I10" s="2">
-        <v>240</v>
-      </c>
-      <c r="M10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>420</v>
-      </c>
-      <c r="U10" s="2">
-        <v>545</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>602</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>1807</v>
-      </c>
-      <c r="AA10" s="2">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>180</v>
-      </c>
-      <c r="B11" s="2">
-        <v>640</v>
-      </c>
-      <c r="C11" s="2">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2">
-        <v>1318</v>
-      </c>
-      <c r="F11" s="2">
-        <v>701</v>
-      </c>
-      <c r="G11" s="2">
-        <v>2027</v>
-      </c>
-      <c r="H11" s="2">
-        <v>0</v>
-      </c>
-      <c r="I11" s="2">
-        <v>241</v>
-      </c>
-      <c r="M11" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>482</v>
-      </c>
-      <c r="U11" s="2">
-        <v>477</v>
-      </c>
-      <c r="Y11" s="2">
-        <v>676</v>
-      </c>
-      <c r="Z11" s="2">
-        <v>1876</v>
-      </c>
-      <c r="AA11" s="2">
-        <v>1635</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>180</v>
-      </c>
-      <c r="B12" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0</v>
-      </c>
-      <c r="D12" s="2">
-        <v>18</v>
-      </c>
-      <c r="E12" s="2">
-        <v>2759</v>
-      </c>
-      <c r="F12" s="2">
-        <v>727</v>
-      </c>
-      <c r="G12" s="2">
-        <v>3504</v>
-      </c>
-      <c r="H12" s="2">
-        <v>0</v>
-      </c>
-      <c r="I12" s="2">
-        <v>312</v>
-      </c>
-      <c r="M12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>1139</v>
-      </c>
-      <c r="U12" s="2">
-        <v>417</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>681</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>2549</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>2237</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>180</v>
-      </c>
-      <c r="B13" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C13" s="2">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2">
-        <v>17</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F13" s="2">
-        <v>723</v>
-      </c>
-      <c r="G13" s="2">
-        <v>3500</v>
-      </c>
-      <c r="H13" s="2">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2">
-        <v>286</v>
-      </c>
-      <c r="M13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>1147</v>
-      </c>
-      <c r="U13" s="2">
-        <v>404</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>666</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>2504</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>2217</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>180</v>
-      </c>
-      <c r="B14" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="2">
-        <v>17</v>
-      </c>
-      <c r="E14" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F14" s="2">
-        <v>716</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3493</v>
-      </c>
-      <c r="H14" s="2">
-        <v>0</v>
-      </c>
-      <c r="I14" s="2">
-        <v>267</v>
-      </c>
-      <c r="M14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>1096</v>
-      </c>
-      <c r="U14" s="2">
-        <v>466</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>665</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>2494</v>
-      </c>
-      <c r="AA14" s="2">
-        <v>2227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>180</v>
-      </c>
-      <c r="B15" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="2">
-        <v>17</v>
-      </c>
-      <c r="E15" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F15" s="2">
-        <v>702</v>
-      </c>
-      <c r="G15" s="2">
-        <v>3479</v>
-      </c>
-      <c r="H15" s="2">
-        <v>1</v>
-      </c>
-      <c r="I15" s="2">
-        <v>221</v>
-      </c>
-      <c r="M15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>1123</v>
-      </c>
-      <c r="U15" s="2">
-        <v>436</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>649</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>2430</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
-        <v>180</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="2">
-        <v>17</v>
-      </c>
-      <c r="E16" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F16" s="2">
-        <v>725</v>
-      </c>
-      <c r="G16" s="2">
-        <v>3502</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0</v>
-      </c>
-      <c r="I16" s="2">
-        <v>288</v>
-      </c>
-      <c r="M16" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>1099</v>
-      </c>
-      <c r="U16" s="2">
-        <v>443</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>675</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>2506</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="17" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
-        <v>180</v>
-      </c>
-      <c r="B17" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="2">
-        <v>17</v>
-      </c>
-      <c r="E17" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F17" s="2">
-        <v>647</v>
-      </c>
-      <c r="G17" s="2">
-        <v>3424</v>
-      </c>
-      <c r="H17" s="2">
-        <v>0</v>
-      </c>
-      <c r="I17" s="2">
-        <v>336</v>
-      </c>
-      <c r="M17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>1138</v>
-      </c>
-      <c r="U17" s="2">
-        <v>430</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>594</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>2498</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>2162</v>
-      </c>
-    </row>
-    <row r="18" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
-        <v>180</v>
-      </c>
-      <c r="B18" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="2">
-        <v>17</v>
-      </c>
-      <c r="E18" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F18" s="2">
-        <v>674</v>
-      </c>
-      <c r="G18" s="2">
-        <v>3451</v>
-      </c>
-      <c r="H18" s="2">
-        <v>2</v>
-      </c>
-      <c r="I18" s="2">
-        <v>262</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>1134</v>
-      </c>
-      <c r="U18" s="2">
-        <v>416</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>621</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>2435</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="19" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
-        <v>180</v>
-      </c>
-      <c r="B19" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="2">
-        <v>17</v>
-      </c>
-      <c r="E19" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F19" s="2">
-        <v>686</v>
-      </c>
-      <c r="G19" s="2">
-        <v>3463</v>
-      </c>
-      <c r="H19" s="2">
-        <v>1</v>
-      </c>
-      <c r="I19" s="2">
-        <v>275</v>
-      </c>
-      <c r="M19" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>1149</v>
-      </c>
-      <c r="U19" s="2">
-        <v>415</v>
-      </c>
-      <c r="Y19" s="2">
-        <v>611</v>
-      </c>
-      <c r="Z19" s="2">
-        <v>2451</v>
-      </c>
-      <c r="AA19" s="2">
-        <v>2175</v>
-      </c>
-    </row>
-    <row r="20" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
-        <v>180</v>
-      </c>
-      <c r="B20" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="2">
-        <v>17</v>
-      </c>
-      <c r="E20" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F20" s="2">
-        <v>697</v>
-      </c>
-      <c r="G20" s="2">
-        <v>3474</v>
-      </c>
-      <c r="H20" s="2">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>263</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>1134</v>
-      </c>
-      <c r="U20" s="2">
-        <v>432</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>642</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>2471</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>2208</v>
-      </c>
-    </row>
-    <row r="21" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
-        <v>180</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1600</v>
-      </c>
-      <c r="C21" s="2">
-        <v>0</v>
-      </c>
-      <c r="D21" s="2">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2">
-        <v>2760</v>
-      </c>
-      <c r="F21" s="2">
-        <v>673</v>
-      </c>
-      <c r="G21" s="2">
-        <v>3450</v>
-      </c>
-      <c r="H21" s="2">
-        <v>0</v>
-      </c>
-      <c r="I21" s="2">
-        <v>249</v>
-      </c>
-      <c r="M21" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>1117</v>
-      </c>
-      <c r="U21" s="2">
-        <v>436</v>
-      </c>
-      <c r="Y21" s="2">
-        <v>632</v>
-      </c>
-      <c r="Z21" s="2">
-        <v>2434</v>
-      </c>
-      <c r="AA21" s="2">
-        <v>2185</v>
-      </c>
-    </row>
-    <row r="22" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>180</v>
-      </c>
-      <c r="B22" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C22" s="2">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2">
-        <v>49</v>
-      </c>
-      <c r="E22" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F22" s="2">
-        <v>687</v>
-      </c>
-      <c r="G22" s="2">
-        <v>7208</v>
-      </c>
-      <c r="H22" s="2">
-        <v>2</v>
-      </c>
-      <c r="I22" s="2">
-        <v>225</v>
-      </c>
-      <c r="M22" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>1969</v>
-      </c>
-      <c r="U22" s="2">
-        <v>619</v>
-      </c>
-      <c r="Y22" s="2">
-        <v>614</v>
-      </c>
-      <c r="Z22" s="2">
-        <v>3429</v>
-      </c>
-      <c r="AA22" s="2">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>180</v>
-      </c>
-      <c r="B23" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C23" s="2">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2">
-        <v>49</v>
-      </c>
-      <c r="E23" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F23" s="2">
-        <v>689</v>
-      </c>
-      <c r="G23" s="2">
-        <v>7210</v>
-      </c>
-      <c r="H23" s="2">
-        <v>4</v>
-      </c>
-      <c r="I23" s="2">
-        <v>275</v>
-      </c>
-      <c r="M23" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>2024</v>
-      </c>
-      <c r="U23" s="2">
-        <v>581</v>
-      </c>
-      <c r="Y23" s="2">
-        <v>613</v>
-      </c>
-      <c r="Z23" s="2">
-        <v>3497</v>
-      </c>
-      <c r="AA23" s="2">
-        <v>3218</v>
-      </c>
-    </row>
-    <row r="24" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>180</v>
-      </c>
-      <c r="B24" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C24" s="2">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2">
-        <v>50</v>
-      </c>
-      <c r="E24" s="2">
-        <v>6471</v>
-      </c>
-      <c r="F24" s="2">
-        <v>633</v>
-      </c>
-      <c r="G24" s="2">
-        <v>7154</v>
-      </c>
-      <c r="H24" s="2">
-        <v>3</v>
-      </c>
-      <c r="I24" s="2">
-        <v>219</v>
-      </c>
-      <c r="M24" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>2018</v>
-      </c>
-      <c r="U24" s="2">
-        <v>606</v>
-      </c>
-      <c r="Y24" s="2">
-        <v>563</v>
-      </c>
-      <c r="Z24" s="2">
-        <v>3409</v>
-      </c>
-      <c r="AA24" s="2">
-        <v>3187</v>
-      </c>
-    </row>
-    <row r="25" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>180</v>
-      </c>
-      <c r="B25" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C25" s="2">
-        <v>0</v>
-      </c>
-      <c r="D25" s="2">
-        <v>50</v>
-      </c>
-      <c r="E25" s="2">
-        <v>6471</v>
-      </c>
-      <c r="F25" s="2">
-        <v>703</v>
-      </c>
-      <c r="G25" s="2">
-        <v>7224</v>
-      </c>
-      <c r="H25" s="2">
-        <v>1</v>
-      </c>
-      <c r="I25" s="2">
-        <v>241</v>
-      </c>
-      <c r="M25" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>1952</v>
-      </c>
-      <c r="U25" s="2">
-        <v>650</v>
-      </c>
-      <c r="Y25" s="2">
-        <v>620</v>
-      </c>
-      <c r="Z25" s="2">
-        <v>3464</v>
-      </c>
-      <c r="AA25" s="2">
-        <v>3222</v>
-      </c>
-    </row>
-    <row r="26" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>180</v>
-      </c>
-      <c r="B26" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C26" s="2">
-        <v>0</v>
-      </c>
-      <c r="D26" s="2">
-        <v>49</v>
-      </c>
-      <c r="E26" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F26" s="2">
-        <v>680</v>
-      </c>
-      <c r="G26" s="2">
-        <v>7201</v>
-      </c>
-      <c r="H26" s="2">
-        <v>2</v>
-      </c>
-      <c r="I26" s="2">
-        <v>198</v>
-      </c>
-      <c r="M26" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>2041</v>
-      </c>
-      <c r="U26" s="2">
-        <v>558</v>
-      </c>
-      <c r="Y26" s="2">
-        <v>603</v>
-      </c>
-      <c r="Z26" s="2">
-        <v>3402</v>
-      </c>
-      <c r="AA26" s="2">
-        <v>3202</v>
-      </c>
-    </row>
-    <row r="27" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>180</v>
-      </c>
-      <c r="B27" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2">
-        <v>49</v>
-      </c>
-      <c r="E27" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F27" s="2">
-        <v>685</v>
-      </c>
-      <c r="G27" s="2">
-        <v>7206</v>
-      </c>
-      <c r="H27" s="2">
-        <v>1</v>
-      </c>
-      <c r="I27" s="2">
-        <v>247</v>
-      </c>
-      <c r="M27" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>2037</v>
-      </c>
-      <c r="U27" s="2">
-        <v>575</v>
-      </c>
-      <c r="Y27" s="2">
-        <v>598</v>
-      </c>
-      <c r="Z27" s="2">
-        <v>3458</v>
-      </c>
-      <c r="AA27" s="2">
-        <v>3210</v>
-      </c>
-    </row>
-    <row r="28" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>180</v>
-      </c>
-      <c r="B28" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C28" s="2">
-        <v>0</v>
-      </c>
-      <c r="D28" s="2">
-        <v>49</v>
-      </c>
-      <c r="E28" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F28" s="2">
-        <v>710</v>
-      </c>
-      <c r="G28" s="2">
-        <v>7231</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>216</v>
-      </c>
-      <c r="M28" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>2002</v>
-      </c>
-      <c r="U28" s="2">
-        <v>601</v>
-      </c>
-      <c r="Y28" s="2">
-        <v>621</v>
-      </c>
-      <c r="Z28" s="2">
-        <v>3440</v>
-      </c>
-      <c r="AA28" s="2">
-        <v>3224</v>
-      </c>
-    </row>
-    <row r="29" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>180</v>
-      </c>
-      <c r="B29" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C29" s="2">
-        <v>0</v>
-      </c>
-      <c r="D29" s="2">
-        <v>49</v>
-      </c>
-      <c r="E29" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F29" s="2">
-        <v>686</v>
-      </c>
-      <c r="G29" s="2">
-        <v>7207</v>
-      </c>
-      <c r="H29" s="2">
-        <v>2</v>
-      </c>
-      <c r="I29" s="2">
-        <v>196</v>
-      </c>
-      <c r="M29" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>1972</v>
-      </c>
-      <c r="U29" s="2">
-        <v>649</v>
-      </c>
-      <c r="Y29" s="2">
-        <v>619</v>
-      </c>
-      <c r="Z29" s="2">
-        <v>3438</v>
-      </c>
-      <c r="AA29" s="2">
-        <v>3240</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>180</v>
-      </c>
-      <c r="B30" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2">
-        <v>49</v>
-      </c>
-      <c r="E30" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F30" s="2">
-        <v>676</v>
-      </c>
-      <c r="G30" s="2">
-        <v>7197</v>
-      </c>
-      <c r="H30" s="2">
-        <v>2</v>
-      </c>
-      <c r="I30" s="2">
-        <v>215</v>
-      </c>
-      <c r="M30" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>2004</v>
-      </c>
-      <c r="U30" s="2">
-        <v>598</v>
-      </c>
-      <c r="Y30" s="2">
-        <v>594</v>
-      </c>
-      <c r="Z30" s="2">
-        <v>3413</v>
-      </c>
-      <c r="AA30" s="2">
-        <v>3196</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>180</v>
-      </c>
-      <c r="B31" s="2">
-        <v>4000</v>
-      </c>
-      <c r="C31" s="2">
-        <v>0</v>
-      </c>
-      <c r="D31" s="2">
-        <v>49</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6472</v>
-      </c>
-      <c r="F31" s="2">
-        <v>690</v>
-      </c>
-      <c r="G31" s="2">
-        <v>7211</v>
-      </c>
-      <c r="H31" s="2">
-        <v>2</v>
-      </c>
-      <c r="I31" s="2">
-        <v>214</v>
-      </c>
-      <c r="M31" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>1993</v>
-      </c>
-      <c r="U31" s="2">
-        <v>619</v>
-      </c>
-      <c r="Y31" s="2">
-        <v>622</v>
-      </c>
-      <c r="Z31" s="2">
-        <v>3450</v>
-      </c>
-      <c r="AA31" s="2">
-        <v>3234</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
-        <v>180</v>
-      </c>
-      <c r="B32" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C32" s="2">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2">
-        <v>86</v>
-      </c>
-      <c r="E32" s="2">
-        <v>16863</v>
-      </c>
-      <c r="F32" s="2">
-        <v>704</v>
-      </c>
-      <c r="G32" s="2">
-        <v>17653</v>
-      </c>
-      <c r="H32" s="2">
-        <v>7</v>
-      </c>
-      <c r="I32" s="2">
-        <v>163</v>
-      </c>
-      <c r="M32" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>5376</v>
-      </c>
-      <c r="U32" s="2">
-        <v>805</v>
-      </c>
-      <c r="Y32" s="2">
-        <v>578</v>
-      </c>
-      <c r="Z32" s="2">
-        <v>6929</v>
-      </c>
-      <c r="AA32" s="2">
-        <v>6759</v>
-      </c>
-    </row>
-    <row r="33" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
-        <v>180</v>
-      </c>
-      <c r="B33" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C33" s="2">
-        <v>0</v>
-      </c>
-      <c r="D33" s="2">
-        <v>85</v>
-      </c>
-      <c r="E33" s="2">
-        <v>16864</v>
-      </c>
-      <c r="F33" s="2">
-        <v>692</v>
-      </c>
-      <c r="G33" s="2">
-        <v>17641</v>
-      </c>
-      <c r="H33" s="2">
-        <v>9</v>
-      </c>
-      <c r="I33" s="2">
-        <v>174</v>
-      </c>
-      <c r="M33" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>5408</v>
-      </c>
-      <c r="U33" s="2">
-        <v>780</v>
-      </c>
-      <c r="Y33" s="2">
-        <v>590</v>
-      </c>
-      <c r="Z33" s="2">
-        <v>6961</v>
-      </c>
-      <c r="AA33" s="2">
-        <v>6778</v>
-      </c>
-    </row>
-    <row r="34" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
-        <v>180</v>
-      </c>
-      <c r="B34" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C34" s="2">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2">
-        <v>88</v>
-      </c>
-      <c r="E34" s="2">
-        <v>16861</v>
-      </c>
-      <c r="F34" s="2">
-        <v>712</v>
-      </c>
-      <c r="G34" s="2">
-        <v>17661</v>
-      </c>
-      <c r="H34" s="2">
-        <v>8</v>
-      </c>
-      <c r="I34" s="2">
-        <v>150</v>
-      </c>
-      <c r="M34" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>5421</v>
-      </c>
-      <c r="U34" s="2">
-        <v>742</v>
-      </c>
-      <c r="Y34" s="2">
-        <v>582</v>
-      </c>
-      <c r="Z34" s="2">
-        <v>6903</v>
-      </c>
-      <c r="AA34" s="2">
-        <v>6745</v>
-      </c>
-    </row>
-    <row r="35" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
-        <v>180</v>
-      </c>
-      <c r="B35" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C35" s="2">
-        <v>0</v>
-      </c>
-      <c r="D35" s="2">
-        <v>85</v>
-      </c>
-      <c r="E35" s="2">
-        <v>16864</v>
-      </c>
-      <c r="F35" s="2">
-        <v>708</v>
-      </c>
-      <c r="G35" s="2">
-        <v>17657</v>
-      </c>
-      <c r="H35" s="2">
-        <v>8</v>
-      </c>
-      <c r="I35" s="2">
-        <v>146</v>
-      </c>
-      <c r="M35" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>5422</v>
-      </c>
-      <c r="U35" s="2">
-        <v>739</v>
-      </c>
-      <c r="Y35" s="2">
-        <v>599</v>
-      </c>
-      <c r="Z35" s="2">
-        <v>6914</v>
-      </c>
-      <c r="AA35" s="2">
-        <v>6760</v>
-      </c>
-    </row>
-    <row r="36" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
-        <v>180</v>
-      </c>
-      <c r="B36" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C36" s="2">
-        <v>0</v>
-      </c>
-      <c r="D36" s="2">
-        <v>84</v>
-      </c>
-      <c r="E36" s="2">
-        <v>16865</v>
-      </c>
-      <c r="F36" s="2">
-        <v>701</v>
-      </c>
-      <c r="G36" s="2">
-        <v>17650</v>
-      </c>
-      <c r="H36" s="2">
-        <v>4</v>
-      </c>
-      <c r="I36" s="2">
-        <v>174</v>
-      </c>
-      <c r="M36" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>5361</v>
-      </c>
-      <c r="U36" s="2">
-        <v>811</v>
-      </c>
-      <c r="Y36" s="2">
-        <v>587</v>
-      </c>
-      <c r="Z36" s="2">
-        <v>6937</v>
-      </c>
-      <c r="AA36" s="2">
-        <v>6759</v>
-      </c>
-    </row>
-    <row r="37" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
-        <v>180</v>
-      </c>
-      <c r="B37" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C37" s="2">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2">
-        <v>84</v>
-      </c>
-      <c r="E37" s="2">
-        <v>16865</v>
-      </c>
-      <c r="F37" s="2">
-        <v>709</v>
-      </c>
-      <c r="G37" s="2">
-        <v>17658</v>
-      </c>
-      <c r="H37" s="2">
-        <v>5</v>
-      </c>
-      <c r="I37" s="2">
-        <v>161</v>
-      </c>
-      <c r="M37" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>5379</v>
-      </c>
-      <c r="U37" s="2">
-        <v>757</v>
-      </c>
-      <c r="Y37" s="2">
-        <v>603</v>
-      </c>
-      <c r="Z37" s="2">
-        <v>6905</v>
-      </c>
-      <c r="AA37" s="2">
-        <v>6739</v>
-      </c>
-    </row>
-    <row r="38" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
-        <v>180</v>
-      </c>
-      <c r="B38" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C38" s="2">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2">
-        <v>85</v>
-      </c>
-      <c r="E38" s="2">
-        <v>16864</v>
-      </c>
-      <c r="F38" s="2">
-        <v>672</v>
-      </c>
-      <c r="G38" s="2">
-        <v>17621</v>
-      </c>
-      <c r="H38" s="2">
-        <v>9</v>
-      </c>
-      <c r="I38" s="2">
-        <v>141</v>
-      </c>
-      <c r="M38" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>5382</v>
-      </c>
-      <c r="U38" s="2">
-        <v>797</v>
-      </c>
-      <c r="Y38" s="2">
-        <v>556</v>
-      </c>
-      <c r="Z38" s="2">
-        <v>6886</v>
-      </c>
-      <c r="AA38" s="2">
-        <v>6736</v>
-      </c>
-    </row>
-    <row r="39" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
-        <v>180</v>
-      </c>
-      <c r="B39" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C39" s="2">
-        <v>0</v>
-      </c>
-      <c r="D39" s="2">
-        <v>84</v>
-      </c>
-      <c r="E39" s="2">
-        <v>16865</v>
-      </c>
-      <c r="F39" s="2">
-        <v>649</v>
-      </c>
-      <c r="G39" s="2">
-        <v>17598</v>
-      </c>
-      <c r="H39" s="2">
-        <v>13</v>
-      </c>
-      <c r="I39" s="2">
-        <v>163</v>
-      </c>
-      <c r="M39" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>5425</v>
-      </c>
-      <c r="U39" s="2">
-        <v>765</v>
-      </c>
-      <c r="Y39" s="2">
-        <v>556</v>
-      </c>
-      <c r="Z39" s="2">
-        <v>6922</v>
-      </c>
-      <c r="AA39" s="2">
-        <v>6746</v>
-      </c>
-    </row>
-    <row r="40" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>180</v>
-      </c>
-      <c r="B40" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C40" s="2">
-        <v>0</v>
-      </c>
-      <c r="D40" s="2">
-        <v>84</v>
-      </c>
-      <c r="E40" s="2">
-        <v>16865</v>
-      </c>
-      <c r="F40" s="2">
-        <v>682</v>
-      </c>
-      <c r="G40" s="2">
-        <v>17631</v>
-      </c>
-      <c r="H40" s="2">
-        <v>4</v>
-      </c>
-      <c r="I40" s="2">
-        <v>137</v>
-      </c>
-      <c r="M40" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>5333</v>
-      </c>
-      <c r="U40" s="2">
-        <v>855</v>
-      </c>
-      <c r="Y40" s="2">
-        <v>571</v>
-      </c>
-      <c r="Z40" s="2">
-        <v>6900</v>
-      </c>
-      <c r="AA40" s="2">
-        <v>6759</v>
-      </c>
-    </row>
-    <row r="41" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
-        <v>180</v>
-      </c>
-      <c r="B41" s="2">
-        <v>10000</v>
-      </c>
-      <c r="C41" s="2">
-        <v>0</v>
-      </c>
-      <c r="D41" s="2">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2">
-        <v>16865</v>
-      </c>
-      <c r="F41" s="2">
-        <v>658</v>
-      </c>
-      <c r="G41" s="2">
-        <v>17607</v>
-      </c>
-      <c r="H41" s="2">
-        <v>6</v>
-      </c>
-      <c r="I41" s="2">
-        <v>193</v>
-      </c>
-      <c r="M41" s="2">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>5382</v>
-      </c>
-      <c r="U41" s="2">
-        <v>806</v>
-      </c>
-      <c r="Y41" s="2">
-        <v>565</v>
-      </c>
-      <c r="Z41" s="2">
-        <v>6952</v>
-      </c>
-      <c r="AA41" s="2">
-        <v>6753</v>
-      </c>
-    </row>
-    <row r="42" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
-        <v>180</v>
-      </c>
-      <c r="B42" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C42" s="2">
-        <v>66</v>
-      </c>
-      <c r="D42" s="2">
-        <v>620</v>
-      </c>
-      <c r="E42" s="2">
-        <v>39797</v>
-      </c>
-      <c r="F42" s="2">
-        <v>651</v>
-      </c>
-      <c r="G42" s="2">
-        <v>41134</v>
-      </c>
-      <c r="H42" s="2">
-        <v>44</v>
-      </c>
-      <c r="I42" s="2">
-        <v>170</v>
-      </c>
-      <c r="M42" s="2">
-        <v>36</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>13964</v>
-      </c>
-      <c r="U42" s="2">
-        <v>1534</v>
-      </c>
-      <c r="Y42" s="2">
-        <v>520</v>
-      </c>
-      <c r="Z42" s="2">
-        <v>16268</v>
-      </c>
-      <c r="AA42" s="2">
-        <v>16054</v>
-      </c>
-    </row>
-    <row r="43" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
-        <v>180</v>
-      </c>
-      <c r="B43" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C43" s="2">
-        <v>74</v>
-      </c>
-      <c r="D43" s="2">
-        <v>606</v>
-      </c>
-      <c r="E43" s="2">
-        <v>39811</v>
-      </c>
-      <c r="F43" s="2">
-        <v>575</v>
-      </c>
-      <c r="G43" s="2">
-        <v>41066</v>
-      </c>
-      <c r="H43" s="2">
-        <v>48</v>
-      </c>
-      <c r="I43" s="2">
-        <v>173</v>
-      </c>
-      <c r="M43" s="2">
-        <v>49</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>14037</v>
-      </c>
-      <c r="U43" s="2">
-        <v>1511</v>
-      </c>
-      <c r="Y43" s="2">
-        <v>472</v>
-      </c>
-      <c r="Z43" s="2">
-        <v>16290</v>
-      </c>
-      <c r="AA43" s="2">
-        <v>16069</v>
-      </c>
-    </row>
-    <row r="44" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
-        <v>180</v>
-      </c>
-      <c r="B44" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C44" s="2">
-        <v>66</v>
-      </c>
-      <c r="D44" s="2">
-        <v>602</v>
-      </c>
-      <c r="E44" s="2">
-        <v>39815</v>
-      </c>
-      <c r="F44" s="2">
-        <v>595</v>
-      </c>
-      <c r="G44" s="2">
-        <v>41078</v>
-      </c>
-      <c r="H44" s="2">
-        <v>70</v>
-      </c>
-      <c r="I44" s="2">
-        <v>185</v>
-      </c>
-      <c r="M44" s="2">
-        <v>43</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>14137</v>
-      </c>
-      <c r="U44" s="2">
-        <v>1553</v>
-      </c>
-      <c r="Y44" s="2">
-        <v>475</v>
-      </c>
-      <c r="Z44" s="2">
-        <v>16463</v>
-      </c>
-      <c r="AA44" s="2">
-        <v>16208</v>
-      </c>
-    </row>
-    <row r="45" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
-        <v>180</v>
-      </c>
-      <c r="B45" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C45" s="2">
-        <v>73</v>
-      </c>
-      <c r="D45" s="2">
-        <v>618</v>
-      </c>
-      <c r="E45" s="2">
-        <v>39799</v>
-      </c>
-      <c r="F45" s="2">
-        <v>625</v>
-      </c>
-      <c r="G45" s="2">
-        <v>41115</v>
-      </c>
-      <c r="H45" s="2">
-        <v>53</v>
-      </c>
-      <c r="I45" s="2">
-        <v>148</v>
-      </c>
-      <c r="M45" s="2">
-        <v>48</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>14025</v>
-      </c>
-      <c r="U45" s="2">
-        <v>1528</v>
-      </c>
-      <c r="Y45" s="2">
-        <v>504</v>
-      </c>
-      <c r="Z45" s="2">
-        <v>16306</v>
-      </c>
-      <c r="AA45" s="2">
-        <v>16105</v>
-      </c>
-    </row>
-    <row r="46" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>180</v>
-      </c>
-      <c r="B46" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C46" s="2">
-        <v>55</v>
-      </c>
-      <c r="D46" s="2">
-        <v>600</v>
-      </c>
-      <c r="E46" s="2">
-        <v>39817</v>
-      </c>
-      <c r="F46" s="2">
-        <v>581</v>
-      </c>
-      <c r="G46" s="2">
-        <v>41053</v>
-      </c>
-      <c r="H46" s="2">
-        <v>34</v>
-      </c>
-      <c r="I46" s="2">
-        <v>146</v>
-      </c>
-      <c r="M46" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>13991</v>
-      </c>
-      <c r="U46" s="2">
-        <v>1539</v>
-      </c>
-      <c r="Y46" s="2">
-        <v>460</v>
-      </c>
-      <c r="Z46" s="2">
-        <v>16208</v>
-      </c>
-      <c r="AA46" s="2">
-        <v>16028</v>
-      </c>
-    </row>
-    <row r="47" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>180</v>
-      </c>
-      <c r="B47" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C47" s="2">
-        <v>81</v>
-      </c>
-      <c r="D47" s="2">
-        <v>616</v>
-      </c>
-      <c r="E47" s="2">
-        <v>39801</v>
-      </c>
-      <c r="F47" s="2">
-        <v>599</v>
-      </c>
-      <c r="G47" s="2">
-        <v>41097</v>
-      </c>
-      <c r="H47" s="2">
-        <v>37</v>
-      </c>
-      <c r="I47" s="2">
-        <v>206</v>
-      </c>
-      <c r="M47" s="2">
-        <v>44</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>13967</v>
-      </c>
-      <c r="U47" s="2">
-        <v>1580</v>
-      </c>
-      <c r="Y47" s="2">
-        <v>494</v>
-      </c>
-      <c r="Z47" s="2">
-        <v>16328</v>
-      </c>
-      <c r="AA47" s="2">
-        <v>16085</v>
-      </c>
-    </row>
-    <row r="48" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>180</v>
-      </c>
-      <c r="B48" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C48" s="2">
-        <v>74</v>
-      </c>
-      <c r="D48" s="2">
-        <v>618</v>
-      </c>
-      <c r="E48" s="2">
-        <v>39799</v>
-      </c>
-      <c r="F48" s="2">
-        <v>611</v>
-      </c>
-      <c r="G48" s="2">
-        <v>41102</v>
-      </c>
-      <c r="H48" s="2">
-        <v>44</v>
-      </c>
-      <c r="I48" s="2">
-        <v>183</v>
-      </c>
-      <c r="M48" s="2">
-        <v>35</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>13945</v>
-      </c>
-      <c r="U48" s="2">
-        <v>1622</v>
-      </c>
-      <c r="Y48" s="2">
-        <v>526</v>
-      </c>
-      <c r="Z48" s="2">
-        <v>16355</v>
-      </c>
-      <c r="AA48" s="2">
-        <v>16128</v>
-      </c>
-    </row>
-    <row r="49" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>180</v>
-      </c>
-      <c r="B49" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C49" s="2">
-        <v>78</v>
-      </c>
-      <c r="D49" s="2">
-        <v>616</v>
-      </c>
-      <c r="E49" s="2">
-        <v>39801</v>
-      </c>
-      <c r="F49" s="2">
-        <v>603</v>
-      </c>
-      <c r="G49" s="2">
-        <v>41098</v>
-      </c>
-      <c r="H49" s="2">
-        <v>56</v>
-      </c>
-      <c r="I49" s="2">
-        <v>199</v>
-      </c>
-      <c r="M49" s="2">
-        <v>47</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>14085</v>
-      </c>
-      <c r="U49" s="2">
-        <v>1473</v>
-      </c>
-      <c r="Y49" s="2">
-        <v>486</v>
-      </c>
-      <c r="Z49" s="2">
-        <v>16346</v>
-      </c>
-      <c r="AA49" s="2">
-        <v>16091</v>
-      </c>
-    </row>
-    <row r="50" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>180</v>
-      </c>
-      <c r="B50" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C50" s="2">
-        <v>76</v>
-      </c>
-      <c r="D50" s="2">
-        <v>612</v>
-      </c>
-      <c r="E50" s="2">
-        <v>39805</v>
-      </c>
-      <c r="F50" s="2">
-        <v>594</v>
-      </c>
-      <c r="G50" s="2">
-        <v>41087</v>
-      </c>
-      <c r="H50" s="2">
-        <v>38</v>
-      </c>
-      <c r="I50" s="2">
-        <v>229</v>
-      </c>
-      <c r="M50" s="2">
-        <v>38</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>14017</v>
-      </c>
-      <c r="U50" s="2">
-        <v>1546</v>
-      </c>
-      <c r="Y50" s="2">
-        <v>482</v>
-      </c>
-      <c r="Z50" s="2">
-        <v>16350</v>
-      </c>
-      <c r="AA50" s="2">
-        <v>16083</v>
-      </c>
-    </row>
-    <row r="51" spans="1:27" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>180</v>
-      </c>
-      <c r="B51" s="2">
-        <v>25000</v>
-      </c>
-      <c r="C51" s="2">
-        <v>87</v>
-      </c>
-      <c r="D51" s="2">
-        <v>583</v>
-      </c>
-      <c r="E51" s="2">
-        <v>39834</v>
-      </c>
-      <c r="F51" s="2">
-        <v>613</v>
-      </c>
-      <c r="G51" s="2">
-        <v>41117</v>
-      </c>
-      <c r="H51" s="2">
-        <v>51</v>
-      </c>
-      <c r="I51" s="2">
-        <v>174</v>
-      </c>
-      <c r="M51" s="2">
-        <v>46</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>14030</v>
-      </c>
-      <c r="U51" s="2">
-        <v>1568</v>
-      </c>
-      <c r="Y51" s="2">
-        <v>510</v>
-      </c>
-      <c r="Z51" s="2">
-        <v>16379</v>
-      </c>
-      <c r="AA51" s="2">
-        <v>16154</v>
-      </c>
-    </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>25</v>
-      </c>
-      <c r="B52">
-        <v>640</v>
-      </c>
-      <c r="C52">
-        <v>8</v>
-      </c>
-      <c r="D52">
-        <v>8</v>
-      </c>
-      <c r="E52">
-        <v>1314</v>
-      </c>
-      <c r="F52">
-        <v>19808</v>
-      </c>
-      <c r="G52">
-        <v>21138</v>
-      </c>
-      <c r="H52">
-        <v>0</v>
-      </c>
-      <c r="I52">
-        <v>749</v>
-      </c>
-      <c r="J52">
-        <v>0</v>
-      </c>
-      <c r="K52">
-        <v>0</v>
-      </c>
-      <c r="L52">
-        <v>23</v>
-      </c>
-      <c r="M52">
-        <f t="shared" ref="M52:M91" si="0">J52+K52+L52</f>
-        <v>23</v>
-      </c>
-      <c r="N52">
-        <v>33</v>
-      </c>
-      <c r="O52">
-        <v>58</v>
-      </c>
-      <c r="P52">
-        <v>549</v>
-      </c>
-      <c r="Q52">
-        <f t="shared" ref="Q52:Q91" si="1">N52+O52+P52</f>
-        <v>640</v>
-      </c>
-      <c r="R52">
-        <v>6</v>
-      </c>
-      <c r="S52">
-        <v>14</v>
-      </c>
-      <c r="T52">
-        <v>366</v>
-      </c>
-      <c r="U52">
-        <f t="shared" ref="U52:U91" si="2">R52+S52+T52</f>
-        <v>386</v>
-      </c>
-      <c r="V52">
-        <v>34</v>
-      </c>
-      <c r="W52">
-        <v>610</v>
-      </c>
-      <c r="X52">
-        <v>16874</v>
-      </c>
-      <c r="Y52">
-        <f t="shared" ref="Y52:Y91" si="3">V52+W52+X52</f>
-        <v>17518</v>
-      </c>
-      <c r="Z52">
-        <v>19316</v>
-      </c>
-      <c r="AA52">
-        <v>18567</v>
-      </c>
-    </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>25</v>
-      </c>
-      <c r="B53">
-        <v>640</v>
-      </c>
-      <c r="C53">
-        <v>6</v>
-      </c>
-      <c r="D53">
-        <v>8</v>
-      </c>
-      <c r="E53">
-        <v>1314</v>
-      </c>
-      <c r="F53">
-        <v>19389</v>
-      </c>
-      <c r="G53">
-        <v>20717</v>
-      </c>
-      <c r="H53">
-        <v>0</v>
-      </c>
-      <c r="I53">
-        <v>688</v>
-      </c>
-      <c r="J53">
-        <v>0</v>
-      </c>
-      <c r="K53">
-        <v>0</v>
-      </c>
-      <c r="L53">
-        <v>13</v>
-      </c>
-      <c r="M53">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N53">
-        <v>31</v>
-      </c>
-      <c r="O53">
-        <v>38</v>
-      </c>
-      <c r="P53">
-        <v>377</v>
-      </c>
-      <c r="Q53">
-        <f t="shared" si="1"/>
-        <v>446</v>
-      </c>
-      <c r="R53">
-        <v>8</v>
-      </c>
-      <c r="S53">
-        <v>35</v>
-      </c>
-      <c r="T53">
-        <v>516</v>
-      </c>
-      <c r="U53">
-        <f t="shared" si="2"/>
-        <v>559</v>
-      </c>
-      <c r="V53">
-        <v>36</v>
-      </c>
-      <c r="W53">
-        <v>669</v>
-      </c>
-      <c r="X53">
-        <v>16437</v>
-      </c>
-      <c r="Y53">
-        <f t="shared" si="3"/>
-        <v>17142</v>
-      </c>
-      <c r="Z53">
-        <v>18848</v>
-      </c>
-      <c r="AA53">
-        <v>18160</v>
-      </c>
-    </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>25</v>
-      </c>
-      <c r="B54">
-        <v>640</v>
-      </c>
-      <c r="C54">
-        <v>7</v>
-      </c>
-      <c r="D54">
-        <v>8</v>
-      </c>
-      <c r="E54">
-        <v>1314</v>
-      </c>
-      <c r="F54">
-        <v>19555</v>
-      </c>
-      <c r="G54">
-        <v>20884</v>
-      </c>
-      <c r="H54">
-        <v>0</v>
-      </c>
-      <c r="I54">
-        <v>761</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54">
-        <v>2</v>
-      </c>
-      <c r="L54">
-        <v>21</v>
-      </c>
-      <c r="M54">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="N54">
-        <v>32</v>
-      </c>
-      <c r="O54">
-        <v>50</v>
-      </c>
-      <c r="P54">
-        <v>452</v>
-      </c>
-      <c r="Q54">
-        <f t="shared" si="1"/>
-        <v>534</v>
-      </c>
-      <c r="R54">
-        <v>8</v>
-      </c>
-      <c r="S54">
-        <v>21</v>
-      </c>
-      <c r="T54">
-        <v>438</v>
-      </c>
-      <c r="U54">
-        <f t="shared" si="2"/>
-        <v>467</v>
-      </c>
-      <c r="V54">
-        <v>32</v>
-      </c>
-      <c r="W54">
-        <v>623</v>
-      </c>
-      <c r="X54">
-        <v>16628</v>
-      </c>
-      <c r="Y54">
-        <f t="shared" si="3"/>
-        <v>17283</v>
-      </c>
-      <c r="Z54">
-        <v>19068</v>
-      </c>
-      <c r="AA54">
-        <v>18307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>25</v>
-      </c>
-      <c r="B55">
-        <v>640</v>
-      </c>
-      <c r="C55">
-        <v>10</v>
-      </c>
-      <c r="D55">
-        <v>6</v>
-      </c>
-      <c r="E55">
-        <v>1316</v>
-      </c>
-      <c r="F55">
-        <v>19605</v>
-      </c>
-      <c r="G55">
-        <v>20937</v>
-      </c>
-      <c r="H55">
-        <v>1</v>
-      </c>
-      <c r="I55">
-        <v>891</v>
-      </c>
-      <c r="J55">
-        <v>0</v>
-      </c>
-      <c r="K55">
-        <v>3</v>
-      </c>
-      <c r="L55">
-        <v>19</v>
-      </c>
-      <c r="M55">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="N55">
-        <v>32</v>
-      </c>
-      <c r="O55">
-        <v>42</v>
-      </c>
-      <c r="P55">
-        <v>419</v>
-      </c>
-      <c r="Q55">
-        <f t="shared" si="1"/>
-        <v>493</v>
-      </c>
-      <c r="R55">
-        <v>8</v>
-      </c>
-      <c r="S55">
-        <v>30</v>
-      </c>
-      <c r="T55">
-        <v>494</v>
-      </c>
-      <c r="U55">
-        <f t="shared" si="2"/>
-        <v>532</v>
-      </c>
-      <c r="V55">
-        <v>41</v>
-      </c>
-      <c r="W55">
-        <v>604</v>
-      </c>
-      <c r="X55">
-        <v>16662</v>
-      </c>
-      <c r="Y55">
-        <f t="shared" si="3"/>
-        <v>17307</v>
-      </c>
-      <c r="Z55">
-        <v>19246</v>
-      </c>
-      <c r="AA55">
-        <v>18354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>25</v>
-      </c>
-      <c r="B56">
-        <v>640</v>
-      </c>
-      <c r="C56">
-        <v>9</v>
-      </c>
-      <c r="D56">
-        <v>8</v>
-      </c>
-      <c r="E56">
-        <v>1314</v>
-      </c>
-      <c r="F56">
-        <v>19794</v>
-      </c>
-      <c r="G56">
-        <v>21125</v>
-      </c>
-      <c r="H56">
-        <v>0</v>
-      </c>
-      <c r="I56">
-        <v>912</v>
-      </c>
-      <c r="J56">
-        <v>0</v>
-      </c>
-      <c r="K56">
-        <v>1</v>
-      </c>
-      <c r="L56">
-        <v>15</v>
-      </c>
-      <c r="M56">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="N56">
-        <v>32</v>
-      </c>
-      <c r="O56">
-        <v>38</v>
-      </c>
-      <c r="P56">
-        <v>393</v>
-      </c>
-      <c r="Q56">
-        <f t="shared" si="1"/>
-        <v>463</v>
-      </c>
-      <c r="R56">
-        <v>8</v>
-      </c>
-      <c r="S56">
-        <v>35</v>
-      </c>
-      <c r="T56">
-        <v>500</v>
-      </c>
-      <c r="U56">
-        <f t="shared" si="2"/>
-        <v>543</v>
-      </c>
-      <c r="V56">
-        <v>32</v>
-      </c>
-      <c r="W56">
-        <v>590</v>
-      </c>
-      <c r="X56">
-        <v>16982</v>
-      </c>
-      <c r="Y56">
-        <f t="shared" si="3"/>
-        <v>17604</v>
-      </c>
-      <c r="Z56">
-        <v>19538</v>
-      </c>
-      <c r="AA56">
-        <v>18626</v>
-      </c>
-    </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>25</v>
-      </c>
-      <c r="B57">
-        <v>640</v>
-      </c>
-      <c r="C57">
-        <v>5</v>
-      </c>
-      <c r="D57">
-        <v>8</v>
-      </c>
-      <c r="E57">
-        <v>1314</v>
-      </c>
-      <c r="F57">
-        <v>19794</v>
-      </c>
-      <c r="G57">
-        <v>21121</v>
-      </c>
-      <c r="H57">
-        <v>0</v>
-      </c>
-      <c r="I57">
-        <v>859</v>
-      </c>
-      <c r="J57">
-        <v>0</v>
-      </c>
-      <c r="K57">
-        <v>1</v>
-      </c>
-      <c r="L57">
-        <v>12</v>
-      </c>
-      <c r="M57">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="N57">
-        <v>27</v>
-      </c>
-      <c r="O57">
-        <v>39</v>
-      </c>
-      <c r="P57">
-        <v>389</v>
-      </c>
-      <c r="Q57">
-        <f t="shared" si="1"/>
-        <v>455</v>
-      </c>
-      <c r="R57">
-        <v>11</v>
-      </c>
-      <c r="S57">
-        <v>32</v>
-      </c>
-      <c r="T57">
-        <v>502</v>
-      </c>
-      <c r="U57">
-        <f t="shared" si="2"/>
-        <v>545</v>
-      </c>
-      <c r="V57">
-        <v>39</v>
-      </c>
-      <c r="W57">
-        <v>572</v>
-      </c>
-      <c r="X57">
-        <v>17001</v>
-      </c>
-      <c r="Y57">
-        <f t="shared" si="3"/>
-        <v>17612</v>
-      </c>
-      <c r="Z57">
-        <v>19484</v>
-      </c>
-      <c r="AA57">
-        <v>18625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>25</v>
-      </c>
-      <c r="B58">
-        <v>640</v>
-      </c>
-      <c r="C58">
-        <v>11</v>
-      </c>
-      <c r="D58">
-        <v>9</v>
-      </c>
-      <c r="E58">
-        <v>1313</v>
-      </c>
-      <c r="F58">
-        <v>19728</v>
-      </c>
-      <c r="G58">
-        <v>21061</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="I58">
-        <v>745</v>
-      </c>
-      <c r="J58">
-        <v>0</v>
-      </c>
-      <c r="K58">
-        <v>1</v>
-      </c>
-      <c r="L58">
-        <v>27</v>
-      </c>
-      <c r="M58">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="N58">
-        <v>32</v>
-      </c>
-      <c r="O58">
-        <v>54</v>
-      </c>
-      <c r="P58">
-        <v>472</v>
-      </c>
-      <c r="Q58">
-        <f t="shared" si="1"/>
-        <v>558</v>
-      </c>
-      <c r="R58">
-        <v>7</v>
-      </c>
-      <c r="S58">
-        <v>20</v>
-      </c>
-      <c r="T58">
-        <v>426</v>
-      </c>
-      <c r="U58">
-        <f t="shared" si="2"/>
-        <v>453</v>
-      </c>
-      <c r="V58">
-        <v>32</v>
-      </c>
-      <c r="W58">
-        <v>618</v>
-      </c>
-      <c r="X58">
-        <v>16802</v>
-      </c>
-      <c r="Y58">
-        <f t="shared" si="3"/>
-        <v>17452</v>
-      </c>
-      <c r="Z58">
-        <v>19236</v>
-      </c>
-      <c r="AA58">
-        <v>18491</v>
-      </c>
-    </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>25</v>
-      </c>
-      <c r="B59">
-        <v>640</v>
-      </c>
-      <c r="C59">
-        <v>8</v>
-      </c>
-      <c r="D59">
-        <v>7</v>
-      </c>
-      <c r="E59">
-        <v>1315</v>
-      </c>
-      <c r="F59">
-        <v>19935</v>
-      </c>
-      <c r="G59">
-        <v>21265</v>
-      </c>
-      <c r="H59">
-        <v>1</v>
-      </c>
-      <c r="I59">
-        <v>761</v>
-      </c>
-      <c r="J59">
-        <v>0</v>
-      </c>
-      <c r="K59">
-        <v>1</v>
-      </c>
-      <c r="L59">
-        <v>27</v>
-      </c>
-      <c r="M59">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="N59">
-        <v>34</v>
-      </c>
-      <c r="O59">
-        <v>59</v>
-      </c>
-      <c r="P59">
-        <v>519</v>
-      </c>
-      <c r="Q59">
-        <f t="shared" si="1"/>
-        <v>612</v>
-      </c>
-      <c r="R59">
-        <v>6</v>
-      </c>
-      <c r="S59">
-        <v>17</v>
-      </c>
-      <c r="T59">
-        <v>388</v>
-      </c>
-      <c r="U59">
-        <f t="shared" si="2"/>
-        <v>411</v>
-      </c>
-      <c r="V59">
-        <v>21</v>
-      </c>
-      <c r="W59">
-        <v>575</v>
-      </c>
-      <c r="X59">
-        <v>16974</v>
-      </c>
-      <c r="Y59">
-        <f t="shared" si="3"/>
-        <v>17570</v>
-      </c>
-      <c r="Z59">
-        <v>19383</v>
-      </c>
-      <c r="AA59">
-        <v>18621</v>
-      </c>
-    </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>25</v>
-      </c>
-      <c r="B60">
-        <v>640</v>
-      </c>
-      <c r="C60">
-        <v>4</v>
-      </c>
-      <c r="D60">
-        <v>8</v>
-      </c>
-      <c r="E60">
-        <v>1314</v>
-      </c>
-      <c r="F60">
-        <v>19839</v>
-      </c>
-      <c r="G60">
-        <v>21165</v>
-      </c>
-      <c r="H60">
-        <v>1</v>
-      </c>
-      <c r="I60">
-        <v>1167</v>
-      </c>
-      <c r="J60">
-        <v>0</v>
-      </c>
-      <c r="K60">
-        <v>0</v>
-      </c>
-      <c r="L60">
-        <v>34</v>
-      </c>
-      <c r="M60">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="N60">
-        <v>32</v>
-      </c>
-      <c r="O60">
-        <v>64</v>
-      </c>
-      <c r="P60">
-        <v>561</v>
-      </c>
-      <c r="Q60">
-        <f t="shared" si="1"/>
-        <v>657</v>
-      </c>
-      <c r="R60">
-        <v>5</v>
-      </c>
-      <c r="S60">
-        <v>10</v>
-      </c>
-      <c r="T60">
-        <v>369</v>
-      </c>
-      <c r="U60">
-        <f t="shared" si="2"/>
-        <v>384</v>
-      </c>
-      <c r="V60">
-        <v>32</v>
-      </c>
-      <c r="W60">
-        <v>648</v>
-      </c>
-      <c r="X60">
-        <v>16892</v>
-      </c>
-      <c r="Y60">
-        <f t="shared" si="3"/>
-        <v>17572</v>
-      </c>
-      <c r="Z60">
-        <v>19815</v>
-      </c>
-      <c r="AA60">
-        <v>18647</v>
-      </c>
-    </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>25</v>
-      </c>
-      <c r="B61">
-        <v>640</v>
-      </c>
-      <c r="C61">
-        <v>4</v>
-      </c>
-      <c r="D61">
-        <v>7</v>
-      </c>
-      <c r="E61">
-        <v>1315</v>
-      </c>
-      <c r="F61">
-        <v>19783</v>
-      </c>
-      <c r="G61">
-        <v>21109</v>
-      </c>
-      <c r="H61">
-        <v>1</v>
-      </c>
-      <c r="I61">
-        <v>776</v>
-      </c>
-      <c r="J61">
-        <v>0</v>
-      </c>
-      <c r="K61">
-        <v>3</v>
-      </c>
-      <c r="L61">
-        <v>17</v>
-      </c>
-      <c r="M61">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="N61">
-        <v>34</v>
-      </c>
-      <c r="O61">
-        <v>52</v>
-      </c>
-      <c r="P61">
-        <v>503</v>
-      </c>
-      <c r="Q61">
-        <f t="shared" si="1"/>
-        <v>589</v>
-      </c>
-      <c r="R61">
-        <v>6</v>
-      </c>
-      <c r="S61">
-        <v>19</v>
-      </c>
-      <c r="T61">
-        <v>401</v>
-      </c>
-      <c r="U61">
-        <f t="shared" si="2"/>
-        <v>426</v>
-      </c>
-      <c r="V61">
-        <v>32</v>
-      </c>
-      <c r="W61">
-        <v>641</v>
-      </c>
-      <c r="X61">
-        <v>16804</v>
-      </c>
-      <c r="Y61">
-        <f t="shared" si="3"/>
-        <v>17477</v>
-      </c>
-      <c r="Z61">
-        <v>19289</v>
-      </c>
-      <c r="AA61">
-        <v>18512</v>
-      </c>
-    </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>25</v>
-      </c>
-      <c r="B62">
-        <v>1600</v>
-      </c>
-      <c r="C62">
-        <v>16</v>
-      </c>
-      <c r="D62">
-        <v>10</v>
-      </c>
-      <c r="E62">
-        <v>2767</v>
-      </c>
-      <c r="F62">
-        <v>19570</v>
-      </c>
-      <c r="G62">
-        <v>22363</v>
-      </c>
-      <c r="H62">
-        <v>4</v>
-      </c>
-      <c r="I62">
-        <v>730</v>
-      </c>
-      <c r="J62">
-        <v>0</v>
-      </c>
-      <c r="K62">
-        <v>0</v>
-      </c>
-      <c r="L62">
-        <v>44</v>
-      </c>
-      <c r="M62">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="N62">
-        <v>78</v>
-      </c>
-      <c r="O62">
-        <v>102</v>
-      </c>
-      <c r="P62">
-        <v>1017</v>
-      </c>
-      <c r="Q62">
-        <f t="shared" si="1"/>
-        <v>1197</v>
-      </c>
-      <c r="R62">
-        <v>12</v>
-      </c>
-      <c r="S62">
-        <v>25</v>
-      </c>
-      <c r="T62">
-        <v>525</v>
-      </c>
-      <c r="U62">
-        <f t="shared" si="2"/>
-        <v>562</v>
-      </c>
-      <c r="V62">
-        <v>32</v>
-      </c>
-      <c r="W62">
-        <v>612</v>
-      </c>
-      <c r="X62">
-        <v>16410</v>
-      </c>
-      <c r="Y62">
-        <f t="shared" si="3"/>
-        <v>17054</v>
-      </c>
-      <c r="Z62">
-        <v>19591</v>
-      </c>
-      <c r="AA62">
-        <v>18857</v>
-      </c>
-    </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>25</v>
-      </c>
-      <c r="B63">
-        <v>1600</v>
-      </c>
-      <c r="C63">
-        <v>31</v>
-      </c>
-      <c r="D63">
-        <v>6</v>
-      </c>
-      <c r="E63">
-        <v>2771</v>
-      </c>
-      <c r="F63">
-        <v>19846</v>
-      </c>
-      <c r="G63">
-        <v>22654</v>
-      </c>
-      <c r="H63">
-        <v>1</v>
-      </c>
-      <c r="I63">
-        <v>782</v>
-      </c>
-      <c r="J63">
-        <v>0</v>
-      </c>
-      <c r="K63">
-        <v>1</v>
-      </c>
-      <c r="L63">
-        <v>46</v>
-      </c>
-      <c r="M63">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="N63">
-        <v>76</v>
-      </c>
-      <c r="O63">
-        <v>102</v>
-      </c>
-      <c r="P63">
-        <v>1054</v>
-      </c>
-      <c r="Q63">
-        <f t="shared" si="1"/>
-        <v>1232</v>
-      </c>
-      <c r="R63">
-        <v>12</v>
-      </c>
-      <c r="S63">
-        <v>24</v>
-      </c>
-      <c r="T63">
-        <v>533</v>
-      </c>
-      <c r="U63">
-        <f t="shared" si="2"/>
-        <v>569</v>
-      </c>
-      <c r="V63">
-        <v>35</v>
-      </c>
-      <c r="W63">
-        <v>597</v>
-      </c>
-      <c r="X63">
-        <v>16607</v>
-      </c>
-      <c r="Y63">
-        <f t="shared" si="3"/>
-        <v>17239</v>
-      </c>
-      <c r="Z63">
-        <v>19870</v>
-      </c>
-      <c r="AA63">
-        <v>19087</v>
-      </c>
-    </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>25</v>
-      </c>
-      <c r="B64">
-        <v>1600</v>
-      </c>
-      <c r="C64">
-        <v>16</v>
-      </c>
-      <c r="D64">
-        <v>8</v>
-      </c>
-      <c r="E64">
-        <v>2769</v>
-      </c>
-      <c r="F64">
-        <v>19823</v>
-      </c>
-      <c r="G64">
-        <v>22616</v>
-      </c>
-      <c r="H64">
-        <v>1</v>
-      </c>
-      <c r="I64">
-        <v>745</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>2</v>
-      </c>
-      <c r="L64">
-        <v>42</v>
-      </c>
-      <c r="M64">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="N64">
-        <v>80</v>
-      </c>
-      <c r="O64">
-        <v>109</v>
-      </c>
-      <c r="P64">
-        <v>1084</v>
-      </c>
-      <c r="Q64">
-        <f t="shared" si="1"/>
-        <v>1273</v>
-      </c>
-      <c r="R64">
-        <v>10</v>
-      </c>
-      <c r="S64">
-        <v>19</v>
-      </c>
-      <c r="T64">
-        <v>510</v>
-      </c>
-      <c r="U64">
-        <f t="shared" si="2"/>
-        <v>539</v>
-      </c>
-      <c r="V64">
-        <v>27</v>
-      </c>
-      <c r="W64">
-        <v>630</v>
-      </c>
-      <c r="X64">
-        <v>16582</v>
-      </c>
-      <c r="Y64">
-        <f t="shared" si="3"/>
-        <v>17239</v>
-      </c>
-      <c r="Z64">
-        <v>19841</v>
-      </c>
-      <c r="AA64">
-        <v>19095</v>
-      </c>
-    </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>25</v>
-      </c>
-      <c r="B65">
-        <v>1600</v>
-      </c>
-      <c r="C65">
-        <v>19</v>
-      </c>
-      <c r="D65">
-        <v>10</v>
-      </c>
-      <c r="E65">
-        <v>2767</v>
-      </c>
-      <c r="F65">
-        <v>19746</v>
-      </c>
-      <c r="G65">
-        <v>22542</v>
-      </c>
-      <c r="H65">
-        <v>1</v>
-      </c>
-      <c r="I65">
-        <v>603</v>
-      </c>
-      <c r="J65">
-        <v>0</v>
-      </c>
-      <c r="K65">
-        <v>1</v>
-      </c>
-      <c r="L65">
-        <v>50</v>
-      </c>
-      <c r="M65">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="N65">
-        <v>79</v>
-      </c>
-      <c r="O65">
-        <v>102</v>
-      </c>
-      <c r="P65">
-        <v>1026</v>
-      </c>
-      <c r="Q65">
-        <f t="shared" si="1"/>
-        <v>1207</v>
-      </c>
-      <c r="R65">
-        <v>10</v>
-      </c>
-      <c r="S65">
-        <v>26</v>
-      </c>
-      <c r="T65">
-        <v>551</v>
-      </c>
-      <c r="U65">
-        <f t="shared" si="2"/>
-        <v>587</v>
-      </c>
-      <c r="V65">
-        <v>30</v>
-      </c>
-      <c r="W65">
-        <v>572</v>
-      </c>
-      <c r="X65">
-        <v>16540</v>
-      </c>
-      <c r="Y65">
-        <f t="shared" si="3"/>
-        <v>17142</v>
-      </c>
-      <c r="Z65">
-        <v>19591</v>
-      </c>
-      <c r="AA65">
-        <v>18987</v>
-      </c>
-    </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>25</v>
-      </c>
-      <c r="B66">
-        <v>1600</v>
-      </c>
-      <c r="C66">
-        <v>24</v>
-      </c>
-      <c r="D66">
-        <v>10</v>
-      </c>
-      <c r="E66">
-        <v>2767</v>
-      </c>
-      <c r="F66">
-        <v>20014</v>
-      </c>
-      <c r="G66">
-        <v>22815</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>671</v>
-      </c>
-      <c r="J66">
-        <v>0</v>
-      </c>
-      <c r="K66">
-        <v>2</v>
-      </c>
-      <c r="L66">
-        <v>45</v>
-      </c>
-      <c r="M66">
-        <f t="shared" si="0"/>
-        <v>47</v>
-      </c>
-      <c r="N66">
-        <v>80</v>
-      </c>
-      <c r="O66">
-        <v>107</v>
-      </c>
-      <c r="P66">
-        <v>1047</v>
-      </c>
-      <c r="Q66">
-        <f t="shared" si="1"/>
-        <v>1234</v>
-      </c>
-      <c r="R66">
-        <v>9</v>
-      </c>
-      <c r="S66">
-        <v>19</v>
-      </c>
-      <c r="T66">
-        <v>530</v>
-      </c>
-      <c r="U66">
-        <f t="shared" si="2"/>
-        <v>558</v>
-      </c>
-      <c r="V66">
-        <v>30</v>
-      </c>
-      <c r="W66">
-        <v>623</v>
-      </c>
-      <c r="X66">
-        <v>16700</v>
-      </c>
-      <c r="Y66">
-        <f t="shared" si="3"/>
-        <v>17353</v>
-      </c>
-      <c r="Z66">
-        <v>19863</v>
-      </c>
-      <c r="AA66">
-        <v>19192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>25</v>
-      </c>
-      <c r="B67">
-        <v>1600</v>
-      </c>
-      <c r="C67">
-        <v>15</v>
-      </c>
-      <c r="D67">
-        <v>11</v>
-      </c>
-      <c r="E67">
-        <v>2766</v>
-      </c>
-      <c r="F67">
-        <v>19675</v>
-      </c>
-      <c r="G67">
-        <v>22467</v>
-      </c>
-      <c r="H67">
-        <v>3</v>
-      </c>
-      <c r="I67">
-        <v>773</v>
-      </c>
-      <c r="J67">
-        <v>0</v>
-      </c>
-      <c r="K67">
-        <v>3</v>
-      </c>
-      <c r="L67">
-        <v>41</v>
-      </c>
-      <c r="M67">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-      <c r="N67">
-        <v>77</v>
-      </c>
-      <c r="O67">
-        <v>106</v>
-      </c>
-      <c r="P67">
-        <v>1016</v>
-      </c>
-      <c r="Q67">
-        <f t="shared" si="1"/>
-        <v>1199</v>
-      </c>
-      <c r="R67">
-        <v>11</v>
-      </c>
-      <c r="S67">
-        <v>21</v>
-      </c>
-      <c r="T67">
-        <v>553</v>
-      </c>
-      <c r="U67">
-        <f t="shared" si="2"/>
-        <v>585</v>
-      </c>
-      <c r="V67">
-        <v>38</v>
-      </c>
-      <c r="W67">
-        <v>597</v>
-      </c>
-      <c r="X67">
-        <v>16465</v>
-      </c>
-      <c r="Y67">
-        <f t="shared" si="3"/>
-        <v>17100</v>
-      </c>
-      <c r="Z67">
-        <v>19704</v>
-      </c>
-      <c r="AA67">
-        <v>18928</v>
-      </c>
-    </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>25</v>
-      </c>
-      <c r="B68">
-        <v>1600</v>
-      </c>
-      <c r="C68">
-        <v>13</v>
-      </c>
-      <c r="D68">
-        <v>9</v>
-      </c>
-      <c r="E68">
-        <v>2768</v>
-      </c>
-      <c r="F68">
-        <v>19667</v>
-      </c>
-      <c r="G68">
-        <v>22457</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
-      </c>
-      <c r="I68">
-        <v>824</v>
-      </c>
-      <c r="J68">
-        <v>0</v>
-      </c>
-      <c r="K68">
-        <v>1</v>
-      </c>
-      <c r="L68">
-        <v>37</v>
-      </c>
-      <c r="M68">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="N68">
-        <v>75</v>
-      </c>
-      <c r="O68">
-        <v>108</v>
-      </c>
-      <c r="P68">
-        <v>1032</v>
-      </c>
-      <c r="Q68">
-        <f t="shared" si="1"/>
-        <v>1215</v>
-      </c>
-      <c r="R68">
-        <v>13</v>
-      </c>
-      <c r="S68">
-        <v>20</v>
-      </c>
-      <c r="T68">
-        <v>556</v>
-      </c>
-      <c r="U68">
-        <f t="shared" si="2"/>
-        <v>589</v>
-      </c>
-      <c r="V68">
-        <v>33</v>
-      </c>
-      <c r="W68">
-        <v>630</v>
-      </c>
-      <c r="X68">
-        <v>16404</v>
-      </c>
-      <c r="Y68">
-        <f t="shared" si="3"/>
-        <v>17067</v>
-      </c>
-      <c r="Z68">
-        <v>19735</v>
-      </c>
-      <c r="AA68">
-        <v>18909</v>
-      </c>
-    </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>25</v>
-      </c>
-      <c r="B69">
-        <v>1600</v>
-      </c>
-      <c r="C69">
-        <v>12</v>
-      </c>
-      <c r="D69">
-        <v>12</v>
-      </c>
-      <c r="E69">
-        <v>2765</v>
-      </c>
-      <c r="F69">
-        <v>20030</v>
-      </c>
-      <c r="G69">
-        <v>22819</v>
-      </c>
-      <c r="H69">
-        <v>1</v>
-      </c>
-      <c r="I69">
-        <v>768</v>
-      </c>
-      <c r="J69">
-        <v>0</v>
-      </c>
-      <c r="K69">
-        <v>1</v>
-      </c>
-      <c r="L69">
-        <v>13</v>
-      </c>
-      <c r="M69">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="N69">
-        <v>64</v>
-      </c>
-      <c r="O69">
-        <v>95</v>
-      </c>
-      <c r="P69">
-        <v>863</v>
-      </c>
-      <c r="Q69">
-        <f t="shared" si="1"/>
-        <v>1022</v>
-      </c>
-      <c r="R69">
-        <v>26</v>
-      </c>
-      <c r="S69">
-        <v>36</v>
-      </c>
-      <c r="T69">
-        <v>702</v>
-      </c>
-      <c r="U69">
-        <f t="shared" si="2"/>
-        <v>764</v>
-      </c>
-      <c r="V69">
-        <v>21</v>
-      </c>
-      <c r="W69">
-        <v>622</v>
-      </c>
-      <c r="X69">
-        <v>16753</v>
-      </c>
-      <c r="Y69">
-        <f t="shared" si="3"/>
-        <v>17396</v>
-      </c>
-      <c r="Z69">
-        <v>19965</v>
-      </c>
-      <c r="AA69">
-        <v>19196</v>
-      </c>
-    </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>25</v>
-      </c>
-      <c r="B70">
-        <v>1600</v>
-      </c>
-      <c r="C70">
-        <v>19</v>
-      </c>
-      <c r="D70">
-        <v>10</v>
-      </c>
-      <c r="E70">
-        <v>2767</v>
-      </c>
-      <c r="F70">
-        <v>19834</v>
-      </c>
-      <c r="G70">
-        <v>22630</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
-      </c>
-      <c r="I70">
-        <v>790</v>
-      </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>46</v>
-      </c>
-      <c r="M70">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="N70">
-        <v>79</v>
-      </c>
-      <c r="O70">
-        <v>100</v>
-      </c>
-      <c r="P70">
-        <v>1002</v>
-      </c>
-      <c r="Q70">
-        <f t="shared" si="1"/>
-        <v>1181</v>
-      </c>
-      <c r="R70">
-        <v>9</v>
-      </c>
-      <c r="S70">
-        <v>24</v>
-      </c>
-      <c r="T70">
-        <v>572</v>
-      </c>
-      <c r="U70">
-        <f t="shared" si="2"/>
-        <v>605</v>
-      </c>
-      <c r="V70">
-        <v>39</v>
-      </c>
-      <c r="W70">
-        <v>598</v>
-      </c>
-      <c r="X70">
-        <v>16519</v>
-      </c>
-      <c r="Y70">
-        <f t="shared" si="3"/>
-        <v>17156</v>
-      </c>
-      <c r="Z70">
-        <v>19780</v>
-      </c>
-      <c r="AA70">
-        <v>18988</v>
-      </c>
-    </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>25</v>
-      </c>
-      <c r="B71">
-        <v>1600</v>
-      </c>
-      <c r="C71">
-        <v>20</v>
-      </c>
-      <c r="D71">
-        <v>11</v>
-      </c>
-      <c r="E71">
-        <v>2766</v>
-      </c>
-      <c r="F71">
-        <v>19701</v>
-      </c>
-      <c r="G71">
-        <v>22498</v>
-      </c>
-      <c r="H71">
-        <v>0</v>
-      </c>
-      <c r="I71">
-        <v>769</v>
-      </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>1</v>
-      </c>
-      <c r="L71">
-        <v>36</v>
-      </c>
-      <c r="M71">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-      <c r="N71">
-        <v>75</v>
-      </c>
-      <c r="O71">
-        <v>104</v>
-      </c>
-      <c r="P71">
-        <v>992</v>
-      </c>
-      <c r="Q71">
-        <f t="shared" si="1"/>
-        <v>1171</v>
-      </c>
-      <c r="R71">
-        <v>14</v>
-      </c>
-      <c r="S71">
-        <v>28</v>
-      </c>
-      <c r="T71">
-        <v>571</v>
-      </c>
-      <c r="U71">
-        <f t="shared" si="2"/>
-        <v>613</v>
-      </c>
-      <c r="V71">
-        <v>34</v>
-      </c>
-      <c r="W71">
-        <v>603</v>
-      </c>
-      <c r="X71">
-        <v>16460</v>
-      </c>
-      <c r="Y71">
-        <f t="shared" si="3"/>
-        <v>17097</v>
-      </c>
-      <c r="Z71">
-        <v>19687</v>
-      </c>
-      <c r="AA71">
-        <v>18918</v>
-      </c>
-    </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>25</v>
-      </c>
-      <c r="B72">
-        <v>4000</v>
-      </c>
-      <c r="C72">
-        <v>28</v>
-      </c>
-      <c r="D72">
-        <v>44</v>
-      </c>
-      <c r="E72">
-        <v>6484</v>
-      </c>
-      <c r="F72">
-        <v>19863</v>
-      </c>
-      <c r="G72">
-        <v>26419</v>
-      </c>
-      <c r="H72">
-        <v>4</v>
-      </c>
-      <c r="I72">
-        <v>556</v>
-      </c>
-      <c r="J72">
-        <v>0</v>
-      </c>
-      <c r="K72">
-        <v>3</v>
-      </c>
-      <c r="L72">
-        <v>50</v>
-      </c>
-      <c r="M72">
-        <f t="shared" si="0"/>
-        <v>53</v>
-      </c>
-      <c r="N72">
-        <v>157</v>
-      </c>
-      <c r="O72">
-        <v>188</v>
-      </c>
-      <c r="P72">
-        <v>2011</v>
-      </c>
-      <c r="Q72">
-        <f t="shared" si="1"/>
-        <v>2356</v>
-      </c>
-      <c r="R72">
-        <v>27</v>
-      </c>
-      <c r="S72">
-        <v>24</v>
-      </c>
-      <c r="T72">
-        <v>798</v>
-      </c>
-      <c r="U72">
-        <f t="shared" si="2"/>
-        <v>849</v>
-      </c>
-      <c r="V72">
-        <v>33</v>
-      </c>
-      <c r="W72">
-        <v>589</v>
-      </c>
-      <c r="X72">
-        <v>16015</v>
-      </c>
-      <c r="Y72">
-        <f t="shared" si="3"/>
-        <v>16637</v>
-      </c>
-      <c r="Z72">
-        <v>20455</v>
-      </c>
-      <c r="AA72">
-        <v>19895</v>
-      </c>
-    </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>25</v>
-      </c>
-      <c r="B73">
-        <v>4000</v>
-      </c>
-      <c r="C73">
-        <v>32</v>
-      </c>
-      <c r="D73">
-        <v>48</v>
-      </c>
-      <c r="E73">
-        <v>6480</v>
-      </c>
-      <c r="F73">
-        <v>19686</v>
-      </c>
-      <c r="G73">
-        <v>26246</v>
-      </c>
-      <c r="H73">
-        <v>4</v>
-      </c>
-      <c r="I73">
-        <v>531</v>
-      </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>2</v>
-      </c>
-      <c r="L73">
-        <v>44</v>
-      </c>
-      <c r="M73">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="N73">
-        <v>157</v>
-      </c>
-      <c r="O73">
-        <v>192</v>
-      </c>
-      <c r="P73">
-        <v>2060</v>
-      </c>
-      <c r="Q73">
-        <f t="shared" si="1"/>
-        <v>2409</v>
-      </c>
-      <c r="R73">
-        <v>26</v>
-      </c>
-      <c r="S73">
-        <v>21</v>
-      </c>
-      <c r="T73">
-        <v>778</v>
-      </c>
-      <c r="U73">
-        <f t="shared" si="2"/>
-        <v>825</v>
-      </c>
-      <c r="V73">
-        <v>44</v>
-      </c>
-      <c r="W73">
-        <v>596</v>
-      </c>
-      <c r="X73">
-        <v>15965</v>
-      </c>
-      <c r="Y73">
-        <f t="shared" si="3"/>
-        <v>16605</v>
-      </c>
-      <c r="Z73">
-        <v>20420</v>
-      </c>
-      <c r="AA73">
-        <v>19885</v>
-      </c>
-    </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>25</v>
-      </c>
-      <c r="B74">
-        <v>4000</v>
-      </c>
-      <c r="C74">
-        <v>36</v>
-      </c>
-      <c r="D74">
-        <v>47</v>
-      </c>
-      <c r="E74">
-        <v>6481</v>
-      </c>
-      <c r="F74">
-        <v>19907</v>
-      </c>
-      <c r="G74">
-        <v>26471</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
-      </c>
-      <c r="I74">
-        <v>680</v>
-      </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>2</v>
-      </c>
-      <c r="L74">
-        <v>58</v>
-      </c>
-      <c r="M74">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="N74">
-        <v>162</v>
-      </c>
-      <c r="O74">
-        <v>191</v>
-      </c>
-      <c r="P74">
-        <v>2056</v>
-      </c>
-      <c r="Q74">
-        <f t="shared" si="1"/>
-        <v>2409</v>
-      </c>
-      <c r="R74">
-        <v>24</v>
-      </c>
-      <c r="S74">
-        <v>22</v>
-      </c>
-      <c r="T74">
-        <v>789</v>
-      </c>
-      <c r="U74">
-        <f t="shared" si="2"/>
-        <v>835</v>
-      </c>
-      <c r="V74">
-        <v>29</v>
-      </c>
-      <c r="W74">
-        <v>597</v>
-      </c>
-      <c r="X74">
-        <v>16155</v>
-      </c>
-      <c r="Y74">
-        <f t="shared" si="3"/>
-        <v>16781</v>
-      </c>
-      <c r="Z74">
-        <v>20767</v>
-      </c>
-      <c r="AA74">
-        <v>20085</v>
-      </c>
-    </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>25</v>
-      </c>
-      <c r="B75">
-        <v>4000</v>
-      </c>
-      <c r="C75">
-        <v>32</v>
-      </c>
-      <c r="D75">
-        <v>46</v>
-      </c>
-      <c r="E75">
-        <v>6482</v>
-      </c>
-      <c r="F75">
-        <v>19778</v>
-      </c>
-      <c r="G75">
-        <v>26338</v>
-      </c>
-      <c r="H75">
-        <v>1</v>
-      </c>
-      <c r="I75">
-        <v>609</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75">
-        <v>1</v>
-      </c>
-      <c r="L75">
-        <v>48</v>
-      </c>
-      <c r="M75">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="N75">
-        <v>163</v>
-      </c>
-      <c r="O75">
-        <v>191</v>
-      </c>
-      <c r="P75">
-        <v>2081</v>
-      </c>
-      <c r="Q75">
-        <f t="shared" si="1"/>
-        <v>2435</v>
-      </c>
-      <c r="R75">
-        <v>24</v>
-      </c>
-      <c r="S75">
-        <v>20</v>
-      </c>
-      <c r="T75">
-        <v>796</v>
-      </c>
-      <c r="U75">
-        <f t="shared" si="2"/>
-        <v>840</v>
-      </c>
-      <c r="V75">
-        <v>31</v>
-      </c>
-      <c r="W75">
-        <v>585</v>
-      </c>
-      <c r="X75">
-        <v>16001</v>
-      </c>
-      <c r="Y75">
-        <f t="shared" si="3"/>
-        <v>16617</v>
-      </c>
-      <c r="Z75">
-        <v>20551</v>
-      </c>
-      <c r="AA75">
-        <v>19941</v>
-      </c>
-    </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>25</v>
-      </c>
-      <c r="B76">
-        <v>4000</v>
-      </c>
-      <c r="C76">
-        <v>33</v>
-      </c>
-      <c r="D76">
-        <v>49</v>
-      </c>
-      <c r="E76">
-        <v>6479</v>
-      </c>
-      <c r="F76">
-        <v>19848</v>
-      </c>
-      <c r="G76">
-        <v>26409</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
-      </c>
-      <c r="I76">
-        <v>669</v>
-      </c>
-      <c r="J76">
-        <v>0</v>
-      </c>
-      <c r="K76">
-        <v>2</v>
-      </c>
-      <c r="L76">
-        <v>50</v>
-      </c>
-      <c r="M76">
-        <f t="shared" si="0"/>
-        <v>52</v>
-      </c>
-      <c r="N76">
-        <v>162</v>
-      </c>
-      <c r="O76">
-        <v>196</v>
-      </c>
-      <c r="P76">
-        <v>2042</v>
-      </c>
-      <c r="Q76">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="R76">
-        <v>23</v>
-      </c>
-      <c r="S76">
-        <v>22</v>
-      </c>
-      <c r="T76">
-        <v>789</v>
-      </c>
-      <c r="U76">
-        <f t="shared" si="2"/>
-        <v>834</v>
-      </c>
-      <c r="V76">
-        <v>33</v>
-      </c>
-      <c r="W76">
-        <v>544</v>
-      </c>
-      <c r="X76">
-        <v>16026</v>
-      </c>
-      <c r="Y76">
-        <f t="shared" si="3"/>
-        <v>16603</v>
-      </c>
-      <c r="Z76">
-        <v>20560</v>
-      </c>
-      <c r="AA76">
-        <v>19889</v>
-      </c>
-    </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>25</v>
-      </c>
-      <c r="B77">
-        <v>4000</v>
-      </c>
-      <c r="C77">
-        <v>28</v>
-      </c>
-      <c r="D77">
-        <v>45</v>
-      </c>
-      <c r="E77">
-        <v>6483</v>
-      </c>
-      <c r="F77">
-        <v>19781</v>
-      </c>
-      <c r="G77">
-        <v>26337</v>
-      </c>
-      <c r="H77">
-        <v>3</v>
-      </c>
-      <c r="I77">
-        <v>684</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77">
-        <v>2</v>
-      </c>
-      <c r="L77">
-        <v>65</v>
-      </c>
-      <c r="M77">
-        <f t="shared" si="0"/>
-        <v>68</v>
-      </c>
-      <c r="N77">
-        <v>161</v>
-      </c>
-      <c r="O77">
-        <v>195</v>
-      </c>
-      <c r="P77">
-        <v>2089</v>
-      </c>
-      <c r="Q77">
-        <f t="shared" si="1"/>
-        <v>2445</v>
-      </c>
-      <c r="R77">
-        <v>25</v>
-      </c>
-      <c r="S77">
-        <v>21</v>
-      </c>
-      <c r="T77">
-        <v>762</v>
-      </c>
-      <c r="U77">
-        <f t="shared" si="2"/>
-        <v>808</v>
-      </c>
-      <c r="V77">
-        <v>28</v>
-      </c>
-      <c r="W77">
-        <v>570</v>
-      </c>
-      <c r="X77">
-        <v>16068</v>
-      </c>
-      <c r="Y77">
-        <f t="shared" si="3"/>
-        <v>16666</v>
-      </c>
-      <c r="Z77">
-        <v>20674</v>
-      </c>
-      <c r="AA77">
-        <v>19987</v>
-      </c>
-    </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>25</v>
-      </c>
-      <c r="B78">
-        <v>4000</v>
-      </c>
-      <c r="C78">
-        <v>40</v>
-      </c>
-      <c r="D78">
-        <v>45</v>
-      </c>
-      <c r="E78">
-        <v>6483</v>
-      </c>
-      <c r="F78">
-        <v>19660</v>
-      </c>
-      <c r="G78">
-        <v>26228</v>
-      </c>
-      <c r="H78">
-        <v>4</v>
-      </c>
-      <c r="I78">
-        <v>575</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78">
-        <v>3</v>
-      </c>
-      <c r="L78">
-        <v>60</v>
-      </c>
-      <c r="M78">
-        <f t="shared" si="0"/>
-        <v>63</v>
-      </c>
-      <c r="N78">
-        <v>160</v>
-      </c>
-      <c r="O78">
-        <v>193</v>
-      </c>
-      <c r="P78">
-        <v>2107</v>
-      </c>
-      <c r="Q78">
-        <f t="shared" si="1"/>
-        <v>2460</v>
-      </c>
-      <c r="R78">
-        <v>24</v>
-      </c>
-      <c r="S78">
-        <v>23</v>
-      </c>
-      <c r="T78">
-        <v>718</v>
-      </c>
-      <c r="U78">
-        <f t="shared" si="2"/>
-        <v>765</v>
-      </c>
-      <c r="V78">
-        <v>26</v>
-      </c>
-      <c r="W78">
-        <v>579</v>
-      </c>
-      <c r="X78">
-        <v>15977</v>
-      </c>
-      <c r="Y78">
-        <f t="shared" si="3"/>
-        <v>16582</v>
-      </c>
-      <c r="Z78">
-        <v>20449</v>
-      </c>
-      <c r="AA78">
-        <v>19870</v>
-      </c>
-    </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>25</v>
-      </c>
-      <c r="B79">
-        <v>4000</v>
-      </c>
-      <c r="C79">
-        <v>36</v>
-      </c>
-      <c r="D79">
-        <v>48</v>
-      </c>
-      <c r="E79">
-        <v>6480</v>
-      </c>
-      <c r="F79">
-        <v>19600</v>
-      </c>
-      <c r="G79">
-        <v>26164</v>
-      </c>
-      <c r="H79">
-        <v>3</v>
-      </c>
-      <c r="I79">
-        <v>628</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79">
-        <v>2</v>
-      </c>
-      <c r="L79">
-        <v>71</v>
-      </c>
-      <c r="M79">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-      <c r="N79">
-        <v>158</v>
-      </c>
-      <c r="O79">
-        <v>193</v>
-      </c>
-      <c r="P79">
-        <v>2040</v>
-      </c>
-      <c r="Q79">
-        <f t="shared" si="1"/>
-        <v>2391</v>
-      </c>
-      <c r="R79">
-        <v>25</v>
-      </c>
-      <c r="S79">
-        <v>19</v>
-      </c>
-      <c r="T79">
-        <v>778</v>
-      </c>
-      <c r="U79">
-        <f t="shared" si="2"/>
-        <v>822</v>
-      </c>
-      <c r="V79">
-        <v>30</v>
-      </c>
-      <c r="W79">
-        <v>617</v>
-      </c>
-      <c r="X79">
-        <v>15839</v>
-      </c>
-      <c r="Y79">
-        <f t="shared" si="3"/>
-        <v>16486</v>
-      </c>
-      <c r="Z79">
-        <v>20403</v>
-      </c>
-      <c r="AA79">
-        <v>19772</v>
-      </c>
-    </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>25</v>
-      </c>
-      <c r="B80">
-        <v>4000</v>
-      </c>
-      <c r="C80">
-        <v>31</v>
-      </c>
-      <c r="D80">
-        <v>49</v>
-      </c>
-      <c r="E80">
-        <v>6479</v>
-      </c>
-      <c r="F80">
-        <v>19808</v>
-      </c>
-      <c r="G80">
-        <v>26367</v>
-      </c>
-      <c r="H80">
-        <v>3</v>
-      </c>
-      <c r="I80">
-        <v>843</v>
-      </c>
-      <c r="J80">
-        <v>0</v>
-      </c>
-      <c r="K80">
-        <v>3</v>
-      </c>
-      <c r="L80">
-        <v>48</v>
-      </c>
-      <c r="M80">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="N80">
-        <v>159</v>
-      </c>
-      <c r="O80">
-        <v>192</v>
-      </c>
-      <c r="P80">
-        <v>2074</v>
-      </c>
-      <c r="Q80">
-        <f t="shared" si="1"/>
-        <v>2425</v>
-      </c>
-      <c r="R80">
-        <v>26</v>
-      </c>
-      <c r="S80">
-        <v>24</v>
-      </c>
-      <c r="T80">
-        <v>740</v>
-      </c>
-      <c r="U80">
-        <f t="shared" si="2"/>
-        <v>790</v>
-      </c>
-      <c r="V80">
-        <v>27</v>
-      </c>
-      <c r="W80">
-        <v>590</v>
-      </c>
-      <c r="X80">
-        <v>16010</v>
-      </c>
-      <c r="Y80">
-        <f t="shared" si="3"/>
-        <v>16627</v>
-      </c>
-      <c r="Z80">
-        <v>20739</v>
-      </c>
-      <c r="AA80">
-        <v>19893</v>
-      </c>
-    </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>25</v>
-      </c>
-      <c r="B81">
-        <v>4000</v>
-      </c>
-      <c r="C81">
-        <v>32</v>
-      </c>
-      <c r="D81">
-        <v>47</v>
-      </c>
-      <c r="E81">
-        <v>6481</v>
-      </c>
-      <c r="F81">
-        <v>19832</v>
-      </c>
-      <c r="G81">
-        <v>26392</v>
-      </c>
-      <c r="H81">
-        <v>4</v>
-      </c>
-      <c r="I81">
-        <v>539</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81">
-        <v>1</v>
-      </c>
-      <c r="L81">
-        <v>48</v>
-      </c>
-      <c r="M81">
-        <f t="shared" si="0"/>
-        <v>49</v>
-      </c>
-      <c r="N81">
-        <v>162</v>
-      </c>
-      <c r="O81">
-        <v>196</v>
-      </c>
-      <c r="P81">
-        <v>2042</v>
-      </c>
-      <c r="Q81">
-        <f t="shared" si="1"/>
-        <v>2400</v>
-      </c>
-      <c r="R81">
-        <v>24</v>
-      </c>
-      <c r="S81">
-        <v>15</v>
-      </c>
-      <c r="T81">
-        <v>769</v>
-      </c>
-      <c r="U81">
-        <f t="shared" si="2"/>
-        <v>808</v>
-      </c>
-      <c r="V81">
-        <v>36</v>
-      </c>
-      <c r="W81">
-        <v>564</v>
-      </c>
-      <c r="X81">
-        <v>16024</v>
-      </c>
-      <c r="Y81">
-        <f t="shared" si="3"/>
-        <v>16624</v>
-      </c>
-      <c r="Z81">
-        <v>20424</v>
-      </c>
-      <c r="AA81">
-        <v>19881</v>
-      </c>
-    </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>25</v>
-      </c>
-      <c r="B82">
-        <v>10000</v>
-      </c>
-      <c r="C82">
-        <v>89</v>
-      </c>
-      <c r="D82">
-        <v>122</v>
-      </c>
-      <c r="E82">
-        <v>16808</v>
-      </c>
-      <c r="F82">
-        <v>19802</v>
-      </c>
-      <c r="G82">
-        <v>36821</v>
-      </c>
-      <c r="H82">
-        <v>14</v>
-      </c>
-      <c r="I82">
-        <v>368</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
-      </c>
-      <c r="K82">
-        <v>3</v>
-      </c>
-      <c r="L82">
-        <v>109</v>
-      </c>
-      <c r="M82">
-        <f t="shared" si="0"/>
-        <v>112</v>
-      </c>
-      <c r="N82">
-        <v>366</v>
-      </c>
-      <c r="O82">
-        <v>455</v>
-      </c>
-      <c r="P82">
-        <v>5286</v>
-      </c>
-      <c r="Q82">
-        <f t="shared" si="1"/>
-        <v>6107</v>
-      </c>
-      <c r="R82">
-        <v>38</v>
-      </c>
-      <c r="S82">
-        <v>38</v>
-      </c>
-      <c r="T82">
-        <v>1266</v>
-      </c>
-      <c r="U82">
-        <f t="shared" si="2"/>
-        <v>1342</v>
-      </c>
-      <c r="V82">
-        <v>30</v>
-      </c>
-      <c r="W82">
-        <v>555</v>
-      </c>
-      <c r="X82">
-        <v>15299</v>
-      </c>
-      <c r="Y82">
-        <f t="shared" si="3"/>
-        <v>15884</v>
-      </c>
-      <c r="Z82">
-        <v>23827</v>
-      </c>
-      <c r="AA82">
-        <v>23445</v>
-      </c>
-    </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>25</v>
-      </c>
-      <c r="B83">
-        <v>10000</v>
-      </c>
-      <c r="C83">
-        <v>61</v>
-      </c>
-      <c r="D83">
-        <v>112</v>
-      </c>
-      <c r="E83">
-        <v>16818</v>
-      </c>
-      <c r="F83">
-        <v>19623</v>
-      </c>
-      <c r="G83">
-        <v>36614</v>
-      </c>
-      <c r="H83">
-        <v>17</v>
-      </c>
-      <c r="I83">
-        <v>315</v>
-      </c>
-      <c r="J83">
-        <v>0</v>
-      </c>
-      <c r="K83">
-        <v>2</v>
-      </c>
-      <c r="L83">
-        <v>103</v>
-      </c>
-      <c r="M83">
-        <f t="shared" si="0"/>
-        <v>105</v>
-      </c>
-      <c r="N83">
-        <v>368</v>
-      </c>
-      <c r="O83">
-        <v>457</v>
-      </c>
-      <c r="P83">
-        <v>5237</v>
-      </c>
-      <c r="Q83">
-        <f t="shared" si="1"/>
-        <v>6062</v>
-      </c>
-      <c r="R83">
-        <v>38</v>
-      </c>
-      <c r="S83">
-        <v>40</v>
-      </c>
-      <c r="T83">
-        <v>1336</v>
-      </c>
-      <c r="U83">
-        <f t="shared" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="V83">
-        <v>32</v>
-      </c>
-      <c r="W83">
-        <v>579</v>
-      </c>
-      <c r="X83">
-        <v>15197</v>
-      </c>
-      <c r="Y83">
-        <f t="shared" si="3"/>
-        <v>15808</v>
-      </c>
-      <c r="Z83">
-        <v>23721</v>
-      </c>
-      <c r="AA83">
-        <v>23389</v>
-      </c>
-    </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>25</v>
-      </c>
-      <c r="B84">
-        <v>10000</v>
-      </c>
-      <c r="C84">
-        <v>73</v>
-      </c>
-      <c r="D84">
-        <v>118</v>
-      </c>
-      <c r="E84">
-        <v>16812</v>
-      </c>
-      <c r="F84">
-        <v>19316</v>
-      </c>
-      <c r="G84">
-        <v>36319</v>
-      </c>
-      <c r="H84">
-        <v>8</v>
-      </c>
-      <c r="I84">
-        <v>518</v>
-      </c>
-      <c r="J84">
-        <v>0</v>
-      </c>
-      <c r="K84">
-        <v>2</v>
-      </c>
-      <c r="L84">
-        <v>99</v>
-      </c>
-      <c r="M84">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="N84">
-        <v>373</v>
-      </c>
-      <c r="O84">
-        <v>468</v>
-      </c>
-      <c r="P84">
-        <v>5412</v>
-      </c>
-      <c r="Q84">
-        <f t="shared" si="1"/>
-        <v>6253</v>
-      </c>
-      <c r="R84">
-        <v>39</v>
-      </c>
-      <c r="S84">
-        <v>49</v>
-      </c>
-      <c r="T84">
-        <v>1320</v>
-      </c>
-      <c r="U84">
-        <f t="shared" si="2"/>
-        <v>1408</v>
-      </c>
-      <c r="V84">
-        <v>43</v>
-      </c>
-      <c r="W84">
-        <v>603</v>
-      </c>
-      <c r="X84">
-        <v>15030</v>
-      </c>
-      <c r="Y84">
-        <f t="shared" si="3"/>
-        <v>15676</v>
-      </c>
-      <c r="Z84">
-        <v>23964</v>
-      </c>
-      <c r="AA84">
-        <v>23438</v>
-      </c>
-    </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>25</v>
-      </c>
-      <c r="B85">
-        <v>10000</v>
-      </c>
-      <c r="C85">
-        <v>77</v>
-      </c>
-      <c r="D85">
-        <v>122</v>
-      </c>
-      <c r="E85">
-        <v>16808</v>
-      </c>
-      <c r="F85">
-        <v>19843</v>
-      </c>
-      <c r="G85">
-        <v>36850</v>
-      </c>
-      <c r="H85">
-        <v>8</v>
-      </c>
-      <c r="I85">
-        <v>540</v>
-      </c>
-      <c r="J85">
-        <v>0</v>
-      </c>
-      <c r="K85">
-        <v>3</v>
-      </c>
-      <c r="L85">
-        <v>112</v>
-      </c>
-      <c r="M85">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="N85">
-        <v>371</v>
-      </c>
-      <c r="O85">
-        <v>466</v>
-      </c>
-      <c r="P85">
-        <v>5367</v>
-      </c>
-      <c r="Q85">
-        <f t="shared" si="1"/>
-        <v>6204</v>
-      </c>
-      <c r="R85">
-        <v>35</v>
-      </c>
-      <c r="S85">
-        <v>44</v>
-      </c>
-      <c r="T85">
-        <v>1247</v>
-      </c>
-      <c r="U85">
-        <f t="shared" si="2"/>
-        <v>1326</v>
-      </c>
-      <c r="V85">
-        <v>37</v>
-      </c>
-      <c r="W85">
-        <v>544</v>
-      </c>
-      <c r="X85">
-        <v>15468</v>
-      </c>
-      <c r="Y85">
-        <f t="shared" si="3"/>
-        <v>16049</v>
-      </c>
-      <c r="Z85">
-        <v>24242</v>
-      </c>
-      <c r="AA85">
-        <v>23694</v>
-      </c>
-    </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>25</v>
-      </c>
-      <c r="B86">
-        <v>10000</v>
-      </c>
-      <c r="C86">
-        <v>80</v>
-      </c>
-      <c r="D86">
-        <v>113</v>
-      </c>
-      <c r="E86">
-        <v>16817</v>
-      </c>
-      <c r="F86">
-        <v>19424</v>
-      </c>
-      <c r="G86">
-        <v>36434</v>
-      </c>
-      <c r="H86">
-        <v>14</v>
-      </c>
-      <c r="I86">
-        <v>394</v>
-      </c>
-      <c r="J86">
-        <v>0</v>
-      </c>
-      <c r="K86">
-        <v>2</v>
-      </c>
-      <c r="L86">
-        <v>104</v>
-      </c>
-      <c r="M86">
-        <f t="shared" si="0"/>
-        <v>106</v>
-      </c>
-      <c r="N86">
-        <v>371</v>
-      </c>
-      <c r="O86">
-        <v>466</v>
-      </c>
-      <c r="P86">
-        <v>5341</v>
-      </c>
-      <c r="Q86">
-        <f t="shared" si="1"/>
-        <v>6178</v>
-      </c>
-      <c r="R86">
-        <v>39</v>
-      </c>
-      <c r="S86">
-        <v>38</v>
-      </c>
-      <c r="T86">
-        <v>1252</v>
-      </c>
-      <c r="U86">
-        <f t="shared" si="2"/>
-        <v>1329</v>
-      </c>
-      <c r="V86">
-        <v>33</v>
-      </c>
-      <c r="W86">
-        <v>607</v>
-      </c>
-      <c r="X86">
-        <v>15115</v>
-      </c>
-      <c r="Y86">
-        <f t="shared" si="3"/>
-        <v>15755</v>
-      </c>
-      <c r="Z86">
-        <v>23776</v>
-      </c>
-      <c r="AA86">
-        <v>23368</v>
-      </c>
-    </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>25</v>
-      </c>
-      <c r="B87">
-        <v>10000</v>
-      </c>
-      <c r="C87">
-        <v>54</v>
-      </c>
-      <c r="D87">
-        <v>125</v>
-      </c>
-      <c r="E87">
-        <v>16805</v>
-      </c>
-      <c r="F87">
-        <v>19572</v>
-      </c>
-      <c r="G87">
-        <v>36556</v>
-      </c>
-      <c r="H87">
-        <v>10</v>
-      </c>
-      <c r="I87">
-        <v>466</v>
-      </c>
-      <c r="J87">
-        <v>0</v>
-      </c>
-      <c r="K87">
-        <v>2</v>
-      </c>
-      <c r="L87">
-        <v>93</v>
-      </c>
-      <c r="M87">
-        <f t="shared" si="0"/>
-        <v>95</v>
-      </c>
-      <c r="N87">
-        <v>377</v>
-      </c>
-      <c r="O87">
-        <v>463</v>
-      </c>
-      <c r="P87">
-        <v>5426</v>
-      </c>
-      <c r="Q87">
-        <f t="shared" si="1"/>
-        <v>6266</v>
-      </c>
-      <c r="R87">
-        <v>38</v>
-      </c>
-      <c r="S87">
-        <v>38</v>
-      </c>
-      <c r="T87">
-        <v>1228</v>
-      </c>
-      <c r="U87">
-        <f t="shared" si="2"/>
-        <v>1304</v>
-      </c>
-      <c r="V87">
-        <v>29</v>
-      </c>
-      <c r="W87">
-        <v>574</v>
-      </c>
-      <c r="X87">
-        <v>15163</v>
-      </c>
-      <c r="Y87">
-        <f t="shared" si="3"/>
-        <v>15766</v>
-      </c>
-      <c r="Z87">
-        <v>23907</v>
-      </c>
-      <c r="AA87">
-        <v>23431</v>
-      </c>
-    </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>25</v>
-      </c>
-      <c r="B88">
-        <v>10000</v>
-      </c>
-      <c r="C88">
-        <v>66</v>
-      </c>
-      <c r="D88">
-        <v>113</v>
-      </c>
-      <c r="E88">
-        <v>16817</v>
-      </c>
-      <c r="F88">
-        <v>19514</v>
-      </c>
-      <c r="G88">
-        <v>36510</v>
-      </c>
-      <c r="H88">
-        <v>11</v>
-      </c>
-      <c r="I88">
-        <v>370</v>
-      </c>
-      <c r="J88">
-        <v>0</v>
-      </c>
-      <c r="K88">
-        <v>4</v>
-      </c>
-      <c r="L88">
-        <v>111</v>
-      </c>
-      <c r="M88">
-        <f t="shared" si="0"/>
-        <v>115</v>
-      </c>
-      <c r="N88">
-        <v>364</v>
-      </c>
-      <c r="O88">
-        <v>462</v>
-      </c>
-      <c r="P88">
-        <v>5307</v>
-      </c>
-      <c r="Q88">
-        <f t="shared" si="1"/>
-        <v>6133</v>
-      </c>
-      <c r="R88">
-        <v>41</v>
-      </c>
-      <c r="S88">
-        <v>38</v>
-      </c>
-      <c r="T88">
-        <v>1257</v>
-      </c>
-      <c r="U88">
-        <f t="shared" si="2"/>
-        <v>1336</v>
-      </c>
-      <c r="V88">
-        <v>32</v>
-      </c>
-      <c r="W88">
-        <v>628</v>
-      </c>
-      <c r="X88">
-        <v>15179</v>
-      </c>
-      <c r="Y88">
-        <f t="shared" si="3"/>
-        <v>15839</v>
-      </c>
-      <c r="Z88">
-        <v>23804</v>
-      </c>
-      <c r="AA88">
-        <v>23423</v>
-      </c>
-    </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>25</v>
-      </c>
-      <c r="B89">
-        <v>10000</v>
-      </c>
-      <c r="C89">
-        <v>71</v>
-      </c>
-      <c r="D89">
-        <v>124</v>
-      </c>
-      <c r="E89">
-        <v>16806</v>
-      </c>
-      <c r="F89">
-        <v>19700</v>
-      </c>
-      <c r="G89">
-        <v>36701</v>
-      </c>
-      <c r="H89">
-        <v>13</v>
-      </c>
-      <c r="I89">
-        <v>532</v>
-      </c>
-      <c r="J89">
-        <v>0</v>
-      </c>
-      <c r="K89">
-        <v>5</v>
-      </c>
-      <c r="L89">
-        <v>96</v>
-      </c>
-      <c r="M89">
-        <f t="shared" si="0"/>
-        <v>101</v>
-      </c>
-      <c r="N89">
-        <v>367</v>
-      </c>
-      <c r="O89">
-        <v>462</v>
-      </c>
-      <c r="P89">
-        <v>5266</v>
-      </c>
-      <c r="Q89">
-        <f t="shared" si="1"/>
-        <v>6095</v>
-      </c>
-      <c r="R89">
-        <v>38</v>
-      </c>
-      <c r="S89">
-        <v>39</v>
-      </c>
-      <c r="T89">
-        <v>1337</v>
-      </c>
-      <c r="U89">
-        <f t="shared" si="2"/>
-        <v>1414</v>
-      </c>
-      <c r="V89">
-        <v>16</v>
-      </c>
-      <c r="W89">
-        <v>591</v>
-      </c>
-      <c r="X89">
-        <v>15211</v>
-      </c>
-      <c r="Y89">
-        <f t="shared" si="3"/>
-        <v>15818</v>
-      </c>
-      <c r="Z89">
-        <v>23973</v>
-      </c>
-      <c r="AA89">
-        <v>23428</v>
-      </c>
-    </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>25</v>
-      </c>
-      <c r="B90">
-        <v>10000</v>
-      </c>
-      <c r="C90">
-        <v>73</v>
-      </c>
-      <c r="D90">
-        <v>120</v>
-      </c>
-      <c r="E90">
-        <v>16810</v>
-      </c>
-      <c r="F90">
-        <v>19553</v>
-      </c>
-      <c r="G90">
-        <v>36556</v>
-      </c>
-      <c r="H90">
-        <v>15</v>
-      </c>
-      <c r="I90">
-        <v>615</v>
-      </c>
-      <c r="J90">
-        <v>1</v>
-      </c>
-      <c r="K90">
-        <v>6</v>
-      </c>
-      <c r="L90">
-        <v>116</v>
-      </c>
-      <c r="M90">
-        <f t="shared" si="0"/>
-        <v>123</v>
-      </c>
-      <c r="N90">
-        <v>371</v>
-      </c>
-      <c r="O90">
-        <v>473</v>
-      </c>
-      <c r="P90">
-        <v>5465</v>
-      </c>
-      <c r="Q90">
-        <f t="shared" si="1"/>
-        <v>6309</v>
-      </c>
-      <c r="R90">
-        <v>35</v>
-      </c>
-      <c r="S90">
-        <v>39</v>
-      </c>
-      <c r="T90">
-        <v>1190</v>
-      </c>
-      <c r="U90">
-        <f t="shared" si="2"/>
-        <v>1264</v>
-      </c>
-      <c r="V90">
-        <v>24</v>
-      </c>
-      <c r="W90">
-        <v>610</v>
-      </c>
-      <c r="X90">
-        <v>15111</v>
-      </c>
-      <c r="Y90">
-        <f t="shared" si="3"/>
-        <v>15745</v>
-      </c>
-      <c r="Z90">
-        <v>24071</v>
-      </c>
-      <c r="AA90">
-        <v>23441</v>
-      </c>
-    </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>25</v>
-      </c>
-      <c r="B91">
-        <v>10000</v>
-      </c>
-      <c r="C91">
-        <v>84</v>
-      </c>
-      <c r="D91">
-        <v>112</v>
-      </c>
-      <c r="E91">
-        <v>16818</v>
-      </c>
-      <c r="F91">
-        <v>19823</v>
-      </c>
-      <c r="G91">
-        <v>36837</v>
-      </c>
-      <c r="H91">
-        <v>8</v>
-      </c>
-      <c r="I91">
-        <v>378</v>
-      </c>
-      <c r="J91">
-        <v>0</v>
-      </c>
-      <c r="K91">
-        <v>0</v>
-      </c>
-      <c r="L91">
-        <v>119</v>
-      </c>
-      <c r="M91">
-        <f t="shared" si="0"/>
-        <v>119</v>
-      </c>
-      <c r="N91">
-        <v>367</v>
-      </c>
-      <c r="O91">
-        <v>449</v>
-      </c>
-      <c r="P91">
-        <v>5314</v>
-      </c>
-      <c r="Q91">
-        <f t="shared" si="1"/>
-        <v>6130</v>
-      </c>
-      <c r="R91">
-        <v>38</v>
-      </c>
-      <c r="S91">
-        <v>45</v>
-      </c>
-      <c r="T91">
-        <v>1260</v>
-      </c>
-      <c r="U91">
-        <f t="shared" si="2"/>
-        <v>1343</v>
-      </c>
-      <c r="V91">
-        <v>26</v>
-      </c>
-      <c r="W91">
-        <v>557</v>
-      </c>
-      <c r="X91">
-        <v>15421</v>
-      </c>
-      <c r="Y91">
-        <f t="shared" si="3"/>
-        <v>16004</v>
-      </c>
-      <c r="Z91">
-        <v>23982</v>
-      </c>
-      <c r="AA91">
-        <v>23596</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
@@ -34367,7 +29299,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B7400D3-4408-4AB0-A4E0-D2D392275FE0}">
   <dimension ref="A1:R30"/>
   <sheetViews>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{974AF6D4-CC80-40B6-AE77-E4AFE1391FE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A327822-D0FC-4CA0-880E-BBE9412BE6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="46">
   <si>
     <t>Mass</t>
   </si>
@@ -155,9 +155,6 @@
     <t>CTN 0.5 - 0.08</t>
   </si>
   <si>
-    <t>Conf</t>
-  </si>
-  <si>
     <t>True Positive / Total Positive</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Abs error</t>
+  </si>
+  <si>
+    <t>Sign Stellen</t>
   </si>
 </sst>
 </file>
@@ -506,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C7D530-1791-4814-8A4A-F65FDE59479A}">
-  <dimension ref="A1:AR52"/>
+  <dimension ref="A1:AR54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AP37" sqref="AP37"/>
+      <selection activeCell="AQ2" sqref="AQ2:AQ26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -618,22 +618,31 @@
         <v>14</v>
       </c>
       <c r="AI1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>43</v>
       </c>
-      <c r="AL1" t="s">
-        <v>44</v>
+      <c r="AN1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>42</v>
       </c>
       <c r="AQ1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR1" t="s">
         <v>39</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
@@ -785,6 +794,22 @@
         <f>AVERAGE(extinction!AL2:AL11)</f>
         <v>0.9997555012224939</v>
       </c>
+      <c r="AN2">
+        <f>ROUNDUP(AI2,-INT(LOG(AI2))+(LEN(AN28)-LEN(SUBSTITUTE(AN28,"0",))+1)-1)</f>
+        <v>0.99983999999999995</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" ref="AO2:AQ17" si="0">ROUNDUP(AJ2,-INT(LOG(AJ2))+(LEN(AO28)-LEN(SUBSTITUTE(AO28,"0",))+1)-1)</f>
+        <v>1</v>
+      </c>
+      <c r="AP2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ2">
+        <f t="shared" si="0"/>
+        <v>0.99975999999999998</v>
+      </c>
     </row>
     <row r="3" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -935,6 +960,22 @@
         <f>AVERAGE(extinction!AL12:AL21)</f>
         <v>0.99925348516627643</v>
       </c>
+      <c r="AN3">
+        <f t="shared" ref="AN3:AN26" si="1">ROUNDUP(AI3,-INT(LOG(AI3))+(LEN(AN29)-LEN(SUBSTITUTE(AN29,"0",))+1)-1)</f>
+        <v>0.99947999999999992</v>
+      </c>
+      <c r="AO3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ3">
+        <f t="shared" si="0"/>
+        <v>0.99925999999999993</v>
+      </c>
     </row>
     <row r="4" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -1085,6 +1126,22 @@
         <f>AVERAGE(extinction!AL22:AL31)</f>
         <v>0.99864067350446706</v>
       </c>
+      <c r="AN4">
+        <f t="shared" si="1"/>
+        <v>0.99905999999999995</v>
+      </c>
+      <c r="AO4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" si="0"/>
+        <v>0.99864999999999993</v>
+      </c>
     </row>
     <row r="5" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -1235,6 +1292,22 @@
         <f>AVERAGE(extinction!AL32:AL41)</f>
         <v>0.99811142379856432</v>
       </c>
+      <c r="AN5">
+        <f t="shared" si="1"/>
+        <v>0.99863999999999997</v>
+      </c>
+      <c r="AO5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="0"/>
+        <v>0.99812000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -1385,6 +1458,22 @@
         <f>AVERAGE(extinction!AL42:AL51)</f>
         <v>0.99218717686402047</v>
       </c>
+      <c r="AN6">
+        <f t="shared" si="1"/>
+        <v>0.99363999999999997</v>
+      </c>
+      <c r="AO6">
+        <f t="shared" si="0"/>
+        <v>0.99961</v>
+      </c>
+      <c r="AP6">
+        <f t="shared" si="0"/>
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="0"/>
+        <v>0.99219999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -1535,6 +1624,22 @@
         <f>AVERAGE(extinction!AL52:AL61)</f>
         <v>0.95340527226277949</v>
       </c>
+      <c r="AN7">
+        <f t="shared" si="1"/>
+        <v>0.96119999999999994</v>
+      </c>
+      <c r="AO7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP7">
+        <f t="shared" si="0"/>
+        <v>0.96970000000000001</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="0"/>
+        <v>0.95399999999999996</v>
+      </c>
     </row>
     <row r="8" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -1685,6 +1790,22 @@
         <f>AVERAGE(extinction!AL62:AL71)</f>
         <v>0.96011339265421147</v>
       </c>
+      <c r="AN8">
+        <f t="shared" si="1"/>
+        <v>0.96589999999999998</v>
+      </c>
+      <c r="AO8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" si="0"/>
+        <v>0.97329999999999994</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="0"/>
+        <v>0.96099999999999997</v>
+      </c>
     </row>
     <row r="9" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -1835,6 +1956,22 @@
         <f>AVERAGE(extinction!AL72:AL81)</f>
         <v>0.97160640400551446</v>
       </c>
+      <c r="AN9">
+        <f t="shared" si="1"/>
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="AO9">
+        <f t="shared" si="0"/>
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="0"/>
+        <v>0.98170000000000002</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="0"/>
+        <v>0.97170000000000001</v>
+      </c>
     </row>
     <row r="10" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1985,6 +2122,22 @@
         <f>AVERAGE(extinction!AL82:AL91)</f>
         <v>0.97693511043876335</v>
       </c>
+      <c r="AN10">
+        <f t="shared" si="1"/>
+        <v>0.98080000000000001</v>
+      </c>
+      <c r="AO10">
+        <f t="shared" si="0"/>
+        <v>0.99973999999999996</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="0"/>
+        <v>0.98739999999999994</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="0"/>
+        <v>0.97699999999999998</v>
+      </c>
     </row>
     <row r="11" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2135,6 +2288,22 @@
         <f>AVERAGE(extinction!AL92:AL101)</f>
         <v>0.98281082492591465</v>
       </c>
+      <c r="AN11">
+        <f t="shared" si="1"/>
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="AO11">
+        <f t="shared" si="0"/>
+        <v>0.99988999999999995</v>
+      </c>
+      <c r="AP11">
+        <f t="shared" si="0"/>
+        <v>0.98970000000000002</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="0"/>
+        <v>0.9829</v>
+      </c>
     </row>
     <row r="12" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2285,6 +2454,22 @@
         <f>AVERAGE(extinction!AL102:AL111)</f>
         <v>0.80873698568982166</v>
       </c>
+      <c r="AN12">
+        <f t="shared" si="1"/>
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="AO12">
+        <f t="shared" si="0"/>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="AP12">
+        <f t="shared" si="0"/>
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="0"/>
+        <v>0.80900000000000005</v>
+      </c>
     </row>
     <row r="13" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2435,6 +2620,22 @@
         <f>AVERAGE(extinction!AL112:AL121)</f>
         <v>0.84692070302950806</v>
       </c>
+      <c r="AN13">
+        <f t="shared" si="1"/>
+        <v>0.87339999999999995</v>
+      </c>
+      <c r="AO13">
+        <f t="shared" si="0"/>
+        <v>0.99509999999999998</v>
+      </c>
+      <c r="AP13">
+        <f t="shared" si="0"/>
+        <v>0.90500000000000003</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="0"/>
+        <v>0.84699999999999998</v>
+      </c>
     </row>
     <row r="14" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2585,6 +2786,22 @@
         <f>AVERAGE(extinction!AL122:AL131)</f>
         <v>0.87896264467508656</v>
       </c>
+      <c r="AN14">
+        <f t="shared" si="1"/>
+        <v>0.90159999999999996</v>
+      </c>
+      <c r="AO14">
+        <f t="shared" si="0"/>
+        <v>0.99749999999999994</v>
+      </c>
+      <c r="AP14">
+        <f t="shared" si="0"/>
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="0"/>
+        <v>0.879</v>
+      </c>
     </row>
     <row r="15" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2735,6 +2952,22 @@
         <f>AVERAGE(extinction!AL132:AL141)</f>
         <v>0.91674961571996794</v>
       </c>
+      <c r="AN15">
+        <f t="shared" si="1"/>
+        <v>0.92999999999999994</v>
+      </c>
+      <c r="AO15">
+        <f t="shared" si="0"/>
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="AP15">
+        <f t="shared" si="0"/>
+        <v>0.94840000000000002</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="0"/>
+        <v>0.91679999999999995</v>
+      </c>
     </row>
     <row r="16" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2885,8 +3118,24 @@
         <f>AVERAGE(extinction!AL142:AL151)</f>
         <v>0.94221837094486016</v>
       </c>
+      <c r="AN16">
+        <f t="shared" si="1"/>
+        <v>0.95069999999999999</v>
+      </c>
+      <c r="AO16">
+        <f t="shared" si="0"/>
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="AP16">
+        <f t="shared" si="0"/>
+        <v>0.96160000000000001</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="0"/>
+        <v>0.94230000000000003</v>
+      </c>
     </row>
-    <row r="17" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A17">
         <f>AVERAGE(extinction!A152:A161)</f>
         <v>5</v>
@@ -3035,8 +3284,24 @@
         <f>AVERAGE(extinction!AL152:AL161)</f>
         <v>0.87092979629907852</v>
       </c>
+      <c r="AN17">
+        <f t="shared" si="1"/>
+        <v>0.92700000000000005</v>
+      </c>
+      <c r="AO17">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AP17">
+        <f t="shared" si="0"/>
+        <v>0.96829999999999994</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="0"/>
+        <v>0.871</v>
+      </c>
     </row>
-    <row r="18" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A18">
         <f>AVERAGE(extinction!A162:A171)</f>
         <v>5</v>
@@ -3185,8 +3450,24 @@
         <f>AVERAGE(extinction!AL162:AL171)</f>
         <v>0.91248506851226363</v>
       </c>
+      <c r="AN18">
+        <f t="shared" si="1"/>
+        <v>0.93959999999999999</v>
+      </c>
+      <c r="AO18">
+        <f t="shared" ref="AO18:AO26" si="2">ROUNDUP(AJ18,-INT(LOG(AJ18))+(LEN(AO44)-LEN(SUBSTITUTE(AO44,"0",))+1)-1)</f>
+        <v>0.99870000000000003</v>
+      </c>
+      <c r="AP18">
+        <f t="shared" ref="AP18:AP26" si="3">ROUNDUP(AK18,-INT(LOG(AK18))+(LEN(AP44)-LEN(SUBSTITUTE(AP44,"0",))+1)-1)</f>
+        <v>0.96850000000000003</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" ref="AQ18:AQ26" si="4">ROUNDUP(AL18,-INT(LOG(AL18))+(LEN(AQ44)-LEN(SUBSTITUTE(AQ44,"0",))+1)-1)</f>
+        <v>0.91300000000000003</v>
+      </c>
     </row>
-    <row r="19" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A19">
         <f>AVERAGE(extinction!A172:A181)</f>
         <v>5</v>
@@ -3335,8 +3616,24 @@
         <f>AVERAGE(extinction!AL172:AL181)</f>
         <v>0.93840802569631188</v>
       </c>
+      <c r="AN19">
+        <f t="shared" si="1"/>
+        <v>0.95669999999999999</v>
+      </c>
+      <c r="AO19">
+        <f t="shared" si="2"/>
+        <v>0.99849999999999994</v>
+      </c>
+      <c r="AP19">
+        <f t="shared" si="3"/>
+        <v>0.97799999999999998</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="4"/>
+        <v>0.9385</v>
+      </c>
     </row>
-    <row r="20" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A20">
         <f>AVERAGE(extinction!A182:A191)</f>
         <v>5</v>
@@ -3485,8 +3782,24 @@
         <f>AVERAGE(extinction!AL182:AL191)</f>
         <v>0.95184777080486982</v>
       </c>
+      <c r="AN20">
+        <f t="shared" si="1"/>
+        <v>0.96319999999999995</v>
+      </c>
+      <c r="AO20">
+        <f t="shared" si="2"/>
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="AP20">
+        <f t="shared" si="3"/>
+        <v>0.97889999999999999</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="4"/>
+        <v>0.95189999999999997</v>
+      </c>
     </row>
-    <row r="21" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A21">
         <f>AVERAGE(extinction!A192:A201)</f>
         <v>5</v>
@@ -3635,8 +3948,24 @@
         <f>AVERAGE(extinction!AL192:AL201)</f>
         <v>0.96418226389131756</v>
       </c>
+      <c r="AN21">
+        <f t="shared" si="1"/>
+        <v>0.97260000000000002</v>
+      </c>
+      <c r="AO21">
+        <f t="shared" si="2"/>
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="AP21">
+        <f t="shared" si="3"/>
+        <v>0.9839</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="4"/>
+        <v>0.96419999999999995</v>
+      </c>
     </row>
-    <row r="22" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A22">
         <f>AVERAGE(extinction!A202:A211)</f>
         <v>0</v>
@@ -3785,8 +4114,24 @@
         <f>AVERAGE(extinction!AL202:AL211)</f>
         <v>0.48650539393103187</v>
       </c>
+      <c r="AN22">
+        <f t="shared" si="1"/>
+        <v>0.626</v>
+      </c>
+      <c r="AO22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AP22">
+        <f t="shared" si="3"/>
+        <v>0.80900000000000005</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="4"/>
+        <v>0.48699999999999999</v>
+      </c>
     </row>
-    <row r="23" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>AVERAGE(extinction!A212:A221)</f>
         <v>0</v>
@@ -3935,8 +4280,24 @@
         <f>AVERAGE(extinction!AL212:AL221)</f>
         <v>0.61211959542307492</v>
       </c>
+      <c r="AN23">
+        <f t="shared" si="1"/>
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="AO23">
+        <f t="shared" si="2"/>
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="AP23">
+        <f t="shared" si="3"/>
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="4"/>
+        <v>0.61299999999999999</v>
+      </c>
     </row>
-    <row r="24" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>AVERAGE(extinction!A222:A231)</f>
         <v>0</v>
@@ -4085,8 +4446,24 @@
         <f>AVERAGE(extinction!AL222:AL231)</f>
         <v>0.69849066224978862</v>
       </c>
+      <c r="AN24">
+        <f t="shared" si="1"/>
+        <v>0.77129999999999999</v>
+      </c>
+      <c r="AO24">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="AP24">
+        <f t="shared" si="3"/>
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="4"/>
+        <v>0.69850000000000001</v>
+      </c>
     </row>
-    <row r="25" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>AVERAGE(extinction!A232:A241)</f>
         <v>0</v>
@@ -4235,8 +4612,24 @@
         <f>AVERAGE(extinction!AL232:AL241)</f>
         <v>0.77185026390474121</v>
       </c>
+      <c r="AN25">
+        <f t="shared" si="1"/>
+        <v>0.82369999999999999</v>
+      </c>
+      <c r="AO25">
+        <f t="shared" si="2"/>
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="AP25">
+        <f t="shared" si="3"/>
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="4"/>
+        <v>0.77190000000000003</v>
+      </c>
     </row>
-    <row r="26" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A26">
         <f>AVERAGE(extinction!A242:A251)</f>
         <v>0</v>
@@ -4385,13 +4778,29 @@
         <f>AVERAGE(extinction!AL242:AL251)</f>
         <v>0.82119188664169729</v>
       </c>
+      <c r="AN26">
+        <f t="shared" si="1"/>
+        <v>0.86660000000000004</v>
+      </c>
+      <c r="AO26">
+        <f t="shared" si="2"/>
+        <v>0.9996799999999999</v>
+      </c>
+      <c r="AP26">
+        <f t="shared" si="3"/>
+        <v>0.92610000000000003</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="4"/>
+        <v>0.82120000000000004</v>
+      </c>
     </row>
-    <row r="27" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:43" x14ac:dyDescent="0.25">
       <c r="O27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>_xlfn.STDEV.S(extinction!A2:A11)</f>
         <v>0</v>
@@ -4540,8 +4949,24 @@
         <f>_xlfn.STDEV.S(extinction!AL2:AL11)</f>
         <v>7.7317302204604461E-4</v>
       </c>
+      <c r="AN28">
+        <f>IFERROR(ROUNDUP(AI28,-INT(LOG(AI28))+($AO$54-1)),0)</f>
+        <v>5.4000000000000001E-4</v>
+      </c>
+      <c r="AO28">
+        <f>IFERROR(ROUNDUP(AJ28,-INT(LOG(AJ28))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP28">
+        <f>IFERROR(ROUNDUP(AK28,-INT(LOG(AK28))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ28">
+        <f>IFERROR(ROUNDUP(AL28,-INT(LOG(AL28))+($AO$54-1)),0)</f>
+        <v>7.7999999999999999E-4</v>
+      </c>
     </row>
-    <row r="29" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>_xlfn.STDEV.S(extinction!A12:A21)</f>
         <v>0</v>
@@ -4690,8 +5115,24 @@
         <f>_xlfn.STDEV.S(extinction!AL12:AL21)</f>
         <v>8.705045734712641E-4</v>
       </c>
+      <c r="AN29">
+        <f>IFERROR(ROUNDUP(AI29,-INT(LOG(AI29))+($AO$54-1)),0)</f>
+        <v>6.2E-4</v>
+      </c>
+      <c r="AO29">
+        <f>IFERROR(ROUNDUP(AJ29,-INT(LOG(AJ29))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <f>IFERROR(ROUNDUP(AK29,-INT(LOG(AK29))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ29">
+        <f>IFERROR(ROUNDUP(AL29,-INT(LOG(AL29))+($AO$54-1)),0)</f>
+        <v>8.8000000000000003E-4</v>
+      </c>
     </row>
-    <row r="30" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>_xlfn.STDEV.S(extinction!A22:A31)</f>
         <v>0</v>
@@ -4840,8 +5281,24 @@
         <f>_xlfn.STDEV.S(extinction!AL22:AL31)</f>
         <v>7.7960709217457362E-4</v>
       </c>
+      <c r="AN30">
+        <f>IFERROR(ROUNDUP(AI30,-INT(LOG(AI30))+($AO$54-1)),0)</f>
+        <v>5.5000000000000003E-4</v>
+      </c>
+      <c r="AO30">
+        <f>IFERROR(ROUNDUP(AJ30,-INT(LOG(AJ30))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP30">
+        <f>IFERROR(ROUNDUP(AK30,-INT(LOG(AK30))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ30">
+        <f>IFERROR(ROUNDUP(AL30,-INT(LOG(AL30))+($AO$54-1)),0)</f>
+        <v>7.7999999999999999E-4</v>
+      </c>
     </row>
-    <row r="31" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>_xlfn.STDEV.S(extinction!A32:A41)</f>
         <v>0</v>
@@ -4990,8 +5447,24 @@
         <f>_xlfn.STDEV.S(extinction!AL32:AL41)</f>
         <v>7.1754529511924858E-4</v>
       </c>
+      <c r="AN31">
+        <f>IFERROR(ROUNDUP(AI31,-INT(LOG(AI31))+($AO$54-1)),0)</f>
+        <v>5.2000000000000006E-4</v>
+      </c>
+      <c r="AO31">
+        <f>IFERROR(ROUNDUP(AJ31,-INT(LOG(AJ31))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP31">
+        <f>IFERROR(ROUNDUP(AK31,-INT(LOG(AK31))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AQ31">
+        <f>IFERROR(ROUNDUP(AL31,-INT(LOG(AL31))+($AO$54-1)),0)</f>
+        <v>7.2000000000000005E-4</v>
+      </c>
     </row>
-    <row r="32" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A32">
         <f>_xlfn.STDEV.S(extinction!A42:A51)</f>
         <v>0</v>
@@ -5140,8 +5613,24 @@
         <f>_xlfn.STDEV.S(extinction!AL42:AL51)</f>
         <v>1.2801559329646821E-3</v>
       </c>
+      <c r="AN32">
+        <f>IFERROR(ROUNDUP(AI32,-INT(LOG(AI32))+($AO$54-1)),0)</f>
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="AO32">
+        <f>IFERROR(ROUNDUP(AJ32,-INT(LOG(AJ32))+($AO$54-1)),0)</f>
+        <v>8.9000000000000006E-4</v>
+      </c>
+      <c r="AP32">
+        <f>IFERROR(ROUNDUP(AK32,-INT(LOG(AK32))+($AO$54-1)),0)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AQ32">
+        <f>IFERROR(ROUNDUP(AL32,-INT(LOG(AL32))+($AO$54-1)),0)</f>
+        <v>1.2999999999999999E-3</v>
+      </c>
     </row>
-    <row r="33" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A33">
         <f>_xlfn.STDEV.S(extinction!A52:A61)</f>
         <v>0</v>
@@ -5290,8 +5779,24 @@
         <f>_xlfn.STDEV.S(extinction!AL52:AL61)</f>
         <v>1.3645766534354793E-2</v>
       </c>
+      <c r="AN33">
+        <f>IFERROR(ROUNDUP(AI33,-INT(LOG(AI33))+($AO$54-1)),0)</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="AO33">
+        <f>IFERROR(ROUNDUP(AJ33,-INT(LOG(AJ33))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP33">
+        <f>IFERROR(ROUNDUP(AK33,-INT(LOG(AK33))+($AO$54-1)),0)</f>
+        <v>8.7999999999999988E-3</v>
+      </c>
+      <c r="AQ33">
+        <f>IFERROR(ROUNDUP(AL33,-INT(LOG(AL33))+($AO$54-1)),0)</f>
+        <v>1.3999999999999999E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A34">
         <f>_xlfn.STDEV.S(extinction!A62:A71)</f>
         <v>0</v>
@@ -5440,8 +5945,24 @@
         <f>_xlfn.STDEV.S(extinction!AL62:AL71)</f>
         <v>1.0659774809532712E-2</v>
       </c>
+      <c r="AN34">
+        <f>IFERROR(ROUNDUP(AI34,-INT(LOG(AI34))+($AO$54-1)),0)</f>
+        <v>7.7000000000000002E-3</v>
+      </c>
+      <c r="AO34">
+        <f>IFERROR(ROUNDUP(AJ34,-INT(LOG(AJ34))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP34">
+        <f>IFERROR(ROUNDUP(AK34,-INT(LOG(AK34))+($AO$54-1)),0)</f>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="AQ34">
+        <f>IFERROR(ROUNDUP(AL34,-INT(LOG(AL34))+($AO$54-1)),0)</f>
+        <v>1.0999999999999999E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A35">
         <f>_xlfn.STDEV.S(extinction!A72:A81)</f>
         <v>0</v>
@@ -5590,8 +6111,24 @@
         <f>_xlfn.STDEV.S(extinction!AL72:AL81)</f>
         <v>4.1662772644016173E-3</v>
       </c>
+      <c r="AN35">
+        <f>IFERROR(ROUNDUP(AI35,-INT(LOG(AI35))+($AO$54-1)),0)</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AO35">
+        <f>IFERROR(ROUNDUP(AJ35,-INT(LOG(AJ35))+($AO$54-1)),0)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="AP35">
+        <f>IFERROR(ROUNDUP(AK35,-INT(LOG(AK35))+($AO$54-1)),0)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="AQ35">
+        <f>IFERROR(ROUNDUP(AL35,-INT(LOG(AL35))+($AO$54-1)),0)</f>
+        <v>4.2000000000000006E-3</v>
+      </c>
     </row>
-    <row r="36" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A36">
         <f>_xlfn.STDEV.S(extinction!A82:A91)</f>
         <v>0</v>
@@ -5740,8 +6277,24 @@
         <f>_xlfn.STDEV.S(extinction!AL82:AL91)</f>
         <v>1.5215975622081255E-3</v>
       </c>
+      <c r="AN36">
+        <f>IFERROR(ROUNDUP(AI36,-INT(LOG(AI36))+($AO$54-1)),0)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AO36">
+        <f>IFERROR(ROUNDUP(AJ36,-INT(LOG(AJ36))+($AO$54-1)),0)</f>
+        <v>8.5999999999999998E-4</v>
+      </c>
+      <c r="AP36">
+        <f>IFERROR(ROUNDUP(AK36,-INT(LOG(AK36))+($AO$54-1)),0)</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
+      <c r="AQ36">
+        <f>IFERROR(ROUNDUP(AL36,-INT(LOG(AL36))+($AO$54-1)),0)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
-    <row r="37" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A37">
         <f>_xlfn.STDEV.S(extinction!A92:A101)</f>
         <v>0</v>
@@ -5890,8 +6443,24 @@
         <f>_xlfn.STDEV.S(extinction!AL92:AL101)</f>
         <v>1.5656771834241798E-3</v>
       </c>
+      <c r="AN37">
+        <f>IFERROR(ROUNDUP(AI37,-INT(LOG(AI37))+($AO$54-1)),0)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="AO37">
+        <f>IFERROR(ROUNDUP(AJ37,-INT(LOG(AJ37))+($AO$54-1)),0)</f>
+        <v>3.8000000000000002E-4</v>
+      </c>
+      <c r="AP37">
+        <f>IFERROR(ROUNDUP(AK37,-INT(LOG(AK37))+($AO$54-1)),0)</f>
+        <v>1.2000000000000001E-3</v>
+      </c>
+      <c r="AQ37">
+        <f>IFERROR(ROUNDUP(AL37,-INT(LOG(AL37))+($AO$54-1)),0)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
     </row>
-    <row r="38" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A38">
         <f>_xlfn.STDEV.S(extinction!A102:A111)</f>
         <v>0</v>
@@ -6040,8 +6609,24 @@
         <f>_xlfn.STDEV.S(extinction!AL102:AL111)</f>
         <v>2.1513200275154867E-2</v>
       </c>
+      <c r="AN38">
+        <f>IFERROR(ROUNDUP(AI38,-INT(LOG(AI38))+($AO$54-1)),0)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AO38">
+        <f>IFERROR(ROUNDUP(AJ38,-INT(LOG(AJ38))+($AO$54-1)),0)</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AP38">
+        <f>IFERROR(ROUNDUP(AK38,-INT(LOG(AK38))+($AO$54-1)),0)</f>
+        <v>1.8000000000000002E-2</v>
+      </c>
+      <c r="AQ38">
+        <f>IFERROR(ROUNDUP(AL38,-INT(LOG(AL38))+($AO$54-1)),0)</f>
+        <v>2.2000000000000002E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A39">
         <f>_xlfn.STDEV.S(extinction!A112:A121)</f>
         <v>0</v>
@@ -6190,8 +6775,24 @@
         <f>_xlfn.STDEV.S(extinction!AL112:AL121)</f>
         <v>8.2640831017031947E-3</v>
       </c>
+      <c r="AN39">
+        <f>IFERROR(ROUNDUP(AI39,-INT(LOG(AI39))+($AO$54-1)),0)</f>
+        <v>7.2000000000000007E-3</v>
+      </c>
+      <c r="AO39">
+        <f>IFERROR(ROUNDUP(AJ39,-INT(LOG(AJ39))+($AO$54-1)),0)</f>
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="AP39">
+        <f>IFERROR(ROUNDUP(AK39,-INT(LOG(AK39))+($AO$54-1)),0)</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="AQ39">
+        <f>IFERROR(ROUNDUP(AL39,-INT(LOG(AL39))+($AO$54-1)),0)</f>
+        <v>8.3000000000000001E-3</v>
+      </c>
     </row>
-    <row r="40" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A40">
         <f>_xlfn.STDEV.S(extinction!A122:A131)</f>
         <v>0</v>
@@ -6340,8 +6941,24 @@
         <f>_xlfn.STDEV.S(extinction!AL122:AL131)</f>
         <v>7.9550703392350149E-3</v>
       </c>
+      <c r="AN40">
+        <f>IFERROR(ROUNDUP(AI40,-INT(LOG(AI40))+($AO$54-1)),0)</f>
+        <v>8.199999999999999E-3</v>
+      </c>
+      <c r="AO40">
+        <f>IFERROR(ROUNDUP(AJ40,-INT(LOG(AJ40))+($AO$54-1)),0)</f>
+        <v>2.6999999999999997E-3</v>
+      </c>
+      <c r="AP40">
+        <f>IFERROR(ROUNDUP(AK40,-INT(LOG(AK40))+($AO$54-1)),0)</f>
+        <v>1.2E-2</v>
+      </c>
+      <c r="AQ40">
+        <f>IFERROR(ROUNDUP(AL40,-INT(LOG(AL40))+($AO$54-1)),0)</f>
+        <v>8.0000000000000002E-3</v>
+      </c>
     </row>
-    <row r="41" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A41">
         <f>_xlfn.STDEV.S(extinction!A132:A141)</f>
         <v>0</v>
@@ -6490,8 +7107,24 @@
         <f>_xlfn.STDEV.S(extinction!AL132:AL141)</f>
         <v>1.6056875973147939E-3</v>
       </c>
+      <c r="AN41">
+        <f>IFERROR(ROUNDUP(AI41,-INT(LOG(AI41))+($AO$54-1)),0)</f>
+        <v>2E-3</v>
+      </c>
+      <c r="AO41">
+        <f>IFERROR(ROUNDUP(AJ41,-INT(LOG(AJ41))+($AO$54-1)),0)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AP41">
+        <f>IFERROR(ROUNDUP(AK41,-INT(LOG(AK41))+($AO$54-1)),0)</f>
+        <v>6.2000000000000006E-3</v>
+      </c>
+      <c r="AQ41">
+        <f>IFERROR(ROUNDUP(AL41,-INT(LOG(AL41))+($AO$54-1)),0)</f>
+        <v>1.7000000000000001E-3</v>
+      </c>
     </row>
-    <row r="42" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A42">
         <f>_xlfn.STDEV.S(extinction!A142:A151)</f>
         <v>0</v>
@@ -6640,8 +7273,24 @@
         <f>_xlfn.STDEV.S(extinction!AL142:AL151)</f>
         <v>2.3677574701317745E-3</v>
       </c>
+      <c r="AN42">
+        <f>IFERROR(ROUNDUP(AI42,-INT(LOG(AI42))+($AO$54-1)),0)</f>
+        <v>2.1999999999999997E-3</v>
+      </c>
+      <c r="AO42">
+        <f>IFERROR(ROUNDUP(AJ42,-INT(LOG(AJ42))+($AO$54-1)),0)</f>
+        <v>1.9E-3</v>
+      </c>
+      <c r="AP42">
+        <f>IFERROR(ROUNDUP(AK42,-INT(LOG(AK42))+($AO$54-1)),0)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AQ42">
+        <f>IFERROR(ROUNDUP(AL42,-INT(LOG(AL42))+($AO$54-1)),0)</f>
+        <v>2.3999999999999998E-3</v>
+      </c>
     </row>
-    <row r="43" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A43">
         <f>_xlfn.STDEV.S(extinction!A152:A161)</f>
         <v>0</v>
@@ -6790,8 +7439,24 @@
         <f>_xlfn.STDEV.S(extinction!AL152:AL161)</f>
         <v>2.829875341561092E-2</v>
       </c>
+      <c r="AN43">
+        <f>IFERROR(ROUNDUP(AI43,-INT(LOG(AI43))+($AO$54-1)),0)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AO43">
+        <f>IFERROR(ROUNDUP(AJ43,-INT(LOG(AJ43))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP43">
+        <f>IFERROR(ROUNDUP(AK43,-INT(LOG(AK43))+($AO$54-1)),0)</f>
+        <v>8.6999999999999994E-3</v>
+      </c>
+      <c r="AQ43">
+        <f>IFERROR(ROUNDUP(AL43,-INT(LOG(AL43))+($AO$54-1)),0)</f>
+        <v>2.9000000000000001E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A44">
         <f>_xlfn.STDEV.S(extinction!A162:A171)</f>
         <v>0</v>
@@ -6940,8 +7605,24 @@
         <f>_xlfn.STDEV.S(extinction!AL162:AL171)</f>
         <v>1.2184135357012372E-2</v>
       </c>
+      <c r="AN44">
+        <f>IFERROR(ROUNDUP(AI44,-INT(LOG(AI44))+($AO$54-1)),0)</f>
+        <v>8.3000000000000001E-3</v>
+      </c>
+      <c r="AO44">
+        <f>IFERROR(ROUNDUP(AJ44,-INT(LOG(AJ44))+($AO$54-1)),0)</f>
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="AP44">
+        <f>IFERROR(ROUNDUP(AK44,-INT(LOG(AK44))+($AO$54-1)),0)</f>
+        <v>9.1999999999999998E-3</v>
+      </c>
+      <c r="AQ44">
+        <f>IFERROR(ROUNDUP(AL44,-INT(LOG(AL44))+($AO$54-1)),0)</f>
+        <v>1.3000000000000001E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A45">
         <f>_xlfn.STDEV.S(extinction!A172:A181)</f>
         <v>0</v>
@@ -7090,8 +7771,24 @@
         <f>_xlfn.STDEV.S(extinction!AL172:AL181)</f>
         <v>7.3485189795961022E-3</v>
       </c>
+      <c r="AN45">
+        <f>IFERROR(ROUNDUP(AI45,-INT(LOG(AI45))+($AO$54-1)),0)</f>
+        <v>5.5000000000000005E-3</v>
+      </c>
+      <c r="AO45">
+        <f>IFERROR(ROUNDUP(AJ45,-INT(LOG(AJ45))+($AO$54-1)),0)</f>
+        <v>3.4999999999999996E-3</v>
+      </c>
+      <c r="AP45">
+        <f>IFERROR(ROUNDUP(AK45,-INT(LOG(AK45))+($AO$54-1)),0)</f>
+        <v>6.6E-3</v>
+      </c>
+      <c r="AQ45">
+        <f>IFERROR(ROUNDUP(AL45,-INT(LOG(AL45))+($AO$54-1)),0)</f>
+        <v>7.4000000000000003E-3</v>
+      </c>
     </row>
-    <row r="46" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A46">
         <f>_xlfn.STDEV.S(extinction!A182:A191)</f>
         <v>0</v>
@@ -7240,8 +7937,24 @@
         <f>_xlfn.STDEV.S(extinction!AL182:AL191)</f>
         <v>4.083158314346508E-3</v>
       </c>
+      <c r="AN46">
+        <f>IFERROR(ROUNDUP(AI46,-INT(LOG(AI46))+($AO$54-1)),0)</f>
+        <v>2.6999999999999997E-3</v>
+      </c>
+      <c r="AO46">
+        <f>IFERROR(ROUNDUP(AJ46,-INT(LOG(AJ46))+($AO$54-1)),0)</f>
+        <v>1.8E-3</v>
+      </c>
+      <c r="AP46">
+        <f>IFERROR(ROUNDUP(AK46,-INT(LOG(AK46))+($AO$54-1)),0)</f>
+        <v>3.3E-3</v>
+      </c>
+      <c r="AQ46">
+        <f>IFERROR(ROUNDUP(AL46,-INT(LOG(AL46))+($AO$54-1)),0)</f>
+        <v>4.1000000000000003E-3</v>
+      </c>
     </row>
-    <row r="47" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A47">
         <f>_xlfn.STDEV.S(extinction!A192:A201)</f>
         <v>0</v>
@@ -7390,8 +8103,24 @@
         <f>_xlfn.STDEV.S(extinction!AL192:AL201)</f>
         <v>1.9939772604563358E-3</v>
       </c>
+      <c r="AN47">
+        <f>IFERROR(ROUNDUP(AI47,-INT(LOG(AI47))+($AO$54-1)),0)</f>
+        <v>1.6000000000000001E-3</v>
+      </c>
+      <c r="AO47">
+        <f>IFERROR(ROUNDUP(AJ47,-INT(LOG(AJ47))+($AO$54-1)),0)</f>
+        <v>1.1000000000000001E-3</v>
+      </c>
+      <c r="AP47">
+        <f>IFERROR(ROUNDUP(AK47,-INT(LOG(AK47))+($AO$54-1)),0)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="AQ47">
+        <f>IFERROR(ROUNDUP(AL47,-INT(LOG(AL47))+($AO$54-1)),0)</f>
+        <v>2E-3</v>
+      </c>
     </row>
-    <row r="48" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A48">
         <f>_xlfn.STDEV.S(extinction!A202:A211)</f>
         <v>0</v>
@@ -7540,8 +8269,24 @@
         <f>_xlfn.STDEV.S(extinction!AL202:AL211)</f>
         <v>2.2215407186275214E-2</v>
       </c>
+      <c r="AN48">
+        <f>IFERROR(ROUNDUP(AI48,-INT(LOG(AI48))+($AO$54-1)),0)</f>
+        <v>1.6E-2</v>
+      </c>
+      <c r="AO48">
+        <f>IFERROR(ROUNDUP(AJ48,-INT(LOG(AJ48))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP48">
+        <f>IFERROR(ROUNDUP(AK48,-INT(LOG(AK48))+($AO$54-1)),0)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AQ48">
+        <f>IFERROR(ROUNDUP(AL48,-INT(LOG(AL48))+($AO$54-1)),0)</f>
+        <v>2.3E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A49">
         <f>_xlfn.STDEV.S(extinction!A212:A221)</f>
         <v>0</v>
@@ -7690,8 +8435,24 @@
         <f>_xlfn.STDEV.S(extinction!AL212:AL221)</f>
         <v>1.8993346413173066E-2</v>
       </c>
+      <c r="AN49">
+        <f>IFERROR(ROUNDUP(AI49,-INT(LOG(AI49))+($AO$54-1)),0)</f>
+        <v>1.9E-2</v>
+      </c>
+      <c r="AO49">
+        <f>IFERROR(ROUNDUP(AJ49,-INT(LOG(AJ49))+($AO$54-1)),0)</f>
+        <v>5.2000000000000006E-3</v>
+      </c>
+      <c r="AP49">
+        <f>IFERROR(ROUNDUP(AK49,-INT(LOG(AK49))+($AO$54-1)),0)</f>
+        <v>2.3E-2</v>
+      </c>
+      <c r="AQ49">
+        <f>IFERROR(ROUNDUP(AL49,-INT(LOG(AL49))+($AO$54-1)),0)</f>
+        <v>1.9E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A50">
         <f>_xlfn.STDEV.S(extinction!A222:A231)</f>
         <v>0</v>
@@ -7840,8 +8601,24 @@
         <f>_xlfn.STDEV.S(extinction!AL222:AL231)</f>
         <v>8.7088135801725482E-3</v>
       </c>
+      <c r="AN50">
+        <f>IFERROR(ROUNDUP(AI50,-INT(LOG(AI50))+($AO$54-1)),0)</f>
+        <v>8.7999999999999988E-3</v>
+      </c>
+      <c r="AO50">
+        <f>IFERROR(ROUNDUP(AJ50,-INT(LOG(AJ50))+($AO$54-1)),0)</f>
+        <v>0</v>
+      </c>
+      <c r="AP50">
+        <f>IFERROR(ROUNDUP(AK50,-INT(LOG(AK50))+($AO$54-1)),0)</f>
+        <v>7.899999999999999E-3</v>
+      </c>
+      <c r="AQ50">
+        <f>IFERROR(ROUNDUP(AL50,-INT(LOG(AL50))+($AO$54-1)),0)</f>
+        <v>8.7999999999999988E-3</v>
+      </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A51">
         <f>_xlfn.STDEV.S(extinction!A232:A241)</f>
         <v>0</v>
@@ -7990,8 +8767,24 @@
         <f>_xlfn.STDEV.S(extinction!AL232:AL241)</f>
         <v>6.2429243567749329E-3</v>
       </c>
+      <c r="AN51">
+        <f>IFERROR(ROUNDUP(AI51,-INT(LOG(AI51))+($AO$54-1)),0)</f>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AO51">
+        <f>IFERROR(ROUNDUP(AJ51,-INT(LOG(AJ51))+($AO$54-1)),0)</f>
+        <v>1E-3</v>
+      </c>
+      <c r="AP51">
+        <f>IFERROR(ROUNDUP(AK51,-INT(LOG(AK51))+($AO$54-1)),0)</f>
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AQ51">
+        <f>IFERROR(ROUNDUP(AL51,-INT(LOG(AL51))+($AO$54-1)),0)</f>
+        <v>6.3E-3</v>
+      </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A52">
         <f>_xlfn.STDEV.S(extinction!A242:A251)</f>
         <v>0</v>
@@ -8140,9 +8933,34 @@
         <f>_xlfn.STDEV.S(extinction!AL242:AL251)</f>
         <v>4.6103890366656084E-3</v>
       </c>
+      <c r="AN52">
+        <f>IFERROR(ROUNDUP(AI52,-INT(LOG(AI52))+($AO$54-1)),0)</f>
+        <v>3.5999999999999999E-3</v>
+      </c>
+      <c r="AO52">
+        <f>IFERROR(ROUNDUP(AJ52,-INT(LOG(AJ52))+($AO$54-1)),0)</f>
+        <v>5.2999999999999998E-4</v>
+      </c>
+      <c r="AP52">
+        <f>IFERROR(ROUNDUP(AK52,-INT(LOG(AK52))+($AO$54-1)),0)</f>
+        <v>4.5000000000000005E-3</v>
+      </c>
+      <c r="AQ52">
+        <f>IFERROR(ROUNDUP(AL52,-INT(LOG(AL52))+($AO$54-1)),0)</f>
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AN54" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO54">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8258,16 +9076,16 @@
         <v>14</v>
       </c>
       <c r="AI1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ1" t="s">
         <v>41</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AK1" t="s">
         <v>42</v>
       </c>
-      <c r="AK1" t="s">
+      <c r="AL1" t="s">
         <v>43</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:38" x14ac:dyDescent="0.25">

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A327822-D0FC-4CA0-880E-BBE9412BE6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14058678-FD79-4EA7-A4E1-EFE58C0BB156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_extinction" sheetId="6" r:id="rId1"/>
@@ -222,9 +222,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Gut" xfId="1" builtinId="26"/>
@@ -508,8 +509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C7D530-1791-4814-8A4A-F65FDE59479A}">
   <dimension ref="A1:AR54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AQ26"/>
+    <sheetView topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="U23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4950,19 +4951,19 @@
         <v>7.7317302204604461E-4</v>
       </c>
       <c r="AN28">
-        <f>IFERROR(ROUNDUP(AI28,-INT(LOG(AI28))+($AO$54-1)),0)</f>
+        <f t="shared" ref="AN28:AN52" si="5">IFERROR(ROUNDUP(AI28,-INT(LOG(AI28))+($AO$54-1)),0)</f>
         <v>5.4000000000000001E-4</v>
       </c>
       <c r="AO28">
-        <f>IFERROR(ROUNDUP(AJ28,-INT(LOG(AJ28))+($AO$54-1)),0)</f>
+        <f t="shared" ref="AO28:AO52" si="6">IFERROR(ROUNDUP(AJ28,-INT(LOG(AJ28))+($AO$54-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AP28">
-        <f>IFERROR(ROUNDUP(AK28,-INT(LOG(AK28))+($AO$54-1)),0)</f>
+        <f t="shared" ref="AP28:AP52" si="7">IFERROR(ROUNDUP(AK28,-INT(LOG(AK28))+($AO$54-1)),0)</f>
         <v>0</v>
       </c>
       <c r="AQ28">
-        <f>IFERROR(ROUNDUP(AL28,-INT(LOG(AL28))+($AO$54-1)),0)</f>
+        <f t="shared" ref="AQ28:AQ52" si="8">IFERROR(ROUNDUP(AL28,-INT(LOG(AL28))+($AO$54-1)),0)</f>
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
@@ -5116,19 +5117,19 @@
         <v>8.705045734712641E-4</v>
       </c>
       <c r="AN29">
-        <f>IFERROR(ROUNDUP(AI29,-INT(LOG(AI29))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>6.2E-4</v>
       </c>
       <c r="AO29">
-        <f>IFERROR(ROUNDUP(AJ29,-INT(LOG(AJ29))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP29">
-        <f>IFERROR(ROUNDUP(AK29,-INT(LOG(AK29))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ29">
-        <f>IFERROR(ROUNDUP(AL29,-INT(LOG(AL29))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>8.8000000000000003E-4</v>
       </c>
     </row>
@@ -5282,19 +5283,19 @@
         <v>7.7960709217457362E-4</v>
       </c>
       <c r="AN30">
-        <f>IFERROR(ROUNDUP(AI30,-INT(LOG(AI30))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>5.5000000000000003E-4</v>
       </c>
       <c r="AO30">
-        <f>IFERROR(ROUNDUP(AJ30,-INT(LOG(AJ30))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP30">
-        <f>IFERROR(ROUNDUP(AK30,-INT(LOG(AK30))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ30">
-        <f>IFERROR(ROUNDUP(AL30,-INT(LOG(AL30))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>7.7999999999999999E-4</v>
       </c>
     </row>
@@ -5448,19 +5449,19 @@
         <v>7.1754529511924858E-4</v>
       </c>
       <c r="AN31">
-        <f>IFERROR(ROUNDUP(AI31,-INT(LOG(AI31))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>5.2000000000000006E-4</v>
       </c>
       <c r="AO31">
-        <f>IFERROR(ROUNDUP(AJ31,-INT(LOG(AJ31))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP31">
-        <f>IFERROR(ROUNDUP(AK31,-INT(LOG(AK31))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="AQ31">
-        <f>IFERROR(ROUNDUP(AL31,-INT(LOG(AL31))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>7.2000000000000005E-4</v>
       </c>
     </row>
@@ -5614,19 +5615,19 @@
         <v>1.2801559329646821E-3</v>
       </c>
       <c r="AN32">
-        <f>IFERROR(ROUNDUP(AI32,-INT(LOG(AI32))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>9.6000000000000002E-4</v>
       </c>
       <c r="AO32">
-        <f>IFERROR(ROUNDUP(AJ32,-INT(LOG(AJ32))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>8.9000000000000006E-4</v>
       </c>
       <c r="AP32">
-        <f>IFERROR(ROUNDUP(AK32,-INT(LOG(AK32))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="AQ32">
-        <f>IFERROR(ROUNDUP(AL32,-INT(LOG(AL32))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.2999999999999999E-3</v>
       </c>
     </row>
@@ -5780,19 +5781,19 @@
         <v>1.3645766534354793E-2</v>
       </c>
       <c r="AN33">
-        <f>IFERROR(ROUNDUP(AI33,-INT(LOG(AI33))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>8.199999999999999E-3</v>
       </c>
       <c r="AO33">
-        <f>IFERROR(ROUNDUP(AJ33,-INT(LOG(AJ33))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP33">
-        <f>IFERROR(ROUNDUP(AK33,-INT(LOG(AK33))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>8.7999999999999988E-3</v>
       </c>
       <c r="AQ33">
-        <f>IFERROR(ROUNDUP(AL33,-INT(LOG(AL33))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.3999999999999999E-2</v>
       </c>
     </row>
@@ -5946,19 +5947,19 @@
         <v>1.0659774809532712E-2</v>
       </c>
       <c r="AN34">
-        <f>IFERROR(ROUNDUP(AI34,-INT(LOG(AI34))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>7.7000000000000002E-3</v>
       </c>
       <c r="AO34">
-        <f>IFERROR(ROUNDUP(AJ34,-INT(LOG(AJ34))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP34">
-        <f>IFERROR(ROUNDUP(AK34,-INT(LOG(AK34))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="AQ34">
-        <f>IFERROR(ROUNDUP(AL34,-INT(LOG(AL34))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
@@ -6112,19 +6113,19 @@
         <v>4.1662772644016173E-3</v>
       </c>
       <c r="AN35">
-        <f>IFERROR(ROUNDUP(AI35,-INT(LOG(AI35))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="AO35">
-        <f>IFERROR(ROUNDUP(AJ35,-INT(LOG(AJ35))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>2E-3</v>
       </c>
       <c r="AP35">
-        <f>IFERROR(ROUNDUP(AK35,-INT(LOG(AK35))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="AQ35">
-        <f>IFERROR(ROUNDUP(AL35,-INT(LOG(AL35))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>4.2000000000000006E-3</v>
       </c>
     </row>
@@ -6278,19 +6279,19 @@
         <v>1.5215975622081255E-3</v>
       </c>
       <c r="AN36">
-        <f>IFERROR(ROUNDUP(AI36,-INT(LOG(AI36))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="AO36">
-        <f>IFERROR(ROUNDUP(AJ36,-INT(LOG(AJ36))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>8.5999999999999998E-4</v>
       </c>
       <c r="AP36">
-        <f>IFERROR(ROUNDUP(AK36,-INT(LOG(AK36))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>4.1000000000000003E-3</v>
       </c>
       <c r="AQ36">
-        <f>IFERROR(ROUNDUP(AL36,-INT(LOG(AL36))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6444,19 +6445,19 @@
         <v>1.5656771834241798E-3</v>
       </c>
       <c r="AN37">
-        <f>IFERROR(ROUNDUP(AI37,-INT(LOG(AI37))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="AO37">
-        <f>IFERROR(ROUNDUP(AJ37,-INT(LOG(AJ37))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>3.8000000000000002E-4</v>
       </c>
       <c r="AP37">
-        <f>IFERROR(ROUNDUP(AK37,-INT(LOG(AK37))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>1.2000000000000001E-3</v>
       </c>
       <c r="AQ37">
-        <f>IFERROR(ROUNDUP(AL37,-INT(LOG(AL37))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.6000000000000001E-3</v>
       </c>
     </row>
@@ -6610,19 +6611,19 @@
         <v>2.1513200275154867E-2</v>
       </c>
       <c r="AN38">
-        <f>IFERROR(ROUNDUP(AI38,-INT(LOG(AI38))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AO38">
-        <f>IFERROR(ROUNDUP(AJ38,-INT(LOG(AJ38))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>1.9E-2</v>
       </c>
       <c r="AP38">
-        <f>IFERROR(ROUNDUP(AK38,-INT(LOG(AK38))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>1.8000000000000002E-2</v>
       </c>
       <c r="AQ38">
-        <f>IFERROR(ROUNDUP(AL38,-INT(LOG(AL38))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>2.2000000000000002E-2</v>
       </c>
     </row>
@@ -6776,19 +6777,19 @@
         <v>8.2640831017031947E-3</v>
       </c>
       <c r="AN39">
-        <f>IFERROR(ROUNDUP(AI39,-INT(LOG(AI39))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>7.2000000000000007E-3</v>
       </c>
       <c r="AO39">
-        <f>IFERROR(ROUNDUP(AJ39,-INT(LOG(AJ39))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>8.8999999999999999E-3</v>
       </c>
       <c r="AP39">
-        <f>IFERROR(ROUNDUP(AK39,-INT(LOG(AK39))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>1.7000000000000001E-2</v>
       </c>
       <c r="AQ39">
-        <f>IFERROR(ROUNDUP(AL39,-INT(LOG(AL39))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>8.3000000000000001E-3</v>
       </c>
     </row>
@@ -6942,19 +6943,19 @@
         <v>7.9550703392350149E-3</v>
       </c>
       <c r="AN40">
-        <f>IFERROR(ROUNDUP(AI40,-INT(LOG(AI40))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>8.199999999999999E-3</v>
       </c>
       <c r="AO40">
-        <f>IFERROR(ROUNDUP(AJ40,-INT(LOG(AJ40))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>2.6999999999999997E-3</v>
       </c>
       <c r="AP40">
-        <f>IFERROR(ROUNDUP(AK40,-INT(LOG(AK40))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>1.2E-2</v>
       </c>
       <c r="AQ40">
-        <f>IFERROR(ROUNDUP(AL40,-INT(LOG(AL40))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
@@ -7108,19 +7109,19 @@
         <v>1.6056875973147939E-3</v>
       </c>
       <c r="AN41">
-        <f>IFERROR(ROUNDUP(AI41,-INT(LOG(AI41))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>2E-3</v>
       </c>
       <c r="AO41">
-        <f>IFERROR(ROUNDUP(AJ41,-INT(LOG(AJ41))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="AP41">
-        <f>IFERROR(ROUNDUP(AK41,-INT(LOG(AK41))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>6.2000000000000006E-3</v>
       </c>
       <c r="AQ41">
-        <f>IFERROR(ROUNDUP(AL41,-INT(LOG(AL41))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.7000000000000001E-3</v>
       </c>
     </row>
@@ -7274,19 +7275,19 @@
         <v>2.3677574701317745E-3</v>
       </c>
       <c r="AN42">
-        <f>IFERROR(ROUNDUP(AI42,-INT(LOG(AI42))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>2.1999999999999997E-3</v>
       </c>
       <c r="AO42">
-        <f>IFERROR(ROUNDUP(AJ42,-INT(LOG(AJ42))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>1.9E-3</v>
       </c>
       <c r="AP42">
-        <f>IFERROR(ROUNDUP(AK42,-INT(LOG(AK42))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="AQ42">
-        <f>IFERROR(ROUNDUP(AL42,-INT(LOG(AL42))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>2.3999999999999998E-3</v>
       </c>
     </row>
@@ -7440,19 +7441,19 @@
         <v>2.829875341561092E-2</v>
       </c>
       <c r="AN43">
-        <f>IFERROR(ROUNDUP(AI43,-INT(LOG(AI43))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="AO43">
-        <f>IFERROR(ROUNDUP(AJ43,-INT(LOG(AJ43))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP43">
-        <f>IFERROR(ROUNDUP(AK43,-INT(LOG(AK43))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>8.6999999999999994E-3</v>
       </c>
       <c r="AQ43">
-        <f>IFERROR(ROUNDUP(AL43,-INT(LOG(AL43))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
@@ -7606,19 +7607,19 @@
         <v>1.2184135357012372E-2</v>
       </c>
       <c r="AN44">
-        <f>IFERROR(ROUNDUP(AI44,-INT(LOG(AI44))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>8.3000000000000001E-3</v>
       </c>
       <c r="AO44">
-        <f>IFERROR(ROUNDUP(AJ44,-INT(LOG(AJ44))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>4.4000000000000003E-3</v>
       </c>
       <c r="AP44">
-        <f>IFERROR(ROUNDUP(AK44,-INT(LOG(AK44))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>9.1999999999999998E-3</v>
       </c>
       <c r="AQ44">
-        <f>IFERROR(ROUNDUP(AL44,-INT(LOG(AL44))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.3000000000000001E-2</v>
       </c>
     </row>
@@ -7772,19 +7773,19 @@
         <v>7.3485189795961022E-3</v>
       </c>
       <c r="AN45">
-        <f>IFERROR(ROUNDUP(AI45,-INT(LOG(AI45))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>5.5000000000000005E-3</v>
       </c>
       <c r="AO45">
-        <f>IFERROR(ROUNDUP(AJ45,-INT(LOG(AJ45))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>3.4999999999999996E-3</v>
       </c>
       <c r="AP45">
-        <f>IFERROR(ROUNDUP(AK45,-INT(LOG(AK45))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>6.6E-3</v>
       </c>
       <c r="AQ45">
-        <f>IFERROR(ROUNDUP(AL45,-INT(LOG(AL45))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>7.4000000000000003E-3</v>
       </c>
     </row>
@@ -7938,19 +7939,19 @@
         <v>4.083158314346508E-3</v>
       </c>
       <c r="AN46">
-        <f>IFERROR(ROUNDUP(AI46,-INT(LOG(AI46))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>2.6999999999999997E-3</v>
       </c>
       <c r="AO46">
-        <f>IFERROR(ROUNDUP(AJ46,-INT(LOG(AJ46))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>1.8E-3</v>
       </c>
       <c r="AP46">
-        <f>IFERROR(ROUNDUP(AK46,-INT(LOG(AK46))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>3.3E-3</v>
       </c>
       <c r="AQ46">
-        <f>IFERROR(ROUNDUP(AL46,-INT(LOG(AL46))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>4.1000000000000003E-3</v>
       </c>
     </row>
@@ -8104,19 +8105,19 @@
         <v>1.9939772604563358E-3</v>
       </c>
       <c r="AN47">
-        <f>IFERROR(ROUNDUP(AI47,-INT(LOG(AI47))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>1.6000000000000001E-3</v>
       </c>
       <c r="AO47">
-        <f>IFERROR(ROUNDUP(AJ47,-INT(LOG(AJ47))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>1.1000000000000001E-3</v>
       </c>
       <c r="AP47">
-        <f>IFERROR(ROUNDUP(AK47,-INT(LOG(AK47))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>1.4E-3</v>
       </c>
       <c r="AQ47">
-        <f>IFERROR(ROUNDUP(AL47,-INT(LOG(AL47))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>2E-3</v>
       </c>
     </row>
@@ -8270,19 +8271,19 @@
         <v>2.2215407186275214E-2</v>
       </c>
       <c r="AN48">
-        <f>IFERROR(ROUNDUP(AI48,-INT(LOG(AI48))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>1.6E-2</v>
       </c>
       <c r="AO48">
-        <f>IFERROR(ROUNDUP(AJ48,-INT(LOG(AJ48))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP48">
-        <f>IFERROR(ROUNDUP(AK48,-INT(LOG(AK48))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="AQ48">
-        <f>IFERROR(ROUNDUP(AL48,-INT(LOG(AL48))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>2.3E-2</v>
       </c>
     </row>
@@ -8436,19 +8437,19 @@
         <v>1.8993346413173066E-2</v>
       </c>
       <c r="AN49">
-        <f>IFERROR(ROUNDUP(AI49,-INT(LOG(AI49))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>1.9E-2</v>
       </c>
       <c r="AO49">
-        <f>IFERROR(ROUNDUP(AJ49,-INT(LOG(AJ49))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>5.2000000000000006E-3</v>
       </c>
       <c r="AP49">
-        <f>IFERROR(ROUNDUP(AK49,-INT(LOG(AK49))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>2.3E-2</v>
       </c>
       <c r="AQ49">
-        <f>IFERROR(ROUNDUP(AL49,-INT(LOG(AL49))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>1.9E-2</v>
       </c>
     </row>
@@ -8602,19 +8603,19 @@
         <v>8.7088135801725482E-3</v>
       </c>
       <c r="AN50">
-        <f>IFERROR(ROUNDUP(AI50,-INT(LOG(AI50))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>8.7999999999999988E-3</v>
       </c>
       <c r="AO50">
-        <f>IFERROR(ROUNDUP(AJ50,-INT(LOG(AJ50))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="AP50">
-        <f>IFERROR(ROUNDUP(AK50,-INT(LOG(AK50))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>7.899999999999999E-3</v>
       </c>
       <c r="AQ50">
-        <f>IFERROR(ROUNDUP(AL50,-INT(LOG(AL50))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>8.7999999999999988E-3</v>
       </c>
     </row>
@@ -8768,19 +8769,19 @@
         <v>6.2429243567749329E-3</v>
       </c>
       <c r="AN51">
-        <f>IFERROR(ROUNDUP(AI51,-INT(LOG(AI51))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="AO51">
-        <f>IFERROR(ROUNDUP(AJ51,-INT(LOG(AJ51))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>1E-3</v>
       </c>
       <c r="AP51">
-        <f>IFERROR(ROUNDUP(AK51,-INT(LOG(AK51))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>5.8999999999999999E-3</v>
       </c>
       <c r="AQ51">
-        <f>IFERROR(ROUNDUP(AL51,-INT(LOG(AL51))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>6.3E-3</v>
       </c>
     </row>
@@ -8934,19 +8935,19 @@
         <v>4.6103890366656084E-3</v>
       </c>
       <c r="AN52">
-        <f>IFERROR(ROUNDUP(AI52,-INT(LOG(AI52))+($AO$54-1)),0)</f>
+        <f t="shared" si="5"/>
         <v>3.5999999999999999E-3</v>
       </c>
       <c r="AO52">
-        <f>IFERROR(ROUNDUP(AJ52,-INT(LOG(AJ52))+($AO$54-1)),0)</f>
+        <f t="shared" si="6"/>
         <v>5.2999999999999998E-4</v>
       </c>
       <c r="AP52">
-        <f>IFERROR(ROUNDUP(AK52,-INT(LOG(AK52))+($AO$54-1)),0)</f>
+        <f t="shared" si="7"/>
         <v>4.5000000000000005E-3</v>
       </c>
       <c r="AQ52">
-        <f>IFERROR(ROUNDUP(AL52,-INT(LOG(AL52))+($AO$54-1)),0)</f>
+        <f t="shared" si="8"/>
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
@@ -8968,9 +8969,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
   <dimension ref="A1:AL251"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A218" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI2" sqref="AI2:AL251"/>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A202" sqref="A202:XFD202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9306,19 +9307,19 @@
         <v>1639</v>
       </c>
       <c r="AI3">
-        <f t="shared" ref="AI3:AI66" si="1">T3/(P3+H3+T3)</f>
+        <f>T3/(P3+H3+T3)</f>
         <v>0.99831365935919059</v>
       </c>
       <c r="AJ3">
-        <f t="shared" ref="AJ3:AJ66" si="2">U3/(Q3+I3+U3)</f>
+        <f t="shared" ref="AJ3:AJ66" si="1">U3/(Q3+I3+U3)</f>
         <v>1</v>
       </c>
       <c r="AK3">
-        <f t="shared" ref="AK3:AK66" si="3">V3/(R3+J3+V3)</f>
+        <f t="shared" ref="AK3:AK66" si="2">V3/(R3+J3+V3)</f>
         <v>1</v>
       </c>
       <c r="AL3">
-        <f t="shared" ref="AL3:AL66" si="4">W3/(S3+K3+W3)</f>
+        <f t="shared" ref="AL3:AL66" si="3">W3/(S3+K3+W3)</f>
         <v>0.99755501222493892</v>
       </c>
     </row>
@@ -9423,19 +9424,19 @@
         <v>1661</v>
       </c>
       <c r="AI4">
+        <f t="shared" ref="AI3:AI66" si="4">T4/(P4+H4+T4)</f>
+        <v>1</v>
+      </c>
+      <c r="AJ4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL4">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9540,19 +9541,19 @@
         <v>1609</v>
       </c>
       <c r="AI5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL5">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9657,19 +9658,19 @@
         <v>1598</v>
       </c>
       <c r="AI6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL6">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9774,19 +9775,19 @@
         <v>1588</v>
       </c>
       <c r="AI7">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ7">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL7">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -9891,19 +9892,19 @@
         <v>1627</v>
       </c>
       <c r="AI8">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ8">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL8">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10008,19 +10009,19 @@
         <v>1603</v>
       </c>
       <c r="AI9">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ9">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL9">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10125,19 +10126,19 @@
         <v>1567</v>
       </c>
       <c r="AI10">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ10">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL10">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10242,19 +10243,19 @@
         <v>1635</v>
       </c>
       <c r="AI11">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ11">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL11">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10359,19 +10360,19 @@
         <v>2237</v>
       </c>
       <c r="AI12">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ12">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL12">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10476,19 +10477,19 @@
         <v>2217</v>
       </c>
       <c r="AI13">
+        <f t="shared" si="4"/>
+        <v>0.99912891986062713</v>
+      </c>
+      <c r="AJ13">
         <f t="shared" si="1"/>
-        <v>0.99912891986062713</v>
-      </c>
-      <c r="AJ13">
+        <v>1</v>
+      </c>
+      <c r="AK13">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL13">
-        <f t="shared" si="4"/>
         <v>0.9987775061124694</v>
       </c>
     </row>
@@ -10593,19 +10594,19 @@
         <v>2227</v>
       </c>
       <c r="AI14">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ14">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL14">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -10710,19 +10711,19 @@
         <v>2208</v>
       </c>
       <c r="AI15">
+        <f t="shared" si="4"/>
+        <v>0.99911032028469748</v>
+      </c>
+      <c r="AJ15">
         <f t="shared" si="1"/>
-        <v>0.99911032028469748</v>
-      </c>
-      <c r="AJ15">
+        <v>1</v>
+      </c>
+      <c r="AK15">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL15">
-        <f t="shared" si="4"/>
         <v>0.99874529485570895</v>
       </c>
     </row>
@@ -10827,19 +10828,19 @@
         <v>2218</v>
       </c>
       <c r="AI16">
+        <f t="shared" si="4"/>
+        <v>0.99909090909090914</v>
+      </c>
+      <c r="AJ16">
         <f t="shared" si="1"/>
-        <v>0.99909090909090914</v>
-      </c>
-      <c r="AJ16">
+        <v>1</v>
+      </c>
+      <c r="AK16">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL16">
-        <f t="shared" si="4"/>
         <v>0.99871630295250324</v>
       </c>
     </row>
@@ -10944,19 +10945,19 @@
         <v>2162</v>
       </c>
       <c r="AI17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ17">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL17">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11061,19 +11062,19 @@
         <v>2171</v>
       </c>
       <c r="AI18">
+        <f t="shared" si="4"/>
+        <v>0.99823943661971826</v>
+      </c>
+      <c r="AJ18">
         <f t="shared" si="1"/>
-        <v>0.99823943661971826</v>
-      </c>
-      <c r="AJ18">
+        <v>1</v>
+      </c>
+      <c r="AK18">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL18">
-        <f t="shared" si="4"/>
         <v>0.99750933997509339</v>
       </c>
     </row>
@@ -11178,19 +11179,19 @@
         <v>2175</v>
       </c>
       <c r="AI19">
+        <f t="shared" si="4"/>
+        <v>0.99913043478260866</v>
+      </c>
+      <c r="AJ19">
         <f t="shared" si="1"/>
-        <v>0.99913043478260866</v>
-      </c>
-      <c r="AJ19">
+        <v>1</v>
+      </c>
+      <c r="AK19">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL19">
-        <f t="shared" si="4"/>
         <v>0.99878640776699024</v>
       </c>
     </row>
@@ -11295,19 +11296,19 @@
         <v>2208</v>
       </c>
       <c r="AI20">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ20">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL20">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11412,19 +11413,19 @@
         <v>2185</v>
       </c>
       <c r="AI21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ21">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL21">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -11529,19 +11530,19 @@
         <v>3202</v>
       </c>
       <c r="AI22">
+        <f t="shared" si="4"/>
+        <v>0.99898528665651953</v>
+      </c>
+      <c r="AJ22">
         <f t="shared" si="1"/>
-        <v>0.99898528665651953</v>
-      </c>
-      <c r="AJ22">
+        <v>1</v>
+      </c>
+      <c r="AK22">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL22">
-        <f t="shared" si="4"/>
         <v>0.99853264856933233</v>
       </c>
     </row>
@@ -11646,19 +11647,19 @@
         <v>3218</v>
       </c>
       <c r="AI23">
+        <f t="shared" si="4"/>
+        <v>0.99802761341222879</v>
+      </c>
+      <c r="AJ23">
         <f t="shared" si="1"/>
-        <v>0.99802761341222879</v>
-      </c>
-      <c r="AJ23">
+        <v>1</v>
+      </c>
+      <c r="AK23">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL23">
-        <f t="shared" si="4"/>
         <v>0.99716713881019825</v>
       </c>
     </row>
@@ -11763,19 +11764,19 @@
         <v>3187</v>
       </c>
       <c r="AI24">
+        <f t="shared" si="4"/>
+        <v>0.99851558634339432</v>
+      </c>
+      <c r="AJ24">
         <f t="shared" si="1"/>
-        <v>0.99851558634339432</v>
-      </c>
-      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL24">
-        <f t="shared" si="4"/>
         <v>0.99787384833451453</v>
       </c>
     </row>
@@ -11880,19 +11881,19 @@
         <v>3222</v>
       </c>
       <c r="AI25">
+        <f t="shared" si="4"/>
+        <v>0.99948796722990274</v>
+      </c>
+      <c r="AJ25">
         <f t="shared" si="1"/>
-        <v>0.99948796722990274</v>
-      </c>
-      <c r="AJ25">
+        <v>1</v>
+      </c>
+      <c r="AK25">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL25">
-        <f t="shared" si="4"/>
         <v>0.99926953981008038</v>
       </c>
     </row>
@@ -11997,19 +11998,19 @@
         <v>3202</v>
       </c>
       <c r="AI26">
+        <f t="shared" si="4"/>
+        <v>0.99902104747919729</v>
+      </c>
+      <c r="AJ26">
         <f t="shared" si="1"/>
-        <v>0.99902104747919729</v>
-      </c>
-      <c r="AJ26">
+        <v>1</v>
+      </c>
+      <c r="AK26">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL26">
-        <f t="shared" si="4"/>
         <v>0.99859747545582045</v>
       </c>
     </row>
@@ -12114,19 +12115,19 @@
         <v>3210</v>
       </c>
       <c r="AI27">
+        <f t="shared" si="4"/>
+        <v>0.99950932286555449</v>
+      </c>
+      <c r="AJ27">
         <f t="shared" si="1"/>
-        <v>0.99950932286555449</v>
-      </c>
-      <c r="AJ27">
+        <v>1</v>
+      </c>
+      <c r="AK27">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL27">
-        <f t="shared" si="4"/>
         <v>0.99929824561403513</v>
       </c>
     </row>
@@ -12231,19 +12232,19 @@
         <v>3224</v>
       </c>
       <c r="AI28">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="AJ28">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL28">
-        <f t="shared" si="4"/>
         <v>1</v>
       </c>
     </row>
@@ -12348,19 +12349,19 @@
         <v>3240</v>
       </c>
       <c r="AI29">
+        <f t="shared" si="4"/>
+        <v>0.99898682877406286</v>
+      </c>
+      <c r="AJ29">
         <f t="shared" si="1"/>
-        <v>0.99898682877406286</v>
-      </c>
-      <c r="AJ29">
+        <v>1</v>
+      </c>
+      <c r="AK29">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL29">
-        <f t="shared" si="4"/>
         <v>0.99855491329479773</v>
       </c>
     </row>
@@ -12465,19 +12466,19 @@
         <v>3196</v>
       </c>
       <c r="AI30">
+        <f t="shared" si="4"/>
+        <v>0.99900299102691925</v>
+      </c>
+      <c r="AJ30">
         <f t="shared" si="1"/>
-        <v>0.99900299102691925</v>
-      </c>
-      <c r="AJ30">
+        <v>1</v>
+      </c>
+      <c r="AK30">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL30">
-        <f t="shared" si="4"/>
         <v>0.99856115107913668</v>
       </c>
     </row>
@@ -12582,19 +12583,19 @@
         <v>3234</v>
       </c>
       <c r="AI31">
+        <f t="shared" si="4"/>
+        <v>0.99899749373433588</v>
+      </c>
+      <c r="AJ31">
         <f t="shared" si="1"/>
-        <v>0.99899749373433588</v>
-      </c>
-      <c r="AJ31">
+        <v>1</v>
+      </c>
+      <c r="AK31">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL31">
-        <f t="shared" si="4"/>
         <v>0.99855177407675599</v>
       </c>
     </row>
@@ -12699,19 +12700,19 @@
         <v>6759</v>
       </c>
       <c r="AI32">
+        <f t="shared" si="4"/>
+        <v>0.99869960988296491</v>
+      </c>
+      <c r="AJ32">
         <f t="shared" si="1"/>
-        <v>0.99869960988296491</v>
-      </c>
-      <c r="AJ32">
+        <v>1</v>
+      </c>
+      <c r="AK32">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL32">
-        <f t="shared" si="4"/>
         <v>0.99820328542094461</v>
       </c>
     </row>
@@ -12816,19 +12817,19 @@
         <v>6778</v>
       </c>
       <c r="AI33">
+        <f t="shared" si="4"/>
+        <v>0.99833856378069041</v>
+      </c>
+      <c r="AJ33">
         <f t="shared" si="1"/>
-        <v>0.99833856378069041</v>
-      </c>
-      <c r="AJ33">
+        <v>1</v>
+      </c>
+      <c r="AK33">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL33">
-        <f t="shared" si="4"/>
         <v>0.9977075904228222</v>
       </c>
     </row>
@@ -12933,19 +12934,19 @@
         <v>6745</v>
       </c>
       <c r="AI34">
+        <f t="shared" si="4"/>
+        <v>0.99852643212377967</v>
+      </c>
+      <c r="AJ34">
         <f t="shared" si="1"/>
-        <v>0.99852643212377967</v>
-      </c>
-      <c r="AJ34">
+        <v>1</v>
+      </c>
+      <c r="AK34">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL34">
-        <f t="shared" si="4"/>
         <v>0.99797108800405787</v>
       </c>
     </row>
@@ -13050,19 +13051,19 @@
         <v>6760</v>
       </c>
       <c r="AI35">
+        <f t="shared" si="4"/>
+        <v>0.99852670349907924</v>
+      </c>
+      <c r="AJ35">
         <f t="shared" si="1"/>
-        <v>0.99852670349907924</v>
-      </c>
-      <c r="AJ35">
+        <v>1</v>
+      </c>
+      <c r="AK35">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK35">
+      <c r="AL35">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL35">
-        <f t="shared" si="4"/>
         <v>0.99797057331303907</v>
       </c>
     </row>
@@ -13167,19 +13168,19 @@
         <v>6759</v>
       </c>
       <c r="AI36">
+        <f t="shared" si="4"/>
+        <v>0.9992544268406337</v>
+      </c>
+      <c r="AJ36">
         <f t="shared" si="1"/>
-        <v>0.9992544268406337</v>
-      </c>
-      <c r="AJ36">
+        <v>1</v>
+      </c>
+      <c r="AK36">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK36">
+      <c r="AL36">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL36">
-        <f t="shared" si="4"/>
         <v>0.99897330595482547</v>
       </c>
     </row>
@@ -13284,19 +13285,19 @@
         <v>6739</v>
       </c>
       <c r="AI37">
+        <f t="shared" si="4"/>
+        <v>0.99907132243684993</v>
+      </c>
+      <c r="AJ37">
         <f t="shared" si="1"/>
-        <v>0.99907132243684993</v>
-      </c>
-      <c r="AJ37">
+        <v>1</v>
+      </c>
+      <c r="AK37">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK37">
+      <c r="AL37">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL37">
-        <f t="shared" si="4"/>
         <v>0.99871827736477825</v>
       </c>
     </row>
@@ -13401,19 +13402,19 @@
         <v>6736</v>
       </c>
       <c r="AI38">
+        <f t="shared" si="4"/>
+        <v>0.99814540059347179</v>
+      </c>
+      <c r="AJ38">
         <f t="shared" si="1"/>
-        <v>0.99814540059347179</v>
-      </c>
-      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK38">
+      <c r="AL38">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL38">
-        <f t="shared" si="4"/>
         <v>0.99744245524296671</v>
       </c>
     </row>
@@ -13518,19 +13519,19 @@
         <v>6746</v>
       </c>
       <c r="AI39">
+        <f t="shared" si="4"/>
+        <v>0.99760941522618607</v>
+      </c>
+      <c r="AJ39">
         <f t="shared" si="1"/>
-        <v>0.99760941522618607</v>
-      </c>
-      <c r="AJ39">
+        <v>1</v>
+      </c>
+      <c r="AK39">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK39">
+      <c r="AL39">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL39">
-        <f t="shared" si="4"/>
         <v>0.99669547534316216</v>
       </c>
     </row>
@@ -13635,19 +13636,19 @@
         <v>6759</v>
       </c>
       <c r="AI40">
+        <f t="shared" si="4"/>
+        <v>0.99925051527075137</v>
+      </c>
+      <c r="AJ40">
         <f t="shared" si="1"/>
-        <v>0.99925051527075137</v>
-      </c>
-      <c r="AJ40">
+        <v>1</v>
+      </c>
+      <c r="AK40">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK40">
+      <c r="AL40">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL40">
-        <f t="shared" si="4"/>
         <v>0.99896907216494846</v>
       </c>
     </row>
@@ -13752,19 +13753,19 @@
         <v>6753</v>
       </c>
       <c r="AI41">
+        <f t="shared" si="4"/>
+        <v>0.99888641425389757</v>
+      </c>
+      <c r="AJ41">
         <f t="shared" si="1"/>
-        <v>0.99888641425389757</v>
-      </c>
-      <c r="AJ41">
+        <v>1</v>
+      </c>
+      <c r="AK41">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="AK41">
+      <c r="AL41">
         <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="AL41">
-        <f t="shared" si="4"/>
         <v>0.99846311475409832</v>
       </c>
     </row>
@@ -13869,19 +13870,19 @@
         <v>16054</v>
       </c>
       <c r="AI42">
+        <f t="shared" si="4"/>
+        <v>0.99430361720307603</v>
+      </c>
+      <c r="AJ42">
         <f t="shared" si="1"/>
-        <v>0.99430361720307603</v>
-      </c>
-      <c r="AJ42">
+        <v>1</v>
+      </c>
+      <c r="AK42">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK42">
+        <v>0.9972384166922369</v>
+      </c>
+      <c r="AL42">
         <f t="shared" si="3"/>
-        <v>0.9972384166922369</v>
-      </c>
-      <c r="AL42">
-        <f t="shared" si="4"/>
         <v>0.99292405820211282</v>
       </c>
     </row>
@@ -13986,19 +13987,19 @@
         <v>16069</v>
       </c>
       <c r="AI43">
+        <f t="shared" si="4"/>
+        <v>0.99313711617376543</v>
+      </c>
+      <c r="AJ43">
         <f t="shared" si="1"/>
-        <v>0.99313711617376543</v>
-      </c>
-      <c r="AJ43">
+        <v>1</v>
+      </c>
+      <c r="AK43">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK43">
+        <v>0.99452554744525545</v>
+      </c>
+      <c r="AL43">
         <f t="shared" si="3"/>
-        <v>0.99452554744525545</v>
-      </c>
-      <c r="AL43">
-        <f t="shared" si="4"/>
         <v>0.99216425312438006</v>
       </c>
     </row>
@@ -14103,19 +14104,19 @@
         <v>16208</v>
       </c>
       <c r="AI44">
+        <f t="shared" si="4"/>
+        <v>0.99207017543859655</v>
+      </c>
+      <c r="AJ44">
         <f t="shared" si="1"/>
-        <v>0.99207017543859655</v>
-      </c>
-      <c r="AJ44">
+        <v>1</v>
+      </c>
+      <c r="AK44">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK44">
+        <v>0.99637352674524027</v>
+      </c>
+      <c r="AL44">
         <f t="shared" si="3"/>
-        <v>0.99637352674524027</v>
-      </c>
-      <c r="AL44">
-        <f t="shared" si="4"/>
         <v>0.99007663588131267</v>
       </c>
     </row>
@@ -14220,19 +14221,19 @@
         <v>16105</v>
       </c>
       <c r="AI45">
+        <f t="shared" si="4"/>
+        <v>0.99285006371230355</v>
+      </c>
+      <c r="AJ45">
         <f t="shared" si="1"/>
-        <v>0.99285006371230355</v>
-      </c>
-      <c r="AJ45">
+        <v>1</v>
+      </c>
+      <c r="AK45">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK45">
+        <v>0.99634369287020108</v>
+      </c>
+      <c r="AL45">
         <f t="shared" si="3"/>
-        <v>0.99634369287020108</v>
-      </c>
-      <c r="AL45">
-        <f t="shared" si="4"/>
         <v>0.99117588736862983</v>
       </c>
     </row>
@@ -14337,19 +14338,19 @@
         <v>16028</v>
       </c>
       <c r="AI46">
+        <f t="shared" si="4"/>
+        <v>0.99488018203797202</v>
+      </c>
+      <c r="AJ46">
         <f t="shared" si="1"/>
-        <v>0.99488018203797202</v>
-      </c>
-      <c r="AJ46">
+        <v>1</v>
+      </c>
+      <c r="AK46">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK46">
+        <v>0.99570288520564765</v>
+      </c>
+      <c r="AL46">
         <f t="shared" si="3"/>
-        <v>0.99570288520564765</v>
-      </c>
-      <c r="AL46">
-        <f t="shared" si="4"/>
         <v>0.99422828142103692</v>
       </c>
     </row>
@@ -14454,19 +14455,19 @@
         <v>16085</v>
       </c>
       <c r="AI47">
+        <f t="shared" si="4"/>
+        <v>0.99423405466970383</v>
+      </c>
+      <c r="AJ47">
         <f t="shared" si="1"/>
-        <v>0.99423405466970383</v>
-      </c>
-      <c r="AJ47">
+        <v>1</v>
+      </c>
+      <c r="AK47">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK47">
+        <v>0.99693251533742333</v>
+      </c>
+      <c r="AL47">
         <f t="shared" si="3"/>
-        <v>0.99693251533742333</v>
-      </c>
-      <c r="AL47">
-        <f t="shared" si="4"/>
         <v>0.99292335293531342</v>
       </c>
     </row>
@@ -14571,19 +14572,19 @@
         <v>16128</v>
       </c>
       <c r="AI48">
+        <f t="shared" si="4"/>
+        <v>0.99436679977181974</v>
+      </c>
+      <c r="AJ48">
         <f t="shared" si="1"/>
-        <v>0.99436679977181974</v>
-      </c>
-      <c r="AJ48">
+        <v>0.99868421052631584</v>
+      </c>
+      <c r="AK48">
         <f t="shared" si="2"/>
-        <v>0.99868421052631584</v>
-      </c>
-      <c r="AK48">
+        <v>0.99783482833281778</v>
+      </c>
+      <c r="AL48">
         <f t="shared" si="3"/>
-        <v>0.99783482833281778</v>
-      </c>
-      <c r="AL48">
-        <f t="shared" si="4"/>
         <v>0.99292194197986239</v>
       </c>
     </row>
@@ -14688,19 +14689,19 @@
         <v>16091</v>
       </c>
       <c r="AI49">
+        <f t="shared" si="4"/>
+        <v>0.992740343952636</v>
+      </c>
+      <c r="AJ49">
         <f t="shared" si="1"/>
-        <v>0.992740343952636</v>
-      </c>
-      <c r="AJ49">
+        <v>0.99737876802096981</v>
+      </c>
+      <c r="AK49">
         <f t="shared" si="2"/>
-        <v>0.99737876802096981</v>
-      </c>
-      <c r="AK49">
+        <v>0.99695400548279012</v>
+      </c>
+      <c r="AL49">
         <f t="shared" si="3"/>
-        <v>0.99695400548279012</v>
-      </c>
-      <c r="AL49">
-        <f t="shared" si="4"/>
         <v>0.9910274107671071</v>
       </c>
     </row>
@@ -14805,19 +14806,19 @@
         <v>16083</v>
       </c>
       <c r="AI50">
+        <f t="shared" si="4"/>
+        <v>0.99460725182714826</v>
+      </c>
+      <c r="AJ50">
         <f t="shared" si="1"/>
-        <v>0.99460725182714826</v>
-      </c>
-      <c r="AJ50">
+        <v>1</v>
+      </c>
+      <c r="AK50">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK50">
+        <v>0.99754751686082155</v>
+      </c>
+      <c r="AL50">
         <f t="shared" si="3"/>
-        <v>0.99754751686082155</v>
-      </c>
-      <c r="AL50">
-        <f t="shared" si="4"/>
         <v>0.99324793962863667</v>
       </c>
     </row>
@@ -14922,19 +14923,19 @@
         <v>16154</v>
       </c>
       <c r="AI51">
+        <f t="shared" si="4"/>
+        <v>0.99313371558009489</v>
+      </c>
+      <c r="AJ51">
         <f t="shared" si="1"/>
-        <v>0.99313371558009489</v>
-      </c>
-      <c r="AJ51">
+        <v>1</v>
+      </c>
+      <c r="AK51">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK51">
+        <v>0.99755426475084075</v>
+      </c>
+      <c r="AL51">
         <f t="shared" si="3"/>
-        <v>0.99755426475084075</v>
-      </c>
-      <c r="AL51">
-        <f t="shared" si="4"/>
         <v>0.99118200733181416</v>
       </c>
     </row>
@@ -15039,19 +15040,19 @@
         <v>18567</v>
       </c>
       <c r="AI52">
+        <f t="shared" si="4"/>
+        <v>0.96530920060331826</v>
+      </c>
+      <c r="AJ52">
         <f t="shared" si="1"/>
-        <v>0.96530920060331826</v>
-      </c>
-      <c r="AJ52">
+        <v>1</v>
+      </c>
+      <c r="AK52">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK52">
+        <v>0.99056603773584906</v>
+      </c>
+      <c r="AL52">
         <f t="shared" si="3"/>
-        <v>0.99056603773584906</v>
-      </c>
-      <c r="AL52">
-        <f t="shared" si="4"/>
         <v>0.94976076555023925</v>
       </c>
     </row>
@@ -15156,19 +15157,19 @@
         <v>18160</v>
       </c>
       <c r="AI53">
+        <f t="shared" si="4"/>
+        <v>0.97167755991285398</v>
+      </c>
+      <c r="AJ53">
         <f t="shared" si="1"/>
-        <v>0.97167755991285398</v>
-      </c>
-      <c r="AJ53">
+        <v>1</v>
+      </c>
+      <c r="AK53">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK53">
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="AL53">
         <f t="shared" si="3"/>
-        <v>0.95918367346938771</v>
-      </c>
-      <c r="AL53">
-        <f t="shared" si="4"/>
         <v>0.97508896797153022</v>
       </c>
     </row>
@@ -15273,19 +15274,19 @@
         <v>18307</v>
       </c>
       <c r="AI54">
+        <f t="shared" si="4"/>
+        <v>0.95870736086175945</v>
+      </c>
+      <c r="AJ54">
         <f t="shared" si="1"/>
-        <v>0.95870736086175945</v>
-      </c>
-      <c r="AJ54">
+        <v>1</v>
+      </c>
+      <c r="AK54">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK54">
+        <v>0.96590909090909094</v>
+      </c>
+      <c r="AL54">
         <f t="shared" si="3"/>
-        <v>0.96590909090909094</v>
-      </c>
-      <c r="AL54">
-        <f t="shared" si="4"/>
         <v>0.95128939828080228</v>
       </c>
     </row>
@@ -15390,19 +15391,19 @@
         <v>18354</v>
       </c>
       <c r="AI55">
+        <f t="shared" si="4"/>
+        <v>0.95542635658914732</v>
+      </c>
+      <c r="AJ55">
         <f t="shared" si="1"/>
-        <v>0.95542635658914732</v>
-      </c>
-      <c r="AJ55">
+        <v>1</v>
+      </c>
+      <c r="AK55">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK55">
+        <v>0.96794871794871795</v>
+      </c>
+      <c r="AL55">
         <f t="shared" si="3"/>
-        <v>0.96794871794871795</v>
-      </c>
-      <c r="AL55">
-        <f t="shared" si="4"/>
         <v>0.94512195121951215</v>
       </c>
     </row>
@@ -15507,19 +15508,19 @@
         <v>18626</v>
       </c>
       <c r="AI56">
+        <f t="shared" si="4"/>
+        <v>0.96659707724425892</v>
+      </c>
+      <c r="AJ56">
         <f t="shared" si="1"/>
-        <v>0.96659707724425892</v>
-      </c>
-      <c r="AJ56">
+        <v>1</v>
+      </c>
+      <c r="AK56">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK56">
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AL56">
         <f t="shared" si="3"/>
-        <v>0.96666666666666667</v>
-      </c>
-      <c r="AL56">
-        <f t="shared" si="4"/>
         <v>0.96296296296296291</v>
       </c>
     </row>
@@ -15624,19 +15625,19 @@
         <v>18625</v>
       </c>
       <c r="AI57">
+        <f t="shared" si="4"/>
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="AJ57">
         <f t="shared" si="1"/>
-        <v>0.97222222222222221</v>
-      </c>
-      <c r="AJ57">
+        <v>1</v>
+      </c>
+      <c r="AK57">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK57">
+        <v>0.97122302158273377</v>
+      </c>
+      <c r="AL57">
         <f t="shared" si="3"/>
-        <v>0.97122302158273377</v>
-      </c>
-      <c r="AL57">
-        <f t="shared" si="4"/>
         <v>0.9701986754966887</v>
       </c>
     </row>
@@ -15741,19 +15742,19 @@
         <v>18491</v>
       </c>
       <c r="AI58">
+        <f t="shared" si="4"/>
+        <v>0.95221843003412965</v>
+      </c>
+      <c r="AJ58">
         <f t="shared" si="1"/>
-        <v>0.95221843003412965</v>
-      </c>
-      <c r="AJ58">
+        <v>1</v>
+      </c>
+      <c r="AK58">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK58">
+        <v>0.96354166666666663</v>
+      </c>
+      <c r="AL58">
         <f t="shared" si="3"/>
-        <v>0.96354166666666663</v>
-      </c>
-      <c r="AL58">
-        <f t="shared" si="4"/>
         <v>0.94198895027624308</v>
       </c>
     </row>
@@ -15858,19 +15859,19 @@
         <v>18621</v>
       </c>
       <c r="AI59">
+        <f t="shared" si="4"/>
+        <v>0.95475819032761311</v>
+      </c>
+      <c r="AJ59">
         <f t="shared" si="1"/>
-        <v>0.95475819032761311</v>
-      </c>
-      <c r="AJ59">
+        <v>1</v>
+      </c>
+      <c r="AK59">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK59">
+        <v>0.96568627450980393</v>
+      </c>
+      <c r="AL59">
         <f t="shared" si="3"/>
-        <v>0.96568627450980393</v>
-      </c>
-      <c r="AL59">
-        <f t="shared" si="4"/>
         <v>0.94540942928039706</v>
       </c>
     </row>
@@ -15975,19 +15976,19 @@
         <v>18647</v>
       </c>
       <c r="AI60">
+        <f t="shared" si="4"/>
+        <v>0.94942196531791911</v>
+      </c>
+      <c r="AJ60">
         <f t="shared" si="1"/>
-        <v>0.94942196531791911</v>
-      </c>
-      <c r="AJ60">
+        <v>1</v>
+      </c>
+      <c r="AK60">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK60">
+        <v>0.9776785714285714</v>
+      </c>
+      <c r="AL60">
         <f t="shared" si="3"/>
-        <v>0.9776785714285714</v>
-      </c>
-      <c r="AL60">
-        <f t="shared" si="4"/>
         <v>0.93119266055045868</v>
       </c>
     </row>
@@ -16092,19 +16093,19 @@
         <v>18512</v>
       </c>
       <c r="AI61">
+        <f t="shared" si="4"/>
+        <v>0.96557377049180326</v>
+      </c>
+      <c r="AJ61">
         <f t="shared" si="1"/>
-        <v>0.96557377049180326</v>
-      </c>
-      <c r="AJ61">
+        <v>1</v>
+      </c>
+      <c r="AK61">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK61">
+        <v>0.96858638743455494</v>
+      </c>
+      <c r="AL61">
         <f t="shared" si="3"/>
-        <v>0.96858638743455494</v>
-      </c>
-      <c r="AL61">
-        <f t="shared" si="4"/>
         <v>0.96103896103896103</v>
       </c>
     </row>
@@ -16209,19 +16210,19 @@
         <v>18857</v>
       </c>
       <c r="AI62">
+        <f t="shared" si="4"/>
+        <v>0.96144578313253015</v>
+      </c>
+      <c r="AJ62">
         <f t="shared" si="1"/>
-        <v>0.96144578313253015</v>
-      </c>
-      <c r="AJ62">
+        <v>1</v>
+      </c>
+      <c r="AK62">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK62">
+        <v>0.97</v>
+      </c>
+      <c r="AL62">
         <f t="shared" si="3"/>
-        <v>0.97</v>
-      </c>
-      <c r="AL62">
-        <f t="shared" si="4"/>
         <v>0.95501730103806226</v>
       </c>
     </row>
@@ -16326,19 +16327,19 @@
         <v>19087</v>
       </c>
       <c r="AI63">
+        <f t="shared" si="4"/>
+        <v>0.96250000000000002</v>
+      </c>
+      <c r="AJ63">
         <f t="shared" si="1"/>
-        <v>0.96250000000000002</v>
-      </c>
-      <c r="AJ63">
+        <v>1</v>
+      </c>
+      <c r="AK63">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK63">
+        <v>0.97049180327868856</v>
+      </c>
+      <c r="AL63">
         <f t="shared" si="3"/>
-        <v>0.97049180327868856</v>
-      </c>
-      <c r="AL63">
-        <f t="shared" si="4"/>
         <v>0.95661846496106784</v>
       </c>
     </row>
@@ -16443,19 +16444,19 @@
         <v>19095</v>
       </c>
       <c r="AI64">
+        <f t="shared" si="4"/>
+        <v>0.96585735963581187</v>
+      </c>
+      <c r="AJ64">
         <f t="shared" si="1"/>
-        <v>0.96585735963581187</v>
-      </c>
-      <c r="AJ64">
+        <v>1</v>
+      </c>
+      <c r="AK64">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK64">
+        <v>0.97839506172839508</v>
+      </c>
+      <c r="AL64">
         <f t="shared" si="3"/>
-        <v>0.97839506172839508</v>
-      </c>
-      <c r="AL64">
-        <f t="shared" si="4"/>
         <v>0.95842450765864329</v>
       </c>
     </row>
@@ -16560,19 +16561,19 @@
         <v>18987</v>
       </c>
       <c r="AI65">
+        <f t="shared" si="4"/>
+        <v>0.9586973788721207</v>
+      </c>
+      <c r="AJ65">
         <f t="shared" si="1"/>
-        <v>0.9586973788721207</v>
-      </c>
-      <c r="AJ65">
+        <v>1</v>
+      </c>
+      <c r="AK65">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK65">
+        <v>0.95846645367412142</v>
+      </c>
+      <c r="AL65">
         <f t="shared" si="3"/>
-        <v>0.95846645367412142</v>
-      </c>
-      <c r="AL65">
-        <f t="shared" si="4"/>
         <v>0.95501730103806226</v>
       </c>
     </row>
@@ -16677,19 +16678,19 @@
         <v>19192</v>
       </c>
       <c r="AI66">
+        <f t="shared" si="4"/>
+        <v>0.96330991412958622</v>
+      </c>
+      <c r="AJ66">
         <f t="shared" si="1"/>
-        <v>0.96330991412958622</v>
-      </c>
-      <c r="AJ66">
+        <v>1</v>
+      </c>
+      <c r="AK66">
         <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="AK66">
+        <v>0.97777777777777775</v>
+      </c>
+      <c r="AL66">
         <f t="shared" si="3"/>
-        <v>0.97777777777777775</v>
-      </c>
-      <c r="AL66">
-        <f t="shared" si="4"/>
         <v>0.95485327313769752</v>
       </c>
     </row>
@@ -31770,7 +31771,7 @@
         <v>64141</v>
       </c>
       <c r="AI195">
-        <f t="shared" ref="AI195:AI251" si="13">T195/(P195+H195+T195)</f>
+        <f t="shared" ref="AI195:AI253" si="13">T195/(P195+H195+T195)</f>
         <v>0.97069965210668729</v>
       </c>
       <c r="AJ195">
@@ -38345,12 +38346,7275 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34031BF4-158C-4ED9-A946-4FCDA7679C18}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="F1" t="str">
+        <f t="shared" ref="F1:F64" si="0">C1&amp;","&amp;F2</f>
+        <v>0,0.888889,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>50</v>
+      </c>
+      <c r="B2" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C2">
+        <v>0.88888900000000004</v>
+      </c>
+      <c r="F2" t="str">
+        <f t="shared" si="0"/>
+        <v>0.888889,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>50</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C5">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="0"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>50</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C6">
+        <v>0.846715</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="0"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>50</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C7">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="0"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C8">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="0"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>50</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C9">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="0"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>50</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C10">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="0"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>50</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C11">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="0"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>50</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C12">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="0"/>
+        <v>0.770964,0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>50</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C13">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="0"/>
+        <v>0.745724,0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>50</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C14">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="0"/>
+        <v>0.745209,0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>50</v>
+      </c>
+      <c r="B15" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>50</v>
+      </c>
+      <c r="B17" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>50</v>
+      </c>
+      <c r="B18" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>50</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>50</v>
+      </c>
+      <c r="B20" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>50</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>50</v>
+      </c>
+      <c r="B22" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>50</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>50</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>75</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>75</v>
+      </c>
+      <c r="B26" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>75</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>75</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>75</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C29">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="0"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>75</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C30">
+        <v>0.846715</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="0"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>75</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C31">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="0"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>75</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C32">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F32" t="str">
+        <f t="shared" si="0"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>75</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C33">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F33" t="str">
+        <f t="shared" si="0"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>75</v>
+      </c>
+      <c r="B34" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C34">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F34" t="str">
+        <f t="shared" si="0"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>75</v>
+      </c>
+      <c r="B35" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C35">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F35" t="str">
+        <f t="shared" si="0"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>75</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C36">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F36" t="str">
+        <f t="shared" si="0"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>75</v>
+      </c>
+      <c r="B37" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C37">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F37" t="str">
+        <f t="shared" si="0"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>75</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C38">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F38" t="str">
+        <f t="shared" si="0"/>
+        <v>0.745209,0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C39">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F39" t="str">
+        <f t="shared" si="0"/>
+        <v>0.720807,0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>75</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C40">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F40" t="str">
+        <f t="shared" si="0"/>
+        <v>0.682171,0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>75</v>
+      </c>
+      <c r="B41" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>75</v>
+      </c>
+      <c r="B42" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="F42" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>75</v>
+      </c>
+      <c r="B43" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="F43" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>75</v>
+      </c>
+      <c r="B44" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
+      </c>
+      <c r="F44" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>75</v>
+      </c>
+      <c r="B45" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="F45" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>75</v>
+      </c>
+      <c r="B46" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>75</v>
+      </c>
+      <c r="B47" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="F47" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>75</v>
+      </c>
+      <c r="B48" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="F48" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>100</v>
+      </c>
+      <c r="B49" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="F49" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="F50" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>100</v>
+      </c>
+      <c r="B51" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="F51" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="F52" t="str">
+        <f t="shared" si="0"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>100</v>
+      </c>
+      <c r="B53" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C53">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F53" t="str">
+        <f t="shared" si="0"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>100</v>
+      </c>
+      <c r="B54" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C54">
+        <v>0.846715</v>
+      </c>
+      <c r="F54" t="str">
+        <f t="shared" si="0"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>100</v>
+      </c>
+      <c r="B55" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C55">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F55" t="str">
+        <f t="shared" si="0"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>100</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C56">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F56" t="str">
+        <f t="shared" si="0"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>100</v>
+      </c>
+      <c r="B57" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C57">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F57" t="str">
+        <f t="shared" si="0"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>100</v>
+      </c>
+      <c r="B58" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C58">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F58" t="str">
+        <f t="shared" si="0"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>100</v>
+      </c>
+      <c r="B59" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C59">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F59" t="str">
+        <f t="shared" si="0"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>100</v>
+      </c>
+      <c r="B60" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C60">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F60" t="str">
+        <f t="shared" si="0"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>100</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C61">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F61" t="str">
+        <f t="shared" si="0"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>100</v>
+      </c>
+      <c r="B62" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C62">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F62" t="str">
+        <f t="shared" si="0"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>100</v>
+      </c>
+      <c r="B63" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C63">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F63" t="str">
+        <f t="shared" si="0"/>
+        <v>0.720807,0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>100</v>
+      </c>
+      <c r="B64" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C64">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F64" t="str">
+        <f t="shared" si="0"/>
+        <v>0.682171,0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>100</v>
+      </c>
+      <c r="B65" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C65">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F65" t="str">
+        <f t="shared" ref="F65:F128" si="1">C65&amp;","&amp;F66</f>
+        <v>0.620837,0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>100</v>
+      </c>
+      <c r="B66" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="F66" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>100</v>
+      </c>
+      <c r="B67" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="F67" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>100</v>
+      </c>
+      <c r="B68" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="F68" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>100</v>
+      </c>
+      <c r="B69" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C69">
+        <v>0</v>
+      </c>
+      <c r="F69" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>100</v>
+      </c>
+      <c r="B70" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C70">
+        <v>0</v>
+      </c>
+      <c r="F70" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>100</v>
+      </c>
+      <c r="B71" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="F71" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>100</v>
+      </c>
+      <c r="B72" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C72">
+        <v>0</v>
+      </c>
+      <c r="F72" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>125</v>
+      </c>
+      <c r="B73" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="F73" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>125</v>
+      </c>
+      <c r="B74" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
+      </c>
+      <c r="F74" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>125</v>
+      </c>
+      <c r="B75" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C75">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F75" t="str">
+        <f t="shared" si="1"/>
+        <v>0.893333,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>125</v>
+      </c>
+      <c r="B76" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C76">
+        <v>0</v>
+      </c>
+      <c r="F76" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>125</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C77">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F77" t="str">
+        <f t="shared" si="1"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>125</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C78">
+        <v>0.846715</v>
+      </c>
+      <c r="F78" t="str">
+        <f t="shared" si="1"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>125</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C79">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F79" t="str">
+        <f t="shared" si="1"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>125</v>
+      </c>
+      <c r="B80" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C80">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F80" t="str">
+        <f t="shared" si="1"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>125</v>
+      </c>
+      <c r="B81" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C81">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F81" t="str">
+        <f t="shared" si="1"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>125</v>
+      </c>
+      <c r="B82" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C82">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F82" t="str">
+        <f t="shared" si="1"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>125</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C83">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F83" t="str">
+        <f t="shared" si="1"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>125</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C84">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F84" t="str">
+        <f t="shared" si="1"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>125</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C85">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F85" t="str">
+        <f t="shared" si="1"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>125</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C86">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F86" t="str">
+        <f t="shared" si="1"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>125</v>
+      </c>
+      <c r="B87" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C87">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F87" t="str">
+        <f t="shared" si="1"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>125</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C88">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F88" t="str">
+        <f t="shared" si="1"/>
+        <v>0.682171,0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>125</v>
+      </c>
+      <c r="B89" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C89">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F89" t="str">
+        <f t="shared" si="1"/>
+        <v>0.620837,0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>125</v>
+      </c>
+      <c r="B90" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C90">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F90" t="str">
+        <f t="shared" si="1"/>
+        <v>0.55102,0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>125</v>
+      </c>
+      <c r="B91" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+      <c r="F91" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>125</v>
+      </c>
+      <c r="B92" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+      <c r="F92" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>125</v>
+      </c>
+      <c r="B93" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+      <c r="F93" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>125</v>
+      </c>
+      <c r="B94" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+      <c r="F94" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>125</v>
+      </c>
+      <c r="B95" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+      <c r="F95" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>125</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="F96" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>150</v>
+      </c>
+      <c r="B97" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+      <c r="F97" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>150</v>
+      </c>
+      <c r="B98" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+      <c r="F98" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>150</v>
+      </c>
+      <c r="B99" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C99">
+        <v>0.89333300000000004</v>
+      </c>
+      <c r="F99" t="str">
+        <f t="shared" si="1"/>
+        <v>0.893333,0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>150</v>
+      </c>
+      <c r="B100" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C100">
+        <v>0.87898100000000001</v>
+      </c>
+      <c r="F100" t="str">
+        <f t="shared" si="1"/>
+        <v>0.878981,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>150</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C101">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F101" t="str">
+        <f t="shared" si="1"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>150</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C102">
+        <v>0.846715</v>
+      </c>
+      <c r="F102" t="str">
+        <f t="shared" si="1"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>150</v>
+      </c>
+      <c r="B103" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C103">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F103" t="str">
+        <f t="shared" si="1"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>150</v>
+      </c>
+      <c r="B104" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C104">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F104" t="str">
+        <f t="shared" si="1"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>150</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C105">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F105" t="str">
+        <f t="shared" si="1"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>150</v>
+      </c>
+      <c r="B106" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C106">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F106" t="str">
+        <f t="shared" si="1"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>150</v>
+      </c>
+      <c r="B107" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C107">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F107" t="str">
+        <f t="shared" si="1"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>150</v>
+      </c>
+      <c r="B108" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C108">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F108" t="str">
+        <f t="shared" si="1"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>150</v>
+      </c>
+      <c r="B109" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C109">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F109" t="str">
+        <f t="shared" si="1"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>150</v>
+      </c>
+      <c r="B110" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C110">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F110" t="str">
+        <f t="shared" si="1"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>150</v>
+      </c>
+      <c r="B111" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C111">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F111" t="str">
+        <f t="shared" si="1"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>150</v>
+      </c>
+      <c r="B112" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C112">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F112" t="str">
+        <f t="shared" si="1"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>150</v>
+      </c>
+      <c r="B113" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C113">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F113" t="str">
+        <f t="shared" si="1"/>
+        <v>0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>150</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C114">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F114" t="str">
+        <f t="shared" si="1"/>
+        <v>0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>150</v>
+      </c>
+      <c r="B115" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C115">
+        <v>0.519401</v>
+      </c>
+      <c r="F115" t="str">
+        <f t="shared" si="1"/>
+        <v>0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>150</v>
+      </c>
+      <c r="B116" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+      <c r="F116" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>150</v>
+      </c>
+      <c r="B117" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+      <c r="F117" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>150</v>
+      </c>
+      <c r="B118" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+      <c r="F118" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>150</v>
+      </c>
+      <c r="B119" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+      <c r="F119" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>150</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+      <c r="F120" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>175</v>
+      </c>
+      <c r="B121" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+      <c r="F121" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>175</v>
+      </c>
+      <c r="B122" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+      <c r="F122" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>175</v>
+      </c>
+      <c r="B123" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+      <c r="F123" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>175</v>
+      </c>
+      <c r="B124" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+      <c r="F124" t="str">
+        <f t="shared" si="1"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>175</v>
+      </c>
+      <c r="B125" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C125">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F125" t="str">
+        <f t="shared" si="1"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>175</v>
+      </c>
+      <c r="B126" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C126">
+        <v>0.846715</v>
+      </c>
+      <c r="F126" t="str">
+        <f t="shared" si="1"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>175</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C127">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F127" t="str">
+        <f t="shared" si="1"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>175</v>
+      </c>
+      <c r="B128" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C128">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F128" t="str">
+        <f t="shared" si="1"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>175</v>
+      </c>
+      <c r="B129" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C129">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F129" t="str">
+        <f t="shared" ref="F129:F192" si="2">C129&amp;","&amp;F130</f>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>175</v>
+      </c>
+      <c r="B130" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C130">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F130" t="str">
+        <f t="shared" si="2"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>175</v>
+      </c>
+      <c r="B131" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C131">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F131" t="str">
+        <f t="shared" si="2"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>175</v>
+      </c>
+      <c r="B132" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C132">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F132" t="str">
+        <f t="shared" si="2"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>175</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C133">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F133" t="str">
+        <f t="shared" si="2"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>175</v>
+      </c>
+      <c r="B134" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C134">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F134" t="str">
+        <f t="shared" si="2"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>175</v>
+      </c>
+      <c r="B135" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C135">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F135" t="str">
+        <f t="shared" si="2"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>175</v>
+      </c>
+      <c r="B136" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C136">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F136" t="str">
+        <f t="shared" si="2"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>175</v>
+      </c>
+      <c r="B137" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C137">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F137" t="str">
+        <f t="shared" si="2"/>
+        <v>0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>175</v>
+      </c>
+      <c r="B138" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C138">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F138" t="str">
+        <f t="shared" si="2"/>
+        <v>0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>175</v>
+      </c>
+      <c r="B139" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C139">
+        <v>0.519401</v>
+      </c>
+      <c r="F139" t="str">
+        <f t="shared" si="2"/>
+        <v>0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>175</v>
+      </c>
+      <c r="B140" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C140">
+        <v>0</v>
+      </c>
+      <c r="F140" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>175</v>
+      </c>
+      <c r="B141" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C141">
+        <v>0</v>
+      </c>
+      <c r="F141" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>175</v>
+      </c>
+      <c r="B142" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C142">
+        <v>0</v>
+      </c>
+      <c r="F142" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>175</v>
+      </c>
+      <c r="B143" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+      <c r="F143" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>175</v>
+      </c>
+      <c r="B144" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C144">
+        <v>0</v>
+      </c>
+      <c r="F144" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>200</v>
+      </c>
+      <c r="B145" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C145">
+        <v>0</v>
+      </c>
+      <c r="F145" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>200</v>
+      </c>
+      <c r="B146" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C146">
+        <v>0</v>
+      </c>
+      <c r="F146" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>200</v>
+      </c>
+      <c r="B147" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C147">
+        <v>0</v>
+      </c>
+      <c r="F147" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>200</v>
+      </c>
+      <c r="B148" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C148">
+        <v>0</v>
+      </c>
+      <c r="F148" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>200</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C149">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F149" t="str">
+        <f t="shared" si="2"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>200</v>
+      </c>
+      <c r="B150" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C150">
+        <v>0.846715</v>
+      </c>
+      <c r="F150" t="str">
+        <f t="shared" si="2"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>200</v>
+      </c>
+      <c r="B151" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C151">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F151" t="str">
+        <f t="shared" si="2"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>200</v>
+      </c>
+      <c r="B152" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C152">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F152" t="str">
+        <f t="shared" si="2"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>200</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C153">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F153" t="str">
+        <f t="shared" si="2"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>200</v>
+      </c>
+      <c r="B154" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C154">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F154" t="str">
+        <f t="shared" si="2"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>200</v>
+      </c>
+      <c r="B155" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C155">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F155" t="str">
+        <f t="shared" si="2"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>200</v>
+      </c>
+      <c r="B156" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C156">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F156" t="str">
+        <f t="shared" si="2"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>200</v>
+      </c>
+      <c r="B157" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C157">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F157" t="str">
+        <f t="shared" si="2"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>200</v>
+      </c>
+      <c r="B158" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C158">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F158" t="str">
+        <f t="shared" si="2"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>200</v>
+      </c>
+      <c r="B159" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C159">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F159" t="str">
+        <f t="shared" si="2"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>200</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C160">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F160" t="str">
+        <f t="shared" si="2"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>200</v>
+      </c>
+      <c r="B161" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C161">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F161" t="str">
+        <f t="shared" si="2"/>
+        <v>0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>200</v>
+      </c>
+      <c r="B162" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C162">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F162" t="str">
+        <f t="shared" si="2"/>
+        <v>0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>200</v>
+      </c>
+      <c r="B163" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C163">
+        <v>0.519401</v>
+      </c>
+      <c r="F163" t="str">
+        <f t="shared" si="2"/>
+        <v>0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>200</v>
+      </c>
+      <c r="B164" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C164">
+        <v>0</v>
+      </c>
+      <c r="F164" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>200</v>
+      </c>
+      <c r="B165" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C165">
+        <v>0</v>
+      </c>
+      <c r="F165" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>200</v>
+      </c>
+      <c r="B166" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C166">
+        <v>0</v>
+      </c>
+      <c r="F166" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>200</v>
+      </c>
+      <c r="B167" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C167">
+        <v>0</v>
+      </c>
+      <c r="F167" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>200</v>
+      </c>
+      <c r="B168" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C168">
+        <v>0</v>
+      </c>
+      <c r="F168" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>225</v>
+      </c>
+      <c r="B169" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C169">
+        <v>0</v>
+      </c>
+      <c r="F169" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>225</v>
+      </c>
+      <c r="B170" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C170">
+        <v>0</v>
+      </c>
+      <c r="F170" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>225</v>
+      </c>
+      <c r="B171" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C171">
+        <v>0</v>
+      </c>
+      <c r="F171" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>225</v>
+      </c>
+      <c r="B172" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C172">
+        <v>0</v>
+      </c>
+      <c r="F172" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>225</v>
+      </c>
+      <c r="B173" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C173">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F173" t="str">
+        <f t="shared" si="2"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>225</v>
+      </c>
+      <c r="B174" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C174">
+        <v>0.846715</v>
+      </c>
+      <c r="F174" t="str">
+        <f t="shared" si="2"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>225</v>
+      </c>
+      <c r="B175" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C175">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F175" t="str">
+        <f t="shared" si="2"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>225</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C176">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F176" t="str">
+        <f t="shared" si="2"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>225</v>
+      </c>
+      <c r="B177" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C177">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F177" t="str">
+        <f t="shared" si="2"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>225</v>
+      </c>
+      <c r="B178" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C178">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F178" t="str">
+        <f t="shared" si="2"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>225</v>
+      </c>
+      <c r="B179" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C179">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F179" t="str">
+        <f t="shared" si="2"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>225</v>
+      </c>
+      <c r="B180" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C180">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F180" t="str">
+        <f t="shared" si="2"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>225</v>
+      </c>
+      <c r="B181" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C181">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F181" t="str">
+        <f t="shared" si="2"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>225</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C182">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F182" t="str">
+        <f t="shared" si="2"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>225</v>
+      </c>
+      <c r="B183" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C183">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F183" t="str">
+        <f t="shared" si="2"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>225</v>
+      </c>
+      <c r="B184" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C184">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F184" t="str">
+        <f t="shared" si="2"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>225</v>
+      </c>
+      <c r="B185" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C185">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F185" t="str">
+        <f t="shared" si="2"/>
+        <v>0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>225</v>
+      </c>
+      <c r="B186" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C186">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F186" t="str">
+        <f t="shared" si="2"/>
+        <v>0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>225</v>
+      </c>
+      <c r="B187" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C187">
+        <v>0.519401</v>
+      </c>
+      <c r="F187" t="str">
+        <f t="shared" si="2"/>
+        <v>0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>225</v>
+      </c>
+      <c r="B188" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C188">
+        <v>0</v>
+      </c>
+      <c r="F188" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>225</v>
+      </c>
+      <c r="B189" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C189">
+        <v>0</v>
+      </c>
+      <c r="F189" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>225</v>
+      </c>
+      <c r="B190" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C190">
+        <v>0</v>
+      </c>
+      <c r="F190" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>225</v>
+      </c>
+      <c r="B191" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C191">
+        <v>0</v>
+      </c>
+      <c r="F191" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>225</v>
+      </c>
+      <c r="B192" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C192">
+        <v>0</v>
+      </c>
+      <c r="F192" t="str">
+        <f t="shared" si="2"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>250</v>
+      </c>
+      <c r="B193" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C193">
+        <v>0</v>
+      </c>
+      <c r="F193" t="str">
+        <f t="shared" ref="F193:F256" si="3">C193&amp;","&amp;F194</f>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>250</v>
+      </c>
+      <c r="B194" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C194">
+        <v>0</v>
+      </c>
+      <c r="F194" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>250</v>
+      </c>
+      <c r="B195" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C195">
+        <v>0</v>
+      </c>
+      <c r="F195" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>250</v>
+      </c>
+      <c r="B196" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C196">
+        <v>0</v>
+      </c>
+      <c r="F196" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>250</v>
+      </c>
+      <c r="B197" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C197">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F197" t="str">
+        <f t="shared" si="3"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>250</v>
+      </c>
+      <c r="B198" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C198">
+        <v>0.846715</v>
+      </c>
+      <c r="F198" t="str">
+        <f t="shared" si="3"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>250</v>
+      </c>
+      <c r="B199" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C199">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F199" t="str">
+        <f t="shared" si="3"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>250</v>
+      </c>
+      <c r="B200" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C200">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F200" t="str">
+        <f t="shared" si="3"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>250</v>
+      </c>
+      <c r="B201" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C201">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F201" t="str">
+        <f t="shared" si="3"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>250</v>
+      </c>
+      <c r="B202" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C202">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F202" t="str">
+        <f t="shared" si="3"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>250</v>
+      </c>
+      <c r="B203" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C203">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F203" t="str">
+        <f t="shared" si="3"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>250</v>
+      </c>
+      <c r="B204" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C204">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F204" t="str">
+        <f t="shared" si="3"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>250</v>
+      </c>
+      <c r="B205" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C205">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F205" t="str">
+        <f t="shared" si="3"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>250</v>
+      </c>
+      <c r="B206" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C206">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F206" t="str">
+        <f t="shared" si="3"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>250</v>
+      </c>
+      <c r="B207" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C207">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F207" t="str">
+        <f t="shared" si="3"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>250</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C208">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F208" t="str">
+        <f t="shared" si="3"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>250</v>
+      </c>
+      <c r="B209" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C209">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F209" t="str">
+        <f t="shared" si="3"/>
+        <v>0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>250</v>
+      </c>
+      <c r="B210" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C210">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F210" t="str">
+        <f t="shared" si="3"/>
+        <v>0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>250</v>
+      </c>
+      <c r="B211" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C211">
+        <v>0.519401</v>
+      </c>
+      <c r="F211" t="str">
+        <f t="shared" si="3"/>
+        <v>0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>250</v>
+      </c>
+      <c r="B212" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C212">
+        <v>0</v>
+      </c>
+      <c r="F212" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>250</v>
+      </c>
+      <c r="B213" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+      <c r="F213" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>250</v>
+      </c>
+      <c r="B214" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C214">
+        <v>0</v>
+      </c>
+      <c r="F214" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>250</v>
+      </c>
+      <c r="B215" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C215">
+        <v>0</v>
+      </c>
+      <c r="F215" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>250</v>
+      </c>
+      <c r="B216" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C216">
+        <v>0</v>
+      </c>
+      <c r="F216" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>275</v>
+      </c>
+      <c r="B217" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C217">
+        <v>0</v>
+      </c>
+      <c r="F217" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>275</v>
+      </c>
+      <c r="B218" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C218">
+        <v>0</v>
+      </c>
+      <c r="F218" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>275</v>
+      </c>
+      <c r="B219" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C219">
+        <v>0</v>
+      </c>
+      <c r="F219" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>275</v>
+      </c>
+      <c r="B220" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C220">
+        <v>0</v>
+      </c>
+      <c r="F220" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>275</v>
+      </c>
+      <c r="B221" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C221">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F221" t="str">
+        <f t="shared" si="3"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>275</v>
+      </c>
+      <c r="B222" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C222">
+        <v>0.846715</v>
+      </c>
+      <c r="F222" t="str">
+        <f t="shared" si="3"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>275</v>
+      </c>
+      <c r="B223" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C223">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F223" t="str">
+        <f t="shared" si="3"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>275</v>
+      </c>
+      <c r="B224" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C224">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F224" t="str">
+        <f t="shared" si="3"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>275</v>
+      </c>
+      <c r="B225" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C225">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F225" t="str">
+        <f t="shared" si="3"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>275</v>
+      </c>
+      <c r="B226" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C226">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F226" t="str">
+        <f t="shared" si="3"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>275</v>
+      </c>
+      <c r="B227" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C227">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F227" t="str">
+        <f t="shared" si="3"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>275</v>
+      </c>
+      <c r="B228" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C228">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F228" t="str">
+        <f t="shared" si="3"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>275</v>
+      </c>
+      <c r="B229" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C229">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F229" t="str">
+        <f t="shared" si="3"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>275</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C230">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F230" t="str">
+        <f t="shared" si="3"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>275</v>
+      </c>
+      <c r="B231" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C231">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F231" t="str">
+        <f t="shared" si="3"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>275</v>
+      </c>
+      <c r="B232" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C232">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F232" t="str">
+        <f t="shared" si="3"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>275</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C233">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F233" t="str">
+        <f t="shared" si="3"/>
+        <v>0.620837,0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>275</v>
+      </c>
+      <c r="B234" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C234">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F234" t="str">
+        <f t="shared" si="3"/>
+        <v>0.55102,0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>275</v>
+      </c>
+      <c r="B235" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C235">
+        <v>0.519401</v>
+      </c>
+      <c r="F235" t="str">
+        <f t="shared" si="3"/>
+        <v>0.519401,0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>275</v>
+      </c>
+      <c r="B236" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+      <c r="F236" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>275</v>
+      </c>
+      <c r="B237" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+      <c r="F237" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>275</v>
+      </c>
+      <c r="B238" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+      <c r="F238" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>275</v>
+      </c>
+      <c r="B239" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+      <c r="F239" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>275</v>
+      </c>
+      <c r="B240" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+      <c r="F240" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>300</v>
+      </c>
+      <c r="B241" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+      <c r="F241" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>300</v>
+      </c>
+      <c r="B242" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+      <c r="F242" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>300</v>
+      </c>
+      <c r="B243" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+      <c r="F243" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>300</v>
+      </c>
+      <c r="B244" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+      <c r="F244" t="str">
+        <f t="shared" si="3"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>300</v>
+      </c>
+      <c r="B245" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C245">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F245" t="str">
+        <f t="shared" si="3"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>300</v>
+      </c>
+      <c r="B246" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C246">
+        <v>0.846715</v>
+      </c>
+      <c r="F246" t="str">
+        <f t="shared" si="3"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>300</v>
+      </c>
+      <c r="B247" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C247">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F247" t="str">
+        <f t="shared" si="3"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>300</v>
+      </c>
+      <c r="B248" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C248">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F248" t="str">
+        <f t="shared" si="3"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>300</v>
+      </c>
+      <c r="B249" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C249">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F249" t="str">
+        <f t="shared" si="3"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>300</v>
+      </c>
+      <c r="B250" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C250">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F250" t="str">
+        <f t="shared" si="3"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>300</v>
+      </c>
+      <c r="B251" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C251">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F251" t="str">
+        <f t="shared" si="3"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>300</v>
+      </c>
+      <c r="B252" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C252">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F252" t="str">
+        <f t="shared" si="3"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>300</v>
+      </c>
+      <c r="B253" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C253">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F253" t="str">
+        <f t="shared" si="3"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>300</v>
+      </c>
+      <c r="B254" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C254">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F254" t="str">
+        <f t="shared" si="3"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>300</v>
+      </c>
+      <c r="B255" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C255">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F255" t="str">
+        <f t="shared" si="3"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>300</v>
+      </c>
+      <c r="B256" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C256">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F256" t="str">
+        <f t="shared" si="3"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>300</v>
+      </c>
+      <c r="B257" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C257">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F257" t="str">
+        <f t="shared" ref="F257:F320" si="4">C257&amp;","&amp;F258</f>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>300</v>
+      </c>
+      <c r="B258" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C258">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F258" t="str">
+        <f t="shared" si="4"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>300</v>
+      </c>
+      <c r="B259" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C259">
+        <v>0.519401</v>
+      </c>
+      <c r="F259" t="str">
+        <f t="shared" si="4"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>300</v>
+      </c>
+      <c r="B260" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C260">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F260" t="str">
+        <f t="shared" si="4"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>300</v>
+      </c>
+      <c r="B261" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+      <c r="F261" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>300</v>
+      </c>
+      <c r="B262" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+      <c r="F262" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>300</v>
+      </c>
+      <c r="B263" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+      <c r="F263" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>300</v>
+      </c>
+      <c r="B264" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+      <c r="F264" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>325</v>
+      </c>
+      <c r="B265" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+      <c r="F265" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>325</v>
+      </c>
+      <c r="B266" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+      <c r="F266" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>325</v>
+      </c>
+      <c r="B267" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+      <c r="F267" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>325</v>
+      </c>
+      <c r="B268" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+      <c r="F268" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>325</v>
+      </c>
+      <c r="B269" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C269">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F269" t="str">
+        <f t="shared" si="4"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>325</v>
+      </c>
+      <c r="B270" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C270">
+        <v>0.846715</v>
+      </c>
+      <c r="F270" t="str">
+        <f t="shared" si="4"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>325</v>
+      </c>
+      <c r="B271" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C271">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F271" t="str">
+        <f t="shared" si="4"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>325</v>
+      </c>
+      <c r="B272" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C272">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F272" t="str">
+        <f t="shared" si="4"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>325</v>
+      </c>
+      <c r="B273" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C273">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F273" t="str">
+        <f t="shared" si="4"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>325</v>
+      </c>
+      <c r="B274" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C274">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F274" t="str">
+        <f t="shared" si="4"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>325</v>
+      </c>
+      <c r="B275" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C275">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F275" t="str">
+        <f t="shared" si="4"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>325</v>
+      </c>
+      <c r="B276" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C276">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F276" t="str">
+        <f t="shared" si="4"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>325</v>
+      </c>
+      <c r="B277" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C277">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F277" t="str">
+        <f t="shared" si="4"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>325</v>
+      </c>
+      <c r="B278" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C278">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F278" t="str">
+        <f t="shared" si="4"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>325</v>
+      </c>
+      <c r="B279" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C279">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F279" t="str">
+        <f t="shared" si="4"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>325</v>
+      </c>
+      <c r="B280" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C280">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F280" t="str">
+        <f t="shared" si="4"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>325</v>
+      </c>
+      <c r="B281" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C281">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F281" t="str">
+        <f t="shared" si="4"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>325</v>
+      </c>
+      <c r="B282" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C282">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F282" t="str">
+        <f t="shared" si="4"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>325</v>
+      </c>
+      <c r="B283" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C283">
+        <v>0.519401</v>
+      </c>
+      <c r="F283" t="str">
+        <f t="shared" si="4"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>325</v>
+      </c>
+      <c r="B284" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C284">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F284" t="str">
+        <f t="shared" si="4"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>325</v>
+      </c>
+      <c r="B285" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+      <c r="F285" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>325</v>
+      </c>
+      <c r="B286" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+      <c r="F286" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>325</v>
+      </c>
+      <c r="B287" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+      <c r="F287" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>325</v>
+      </c>
+      <c r="B288" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+      <c r="F288" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>350</v>
+      </c>
+      <c r="B289" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+      <c r="F289" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>350</v>
+      </c>
+      <c r="B290" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+      <c r="F290" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>350</v>
+      </c>
+      <c r="B291" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+      <c r="F291" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>350</v>
+      </c>
+      <c r="B292" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+      <c r="F292" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>350</v>
+      </c>
+      <c r="B293" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C293">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F293" t="str">
+        <f t="shared" si="4"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>350</v>
+      </c>
+      <c r="B294" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C294">
+        <v>0.846715</v>
+      </c>
+      <c r="F294" t="str">
+        <f t="shared" si="4"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>350</v>
+      </c>
+      <c r="B295" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C295">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F295" t="str">
+        <f t="shared" si="4"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>350</v>
+      </c>
+      <c r="B296" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C296">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F296" t="str">
+        <f t="shared" si="4"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>350</v>
+      </c>
+      <c r="B297" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C297">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F297" t="str">
+        <f t="shared" si="4"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>350</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C298">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F298" t="str">
+        <f t="shared" si="4"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>350</v>
+      </c>
+      <c r="B299" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C299">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F299" t="str">
+        <f t="shared" si="4"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>350</v>
+      </c>
+      <c r="B300" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C300">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F300" t="str">
+        <f t="shared" si="4"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>350</v>
+      </c>
+      <c r="B301" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C301">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F301" t="str">
+        <f t="shared" si="4"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>350</v>
+      </c>
+      <c r="B302" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C302">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F302" t="str">
+        <f t="shared" si="4"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>350</v>
+      </c>
+      <c r="B303" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C303">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F303" t="str">
+        <f t="shared" si="4"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>350</v>
+      </c>
+      <c r="B304" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C304">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F304" t="str">
+        <f t="shared" si="4"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>350</v>
+      </c>
+      <c r="B305" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C305">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F305" t="str">
+        <f t="shared" si="4"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>350</v>
+      </c>
+      <c r="B306" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C306">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F306" t="str">
+        <f t="shared" si="4"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>350</v>
+      </c>
+      <c r="B307" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C307">
+        <v>0.519401</v>
+      </c>
+      <c r="F307" t="str">
+        <f t="shared" si="4"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>350</v>
+      </c>
+      <c r="B308" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C308">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F308" t="str">
+        <f t="shared" si="4"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>350</v>
+      </c>
+      <c r="B309" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C309">
+        <v>0</v>
+      </c>
+      <c r="F309" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>350</v>
+      </c>
+      <c r="B310" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C310">
+        <v>0</v>
+      </c>
+      <c r="F310" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>350</v>
+      </c>
+      <c r="B311" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C311">
+        <v>0</v>
+      </c>
+      <c r="F311" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>350</v>
+      </c>
+      <c r="B312" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C312">
+        <v>0</v>
+      </c>
+      <c r="F312" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>375</v>
+      </c>
+      <c r="B313" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C313">
+        <v>0</v>
+      </c>
+      <c r="F313" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>375</v>
+      </c>
+      <c r="B314" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C314">
+        <v>0</v>
+      </c>
+      <c r="F314" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>375</v>
+      </c>
+      <c r="B315" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C315">
+        <v>0</v>
+      </c>
+      <c r="F315" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>375</v>
+      </c>
+      <c r="B316" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C316">
+        <v>0</v>
+      </c>
+      <c r="F316" t="str">
+        <f t="shared" si="4"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>375</v>
+      </c>
+      <c r="B317" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C317">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F317" t="str">
+        <f t="shared" si="4"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>375</v>
+      </c>
+      <c r="B318" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C318">
+        <v>0.846715</v>
+      </c>
+      <c r="F318" t="str">
+        <f t="shared" si="4"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>375</v>
+      </c>
+      <c r="B319" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C319">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F319" t="str">
+        <f t="shared" si="4"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>375</v>
+      </c>
+      <c r="B320" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C320">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F320" t="str">
+        <f t="shared" si="4"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>375</v>
+      </c>
+      <c r="B321" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C321">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F321" t="str">
+        <f t="shared" ref="F321:F384" si="5">C321&amp;","&amp;F322</f>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>375</v>
+      </c>
+      <c r="B322" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C322">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F322" t="str">
+        <f t="shared" si="5"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>375</v>
+      </c>
+      <c r="B323" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C323">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F323" t="str">
+        <f t="shared" si="5"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>375</v>
+      </c>
+      <c r="B324" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C324">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F324" t="str">
+        <f t="shared" si="5"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>375</v>
+      </c>
+      <c r="B325" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C325">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F325" t="str">
+        <f t="shared" si="5"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>375</v>
+      </c>
+      <c r="B326" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C326">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F326" t="str">
+        <f t="shared" si="5"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>375</v>
+      </c>
+      <c r="B327" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C327">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F327" t="str">
+        <f t="shared" si="5"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>375</v>
+      </c>
+      <c r="B328" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C328">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F328" t="str">
+        <f t="shared" si="5"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>375</v>
+      </c>
+      <c r="B329" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C329">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F329" t="str">
+        <f t="shared" si="5"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>375</v>
+      </c>
+      <c r="B330" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C330">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F330" t="str">
+        <f t="shared" si="5"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>375</v>
+      </c>
+      <c r="B331" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C331">
+        <v>0.519401</v>
+      </c>
+      <c r="F331" t="str">
+        <f t="shared" si="5"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>375</v>
+      </c>
+      <c r="B332" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C332">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F332" t="str">
+        <f t="shared" si="5"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>375</v>
+      </c>
+      <c r="B333" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C333">
+        <v>0</v>
+      </c>
+      <c r="F333" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>375</v>
+      </c>
+      <c r="B334" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C334">
+        <v>0</v>
+      </c>
+      <c r="F334" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>375</v>
+      </c>
+      <c r="B335" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C335">
+        <v>0</v>
+      </c>
+      <c r="F335" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>375</v>
+      </c>
+      <c r="B336" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C336">
+        <v>0</v>
+      </c>
+      <c r="F336" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>400</v>
+      </c>
+      <c r="B337" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C337">
+        <v>0</v>
+      </c>
+      <c r="F337" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>400</v>
+      </c>
+      <c r="B338" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C338">
+        <v>0</v>
+      </c>
+      <c r="F338" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>400</v>
+      </c>
+      <c r="B339" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C339">
+        <v>0</v>
+      </c>
+      <c r="F339" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>400</v>
+      </c>
+      <c r="B340" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C340">
+        <v>0</v>
+      </c>
+      <c r="F340" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>400</v>
+      </c>
+      <c r="B341" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C341">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F341" t="str">
+        <f t="shared" si="5"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>400</v>
+      </c>
+      <c r="B342" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C342">
+        <v>0.846715</v>
+      </c>
+      <c r="F342" t="str">
+        <f t="shared" si="5"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>400</v>
+      </c>
+      <c r="B343" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C343">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F343" t="str">
+        <f t="shared" si="5"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>400</v>
+      </c>
+      <c r="B344" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C344">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F344" t="str">
+        <f t="shared" si="5"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>400</v>
+      </c>
+      <c r="B345" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C345">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F345" t="str">
+        <f t="shared" si="5"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>400</v>
+      </c>
+      <c r="B346" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C346">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F346" t="str">
+        <f t="shared" si="5"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>400</v>
+      </c>
+      <c r="B347" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C347">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F347" t="str">
+        <f t="shared" si="5"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>400</v>
+      </c>
+      <c r="B348" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C348">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F348" t="str">
+        <f t="shared" si="5"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>400</v>
+      </c>
+      <c r="B349" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C349">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F349" t="str">
+        <f t="shared" si="5"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>400</v>
+      </c>
+      <c r="B350" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C350">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F350" t="str">
+        <f t="shared" si="5"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>400</v>
+      </c>
+      <c r="B351" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C351">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F351" t="str">
+        <f t="shared" si="5"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>400</v>
+      </c>
+      <c r="B352" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C352">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F352" t="str">
+        <f t="shared" si="5"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>400</v>
+      </c>
+      <c r="B353" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C353">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F353" t="str">
+        <f t="shared" si="5"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>400</v>
+      </c>
+      <c r="B354" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C354">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F354" t="str">
+        <f t="shared" si="5"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>400</v>
+      </c>
+      <c r="B355" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C355">
+        <v>0.519401</v>
+      </c>
+      <c r="F355" t="str">
+        <f t="shared" si="5"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>400</v>
+      </c>
+      <c r="B356" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C356">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F356" t="str">
+        <f t="shared" si="5"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>400</v>
+      </c>
+      <c r="B357" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C357">
+        <v>0</v>
+      </c>
+      <c r="F357" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>400</v>
+      </c>
+      <c r="B358" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C358">
+        <v>0</v>
+      </c>
+      <c r="F358" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>400</v>
+      </c>
+      <c r="B359" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C359">
+        <v>0</v>
+      </c>
+      <c r="F359" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>400</v>
+      </c>
+      <c r="B360" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C360">
+        <v>0</v>
+      </c>
+      <c r="F360" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>425</v>
+      </c>
+      <c r="B361" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C361">
+        <v>0</v>
+      </c>
+      <c r="F361" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>425</v>
+      </c>
+      <c r="B362" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C362">
+        <v>0</v>
+      </c>
+      <c r="F362" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>425</v>
+      </c>
+      <c r="B363" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C363">
+        <v>0</v>
+      </c>
+      <c r="F363" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>425</v>
+      </c>
+      <c r="B364" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C364">
+        <v>0</v>
+      </c>
+      <c r="F364" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>425</v>
+      </c>
+      <c r="B365" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C365">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F365" t="str">
+        <f t="shared" si="5"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>425</v>
+      </c>
+      <c r="B366" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C366">
+        <v>0.846715</v>
+      </c>
+      <c r="F366" t="str">
+        <f t="shared" si="5"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>425</v>
+      </c>
+      <c r="B367" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C367">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F367" t="str">
+        <f t="shared" si="5"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>425</v>
+      </c>
+      <c r="B368" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C368">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F368" t="str">
+        <f t="shared" si="5"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>425</v>
+      </c>
+      <c r="B369" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C369">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F369" t="str">
+        <f t="shared" si="5"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>425</v>
+      </c>
+      <c r="B370" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C370">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F370" t="str">
+        <f t="shared" si="5"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>425</v>
+      </c>
+      <c r="B371" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C371">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F371" t="str">
+        <f t="shared" si="5"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>425</v>
+      </c>
+      <c r="B372" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C372">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F372" t="str">
+        <f t="shared" si="5"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>425</v>
+      </c>
+      <c r="B373" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C373">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F373" t="str">
+        <f t="shared" si="5"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>425</v>
+      </c>
+      <c r="B374" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C374">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F374" t="str">
+        <f t="shared" si="5"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>425</v>
+      </c>
+      <c r="B375" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C375">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F375" t="str">
+        <f t="shared" si="5"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>425</v>
+      </c>
+      <c r="B376" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C376">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F376" t="str">
+        <f t="shared" si="5"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>425</v>
+      </c>
+      <c r="B377" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C377">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F377" t="str">
+        <f t="shared" si="5"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>425</v>
+      </c>
+      <c r="B378" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C378">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F378" t="str">
+        <f t="shared" si="5"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>425</v>
+      </c>
+      <c r="B379" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C379">
+        <v>0.519401</v>
+      </c>
+      <c r="F379" t="str">
+        <f t="shared" si="5"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>425</v>
+      </c>
+      <c r="B380" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C380">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F380" t="str">
+        <f t="shared" si="5"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>425</v>
+      </c>
+      <c r="B381" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C381">
+        <v>0</v>
+      </c>
+      <c r="F381" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>425</v>
+      </c>
+      <c r="B382" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C382">
+        <v>0</v>
+      </c>
+      <c r="F382" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>425</v>
+      </c>
+      <c r="B383" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C383">
+        <v>0</v>
+      </c>
+      <c r="F383" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>425</v>
+      </c>
+      <c r="B384" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C384">
+        <v>0</v>
+      </c>
+      <c r="F384" t="str">
+        <f t="shared" si="5"/>
+        <v>0,0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>450</v>
+      </c>
+      <c r="B385" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C385">
+        <v>0</v>
+      </c>
+      <c r="F385" t="str">
+        <f t="shared" ref="F385:F448" si="6">C385&amp;","&amp;F386</f>
+        <v>0,0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>450</v>
+      </c>
+      <c r="B386" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C386">
+        <v>0</v>
+      </c>
+      <c r="F386" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>450</v>
+      </c>
+      <c r="B387" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C387">
+        <v>0</v>
+      </c>
+      <c r="F387" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>450</v>
+      </c>
+      <c r="B388" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C388">
+        <v>0</v>
+      </c>
+      <c r="F388" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>450</v>
+      </c>
+      <c r="B389" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C389">
+        <v>0.85403099999999998</v>
+      </c>
+      <c r="F389" t="str">
+        <f t="shared" si="6"/>
+        <v>0.854031,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>450</v>
+      </c>
+      <c r="B390" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C390">
+        <v>0.846715</v>
+      </c>
+      <c r="F390" t="str">
+        <f t="shared" si="6"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>450</v>
+      </c>
+      <c r="B391" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C391">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F391" t="str">
+        <f t="shared" si="6"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>450</v>
+      </c>
+      <c r="B392" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C392">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F392" t="str">
+        <f t="shared" si="6"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>450</v>
+      </c>
+      <c r="B393" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C393">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F393" t="str">
+        <f t="shared" si="6"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>450</v>
+      </c>
+      <c r="B394" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C394">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F394" t="str">
+        <f t="shared" si="6"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>450</v>
+      </c>
+      <c r="B395" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C395">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F395" t="str">
+        <f t="shared" si="6"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>450</v>
+      </c>
+      <c r="B396" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C396">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F396" t="str">
+        <f t="shared" si="6"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>450</v>
+      </c>
+      <c r="B397" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C397">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F397" t="str">
+        <f t="shared" si="6"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>450</v>
+      </c>
+      <c r="B398" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C398">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F398" t="str">
+        <f t="shared" si="6"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>450</v>
+      </c>
+      <c r="B399" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C399">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F399" t="str">
+        <f t="shared" si="6"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>450</v>
+      </c>
+      <c r="B400" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C400">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F400" t="str">
+        <f t="shared" si="6"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>450</v>
+      </c>
+      <c r="B401" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C401">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F401" t="str">
+        <f t="shared" si="6"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>450</v>
+      </c>
+      <c r="B402" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C402">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F402" t="str">
+        <f t="shared" si="6"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>450</v>
+      </c>
+      <c r="B403" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C403">
+        <v>0.519401</v>
+      </c>
+      <c r="F403" t="str">
+        <f t="shared" si="6"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>450</v>
+      </c>
+      <c r="B404" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C404">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F404" t="str">
+        <f t="shared" si="6"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>450</v>
+      </c>
+      <c r="B405" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C405">
+        <v>0</v>
+      </c>
+      <c r="F405" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>450</v>
+      </c>
+      <c r="B406" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C406">
+        <v>0</v>
+      </c>
+      <c r="F406" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>450</v>
+      </c>
+      <c r="B407" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C407">
+        <v>0</v>
+      </c>
+      <c r="F407" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>450</v>
+      </c>
+      <c r="B408" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C408">
+        <v>0</v>
+      </c>
+      <c r="F408" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>475</v>
+      </c>
+      <c r="B409" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C409">
+        <v>0</v>
+      </c>
+      <c r="F409" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>475</v>
+      </c>
+      <c r="B410" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C410">
+        <v>0</v>
+      </c>
+      <c r="F410" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>475</v>
+      </c>
+      <c r="B411" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C411">
+        <v>0</v>
+      </c>
+      <c r="F411" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>475</v>
+      </c>
+      <c r="B412" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C412">
+        <v>0</v>
+      </c>
+      <c r="F412" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>475</v>
+      </c>
+      <c r="B413" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C413">
+        <v>0</v>
+      </c>
+      <c r="F413" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>475</v>
+      </c>
+      <c r="B414" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C414">
+        <v>0.846715</v>
+      </c>
+      <c r="F414" t="str">
+        <f t="shared" si="6"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>475</v>
+      </c>
+      <c r="B415" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C415">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F415" t="str">
+        <f t="shared" si="6"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>475</v>
+      </c>
+      <c r="B416" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C416">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F416" t="str">
+        <f t="shared" si="6"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>475</v>
+      </c>
+      <c r="B417" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C417">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F417" t="str">
+        <f t="shared" si="6"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>475</v>
+      </c>
+      <c r="B418" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C418">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F418" t="str">
+        <f t="shared" si="6"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>475</v>
+      </c>
+      <c r="B419" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C419">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F419" t="str">
+        <f t="shared" si="6"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>475</v>
+      </c>
+      <c r="B420" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C420">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F420" t="str">
+        <f t="shared" si="6"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>475</v>
+      </c>
+      <c r="B421" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C421">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F421" t="str">
+        <f t="shared" si="6"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>475</v>
+      </c>
+      <c r="B422" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C422">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F422" t="str">
+        <f t="shared" si="6"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>475</v>
+      </c>
+      <c r="B423" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C423">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F423" t="str">
+        <f t="shared" si="6"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>475</v>
+      </c>
+      <c r="B424" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C424">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F424" t="str">
+        <f t="shared" si="6"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>475</v>
+      </c>
+      <c r="B425" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C425">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F425" t="str">
+        <f t="shared" si="6"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>475</v>
+      </c>
+      <c r="B426" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C426">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F426" t="str">
+        <f t="shared" si="6"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>475</v>
+      </c>
+      <c r="B427" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C427">
+        <v>0.519401</v>
+      </c>
+      <c r="F427" t="str">
+        <f t="shared" si="6"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>475</v>
+      </c>
+      <c r="B428" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C428">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F428" t="str">
+        <f t="shared" si="6"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>475</v>
+      </c>
+      <c r="B429" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+      <c r="F429" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>475</v>
+      </c>
+      <c r="B430" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+      <c r="F430" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>475</v>
+      </c>
+      <c r="B431" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+      <c r="F431" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>475</v>
+      </c>
+      <c r="B432" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+      <c r="F432" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>500</v>
+      </c>
+      <c r="B433" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+      <c r="F433" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>500</v>
+      </c>
+      <c r="B434" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+      <c r="F434" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>500</v>
+      </c>
+      <c r="B435" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+      <c r="F435" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>500</v>
+      </c>
+      <c r="B436" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+      <c r="F436" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>500</v>
+      </c>
+      <c r="B437" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+      <c r="F437" t="str">
+        <f t="shared" si="6"/>
+        <v>0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>500</v>
+      </c>
+      <c r="B438" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C438">
+        <v>0.846715</v>
+      </c>
+      <c r="F438" t="str">
+        <f t="shared" si="6"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>500</v>
+      </c>
+      <c r="B439" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C439">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F439" t="str">
+        <f t="shared" si="6"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>500</v>
+      </c>
+      <c r="B440" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C440">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F440" t="str">
+        <f t="shared" si="6"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>500</v>
+      </c>
+      <c r="B441" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C441">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F441" t="str">
+        <f t="shared" si="6"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>500</v>
+      </c>
+      <c r="B442" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C442">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F442" t="str">
+        <f t="shared" si="6"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>500</v>
+      </c>
+      <c r="B443" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C443">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F443" t="str">
+        <f t="shared" si="6"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>500</v>
+      </c>
+      <c r="B444" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C444">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F444" t="str">
+        <f t="shared" si="6"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>500</v>
+      </c>
+      <c r="B445" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C445">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F445" t="str">
+        <f t="shared" si="6"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>500</v>
+      </c>
+      <c r="B446" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C446">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F446" t="str">
+        <f t="shared" si="6"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>500</v>
+      </c>
+      <c r="B447" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C447">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F447" t="str">
+        <f t="shared" si="6"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>500</v>
+      </c>
+      <c r="B448" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C448">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F448" t="str">
+        <f t="shared" si="6"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>500</v>
+      </c>
+      <c r="B449" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C449">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F449" t="str">
+        <f t="shared" ref="F449:F477" si="7">C449&amp;","&amp;F450</f>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>500</v>
+      </c>
+      <c r="B450" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C450">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F450" t="str">
+        <f t="shared" si="7"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>500</v>
+      </c>
+      <c r="B451" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C451">
+        <v>0.519401</v>
+      </c>
+      <c r="F451" t="str">
+        <f t="shared" si="7"/>
+        <v>0.519401,0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>500</v>
+      </c>
+      <c r="B452" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C452">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F452" t="str">
+        <f t="shared" si="7"/>
+        <v>0.478501,0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>500</v>
+      </c>
+      <c r="B453" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C453">
+        <v>0</v>
+      </c>
+      <c r="F453" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>500</v>
+      </c>
+      <c r="B454" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C454">
+        <v>0</v>
+      </c>
+      <c r="F454" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>500</v>
+      </c>
+      <c r="B455" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C455">
+        <v>0</v>
+      </c>
+      <c r="F455" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>500</v>
+      </c>
+      <c r="B456" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C456">
+        <v>0</v>
+      </c>
+      <c r="F456" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>525</v>
+      </c>
+      <c r="B457" s="2">
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+      <c r="F457" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>525</v>
+      </c>
+      <c r="B458" s="2">
+        <v>6.9999999999999999E-6</v>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+      <c r="F458" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>525</v>
+      </c>
+      <c r="B459" s="2">
+        <v>7.9999999999999996E-6</v>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+      <c r="F459" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>525</v>
+      </c>
+      <c r="B460" s="2">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+      <c r="F460" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>525</v>
+      </c>
+      <c r="B461" s="2">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+      <c r="F461" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>525</v>
+      </c>
+      <c r="B462" s="2">
+        <v>1.1E-5</v>
+      </c>
+      <c r="C462">
+        <v>0.846715</v>
+      </c>
+      <c r="F462" t="str">
+        <f t="shared" si="7"/>
+        <v>0.846715,0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>525</v>
+      </c>
+      <c r="B463" s="2">
+        <v>1.2E-5</v>
+      </c>
+      <c r="C463">
+        <v>0.83031299999999997</v>
+      </c>
+      <c r="F463" t="str">
+        <f t="shared" si="7"/>
+        <v>0.830313,0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>525</v>
+      </c>
+      <c r="B464" s="2">
+        <v>1.2999999999999999E-5</v>
+      </c>
+      <c r="C464">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="F464" t="str">
+        <f t="shared" si="7"/>
+        <v>0.824,0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>525</v>
+      </c>
+      <c r="B465" s="2">
+        <v>1.4E-5</v>
+      </c>
+      <c r="C465">
+        <v>0.81084999999999996</v>
+      </c>
+      <c r="F465" t="str">
+        <f t="shared" si="7"/>
+        <v>0.81085,0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>525</v>
+      </c>
+      <c r="B466" s="2">
+        <v>1.5E-5</v>
+      </c>
+      <c r="C466">
+        <v>0.79752100000000004</v>
+      </c>
+      <c r="F466" t="str">
+        <f t="shared" si="7"/>
+        <v>0.797521,0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>525</v>
+      </c>
+      <c r="B467" s="2">
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="C467">
+        <v>0.78061199999999997</v>
+      </c>
+      <c r="F467" t="str">
+        <f t="shared" si="7"/>
+        <v>0.780612,0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>525</v>
+      </c>
+      <c r="B468" s="2">
+        <v>1.7E-5</v>
+      </c>
+      <c r="C468">
+        <v>0.77096399999999998</v>
+      </c>
+      <c r="F468" t="str">
+        <f t="shared" si="7"/>
+        <v>0.770964,0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>525</v>
+      </c>
+      <c r="B469" s="2">
+        <v>1.8E-5</v>
+      </c>
+      <c r="C469">
+        <v>0.74572400000000005</v>
+      </c>
+      <c r="F469" t="str">
+        <f t="shared" si="7"/>
+        <v>0.745724,0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>525</v>
+      </c>
+      <c r="B470" s="2">
+        <v>1.9000000000000001E-5</v>
+      </c>
+      <c r="C470">
+        <v>0.74520900000000001</v>
+      </c>
+      <c r="F470" t="str">
+        <f t="shared" si="7"/>
+        <v>0.745209,0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>525</v>
+      </c>
+      <c r="B471" s="2">
+        <v>2.0000000000000002E-5</v>
+      </c>
+      <c r="C471">
+        <v>0.72080699999999998</v>
+      </c>
+      <c r="F471" t="str">
+        <f t="shared" si="7"/>
+        <v>0.720807,0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>525</v>
+      </c>
+      <c r="B472" s="2">
+        <v>2.0999999999999999E-5</v>
+      </c>
+      <c r="C472">
+        <v>0.68217099999999997</v>
+      </c>
+      <c r="F472" t="str">
+        <f t="shared" si="7"/>
+        <v>0.682171,0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>525</v>
+      </c>
+      <c r="B473" s="2">
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="C473">
+        <v>0.62083699999999997</v>
+      </c>
+      <c r="F473" t="str">
+        <f t="shared" si="7"/>
+        <v>0.620837,0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>525</v>
+      </c>
+      <c r="B474" s="2">
+        <v>2.3E-5</v>
+      </c>
+      <c r="C474">
+        <v>0.55101999999999995</v>
+      </c>
+      <c r="F474" t="str">
+        <f t="shared" si="7"/>
+        <v>0.55102,0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>525</v>
+      </c>
+      <c r="B475" s="2">
+        <v>2.4000000000000001E-5</v>
+      </c>
+      <c r="C475">
+        <v>0.519401</v>
+      </c>
+      <c r="F475" t="str">
+        <f t="shared" si="7"/>
+        <v>0.519401,0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>525</v>
+      </c>
+      <c r="B476" s="2">
+        <v>2.5000000000000001E-5</v>
+      </c>
+      <c r="C476">
+        <v>0.47850100000000001</v>
+      </c>
+      <c r="F476" t="str">
+        <f t="shared" si="7"/>
+        <v>0.478501,0,0,0,0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>525</v>
+      </c>
+      <c r="B477" s="2">
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="C477">
+        <v>0</v>
+      </c>
+      <c r="F477" t="str">
+        <f t="shared" si="7"/>
+        <v>0,0,0,0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>525</v>
+      </c>
+      <c r="B478" s="2">
+        <v>2.6999999999999999E-5</v>
+      </c>
+      <c r="C478">
+        <v>0</v>
+      </c>
+      <c r="F478" t="str">
+        <f>C478&amp;","&amp;F479</f>
+        <v>0,0,0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>525</v>
+      </c>
+      <c r="B479" s="2">
+        <v>2.8E-5</v>
+      </c>
+      <c r="C479">
+        <v>0</v>
+      </c>
+      <c r="F479" t="str">
+        <f>C479&amp;","&amp;F480</f>
+        <v>0,0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>525</v>
+      </c>
+      <c r="B480" s="2">
+        <v>2.9E-5</v>
+      </c>
+      <c r="C480">
+        <v>0</v>
+      </c>
+      <c r="F480">
+        <f>C480</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B481" s="2"/>
+    </row>
+    <row r="482" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B482" s="2"/>
+    </row>
+    <row r="483" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B483" s="2"/>
+    </row>
+    <row r="484" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B484" s="2"/>
+    </row>
+    <row r="485" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B485" s="2"/>
+    </row>
+    <row r="486" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B486" s="2"/>
+    </row>
+    <row r="487" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B487" s="2"/>
+    </row>
+    <row r="488" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B488" s="2"/>
+    </row>
+    <row r="489" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B489" s="2"/>
+    </row>
+    <row r="490" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B490" s="2"/>
+    </row>
+    <row r="491" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B491" s="2"/>
+    </row>
+    <row r="492" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B492" s="2"/>
+    </row>
+    <row r="493" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B493" s="2"/>
+    </row>
+    <row r="494" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B494" s="2"/>
+    </row>
+    <row r="495" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B495" s="2"/>
+    </row>
+    <row r="496" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B496" s="2"/>
+    </row>
+    <row r="497" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B497" s="2"/>
+    </row>
+    <row r="498" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B498" s="2"/>
+    </row>
+    <row r="499" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B499" s="2"/>
+    </row>
+    <row r="500" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B500" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -38359,7 +45623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F6D8D1F-5001-4126-82D2-0C30C9B8B416}">
   <dimension ref="A1:Q81"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>

--- a/Output/25_observations.xlsx
+++ b/Output/25_observations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Master_Thesis\VS_Project\N_Body\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44FEE0CA-018E-4B21-93C2-D918F680BCB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B71321B-6932-4CC2-9D52-B0657A23839D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview_extinction" sheetId="6" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="57">
   <si>
     <t>Mass</t>
   </si>
@@ -195,6 +195,18 @@
   </si>
   <si>
     <t>F1 0.5 - 0.08 error</t>
+  </si>
+  <si>
+    <t>avgVel2DCluster</t>
+  </si>
+  <si>
+    <t>avgVel2DFS</t>
+  </si>
+  <si>
+    <t>disp2DCluster</t>
+  </si>
+  <si>
+    <t>disp2DFS</t>
   </si>
 </sst>
 </file>
@@ -530,7 +542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6C7D530-1791-4814-8A4A-F65FDE59479A}">
   <dimension ref="A1:AU54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" workbookViewId="0">
+    <sheetView topLeftCell="AD1" workbookViewId="0">
       <selection activeCell="AT30" sqref="AT30"/>
     </sheetView>
   </sheetViews>
@@ -9297,16 +9309,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FE33EE6-187E-4D1E-A5E0-2AA8C6D39B6C}">
-  <dimension ref="A1:AQ251"/>
+  <dimension ref="A1:AV251"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A173" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AO2" sqref="AO2"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AW26" sqref="AW26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9430,8 +9442,20 @@
       <c r="AQ1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="2" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>180</v>
       </c>
@@ -9563,8 +9587,20 @@
         <f t="shared" si="1"/>
         <v>0.69899359560841723</v>
       </c>
-    </row>
-    <row r="3" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS2">
+        <v>3.1071614962760001E-3</v>
+      </c>
+      <c r="AT2">
+        <v>8.5786205757489992E-3</v>
+      </c>
+      <c r="AU2">
+        <v>1.9554397204E-5</v>
+      </c>
+      <c r="AV2">
+        <v>7.1607978921320002E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>180</v>
       </c>
@@ -9696,8 +9732,20 @@
         <f t="shared" ref="AQ3:AQ66" si="8">W3/(W3+ 0.5*(S3+K3+AA3))</f>
         <v>0.72533333333333339</v>
       </c>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS3">
+        <v>3.1071614962989999E-3</v>
+      </c>
+      <c r="AT3">
+        <v>8.4019190028980003E-3</v>
+      </c>
+      <c r="AU3">
+        <v>1.9554397208000001E-5</v>
+      </c>
+      <c r="AV3">
+        <v>7.2070700600790003E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>180</v>
       </c>
@@ -9829,8 +9877,20 @@
         <f t="shared" si="8"/>
         <v>0.62595419847328249</v>
       </c>
-    </row>
-    <row r="5" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS4">
+        <v>3.1071614963E-3</v>
+      </c>
+      <c r="AT4">
+        <v>7.9311195384489993E-3</v>
+      </c>
+      <c r="AU4">
+        <v>1.9554397206000001E-5</v>
+      </c>
+      <c r="AV4">
+        <v>4.9621253300889999E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>180</v>
       </c>
@@ -9962,8 +10022,20 @@
         <f t="shared" si="8"/>
         <v>0.58242843040473835</v>
       </c>
-    </row>
-    <row r="6" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS5">
+        <v>3.107161496281E-3</v>
+      </c>
+      <c r="AT5">
+        <v>8.5230254120430005E-3</v>
+      </c>
+      <c r="AU5">
+        <v>1.9554397209999998E-5</v>
+      </c>
+      <c r="AV5">
+        <v>7.3177624167179997E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>180</v>
       </c>
@@ -10095,8 +10167,20 @@
         <f t="shared" si="8"/>
         <v>0.60903732809430255</v>
       </c>
-    </row>
-    <row r="7" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS6">
+        <v>3.109814878513E-3</v>
+      </c>
+      <c r="AT6">
+        <v>8.0433842938260006E-3</v>
+      </c>
+      <c r="AU6">
+        <v>9.8421557080999994E-5</v>
+      </c>
+      <c r="AV6">
+        <v>5.6784174040400001E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>180</v>
       </c>
@@ -10228,8 +10312,20 @@
         <f t="shared" si="8"/>
         <v>0.605759682224429</v>
       </c>
-    </row>
-    <row r="8" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS7">
+        <v>3.107161496268E-3</v>
+      </c>
+      <c r="AT7">
+        <v>8.4226372439109992E-3</v>
+      </c>
+      <c r="AU7">
+        <v>1.9554397207000001E-5</v>
+      </c>
+      <c r="AV7">
+        <v>7.5208181790790002E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>180</v>
       </c>
@@ -10361,8 +10457,20 @@
         <f t="shared" si="8"/>
         <v>0.598825831702544</v>
       </c>
-    </row>
-    <row r="9" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS8">
+        <v>3.1071614962700001E-3</v>
+      </c>
+      <c r="AT8">
+        <v>8.2579384911229993E-3</v>
+      </c>
+      <c r="AU8">
+        <v>1.9554397215E-5</v>
+      </c>
+      <c r="AV8">
+        <v>7.1156637839E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>180</v>
       </c>
@@ -10494,8 +10602,20 @@
         <f t="shared" si="8"/>
         <v>0.66228893058161353</v>
       </c>
-    </row>
-    <row r="10" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS9">
+        <v>3.107161496294E-3</v>
+      </c>
+      <c r="AT9">
+        <v>8.1708486855000002E-3</v>
+      </c>
+      <c r="AU9">
+        <v>1.9554397209999998E-5</v>
+      </c>
+      <c r="AV9">
+        <v>5.3212352944019999E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>180</v>
       </c>
@@ -10627,8 +10747,20 @@
         <f t="shared" si="8"/>
         <v>0.58984375</v>
       </c>
-    </row>
-    <row r="11" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS10">
+        <v>3.107161496274E-3</v>
+      </c>
+      <c r="AT10">
+        <v>8.2828874881139998E-3</v>
+      </c>
+      <c r="AU10">
+        <v>1.9554397214E-5</v>
+      </c>
+      <c r="AV10">
+        <v>8.388240556212E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>180</v>
       </c>
@@ -10760,8 +10892,20 @@
         <f t="shared" si="8"/>
         <v>0.63809523809523805</v>
       </c>
-    </row>
-    <row r="12" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS11">
+        <v>3.1071614963039998E-3</v>
+      </c>
+      <c r="AT11">
+        <v>8.0031790067400001E-3</v>
+      </c>
+      <c r="AU11">
+        <v>1.9554397209999998E-5</v>
+      </c>
+      <c r="AV11">
+        <v>6.8540036294079997E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>180</v>
       </c>
@@ -10893,8 +11037,20 @@
         <f t="shared" si="8"/>
         <v>0.81924050632911394</v>
       </c>
-    </row>
-    <row r="13" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS12">
+        <v>3.105925364871E-3</v>
+      </c>
+      <c r="AT12">
+        <v>8.4719082256890007E-3</v>
+      </c>
+      <c r="AU12">
+        <v>6.5686870774000006E-5</v>
+      </c>
+      <c r="AV12">
+        <v>6.774360540578E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>180</v>
       </c>
@@ -11026,8 +11182,20 @@
         <f t="shared" si="8"/>
         <v>0.82525252525252524</v>
       </c>
-    </row>
-    <row r="14" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS13">
+        <v>3.107051097764E-3</v>
+      </c>
+      <c r="AT13">
+        <v>8.0632851366690007E-3</v>
+      </c>
+      <c r="AU13">
+        <v>2.8958291796000001E-5</v>
+      </c>
+      <c r="AV13">
+        <v>6.4962799113580001E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>180</v>
       </c>
@@ -11159,8 +11327,20 @@
         <f t="shared" si="8"/>
         <v>0.79547790339157243</v>
       </c>
-    </row>
-    <row r="15" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS14">
+        <v>3.1070510977629999E-3</v>
+      </c>
+      <c r="AT14">
+        <v>8.0232820164379999E-3</v>
+      </c>
+      <c r="AU14">
+        <v>2.8958291797000001E-5</v>
+      </c>
+      <c r="AV14">
+        <v>5.4461868932480003E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>180</v>
       </c>
@@ -11292,8 +11472,20 @@
         <f t="shared" si="8"/>
         <v>0.80894308943089432</v>
       </c>
-    </row>
-    <row r="16" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS15">
+        <v>3.107051097764E-3</v>
+      </c>
+      <c r="AT15">
+        <v>8.0247474161439999E-3</v>
+      </c>
+      <c r="AU15">
+        <v>2.8958291796000001E-5</v>
+      </c>
+      <c r="AV15">
+        <v>5.5980129913099997E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>180</v>
       </c>
@@ -11425,8 +11617,20 @@
         <f t="shared" si="8"/>
         <v>0.80371900826446285</v>
       </c>
-    </row>
-    <row r="17" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS16">
+        <v>3.1070510977629999E-3</v>
+      </c>
+      <c r="AT16">
+        <v>8.0565009256310001E-3</v>
+      </c>
+      <c r="AU16">
+        <v>2.8958291796000001E-5</v>
+      </c>
+      <c r="AV16">
+        <v>5.1828864325399997E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>180</v>
       </c>
@@ -11558,8 +11762,20 @@
         <f t="shared" si="8"/>
         <v>0.81287726358148893</v>
       </c>
-    </row>
-    <row r="18" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS17">
+        <v>3.1070510977629999E-3</v>
+      </c>
+      <c r="AT17">
+        <v>8.3267873055469996E-3</v>
+      </c>
+      <c r="AU17">
+        <v>2.8958291796000001E-5</v>
+      </c>
+      <c r="AV17">
+        <v>7.1290044645909998E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>180</v>
       </c>
@@ -11691,8 +11907,20 @@
         <f t="shared" si="8"/>
         <v>0.81568228105906315</v>
       </c>
-    </row>
-    <row r="19" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS18">
+        <v>3.1070510977650001E-3</v>
+      </c>
+      <c r="AT18">
+        <v>8.2356647374330003E-3</v>
+      </c>
+      <c r="AU18">
+        <v>2.8958291796000001E-5</v>
+      </c>
+      <c r="AV18">
+        <v>5.3362477779270003E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>180</v>
       </c>
@@ -11824,8 +12052,20 @@
         <f t="shared" si="8"/>
         <v>0.82423635453179767</v>
       </c>
-    </row>
-    <row r="20" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS19">
+        <v>3.107051097764E-3</v>
+      </c>
+      <c r="AT19">
+        <v>8.2821298975570001E-3</v>
+      </c>
+      <c r="AU19">
+        <v>2.8958291796000001E-5</v>
+      </c>
+      <c r="AV19">
+        <v>5.5249124437260003E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>180</v>
       </c>
@@ -11957,8 +12197,20 @@
         <f t="shared" si="8"/>
         <v>0.81209068010075569</v>
       </c>
-    </row>
-    <row r="21" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS20">
+        <v>3.1070510977650001E-3</v>
+      </c>
+      <c r="AT20">
+        <v>7.9935255857840008E-3</v>
+      </c>
+      <c r="AU20">
+        <v>2.8958291797000001E-5</v>
+      </c>
+      <c r="AV20">
+        <v>5.4576702245070002E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>180</v>
       </c>
@@ -12090,8 +12342,20 @@
         <f t="shared" si="8"/>
         <v>0.80716112531969308</v>
       </c>
-    </row>
-    <row r="22" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS21">
+        <v>3.1070510977629999E-3</v>
+      </c>
+      <c r="AT21">
+        <v>7.948288159111E-3</v>
+      </c>
+      <c r="AU21">
+        <v>2.8958291797000001E-5</v>
+      </c>
+      <c r="AV21">
+        <v>6.0720143638589999E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>180</v>
       </c>
@@ -12223,8 +12487,20 @@
         <f t="shared" si="8"/>
         <v>0.84012345679012346</v>
       </c>
-    </row>
-    <row r="23" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS22">
+        <v>3.1064026383460001E-3</v>
+      </c>
+      <c r="AT22">
+        <v>8.6073423703200008E-3</v>
+      </c>
+      <c r="AU22">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV22">
+        <v>8.0804243457010001E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>180</v>
       </c>
@@ -12356,8 +12632,20 @@
         <f t="shared" si="8"/>
         <v>0.85230024213075062</v>
       </c>
-    </row>
-    <row r="24" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS23">
+        <v>3.1064026383470001E-3</v>
+      </c>
+      <c r="AT23">
+        <v>8.7026021201959992E-3</v>
+      </c>
+      <c r="AU23">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV23">
+        <v>7.214013669288E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>180</v>
       </c>
@@ -12489,8 +12777,20 @@
         <f t="shared" si="8"/>
         <v>0.84870403857745635</v>
       </c>
-    </row>
-    <row r="25" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS24">
+        <v>3.1078596759950001E-3</v>
+      </c>
+      <c r="AT24">
+        <v>8.4376024283359993E-3</v>
+      </c>
+      <c r="AU24">
+        <v>1.60832805164E-4</v>
+      </c>
+      <c r="AV24">
+        <v>6.3700498328469997E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>180</v>
       </c>
@@ -12622,8 +12922,20 @@
         <f t="shared" si="8"/>
         <v>0.83952132555998771</v>
       </c>
-    </row>
-    <row r="26" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS25">
+        <v>3.1068182150309999E-3</v>
+      </c>
+      <c r="AT25">
+        <v>7.8654764398549994E-3</v>
+      </c>
+      <c r="AU25">
+        <v>1.14987214561E-4</v>
+      </c>
+      <c r="AV25">
+        <v>4.4863819738349998E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>180</v>
       </c>
@@ -12755,8 +13067,20 @@
         <f t="shared" si="8"/>
         <v>0.85912518853695319</v>
       </c>
-    </row>
-    <row r="27" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS26">
+        <v>3.1064026383460001E-3</v>
+      </c>
+      <c r="AT26">
+        <v>8.2792638123049996E-3</v>
+      </c>
+      <c r="AU26">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV26">
+        <v>6.6864361102909999E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>180</v>
       </c>
@@ -12888,8 +13212,20 @@
         <f t="shared" si="8"/>
         <v>0.8567990373044525</v>
       </c>
-    </row>
-    <row r="28" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS27">
+        <v>3.1064026383470001E-3</v>
+      </c>
+      <c r="AT27">
+        <v>7.9856280732990004E-3</v>
+      </c>
+      <c r="AU27">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV27">
+        <v>4.4575741348300002E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>180</v>
       </c>
@@ -13021,8 +13357,20 @@
         <f t="shared" si="8"/>
         <v>0.84924012158054707</v>
       </c>
-    </row>
-    <row r="29" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS28">
+        <v>3.1064026383470001E-3</v>
+      </c>
+      <c r="AT28">
+        <v>8.1166110114199996E-3</v>
+      </c>
+      <c r="AU28">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV28">
+        <v>4.9416520990880003E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>180</v>
       </c>
@@ -13154,8 +13502,20 @@
         <f t="shared" si="8"/>
         <v>0.84088834803772439</v>
       </c>
-    </row>
-    <row r="30" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS29">
+        <v>3.1064026383460001E-3</v>
+      </c>
+      <c r="AT29">
+        <v>8.4177760466219997E-3</v>
+      </c>
+      <c r="AU29">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV29">
+        <v>6.4541650417220004E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>180</v>
       </c>
@@ -13287,8 +13647,20 @@
         <f t="shared" si="8"/>
         <v>0.84711626487641134</v>
       </c>
-    </row>
-    <row r="31" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS30">
+        <v>3.1064026383470001E-3</v>
+      </c>
+      <c r="AT30">
+        <v>8.293071985498E-3</v>
+      </c>
+      <c r="AU30">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV30">
+        <v>7.7549171168990001E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>180</v>
       </c>
@@ -13420,8 +13792,20 @@
         <f t="shared" si="8"/>
         <v>0.84188034188034189</v>
       </c>
-    </row>
-    <row r="32" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS31">
+        <v>3.1064026383470001E-3</v>
+      </c>
+      <c r="AT31">
+        <v>8.3347870520559999E-3</v>
+      </c>
+      <c r="AU31">
+        <v>1.09708742364E-4</v>
+      </c>
+      <c r="AV31">
+        <v>5.7880453569620002E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>180</v>
       </c>
@@ -13553,8 +13937,20 @@
         <f t="shared" si="8"/>
         <v>0.92254774048155619</v>
       </c>
-    </row>
-    <row r="33" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS32">
+        <v>3.105571304895E-3</v>
+      </c>
+      <c r="AT32">
+        <v>8.5757981372060008E-3</v>
+      </c>
+      <c r="AU32">
+        <v>9.8263484595999997E-5</v>
+      </c>
+      <c r="AV32">
+        <v>6.4141483645400003E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>180</v>
       </c>
@@ -13686,8 +14082,20 @@
         <f t="shared" si="8"/>
         <v>0.92491145218417947</v>
       </c>
-    </row>
-    <row r="34" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS33">
+        <v>3.1054678840450002E-3</v>
+      </c>
+      <c r="AT33">
+        <v>8.2708352016490003E-3</v>
+      </c>
+      <c r="AU33">
+        <v>9.4703931474000001E-5</v>
+      </c>
+      <c r="AV33">
+        <v>5.8487293864099999E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>180</v>
       </c>
@@ -13819,8 +14227,20 @@
         <f t="shared" si="8"/>
         <v>0.92971057294743065</v>
       </c>
-    </row>
-    <row r="35" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS34">
+        <v>3.1083915019799999E-3</v>
+      </c>
+      <c r="AT34">
+        <v>8.0877747630720004E-3</v>
+      </c>
+      <c r="AU34">
+        <v>3.1449700635199999E-4</v>
+      </c>
+      <c r="AV34">
+        <v>6.1468824373799996E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>180</v>
       </c>
@@ -13952,8 +14372,20 @@
         <f t="shared" si="8"/>
         <v>0.92980382888206092</v>
       </c>
-    </row>
-    <row r="36" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS35">
+        <v>3.1052477996669999E-3</v>
+      </c>
+      <c r="AT35">
+        <v>8.0432067834130001E-3</v>
+      </c>
+      <c r="AU35">
+        <v>9.7567673187999996E-5</v>
+      </c>
+      <c r="AV35">
+        <v>5.9416187487200001E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>180</v>
       </c>
@@ -14085,8 +14517,20 @@
         <f t="shared" si="8"/>
         <v>0.9236976385427792</v>
       </c>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS36">
+        <v>3.1054288380359999E-3</v>
+      </c>
+      <c r="AT36">
+        <v>8.5395429748999999E-3</v>
+      </c>
+      <c r="AU36">
+        <v>9.4607336635999997E-5</v>
+      </c>
+      <c r="AV36">
+        <v>7.2936160096430001E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>180</v>
       </c>
@@ -14218,8 +14662,20 @@
         <f t="shared" si="8"/>
         <v>0.92739823851463932</v>
       </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS37">
+        <v>3.1054288380359999E-3</v>
+      </c>
+      <c r="AT37">
+        <v>8.1978897485690001E-3</v>
+      </c>
+      <c r="AU37">
+        <v>9.4607336635999997E-5</v>
+      </c>
+      <c r="AV37">
+        <v>6.1898342568009997E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>180</v>
       </c>
@@ -14351,8 +14807,20 @@
         <f t="shared" si="8"/>
         <v>0.92329545454545459</v>
       </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS38">
+        <v>3.1054023813080001E-3</v>
+      </c>
+      <c r="AT38">
+        <v>7.9842973865329996E-3</v>
+      </c>
+      <c r="AU38">
+        <v>9.4692178739999995E-5</v>
+      </c>
+      <c r="AV38">
+        <v>5.0423339171980002E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>180</v>
       </c>
@@ -14484,8 +14952,20 @@
         <f t="shared" si="8"/>
         <v>0.92530973451327436</v>
       </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS39">
+        <v>3.1054288380349998E-3</v>
+      </c>
+      <c r="AT39">
+        <v>8.4339478152470008E-3</v>
+      </c>
+      <c r="AU39">
+        <v>9.4607336635999997E-5</v>
+      </c>
+      <c r="AV39">
+        <v>5.7529289621429999E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>180</v>
       </c>
@@ -14617,8 +15097,20 @@
         <f t="shared" si="8"/>
         <v>0.92000949442202706</v>
       </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS40">
+        <v>3.1054288380359999E-3</v>
+      </c>
+      <c r="AT40">
+        <v>8.2779066277279996E-3</v>
+      </c>
+      <c r="AU40">
+        <v>9.4607336635999997E-5</v>
+      </c>
+      <c r="AV40">
+        <v>8.9762914990249992E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>180</v>
       </c>
@@ -14750,8 +15242,20 @@
         <f t="shared" si="8"/>
         <v>0.92336847092265784</v>
       </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS41">
+        <v>3.1054288380359999E-3</v>
+      </c>
+      <c r="AT41">
+        <v>8.3216934881949998E-3</v>
+      </c>
+      <c r="AU41">
+        <v>9.4607336635999997E-5</v>
+      </c>
+      <c r="AV41">
+        <v>6.1937381029869999E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>180</v>
       </c>
@@ -14883,8 +15387,20 @@
         <f t="shared" si="8"/>
         <v>0.94043798376439491</v>
       </c>
-    </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS42">
+        <v>4.1320457809270001E-3</v>
+      </c>
+      <c r="AT42">
+        <v>7.949616064047E-3</v>
+      </c>
+      <c r="AU42">
+        <v>2.4285187719000001E-4</v>
+      </c>
+      <c r="AV42">
+        <v>4.9904146207029997E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>180</v>
       </c>
@@ -15016,8 +15532,20 @@
         <f t="shared" si="8"/>
         <v>0.94119307489649984</v>
       </c>
-    </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS43">
+        <v>4.1322518089869998E-3</v>
+      </c>
+      <c r="AT43">
+        <v>8.5451938267840002E-3</v>
+      </c>
+      <c r="AU43">
+        <v>2.4110710622000001E-4</v>
+      </c>
+      <c r="AV43">
+        <v>6.2679916697790002E-3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>180</v>
       </c>
@@ -15149,8 +15677,20 @@
         <f t="shared" si="8"/>
         <v>0.9398433128147734</v>
       </c>
-    </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS44">
+        <v>4.1322518089869998E-3</v>
+      </c>
+      <c r="AT44">
+        <v>8.4797232874369993E-3</v>
+      </c>
+      <c r="AU44">
+        <v>2.4110710622000001E-4</v>
+      </c>
+      <c r="AV44">
+        <v>1.3393203020715999E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>180</v>
       </c>
@@ -15282,8 +15822,20 @@
         <f t="shared" si="8"/>
         <v>0.94009779951100247</v>
       </c>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS45">
+        <v>4.1322518089869998E-3</v>
+      </c>
+      <c r="AT45">
+        <v>8.3103739493920002E-3</v>
+      </c>
+      <c r="AU45">
+        <v>2.4110710622000001E-4</v>
+      </c>
+      <c r="AV45">
+        <v>6.3165052927539999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>180</v>
       </c>
@@ -15415,8 +15967,20 @@
         <f t="shared" si="8"/>
         <v>0.94157006879653193</v>
       </c>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS46">
+        <v>4.1323220819499996E-3</v>
+      </c>
+      <c r="AT46">
+        <v>8.6055845575150006E-3</v>
+      </c>
+      <c r="AU46">
+        <v>2.40315297021E-4</v>
+      </c>
+      <c r="AV46">
+        <v>6.7307417494720002E-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>180</v>
       </c>
@@ -15548,8 +16112,20 @@
         <f t="shared" si="8"/>
         <v>0.9393682225365394</v>
       </c>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS47">
+        <v>4.1322518089869998E-3</v>
+      </c>
+      <c r="AT47">
+        <v>8.0730507856750008E-3</v>
+      </c>
+      <c r="AU47">
+        <v>2.4110710622000001E-4</v>
+      </c>
+      <c r="AV47">
+        <v>5.635101146684E-3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>180</v>
       </c>
@@ -15681,8 +16257,20 @@
         <f t="shared" si="8"/>
         <v>0.9380739345420297</v>
       </c>
-    </row>
-    <row r="49" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS48">
+        <v>4.132146367427E-3</v>
+      </c>
+      <c r="AT48">
+        <v>8.1829283187279996E-3</v>
+      </c>
+      <c r="AU48">
+        <v>2.41980794841E-4</v>
+      </c>
+      <c r="AV48">
+        <v>5.7252291278389999E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>180</v>
       </c>
@@ -15814,8 +16402,20 @@
         <f t="shared" si="8"/>
         <v>0.94242850445382087</v>
       </c>
-    </row>
-    <row r="50" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS49">
+        <v>4.1322518089869998E-3</v>
+      </c>
+      <c r="AT49">
+        <v>8.1132535326060001E-3</v>
+      </c>
+      <c r="AU49">
+        <v>2.4110710622000001E-4</v>
+      </c>
+      <c r="AV49">
+        <v>5.3176181758300004E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>180</v>
       </c>
@@ -15947,8 +16547,20 @@
         <f t="shared" si="8"/>
         <v>0.94070625852259371</v>
       </c>
-    </row>
-    <row r="51" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS50">
+        <v>4.1322518089869998E-3</v>
+      </c>
+      <c r="AT50">
+        <v>7.9834188131669998E-3</v>
+      </c>
+      <c r="AU50">
+        <v>2.4110710622000001E-4</v>
+      </c>
+      <c r="AV50">
+        <v>5.246334671656E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>180</v>
       </c>
@@ -16080,8 +16692,20 @@
         <f t="shared" si="8"/>
         <v>0.93934272300469479</v>
       </c>
-    </row>
-    <row r="52" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS51">
+        <v>4.1321472931420003E-3</v>
+      </c>
+      <c r="AT51">
+        <v>8.0307703681270007E-3</v>
+      </c>
+      <c r="AU51">
+        <v>2.4198121863800001E-4</v>
+      </c>
+      <c r="AV51">
+        <v>5.6681510032830004E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>25</v>
       </c>
@@ -16213,8 +16837,20 @@
         <f t="shared" si="8"/>
         <v>0.68923611111111116</v>
       </c>
-    </row>
-    <row r="53" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS52">
+        <v>3.1623121653259999E-3</v>
+      </c>
+      <c r="AT52">
+        <v>2.1498033574779999E-3</v>
+      </c>
+      <c r="AU52">
+        <v>1.9629798975999999E-5</v>
+      </c>
+      <c r="AV52">
+        <v>1.922349352344E-3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>25</v>
       </c>
@@ -16346,8 +16982,20 @@
         <f t="shared" si="8"/>
         <v>0.54690618762475052</v>
       </c>
-    </row>
-    <row r="54" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS53">
+        <v>3.1623121653350001E-3</v>
+      </c>
+      <c r="AT53">
+        <v>2.1257145753969999E-3</v>
+      </c>
+      <c r="AU53">
+        <v>1.9629798981000001E-5</v>
+      </c>
+      <c r="AV53">
+        <v>1.9757812701670001E-3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>25</v>
       </c>
@@ -16479,8 +17127,20 @@
         <f t="shared" si="8"/>
         <v>0.62114125350795135</v>
       </c>
-    </row>
-    <row r="55" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS54">
+        <v>3.1623121653350001E-3</v>
+      </c>
+      <c r="AT54">
+        <v>2.1202865082050001E-3</v>
+      </c>
+      <c r="AU54">
+        <v>1.9629798953999999E-5</v>
+      </c>
+      <c r="AV54">
+        <v>1.8164772708019999E-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>25</v>
       </c>
@@ -16612,8 +17272,20 @@
         <f t="shared" si="8"/>
         <v>0.58380414312617701</v>
       </c>
-    </row>
-    <row r="56" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS55">
+        <v>3.162312165353E-3</v>
+      </c>
+      <c r="AT55">
+        <v>2.1185419466409998E-3</v>
+      </c>
+      <c r="AU55">
+        <v>1.9629798969E-5</v>
+      </c>
+      <c r="AV55">
+        <v>1.8308845013290001E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>25</v>
       </c>
@@ -16745,8 +17417,20 @@
         <f t="shared" si="8"/>
         <v>0.56521739130434778</v>
       </c>
-    </row>
-    <row r="57" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS56">
+        <v>3.1623121653439998E-3</v>
+      </c>
+      <c r="AT56">
+        <v>2.1114535370789999E-3</v>
+      </c>
+      <c r="AU56">
+        <v>1.9629798973999999E-5</v>
+      </c>
+      <c r="AV56">
+        <v>1.8314950251870001E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>25</v>
       </c>
@@ -16878,8 +17562,20 @@
         <f t="shared" si="8"/>
         <v>0.57170731707317068</v>
       </c>
-    </row>
-    <row r="58" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS57">
+        <v>3.1623121653350001E-3</v>
+      </c>
+      <c r="AT57">
+        <v>2.0971309989099999E-3</v>
+      </c>
+      <c r="AU57">
+        <v>1.9629798978E-5</v>
+      </c>
+      <c r="AV57">
+        <v>1.948374600521E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>25</v>
       </c>
@@ -17011,8 +17707,20 @@
         <f t="shared" si="8"/>
         <v>0.62915129151291516</v>
       </c>
-    </row>
-    <row r="59" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS58">
+        <v>3.1599089274030002E-3</v>
+      </c>
+      <c r="AT58">
+        <v>2.126326581818E-3</v>
+      </c>
+      <c r="AU58">
+        <v>8.9160371730000006E-5</v>
+      </c>
+      <c r="AV58">
+        <v>1.8609200975639999E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>25</v>
       </c>
@@ -17144,8 +17852,20 @@
         <f t="shared" si="8"/>
         <v>0.67314487632508835</v>
       </c>
-    </row>
-    <row r="60" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS59">
+        <v>3.162312165353E-3</v>
+      </c>
+      <c r="AT59">
+        <v>2.1242138354899999E-3</v>
+      </c>
+      <c r="AU59">
+        <v>1.9629798954999999E-5</v>
+      </c>
+      <c r="AV59">
+        <v>1.8508843207630001E-3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>25</v>
       </c>
@@ -17277,8 +17997,20 @@
         <f t="shared" si="8"/>
         <v>0.68755292125317524</v>
       </c>
-    </row>
-    <row r="61" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS60">
+        <v>3.1623121653439998E-3</v>
+      </c>
+      <c r="AT60">
+        <v>2.140333835878E-3</v>
+      </c>
+      <c r="AU60">
+        <v>1.9629798953999999E-5</v>
+      </c>
+      <c r="AV60">
+        <v>1.9030907972350001E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>25</v>
       </c>
@@ -17410,8 +18142,20 @@
         <f t="shared" si="8"/>
         <v>0.66726780883678993</v>
       </c>
-    </row>
-    <row r="62" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS61">
+        <v>3.1623121653439998E-3</v>
+      </c>
+      <c r="AT61">
+        <v>2.1295350930450002E-3</v>
+      </c>
+      <c r="AU61">
+        <v>1.9629798953999999E-5</v>
+      </c>
+      <c r="AV61">
+        <v>1.8698080215450001E-3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>25</v>
       </c>
@@ -17543,8 +18287,20 @@
         <f t="shared" si="8"/>
         <v>0.75754803293687101</v>
       </c>
-    </row>
-    <row r="63" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS62">
+        <v>3.158655545748E-3</v>
+      </c>
+      <c r="AT62">
+        <v>2.14722087744E-3</v>
+      </c>
+      <c r="AU62">
+        <v>1.12431087774E-4</v>
+      </c>
+      <c r="AV62">
+        <v>1.893746974592E-3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>25</v>
       </c>
@@ -17676,8 +18432,20 @@
         <f t="shared" si="8"/>
         <v>0.7630878438331854</v>
       </c>
-    </row>
-    <row r="64" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS63">
+        <v>3.159809560613E-3</v>
+      </c>
+      <c r="AT63">
+        <v>2.149998982258E-3</v>
+      </c>
+      <c r="AU63">
+        <v>9.5111108739E-5</v>
+      </c>
+      <c r="AV63">
+        <v>1.9469762785780001E-3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>25</v>
       </c>
@@ -17809,8 +18577,20 @@
         <f t="shared" si="8"/>
         <v>0.7714663143989432</v>
       </c>
-    </row>
-    <row r="65" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS64">
+        <v>3.159809560568E-3</v>
+      </c>
+      <c r="AT64">
+        <v>2.1116450065170001E-3</v>
+      </c>
+      <c r="AU64">
+        <v>9.5111108794000004E-5</v>
+      </c>
+      <c r="AV64">
+        <v>1.901794539961E-3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>25</v>
       </c>
@@ -17942,8 +18722,20 @@
         <f t="shared" si="8"/>
         <v>0.74898236092265946</v>
       </c>
-    </row>
-    <row r="66" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS65">
+        <v>3.1586600421480001E-3</v>
+      </c>
+      <c r="AT65">
+        <v>2.1060440697310001E-3</v>
+      </c>
+      <c r="AU65">
+        <v>1.12432679952E-4</v>
+      </c>
+      <c r="AV65">
+        <v>1.8546499987249999E-3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>25</v>
       </c>
@@ -18075,8 +18867,20 @@
         <f t="shared" si="8"/>
         <v>0.75670840787119853</v>
       </c>
-    </row>
-    <row r="67" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS66">
+        <v>3.1586711950139998E-3</v>
+      </c>
+      <c r="AT66">
+        <v>2.13820877811E-3</v>
+      </c>
+      <c r="AU66">
+        <v>1.12434472163E-4</v>
+      </c>
+      <c r="AV66">
+        <v>2.0056188980650002E-3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>25</v>
       </c>
@@ -18208,8 +19012,20 @@
         <f t="shared" ref="AQ67:AQ130" si="17">W67/(W67+ 0.5*(S67+K67+AA67))</f>
         <v>0.75034106412005452</v>
       </c>
-    </row>
-    <row r="68" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS67">
+        <v>3.1585247733690001E-3</v>
+      </c>
+      <c r="AT67">
+        <v>2.1361055417279998E-3</v>
+      </c>
+      <c r="AU67">
+        <v>1.12640924549E-4</v>
+      </c>
+      <c r="AV67">
+        <v>1.9197733836029999E-3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>25</v>
       </c>
@@ -18341,8 +19157,20 @@
         <f t="shared" si="17"/>
         <v>0.75481846705513223</v>
       </c>
-    </row>
-    <row r="69" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS68">
+        <v>3.1598095605760001E-3</v>
+      </c>
+      <c r="AT68">
+        <v>2.1397946174809999E-3</v>
+      </c>
+      <c r="AU68">
+        <v>9.5111108790000003E-5</v>
+      </c>
+      <c r="AV68">
+        <v>1.981119760026E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>25</v>
       </c>
@@ -18474,8 +19302,20 @@
         <f t="shared" si="17"/>
         <v>0.68871595330739299</v>
       </c>
-    </row>
-    <row r="70" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS69">
+        <v>3.1603008043160001E-3</v>
+      </c>
+      <c r="AT69">
+        <v>2.118038768993E-3</v>
+      </c>
+      <c r="AU69">
+        <v>1.54015361464E-4</v>
+      </c>
+      <c r="AV69">
+        <v>1.870523548526E-3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>25</v>
       </c>
@@ -18607,8 +19447,20 @@
         <f t="shared" si="17"/>
         <v>0.73424657534246573</v>
       </c>
-    </row>
-    <row r="71" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS70">
+        <v>3.1593604496929998E-3</v>
+      </c>
+      <c r="AT70">
+        <v>2.1372877041749999E-3</v>
+      </c>
+      <c r="AU70">
+        <v>9.8082625871000006E-5</v>
+      </c>
+      <c r="AV70">
+        <v>1.954647185153E-3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>25</v>
       </c>
@@ -18740,8 +19592,20 @@
         <f t="shared" si="17"/>
         <v>0.74053554939981536</v>
       </c>
-    </row>
-    <row r="72" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS71">
+        <v>3.1575279010390002E-3</v>
+      </c>
+      <c r="AT71">
+        <v>2.1486043205699999E-3</v>
+      </c>
+      <c r="AU71">
+        <v>1.27413632548E-4</v>
+      </c>
+      <c r="AV71">
+        <v>1.941356435415E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>25</v>
       </c>
@@ -18873,8 +19737,20 @@
         <f t="shared" si="17"/>
         <v>0.80301129234629864</v>
       </c>
-    </row>
-    <row r="73" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS72">
+        <v>3.1631866779960002E-3</v>
+      </c>
+      <c r="AT72">
+        <v>2.1190244958339999E-3</v>
+      </c>
+      <c r="AU72">
+        <v>1.0290488596E-4</v>
+      </c>
+      <c r="AV72">
+        <v>1.901685707523E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>25</v>
       </c>
@@ -19006,8 +19882,20 @@
         <f t="shared" si="17"/>
         <v>0.81067721206129506</v>
       </c>
-    </row>
-    <row r="74" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS73">
+        <v>3.1647822671329998E-3</v>
+      </c>
+      <c r="AT73">
+        <v>2.1304979398500002E-3</v>
+      </c>
+      <c r="AU73">
+        <v>1.0630787912100001E-4</v>
+      </c>
+      <c r="AV73">
+        <v>1.8835751721369999E-3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>25</v>
       </c>
@@ -19139,8 +20027,20 @@
         <f t="shared" si="17"/>
         <v>0.80239520958083832</v>
       </c>
-    </row>
-    <row r="75" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS74">
+        <v>3.1645596586090002E-3</v>
+      </c>
+      <c r="AT74">
+        <v>2.1267193552219998E-3</v>
+      </c>
+      <c r="AU74">
+        <v>8.0734106646000004E-5</v>
+      </c>
+      <c r="AV74">
+        <v>1.841355296307E-3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>25</v>
       </c>
@@ -19272,8 +20172,20 @@
         <f t="shared" si="17"/>
         <v>0.81046710687209589</v>
       </c>
-    </row>
-    <row r="76" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS75">
+        <v>3.1645596586140001E-3</v>
+      </c>
+      <c r="AT75">
+        <v>2.1313216240629999E-3</v>
+      </c>
+      <c r="AU75">
+        <v>8.0734106645000004E-5</v>
+      </c>
+      <c r="AV75">
+        <v>1.9285866515150001E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>25</v>
       </c>
@@ -19405,8 +20317,20 @@
         <f t="shared" si="17"/>
         <v>0.80588822355289425</v>
       </c>
-    </row>
-    <row r="77" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS76">
+        <v>3.165026586212E-3</v>
+      </c>
+      <c r="AT76">
+        <v>2.1141045298180001E-3</v>
+      </c>
+      <c r="AU76">
+        <v>1.1776393014300001E-4</v>
+      </c>
+      <c r="AV76">
+        <v>1.8035136480090001E-3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>25</v>
       </c>
@@ -19538,8 +20462,20 @@
         <f t="shared" si="17"/>
         <v>0.81165809453832971</v>
       </c>
-    </row>
-    <row r="78" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS77">
+        <v>3.164071454777E-3</v>
+      </c>
+      <c r="AT77">
+        <v>2.1315650509130001E-3</v>
+      </c>
+      <c r="AU77">
+        <v>8.9732881041000004E-5</v>
+      </c>
+      <c r="AV77">
+        <v>1.8542818240600001E-3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>25</v>
       </c>
@@ -19671,8 +20607,20 @@
         <f t="shared" si="17"/>
         <v>0.82306554953178901</v>
       </c>
-    </row>
-    <row r="79" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS78">
+        <v>3.164680105585E-3</v>
+      </c>
+      <c r="AT78">
+        <v>2.1154401449840002E-3</v>
+      </c>
+      <c r="AU78">
+        <v>8.1346458135000006E-5</v>
+      </c>
+      <c r="AV78">
+        <v>1.844522266587E-3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>25</v>
       </c>
@@ -19804,8 +20752,20 @@
         <f t="shared" si="17"/>
         <v>0.80439121756487031</v>
       </c>
-    </row>
-    <row r="80" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS79">
+        <v>3.163580128733E-3</v>
+      </c>
+      <c r="AT79">
+        <v>2.1107674744890001E-3</v>
+      </c>
+      <c r="AU79">
+        <v>9.7904458816999994E-5</v>
+      </c>
+      <c r="AV79">
+        <v>1.8289028017350001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>25</v>
       </c>
@@ -19937,8 +20897,20 @@
         <f t="shared" si="17"/>
         <v>0.81870181546878884</v>
       </c>
-    </row>
-    <row r="81" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS80">
+        <v>3.1653659690860001E-3</v>
+      </c>
+      <c r="AT80">
+        <v>2.1101401823849998E-3</v>
+      </c>
+      <c r="AU80">
+        <v>1.05324080197E-4</v>
+      </c>
+      <c r="AV80">
+        <v>1.8326181768830001E-3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>25</v>
       </c>
@@ -20070,8 +21042,20 @@
         <f t="shared" si="17"/>
         <v>0.80732563973908678</v>
       </c>
-    </row>
-    <row r="82" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS81">
+        <v>3.1651751317619999E-3</v>
+      </c>
+      <c r="AT81">
+        <v>2.135069477005E-3</v>
+      </c>
+      <c r="AU81">
+        <v>9.4950090945000002E-5</v>
+      </c>
+      <c r="AV81">
+        <v>1.820961550987E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>25</v>
       </c>
@@ -20203,8 +21187,20 @@
         <f t="shared" si="17"/>
         <v>0.87034002458009008</v>
       </c>
-    </row>
-    <row r="83" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS82">
+        <v>3.15689167812E-3</v>
+      </c>
+      <c r="AT82">
+        <v>2.1385971470260002E-3</v>
+      </c>
+      <c r="AU82">
+        <v>1.5014755442499999E-4</v>
+      </c>
+      <c r="AV82">
+        <v>1.8513503890969999E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>25</v>
       </c>
@@ -20336,8 +21332,20 @@
         <f t="shared" si="17"/>
         <v>0.86394766431564962</v>
       </c>
-    </row>
-    <row r="84" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS83">
+        <v>3.1576327510919999E-3</v>
+      </c>
+      <c r="AT83">
+        <v>2.129575983366E-3</v>
+      </c>
+      <c r="AU83">
+        <v>1.70324850068E-4</v>
+      </c>
+      <c r="AV83">
+        <v>1.866683375817E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>25</v>
       </c>
@@ -20469,8 +21477,20 @@
         <f t="shared" si="17"/>
         <v>0.87046839109158092</v>
       </c>
-    </row>
-    <row r="85" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS84">
+        <v>3.1568012464760001E-3</v>
+      </c>
+      <c r="AT84">
+        <v>2.1116330626579998E-3</v>
+      </c>
+      <c r="AU84">
+        <v>1.49702057629E-4</v>
+      </c>
+      <c r="AV84">
+        <v>1.92886531716E-3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>25</v>
       </c>
@@ -20602,8 +21622,20 @@
         <f t="shared" si="17"/>
         <v>0.87358642972536349</v>
       </c>
-    </row>
-    <row r="86" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS85">
+        <v>3.156776843584E-3</v>
+      </c>
+      <c r="AT85">
+        <v>2.1404601617970001E-3</v>
+      </c>
+      <c r="AU85">
+        <v>1.53648661314E-4</v>
+      </c>
+      <c r="AV85">
+        <v>1.9685597615120001E-3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>25</v>
       </c>
@@ -20735,8 +21767,20 @@
         <f t="shared" si="17"/>
         <v>0.87275676771773292</v>
       </c>
-    </row>
-    <row r="87" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS86">
+        <v>3.1568641287140001E-3</v>
+      </c>
+      <c r="AT86">
+        <v>2.1233159437889998E-3</v>
+      </c>
+      <c r="AU86">
+        <v>1.4990066632499999E-4</v>
+      </c>
+      <c r="AV86">
+        <v>1.829175205099E-3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>25</v>
       </c>
@@ -20868,8 +21912,20 @@
         <f t="shared" si="17"/>
         <v>0.87787787787787785</v>
       </c>
-    </row>
-    <row r="88" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS87">
+        <v>3.1569251190419999E-3</v>
+      </c>
+      <c r="AT87">
+        <v>2.1247294376709998E-3</v>
+      </c>
+      <c r="AU87">
+        <v>1.5039123405399999E-4</v>
+      </c>
+      <c r="AV87">
+        <v>1.827714743668E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>25</v>
       </c>
@@ -21001,8 +22057,20 @@
         <f t="shared" si="17"/>
         <v>0.87204081632653063</v>
       </c>
-    </row>
-    <row r="89" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS88">
+        <v>3.1562627577850001E-3</v>
+      </c>
+      <c r="AT88">
+        <v>2.1346198787819998E-3</v>
+      </c>
+      <c r="AU88">
+        <v>1.5386755678899999E-4</v>
+      </c>
+      <c r="AV88">
+        <v>2.2762207781840001E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>25</v>
       </c>
@@ -21134,8 +22202,20 @@
         <f t="shared" si="17"/>
         <v>0.86467163721785312</v>
       </c>
-    </row>
-    <row r="90" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS89">
+        <v>3.1570654618249998E-3</v>
+      </c>
+      <c r="AT89">
+        <v>2.1501646551500002E-3</v>
+      </c>
+      <c r="AU89">
+        <v>1.5386171441499999E-4</v>
+      </c>
+      <c r="AV89">
+        <v>1.8847767522319999E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>25</v>
       </c>
@@ -21267,8 +22347,20 @@
         <f t="shared" si="17"/>
         <v>0.88187718422366446</v>
       </c>
-    </row>
-    <row r="91" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS90">
+        <v>3.1568260147549999E-3</v>
+      </c>
+      <c r="AT90">
+        <v>2.1556621517519999E-3</v>
+      </c>
+      <c r="AU90">
+        <v>1.4969319705100001E-4</v>
+      </c>
+      <c r="AV90">
+        <v>1.9151546525359999E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>25</v>
       </c>
@@ -21400,8 +22492,20 @@
         <f t="shared" si="17"/>
         <v>0.87075106859352736</v>
       </c>
-    </row>
-    <row r="92" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS91">
+        <v>3.1567301508080002E-3</v>
+      </c>
+      <c r="AT91">
+        <v>2.1242965199989999E-3</v>
+      </c>
+      <c r="AU91">
+        <v>1.52285225069E-4</v>
+      </c>
+      <c r="AV91">
+        <v>1.962434810941E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>25</v>
       </c>
@@ -21533,8 +22637,20 @@
         <f t="shared" si="17"/>
         <v>0.91749539594843466</v>
       </c>
-    </row>
-    <row r="93" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS92">
+        <v>3.1589753301340001E-3</v>
+      </c>
+      <c r="AT92">
+        <v>2.1189377372189998E-3</v>
+      </c>
+      <c r="AU92">
+        <v>1.56537936401E-4</v>
+      </c>
+      <c r="AV92">
+        <v>1.8301840310430001E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>25</v>
       </c>
@@ -21666,8 +22782,20 @@
         <f t="shared" si="17"/>
         <v>0.91722388747982475</v>
       </c>
-    </row>
-    <row r="94" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS93">
+        <v>3.1585613440899998E-3</v>
+      </c>
+      <c r="AT93">
+        <v>2.1303563736750001E-3</v>
+      </c>
+      <c r="AU93">
+        <v>1.5564900599E-4</v>
+      </c>
+      <c r="AV93">
+        <v>2.1620028645170002E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>25</v>
       </c>
@@ -21799,8 +22927,20 @@
         <f t="shared" si="17"/>
         <v>0.91444884427663686</v>
       </c>
-    </row>
-    <row r="95" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS94">
+        <v>3.1587551688529998E-3</v>
+      </c>
+      <c r="AT94">
+        <v>2.1103483212480002E-3</v>
+      </c>
+      <c r="AU94">
+        <v>1.521410755E-4</v>
+      </c>
+      <c r="AV94">
+        <v>1.8987797298950001E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>25</v>
       </c>
@@ -21932,8 +23072,20 @@
         <f t="shared" si="17"/>
         <v>0.91646623496762258</v>
       </c>
-    </row>
-    <row r="96" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS95">
+        <v>3.1589129178980001E-3</v>
+      </c>
+      <c r="AT95">
+        <v>2.1439480410869998E-3</v>
+      </c>
+      <c r="AU95">
+        <v>1.5051136342E-4</v>
+      </c>
+      <c r="AV95">
+        <v>1.928206476022E-3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>25</v>
       </c>
@@ -22065,8 +23217,20 @@
         <f t="shared" si="17"/>
         <v>0.91777212849549339</v>
       </c>
-    </row>
-    <row r="97" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS96">
+        <v>3.158365562444E-3</v>
+      </c>
+      <c r="AT96">
+        <v>2.105842682217E-3</v>
+      </c>
+      <c r="AU96">
+        <v>1.5613725018399999E-4</v>
+      </c>
+      <c r="AV96">
+        <v>1.923804794965E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>25</v>
       </c>
@@ -22198,8 +23362,20 @@
         <f t="shared" si="17"/>
         <v>0.91424068236603007</v>
       </c>
-    </row>
-    <row r="98" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS97">
+        <v>3.158661189462E-3</v>
+      </c>
+      <c r="AT97">
+        <v>2.1259296542419999E-3</v>
+      </c>
+      <c r="AU97">
+        <v>1.52958388653E-4</v>
+      </c>
+      <c r="AV97">
+        <v>1.8184086088169999E-3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>25</v>
       </c>
@@ -22331,8 +23507,20 @@
         <f t="shared" si="17"/>
         <v>0.91722204348025926</v>
       </c>
-    </row>
-    <row r="99" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS98">
+        <v>3.1584485915290002E-3</v>
+      </c>
+      <c r="AT98">
+        <v>2.1341133878619999E-3</v>
+      </c>
+      <c r="AU98">
+        <v>1.5534785444700001E-4</v>
+      </c>
+      <c r="AV98">
+        <v>1.875586742119E-3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>25</v>
       </c>
@@ -22464,8 +23652,20 @@
         <f t="shared" si="17"/>
         <v>0.91665131700128932</v>
       </c>
-    </row>
-    <row r="100" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS99">
+        <v>3.1587095742850002E-3</v>
+      </c>
+      <c r="AT99">
+        <v>2.131471763805E-3</v>
+      </c>
+      <c r="AU99">
+        <v>1.5213796045199999E-4</v>
+      </c>
+      <c r="AV99">
+        <v>1.9560335641330001E-3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>25</v>
       </c>
@@ -22597,8 +23797,20 @@
         <f t="shared" si="17"/>
         <v>0.91379072017693408</v>
       </c>
-    </row>
-    <row r="101" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS100">
+        <v>3.15838759933E-3</v>
+      </c>
+      <c r="AT100">
+        <v>2.1135466884570002E-3</v>
+      </c>
+      <c r="AU100">
+        <v>1.5573066476899999E-4</v>
+      </c>
+      <c r="AV100">
+        <v>1.861255776195E-3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>25</v>
       </c>
@@ -22730,8 +23942,20 @@
         <f t="shared" si="17"/>
         <v>0.91811870718587651</v>
       </c>
-    </row>
-    <row r="102" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS101">
+        <v>3.1585276318050002E-3</v>
+      </c>
+      <c r="AT101">
+        <v>2.1312108029700001E-3</v>
+      </c>
+      <c r="AU101">
+        <v>1.54546552639E-4</v>
+      </c>
+      <c r="AV101">
+        <v>1.8466191559779999E-3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10</v>
       </c>
@@ -22863,8 +24087,20 @@
         <f t="shared" si="17"/>
         <v>0.44100580270793038</v>
       </c>
-    </row>
-    <row r="103" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS102">
+        <v>2.905833920531E-3</v>
+      </c>
+      <c r="AT102">
+        <v>3.182298936595E-3</v>
+      </c>
+      <c r="AU102">
+        <v>1.9625828674000001E-5</v>
+      </c>
+      <c r="AV102">
+        <v>2.4282695926349999E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>10</v>
       </c>
@@ -22996,8 +24232,20 @@
         <f t="shared" si="17"/>
         <v>0.43175217812197481</v>
       </c>
-    </row>
-    <row r="104" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS103">
+        <v>2.9120086483880002E-3</v>
+      </c>
+      <c r="AT103">
+        <v>3.2117727300590001E-3</v>
+      </c>
+      <c r="AU103">
+        <v>2.3787324288799999E-4</v>
+      </c>
+      <c r="AV103">
+        <v>2.439790655225E-3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>10</v>
       </c>
@@ -23129,8 +24377,20 @@
         <f t="shared" si="17"/>
         <v>0.42136498516320475</v>
       </c>
-    </row>
-    <row r="105" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS104">
+        <v>2.9043897700760002E-3</v>
+      </c>
+      <c r="AT104">
+        <v>3.1965382620410001E-3</v>
+      </c>
+      <c r="AU104">
+        <v>5.5952997480000001E-5</v>
+      </c>
+      <c r="AV104">
+        <v>2.4518383107080001E-3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>10</v>
       </c>
@@ -23262,8 +24522,20 @@
         <f t="shared" si="17"/>
         <v>0.47805788982259573</v>
       </c>
-    </row>
-    <row r="106" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS105">
+        <v>2.9059956044839999E-3</v>
+      </c>
+      <c r="AT105">
+        <v>3.1823245319989998E-3</v>
+      </c>
+      <c r="AU105">
+        <v>2.0382740234000001E-5</v>
+      </c>
+      <c r="AV105">
+        <v>2.4543653198540001E-3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>10</v>
       </c>
@@ -23395,8 +24667,20 @@
         <f t="shared" si="17"/>
         <v>0.43010752688172044</v>
       </c>
-    </row>
-    <row r="107" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS106">
+        <v>2.9070878958649998E-3</v>
+      </c>
+      <c r="AT106">
+        <v>3.1891779546120002E-3</v>
+      </c>
+      <c r="AU106">
+        <v>4.9545550174E-5</v>
+      </c>
+      <c r="AV106">
+        <v>2.456262992112E-3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>10</v>
       </c>
@@ -23528,8 +24812,20 @@
         <f t="shared" si="17"/>
         <v>0.45988258317025438</v>
       </c>
-    </row>
-    <row r="108" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS107">
+        <v>2.9058339205359999E-3</v>
+      </c>
+      <c r="AT107">
+        <v>3.2132097244850001E-3</v>
+      </c>
+      <c r="AU107">
+        <v>1.9625828673E-5</v>
+      </c>
+      <c r="AV107">
+        <v>2.4606561451809999E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>10</v>
       </c>
@@ -23661,8 +24957,20 @@
         <f t="shared" si="17"/>
         <v>0.46332046332046334</v>
       </c>
-    </row>
-    <row r="109" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS108">
+        <v>2.909090211598E-3</v>
+      </c>
+      <c r="AT108">
+        <v>3.1789055888880001E-3</v>
+      </c>
+      <c r="AU108">
+        <v>1.8154078321E-4</v>
+      </c>
+      <c r="AV108">
+        <v>2.4258699193640001E-3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>10</v>
       </c>
@@ -23794,8 +25102,20 @@
         <f t="shared" si="17"/>
         <v>0.42914171656686628</v>
       </c>
-    </row>
-    <row r="110" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS109">
+        <v>2.9058339205270001E-3</v>
+      </c>
+      <c r="AT109">
+        <v>3.207173330003E-3</v>
+      </c>
+      <c r="AU109">
+        <v>1.9625828681E-5</v>
+      </c>
+      <c r="AV109">
+        <v>2.450957680592E-3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>10</v>
       </c>
@@ -23927,8 +25247,20 @@
         <f t="shared" si="17"/>
         <v>0.46153846153846156</v>
       </c>
-    </row>
-    <row r="111" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS110">
+        <v>2.9117415418979998E-3</v>
+      </c>
+      <c r="AT110">
+        <v>3.1845831780849998E-3</v>
+      </c>
+      <c r="AU110">
+        <v>2.1598949536700001E-4</v>
+      </c>
+      <c r="AV110">
+        <v>2.4095426105950001E-3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>10</v>
       </c>
@@ -24060,8 +25392,20 @@
         <f t="shared" si="17"/>
         <v>0.47716682199440819</v>
       </c>
-    </row>
-    <row r="112" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS111">
+        <v>2.9057389321399999E-3</v>
+      </c>
+      <c r="AT111">
+        <v>3.1797926594539999E-3</v>
+      </c>
+      <c r="AU111">
+        <v>1.9896930104000001E-5</v>
+      </c>
+      <c r="AV111">
+        <v>2.4322984036749999E-3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>10</v>
       </c>
@@ -24193,8 +25537,20 @@
         <f t="shared" si="17"/>
         <v>0.60709474629546478</v>
       </c>
-    </row>
-    <row r="113" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS112">
+        <v>2.9041042169049998E-3</v>
+      </c>
+      <c r="AT112">
+        <v>3.2042871114150002E-3</v>
+      </c>
+      <c r="AU112">
+        <v>7.1552035414000002E-5</v>
+      </c>
+      <c r="AV112">
+        <v>2.4638422036080002E-3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>10</v>
       </c>
@@ -24326,8 +25682,20 @@
         <f t="shared" si="17"/>
         <v>0.61402734891927657</v>
       </c>
-    </row>
-    <row r="114" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS113">
+        <v>2.907772859785E-3</v>
+      </c>
+      <c r="AT113">
+        <v>3.208492820165E-3</v>
+      </c>
+      <c r="AU113">
+        <v>1.01530099865E-4</v>
+      </c>
+      <c r="AV113">
+        <v>2.4553245359000002E-3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>10</v>
       </c>
@@ -24459,8 +25827,20 @@
         <f t="shared" si="17"/>
         <v>0.64178464178464179</v>
       </c>
-    </row>
-    <row r="115" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS114">
+        <v>2.9117674638890001E-3</v>
+      </c>
+      <c r="AT114">
+        <v>3.201409279021E-3</v>
+      </c>
+      <c r="AU114">
+        <v>2.6919788441899999E-4</v>
+      </c>
+      <c r="AV114">
+        <v>2.4544665440979999E-3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>10</v>
       </c>
@@ -24592,8 +25972,20 @@
         <f t="shared" si="17"/>
         <v>0.6345657781599312</v>
       </c>
-    </row>
-    <row r="116" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS115">
+        <v>2.9048723982650002E-3</v>
+      </c>
+      <c r="AT115">
+        <v>3.1943465928959999E-3</v>
+      </c>
+      <c r="AU115">
+        <v>6.2247258706999998E-5</v>
+      </c>
+      <c r="AV115">
+        <v>2.4352278204030002E-3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>10</v>
       </c>
@@ -24725,8 +26117,20 @@
         <f t="shared" si="17"/>
         <v>0.6026785714285714</v>
       </c>
-    </row>
-    <row r="117" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS116">
+        <v>2.9078651120340001E-3</v>
+      </c>
+      <c r="AT116">
+        <v>3.2090854508570001E-3</v>
+      </c>
+      <c r="AU116">
+        <v>2.34189214127E-4</v>
+      </c>
+      <c r="AV116">
+        <v>2.437385569005E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>10</v>
       </c>
@@ -24858,8 +26262,20 @@
         <f t="shared" si="17"/>
         <v>0.64162615996464867</v>
       </c>
-    </row>
-    <row r="118" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS117">
+        <v>2.9078221169719998E-3</v>
+      </c>
+      <c r="AT117">
+        <v>3.1849052735790002E-3</v>
+      </c>
+      <c r="AU117">
+        <v>1.04016582777E-4</v>
+      </c>
+      <c r="AV117">
+        <v>2.40924921149E-3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>10</v>
       </c>
@@ -24991,8 +26407,20 @@
         <f t="shared" si="17"/>
         <v>0.61961828672880603</v>
       </c>
-    </row>
-    <row r="119" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS118">
+        <v>2.904848018163E-3</v>
+      </c>
+      <c r="AT118">
+        <v>3.171118462236E-3</v>
+      </c>
+      <c r="AU118">
+        <v>6.2234009018999998E-5</v>
+      </c>
+      <c r="AV118">
+        <v>2.3900122235820001E-3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>10</v>
       </c>
@@ -25124,8 +26552,20 @@
         <f t="shared" si="17"/>
         <v>0.64298093587521665</v>
       </c>
-    </row>
-    <row r="120" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS119">
+        <v>2.9072823571619998E-3</v>
+      </c>
+      <c r="AT119">
+        <v>3.190951362225E-3</v>
+      </c>
+      <c r="AU119">
+        <v>5.1447269572000001E-5</v>
+      </c>
+      <c r="AV119">
+        <v>2.438016967829E-3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>10</v>
       </c>
@@ -25257,8 +26697,20 @@
         <f t="shared" si="17"/>
         <v>0.59183673469387754</v>
       </c>
-    </row>
-    <row r="121" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS120">
+        <v>2.903439939554E-3</v>
+      </c>
+      <c r="AT120">
+        <v>3.1826252087130001E-3</v>
+      </c>
+      <c r="AU120">
+        <v>8.3072303128000003E-5</v>
+      </c>
+      <c r="AV120">
+        <v>2.4175284068410001E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>10</v>
       </c>
@@ -25390,8 +26842,20 @@
         <f t="shared" si="17"/>
         <v>0.61329833770778652</v>
       </c>
-    </row>
-    <row r="122" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS121">
+        <v>2.904550550808E-3</v>
+      </c>
+      <c r="AT121">
+        <v>3.1857917841190001E-3</v>
+      </c>
+      <c r="AU121">
+        <v>6.4322592076000002E-5</v>
+      </c>
+      <c r="AV121">
+        <v>2.4181763168939999E-3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>10</v>
       </c>
@@ -25523,8 +26987,20 @@
         <f t="shared" si="17"/>
         <v>0.71594327460249252</v>
       </c>
-    </row>
-    <row r="123" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS122">
+        <v>2.9060334493700001E-3</v>
+      </c>
+      <c r="AT122">
+        <v>3.1813588594220002E-3</v>
+      </c>
+      <c r="AU122">
+        <v>1.5826764434900001E-4</v>
+      </c>
+      <c r="AV122">
+        <v>2.4339913066200002E-3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>10</v>
       </c>
@@ -25656,8 +27132,20 @@
         <f t="shared" si="17"/>
         <v>0.72670288340994571</v>
       </c>
-    </row>
-    <row r="124" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS123">
+        <v>2.9073867051779998E-3</v>
+      </c>
+      <c r="AT123">
+        <v>3.189555691516E-3</v>
+      </c>
+      <c r="AU123">
+        <v>1.81785942472E-4</v>
+      </c>
+      <c r="AV123">
+        <v>2.4234695416909999E-3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>10</v>
       </c>
@@ -25789,8 +27277,20 @@
         <f t="shared" si="17"/>
         <v>0.71319852141769946</v>
       </c>
-    </row>
-    <row r="125" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS124">
+        <v>2.9069344514259998E-3</v>
+      </c>
+      <c r="AT124">
+        <v>3.2125757285860002E-3</v>
+      </c>
+      <c r="AU124">
+        <v>1.35102954477E-4</v>
+      </c>
+      <c r="AV124">
+        <v>2.457068818549E-3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>10</v>
       </c>
@@ -25922,8 +27422,20 @@
         <f t="shared" si="17"/>
         <v>0.71913905887317997</v>
       </c>
-    </row>
-    <row r="126" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS125">
+        <v>2.906001407966E-3</v>
+      </c>
+      <c r="AT125">
+        <v>3.2005846611659998E-3</v>
+      </c>
+      <c r="AU125">
+        <v>1.4697058087099999E-4</v>
+      </c>
+      <c r="AV125">
+        <v>2.4568306997309998E-3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>10</v>
       </c>
@@ -26055,8 +27567,20 @@
         <f t="shared" si="17"/>
         <v>0.72561878569917493</v>
       </c>
-    </row>
-    <row r="127" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS126">
+        <v>2.9088483600469999E-3</v>
+      </c>
+      <c r="AT126">
+        <v>3.197320688773E-3</v>
+      </c>
+      <c r="AU126">
+        <v>1.84090635477E-4</v>
+      </c>
+      <c r="AV126">
+        <v>2.4301186270670001E-3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>10</v>
       </c>
@@ -26188,8 +27712,20 @@
         <f t="shared" si="17"/>
         <v>0.72933415790558642</v>
       </c>
-    </row>
-    <row r="128" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS127">
+        <v>2.9042954427060002E-3</v>
+      </c>
+      <c r="AT127">
+        <v>3.18363400162E-3</v>
+      </c>
+      <c r="AU127">
+        <v>1.2296505346700001E-4</v>
+      </c>
+      <c r="AV127">
+        <v>2.4158919532250001E-3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>10</v>
       </c>
@@ -26321,8 +27857,20 @@
         <f t="shared" si="17"/>
         <v>0.71831882827425175</v>
       </c>
-    </row>
-    <row r="129" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS128">
+        <v>2.9055067205850001E-3</v>
+      </c>
+      <c r="AT128">
+        <v>3.191793703907E-3</v>
+      </c>
+      <c r="AU128">
+        <v>1.08101446451E-4</v>
+      </c>
+      <c r="AV128">
+        <v>2.4356279945589999E-3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>10</v>
       </c>
@@ -26454,8 +28002,20 @@
         <f t="shared" si="17"/>
         <v>0.73710276516714812</v>
       </c>
-    </row>
-    <row r="130" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS129">
+        <v>2.9066074138789999E-3</v>
+      </c>
+      <c r="AT129">
+        <v>3.1823834006149999E-3</v>
+      </c>
+      <c r="AU129">
+        <v>1.3739880593800001E-4</v>
+      </c>
+      <c r="AV129">
+        <v>2.4131344078379999E-3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>10</v>
       </c>
@@ -26587,8 +28147,20 @@
         <f t="shared" si="17"/>
         <v>0.71892353695002131</v>
       </c>
-    </row>
-    <row r="131" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS130">
+        <v>2.9055244632890001E-3</v>
+      </c>
+      <c r="AT130">
+        <v>3.1855644834880002E-3</v>
+      </c>
+      <c r="AU130">
+        <v>1.2273778037E-4</v>
+      </c>
+      <c r="AV130">
+        <v>2.4196348326029999E-3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>10</v>
       </c>
@@ -26720,8 +28292,20 @@
         <f t="shared" ref="AQ131:AQ194" si="25">W131/(W131+ 0.5*(S131+K131+AA131))</f>
         <v>0.71906779661016951</v>
       </c>
-    </row>
-    <row r="132" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS131">
+        <v>2.906537163381E-3</v>
+      </c>
+      <c r="AT131">
+        <v>3.1943310382369998E-3</v>
+      </c>
+      <c r="AU131">
+        <v>1.4216697895300001E-4</v>
+      </c>
+      <c r="AV131">
+        <v>2.4281591787329998E-3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>10</v>
       </c>
@@ -26853,8 +28437,20 @@
         <f t="shared" si="25"/>
         <v>0.79809069212410499</v>
       </c>
-    </row>
-    <row r="133" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS132">
+        <v>2.9054610609919999E-3</v>
+      </c>
+      <c r="AT132">
+        <v>3.186439335955E-3</v>
+      </c>
+      <c r="AU132">
+        <v>1.9035115702000001E-4</v>
+      </c>
+      <c r="AV132">
+        <v>2.4264624988429998E-3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>10</v>
       </c>
@@ -26986,8 +28582,20 @@
         <f t="shared" si="25"/>
         <v>0.8003067778736459</v>
       </c>
-    </row>
-    <row r="134" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS133">
+        <v>2.9058133733980002E-3</v>
+      </c>
+      <c r="AT133">
+        <v>3.1861830917140001E-3</v>
+      </c>
+      <c r="AU133">
+        <v>2.2306839915599999E-4</v>
+      </c>
+      <c r="AV133">
+        <v>2.4340142183220002E-3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>10</v>
       </c>
@@ -27119,8 +28727,20 @@
         <f t="shared" si="25"/>
         <v>0.78699660359049006</v>
       </c>
-    </row>
-    <row r="135" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS134">
+        <v>2.9031867118160001E-3</v>
+      </c>
+      <c r="AT134">
+        <v>3.22018867319E-3</v>
+      </c>
+      <c r="AU134">
+        <v>1.17971003844E-4</v>
+      </c>
+      <c r="AV134">
+        <v>2.4708544247339999E-3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>10</v>
       </c>
@@ -27252,8 +28872,20 @@
         <f t="shared" si="25"/>
         <v>0.79755421801853443</v>
       </c>
-    </row>
-    <row r="136" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS135">
+        <v>2.9042066146500001E-3</v>
+      </c>
+      <c r="AT135">
+        <v>3.2101267839779999E-3</v>
+      </c>
+      <c r="AU135">
+        <v>1.5486950755100001E-4</v>
+      </c>
+      <c r="AV135">
+        <v>2.4599359583E-3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>10</v>
       </c>
@@ -27385,8 +29017,20 @@
         <f t="shared" si="25"/>
         <v>0.80073231836577374</v>
       </c>
-    </row>
-    <row r="137" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS136">
+        <v>2.9039836985659999E-3</v>
+      </c>
+      <c r="AT136">
+        <v>3.2047089499559998E-3</v>
+      </c>
+      <c r="AU136">
+        <v>1.45928232121E-4</v>
+      </c>
+      <c r="AV136">
+        <v>2.4294867845449999E-3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>10</v>
       </c>
@@ -27518,8 +29162,20 @@
         <f t="shared" si="25"/>
         <v>0.80359361559782094</v>
       </c>
-    </row>
-    <row r="138" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS137">
+        <v>2.9052361389309998E-3</v>
+      </c>
+      <c r="AT137">
+        <v>3.1854382543480002E-3</v>
+      </c>
+      <c r="AU137">
+        <v>1.73184980333E-4</v>
+      </c>
+      <c r="AV137">
+        <v>2.4608163342980001E-3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>10</v>
       </c>
@@ -27651,8 +29307,20 @@
         <f t="shared" si="25"/>
         <v>0.80224164133738607</v>
       </c>
-    </row>
-    <row r="139" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS138">
+        <v>2.9055024736569998E-3</v>
+      </c>
+      <c r="AT138">
+        <v>3.1987215535419999E-3</v>
+      </c>
+      <c r="AU138">
+        <v>1.6843622368800001E-4</v>
+      </c>
+      <c r="AV138">
+        <v>2.4407974805930001E-3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>10</v>
       </c>
@@ -27784,8 +29452,20 @@
         <f t="shared" si="25"/>
         <v>0.8072380952380952</v>
       </c>
-    </row>
-    <row r="140" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS139">
+        <v>2.9050309790370002E-3</v>
+      </c>
+      <c r="AT139">
+        <v>3.1897641039989998E-3</v>
+      </c>
+      <c r="AU139">
+        <v>1.71402447125E-4</v>
+      </c>
+      <c r="AV139">
+        <v>2.418893199788E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>10</v>
       </c>
@@ -27917,8 +29597,20 @@
         <f t="shared" si="25"/>
         <v>0.79691417550626809</v>
       </c>
-    </row>
-    <row r="141" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS140">
+        <v>2.9043590288370001E-3</v>
+      </c>
+      <c r="AT140">
+        <v>3.1836882721349999E-3</v>
+      </c>
+      <c r="AU140">
+        <v>1.6214788589700001E-4</v>
+      </c>
+      <c r="AV140">
+        <v>2.4359031835219998E-3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>10</v>
       </c>
@@ -28050,8 +29742,20 @@
         <f t="shared" si="25"/>
         <v>0.78543135928895758</v>
       </c>
-    </row>
-    <row r="142" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS141">
+        <v>2.9041329408319998E-3</v>
+      </c>
+      <c r="AT141">
+        <v>3.180976895692E-3</v>
+      </c>
+      <c r="AU141">
+        <v>1.4658772457100001E-4</v>
+      </c>
+      <c r="AV141">
+        <v>2.4384093850510001E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>10</v>
       </c>
@@ -28183,8 +29887,20 @@
         <f t="shared" si="25"/>
         <v>0.86289866012455185</v>
       </c>
-    </row>
-    <row r="143" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS142">
+        <v>2.9042971736059999E-3</v>
+      </c>
+      <c r="AT142">
+        <v>3.1908575271840001E-3</v>
+      </c>
+      <c r="AU142">
+        <v>1.8400947396300001E-4</v>
+      </c>
+      <c r="AV142">
+        <v>2.4336973687869999E-3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>10</v>
       </c>
@@ -28316,8 +30032,20 @@
         <f t="shared" si="25"/>
         <v>0.86868214152002998</v>
       </c>
-    </row>
-    <row r="144" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS143">
+        <v>2.904886676056E-3</v>
+      </c>
+      <c r="AT143">
+        <v>3.207357356752E-3</v>
+      </c>
+      <c r="AU143">
+        <v>1.9213768377800001E-4</v>
+      </c>
+      <c r="AV143">
+        <v>2.4528749978260001E-3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>10</v>
       </c>
@@ -28449,8 +30177,20 @@
         <f t="shared" si="25"/>
         <v>0.86425125342919307</v>
       </c>
-    </row>
-    <row r="145" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS144">
+        <v>2.9040503531339999E-3</v>
+      </c>
+      <c r="AT144">
+        <v>3.2032448811959999E-3</v>
+      </c>
+      <c r="AU144">
+        <v>1.7895584336400001E-4</v>
+      </c>
+      <c r="AV144">
+        <v>2.4382343076500002E-3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>10</v>
       </c>
@@ -28582,8 +30322,20 @@
         <f t="shared" si="25"/>
         <v>0.86498488284202568</v>
       </c>
-    </row>
-    <row r="146" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS145">
+        <v>2.9031079889290001E-3</v>
+      </c>
+      <c r="AT145">
+        <v>3.2032274401640002E-3</v>
+      </c>
+      <c r="AU145">
+        <v>1.58082690411E-4</v>
+      </c>
+      <c r="AV145">
+        <v>2.4563343340279998E-3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>10</v>
       </c>
@@ -28715,8 +30467,20 @@
         <f t="shared" si="25"/>
         <v>0.86882022471910114</v>
       </c>
-    </row>
-    <row r="147" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS146">
+        <v>2.903264308553E-3</v>
+      </c>
+      <c r="AT146">
+        <v>3.1810366729350002E-3</v>
+      </c>
+      <c r="AU146">
+        <v>1.4607834003999999E-4</v>
+      </c>
+      <c r="AV146">
+        <v>2.4201229316789998E-3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>10</v>
       </c>
@@ -28848,8 +30612,20 @@
         <f t="shared" si="25"/>
         <v>0.86915624118145052</v>
       </c>
-    </row>
-    <row r="148" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS147">
+        <v>2.9050240310360001E-3</v>
+      </c>
+      <c r="AT147">
+        <v>3.1962621808780001E-3</v>
+      </c>
+      <c r="AU147">
+        <v>1.9427559527400001E-4</v>
+      </c>
+      <c r="AV147">
+        <v>2.4299547935129999E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>10</v>
       </c>
@@ -28981,8 +30757,20 @@
         <f t="shared" si="25"/>
         <v>0.86583419397239691</v>
       </c>
-    </row>
-    <row r="149" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS148">
+        <v>2.9038612754350001E-3</v>
+      </c>
+      <c r="AT148">
+        <v>3.1999184155139999E-3</v>
+      </c>
+      <c r="AU148">
+        <v>1.8610957011999999E-4</v>
+      </c>
+      <c r="AV148">
+        <v>2.4397852112190001E-3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>10</v>
       </c>
@@ -29114,8 +30902,20 @@
         <f t="shared" si="25"/>
         <v>0.86836070943890686</v>
       </c>
-    </row>
-    <row r="150" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS149">
+        <v>2.9037420344500001E-3</v>
+      </c>
+      <c r="AT149">
+        <v>3.1855772904209999E-3</v>
+      </c>
+      <c r="AU149">
+        <v>1.7273823653799999E-4</v>
+      </c>
+      <c r="AV149">
+        <v>2.4519455510200001E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>10</v>
       </c>
@@ -29247,8 +31047,20 @@
         <f t="shared" si="25"/>
         <v>0.86770755422587886</v>
       </c>
-    </row>
-    <row r="151" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS150">
+        <v>2.9035346265559999E-3</v>
+      </c>
+      <c r="AT150">
+        <v>3.1860985645149999E-3</v>
+      </c>
+      <c r="AU150">
+        <v>1.5820913540500001E-4</v>
+      </c>
+      <c r="AV150">
+        <v>2.4313324742409998E-3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>10</v>
       </c>
@@ -29380,8 +31192,20 @@
         <f t="shared" si="25"/>
         <v>0.86597453845069761</v>
       </c>
-    </row>
-    <row r="152" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS151">
+        <v>2.9042351583650002E-3</v>
+      </c>
+      <c r="AT151">
+        <v>3.2030814361889998E-3</v>
+      </c>
+      <c r="AU151">
+        <v>1.6812674387399999E-4</v>
+      </c>
+      <c r="AV151">
+        <v>2.4483936559009998E-3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>5</v>
       </c>
@@ -29513,8 +31337,20 @@
         <f t="shared" si="25"/>
         <v>0.34535519125683062</v>
       </c>
-    </row>
-    <row r="153" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS152">
+        <v>2.6162855263210001E-3</v>
+      </c>
+      <c r="AT152">
+        <v>5.0794042440619998E-3</v>
+      </c>
+      <c r="AU152">
+        <v>1.66622887906E-4</v>
+      </c>
+      <c r="AV152">
+        <v>2.837725061103E-3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>5</v>
       </c>
@@ -29646,8 +31482,20 @@
         <f t="shared" si="25"/>
         <v>0.33549783549783552</v>
       </c>
-    </row>
-    <row r="154" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS153">
+        <v>2.6175297237340002E-3</v>
+      </c>
+      <c r="AT153">
+        <v>5.0556161262379998E-3</v>
+      </c>
+      <c r="AU153">
+        <v>2.7917709808799999E-4</v>
+      </c>
+      <c r="AV153">
+        <v>2.848006200774E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>5</v>
       </c>
@@ -29779,8 +31627,20 @@
         <f t="shared" si="25"/>
         <v>0.34611171960569553</v>
       </c>
-    </row>
-    <row r="155" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS154">
+        <v>2.6332475104029998E-3</v>
+      </c>
+      <c r="AT154">
+        <v>5.083835726475E-3</v>
+      </c>
+      <c r="AU154">
+        <v>3.7446018484300003E-4</v>
+      </c>
+      <c r="AV154">
+        <v>2.8518120356229998E-3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>5</v>
       </c>
@@ -29912,8 +31772,20 @@
         <f t="shared" si="25"/>
         <v>0.30255839822024472</v>
       </c>
-    </row>
-    <row r="156" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS155">
+        <v>2.621698444899E-3</v>
+      </c>
+      <c r="AT155">
+        <v>5.0561738688279997E-3</v>
+      </c>
+      <c r="AU155">
+        <v>2.1766000651499999E-4</v>
+      </c>
+      <c r="AV155">
+        <v>2.8506307319039999E-3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>5</v>
       </c>
@@ -30045,8 +31917,20 @@
         <f t="shared" si="25"/>
         <v>0.37060702875399359</v>
       </c>
-    </row>
-    <row r="157" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS156">
+        <v>2.6129918255950002E-3</v>
+      </c>
+      <c r="AT156">
+        <v>5.0967028694820001E-3</v>
+      </c>
+      <c r="AU156">
+        <v>4.6484673817999997E-5</v>
+      </c>
+      <c r="AV156">
+        <v>2.8590513758849998E-3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>5</v>
       </c>
@@ -30178,8 +32062,20 @@
         <f t="shared" si="25"/>
         <v>0.29867256637168144</v>
       </c>
-    </row>
-    <row r="158" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS157">
+        <v>2.6121987411299999E-3</v>
+      </c>
+      <c r="AT157">
+        <v>5.0657064258579996E-3</v>
+      </c>
+      <c r="AU157">
+        <v>7.4354624897000004E-5</v>
+      </c>
+      <c r="AV157">
+        <v>2.8359546741190001E-3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>5</v>
       </c>
@@ -30311,8 +32207,20 @@
         <f t="shared" si="25"/>
         <v>0.35836909871244638</v>
       </c>
-    </row>
-    <row r="159" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS158">
+        <v>2.6213388227330002E-3</v>
+      </c>
+      <c r="AT158">
+        <v>5.0784488203440004E-3</v>
+      </c>
+      <c r="AU158">
+        <v>2.7579205285500002E-4</v>
+      </c>
+      <c r="AV158">
+        <v>2.8453689802199998E-3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>5</v>
       </c>
@@ -30444,8 +32352,20 @@
         <f t="shared" si="25"/>
         <v>0.33665559246954596</v>
       </c>
-    </row>
-    <row r="160" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS159">
+        <v>2.62343789726E-3</v>
+      </c>
+      <c r="AT159">
+        <v>5.0775786371980002E-3</v>
+      </c>
+      <c r="AU159">
+        <v>2.4429541046300002E-4</v>
+      </c>
+      <c r="AV159">
+        <v>2.8529891546779998E-3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>5</v>
       </c>
@@ -30577,8 +32497,20 @@
         <f t="shared" si="25"/>
         <v>0.33523375142531359</v>
       </c>
-    </row>
-    <row r="161" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS160">
+        <v>2.6110629559839998E-3</v>
+      </c>
+      <c r="AT160">
+        <v>5.0884136371829999E-3</v>
+      </c>
+      <c r="AU160">
+        <v>1.07672343432E-4</v>
+      </c>
+      <c r="AV160">
+        <v>2.845236802682E-3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>5</v>
       </c>
@@ -30710,8 +32642,20 @@
         <f t="shared" si="25"/>
         <v>0.34513274336283184</v>
       </c>
-    </row>
-    <row r="162" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS161">
+        <v>2.6218097145219998E-3</v>
+      </c>
+      <c r="AT161">
+        <v>5.0658895946810003E-3</v>
+      </c>
+      <c r="AU161">
+        <v>2.9145475392099998E-4</v>
+      </c>
+      <c r="AV161">
+        <v>2.854546522147E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>5</v>
       </c>
@@ -30843,8 +32787,20 @@
         <f t="shared" si="25"/>
         <v>0.52096694622594963</v>
       </c>
-    </row>
-    <row r="163" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS162">
+        <v>2.6214105031129998E-3</v>
+      </c>
+      <c r="AT162">
+        <v>5.08107962287E-3</v>
+      </c>
+      <c r="AU162">
+        <v>1.8810027842500001E-4</v>
+      </c>
+      <c r="AV162">
+        <v>2.8548343104789998E-3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>5</v>
       </c>
@@ -30976,8 +32932,20 @@
         <f t="shared" si="25"/>
         <v>0.48602794411177647</v>
       </c>
-    </row>
-    <row r="164" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS163">
+        <v>2.6150179258030001E-3</v>
+      </c>
+      <c r="AT163">
+        <v>5.0725415203229998E-3</v>
+      </c>
+      <c r="AU163">
+        <v>1.3408608943299999E-4</v>
+      </c>
+      <c r="AV163">
+        <v>2.8430767462399999E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>5</v>
       </c>
@@ -31109,8 +33077,20 @@
         <f t="shared" si="25"/>
         <v>0.46401610468042276</v>
       </c>
-    </row>
-    <row r="165" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS164">
+        <v>2.6219226051409999E-3</v>
+      </c>
+      <c r="AT164">
+        <v>5.0542745445599996E-3</v>
+      </c>
+      <c r="AU164">
+        <v>2.2948189031600001E-4</v>
+      </c>
+      <c r="AV164">
+        <v>2.818411093485E-3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>5</v>
       </c>
@@ -31242,8 +33222,20 @@
         <f t="shared" si="25"/>
         <v>0.47368421052631576</v>
       </c>
-    </row>
-    <row r="166" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS165">
+        <v>2.616593171354E-3</v>
+      </c>
+      <c r="AT165">
+        <v>5.0818029130709997E-3</v>
+      </c>
+      <c r="AU165">
+        <v>8.6572885554E-5</v>
+      </c>
+      <c r="AV165">
+        <v>2.8631275538870001E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>5</v>
       </c>
@@ -31375,8 +33367,20 @@
         <f t="shared" si="25"/>
         <v>0.49250749250749248</v>
       </c>
-    </row>
-    <row r="167" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS166">
+        <v>2.6155882253360001E-3</v>
+      </c>
+      <c r="AT166">
+        <v>5.0781400929429997E-3</v>
+      </c>
+      <c r="AU166">
+        <v>8.3444214949000001E-5</v>
+      </c>
+      <c r="AV166">
+        <v>2.8353385513329998E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>5</v>
       </c>
@@ -31508,8 +33512,20 @@
         <f t="shared" si="25"/>
         <v>0.496</v>
       </c>
-    </row>
-    <row r="168" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS167">
+        <v>2.6267785764439999E-3</v>
+      </c>
+      <c r="AT167">
+        <v>5.0813617967820001E-3</v>
+      </c>
+      <c r="AU167">
+        <v>3.0874680287899998E-4</v>
+      </c>
+      <c r="AV167">
+        <v>2.848946137247E-3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>5</v>
       </c>
@@ -31641,8 +33657,20 @@
         <f t="shared" si="25"/>
         <v>0.51080550098231825</v>
       </c>
-    </row>
-    <row r="169" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS168">
+        <v>2.6175218724779998E-3</v>
+      </c>
+      <c r="AT168">
+        <v>5.0910288418720001E-3</v>
+      </c>
+      <c r="AU168">
+        <v>1.05502532913E-4</v>
+      </c>
+      <c r="AV168">
+        <v>2.8643622956639999E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>5</v>
       </c>
@@ -31774,8 +33802,20 @@
         <f t="shared" si="25"/>
         <v>0.50148075024679173</v>
       </c>
-    </row>
-    <row r="170" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS169">
+        <v>2.6211007374179998E-3</v>
+      </c>
+      <c r="AT169">
+        <v>5.0858219434130004E-3</v>
+      </c>
+      <c r="AU169">
+        <v>1.9051749440399999E-4</v>
+      </c>
+      <c r="AV169">
+        <v>2.8569991584340001E-3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>5</v>
       </c>
@@ -31907,8 +33947,20 @@
         <f t="shared" si="25"/>
         <v>0.45401382243487509</v>
       </c>
-    </row>
-    <row r="171" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS170">
+        <v>2.618944771577E-3</v>
+      </c>
+      <c r="AT170">
+        <v>5.0770431195140001E-3</v>
+      </c>
+      <c r="AU170">
+        <v>1.77970791382E-4</v>
+      </c>
+      <c r="AV170">
+        <v>2.8481508036219999E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>5</v>
       </c>
@@ -32040,8 +34092,20 @@
         <f t="shared" si="25"/>
         <v>0.45678365636458879</v>
       </c>
-    </row>
-    <row r="172" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS171">
+        <v>2.6186495072840002E-3</v>
+      </c>
+      <c r="AT171">
+        <v>5.0704184132730002E-3</v>
+      </c>
+      <c r="AU171">
+        <v>1.3931973141699999E-4</v>
+      </c>
+      <c r="AV171">
+        <v>2.853421257199E-3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>5</v>
       </c>
@@ -32173,8 +34237,20 @@
         <f t="shared" si="25"/>
         <v>0.60183908045977008</v>
       </c>
-    </row>
-    <row r="173" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS172">
+        <v>2.6268958872009999E-3</v>
+      </c>
+      <c r="AT172">
+        <v>5.0790199463290001E-3</v>
+      </c>
+      <c r="AU172">
+        <v>3.0554307644000003E-4</v>
+      </c>
+      <c r="AV172">
+        <v>2.853762511296E-3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>5</v>
       </c>
@@ -32306,8 +34382,20 @@
         <f t="shared" si="25"/>
         <v>0.60723220377530129</v>
       </c>
-    </row>
-    <row r="174" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS173">
+        <v>2.6231850510499998E-3</v>
+      </c>
+      <c r="AT173">
+        <v>5.0884650560959997E-3</v>
+      </c>
+      <c r="AU173">
+        <v>2.21275804081E-4</v>
+      </c>
+      <c r="AV173">
+        <v>2.8699668893079999E-3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>5</v>
       </c>
@@ -32439,8 +34527,20 @@
         <f t="shared" si="25"/>
         <v>0.60682390657201746</v>
       </c>
-    </row>
-    <row r="175" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS174">
+        <v>2.6217308901449999E-3</v>
+      </c>
+      <c r="AT174">
+        <v>5.0674115124190004E-3</v>
+      </c>
+      <c r="AU174">
+        <v>2.0268229671E-4</v>
+      </c>
+      <c r="AV174">
+        <v>2.838520155529E-3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>5</v>
       </c>
@@ -32572,8 +34672,20 @@
         <f t="shared" si="25"/>
         <v>0.60263218656199491</v>
       </c>
-    </row>
-    <row r="176" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS175">
+        <v>2.6209554131059998E-3</v>
+      </c>
+      <c r="AT175">
+        <v>5.0695286983720002E-3</v>
+      </c>
+      <c r="AU175">
+        <v>2.0703451955999999E-4</v>
+      </c>
+      <c r="AV175">
+        <v>2.8622044900819999E-3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>5</v>
       </c>
@@ -32705,8 +34817,20 @@
         <f t="shared" si="25"/>
         <v>0.61119927454092038</v>
       </c>
-    </row>
-    <row r="177" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS176">
+        <v>2.6228552364909999E-3</v>
+      </c>
+      <c r="AT176">
+        <v>5.0509993407700004E-3</v>
+      </c>
+      <c r="AU176">
+        <v>1.8821690968600001E-4</v>
+      </c>
+      <c r="AV176">
+        <v>2.8223433008599998E-3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>5</v>
       </c>
@@ -32838,8 +34962,20 @@
         <f t="shared" si="25"/>
         <v>0.5982472324723247</v>
       </c>
-    </row>
-    <row r="178" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS177">
+        <v>2.6204625173849999E-3</v>
+      </c>
+      <c r="AT177">
+        <v>5.0855366491589999E-3</v>
+      </c>
+      <c r="AU177">
+        <v>1.9511015321700001E-4</v>
+      </c>
+      <c r="AV177">
+        <v>2.8407516477639999E-3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>5</v>
       </c>
@@ -32971,8 +35107,20 @@
         <f t="shared" si="25"/>
         <v>0.62090909090909085</v>
       </c>
-    </row>
-    <row r="179" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS178">
+        <v>2.6209718511270002E-3</v>
+      </c>
+      <c r="AT178">
+        <v>5.0718372959540001E-3</v>
+      </c>
+      <c r="AU178">
+        <v>1.8202701487E-4</v>
+      </c>
+      <c r="AV178">
+        <v>2.8605486575889998E-3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>5</v>
       </c>
@@ -33104,8 +35252,20 @@
         <f t="shared" si="25"/>
         <v>0.62264579078738369</v>
       </c>
-    </row>
-    <row r="180" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS179">
+        <v>2.6190528061350001E-3</v>
+      </c>
+      <c r="AT179">
+        <v>5.070180702721E-3</v>
+      </c>
+      <c r="AU179">
+        <v>1.0854422146699999E-4</v>
+      </c>
+      <c r="AV179">
+        <v>2.83858764298E-3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>5</v>
       </c>
@@ -33237,8 +35397,20 @@
         <f t="shared" si="25"/>
         <v>0.59439425526986334</v>
       </c>
-    </row>
-    <row r="181" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS180">
+        <v>2.6175394810710002E-3</v>
+      </c>
+      <c r="AT180">
+        <v>5.0784897099510002E-3</v>
+      </c>
+      <c r="AU180">
+        <v>8.2385690225000003E-5</v>
+      </c>
+      <c r="AV180">
+        <v>2.8620703880399999E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>5</v>
       </c>
@@ -33370,8 +35542,20 @@
         <f t="shared" si="25"/>
         <v>0.59392523364485983</v>
       </c>
-    </row>
-    <row r="182" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS181">
+        <v>2.6196804456510001E-3</v>
+      </c>
+      <c r="AT181">
+        <v>5.0630817084509998E-3</v>
+      </c>
+      <c r="AU181">
+        <v>1.71973853026E-4</v>
+      </c>
+      <c r="AV181">
+        <v>2.8403262136600001E-3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>5</v>
       </c>
@@ -33503,8 +35687,20 @@
         <f t="shared" si="25"/>
         <v>0.72351622648864633</v>
       </c>
-    </row>
-    <row r="183" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS182">
+        <v>2.6168858602749999E-3</v>
+      </c>
+      <c r="AT182">
+        <v>5.0843759235639999E-3</v>
+      </c>
+      <c r="AU182">
+        <v>2.3809377192599999E-4</v>
+      </c>
+      <c r="AV182">
+        <v>2.8635223600580002E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>5</v>
       </c>
@@ -33636,8 +35832,20 @@
         <f t="shared" si="25"/>
         <v>0.71174863387978138</v>
       </c>
-    </row>
-    <row r="184" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS183">
+        <v>2.6172554253069999E-3</v>
+      </c>
+      <c r="AT183">
+        <v>5.076340388616E-3</v>
+      </c>
+      <c r="AU183">
+        <v>2.4709639471899998E-4</v>
+      </c>
+      <c r="AV183">
+        <v>2.8692377733320002E-3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>5</v>
       </c>
@@ -33769,8 +35977,20 @@
         <f t="shared" si="25"/>
         <v>0.72663958212420199</v>
       </c>
-    </row>
-    <row r="185" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS184">
+        <v>2.615103879776E-3</v>
+      </c>
+      <c r="AT184">
+        <v>5.0591275789859998E-3</v>
+      </c>
+      <c r="AU184">
+        <v>1.8039238580700001E-4</v>
+      </c>
+      <c r="AV184">
+        <v>2.8604923904950001E-3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>5</v>
       </c>
@@ -33902,8 +36122,20 @@
         <f t="shared" si="25"/>
         <v>0.71870454765829539</v>
       </c>
-    </row>
-    <row r="186" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS185">
+        <v>2.6170656215550002E-3</v>
+      </c>
+      <c r="AT185">
+        <v>5.0539357465159999E-3</v>
+      </c>
+      <c r="AU185">
+        <v>2.0617973143899999E-4</v>
+      </c>
+      <c r="AV185">
+        <v>2.8289536097599998E-3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>5</v>
       </c>
@@ -34035,8 +36267,20 @@
         <f t="shared" si="25"/>
         <v>0.71073891625615759</v>
       </c>
-    </row>
-    <row r="187" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS186">
+        <v>2.6147580693829998E-3</v>
+      </c>
+      <c r="AT186">
+        <v>5.0802732812990003E-3</v>
+      </c>
+      <c r="AU186">
+        <v>1.7635525163599999E-4</v>
+      </c>
+      <c r="AV186">
+        <v>2.872294335427E-3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>5</v>
       </c>
@@ -34168,8 +36412,20 @@
         <f t="shared" si="25"/>
         <v>0.72058111380145273</v>
       </c>
-    </row>
-    <row r="188" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS187">
+        <v>2.6145908639279999E-3</v>
+      </c>
+      <c r="AT187">
+        <v>5.0784360884990002E-3</v>
+      </c>
+      <c r="AU187">
+        <v>1.90859607768E-4</v>
+      </c>
+      <c r="AV187">
+        <v>2.844640596203E-3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>5</v>
       </c>
@@ -34301,8 +36557,20 @@
         <f t="shared" si="25"/>
         <v>0.72228170933515035</v>
       </c>
-    </row>
-    <row r="189" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS188">
+        <v>2.6152522950179998E-3</v>
+      </c>
+      <c r="AT188">
+        <v>5.0698707126029998E-3</v>
+      </c>
+      <c r="AU188">
+        <v>2.0656282734800001E-4</v>
+      </c>
+      <c r="AV188">
+        <v>2.8732637085900001E-3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>5</v>
       </c>
@@ -34434,8 +36702,20 @@
         <f t="shared" si="25"/>
         <v>0.72226532195500392</v>
       </c>
-    </row>
-    <row r="190" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS189">
+        <v>2.6132782760870002E-3</v>
+      </c>
+      <c r="AT189">
+        <v>5.0836626713329997E-3</v>
+      </c>
+      <c r="AU189">
+        <v>1.64249330037E-4</v>
+      </c>
+      <c r="AV189">
+        <v>2.864000696993E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>5</v>
       </c>
@@ -34567,8 +36847,20 @@
         <f t="shared" si="25"/>
         <v>0.72491784264450032</v>
       </c>
-    </row>
-    <row r="191" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS190">
+        <v>2.6161519353100002E-3</v>
+      </c>
+      <c r="AT190">
+        <v>5.0674022804129996E-3</v>
+      </c>
+      <c r="AU190">
+        <v>2.1593125476499999E-4</v>
+      </c>
+      <c r="AV190">
+        <v>2.8546773735720001E-3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>5</v>
       </c>
@@ -34700,8 +36992,20 @@
         <f t="shared" si="25"/>
         <v>0.71427179736970292</v>
       </c>
-    </row>
-    <row r="192" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS191">
+        <v>2.615265339773E-3</v>
+      </c>
+      <c r="AT191">
+        <v>5.065219751137E-3</v>
+      </c>
+      <c r="AU191">
+        <v>2.10631207439E-4</v>
+      </c>
+      <c r="AV191">
+        <v>2.8418054556259998E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>5</v>
       </c>
@@ -34833,8 +37137,20 @@
         <f t="shared" si="25"/>
         <v>0.81462708182476462</v>
       </c>
-    </row>
-    <row r="193" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS192">
+        <v>2.6163580661099999E-3</v>
+      </c>
+      <c r="AT192">
+        <v>5.0776587007319999E-3</v>
+      </c>
+      <c r="AU192">
+        <v>2.28360466049E-4</v>
+      </c>
+      <c r="AV192">
+        <v>2.8739427761649999E-3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>5</v>
       </c>
@@ -34966,8 +37282,20 @@
         <f t="shared" si="25"/>
         <v>0.8165299553525075</v>
       </c>
-    </row>
-    <row r="194" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS193">
+        <v>2.614778170356E-3</v>
+      </c>
+      <c r="AT193">
+        <v>5.0730854283569998E-3</v>
+      </c>
+      <c r="AU193">
+        <v>2.2152003420199999E-4</v>
+      </c>
+      <c r="AV193">
+        <v>2.8506517028229999E-3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>5</v>
       </c>
@@ -35099,8 +37427,20 @@
         <f t="shared" si="25"/>
         <v>0.81425988116765691</v>
       </c>
-    </row>
-    <row r="195" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS194">
+        <v>2.6144704542699999E-3</v>
+      </c>
+      <c r="AT194">
+        <v>5.0682742660859998E-3</v>
+      </c>
+      <c r="AU194">
+        <v>2.1650794131699999E-4</v>
+      </c>
+      <c r="AV194">
+        <v>2.843957648741E-3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>5</v>
       </c>
@@ -35232,8 +37572,20 @@
         <f t="shared" ref="AQ195:AQ251" si="33">W195/(W195+ 0.5*(S195+K195+AA195))</f>
         <v>0.80867281248390588</v>
       </c>
-    </row>
-    <row r="196" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS195">
+        <v>2.6156196261150001E-3</v>
+      </c>
+      <c r="AT195">
+        <v>5.0563019164890002E-3</v>
+      </c>
+      <c r="AU195">
+        <v>2.17777346881E-4</v>
+      </c>
+      <c r="AV195">
+        <v>2.8632313722600001E-3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>5</v>
       </c>
@@ -35365,8 +37717,20 @@
         <f t="shared" si="33"/>
         <v>0.8145736434108527</v>
       </c>
-    </row>
-    <row r="197" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS196">
+        <v>2.6130920705540002E-3</v>
+      </c>
+      <c r="AT196">
+        <v>5.08391999877E-3</v>
+      </c>
+      <c r="AU196">
+        <v>1.88101857291E-4</v>
+      </c>
+      <c r="AV196">
+        <v>2.8738605665439999E-3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>5</v>
       </c>
@@ -35498,8 +37862,20 @@
         <f t="shared" si="33"/>
         <v>0.81373461578239736</v>
       </c>
-    </row>
-    <row r="198" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS197">
+        <v>2.6144284565499999E-3</v>
+      </c>
+      <c r="AT197">
+        <v>5.0828786006829997E-3</v>
+      </c>
+      <c r="AU197">
+        <v>2.1874388498200001E-4</v>
+      </c>
+      <c r="AV197">
+        <v>2.836392591715E-3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>5</v>
       </c>
@@ -35631,8 +38007,20 @@
         <f t="shared" si="33"/>
         <v>0.80689511509217793</v>
       </c>
-    </row>
-    <row r="199" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS198">
+        <v>2.6179606207720001E-3</v>
+      </c>
+      <c r="AT198">
+        <v>5.0762883935629999E-3</v>
+      </c>
+      <c r="AU198">
+        <v>2.6851621983000002E-4</v>
+      </c>
+      <c r="AV198">
+        <v>2.8520009434530001E-3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>5</v>
       </c>
@@ -35764,8 +38152,20 @@
         <f t="shared" si="33"/>
         <v>0.80221343873517792</v>
       </c>
-    </row>
-    <row r="200" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS199">
+        <v>2.6152175113190001E-3</v>
+      </c>
+      <c r="AT199">
+        <v>5.0637313901549996E-3</v>
+      </c>
+      <c r="AU199">
+        <v>2.34343190086E-4</v>
+      </c>
+      <c r="AV199">
+        <v>2.8518015905310001E-3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>5</v>
       </c>
@@ -35897,8 +38297,20 @@
         <f t="shared" si="33"/>
         <v>0.81109203475365488</v>
       </c>
-    </row>
-    <row r="201" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS200">
+        <v>2.615011430656E-3</v>
+      </c>
+      <c r="AT200">
+        <v>5.069219765984E-3</v>
+      </c>
+      <c r="AU200">
+        <v>2.1963941739300001E-4</v>
+      </c>
+      <c r="AV200">
+        <v>2.8606304889890002E-3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>5</v>
       </c>
@@ -36030,8 +38442,20 @@
         <f t="shared" si="33"/>
         <v>0.81379525268789277</v>
       </c>
-    </row>
-    <row r="202" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS201">
+        <v>2.6132085261429999E-3</v>
+      </c>
+      <c r="AT201">
+        <v>5.0774705851400004E-3</v>
+      </c>
+      <c r="AU201">
+        <v>1.90136984099E-4</v>
+      </c>
+      <c r="AV201">
+        <v>2.8491158230439999E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>0</v>
       </c>
@@ -36163,8 +38587,20 @@
         <f t="shared" si="33"/>
         <v>0.39611650485436894</v>
       </c>
-    </row>
-    <row r="203" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS202">
+        <v>2.185944058239E-3</v>
+      </c>
+      <c r="AT202">
+        <v>3.6538366793590002E-3</v>
+      </c>
+      <c r="AU202">
+        <v>3.5351686411700002E-4</v>
+      </c>
+      <c r="AV202">
+        <v>2.3826812340960002E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>0</v>
       </c>
@@ -36296,8 +38732,20 @@
         <f t="shared" si="33"/>
         <v>0.39885496183206109</v>
       </c>
-    </row>
-    <row r="204" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS203">
+        <v>2.1733371723519999E-3</v>
+      </c>
+      <c r="AT203">
+        <v>3.6394063027080001E-3</v>
+      </c>
+      <c r="AU203">
+        <v>1.4485383404899999E-4</v>
+      </c>
+      <c r="AV203">
+        <v>2.3690584156150002E-3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>0</v>
       </c>
@@ -36429,8 +38877,20 @@
         <f t="shared" si="33"/>
         <v>0.38961038961038963</v>
       </c>
-    </row>
-    <row r="205" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS204">
+        <v>2.1906209557949999E-3</v>
+      </c>
+      <c r="AT204">
+        <v>3.6457472770519998E-3</v>
+      </c>
+      <c r="AU204">
+        <v>4.5630053481899999E-4</v>
+      </c>
+      <c r="AV204">
+        <v>2.375864626622E-3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>0</v>
       </c>
@@ -36562,8 +39022,20 @@
         <f t="shared" si="33"/>
         <v>0.39296794208893487</v>
       </c>
-    </row>
-    <row r="206" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS205">
+        <v>2.1808528833539998E-3</v>
+      </c>
+      <c r="AT205">
+        <v>3.632864086751E-3</v>
+      </c>
+      <c r="AU205">
+        <v>3.3943027515699999E-4</v>
+      </c>
+      <c r="AV205">
+        <v>2.3586638042809999E-3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>0</v>
       </c>
@@ -36695,8 +39167,20 @@
         <f t="shared" si="33"/>
         <v>0.39771646051379639</v>
       </c>
-    </row>
-    <row r="207" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS206">
+        <v>2.1677455195550002E-3</v>
+      </c>
+      <c r="AT206">
+        <v>3.64538479382E-3</v>
+      </c>
+      <c r="AU206">
+        <v>1.88829690419E-4</v>
+      </c>
+      <c r="AV206">
+        <v>2.3717620191580002E-3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>0</v>
       </c>
@@ -36828,8 +39312,20 @@
         <f t="shared" si="33"/>
         <v>0.36194415718717682</v>
       </c>
-    </row>
-    <row r="208" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS207">
+        <v>2.1725074454960001E-3</v>
+      </c>
+      <c r="AT207">
+        <v>3.644203813883E-3</v>
+      </c>
+      <c r="AU207">
+        <v>2.41606850192E-4</v>
+      </c>
+      <c r="AV207">
+        <v>2.3739673009830001E-3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>0</v>
       </c>
@@ -36961,8 +39457,20 @@
         <f t="shared" si="33"/>
         <v>0.39791666666666664</v>
       </c>
-    </row>
-    <row r="209" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS208">
+        <v>2.1817222291600001E-3</v>
+      </c>
+      <c r="AT208">
+        <v>3.645880391498E-3</v>
+      </c>
+      <c r="AU208">
+        <v>2.5681705620800001E-4</v>
+      </c>
+      <c r="AV208">
+        <v>2.3809272493580001E-3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>0</v>
       </c>
@@ -37094,8 +39602,20 @@
         <f t="shared" si="33"/>
         <v>0.41227229146692235</v>
       </c>
-    </row>
-    <row r="210" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS209">
+        <v>2.1658417281420002E-3</v>
+      </c>
+      <c r="AT209">
+        <v>3.6422613905740002E-3</v>
+      </c>
+      <c r="AU209">
+        <v>9.5066912350000006E-5</v>
+      </c>
+      <c r="AV209">
+        <v>2.3640759389619999E-3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>0</v>
       </c>
@@ -37227,8 +39747,20 @@
         <f t="shared" si="33"/>
         <v>0.40276406712734453</v>
       </c>
-    </row>
-    <row r="211" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS210">
+        <v>2.1640543905639999E-3</v>
+      </c>
+      <c r="AT210">
+        <v>3.6470406725489998E-3</v>
+      </c>
+      <c r="AU210">
+        <v>1.0110851937999999E-4</v>
+      </c>
+      <c r="AV210">
+        <v>2.3626331785449998E-3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>0</v>
       </c>
@@ -37360,8 +39892,20 @@
         <f t="shared" si="33"/>
         <v>0.34186284544524054</v>
       </c>
-    </row>
-    <row r="212" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS211">
+        <v>2.180482358014E-3</v>
+      </c>
+      <c r="AT211">
+        <v>3.6488846831590001E-3</v>
+      </c>
+      <c r="AU211">
+        <v>2.6625113443099998E-4</v>
+      </c>
+      <c r="AV211">
+        <v>2.375542154334E-3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>0</v>
       </c>
@@ -37493,8 +40037,20 @@
         <f t="shared" si="33"/>
         <v>0.50174912543728134</v>
       </c>
-    </row>
-    <row r="213" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS212">
+        <v>2.1892737108180002E-3</v>
+      </c>
+      <c r="AT212">
+        <v>3.6414068105189998E-3</v>
+      </c>
+      <c r="AU212">
+        <v>4.6915195598899999E-4</v>
+      </c>
+      <c r="AV212">
+        <v>2.3629109881280002E-3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>0</v>
       </c>
@@ -37626,8 +40182,20 @@
         <f t="shared" si="33"/>
         <v>0.51918522027475134</v>
       </c>
-    </row>
-    <row r="214" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS213">
+        <v>2.1713899699499998E-3</v>
+      </c>
+      <c r="AT213">
+        <v>3.647310549345E-3</v>
+      </c>
+      <c r="AU213">
+        <v>2.08749480907E-4</v>
+      </c>
+      <c r="AV213">
+        <v>2.3677968558980002E-3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>0</v>
       </c>
@@ -37759,8 +40327,20 @@
         <f t="shared" si="33"/>
         <v>0.54528478057889818</v>
       </c>
-    </row>
-    <row r="215" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS214">
+        <v>2.1783811177720001E-3</v>
+      </c>
+      <c r="AT214">
+        <v>3.6481023073270001E-3</v>
+      </c>
+      <c r="AU214">
+        <v>2.7091845988199998E-4</v>
+      </c>
+      <c r="AV214">
+        <v>2.3747606972700001E-3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>0</v>
       </c>
@@ -37892,8 +40472,20 @@
         <f t="shared" si="33"/>
         <v>0.50514958312898484</v>
       </c>
-    </row>
-    <row r="216" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS215">
+        <v>2.1753452693329999E-3</v>
+      </c>
+      <c r="AT215">
+        <v>3.648196741078E-3</v>
+      </c>
+      <c r="AU215">
+        <v>2.7920468512899999E-4</v>
+      </c>
+      <c r="AV215">
+        <v>2.3673462554249999E-3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>0</v>
       </c>
@@ -38025,8 +40617,20 @@
         <f t="shared" si="33"/>
         <v>0.51695331695331692</v>
       </c>
-    </row>
-    <row r="217" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS216">
+        <v>2.1863071225160001E-3</v>
+      </c>
+      <c r="AT216">
+        <v>3.6452120785299999E-3</v>
+      </c>
+      <c r="AU216">
+        <v>4.0614283912199998E-4</v>
+      </c>
+      <c r="AV216">
+        <v>2.366991747647E-3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>0</v>
       </c>
@@ -38158,8 +40762,20 @@
         <f t="shared" si="33"/>
         <v>0.52667645619187464</v>
       </c>
-    </row>
-    <row r="218" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS217">
+        <v>2.1757279795579999E-3</v>
+      </c>
+      <c r="AT217">
+        <v>3.6417573997360002E-3</v>
+      </c>
+      <c r="AU217">
+        <v>3.2746925097799998E-4</v>
+      </c>
+      <c r="AV217">
+        <v>2.3642490797259998E-3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>0</v>
       </c>
@@ -38291,8 +40907,20 @@
         <f t="shared" si="33"/>
         <v>0.52641599238457881</v>
       </c>
-    </row>
-    <row r="219" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS218">
+        <v>2.172645607355E-3</v>
+      </c>
+      <c r="AT218">
+        <v>3.6417047155439999E-3</v>
+      </c>
+      <c r="AU218">
+        <v>2.44156384745E-4</v>
+      </c>
+      <c r="AV218">
+        <v>2.371597237516E-3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>0</v>
       </c>
@@ -38424,8 +41052,20 @@
         <f t="shared" si="33"/>
         <v>0.50048685491723466</v>
       </c>
-    </row>
-    <row r="220" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS219">
+        <v>2.1726883119140001E-3</v>
+      </c>
+      <c r="AT219">
+        <v>3.6422403093480001E-3</v>
+      </c>
+      <c r="AU219">
+        <v>2.34391734139E-4</v>
+      </c>
+      <c r="AV219">
+        <v>2.3594562751389999E-3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>0</v>
       </c>
@@ -38557,8 +41197,20 @@
         <f t="shared" si="33"/>
         <v>0.51447876447876451</v>
       </c>
-    </row>
-    <row r="221" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS220">
+        <v>2.1765118834750001E-3</v>
+      </c>
+      <c r="AT220">
+        <v>3.6438648085380001E-3</v>
+      </c>
+      <c r="AU220">
+        <v>2.9665413040499999E-4</v>
+      </c>
+      <c r="AV220">
+        <v>2.3749357279200002E-3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>0</v>
       </c>
@@ -38690,8 +41342,20 @@
         <f t="shared" si="33"/>
         <v>0.5170483460559796</v>
       </c>
-    </row>
-    <row r="222" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS221">
+        <v>2.17353899286E-3</v>
+      </c>
+      <c r="AT221">
+        <v>3.6430883691339999E-3</v>
+      </c>
+      <c r="AU221">
+        <v>2.17341481573E-4</v>
+      </c>
+      <c r="AV221">
+        <v>2.3652008519069998E-3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>0</v>
       </c>
@@ -38823,8 +41487,20 @@
         <f t="shared" si="33"/>
         <v>0.61703076237182342</v>
       </c>
-    </row>
-    <row r="223" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS222">
+        <v>2.1741870224530001E-3</v>
+      </c>
+      <c r="AT222">
+        <v>3.638030748229E-3</v>
+      </c>
+      <c r="AU222">
+        <v>2.08349134548E-4</v>
+      </c>
+      <c r="AV222">
+        <v>2.36324270256E-3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>0</v>
       </c>
@@ -38956,8 +41632,20 @@
         <f t="shared" si="33"/>
         <v>0.61796246648793562</v>
       </c>
-    </row>
-    <row r="224" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS223">
+        <v>2.1784671323870001E-3</v>
+      </c>
+      <c r="AT223">
+        <v>3.6472381447629999E-3</v>
+      </c>
+      <c r="AU223">
+        <v>3.0864975196200002E-4</v>
+      </c>
+      <c r="AV223">
+        <v>2.3729327664589999E-3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>0</v>
       </c>
@@ -39089,8 +41777,20 @@
         <f t="shared" si="33"/>
         <v>0.62630208333333337</v>
       </c>
-    </row>
-    <row r="225" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS224">
+        <v>2.1824887715869998E-3</v>
+      </c>
+      <c r="AT224">
+        <v>3.6429729350390002E-3</v>
+      </c>
+      <c r="AU224">
+        <v>5.1801579589400004E-4</v>
+      </c>
+      <c r="AV224">
+        <v>2.372131625221E-3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>0</v>
       </c>
@@ -39222,8 +41922,20 @@
         <f t="shared" si="33"/>
         <v>0.60320998662505576</v>
       </c>
-    </row>
-    <row r="226" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS225">
+        <v>2.1745198695090001E-3</v>
+      </c>
+      <c r="AT225">
+        <v>3.6402055044900002E-3</v>
+      </c>
+      <c r="AU225">
+        <v>2.66705961769E-4</v>
+      </c>
+      <c r="AV225">
+        <v>2.3596155863399998E-3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>0</v>
       </c>
@@ -39355,8 +42067,20 @@
         <f t="shared" si="33"/>
         <v>0.62524872871987613</v>
       </c>
-    </row>
-    <row r="227" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS226">
+        <v>2.1835980489359999E-3</v>
+      </c>
+      <c r="AT226">
+        <v>3.645800342163E-3</v>
+      </c>
+      <c r="AU226">
+        <v>3.7259251338800001E-4</v>
+      </c>
+      <c r="AV226">
+        <v>2.3658927949289999E-3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>0</v>
       </c>
@@ -39488,8 +42212,20 @@
         <f t="shared" si="33"/>
         <v>0.62319804834774895</v>
       </c>
-    </row>
-    <row r="228" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS227">
+        <v>2.177728181491E-3</v>
+      </c>
+      <c r="AT227">
+        <v>3.6387713957530001E-3</v>
+      </c>
+      <c r="AU227">
+        <v>2.4361183698400001E-4</v>
+      </c>
+      <c r="AV227">
+        <v>2.3683878249680002E-3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>0</v>
       </c>
@@ -39621,8 +42357,20 @@
         <f t="shared" si="33"/>
         <v>0.62488928255093001</v>
       </c>
-    </row>
-    <row r="229" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS228">
+        <v>2.1856886632220002E-3</v>
+      </c>
+      <c r="AT228">
+        <v>3.6420956755110001E-3</v>
+      </c>
+      <c r="AU228">
+        <v>3.9406142500500002E-4</v>
+      </c>
+      <c r="AV228">
+        <v>2.3638404433100001E-3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>0</v>
       </c>
@@ -39754,8 +42502,20 @@
         <f t="shared" si="33"/>
         <v>0.62701252236135963</v>
       </c>
-    </row>
-    <row r="230" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS229">
+        <v>2.1835804118489999E-3</v>
+      </c>
+      <c r="AT229">
+        <v>3.6408170828960001E-3</v>
+      </c>
+      <c r="AU229">
+        <v>3.7609771843600002E-4</v>
+      </c>
+      <c r="AV229">
+        <v>2.366432803131E-3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>0</v>
       </c>
@@ -39887,8 +42647,20 @@
         <f t="shared" si="33"/>
         <v>0.59805735430157259</v>
       </c>
-    </row>
-    <row r="231" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS230">
+        <v>2.1789093315280001E-3</v>
+      </c>
+      <c r="AT230">
+        <v>3.637391279313E-3</v>
+      </c>
+      <c r="AU230">
+        <v>3.8866517254099999E-4</v>
+      </c>
+      <c r="AV230">
+        <v>2.366799837022E-3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>0</v>
       </c>
@@ -40020,8 +42792,20 @@
         <f t="shared" si="33"/>
         <v>0.63048198002605293</v>
       </c>
-    </row>
-    <row r="232" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS231">
+        <v>2.1757330998620002E-3</v>
+      </c>
+      <c r="AT231">
+        <v>3.648047399186E-3</v>
+      </c>
+      <c r="AU231">
+        <v>2.5441292973100001E-4</v>
+      </c>
+      <c r="AV231">
+        <v>2.3700766466180001E-3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>0</v>
       </c>
@@ -40153,8 +42937,20 @@
         <f t="shared" si="33"/>
         <v>0.70412866529371387</v>
       </c>
-    </row>
-    <row r="233" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS232">
+        <v>2.1759014233570001E-3</v>
+      </c>
+      <c r="AT232">
+        <v>3.6427373962499999E-3</v>
+      </c>
+      <c r="AU232">
+        <v>2.9608166074200003E-4</v>
+      </c>
+      <c r="AV232">
+        <v>2.369731551326E-3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>0</v>
       </c>
@@ -40286,8 +43082,20 @@
         <f t="shared" si="33"/>
         <v>0.7019639603158534</v>
       </c>
-    </row>
-    <row r="234" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS233">
+        <v>2.1730319467370002E-3</v>
+      </c>
+      <c r="AT233">
+        <v>3.6490051513430001E-3</v>
+      </c>
+      <c r="AU233">
+        <v>2.4625997779799999E-4</v>
+      </c>
+      <c r="AV233">
+        <v>2.3753260605539998E-3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>0</v>
       </c>
@@ -40419,8 +43227,20 @@
         <f t="shared" si="33"/>
         <v>0.70620963735717834</v>
       </c>
-    </row>
-    <row r="235" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS234">
+        <v>2.177325906093E-3</v>
+      </c>
+      <c r="AT234">
+        <v>3.6475813903760002E-3</v>
+      </c>
+      <c r="AU234">
+        <v>3.1455725930000001E-4</v>
+      </c>
+      <c r="AV234">
+        <v>2.3742205964889999E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>0</v>
       </c>
@@ -40552,8 +43372,20 @@
         <f t="shared" si="33"/>
         <v>0.70078109353094331</v>
       </c>
-    </row>
-    <row r="236" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS235">
+        <v>2.1778432546590001E-3</v>
+      </c>
+      <c r="AT235">
+        <v>3.6347708621570001E-3</v>
+      </c>
+      <c r="AU235">
+        <v>3.1336820837799998E-4</v>
+      </c>
+      <c r="AV235">
+        <v>2.3651285727390001E-3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>0</v>
       </c>
@@ -40685,8 +43517,20 @@
         <f t="shared" si="33"/>
         <v>0.70509301616346443</v>
       </c>
-    </row>
-    <row r="237" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS236">
+        <v>2.1751303569150001E-3</v>
+      </c>
+      <c r="AT236">
+        <v>3.6406561371909998E-3</v>
+      </c>
+      <c r="AU236">
+        <v>3.0266789277000002E-4</v>
+      </c>
+      <c r="AV236">
+        <v>2.368284371881E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>0</v>
       </c>
@@ -40818,8 +43662,20 @@
         <f t="shared" si="33"/>
         <v>0.71557473519027071</v>
       </c>
-    </row>
-    <row r="238" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS237">
+        <v>2.17721628208E-3</v>
+      </c>
+      <c r="AT237">
+        <v>3.6461042684489998E-3</v>
+      </c>
+      <c r="AU237">
+        <v>3.1673655562400001E-4</v>
+      </c>
+      <c r="AV237">
+        <v>2.3717561531120001E-3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>0</v>
       </c>
@@ -40951,8 +43807,20 @@
         <f t="shared" si="33"/>
         <v>0.69233100939678693</v>
       </c>
-    </row>
-    <row r="239" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS238">
+        <v>2.1773194530869998E-3</v>
+      </c>
+      <c r="AT238">
+        <v>3.6460627842740002E-3</v>
+      </c>
+      <c r="AU238">
+        <v>3.2129410240599998E-4</v>
+      </c>
+      <c r="AV238">
+        <v>2.3747379298260001E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>0</v>
       </c>
@@ -41084,8 +43952,20 @@
         <f t="shared" si="33"/>
         <v>0.70994281127721481</v>
       </c>
-    </row>
-    <row r="240" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS239">
+        <v>2.17927009331E-3</v>
+      </c>
+      <c r="AT239">
+        <v>3.642411370985E-3</v>
+      </c>
+      <c r="AU239">
+        <v>3.2093077351900002E-4</v>
+      </c>
+      <c r="AV239">
+        <v>2.369635882974E-3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>0</v>
       </c>
@@ -41217,8 +44097,20 @@
         <f t="shared" si="33"/>
         <v>0.70723882093442947</v>
       </c>
-    </row>
-    <row r="241" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS240">
+        <v>2.1817872403099999E-3</v>
+      </c>
+      <c r="AT240">
+        <v>3.6348525498119998E-3</v>
+      </c>
+      <c r="AU240">
+        <v>3.4048479421400001E-4</v>
+      </c>
+      <c r="AV240">
+        <v>2.3566333024879998E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>0</v>
       </c>
@@ -41350,8 +44242,20 @@
         <f t="shared" si="33"/>
         <v>0.70912867174364558</v>
       </c>
-    </row>
-    <row r="242" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS241">
+        <v>2.1788211851520001E-3</v>
+      </c>
+      <c r="AT241">
+        <v>3.6413100131949998E-3</v>
+      </c>
+      <c r="AU241">
+        <v>3.3723330109799998E-4</v>
+      </c>
+      <c r="AV241">
+        <v>2.3658373094629999E-3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>0</v>
       </c>
@@ -41483,8 +44387,20 @@
         <f t="shared" si="33"/>
         <v>0.76722902194288234</v>
       </c>
-    </row>
-    <row r="243" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS242">
+        <v>2.1744846270970002E-3</v>
+      </c>
+      <c r="AT242">
+        <v>3.6382763100569998E-3</v>
+      </c>
+      <c r="AU242">
+        <v>3.0261790440300001E-4</v>
+      </c>
+      <c r="AV242">
+        <v>2.3656606700940002E-3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>0</v>
       </c>
@@ -41616,8 +44532,20 @@
         <f t="shared" si="33"/>
         <v>0.76060206548011422</v>
       </c>
-    </row>
-    <row r="244" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS243">
+        <v>2.1730322638630001E-3</v>
+      </c>
+      <c r="AT243">
+        <v>3.6449417768509998E-3</v>
+      </c>
+      <c r="AU243">
+        <v>2.7578230060399999E-4</v>
+      </c>
+      <c r="AV243">
+        <v>2.3681158458090002E-3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>0</v>
       </c>
@@ -41749,8 +44677,20 @@
         <f t="shared" si="33"/>
         <v>0.76153931709487266</v>
       </c>
-    </row>
-    <row r="245" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS244">
+        <v>2.174206729639E-3</v>
+      </c>
+      <c r="AT244">
+        <v>3.637914075407E-3</v>
+      </c>
+      <c r="AU244">
+        <v>2.8777403348299998E-4</v>
+      </c>
+      <c r="AV244">
+        <v>2.3633952350199999E-3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>0</v>
       </c>
@@ -41882,8 +44822,20 @@
         <f t="shared" si="33"/>
         <v>0.76692715448931637</v>
       </c>
-    </row>
-    <row r="246" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS245">
+        <v>2.1760782985609998E-3</v>
+      </c>
+      <c r="AT245">
+        <v>3.6317131672769999E-3</v>
+      </c>
+      <c r="AU245">
+        <v>3.0696275815299999E-4</v>
+      </c>
+      <c r="AV245">
+        <v>2.364042046344E-3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>0</v>
       </c>
@@ -42015,8 +44967,20 @@
         <f t="shared" si="33"/>
         <v>0.76012151339409006</v>
       </c>
-    </row>
-    <row r="247" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS246">
+        <v>2.1741203216429999E-3</v>
+      </c>
+      <c r="AT246">
+        <v>3.6438049633710002E-3</v>
+      </c>
+      <c r="AU246">
+        <v>2.79314162729E-4</v>
+      </c>
+      <c r="AV246">
+        <v>2.3693751863840002E-3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>0</v>
       </c>
@@ -42148,8 +45112,20 @@
         <f t="shared" si="33"/>
         <v>0.76665576273034564</v>
       </c>
-    </row>
-    <row r="248" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS247">
+        <v>2.1745135686829999E-3</v>
+      </c>
+      <c r="AT247">
+        <v>3.6420781380350001E-3</v>
+      </c>
+      <c r="AU247">
+        <v>2.9391396019700001E-4</v>
+      </c>
+      <c r="AV247">
+        <v>2.3744507825670001E-3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>0</v>
       </c>
@@ -42281,8 +45257,20 @@
         <f t="shared" si="33"/>
         <v>0.76657504123144582</v>
       </c>
-    </row>
-    <row r="249" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS248">
+        <v>2.17520248093E-3</v>
+      </c>
+      <c r="AT248">
+        <v>3.645575063789E-3</v>
+      </c>
+      <c r="AU248">
+        <v>3.1319346223000001E-4</v>
+      </c>
+      <c r="AV248">
+        <v>2.3718910005899999E-3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>0</v>
       </c>
@@ -42414,8 +45402,20 @@
         <f t="shared" si="33"/>
         <v>0.76742642177472897</v>
       </c>
-    </row>
-    <row r="250" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS249">
+        <v>2.1762971827800001E-3</v>
+      </c>
+      <c r="AT249">
+        <v>3.634603116413E-3</v>
+      </c>
+      <c r="AU249">
+        <v>3.0605719521400001E-4</v>
+      </c>
+      <c r="AV249">
+        <v>2.368293558911E-3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>0</v>
       </c>
@@ -42547,8 +45547,20 @@
         <f t="shared" si="33"/>
         <v>0.75924595057769917</v>
       </c>
-    </row>
-    <row r="251" spans="1:43" x14ac:dyDescent="0.3">
+      <c r="AS250">
+        <v>2.1731531195499998E-3</v>
+      </c>
+      <c r="AT250">
+        <v>3.6447819966839998E-3</v>
+      </c>
+      <c r="AU250">
+        <v>2.9473815414300002E-4</v>
+      </c>
+      <c r="AV250">
+        <v>2.3710017834039998E-3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:48" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>0</v>
       </c>
@@ -42679,6 +45691,18 @@
       <c r="AQ251">
         <f t="shared" si="33"/>
         <v>0.76070917299856844</v>
+      </c>
+      <c r="AS251">
+        <v>2.1757479537010001E-3</v>
+      </c>
+      <c r="AT251">
+        <v>3.6346765949040001E-3</v>
+      </c>
+      <c r="AU251">
+        <v>3.1173482066100002E-4</v>
+      </c>
+      <c r="AV251">
+        <v>2.36261340198E-3</v>
       </c>
     </row>
   </sheetData>
